--- a/output_requirements_distances_g_min.xlsx
+++ b/output_requirements_distances_g_min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,62 +463,62 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;26	Mobile terminated CS service delivery via an alternative MME in MME pool&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;B.1	LCS privacy selection flow rule&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23273-i20.docx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['', 'This procedure is an optional feature for VLR and MME. It enables the network to continue delivering mobile terminated CS services to UEs via an alternative MME in the MME pool where the UE is located when the MME to which the UE was registered fails without restart or fails for a long duration.', '', 'NOTE 1:\tUEs in idle mode are not aware of an MME failure until they need to send some uplink data or signalling (e.g. a periodic Tracking Area Update) or until they are forced to re-attach e.g. via the network trigerred service restoration procedure. Without support of the procedure defined in this clause, UEs that remain under LTE may not be able to receive mobile terminated CS services for a long duration after an MME failure without restart or a long MME failure.', '', 'The following requirements shall apply if the VLR and MME support this feature.', '', 'When the VLR has to page the UE for a mobile terminated CS service (e.g. upon receipt of an incoming CS call), if the VLR detects that the MME serving the UE is no longer in service, the VLR should send an SGs paging request with a CS restoration indicator to one alternative MME in the same MME pool. The VLR should load-balance the paging requests among the available MMEs in the pool during the restoration procedure.', '', 'The VLR may know the set of MMEs pertaining to the same MME pool by local configuration or by checking the MME Group ID within the MME name that MMEs signal to the VLR in the SGsAP-LOCATION-UDATE-REQUEST, SGsAP-RESET-INDICATION or SGsAP-RESET-ACK messages. The MME should send an SGsAP-RESET-INDICATION message to the VLR after restart.', '', 'The VLR may detect that an MME is no longer in service if there are no more SCTP associations in service with that MME.', '', 'NOTE 2:\tSemi-permanent SCTP associations are established between the MME and VLR, i.e. the SCTP associations remain up under normal circumstances.', '', 'The VLR should adjust its paging retransmission delay to avoid requesting again the UE to re-attach before the restoration procedure completes.', '', 'The MME shall behave as specified in clause\xa014.1.3 upon receipt of an SGs paging request not including the CS restoration indicator.', '', 'The MME shall accept the SGs paging request and proceed as follows upon receipt of an SGs paging request including the CS restoration indicator:', '', '-\tif the IMSI is unknown by the MME, or if the IMSI is known and the UE is marked as EMM-DEREGISTERED, the MME shall send the paging request with the location information provided by the VLR, regardless of the value of the "MME-Reset" indicator. If no such location information is provided, the MME may either page the UE in all the tracking areas corresponding to that MME or in the tracking areas served by the MME and by the VLR, or reject the paging request per operator policy. The paging request shall include the IMSI and the CN domain indicator set to "PS" to request the UE to re-attach;', '', "-\tif the IMSI is known by the MME and the UE is considered to be attached to both EPS and non-EPS services or for SMS only (for an SGs paging request with an 'SMS indicator'), the MME shall page the UE based on the location information stored in the MME.", '', 'The MME may support and apply this procedure to a UE using extended idle mode DRX for MT-SMS service, and if so, the MME shall page the UE with the S-TMSI.', '', "NOTE 3:\tHow the alternative MME knows the UE's DRX parameter or the extended DRX parameters to page the UE is implementation dependent.", '', 'Upon receipt of a paging request including the IMSI and the CN domain indicator set to "PS", or upon receipt of a Service Reject with Cause #10 – Implicitly detached (when using S-TMSI paging), the UE re-attaches to one MME of the pool (that may not be necessarily the MME that initiated the paging procedure towards the UE) and a new SGs association is established with the VLR. This may be a different VLR than the VLR that initiated the SGs paging procedure, e.g. if Intra Domain Connection of RAN Nodes to Multiple CN Nodes is deployed for GERAN or UTRAN (see 3GPP TS\xa023.236\xa0[24]).', '', 'NOTE 4:\tThe UE can receive a Service Reject with Cause #10 – "Implicitly detached" upon being paged by an alternative MME with the S-TMSI assigned by the MME that has failed. The UE then re-attaches to the network as specified in clause\xa05.6.2.2.1 of 3GPP TS\xa024.301\xa0[19].', '', 'If the new SGs association is established towards the same VLR, the VLR should repeat the SGs paging request after the UE has re-attached to non-EPS services. The MT CS service or SMS is then delivered according to  normal procedures.', '', 'If the new SGs association is established towards a different VLR, the MT CS service may be delivered via the new VLR using Mobile Terminating Roaming Retry or Mobile Terminating Roaming Forwarding (see 3GPP TS\xa023.018\xa0[23]); the on-going MT SMS is retransmitted by the SMS-SC using the existing SMS procedures (SMS alert).', '', 'Subsequent MT CS services are delivered as per normal procedures.', '', 'NOTE 5:\tA UE with ISR active before the MME failure and using GERAN or UTRAN radio access will not receive the paging request sent by the alternative MME. The VLR can deliver the MT CS service by paging the UE on the A/Iu interface as per existing principles of 3GPP TS\xa029.118\xa0[14] when the UE does not respond to a first paging on the SGs interface. Paging the UE on the A interface fails if the network operates in NMO I and the UE is in PS connected mode in GERAN.', '', 'See 3GPP TS\xa029.118\xa0[14] for a comprehensive description.', '']</t>
+          <t>['', 'A 5GS-MT-LR may be applied to more than one LCS privacy data in the LCS privacy profile, e.g. one or more privacy classes as defined in clause\xa05.4.2.2 and LPI as defined in clause\xa05.4.2.3. The 5GS-MT-LR may also require POI as defined in clause\xa05.4.4. The Privacy selection flow is shown in Figure B.1-1.', '', '----media/image63.emf----', '', 'Figure B.1-1: Privacy selection flow diagram', '', '', '', '', 'Annex C (informative):', 'PNI-NPN architecture to support location service with signalling optimisation', '', 'Figure C-1 shows the PNI-NPN architecture to support location services with optimisation of signalling latency and privacy, with the corresponding functional descriptions are defined in clause\xa05.13.', '', 'When UE access the NG-RAN in the local network, during the registration procedure or service request procedure, NG-RAN selects the Serving AMF in the public network. With appropriate configuration, local AMF cannot be selected as the serving AMF for the UE.', '', 'Assuming NG-RAN 1 is the serving RAN of UE. NG-RAN 2 and NG-RAN 3 illustrated in the figure below is for positioning signal measurement.', '', '----media/image64.emf----', '', 'Figure C-1 PNI-NPN architecture to support location service with signalling optimisation', '', '', 'Annex D (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-05&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-190455&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#84 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after approval at TSG SA#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on UE Assisted and UE Based Positioning Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on LCS privacy selection flow rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to EPC Interconnection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LCS Privacy feature&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of Concurrent Location Request&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on positioning access selection in the 5GC-MO-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadcast of Assistance Data for NR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and Improvement of Low Power Periodic and Triggered Location&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of NG-RAN Location Service Exposure Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3GPP access specific aspects&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of 5GC-MT-LR procedure for the commercial location service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of 5GC-MO-LR Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Unified Location Service Exposure Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of CHF in eLCS architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;IMS Interworking for location service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of location service exposure description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Delete Editor\'s Notes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the status of event reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add Coordinate Reference System &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to bulk operation MT-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to MT-LR procedure for 3GPP and Non-3GPP access&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of the EN on the location information in Clause 5.3.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Broadcast of Assistance Data by an LMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Deferred 5GC-MT-LR procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of 5GC-MT-LR Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Location Services for Miscellaneous Errors and Inconsistencies&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of the LMF selection function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of the procedure of obtaining Non-UE Associated Network Assistance Data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to MO-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LCS Assistance Data Broadcast procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0074&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Cancellation of a Deferred 5GC-MT-LR procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0076&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Unified Location Service Exposure Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of exception support for Periodic or Triggered Location Reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of editorial modification for procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on LCS QoS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on GMLC and NEF authorization and privacy check&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Incorrect Services Operation for LMF non UE message transfer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LMF selection &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.273 - Correction on User Location Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on group authorization and location reporting method for bulk operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Complementing the function of EventNotify service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to cancellation of reporting of location events procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0106&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of editorial modification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to roaming architecture for NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to LMF function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0111&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to the service operation between AF and NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the functionality of GMLC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0113&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Cancellation procedure of deferred MT-LR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0114&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Response Method&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0115&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0116&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to service exposure descriptions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to use of NEF Service operations in procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0119&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on MT-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add NEF function in location service exposure procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0121&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Information Elements in location procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location QoS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolve EN for NG-RAN Location Service Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0125&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of several procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200422&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0126&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of I-NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#90E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200948&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0131&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to Bulk Operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#90E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200948&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0136&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of NAS message used for event reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0140&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDM interaction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0141&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on source of Client type information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0142&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of NEF service type in bulk operation procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0143&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to conveyed area event information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0153&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of LCS client type provided by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0144&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location estimate in Local Coordinates&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;17.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.2041588387027271</v>
+        <v>0.2575731267790252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;26	Mobile terminated CS service delivery via an alternative MME in MME pool&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;D.2	Reporting for sponsored data connectivity&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23503-i20.docx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['', 'This procedure is an optional feature for VLR and MME. It enables the network to continue delivering mobile terminated CS services to UEs via an alternative MME in the MME pool where the UE is located when the MME to which the UE was registered fails without restart or fails for a long duration.', '', 'NOTE 1:\tUEs in idle mode are not aware of an MME failure until they need to send some uplink data or signalling (e.g. a periodic Tracking Area Update) or until they are forced to re-attach e.g. via the network trigerred service restoration procedure. Without support of the procedure defined in this clause, UEs that remain under LTE may not be able to receive mobile terminated CS services for a long duration after an MME failure without restart or a long MME failure.', '', 'The following requirements shall apply if the VLR and MME support this feature.', '', 'When the VLR has to page the UE for a mobile terminated CS service (e.g. upon receipt of an incoming CS call), if the VLR detects that the MME serving the UE is no longer in service, the VLR should send an SGs paging request with a CS restoration indicator to one alternative MME in the same MME pool. The VLR should load-balance the paging requests among the available MMEs in the pool during the restoration procedure.', '', 'The VLR may know the set of MMEs pertaining to the same MME pool by local configuration or by checking the MME Group ID within the MME name that MMEs signal to the VLR in the SGsAP-LOCATION-UDATE-REQUEST, SGsAP-RESET-INDICATION or SGsAP-RESET-ACK messages. The MME should send an SGsAP-RESET-INDICATION message to the VLR after restart.', '', 'The VLR may detect that an MME is no longer in service if there are no more SCTP associations in service with that MME.', '', 'NOTE 2:\tSemi-permanent SCTP associations are established between the MME and VLR, i.e. the SCTP associations remain up under normal circumstances.', '', 'The VLR should adjust its paging retransmission delay to avoid requesting again the UE to re-attach before the restoration procedure completes.', '', 'The MME shall behave as specified in clause\xa014.1.3 upon receipt of an SGs paging request not including the CS restoration indicator.', '', 'The MME shall accept the SGs paging request and proceed as follows upon receipt of an SGs paging request including the CS restoration indicator:', '', '-\tif the IMSI is unknown by the MME, or if the IMSI is known and the UE is marked as EMM-DEREGISTERED, the MME shall send the paging request with the location information provided by the VLR, regardless of the value of the "MME-Reset" indicator. If no such location information is provided, the MME may either page the UE in all the tracking areas corresponding to that MME or in the tracking areas served by the MME and by the VLR, or reject the paging request per operator policy. The paging request shall include the IMSI and the CN domain indicator set to "PS" to request the UE to re-attach;', '', "-\tif the IMSI is known by the MME and the UE is considered to be attached to both EPS and non-EPS services or for SMS only (for an SGs paging request with an 'SMS indicator'), the MME shall page the UE based on the location information stored in the MME.", '', 'The MME may support and apply this procedure to a UE using extended idle mode DRX for MT-SMS service, and if so, the MME shall page the UE with the S-TMSI.', '', "NOTE 3:\tHow the alternative MME knows the UE's DRX parameter or the extended DRX parameters to page the UE is implementation dependent.", '', 'Upon receipt of a paging request including the IMSI and the CN domain indicator set to "PS", or upon receipt of a Service Reject with Cause #10 – Implicitly detached (when using S-TMSI paging), the UE re-attaches to one MME of the pool (that may not be necessarily the MME that initiated the paging procedure towards the UE) and a new SGs association is established with the VLR. This may be a different VLR than the VLR that initiated the SGs paging procedure, e.g. if Intra Domain Connection of RAN Nodes to Multiple CN Nodes is deployed for GERAN or UTRAN (see 3GPP TS\xa023.236\xa0[24]).', '', 'NOTE 4:\tThe UE can receive a Service Reject with Cause #10 – "Implicitly detached" upon being paged by an alternative MME with the S-TMSI assigned by the MME that has failed. The UE then re-attaches to the network as specified in clause\xa05.6.2.2.1 of 3GPP TS\xa024.301\xa0[19].', '', 'If the new SGs association is established towards the same VLR, the VLR should repeat the SGs paging request after the UE has re-attached to non-EPS services. The MT CS service or SMS is then delivered according to  normal procedures.', '', 'If the new SGs association is established towards a different VLR, the MT CS service may be delivered via the new VLR using Mobile Terminating Roaming Retry or Mobile Terminating Roaming Forwarding (see 3GPP TS\xa023.018\xa0[23]); the on-going MT SMS is retransmitted by the SMS-SC using the existing SMS procedures (SMS alert).', '', 'Subsequent MT CS services are delivered as per normal procedures.', '', 'NOTE 5:\tA UE with ISR active before the MME failure and using GERAN or UTRAN radio access will not receive the paging request sent by the alternative MME. The VLR can deliver the MT CS service by paging the UE on the A/Iu interface as per existing principles of 3GPP TS\xa029.118\xa0[14] when the UE does not respond to a first paging on the SGs interface. Paging the UE on the A interface fails if the network operates in NMO I and the UE is in PS connected mode in GERAN.', '', 'See 3GPP TS\xa029.118\xa0[14] for a comprehensive description.', '']</t>
+          <t>['', 'There are two deployment scenarios for usage reporting for sponsored data connectivity. The Sponsor Identifier and Application Service Provider Identifier are provided for sponsored services to the PCF from the AF over the Rx/N5 interface.', '', 'In the first scenario the PCF assigns a service specific Charging Key for a sponsored IP flow. The Charging key is used by the SMF to generate separate accounting records for offline charging and and/or usage data records for online charging for the sponsored flows. Correlation of accounting records and usage data records from multiple users per sponsor and/or application service provider is then performed using the charging key.', '', 'In a second scenario the Sponsor Identifier and Application Service Provider Identity is included in PCC rules from the PCF to the SMF as defined in clause\xa06.3.1. For this scenario the same Charging Key may be used both for IP flows that are sponsored and for flows that are not sponsored. Accounting records generated by the SMF for offline charging include the Sponsor Identity and the Application Service Provider Identity. Correlation of accounting records from multiple users per sponsor and/or application service provider can then be based on Sponsor Identity and Application Service Provider Identity instead of the Charging Key. Usage reporting for online charging including Sponsor Identity and Application Service Provider Identity has not been specified in this release of the specification. PCC rules that include a Sponsor Identity and an Application Service Provider Identity should include a Charging Method that indicates offline charging.', '', '', 'Annex E (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;Date&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Meeting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TDoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rev&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cat&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Subject/Comment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;New version&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-170933&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#78 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update after TSG SA#78 Approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PCF interaction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove EN related with Session binding&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction for background data transfer for TS\xa023.503&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0004&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Notification control for GBR QoS flow&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of Reflective QoS Timer in PDU session related policy information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of editor\'s notes and addition of references to empty sections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0007&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influence of additional non-standardized QoS parameters on QoS Flow Binding&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Description of components in URSP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS rule generation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE policies granularity and UE assistance for policy evaluation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resource reservation for services sharing priority&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add Nchf service in service base representation architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Traffic mapping information that disallows UL packets&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving NWDAF to 23.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Default URSP Rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE selects a PDU Session based on URSP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the handling of event triggers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of UDR policy related subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove EN related with EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove some ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF subscription to AMF and SMF events and events reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to description of session management related policy enforcement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Supporting 3GPP PS Data Off in 5GS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Session Binding Mechanism for non-IP PDU Session&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on enforcement of Application Detection Control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolve the Editor\'s Note on Presence Reporting Area&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of event trigger section&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on AF using legacy Rx binding with relevant PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180125&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of PDU Session type IPv4v6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180478&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional PDU Session Type in Route Selection Descriptor&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to URSP and UE preferences for NSSP and SSCMSP&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180481&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on using PSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180481&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UE policy configuration&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Policy Control Request Triggers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on match all URSP rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180480&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on policy provision in roaming case&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180478&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with the definition of PCF-AMF and PCF-SMF interfaces&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180482&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cleanups on the support of session binding for Ethernet PDU session Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180486&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NEF and UDR in LBO architecture for AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180486&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network slicing information for binding the AF request to the relevant PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support use of DNN for URSP traffic descriptor &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.503 Clarification on Access and mobility related policy&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.503 Clarification on BSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.503 ePDG/N3IWF selection information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to the UE Policy Section 6.1.2.2.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The interaction between PCF and AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180484&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0067&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to PFD management descriptions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Protocol criteria for domain name matching&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180484&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Delivery of UE policies&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180485&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;How to differentiate the PSIs in different PLMNs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180477&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrected the name of a PCF service operation in clause 6.1.2.2.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180485&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of Configured NSSAIs in Roaming Scenarios - 23.503&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180478&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Alignment for policy control application specific information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Update for usage monitoring support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0085&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Update for sponsored data connectivity support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Provisioning of ANDSP via signalling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180483&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Provisioning of ANDSP via signalling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS flow binding for URLLC services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-80&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180487&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of editor\'s notes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PDU Session selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; UE Policy Delivery in case of UE not reachable&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180724&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0099&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of tracing in 5GS signalling: PCF related data &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Number of packet filters supported by UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Policy Control Request triggers for updating the AM Policy Association &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N28 session termination&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;URSP updates and Application to PDU session association re-evaluation &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0111&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on initial UE policy provisioning&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Notification Control applicability&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-81&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180723&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;s</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.2041588387027271</v>
+        <v>0.257394697929674</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;B.1	LCS privacy selection flow rule&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;E.4	Session Breakout&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>23273-i20.docx</t>
+          <t>23548-i20.docx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -528,22 +528,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['', 'A 5GS-MT-LR may be applied to more than one LCS privacy data in the LCS privacy profile, e.g. one or more privacy classes as defined in clause\xa05.4.2.2 and LPI as defined in clause\xa05.4.2.3. The 5GS-MT-LR may also require POI as defined in clause\xa05.4.4. The Privacy selection flow is shown in Figure B.1-1.', '', '----media/image63.emf----', '', 'Figure B.1-1: Privacy selection flow diagram', '', '', '', '', 'Annex C (informative):', 'PNI-NPN architecture to support location service with signalling optimisation', '', 'Figure C-1 shows the PNI-NPN architecture to support location services with optimisation of signalling latency and privacy, with the corresponding functional descriptions are defined in clause\xa05.13.', '', 'When UE access the NG-RAN in the local network, during the registration procedure or service request procedure, NG-RAN selects the Serving AMF in the public network. With appropriate configuration, local AMF cannot be selected as the serving AMF for the UE.', '', 'Assuming NG-RAN 1 is the serving RAN of UE. NG-RAN 2 and NG-RAN 3 illustrated in the figure below is for positioning signal measurement.', '', '----media/image64.emf----', '', 'Figure C-1 PNI-NPN architecture to support location service with signalling optimisation', '', '', 'Annex D (informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-05&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-190455&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#84 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after approval at TSG SA#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on UE Assisted and UE Based Positioning Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on LCS privacy selection flow rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to EPC Interconnection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LCS Privacy feature&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of Concurrent Location Request&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on positioning access selection in the 5GC-MO-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Broadcast of Assistance Data for NR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and Improvement of Low Power Periodic and Triggered Location&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of NG-RAN Location Service Exposure Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3GPP access specific aspects&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of 5GC-MT-LR procedure for the commercial location service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of 5GC-MO-LR Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Unified Location Service Exposure Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of CHF in eLCS architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;IMS Interworking for location service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190606&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of location service exposure description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Delete Editor\'s Notes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the status of event reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add Coordinate Reference System &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to bulk operation MT-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to MT-LR procedure for 3GPP and Non-3GPP access&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of the EN on the location information in Clause 5.3.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Broadcast of Assistance Data by an LMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Deferred 5GC-MT-LR procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of 5GC-MT-LR Procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Location Services for Miscellaneous Errors and Inconsistencies&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of the LMF selection function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of the procedure of obtaining Non-UE Associated Network Assistance Data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to MO-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LCS Assistance Data Broadcast procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0074&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Cancellation of a Deferred 5GC-MT-LR procedure for TS 23.273&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0076&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Completion of Unified Location Service Exposure Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0080&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Addition of exception support for Periodic or Triggered Location Reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of editorial modification for procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on LCS QoS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on GMLC and NEF authorization and privacy check&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Incorrect Services Operation for LMF non UE message transfer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to LMF selection &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS23.273 - Correction on User Location Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on group authorization and location reporting method for bulk operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Complementing the function of EventNotify service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to cancellation of reporting of location events procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0106&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Package of editorial modification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0107&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to roaming architecture for NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to LMF function&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0111&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to the service operation between AF and NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the functionality of GMLC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0113&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Cancellation procedure of deferred MT-LR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0114&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Response Method&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0115&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0116&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to service exposure descriptions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to use of NEF Service operations in procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0119&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on MT-LR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add NEF function in location service exposure procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0121&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Information Elements in location procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location QoS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolve EN for NG-RAN Location Service Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200423&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0125&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of several procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-07&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#88E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200422&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0126&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of I-NEF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#90E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200948&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0131&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to Bulk Operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#90E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200948&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0136&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of NAS message used for event reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0140&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDM interaction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0141&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on source of Client type information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0142&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of NEF service type in bulk operation procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0143&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to conveyed area event information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0153&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of LCS client type provided by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0144&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Location estimate in Local Coordinates&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;17.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#91E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-210</t>
+          <t>['', 'As traffic offload via UL CL/BP is not supported over EPC, when a PDN connection is initiated in EPS or a PDU Session is handed-over to EPS, the SMF+PGW-C can send to the EASDF DNS message handling rules requesting the EASDF to transparently forward any DNS traffic. The SMF+PGW-C can send to the EASDF new DNS message handling rules (with actual reporting and actions as defined in clause 6.2.3.2.2) when the PDU Session/PDN connection is handed-over (back) to 5GS.', '', 'When a PDN connection is initiated in EPS, the SMF+PGW-C can also select a normal DNS Server (i.e. different from an EASDF) to serve the PDN Connection, and then indicate to the UE to use the EASDF as DNS Server when the PDU Session/PDN connection is moved to 5GS.', '', '', '', '', 'Annex F (Informative):', 'EAS Relocation on Simultaneous Connectivity over Source and Target PSA', '', 'This annex describes how EAS relocation can make use of network capabilities that, at PSA change, provide simultaneous connectivity over the source and the target PSA during a transient period.', '', 'At PSA change, simultaneous connectivity to Application over former and new PSA allows the application to build its own EAS relocation solution and minimize the impact on latency:', '', '-\tIf the decision for when to start using a target EAS is taken by the application, this decision can consider application specific aspects, like for example, the time interval between packets or end of a video frame to minimize impact on latency.', '', '-\tWhen there are multiple applications on a PDU Session, if connectivity over the former PSA is maintained for some time, each application can schedule EAS relocation to suit the application specific needs without interfering with the other applications.', '', 'The procedure is shown in below Figure F-1:', '', '----media/image36.emf----', '', 'Figure F-1: EAS relocation on simultaneous connectivity over source and target PSA', '', 'The user has established a PDU Session. This PDU Session has a local PSA (source L-PSA), which could be the PSA of a PDU Session with Distributed Anchor connectivity or one additional local PSA of a PDU Session with Session Breakout. There has been an EAS Discovery procedure as described in clauses 6.2.2.2 and 6.2.3.2 (the procedure is conditioned to the connectivity model) for one or more applications. Application traffic is served by source EAS over the Local PSA.', '', '1.\tUser mobility triggers SMF to select a new Local PSA (target L-PSA) that is closer to current user location. In this scenario, the re-anchoring procedures that provide Simultaneous Connectivity over Source and Target PSA are described in TS\xa023.502\xa0[3]:', '', '-\tFor Distributed Anchor, in clause\xa04.3.5.2 for Change of SSC mode 3 PDU Session Anchor with multiple PDU Sessions and in clause\xa04.3.5.3 for Change of SSC mode 3 PDU Session Anchor with IPv6 Multi-homed PDU Session.', '', '-\tFor Session Breakout, in clause\xa04.3.5.7 for Simultaneous change of Branching Point or UL CL and additional PSA for a PDU Session.', '', '\tThe SMF may notify an AF for the early and/or late notifications on the UP-path change event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '2.\tWhen the connectivity is available on target L-PSA, the connectivity via source L-PSA is still available during certain time (that is provisioned and controlled as described in these TS\xa023.502\xa0[3] procedures). The application traffic can continue to run over the established UE-EAS connections.', '', '3.\tThe EAS Rediscovery Procedures described in clauses 6.2.2.3 and 6.2.3.3 allow the UE to discover a new EAS (i.e. target EAS) for the application that is closer to the UE over the new path (there could be multiple triggers as described in those respective clauses). If multiple applications are being served by this PDU Session, each of them performs rediscovery. This discovery procedure may lead to EAS reselection.', '', '4.\tNew L4 connections may now be established between the UE and the target EAS with the following considerations:', '', '-\tFor Distributed anchor or session breakout with MH, the UE uses the IP address /prefix associated with the target PSA (that is referred to as IP#2 in Figure F-1).', '', '-\tFor Session breakout with ULCL, there has not been connection/IP address change. Same IP address is still used by UE (that is referred to as IP#1 in Figure F-1).', '', 'NOTE\xa01:\tIf Session Breakout is used for connectivity and if the application wants to build service continuity on simultaneous connections, source EAS and target EAS cannot share the same IP address (e.g. by using anycast).', '', '\tEAS Relocation may involve EAS context migration in the case of stateful applications. The following examples are part of the application implementation details and fall out of 3GPP specification scope:', '', '-\tIn case that SMF notifies an AF for the early and/or late notification in Step 1, based on the notifications, the AF can interact with the source Application server, which can recreate the context to the target EAS and then provide switching instructions to the Application client.', '', '-\tThe Application server can recreate the service context when first contacted by the client using a Context Id: when suitable, the application client sets up a connection to the target EAS including a Context Id. The target EAS uses this Context Id to retrieve the latest service context available and subsequent updates, if needed.', '', '-\tThe Application server can recreate the context when first contacted by the client using a Context Id: the application client sets up a connection to the target EAS but for some time it sends traffic to both source and target EAS. In this way it triggers the context migration before the actual EAS switch.', '', '-\tThe source Application server is able to provide the client with switching instructions when a new EAS is selected: upon UE request (if UE selected) or as an EAS initiative (if server selected), the source EAS provides the Application client with switching instructions while it continues to serve traffic and drives any context migration towards the selected target EAS.', '', 'NOTE\xa02:\tThis application procedure may be designed to solve EAS relocation in all scenarios, not only when triggered by Edge Relocation, which may simplify the application design.', '', '5.\tAt some points all traffic for all applications in this session are sending traffic to their target EAS only and traffic ceases over the source L- PSA. The source L-PSA is then released. The timers should be set to allow EAS relocation.', '', '6.\tUE only maintains connection(s) to target EAS(s).', '', '', '', '', 'Annex G (Informative):', 'Change history', '', '&lt;b&gt;Change history&lt;/b&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-03&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;S2-2100114&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Proposed skeleton approved at S2#143E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#92E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210365&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#92E for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-210942&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for presentation to TSG SA#93E for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2021-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA#93E&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after SA#93E approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;17.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to uniqueness of Update related to a buffered DNS message in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction and removal of misleading Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Not all EC scenarios requires EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify the local AF subscription for the QoS Monitoring during UE mobility&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates on EAS Discovery Procedure with EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mega CR for minor fixes to TS 23.548&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Neasdf_DNSContext services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS rediscovery: Edge DNS Client based EAS (re-)discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE authorization for 5GC assisted EAS discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updating related to EAS Discovery Procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Improvements and correction to annex C &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of DNS server address during EPC IWK&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of EASDF functional description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Added the situation of AF relocation to uplink Packet Buffer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2021-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#94E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-211290&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Local NEF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related EHE in EC architecture&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of EAS discovery procedure and BaselineDNSPattern management in EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;On NAT between PSA UPF and EASDF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing inconsistency in the definition of ECS Address Configuration Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#95E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections of EDC functionality description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction related to EAS IP Address in EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on enabling EAS IP Replacement procedure by AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of EAS Deployment Information Management procedures and services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Parameter supplement of EDI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#96&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220398&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of ECS Address Configuration Information to SA6\'s definition&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#97E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-220777&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EDNS Client Subnet option correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications for local event notification control&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;17.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Support of influencing UPF and EAS (re)location for collections of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;18.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0075&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Procedure for PDU Session supporting HR-SBO in VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2022-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#98E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-221086&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0082&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Influencing UPF and EAS (re)location for collections of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0073&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EAS Re-discovery Procedure with EASDF in HR roaming scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0083&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Edge Relocation within the same hosting PLMN\'s EHEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) support&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4: AF traffic influence for common EAS, DNAI selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The EAS discovery procedure with V-EASDF using IP replacement mechanism for supporting HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0089&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling AF traffic influence for HR-SBO PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;DNAI mapping based on conclusions in TR 23.700-48&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#4 23.548 common EAS enforcement for set of UEs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#5 EDI extension for EAS discovery for GSMA OPG scenario&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Common DNAI relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;ECS Address Configuration Information delivery in roaming&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Information sharing between PLMN to support GSMA OPG&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Select common DNAI/EAS for a set of UEs &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EASDF functional description update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UL CL/BP insertion for common EAS Discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-04&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC correction to implementation of CR0095R1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.1.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Home Routed-Session Breakout (HR-SBO) - offload policy structure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EAS Discovery: Resolve ENs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EACI provisioning from VPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;KI#1 EDI provision for HR-SBO&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;18.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2023-06&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SA#100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-230462&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="fo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2575731053011946</v>
+        <v>0.2526986981720964</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;C.8	Stage-2 flow for providing UE with list of preferred PLMN/access technology combinations in SNPN after registration&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;F.1	5GS Bridge information reporting&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23122-i30.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['', 'The stage-2 flow for providing UE with the list of preferred PLMN/access technology combinations in an SNPN after registration is indicated in figure\xa0C.8.1. The selected SNPN is a non-subscribed SNPN. The AMF is located in the selected SNPN. The UDM is located in the HPLMN.', '', 'In this procedure, the list of preferred PLMN/access technology combinations is sent in plain text or sent within the secured packet, without the SOR-SNPN-SI.', '', 'Based on HPLMN policy, if the HPLMN supports sending the list of preferred PLMN/access technology combinations in plain text or secured packet to the UE when the UE is registered to an SNPN, then the procedure is triggered:', '', '-\tIf the UDM supports obtaining a list of preferred PLMN/access technology combinations or a secured packet from the SOR-AF, the HPLMN policy for the SOR-AF invocation is present in the UDM and the SOR-AF provides the UDM with a new list of preferred PLMN/access technology combinations or a secured packet for a UE identified by SUPI; or', '', '-\tWhen a new list of preferred PLMN/access technology combinations or a secured packet becomes available in the UDM (i.e., retrieved from the UDR).', '', '', '', '----media/image11.emf----Figure\xa0C.8.1: Procedure for configuring UE with list of preferred PLMN/access technology combinations in an SNPN after registration', '', 'For the steps below, security protection is described in 3GPP\xa0TS\xa033.501\xa0[66].', '', '1)\tThe SOR-AF to the UDM: Nudm_ParameterProvision_Update request is sent to the UDM to trigger the update of the UE with the new list of preferred PLMN/access technology combinations or a secured packet for a UE identified by SUPI.', '', '2)\tThe UDM to the AMF: The UDM notifies the changes of the user profile to the affected AMF by the means of invoking Nudm_SDM_Notification service operation. The Nudm_SDM_Notification service operation contains the steering of roaming information that needs to be delivered transparently to the UE over NAS within the Access and Mobility Subscription data. If the HPLMN or subscribed SNPN decided that the UE is to acknowledge successful security check of the received steering of roaming information, the Nudm_SDM_Notification service operation also contains an indication that the UDM requests an acknowledgement from the UE as part of the steering of roaming information.', '', '3)\tThe AMF to the UE: the AMF sends a DL NAS TRANSPORT message to the served UE. The AMF includes in the DL NAS TRANSPORT message the steering of roaming information received from the UDM.', '', '4)\tUpon receiving the steering of roaming information, the UE shall perform a security check on the steering of roaming information included in the DL NAS TRANSPORT message to verify that the steering of roaming information is provided by HPLMN, and:', '', 'a)\tif the security check is successful:', '', '-\tif the steering of roaming information contains a secured packet (see 3GPP\xa0TS\xa031.115\xa0[67]) and the service "data download via SMS Point-to-point" is allocated and activated in the USIM Service Table (see 3GPP\xa0TS\xa031.102\xa0[40]), the ME shall upload the secured packet to the USIM using procedures in 3GPP\xa0TS\xa031.111\xa0[41]; and', '', '-\tif the steering of roaming information contains the list of preferred PLMN/access technology combinations, the ME shall replace the highest priority entries in the "Operator Controlled PLMN Selector with Access Technology" list stored in the ME with the received list of preferred PLMN/access technology combinations, and delete the PLMNs identified by the list of preferred PLMN/access technology combinations from the Forbidden PLMN list and from the Forbidden PLMNs for GPRS service list, if they are present in these lists.', '', '\tIf the UDM has requested an acknowledgement from the UE in the DL NAS TRANSPORT message, the UE sends an UL NAS TRANSPORT message to the serving AMF with an SOR transparent container including the UE acknowledgement and the UE shall set the "ME support of SOR-SNPN-SI" indicator to "supported".', '', '\tIf the UDM has not requested an acknowledgement from the UE then step 5 is skipped; and', '', 'b)\tif the security check is not successful and the UE is in automatic network selection mode, then:', '', '-\tif the UE has a stored SOR-CMCI, then:', '', '-\tif there are ongoing PDU sessions or services, the current SNPN is considered as lowest priority and the UE shall apply the actions in clause\xa0C.4.2;', '', '-\tif there are no ongoing PDU sessions or services, the UE shall release the current N1 NAS signalling connection locally and attempt to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority;', '', '-\tif the UE does not have a SOR-CMCI stored in the non-volatile memory of the ME, then:', '', '-\tif there are ongoing PDU sessions or services, the UE shall wait until it moves to idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]) before attempting to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority. If the UE has an established emergency PDU session then the UE shall attempt to perform the SNPN selection after the emergency PDU session is released and after the UE enters idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]); or', '', '-\tif there are no ongoing PDU sessions or services, the UE shall release the current N1 NAS signalling connection locally and attempt to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority.', '', '\tStep 5 is skipped;', '', 'NOTE\xa01:\tWhen the UE is in the manual mode of operation or the current chosen non-subscribed SNPN is part of the user controlled prioritized list of preferred SNPNs, the UE stays on current chosen non-subscribed SNPN.', '', '5)\tThe AMF to the UDM: If the UL NAS TRANSPORT message with an SOR transparent container is received, the AMF uses the Nudm_SDM_Info service operation to provide the received SOR transparent container to the UDM. If the HPLMN decided that the UE is to acknowledge successful security check of the received steering of roaming information in step 2, the UDM verifies that the acknowledgement is provided by the UE. The UDM shall store the "ME support of SOR-SNPN-SI" indicator.', '', '\tIf the present flow was invoked by the UDM after receiving from the SOR-AF a list of preferred PLMN/access technology combinations or a secured packetI for a UE identified by SUPI using an Nudm_ParameterProvision_Update request, and the UDM verification of the UE acknowledgement is successful, then the UDM informs the SOR-AF about successful delivery of the steering of roaming information using Nsoraf_SoR_Info (SUPI of the UE, successful delivery); and', '', '6)\tThe UDM to the SOR-AF: Nsoraf_SoR_Info (SUPI of the UE, successful delivery, "ME support of SOR-SNPN-SI" indicator). If the HPLMN policy for the SOR-AF invocation is present and the HPLMN UDM received and verified the UE acknowledgement in step 5, then the UDM informs the SOR-AF about successful delivery of the steering of roaming information to the UE. The UDM shall include the "ME support of SOR-SNPN-SI" indicator.', '', 'If:', '', '-\tthe UE in manual mode of operation encounters security check failure of SOR information in DL NAS TRANSPORT message; and', '', '-\tupon switching to automatic network selection mode the UE remembers that it is still registered on non-subscribed SNPN where the security check failure of SOR information was encountered;', '', 'the UE shall wait until it moves to idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see\xa03GPP\xa0TS\xa024.501\xa0[64]) before attempting to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current registered SNPN is considered as lowest priority. If the UE has an established emergency PDU session then the UE shall attempt to perform the SNPN selection after the emergency PDU session is released and after the UE enters idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]).', '', 'NOTE\xa02:\tThe receipt of the steering of roaming information by itself does not trigger the release of the emergency PDU session.', '', '', 'Annex D (informative):', 'Change history', '', '', '', '&lt;span style="font-size:16pt"&gt;TSG#&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Tdoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SPEC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VERS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;REV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PHASE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CAT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N_VER&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SUBJECT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;comment&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;03.22&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;8.2.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Split of 03.22/R99 to 03.22 and 23.122&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;#6&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Was approved in the TSGN#6 plenary&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;#4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N1-99573&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;001&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PLMN selection for GPRS mobiles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mirrored from CRA032r2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;REMOVED in V3.1.1, where it is not approved by SMG2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;#6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N1-99D13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;002&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of Figure A.2 in Annex A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mirrored from CR006r1for 23.022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#7&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;N1-000546&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3.1.1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;004&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UMTS references in 23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Correction of references&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#8&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;N1-000796&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;003&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Modification of PLMN Selection Procedures to support UMTS+COMPACT Network Selection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;WI: &lt;/span&gt;&lt;span style="font-size:16pt"&gt;GSM/UMTS interworking&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Note As a result of two conflicting CRs N1-000796 is merged with the existing text in V.3.2.0 by the rapporteur&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000443/ N1-001020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications of the PLMN Selection procedures for UMTS and COMPACT.&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.0&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.4.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of text in version3.4.0&lt;/span&gt;&lt;span style="color:000000;font-size:16pt"&gt; (There was text to be deleted in clause 4.4.3.2.1 bullet point 2)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.Oct.2000&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Implementation correction&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.1&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a systematic search for "TS" and replace it with "3GPP TS" has gone wrong as much more than the TSs for Technical Specifications have been changed also.&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1 Nov..2000&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Implementation correction&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000674/ N1-001415&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;010&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of terminology "In UMTS", "In GSM"&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000671/ N1-001236&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;012&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Restoration of figure A.1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000671/ N1-001237&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;013&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of figure 2a with PLMN selection for UMTS&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010207/ N1-010472&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;014&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the PLMN selection for UMTS regarding high quality signal&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010168/ N1-010224&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;016&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Roaming restrictions for GPRS service&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010205/ N1-010334&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;017&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;remove use of GSM as default access technology in PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-01089/ N1-010443&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;018&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Requirement of priority on High Quality Signal cell concerning Acceptable cell (for limited service as emergency call)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010186/ N1-010489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;019&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010186/ N1-010490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;020&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010180&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Equivalent handling of PLMNs with different PLMN codes&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Upgraded to Release 4.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010352&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;024&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stored list of equivalent PLMNs and error/abnormal cases&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM-UMTS INTERWORKING&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;027&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections and clarifications to PLMN Selection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM-UMTS INTERWORKING&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010275&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;030&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Partial Roaming – restriction by location area&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;032&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of \'Requirement of priority on High Quality Signal cell concerning Acceptable cell&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;034&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with stage 1 specification on PLMN background search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-16&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020243&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;048&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Role of the equivalent PLMNs list in the PLMN user reselection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020369&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;051&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of CBQ2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;COMPACT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020383&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;052&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Applicability of the lists of "forbidden LAs"&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020367&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;055&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Routing Area Update at network change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-18&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020549&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;058&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clenup done to references by ETSI/MCC&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NP-21&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-030405&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;061&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of RPLMNAcT field&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-23&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;067&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Definition of MS idle mode&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-23&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;068&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Usage of HPLMNAcT by the UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the use of the RAT during background scanning.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Role of ePLMN list in manual PLMN selection mode&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Roaming not allowed for GPRS update state&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;073&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Data field -&amp;gt; data file&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-25&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040375&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;76&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the registered PLMN for UEs that support network sharing in a shared network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NTShar&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-25&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040378&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;77&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of definitions of PLMNs in the same country&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040513&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;086&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;spa</t>
+          <t>['', '----media/image265.emf----', '', 'Figure F.1-1: 5GS Bridge information reporting', '', 'Identities of 5GS Bridge and UPF/NW-TT ports are pre-configured on the UPF based on deployment. The SMF requests the UPF/NW-TT to measure and report the clock drift between the TSN GM time and 5GS GM time for one or more TSN time domains.', '', '1.\tPDU Session Establishment as defined clause\xa04.3.2.2.1-1 is used to establish a PDU Session serving for TSC.', '', '\tDuring this procedure, the SMF selects a UPF, which supports functions as defined in clause\xa05.28.1 of TS\xa023.501\xa0[2], for the PDU Session.', '', '\tDuring this procedure, the SMF receives the UE-DS-TT residence time, DS-TT MAC address for this PDU Session and port management capabilities from the DS-TT/UE in PDU Session Establishment request and receives the allocated port number for DS-TT Ethernet port and user-plane Node ID in N4 Session Establishment Response message. The UPF allocates the port number for DS-TT, user-plane Node ID after receiving N4 Session Establishment Request message.', '', '2.\tThe SMF sends the information received in step\xa01 to the TSN AF via PCF to establish/modify the 5GS Bridge. The Npcf_PolicyAuthorization_Notify message in step\xa02b is delivered via the pre-configured AF session as described in clause\xa04.16.5.1. The TSN AF stores the binding relationship between 5GS user-plane Node ID, MAC address of the DS-TT Ethernet port and also updates 5GS bridge delay as defined in clause\xa05.27.5 of TS\xa023.501\xa0[2] for future configuration. The TSN AF requests creation of a new AF session associated with the MAC address of the DS-TT Ethernet port using the Npcf_PolicyAuthorization_Create operation (step\xa02c) and subscribes for TSN events over the newly created AF session using the Npcf_PolicyAuthorization_Subscribe operation (step\xa02d).', '', '\tIn the case of TSN AF support for direct notification from UPF for PMIC and UMIC, the subscription in step\xa02d has following additional information: "Notification Target Address for PMIC/UMIC UPF event" and "Correlation ID for PMIC/UMIC UPF event".', '', '\tUsing the 5GS user-plane Node ID received in step\xa02b the TSN AF subscribes with the NW-TT for receiving user plane node management information changes for the 5GS bridge indicated by the 5GS user-plane Node ID as described in clause\xa05.28.3.1 of TS\xa023.501\xa0[2].', '', '\tAfter receiving a User plane node Management Information Container (UMIC) containing the NW-TT port numbers, the TSN AF subscribes with the NW-TT for receiving NW-TT port management information changes for the NW-TT port indicated by each of the NW-TT port numbers as described in clause\xa05.28.3.1 of TS\xa023.501\xa0[2].', '', '\tThe TSN AF can use any PDU Session to subscribe with the NW-TT for bridge or port management information notifications. Similarly, the UPF can use any PDU Session to send bridge or port management information notifications.', '', '3.\tIf DS-TT has indicated support for the TSN Time domain number in the port management capabilities, TSN AF provides the TSN Time domain number to DS-TT. Optionally, TSN AF provides the TSN Time domain number to NW-TT.', '', '4.\tIf supported according to the port management capabilities received from DS-TT, TSN AF retrieves txPropagationDelay and Traffic Class table from DS-TT. TSN AF also retrieves txPropagationDelay and Traffic Class table from NW-TT.', '', 'NOTE:\tIt is assumed that distribution of TSN GM time towards NW-TT and DS-TT for the TSN time domain is activated before TSN AF retrieves txPropagationDelay so that DS-TT and NW-TT can convert txPropagationDelay from 5GS time to TSN time before reporting txPropagationDelay to TSN AF.', '', '5.\tIf DS-TT supports neighbor discovery according to the port management capabilities received from DS-TT, then TSN AF:', '', '-\tprovides DS-TT port neighbor discovery configuration to DS-TT to configure and activate the LLDP agent in DS-TT;', '', '-\tsubscribes to receive Neighbor discovery information for each discovered neighbor of DS-TT (see Table 5.28.3.1-1 in TS\xa023.501\xa0[2].', '', '\tIf DS-TT does not support neighbor discovery, then TSN AF:', '', '-\tprovides DS-TT port neighbor discovery configuration to NW-TT to configure and activate the LLDP agent in NW-TT to perform neighbor discovery on behalf of DS-TT;', '', '-\tsubscribes to receive Neighbor discovery information for each discovered neighbor of DS-TT from NW-TT (see Table 5.28.3.1-1 in TS\xa023.501\xa0[2].', '', '\tTSN AF:', '', '-\twrites NW-TT port neighbor discovery configuration to NW-TT to configure and activate the LLDP agent in NW-TT;', '', '-\tsubscribes to receive Neighbor discovery information for each discovered neighbor of NW-TT (see Table 5.28.3.1-1 in TS\xa023.501\xa0[2]).', '', '6.\tTSN AF receives notifications from DS-TT (If DS-TT supports neighbour discovery) and NW-TT on discovered neighbors of DS-TT and NW-TT.', '', '7.\tThe TSN AF constructs the above received information as 5GS Bridge information and sends them to the CNC to register a new TSN Bridge or update an existing TSN Bridge.', '']</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.2544425782861848</v>
+        <v>0.1903550947087914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;C.8	Stage-2 flow for providing UE with list of preferred PLMN/access technology combinations in SNPN after registration&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;F.2	5GS Bridge configuration&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23122-i31.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -578,22 +578,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['', 'The stage-2 flow for providing UE with the list of preferred PLMN/access technology combinations in an SNPN after registration is indicated in figure\xa0C.8.1. The selected SNPN is a non-subscribed SNPN. The AMF is located in the selected SNPN. The UDM is located in the HPLMN.', '', 'In this procedure, the list of preferred PLMN/access technology combinations is sent in plain text or sent within the secured packet, without the SOR-SNPN-SI.', '', 'Based on HPLMN policy, if the HPLMN supports sending the list of preferred PLMN/access technology combinations in plain text or secured packet to the UE when the UE is registered to an SNPN, then the procedure is triggered:', '', '-\tIf the UDM supports obtaining a list of preferred PLMN/access technology combinations or a secured packet from the SOR-AF, the HPLMN policy for the SOR-AF invocation is present in the UDM and the SOR-AF provides the UDM with a new list of preferred PLMN/access technology combinations or a secured packet for a UE identified by SUPI; or', '', '-\tWhen a new list of preferred PLMN/access technology combinations or a secured packet becomes available in the UDM (i.e., retrieved from the UDR).', '', '', '', '----media/image11.emf----Figure\xa0C.8.1: Procedure for configuring UE with list of preferred PLMN/access technology combinations in an SNPN after registration', '', 'For the steps below, security protection is described in 3GPP\xa0TS\xa033.501\xa0[66].', '', '1)\tThe SOR-AF to the UDM: Nudm_ParameterProvision_Update request is sent to the UDM to trigger the update of the UE with the new list of preferred PLMN/access technology combinations or a secured packet for a UE identified by SUPI.', '', '2)\tThe UDM to the AMF: The UDM notifies the changes of the user profile to the affected AMF by the means of invoking Nudm_SDM_Notification service operation. The Nudm_SDM_Notification service operation contains the steering of roaming information that needs to be delivered transparently to the UE over NAS within the Access and Mobility Subscription data. If the HPLMN or subscribed SNPN decided that the UE is to acknowledge successful security check of the received steering of roaming information, the Nudm_SDM_Notification service operation also contains an indication that the UDM requests an acknowledgement from the UE as part of the steering of roaming information.', '', '3)\tThe AMF to the UE: the AMF sends a DL NAS TRANSPORT message to the served UE. The AMF includes in the DL NAS TRANSPORT message the steering of roaming information received from the UDM.', '', '4)\tUpon receiving the steering of roaming information, the UE shall perform a security check on the steering of roaming information included in the DL NAS TRANSPORT message to verify that the steering of roaming information is provided by HPLMN, and:', '', 'a)\tif the security check is successful:', '', '-\tif the steering of roaming information contains a secured packet (see 3GPP\xa0TS\xa031.115\xa0[67]) and the service "data download via SMS Point-to-point" is allocated and activated in the USIM Service Table (see 3GPP\xa0TS\xa031.102\xa0[40]), the ME shall upload the secured packet to the USIM using procedures in 3GPP\xa0TS\xa031.111\xa0[41]; and', '', '-\tif the steering of roaming information contains the list of preferred PLMN/access technology combinations, the ME shall replace the highest priority entries in the "Operator Controlled PLMN Selector with Access Technology" list stored in the ME with the received list of preferred PLMN/access technology combinations, and delete the PLMNs identified by the list of preferred PLMN/access technology combinations from the Forbidden PLMN list and from the Forbidden PLMNs for GPRS service list, if they are present in these lists.', '', '\tIf the UDM has requested an acknowledgement from the UE in the DL NAS TRANSPORT message, the UE sends an UL NAS TRANSPORT message to the serving AMF with an SOR transparent container including the UE acknowledgement and the UE shall set the "ME support of SOR-SNPN-SI" indicator to "supported".', '', '\tIf the UDM has not requested an acknowledgement from the UE then step 5 is skipped; and', '', 'b)\tif the security check is not successful and the UE is in automatic network selection mode, then:', '', '-\tif the UE has a stored SOR-CMCI, then:', '', '-\tif there are ongoing PDU sessions or services, the current SNPN is considered as lowest priority and the UE shall apply the actions in clause\xa0C.4.2;', '', '-\tif there are no ongoing PDU sessions or services, the UE shall release the current N1 NAS signalling connection locally and attempt to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority;', '', '-\tif the UE does not have a SOR-CMCI stored in the non-volatile memory of the ME, then:', '', '-\tif there are ongoing PDU sessions or services, the UE shall wait until it moves to idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]) before attempting to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority. If the UE has an established emergency PDU session then the UE shall attempt to perform the SNPN selection after the emergency PDU session is released and after the UE enters idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]); or', '', '-\tif there are no ongoing PDU sessions or services, the UE shall release the current N1 NAS signalling connection locally and attempt to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority.', '', '\tStep 5 is skipped;', '', 'NOTE\xa01:\tWhen the UE is in the manual mode of operation or the current chosen non-subscribed SNPN is part of the user controlled prioritized list of preferred SNPNs, the UE stays on current chosen non-subscribed SNPN.', '', '5)\tThe AMF to the UDM: If the UL NAS TRANSPORT message with an SOR transparent container is received, the AMF uses the Nudm_SDM_Info service operation to provide the received SOR transparent container to the UDM. If the HPLMN decided that the UE is to acknowledge successful security check of the received steering of roaming information in step 2, the UDM verifies that the acknowledgement is provided by the UE. The UDM shall store the "ME support of SOR-SNPN-SI" indicator.', '', '\tIf the present flow was invoked by the UDM after receiving from the SOR-AF a list of preferred PLMN/access technology combinations or a secured packetI for a UE identified by SUPI using an Nudm_ParameterProvision_Update request, and the UDM verification of the UE acknowledgement is successful, then the UDM informs the SOR-AF about successful delivery of the steering of roaming information using Nsoraf_SoR_Info (SUPI of the UE, successful delivery); and', '', '6)\tThe UDM to the SOR-AF: Nsoraf_SoR_Info (SUPI of the UE, successful delivery, "ME support of SOR-SNPN-SI" indicator). If the HPLMN policy for the SOR-AF invocation is present and the HPLMN UDM received and verified the UE acknowledgement in step 5, then the UDM informs the SOR-AF about successful delivery of the steering of roaming information to the UE. The UDM shall include the "ME support of SOR-SNPN-SI" indicator.', '', 'If:', '', '-\tthe UE in manual mode of operation encounters security check failure of SOR information in DL NAS TRANSPORT message; and', '', '-\tupon switching to automatic network selection mode the UE remembers that it is still registered on non-subscribed SNPN where the security check failure of SOR information was encountered;', '', 'the UE shall wait until it moves to idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see\xa03GPP\xa0TS\xa024.501\xa0[64]) before attempting to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current registered SNPN is considered as lowest priority. If the UE has an established emergency PDU session then the UE shall attempt to perform the SNPN selection after the emergency PDU session is released and after the UE enters idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]).', '', 'NOTE\xa02:\tThe receipt of the steering of roaming information by itself does not trigger the release of the emergency PDU session.', '', '', 'Annex D (informative):', 'Change history', '', '', '', '&lt;span style="font-size:16pt"&gt;TSG#&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Tdoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SPEC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VERS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;REV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PHASE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CAT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N_VER&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SUBJECT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;comment&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;03.22&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;8.2.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Split of 03.22/R99 to 03.22 and 23.122&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;#6&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Was approved in the TSGN#6 plenary&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;#4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N1-99573&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;001&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PLMN selection for GPRS mobiles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mirrored from CRA032r2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;REMOVED in V3.1.1, where it is not approved by SMG2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;#6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N1-99D13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;002&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of Figure A.2 in Annex A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mirrored from CR006r1for 23.022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#7&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;N1-000546&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3.1.1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;004&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UMTS references in 23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Correction of references&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#8&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;N1-000796&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;003&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Modification of PLMN Selection Procedures to support UMTS+COMPACT Network Selection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;WI: &lt;/span&gt;&lt;span style="font-size:16pt"&gt;GSM/UMTS interworking&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Note As a result of two conflicting CRs N1-000796 is merged with the existing text in V.3.2.0 by the rapporteur&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000443/ N1-001020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications of the PLMN Selection procedures for UMTS and COMPACT.&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.0&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.4.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of text in version3.4.0&lt;/span&gt;&lt;span style="color:000000;font-size:16pt"&gt; (There was text to be deleted in clause 4.4.3.2.1 bullet point 2)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.Oct.2000&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Implementation correction&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.1&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a systematic search for "TS" and replace it with "3GPP TS" has gone wrong as much more than the TSs for Technical Specifications have been changed also.&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1 Nov..2000&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Implementation correction&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000674/ N1-001415&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;010&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of terminology "In UMTS", "In GSM"&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000671/ N1-001236&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;012&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Restoration of figure A.1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000671/ N1-001237&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;013&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of figure 2a with PLMN selection for UMTS&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010207/ N1-010472&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;014&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the PLMN selection for UMTS regarding high quality signal&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010168/ N1-010224&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;016&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Roaming restrictions for GPRS service&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010205/ N1-010334&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;017&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;remove use of GSM as default access technology in PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-01089/ N1-010443&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;018&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Requirement of priority on High Quality Signal cell concerning Acceptable cell (for limited service as emergency call)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010186/ N1-010489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;019&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010186/ N1-010490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;020&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010180&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Equivalent handling of PLMNs with different PLMN codes&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Upgraded to Release 4.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010352&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;024&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stored list of equivalent PLMNs and error/abnormal cases&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM-UMTS INTERWORKING&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;027&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections and clarifications to PLMN Selection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM-UMTS INTERWORKING&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010275&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;030&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Partial Roaming – restriction by location area&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;032&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of \'Requirement of priority on High Quality Signal cell concerning Acceptable cell&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;034&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with stage 1 specification on PLMN background search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-16&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020243&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;048&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Role of the equivalent PLMNs list in the PLMN user reselection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020369&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;051&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of CBQ2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;COMPACT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020383&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;052&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Applicability of the lists of "forbidden LAs"&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020367&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;055&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Routing Area Update at network change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-18&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020549&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;058&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clenup done to references by ETSI/MCC&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NP-21&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-030405&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;061&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of RPLMNAcT field&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-23&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;067&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Definition of MS idle mode&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-23&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;068&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Usage of HPLMNAcT by the UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the use of the RAT during background scanning.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Role of ePLMN list in manual PLMN selection mode&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Roaming not allowed for GPRS update state&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;073&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Data field -&amp;gt; data file&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-25&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040375&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;76&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the registered PLMN for UEs that support network sharing in a shared network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NTShar&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-25&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040378&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;77&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of definitions of PLMNs in the same country&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040513&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;086&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;spa</t>
+          <t>['', 'For 5GS integrating with fully-centralized model TSN network, the CNC provides TSN information to the AF.', '', '----media/image266.emf----', '', 'Figure F.2-1: 5GS Bridge information configuration', '', '1.\tCNC provides per-stream filtering and policing parameters according to clause\xa08.6.5.2.1 of IEEE\xa0Std\xa0802.1Q\xa0[66] to AF and the AF uses them to derive TSN QoS information and related flow information. The CNC provides the forwarding rule to AF according to clause\xa08.8.1 of IEEE\xa0Std\xa0802.1Q\xa0[66]. The TSN AF uses this information to identify the DS-TT MAC address of corresponding PDU session.', '', '\tThe AF determines if the stream is UE-UE TSC and divides the stream into UL and DL streams for PDU Sessions corresponding to ingress DS-TT Ethernet port and egress DS-TT port(s) as specified in clause\xa05.28.2 of TS\xa023.501\xa0[2] and separately triggers following procedures for the UL and DL streams.', '', '2.\tThe AF determines the MAC address of a PDU Session based on the previous stored associations, then triggers an AF request procedure. The AF request includes the DS-TT MAC address of the PDU session.', '', '\tBased on the information received from the CNC, 5GS bridge delay information and the UE-DS-TT residence time, the TSN AF determines the TSN QoS information and TSC Assistance Container for one or more TSN streams and sends them to the PCF. The TSN AF also provides Service Data Flow Filter containing Flow description also includes Ethernet Packet Filters.', '', '3.\tWhen PCF receives the AF request, the PCF finds the correct SMF based on the DS-TT MAC address of the PDU session and notifies the SMF via Npcf_SMPolicyControl_UpdateNotify message.', '', '\tAfter mapping the received TSN QoS parameters for TSN streams to 5GS QoS, the PCF triggers Npcf_SMPolicyControl_UpdateNotify message to update the PCC rule to the SMF. The PCC rule includes the Ethernet Packet Filters, the 5GS QoS profile along with TSC Assistance Container.', '', '4.\tSMF may trigger the PDU Session Modification procedure to establish/modify a QoS Flow to transfer the TSN streams. During this procedure, the SMF provides the information received in PCC rules to the UPF via N4 Session Modification procedure.', '', '\tUpon reception of the TSC Assistance Container, the SMF determine the TSCAI for QoS flow and sends the TSCAI along with the QoS profile to the NG RAN.', '', '5.\tIf needed, the CNC provides additional information (e.g. the gate control list as defined in clause\xa08.6.8.4 of IEEE\xa0Std\xa0802.1Q\xa0[66]) to the TSN AF.', '', '6.\tThe AF determines the MAC address of a PDU Session for the configured port based on the previous stored associations, this is used to deliver the Port Management information to the correct SMF that manages the port via PCF. The AF triggers an AF request procedure. The AF request includes the DS-TT MAC address (i.e. the MAC address of the PDU Session), TSN QoS Parameters, Port Management information Container and the related port number as defined in clause\xa05.28.3 of TS\xa023.501\xa0[2]. The port number is used by SMF to decide whether the configured port is in DS-TT or NW-TT.', '', 'NOTE:\tWhen TSN AF needs to convey 5GS Bridge- or NW-TT port-specific information to the NW-TT/UPF, the TSN AF chooses an arbitrary AF Session related to the corresponding 5GS bridge and sends the 5GS Bridge-specific information inside a User plane node Management Information Container (UMIC) or NW-TT Port Management Information Container (NW-TT PMIC) as specified in TS\xa023.501\xa0[2].', '', '7.\tThe PCF determines the SMF based on the MAC address received in the AF request, the PCF maps the TSN QoS information provided by the AF to PCC rules as described in clause\xa05.28.4 of TS\xa023.501\xa0[2]. The PCF includes the TSC Assistance Container received from the AF with the PCC rules and forwards it to the SMF. The PCF transparently transports the received Port Management information Container and related port number to SMF via Npcf_SMPolicyControl_UpdateNotify message.', '', '8a.\tIf the SMF decides the port is on DS-TT based on the received port number, the SMF transports the received Port Management information Container to the UE/DS-TT in PDU Session Modification Request message.', '', '8b.\tIf the SMF decides the port is on NW-TT based on the received port number, the SMF transports the received Port Management information Container to the UPF/NW-TT in N4 Session Modification Request message. SMF provides the Ethernet Packet Filters as part of the N4 Packet Detection rule to the UPF/NW-TT.', '', 'If the UPF sends a Clock Drift Report to the SMF as described in clause\xa05.27.2 of TS\xa023.501\xa0[2], the SMF adjusts the Burst Arrival Time, Periodicity and Survival Time (if present) from a TSN grandmaster clock to the 5G clock and sends the updated TSCAI to NG-RAN.', '']</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2544337087516673</v>
+        <v>0.1902557998152384</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;C.8	Stage-2 flow for providing UE with list of preferred PLMN/access technology combinations in SNPN after registration&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;F.3	BMCA procedure&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23122-i32.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -603,72 +603,72 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['', 'The stage-2 flow for providing UE with the list of preferred PLMN/access technology combinations in an SNPN after registration is indicated in figure\xa0C.8.1. The selected SNPN is a non-subscribed SNPN. The AMF is located in the selected SNPN. The UDM is located in the HPLMN.', '', 'In this procedure, the list of preferred PLMN/access technology combinations is sent in plain text or sent within the secured packet, without the SOR-SNPN-SI.', '', 'Based on HPLMN policy, if the HPLMN supports sending the list of preferred PLMN/access technology combinations in plain text or secured packet to the UE when the UE is registered to an SNPN, then the procedure is triggered:', '', '-\tIf the UDM supports obtaining a list of preferred PLMN/access technology combinations or a secured packet from the SOR-AF, the HPLMN policy for the SOR-AF invocation is present in the UDM and the SOR-AF provides the UDM with a new list of preferred PLMN/access technology combinations or a secured packet for a UE identified by SUPI; or', '', '-\tWhen a new list of preferred PLMN/access technology combinations or a secured packet becomes available in the UDM (i.e., retrieved from the UDR).', '', '', '', '----media/image11.emf----Figure\xa0C.8.1: Procedure for configuring UE with list of preferred PLMN/access technology combinations in an SNPN after registration', '', 'For the steps below, security protection is described in 3GPP\xa0TS\xa033.501\xa0[66].', '', '1)\tThe SOR-AF to the UDM: Nudm_ParameterProvision_Update request is sent to the UDM to trigger the update of the UE with the new list of preferred PLMN/access technology combinations or a secured packet for a UE identified by SUPI.', '', '2)\tThe UDM to the AMF: The UDM notifies the changes of the user profile to the affected AMF by the means of invoking Nudm_SDM_Notification service operation. The Nudm_SDM_Notification service operation contains the steering of roaming information that needs to be delivered transparently to the UE over NAS within the Access and Mobility Subscription data. If the HPLMN or subscribed SNPN decided that the UE is to acknowledge successful security check of the received steering of roaming information, the Nudm_SDM_Notification service operation also contains an indication that the UDM requests an acknowledgement from the UE as part of the steering of roaming information.', '', '3)\tThe AMF to the UE: the AMF sends a DL NAS TRANSPORT message to the served UE. The AMF includes in the DL NAS TRANSPORT message the steering of roaming information received from the UDM.', '', '4)\tUpon receiving the steering of roaming information, the UE shall perform a security check on the steering of roaming information included in the DL NAS TRANSPORT message to verify that the steering of roaming information is provided by HPLMN, and:', '', 'a)\tif the security check is successful:', '', '-\tif the steering of roaming information contains a secured packet (see 3GPP\xa0TS\xa031.115\xa0[67]) and the service "data download via SMS Point-to-point" is allocated and activated in the USIM Service Table (see 3GPP\xa0TS\xa031.102\xa0[40]), the ME shall upload the secured packet to the USIM using procedures in 3GPP\xa0TS\xa031.111\xa0[41]; and', '', '-\tif the steering of roaming information contains the list of preferred PLMN/access technology combinations, the ME shall replace the highest priority entries in the "Operator Controlled PLMN Selector with Access Technology" list stored in the ME with the received list of preferred PLMN/access technology combinations, and delete the PLMNs identified by the list of preferred PLMN/access technology combinations from the Forbidden PLMN list and from the Forbidden PLMNs for GPRS service list, if they are present in these lists.', '', '\tIf the UDM has requested an acknowledgement from the UE in the DL NAS TRANSPORT message, the UE sends an UL NAS TRANSPORT message to the serving AMF with an SOR transparent container including the UE acknowledgement and the UE shall set the "ME support of SOR-SNPN-SI" indicator to "supported".', '', '\tIf the UDM has not requested an acknowledgement from the UE then step 5 is skipped; and', '', 'b)\tif the security check is not successful and the UE is in automatic network selection mode, then:', '', '-\tif the UE has a stored SOR-CMCI, then:', '', '-\tif there are ongoing PDU sessions or services, the current SNPN is considered as lowest priority and the UE shall apply the actions in clause\xa0C.4.2;', '', '-\tif there are no ongoing PDU sessions or services, the UE shall release the current N1 NAS signalling connection locally and attempt to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority;', '', '-\tif the UE does not have a SOR-CMCI stored in the non-volatile memory of the ME, then:', '', '-\tif there are ongoing PDU sessions or services, the UE shall wait until it moves to idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]) before attempting to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority. If the UE has an established emergency PDU session then the UE shall attempt to perform the SNPN selection after the emergency PDU session is released and after the UE enters idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]); or', '', '-\tif there are no ongoing PDU sessions or services, the UE shall release the current N1 NAS signalling connection locally and attempt to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current SNPN is considered as lowest priority.', '', '\tStep 5 is skipped;', '', 'NOTE\xa01:\tWhen the UE is in the manual mode of operation or the current chosen non-subscribed SNPN is part of the user controlled prioritized list of preferred SNPNs, the UE stays on current chosen non-subscribed SNPN.', '', '5)\tThe AMF to the UDM: If the UL NAS TRANSPORT message with an SOR transparent container is received, the AMF uses the Nudm_SDM_Info service operation to provide the received SOR transparent container to the UDM. If the HPLMN decided that the UE is to acknowledge successful security check of the received steering of roaming information in step 2, the UDM verifies that the acknowledgement is provided by the UE. The UDM shall store the "ME support of SOR-SNPN-SI" indicator.', '', '\tIf the present flow was invoked by the UDM after receiving from the SOR-AF a list of preferred PLMN/access technology combinations or a secured packetI for a UE identified by SUPI using an Nudm_ParameterProvision_Update request, and the UDM verification of the UE acknowledgement is successful, then the UDM informs the SOR-AF about successful delivery of the steering of roaming information using Nsoraf_SoR_Info (SUPI of the UE, successful delivery); and', '', '6)\tThe UDM to the SOR-AF: Nsoraf_SoR_Info (SUPI of the UE, successful delivery, "ME support of SOR-SNPN-SI" indicator). If the HPLMN policy for the SOR-AF invocation is present and the HPLMN UDM received and verified the UE acknowledgement in step 5, then the UDM informs the SOR-AF about successful delivery of the steering of roaming information to the UE. The UDM shall include the "ME support of SOR-SNPN-SI" indicator.', '', 'If:', '', '-\tthe UE in manual mode of operation encounters security check failure of SOR information in DL NAS TRANSPORT message; and', '', '-\tupon switching to automatic network selection mode the UE remembers that it is still registered on non-subscribed SNPN where the security check failure of SOR information was encountered;', '', 'the UE shall wait until it moves to idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see\xa03GPP\xa0TS\xa024.501\xa0[64]) before attempting to obtain service on a higher priority SNPN as specified in clause\xa04.9.3, with an exception that the current registered SNPN is considered as lowest priority. If the UE has an established emergency PDU session then the UE shall attempt to perform the SNPN selection after the emergency PDU session is released and after the UE enters idle mode or 5GMM-CONNECTED mode with RRC inactive indication (see 3GPP\xa0TS\xa024.501\xa0[64]).', '', 'NOTE\xa02:\tThe receipt of the steering of roaming information by itself does not trigger the release of the emergency PDU session.', '', '', 'Annex D (informative):', 'Change history', '', '', '', '&lt;span style="font-size:16pt"&gt;TSG#&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Tdoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SPEC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;VERS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;REV&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PHASE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CAT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N_VER&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SUBJECT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;comment&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;03.22&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;8.2.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;Split of 03.22/R99 to 03.22 and 23.122&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;#6&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0.0.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Was approved in the TSGN#6 plenary&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;#4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N1-99573&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;001&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PLMN selection for GPRS mobiles&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mirrored from CRA032r2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;REMOVED in V3.1.1, where it is not approved by SMG2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;#6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;N1-99D13&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;002&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of Figure A.2 in Annex A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mirrored from CR006r1for 23.022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#7&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;N1-000546&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3.1.1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;004&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UMTS references in 23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Correction of references&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#8&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;N1-000796&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;003&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Modification of PLMN Selection Procedures to support UMTS+COMPACT Network Selection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;WI: &lt;/span&gt;&lt;span style="font-size:16pt"&gt;GSM/UMTS interworking&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Note As a result of two conflicting CRs N1-000796 is merged with the existing text in V.3.2.0 by the rapporteur&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000443/ N1-001020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications of the PLMN Selection procedures for UMTS and COMPACT.&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.0&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.4.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of text in version3.4.0&lt;/span&gt;&lt;span style="color:000000;font-size:16pt"&gt; (There was text to be deleted in clause 4.4.3.2.1 bullet point 2)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;23.Oct.2000&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Implementation correction&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.1&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of a systematic search for "TS" and replace it with "3GPP TS" has gone wrong as much more than the TSs for Technical Specifications have been changed also.&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1 Nov..2000&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Implementation correction&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000674/ N1-001415&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;010&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of terminology "In UMTS", "In GSM"&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000671/ N1-001236&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;012&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Restoration of figure A.1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#10&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-000671/ N1-001237&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.4.2&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;013&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of figure 2a with PLMN selection for UMTS&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Cat F/ WI=GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010207/ N1-010472&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;014&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the PLMN selection for UMTS regarding high quality signal&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010168/ N1-010224&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;016&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Roaming restrictions for GPRS service&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010205/ N1-010334&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;017&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;remove use of GSM as default access technology in PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-01089/ N1-010443&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;018&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Requirement of priority on High Quality Signal cell concerning Acceptable cell (for limited service as emergency call)&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010186/ N1-010489&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;019&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010186/ N1-010490&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;020&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to PLMN search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;T.E.I&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010180&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.5.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;022&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;R99&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Equivalent handling of PLMNs with different PLMN codes&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM - UMTS Interworking&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#11&lt;/span&gt;', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;3.6.0&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Upgraded to Release 4.&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010352&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;024&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stored list of equivalent PLMNs and error/abnormal cases&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM-UMTS INTERWORKING&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;027&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections and clarifications to PLMN Selection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;GSM-UMTS INTERWORKING&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010275&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;030&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Partial Roaming – restriction by location area&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;032&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of \'Requirement of priority on High Quality Signal cell concerning Acceptable cell&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;#12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-010276&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;034&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with stage 1 specification on PLMN background search&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-16&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020243&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;048&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Role of the equivalent PLMNs list in the PLMN user reselection&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;TEI5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020369&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;051&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of CBQ2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;COMPACT&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020383&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;052&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Applicability of the lists of "forbidden LAs"&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-17&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020367&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.0.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;055&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Routing Area Update at network change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-18&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-020549&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;058&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of references&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '', '', '', '', '', '', '&lt;span style="font-size:16pt"&gt;5.1.0&lt;/span&gt;', '', '', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Additional clenup done to references by ETSI/MCC&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;NP-21&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-030405&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;061&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removal of RPLMNAcT field&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-23&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;067&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Definition of MS idle mode&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-23&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5.3.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;068&lt;/span&gt;', '', '', '', '&lt;span style="color:000000;font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Usage of HPLMNAcT by the UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;069&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the use of the RAT during background scanning.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Role of ePLMN list in manual PLMN selection mode&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Roaming not allowed for GPRS update state&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-24&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040202&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;073&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Data field -&amp;gt; data file&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-25&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040375&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;76&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;B&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the registered PLMN for UEs that support network sharing in a shared network&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NTShar&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-25&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040378&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.1.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;77&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rel-6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of definitions of PLMNs in the same country&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TEI6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NP-040513&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;23.122&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6.2.0&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;086&lt;/span&gt;', '', '&lt;span style="color:000000;font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;spa</t>
+          <t>['', '----media/image267.emf----', '', 'Figure F.3-1: BMCA procedure', '', '1.\tPDU Session Establishment is performed as shown in F.1-1 step\xa01 and 2 for an Ethernet or IP type PDU Session to carry the UMIC or PMIC.', '', '2.\tThe TSN AF or TSCTSF may subscribe to notifications for the PTP port state changes from UPF/NW-TT.', '', '3.\tThe UPF/NW-TT receives the Announce message via User -plane from DS-TT connectivity established using PDU session, or via NW-TT port over N6.', '', '\tAs Announce message is a periodic message, after step\xa03, the UPF/NW-TT will receive Announce messages regularly.', '', '4.\tThe NW-TT runs the BMCA algorithm in order to determine the PTP port state for the DS-TT port(s) and NW-TT port(s).', '', '\tBMCA will be triggered after receiving the Announce message.', '', '5.\tIf the BMCA procedure in NW-TT determines to use Announce message from the external grandmaster PTP instance, the UPF/NW-TT regenerates the Announce message based on the received Announce message for each Leader PTP port on the NW-TT and DS-TT(s) port for this PTP domain. The NW-TT/UPF forwards the regenerated Announce messages to the PDU session(s) related to the Leader PTP ports on the DS-TT(s).', '', 'NOTE:\tLeader and Follower terms in this specification are aligned with NOTE\xa02 in clause\xa05.27.1.2.2.1 of TS\xa023.501\xa0[2]..', '', '6.\tIf the TSN AF or TSCTSF has subscribed for notifications for the PTP port state changes, the UPF/NW-TT reports any changes to the PTP port states to the TSN AF or TSCTSF via UMIC (for DS-TT ports) or PMIC (for NW-TT ports).', '', '7.\tBased on the notification for the PTP port state changes, the TSN AF or TSCTSF may request appropriate QoS treatment and PDU Session modification may then be triggered to modify the QoS Flow carrying the gPTP messages over user plane in order to be compliant with the IEEE\xa0Std\xa0802.1AS\xa0[75] delay recommendation for carrying gPTP messages as in clause\xa05.27.1.6 of TS\xa023.501\xa0[2].', '']</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.2544213062526103</v>
+        <v>0.1966307056264309</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>&lt;h1&gt;Q.1	General&lt;/h1&gt;</t>
+          <t>&lt;h1&gt;F.4	5GS interworking with TSN deployed in the transport network&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['', 'The purpose of optimal media routing (OMR) is to identify and remove unnecessary media functions from the media path for each media stream associated with a session.', '', 'The IP Multimedia Subsystem has the option to deploy media functions such as TrGWs on the media path associated with each media stream associated with a session. These media functions can perform only transport level functions such as firewall or NAT, or can also perform application level functions such as transcoding or conferencing. These media functions are typically allocated proactively during SDP offer/answer signalling within a session since it is unknown which of the functions are actually needed for a media stream until the SDP offer/answer signalling completes. For example, a transcoder can be allocated during session establishment but whether transcoding is needed is determined once the SDP offer reaches the far endpoint. In another example, the IBCFs at the boundary of a network allocate TrGWs to protect media functions within the network or to provide address translation to the private address space used within the network, however it might be determined later during session establishment that no media resources are needed within the network, thus making the TrGWs unnecessary.', '', 'Any SIP signalling entity within the IMS network that allocates, to a session flow, a media function that might later be determined to be unnecessary may implement the procedures in this Annex to assist in the removal of unnecessary media functions. In particular, any entity with an IMS-ALG may implement the OMR algorithm. This includes the IBCF (see Annex I) and P-CSCF (see Annex G). Any AS performing as a B2BUA controlling media resources may also implement the OMR procedures. Annex Q shows every controlling OMR entity as an IMS-ALG and every controlled media resources as a TrGW, but other options are possible. An MGCF or AS performing as UA may also implement OMR procedures to assist in the removal of unnecessary media functions in some cases. MGCF and AS procedures can be derived from the procedures in this annex by collocating an IMS-ALG with the MGCF or AS.', '', 'The OMR procedures identify and name the IP address realm used for each media path segment among UAs and TrGWs. The terms IP realm and realm are equivalent to the term IP address realm in this annex. An IP realm name is associated with each set of IP endpoints that are mutually reachable via IP routing and without address translation. Endpoints in different IP realms usually require allocation of a TrGW between those IP realms for connectivity and possibly for NAT.', '', 'When endpoints in different IP realms are mutually reachable without allocation of a TrGW, then OMR procedures may use provisioned information about such connected IP realms to determine possible optimal media paths through these connected realms.', '', 'NOTE:\tConnected IP realms are particularly useful when there are bilateral IP transport connections between operator networks, e.g. using IP tunnels via IP transport networks. In this case, each operator network can manage its own IP realm for inter-operator interconnection and provision the names of connected IP realms. Without the concept of connected IP realms, each bilateral connection (e.g. IP tunnel) in this example would need to be defined as its own IP realm.', '', 'IMS-ALGs implementing OMR shall include information in forwarded SDP regarding IP realm, codec and IP connectivity information for TrGWs on the media path to assist in bypassing unnecessary TrGWs. A TrGW can be bypassed when it is not required to transcode, when it is unnecessary to protect a network resource, and when a successive TrGW on the path is reachable by a previous TrGW on the path via a common IP realm.', '', 'The OMR procedures have the following additional characteristics:', '', '-\tThey build on the ALG NAT traversal model that is an alternative to the ICE NAT traversal model.', '', '-\tThey usually complete within a single end-to-end SDP offer/answer transaction. Some transcoding scenarios require additional signalling to complete optimisation.', '', '-\tThey apply independently to each media stream established by an SDP offer/answer transaction.', '', '-\tThey apply to media streams established between any types of endpoints (e.g. UEs, media servers, media gateways).', '', '-\tThey apply to media streams established using SIP 3pcc procedures. OMR applies to the endpoints of an SDP offer/answer transaction and not necessarily to the endpoints of a SIP dialog.', '', '-\tThey apply separately to each dialog when forking occurs. An IMS-ALG shall delay the release of a TrGW for OMR until it is clear that no forked dialog needs the TrGW.', '', '-\tFor early media negotiated with the same SDP as normal media, the OMR procedures have no direct impact on early media handling since path modifications are in place as soon as the SDP offer/answer transaction completes. An IMS-ALG can anchor in place any TrGW needed for blocking of unauthorized early media by removing OMR SDP extension attributes as necessary. For separate early-session disposition SDP the OMR algorithm shall not be applied.', '', '-\tThey do not require endpoints to support new procedures, although some additional optimisations are possible in some special cases.', '']</t>
+          <t>['', 'For 5GS to control the IEEE TSN features deployed in the transport network, the SMF/CUC interacts with the CNC in the transport network (TN CNC).', '', '----media/image268.emf----', '', 'Figure F.4-1: 5GS Bridge information configuration', '', '1.\tThe UE establishes a PDU Session as described in clause\xa04.3.2.2.1.', '', '2.\tDuring the PDU Session Establishment procedure, the SMF/CUC requests the UPF to assign the N3 tunnel information via N4 Session Establishment or Modification procedure. The SMF/CUC includes a TL-Container to the N4 Session Establishment or Modification request including a get-request to the TL-Container, as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tThe UPF responds with a N4 Session Establishment or Modification response. If the UPF supports CN-TL, the UPF includes a TL-Container to the response. The TL-Container includes a get-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2]. The SMF/CUC stores the get-response.', '', '3.\tDuring the PDU Session Establishment procedure, the SMF/CUC requests the NG-RAN to assign the N3 tunnel information by invoking the Namf_Communication_N1N2MessageTransfer request. The SMF/CUC includes a TL-Container to the N2 SM information in the request, the TL-Container contains a get-request as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tThe NG-RAN responds with a N2 SM information. If the NG-RAN supports AN-TL, the NG-RAN includes a TL-Container to the N2 SM information. The TL-Container includes a get-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2]. The SMF/CUC stores the get-response.', '', '4.\tThe AF (TSCTSF, AF, NEF or TSN AF) invokes the Npcf_PolicyAuthorization_Create/Update request. This may be due to reception of Ntsctsf_QoSandTSCAssistance_Create/Update request by the TSCTSF as described in clause\xa04.15.6.6 or clause\xa04.15.6.6.a, or due to reception of 5GS Bridge configuration by the TSN AF as described in clause\xa0F.2. The TSN AF or TSCTSF determines the TSC Assistance Container for one or more TSC streams and sends them to the PCF.', '', '5-6.When PCF receives the request, the PCF initiates an SM Policy Association Modification procedure. The PCF notifies the corresponding SMF/CUC via Npcf_SMPolicyControl_UpdateNotify message as described in clause\xa04.16.5.2. The PCF updates the PCC rule to the SMF/CUC. The PCC rule includes the 5GS QoS profile along with TSC Assistance Container.', '', '\tSMF/CUC triggers the PDU Session Modification procedure as described in clause\xa04.3.3.2 to establish a QoS Flow to transfer the TSC streams.', '', '7.\tDuring the PDU Session Modification procedure, the SMF/CUC provides the information received in PCC rules to the UPF via N4 Session Modification procedure. If the UPF does not support CN-TL, the SMF/CUC instructs the UPF to assign a distinct N3 tunnel end point address for the QoS Flow.', '', '\tThe UPF responds with a N4 Session Modification response.', '', '8.\tDuring the PDU Session Modification procedure, the SMF/CUC provides the information received in PCC rules to the NG-RAN by invoking the Namf_Communication_N1N2MessageTransfer request. The SMF also determines the TSCAI for the QoS Flow(s) and sends the TSCAI along with the QoS profile(s) to the NG-RAN. If the NG-RAN does not support AN-TL, the SMF/CUC instructs the NG-RAN to assign a distinct N3 tunnel end point address for the QoS Flow.', '', '\tThe NG-RAN responds with a N2 SM information.', '', '9.\tThe SMF/CUC determines the merged stream requirements in the TSN UNI towards the TN CNC as described in Annex\xa0M of TS\xa023.501\xa0[2]. The TN CNC uses the merged stream requirements as input to select respective path(s) and calculate schedules in TN.', '', '10.\tBased on the results, the TN CNC provides a Status group that contains the merged end station communication-configuration back to the SMF/CUC.', '', '11.\t[Optional] If the response from TN CNC includes InterfaceConfiguration, the SMF/CUC triggers the PDU Session Modification procedure as described in clause\xa04.3.3.2 to modify the QoS Flow to transfer the TSC streams.', '', '12.\t[Optional] During the PDU Session Modification procedure, if the UPF supports CN-TL, the SMF/CUC invokes N4 Session Modification procedure and includes a TL-Container to the N4 Session Modification request including a set-request to the TL-Container as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tThe UPF responds with a N4 Session Modification response. If the UPF supports CN-TL, the UPF includes a TL-Container to the response. The TL-Container includes a set-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '13. [Optional] During the PDU Session Modification procedure, if the NG-RAN supports AN-TL, the SMF/CUC invokes the Namf_Communication_N1N2MessageTransfer request. The SMF/CUC includes a TL-Container to the N2 SM information in the request, the TL-Container contains a set-request as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2]. The SMF/CUC may also update the TSCAI in the NG-RAN for the BAT in DL direction as described in Annex\xa0M, clause\xa0M.1 of TS\xa023.501\xa0[2], if the SMF/CUC received a TimeAwareOffset or AccumulatedLatency from TN CNC for a downlink stream (i.e. for a Talker in the UPF/CN-TL) in step\xa07.', '', '\tThe NG-RAN responds with a N2 SM information. If the NG-RAN supports AN-TL, the NG-RAN includes a TL-Container to the N2 SM information. The TL-Container includes a set-response as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '']</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.2090167350691734</v>
+        <v>0.196349890944205</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;4.1b	LCS Quality of Service&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;H.4	Path and Link delay measurements&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23273-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['', 'LCS Quality of Service is used to characterise the location request. It can either be determined by the operator or determined based on the negotiation with the LCS client or the AF. It is optional for LCS client or the AF to provide the LCS Quality of Service in the location request.', '', 'LCS Quality of Service information is characterised by 3 key attributes:', '', '-\tLCS QoS Class as defined below.', '', '-\tAccuracy: i.e. Horizontal Accuracy (see clause\xa04.3.1 of TS\xa022.071\xa0[2]) and Vertical Accuracy (see clause\xa04.3.2 of TS\xa022.071\xa0[2].', '', '-\tResponse Time (e.g. no delay, low delay or delay tolerant as described in clause\xa04.3.3 of TS\xa022.071\xa0[2]).', '', 'NOTE\xa01:\tOne or two QoS values for Horizontal Accuracy, Vertical Accuracy can be provided in the location request in addition to a preferred accuracy when LCS QoS Class is set to Multiple QoS Class.', '', 'The LCS QoS Class defines the degree of adherence by the Location Service to another quality of service parameter (Accuracy), if requested. The 5G system shall attempt to satisfy the other quality of service parameter regardless of the use of QoS Class. There are 3 LCS QoS Classes:', '', '-\tBest Effort Class: This class defines the least stringent requirement on the QoS achieved for a location request. If a location estimate obtained does not fulfil the other QoS requirements, it should still be returned but with an appropriate indication that the requested QoS was not met. If no location estimate is obtained, an appropriate error cause is sent.', '', '-\tMultiple QoS Class: This class defines intermediate stringent requirements on the QoS achieved for a location request. If the obtained location estimate does not fulfil the most stringent (i.e. primary) other QoS requirements affected by the degree of adherence of the QoS class, then another location estimation may be triggered at LMF attempting less stringent other QoS requirements. The process may be iterated until the least stringent (i.e. minimum) other QoS requirements are attempted. If the least stringent other QoS requirements cannot be fulfilled by a location estimate, then the location estimate shall be discarded, and an appropriate error cause shall be sent.', '', 'NOTE\xa02:\tAn AF may provide a location request with Multiple QoS Class via NEF. For an LCS client to provide a location request with Multiple QoS Class an Le interface implementation supporting Multiple QoS Class may be required.', '', 'NOTE\xa03:\tMultiple QoS Class can only be applied for Deferred 5GC-MT-LR Procedure in this release of the specification.', '', '-\tAssured Class: This class defines the most stringent requirement on the accuracy achieved for a location request. If a location estimate obtained does not fulfil the other QoS requirements, then it shall be discarded, and an appropriate error cause shall be sent.', '', 'NOTE\xa04:\tHow the LMF decides the positioning method is an implementation aspect not pre-determined by QoS criteria.', '', 'For LCS client, it may indicate accuracy defined in TS\xa029.572\xa0[12], tables 6.1.6.3.2-1 and 6.1.6.3.5-1. For AF, it may either indicate the accuracy defined in TS\xa029.572\xa0[12], table 6.1.6.3.2-1, or indicate a particular value e.g. PLMN ID defined in TS\xa029.122\xa0[35], table 5.3.2.4.7-1.', '']</t>
+          <t>['', 'The procedure described in this clause is applicable if DS-TT and NW-TT support operating as a boundary clock or as a time-aware system or as peer to peer Transparent Clock or end to end Transparent Clock, and when the PTP instance in 5GS is configured to operate as a time-aware system or as a Boundary Clock or as peer to peer Transparent Clock or as end to end Transparent Clock. Whether DS-TT/NW-TT support operating as a boundary clock or peer to peer Transparent Clock or end to end Transparent Clock or as a time-aware system (support of the IEEE\xa0Std\xa0802.1AS\xa0[104] PTP profile) may be determined as described in clause\xa0K.2.1.', '', 'PTP ports in DS-TT and NW-TT may support the following delay measurement mechanisms:', '', '-\tDelay request-response mechanism as described in clause\xa011.3 of IEEE\xa0Std\xa01588\xa0[126];', '', '-\tPeer-to-peer delay mechanism as defined in clause\xa011.4 of IEEE\xa0Std\xa01588\xa0[126];', '', '-\tCommon Mean Link Delay Service.', '', 'Depending on the measurement mechanisms supported by DS-TT and NW-TT as well as the configured clock mode of 5GS, the PTP ports in DS-TT and NW-TT are configured as follows:', '', '-\tPTP ports configured to operate as a time-aware system according to IEEE\xa0Std\xa0802.1AS\xa0[104] may be configured to use the peer-to-peer delay mechanism or Common Mean Link Delay Service;', '', '-\tPTP ports configured to operate as a Boundary Clock according to IEEE\xa0Std\xa01588\xa0[126] may be configured to use the delay request-response mechanism, the peer-to-peer delay mechanism or Common Mean Link Delay Service.', '', '-\tPTP ports in 5GS configured to operate as a peer-to-peer Transparent Clock according to IEEE\xa0Std\xa01588\xa0[126] shall use the peer-to-peer delay mechanism.', '', '-\tPTP ports in 5GS configured to operate as an end-to-end Transparent Clock according to IEEE\xa0Std\xa01588\xa0[126] do not actively participate in path and link measurements mechanisms but shall calculate and add residence time and delay asymmetry information to PTP messages as defined in clause\xa010.2.2 of IEEE\xa0Std\xa01588\xa0[126].', '', 'If DS-TT and NW-TT support operating as an end-to-end Transparent Clock, then the residence time for one-step operation as an end-to-end Transparent Clock for the path and link measurements is calculated as follows:', '', '-\tUpon reception of a PTP Delay_Req/Pdelay_Req/Pdely_Resp message from the upstream PTP instance, the ingress TT (i.e. NW-TT or DS-TT) makes an ingress timestamping (TSi) for the message.', '', '-\tThe ingress timestamp is conveyed to the egress TT via the PDU Session as described in clause\xa0H.2.', '', '-\tThe PTP port in the egress TT then creates egress timestamping (TSe) for the PTP message for external PTP network. The difference between TSi and TSe is considered as the calculated residence time spent within the 5G system for this PTP message expressed in 5GS time. If needed, the PTP port in the egress TT convert the calculated resident time in 5GS into the residence time expressed in PTP GM time e.g. by means of the factor as specified in Equation (6) of clause\xa012.2.2 of IEEE\xa0Std\xa01588\xa0[126].', '', '-\tThe PTP port in the egress TT modifies the payload of the PTP Delay_Req/Pdelay_Req/Pdelay_Resp message that it sends towards the downstream PTP instance as follows:', '', '-\tAdds the calculated residence time to the correction field.', '', '-\tRemoves Suffix field that contains TSi.', '', 'If DS-TT and NW-TT support operating as an end-to-end Transparent Clock, then the residence time for two-step operation as an end-to-end Transparent Clock for the path and link measurements is calculated as follows:', '', '-\tUpon reception of a PTP Delay_Req/Pdelay_Req/Pdelay_Resp message from the upstream PTP instance, the ingress TT (i.e. NW-TT or DS-TT) makes an ingress timestamping (TSi) for the message.', '', '-\tIf the ingress TT receives a Pdelay_Resp message with the twoStepFlag set to FALSE, then the ingress TT modifies the twoStepFlag to TRUE and creates a PTP Pdelay_Resp_Follow_Up message.', '', '-\tThe ingress timestamp is conveyed to the egress TT via the PDU Session as described in clause\xa0H.2.', '', '-\tThe PTP port in the egress TT then creates egress timestamping (TSe) for the PTP message for external PTP network. The difference between TSi and TSe is considered as the calculated residence time spent within the 5G system for this PTP message expressed in 5GS time. If needed, the PTP port in the egress TT converts the calculated residence time in 5GS into the residence time expressed in PTP GM time, e.g. by means of the factor as specified in Equation (6) of clause\xa012.2.2 of IEEE\xa0Std\xa01588\xa0[126]. The egress TT then stores the calculated residence time expressed in PTP GM time and removes Suffix field that contains TSi before sending the PTP Delay_Req/Pdelay_Req/Pdelay_Resp message towards the downstream PTP instance.', '', '-\tUpon reception of the PTP Delay_Resp message associated with the PTP Delay_Req, the egress TT for the PTP Delay_Req message (i.e. the ingress TT for the PTP Delay_Resp message) modifies the payload of the PTP Delay_Resp message that it sends towards the ingress TT of the PTP Delay_Req message (i.e. egress TT for the PTP Delay_Resp message) as follows:', '', '-\tAdds the (previously stored) calculated residence time to the correction field.', '', '-\tUpon reception (or local creation) of the PTP Pdelay_Resp_Follow_Up message associated with the previously received PTP Pdelay_Resp message, the ingress TT for the PTP Pdelay_Resp_Follow_Up message modifies the payload of the PTP Pdelay_Resp_Follow_Up message that it sends towards the egress TT for the PTP Pdelay_Resp_Follow_Up message as follows:', '', '-\tAdds the (previously stored) calculated residence time of the associated PTP Pdelay_Req message to the correction field.', '', '-\tUpon reception of the PTP Pdelay_Resp_Follow_Up message associated with the PTP Pdelay_Resp, the egress TT for PTP Pdelay_Resp_Follow_Up message modifies the payload of the PTP Pdelay_Resp_Follow_Up message that it sends towards the downstream PTP instance as follows:', '', '-\tAdds the (previously stored) calculated residence time of the associated PTP Pdelay_Resp messages to the correction field.', '', '', 'Annex I (normative):', 'TSN usage guidelines', '']</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.1891571142511312</v>
+        <v>0.1828611147910241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;5.1	LMF Discovery and Selection&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;J.1	Procedure for PIN service&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23273-i20.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -678,47 +678,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['', 'LMF selection functionality is supported by the AMF to determine an LMF for location estimation of the target UE or Ranging/Sidelink Positioning between Target UE and SL Reference UE. The LMF selection functionality is also supported by the LMF if it determines that it is unsuitable or unable to support location for the current UE access network or serving cell for the deferred 5GC-MT-LR procedure for periodic, or triggered location events. The LMF selection functionality may also be supported by the GMLC and the GMLC provides the selected LMF ID to AMF.', '', 'LMF reselection is a functionality supported by AMF when necessary, e.g. due to UE mobility.', '', 'The LMF selection/reselection may be performed at the AMF or LMF or GMLC based on the locally available information i.e. LMF profiles are configured locally at AMF or LMF or GMLC, or by querying NRF.', '', 'The following factors may be considered during the LMF selection:', '', '-\tLCS client type.', '', '-\tRequested Quality of Service information, e.g.:', '', '-\tLCS accuracy,', '', '-\tResponse time (latency),', '', '-\tAccess Type (3GPP /N3GPP).', '', 'NOTE\xa01:\tLocation methods may differ depending on the Access Type, e.g. in the case of WLAN Access Location determination may just correspond to retrieval of IP addressing information from the N3IWF/TNGF; As another example, for Wireline access, Location determination may just correspond to retrieval of geo coordinates corresponding to a GLI as defined in clause\xa04.7.8 of TS\xa023.316\xa0[21] or a HFC Node ID.', '', '-\tRAT type (e.g. 5G NR, eLTE, or any of the RAT Types specified for NR satellite access) and/or the serving AN node (i.e. gNB or NG-eNB) of the target UE.', '', '-\tRAN configuration information.', '', '-\tLMF capabilities, including the support of Uu based positioning as defined in clause\xa04.3.8 and/or Ranging/Sidelink positioning as defined in clause\xa04.3.8 of TS\xa023.586\xa0[40].', '', '-\tLMF load.', '', '-\tLMF location.', '', '-\tIndication of either a single event report or multiple event reports.', '', '-\tDuration of event reporting.', '', '-\tNetwork slicing information, e.g. S-NSSAI and/or NSI ID.', '', '-\tLMF Service Area consisting of one or more TA(s).', '', '-\tSupported GAD shapes.', '', '-\tSupport LCS when MBSR is involved.', '', '-\tRequested UE has maintained user plane connection with certain LMFs.', '', 'When receiving a NAS message from UE, including an LMF ID together with a LPP message (refer to step\xa025 in clause\xa06.3.1 for event reporting for a deferred 5GC-MT-LR), AMF sends the LPP message to the LMF, as indicated by the LMF ID.', '', 'NOTE\xa02:\tDescription on how UE encapsulates the LMF ID in the NAS message is documented in TS\xa024.571\xa0[36].', '', 'UDM may store the LMF ID in UE subscription data. During the location procedure, GMLC received the LMF ID from the UDM and provides it to AMF.', '', 'GMLC may be configured with the following parameters:', '', '-\tLMF ID and/or', '', '-\tper group ID and its correlating LMF ID.', '', 'The AMF may use locally provisioned configuration to determine LMF based on UE identify or its group information.', '', 'NOTE\xa03:\tIt is AMF implementation specific for the priority of different selection criteria from GMLC, AMF and LMF.', '', 'When the GMLC receives a MT location request from LCS client/AF, GMLC determines the LMF ID based on the configured parameters for an LCS Client/AF. In case a group ID is provided or derived from the location request, GMLC determines the correlating LMF ID based on the provisioned group ID.', '', 'GMLC may have configuration with one or several dedicated LMF ID(s), irrelevant to any LCS client/AF. When the GMLC receives a MT location request from LCS client/AF, GMLC only determines the LMF ID within the configuration for all LCS client/AF.', '', "NOTE\xa04:\tWhen AMF can't access the LMF instance of the LMF ID, by default, AMF replies to corresponding error to GMLC. GMLC could retry or fail the request accordingly; with explicit configuration to serve as backup selection in this, AMF can also select different configured LMF instance.", '']</t>
+          <t>['', '----media/image273.emf----', '', 'Figure J.1-1: Procedure for PIN service', '', "PIN is a subscribed service, and a user needs to coordinate with the Mobile Network Operator to subscribe for PIN service. When a user subscribes for a PIN, the subscription data includes the DNN and S NSSAI allocated by the MNO for the PIN service. The PIN user's PEGC UE(s) are then provisioned with appropriate URSP rules to enable the PEGC UE to route the PIN traffic using the DNN and S NSSAI allocated for the PIN. Figure J.1-1 provides a high level procedure for PIN service.", '', 'Step 1:\tStep\xa01 is performed using O&amp;amp;M.', '', '\tA user subscribes to the Mobile Network Operator (MNO) for PIN service. The user provides the list of PEGC UE(s) that are part of the PIN. The MNO verifies the request, performs necessary checks e.g. whether the UEs are allowed to act as PEGC, whether all the requested PEGC UEs are part of the same UDM group etc. If the request is authorized by the MNO, the MNO:', '', '-\tallocates a dedicated DNN, S NSSAI for the PIN;', '', '-\tif the PIN has a single PEGC UE, then updates the PEGC UE subscription with the DNN, S NSSAI allocated for the PIN;', '', '-\tif the PIN has more than one PEGC UE, then creates a group subscription following the 5G VN group management principles as specified in clause\xa05.29.2 of TS\xa023.501\xa0[2]. The information on the External Group ID and associated DNN and S-NSSAI is provided to the AF for PIN;', '', '-\tif local switching is required, configures in the SMF set and/or in the NRF that the DNN allocated for the PIN is served by a specific SMF set.', '', 'NOTE:\tIt is assumed that all PEGC UEs that are members of a PIN are part of the same UDM Group ID. If the PEGC UEs requested by the user for PIN creation are not part of the same UDM Group ID, the MNO migrates all the PEGC UEs into a single UDM Group ID for creating the group subscription.', '', 'Step 2:\tFor routing PIN traffic by the PEGC UE, the AF provides guidance for URSP generation to the 5GC. The AF uses a UE ID (i.e. GPSI) as the target UE if the PIN contains a single PEGC UE. If the PIN contains more than one PEGC UE, then the AF uses External Group ID as the target UEs for providing URSP guidance to the 5GC. The AF request contains DNN, S NSSAI allocated to the user for the PIN service and the traffic descriptor components in the URSP rule request from the AF contains the PIN ID.', '', '\tThe NEF authorizes the request received from the AF and stores the information in the UDR as "Application Data".', '', '\tThe NEF can use the procedure for authorization of service specific parameter provisioning as specified in clause\xa04.15.6.7a to authorize the AF request by the UDM. In this case:', '', '-\tif the request is for an individual UE, the UDM checks if the DNN and S NSSAI in the AF request is allowed for the UE;', '', '-\tif the request is for a group of UEs, the UDM checks whether the group related data (e.g. DNN/S NSSAI group related data, see table 4.15.6.3b-1) is authorized for the group.', '', '\tIf the AF request is authorized, the NEF stores the AF requested information in the UDR as the "Application Data" (Data Subset setting to "Service specific information").', '', 'Step 3:\tThe PCF receives a Nudr_DM_Notify notification of data change from the UDR, generates the URSP rules and initiates UE Policy delivery as specified in clause\xa04.2.4.3 to provision the URSP rules in the PEGC UE(s). For routing of PIN traffic by the PEGC UE(s), the URSP policies provided to the PEGC UE(s) contain URSP rule with PIN ID as traffic descriptor.', '', 'Step 4:\tThe AF provides QoS requirements for the PIN traffic following procedures for AF requested QoS for a UE or group of UEs not identified by a UE address as specified in clause\xa04.15.6.14.', '', 'Step 5:\tWhen the PEGC UE(s) detect PIN traffic, it uses the provisioned URSP rules to identify PDU session to route the traffic as specified in clause\xa06.6.2.3 of TS\xa023.503\xa0[20]. The 5GC further performs session management and user plane management as described in Annex\xa0P, clause\xa0P.2 of TS\xa023.501\xa0[2].', '', 'When 5G VN Group is not used for a PIN and if the PIN contains more than one PEGCs, then the AF request for URSP guidance and QoS requirements is targeted to each individual PEGC UEs that are part of the PIN.', '', '', 'Annex K (informative):', 'Change history', '', 'Change history', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Meeting&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TDoc&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New version&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#77&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170735&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update for presentation to TSG SA#77 for information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-09&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SA2#122E&lt;/span&gt;', '', '', '', '', '', '', '', '', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Correcting implementation issues of S2-176821 and additional clean-up.&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.2.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170932&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update for presentation to TSG SA#78 for Approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2017-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC Editorial Update after TSG SA#78 Approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;15.0.0&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on the specification of Network Exposure services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to PDU session establishment / modification procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up of the registration procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Using NRF for UPF discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Allowed NSSAI and Access Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to the Inter-system mobility procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS clarifications for EPC interworking&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EPS bearer ID allocation update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of Npcf_BDTPolicyControl service operation (Backbround data transfer)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Multiple request of Location Reporting for Area of Interest&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SMF behaviour based on LADN notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Internal Event Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on 5G-GUTI in EPS to 5GS Mobility Registration Procedure using N26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding missing text about UE policies related to Service Request including the List Of Allowed PDU Sessions&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0019&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of NEF service for background data transfer&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of NEF service for PFD management&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on handover applicability between 3GPP and non-3GPP accesses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on paging when it is related with both 3GPP and non-3GPP PDU Session&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Sending EBI to the NG-RAN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Indirect data forwarding in home routed roaming case&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Interaction between SMF and UPF during the inter-system change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Direct forwarding flag for handover from EPS to 5GS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to N2 Handover procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0029&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on keeping NAS signalling connection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0030&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on SMS related Subscription data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0032&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification related to Subscription data type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PCF association&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Slicing handling for EPS to 5GS Mobility without N26&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Keeping EBI transfer alignment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180101&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on the Emergency HO indication for EPS fallback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of Namf_MT_EnableUEReachability service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Mobility from EPC to 5GC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PDU Session Release timer provided to the UE for \'SSC mode 3\'&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Generalize exposure of Mobility Events from AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Align the UE location presence status of LADN Session into Network Triggered Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to RAN Initiated QoS Flow Mobility Procedure for Dual Connectivity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDM service consumption order of UECM and SDM&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cleanup of the service request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE-specific DRX parameter negotiation between UE and AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update of handover cancel procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Control of the Messages triggering Paging at AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification for Area of validity in NW triggered SR procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Revision on Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Notification control for GBR QoS flow&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reflective QoS Timer transmission during PDU Session establishment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on Policy association procedure during AMF relocation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PCF selection for AMF during inter NG-RAN node N2 based handover&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on PCF selection in SMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Paging Policy Differentiation in Network triggered Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NEF service definitions for AF influence&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0059&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Handover procedures in clause\xa04.11.1.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0060&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean up of FFSs in 4.11.1.2.2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A new annex for generating EPS PDN Connection parameters from 5G PDU Session parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SMSF address deactivation and activation in AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction on SMSF Nsmsf_SMService_Activate service operation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resolution of ENs in Service Request procedures&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editorial correction to clause\xa04.12.8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0067&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Nudm SDM service Subscription Data types updates&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2018-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180102&lt;/span&gt;', '', '&lt;s</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.1990049355108571</v>
+        <v>0.2575450209686512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;6.14	MBS Service Information&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;M.1	Mapping of the parameters between 5GS and TSN UNI&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23247-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['', 'MBS Service Information is a set of information used by the AF to describe an MBS session. It is directly conveyed from the AF to the MB-SMF or indirectly via NEF and/or MBSF.', '', 'In addition, MBS Service Information may be optionally sent from AF/NEF/MBSF to the PCF based on network configuration.', '', 'NOTE:\tDepending on deployment scenarios specified in Annex A, AF, NEF or MBSF interacts with MB-SMF, and optionally that AF, NEF or MBSF interacts with PCF.', '', 'The MBS Service Information consists of an optional AF Application Identifier, an optional Session-AMBR and the description of one or more data flows/media components. For each data flow/media component, the following information may be provided:', '', '-\tFlow description; and', '', '-\tone of the following:', '', '-\tMedia information (Media type, Media format, bandwidth) with optional Priority indicator;', '', '-\tQoS requirements (5G QoS parameters (i.e. 5QI, ARP, GBR, MBR) or QoS reference).', '', 'The following MBS Service Information is mandatory to be supported: 5G QoS parameters (i.e. 5QI, ARP, GBR, MBR) and optional Session-AMBR for one data flow/media component. Additional MBS Service Information is optional to be supported.', '']</t>
+          <t>['', "Editor's note:\tThe information provided here is a guidance for better understanding of the function. Content of this Annex will be updated to a functional level detail once stage 3 work is stable.", '', 'The details of the parameters in the TSN UNI are specified in IEEE\xa0Std\xa0802.1Q\xa0[98] and IEEE\xa0P802.1Qdj\xa0[146]. Stream identification is further specified in IEEE\xa0Std\xa0802.1CB\xa0[83] and IEEE\xa0Std\xa0802.1CBdb\xa0[178].', '', 'The SMF/CUC derives the End Station related information for the stream requirements towards the TN CNC for the QoS Flow as follows:', '', 'a)\tFor the Talker group:', '', '‐\tStreamID: can be generated by the SMF/CUC based on the End Station MAC address acting as Talker and a UniqueID. SUPI, PDU Session ID and QFI may be used to derive the UniqueID. The MAC address is either pre-configured at the SMF/CUC or provided by the AN-TL or CN-TL to the SMF/CUC (e.g. as part of the EndStationInterfaces information).', '', '-\tStreamRank: set to zero for ARP priority values 1-8; set to one for other ARP values.', '', '‐\tEndStationInterfaces: If the AN-TL and CN-TL are supported, the SMF/CUC receives the EndStationInterfaces (MacAddress, InterfaceName) from the AN-TL and CN-TL via TL-Container. If the AN-TL and CN-TL are not supported the SMF/CUC sets the information based on pre-configuration.', '', '-\tDataFrameSpecification (optional): When it is present it specifies how the TN can identify packets of the TN stream using Ethernet, IP and transport protocol header fields in order to apply the required TSN configuration.', '', '\tThe SMF/CUC may derive the DataFrameSpecification based on:', '', '-\tN3 tunnel end point addresses that are used for the QoS Flow. The SMF/CUC may instruct the UPF and NG-RAN to assign a separate N3 tunnel end point address for each QoS Flow that may carry TSC streams so that the TN can distinguish the QoS Flows based on the N3 tunnel destination IP addresses.', '', 'NOTE\xa01:\tIPv6 can be used in the N3 tunnel end point addresses to provide sufficient address space in case separate N3 tunnel end point addresses are used for each QoS flow that can carry time sensitive streams.', '', '-\tMask-and-match stream identification parameters (IEEE 802.1CBdb [178] clause\xa09.1.6) (optional). The SMF/CUC may indicate mask-and-match configuration based on the TEID and QFI of the given QoS flow and the destination IP address to the TN CNC, when the deployment supports mask-and-match stream identification function as defined in clause\xa06.8 in IEEE Std 802.1CBdb [178]. This functionality can be used for example to check for the TEID and QFI in the GTP header and the destination IP address to distinguish the QoS Flows. This enables the TN CNC to configure the mask-and-match stream identification function in the transport network. This is an option that allows to use a single GTP-U tunnel as defined for non-TSN Transport networks.', '', '\tThe DataFrameSpecification or mask-and-match stream identification parameters may be provided to the AN-TL and CN-TL to configure stream identification. In that case, the AN-TL and CN-TL can perform the stream identification without relying on additional information from the upper layers of the AN or CN node.', '', '\tWhen AN-TL and CN-TL are not supported the TN CNC configures the edge bridge to perform the stream transformation based on the provided the DataFrameSpecification or mask-and-match parameters when applicable.', '', '‐\tTrafficSpecification elements:', '', '‐\tInterval: derived from the Periodicity of the traffic as indicated in the TSCAI.', '', '‐\tMaxFramesPerInterval: specifies the maximum number of frames that the Talker transmits in one Interval.', '', '‐\tMaxFrameSize: derived from the MDBV of the QoS Flow. If the PCF determines interworking with a TSN network deployed in the transport network is supported based on the DNN/S-NSSAI of the PDU Session, the PCF generates MDBV based on the Burst Size as described in clause\xa05.27.3 and the PCF transfers the MDBV to the SMF/CUC. The SMF/CUC sets MaxFrameSize based on the following formula: MDBV of the QoS Flow - the framing bits which is not used for transferring in 5GS, (e.g. CRC + the GTP-U tunnel overhead).', '', "-\tTransmissionSelection: specifies the algorithm that the Talker uses to transmit the Stream's traffic class. If no algorithm is known, the value zero (strict priority) is used.", '', '‐\tTSpecTimeAware group (optional, present only if the traffic in the QoS Flow is time-synchronized):', '', '‐\tEarliestTransmitOffset: the earliest offset within the Interval.', '', '\tFor uplink, EarliestTransmitOffset should be set based on the following formula:', '', '\tPacket arrival time at the Talker (UL) - M x Interval, where M is the largest integer for which the relation:', '', '\tPacket arrival time at the Talker (UL) &amp;gt; M x Interval duration.', '', '\twould be true.', '', '\tPacket arrival time at the Talker (UL) should be: TSCAC BAT in UL direction (presented in TAI time and corrected for clock drifting as specified in the present specification) + UE-DS-TT Residence Time.', '', '\tFor downlink, EarliestTransmitOffset should be set based on the following formula:', '', '\tPacket arrival time at the Talker (DL) - M x Interval, where M is the largest integer for which the relation:', '', '\tPacket arrival time at the Talker (DL) &amp;gt; M x Interval duration.', '', '\twould be true.', '', '\tPacket arrival time at the Talker (DL) should be TSCAC BAT in DL direction (presented in TAI time and corrected for clock drifting as specified in the present specification).', '', '‐\tLatestTransmitOffset: the last chance within an interval should leave enough time to transfer a packet with MaxFrameSize. Derived from the end of the interval, the time to transfer a packet with MaxFrameSize. The LatestTransmitOffset shall be set to the Buffer Capability when the value of LatestTransmitOffset subtracted by the packet arrival time at the Talker (either UL or DL respectively as described in EarliestTransmitOffset) exceeds the Buffer capability. The value of LatestTransmitOffset shall be larger or equal than EarliestTransmitOffset.', '', '‐\tJitter: derived in SMF/CUC based on local information on Jitter in AN-TL and CN-TL and respective stream and traffic interference. Annex\xa0U, clauses U.1.1, U.1.2, and U.1.3 of IEEE\xa0Std\xa0802.1Q\xa0[98] provide some examples.', '', '‐\tUserToNetworkRequirements:', '', '‐\tNumSeamlessTrees: set to one (no redundancy) or other value (if redundancy is required).', '', '‐\tMaxLatency: set to CN PDB subtracted by maximum possible buffer duration in Talker. Maximum possible buffer duration is set to LatestTransmitOffset subtracted by EarliestTransmitOffset.', '', '-\tInterfaceCapabilities (optional): If the AN-TL and CN-TL are supported, the SMF/CUC collects InterfaceCapabilities from AN-TL and CN-TL via TL-Container. If the AN-TL and CN-TL are not supported, the SMF/CUC leaves the InterfaceCapabilities empty.', '', 'b)\tFor the Listener group:', '', '-\tStream ID and Stream Rank: that were generated for the Talker of the TN stream are also used by the SMF/CUC for the Listener.', '', '-\tEndStationInterfaces: derived as with the corresponding information for the Talker group.', '', '-\tUserToNetworkRequirements:', '', '‐\tNumSeamlessTrees: set to one.', '', '‐\tMaxLatency: derived as with the corresponding information for the Talker group.', '', '-\tInterfaceCapabilities: derived as with the corresponding information for the Talker group.', '', 'c)\tFor the Status group: The Status group contains the end station communication-configuration provided by TN CNC to the SMF/CUC:', '', '‐\tStream ID.', '', '‐\tStatusInfo.', '', '‐\tAccumulatedLatency: If the AccumulatedLatency is included from TN CNC to SMF/CUC for a stream in DL direction, the SMF/CUC may use the AccumulatedLatency to update the TSCAI BAT to the NG-RAN; the SMF sets the TSCAI Burst Arrival Time in downlink direction as the sum of the TSCAC BAT value in downlink direction and AccumulatedLatency and the buffer duration in Talker in CN-TL. The buffer duration in CN-TL is zero if TimeAwareOffset for the Talker group is not present, and TimeAwareOffset - EarliestTransmitOffset if the TimeAwareOffset is present for the Talker group.', '', '‐\tInterfaceConfiguration (optional):', '', '‐\tMAC Address (optional, present only if the respective InterfaceCapability contains a value for Active Destination MAC and VLAN Stream identification in CB-StreamIdenTypeList, and stream transformation is performed in AN-TL and CN-TL).', '', '‐\tVLAN Tag (optional, present only if the respective InterfaceCapability contains that it is VlanTagCapable and a value for Active Destination MAC and VLAN Stream identification in CB-StreamIdenTypeList, and the stream transformation is performed in AN-TL and CN-TL).', '', '‐\tIPv4/IPv6 Tuples (optional, but not supported in this release of the specification).', '', '‐\tTimeAwareOffset (optional, present only if the traffic is time-synchronized, AN-TL and CN-TL is supported, and TSpecTimeAware elements were provided in the stream requirements).', '', '\tIf the InterfaceConfiguration is included and if the AL-TL/CN-TL acting as Talker End Station support the Stream Transformation as described in IEEE\xa0Std\xa0802.1Q\xa0[98], the SMF/CUC can instruct the UPF and NG-RAN to assign an individual TSN Transport address by providing the InterfaceConfiguration to the AN-TL/CN-TL via TL-Container. The Talker in AN-TL/CN-TL shall use the indicated InterfaceConfiguration, e.g. source MAC address, multicast destination MAC address, VLAN ID, as assigned by the TN CNC for the data stream in a QoS Flow. The TN can identify the streams based on the Stream Transformation that is applied in the AN-TL/CN-TL acting as Taker End Station. This allows to use a single GTP-U tunnel as defined for non-TSN Transport networks.', '', '\tIf the TimeAwareOffset is included from TN CNC to SMF/CUC, the SMF/CUC should send the TimeAwareOffset to the AN-TL (for streams in UL direction) or the CN-TL port (for streams in the DL direction). The AL-TL/CN-TL derive Gate Control information (i.e. AdminBaseTime, AdminCycleTime, AdminControlListLength, and AdminControlList) based on the TimeAwareOffset as defined in IEEE\xa0Std\xa0802.1Q\xa0[98] at the AN-TL (for streams in UL direction) and the CN-TL port (for streams in the DL direction). The AN-TL or CN-TL acting as Talker buffers the data burst until the time indicated in the TimeAwareOffset is reached.', '', '\tIf the SMF/CUC receives a TimeAwareOffset from TN CNC for a downlink stream (i.e. for a Talker in the UPF/CN-TL), the SMF/CUC adds the received TimeAwareOffset value to the TSCAI BAT in the DL direction in the TSCAI and updates the NG-RAN for the new TSCAI.', '', '‐\tFailedInterfaces (optional) provides a list of one or more physical ports of failed end stations or bridges to locate the interfaces in the physical topology that caused the failure. It is up to implementation how the SMF reacts when it receives FailedInterfaces.', '', 'NOTE\xa02:\tIt is assumed that the end station communication-configuration will contain at least the same information as defined for the status.', '', 'NOTE\xa03:\tIf Jitter value needs to be considered, EarliestTransmitOffset for UL and DL and LatestTransmitOffset shall be Jitter corrected. How Jitter correction is carried out is up to implementation.', '']</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.2133067952769679</v>
+        <v>0.1877144186063817</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;G.1.1	General requirements&lt;/h2&gt;</t>
+          <t>&lt;h1&gt;P.2	Session management and traffic routing for PIN&lt;/h1&gt;</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -728,22 +728,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['', 'The following list contains requirements that a NAT Traversal solution should satisfy:', '', '-\tSupport multiple UEs (on one or more devices) behind a single NAT;', '', '-\tSupport both inbound and outbound requests to and from UEs through one or more NAT device(s);', '', '-\tSupport the traversal of NATs between the UE and the IMS CN;', '', '-\tSupport uni-directional and bi-directional media flows;', '', '-\tMinimize additional session setup delay.', '']</t>
+          <t>['', 'The general session management principles as described in clause\xa05.6, the QoS model as defined in clause\xa05.7 and the User Plane management for 5GS as defined in clause\xa05.8 are applicable to PIN-DN communication and PIN-indirect communication.', '', 'If a PIN has multiple PEGC UEs, 5G VN group communication mechanisms can be used for PIN indirect communication (i.e. communication between PIN Elements belonging to the same PIN but served by different PEGC UEs). In this case a dedicated SMF set is used for managing the PIN related PDU Sessions from all the PEGCs of that PIN and the PDU session management principles for 5G VN-LAN-type services as specified in clause\xa05.29.3 are applicable. The user plane handling for 5G LAN-type services as specified in 5.29.4 are applicable with following differences:', '', '-\tFor PIN indirect communication N19-based traffic forwarding is not used i.e. the PIN traffic is forwarded using:', '', '-\tN6-based traffic forwarding method, where the UL/DL traffic for the PIN communication is forwarded to/from the DN;', '', '-\tlocal switching as depicted in Figure P.2-1 below, following the principles of local switching of traffic for 5G VN LAN-type service.', '', '----media/image148.emf----', '', 'Figure P.2-1: Local-switch based user plane architecture for PIN', '', 'NOTE:\tFigure P.2-1 does not show traffic from a PEMC.', '', 'The SMF configures the UPF(s) to apply N6-based traffic forwarding to route traffic between PDU Sessions of different PEGC UEs of a PIN as specified in clause\xa05.8.2.13. The SMF can apply local switching as specified in clause\xa05.8.2.13 in order to enable UPF locally forward uplink stream from one PDU session of one PEGC UE of a PIN as downlink stream of PDU session of one or more PEGC UE(s) of the same PIN. For local switching of PIN traffic between PIN related PDU sessions from different PEGC UEs of a single PIN, based on the DNN and S-NSSAI that is used for the PDU session related to PIN, the SMF provides a Network Instance to the UPF in FAR and/or PDR via N4 Session Establishment/Modification procedures.', '', '', '', '', 'Annex Q (informative):', 'Satellite coverage availability information', '', 'The protocol and format of satellite coverage availability information to be provisioned to the UE via PDU session or SMS is not defined in this release of the specification, but this annex provides some examples on the information that constitutes input to the source of satellite coverage availability information e.g. external server and the output it provides to the UE. Satellite coverage availability information can be indicated to the UE by indications corresponding to whether or not coverage is available for a specific NTN RAT Type for a particular location and time, where:', '', '-\tThese indications can be Boolean "True" (e.g. coverage available) and "False" (coverage not available);', '', '-\tlocations can correspond to grid points in a fixed array (e.g. rectangular, hexagonal);', '', '-\tCoverage availability times may occur at fixed periodic intervals; and', '', '-\tCoverage availability information is per RAT Type. The information provisioned to the UE can include coverage information on only one PLMN or multiple PLMNs.', '', 'If Satellite coverage availability information indicates coverage is available then additional information on whether PLMN is allowed to operate in that location can be provided to the UE.', '', 'In order for the source of satellite coverage availability information to provide accurate information to the UE, a UE might indicate for example the following information to a source of satellite coverage availability information (e.g. an external server):', '', '-\tServing PLMN ID (if not already known or implied).', '', '-\tOne or more satellite RAT Types (where satellite coverage availability information is then expected for these one or more RAT Types).', '', '-\tList of supported NTN frequency bands (if not implied by the particular RATs).', '', '-\tPresent UE location (e.g. latitude and longitude) for a reference grid point (e.g. the most Southerly and then most Westerly grid point).', '', '-\tType of Array (e.g. rectangular or hexagonal).', '', '-\tMinimum elevation angle.', '', 'Based on the above information provided by the UE, satellite coverage availability information could be delivered to the UE as a sequence of time durations for each grid point where each time duration includes an indication of coverage availability or unavailability one example of many alternatives as illustrated below for a particular grid point with N different durations:', '', '\tSatellite coverage availability information at a given grid point = &amp;lt;N&amp;gt; &amp;lt;Binary 0 or 1&amp;gt;&amp;lt;Duration 1&amp;gt; &amp;lt;Binary 0 or 1&amp;gt;&amp;lt;Duration 2&amp;gt; . . . . &amp;lt;Binary 0 or 1&amp;gt;&amp;lt;Duration N&amp;gt;', '', 'The above would be concatenated for all of the grid points to produce the satellite coverage availability information.', '', 'When SMS is used to deliver the satellite coverage availability information, the UE input and satellite coverage availability information output can be delivered in a series of concatenated SMS messages using possibly the same format.', '', '', 'Annex R (informative):', 'Change history', '', 'Change history', '', '&lt;span style="font-size:16pt"&gt;Date&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Meeting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TDoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rev&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cat&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Subject/Comment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;New version&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;06-2017&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#76&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170384&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update for presentation to TSG\xa0SA#76 for Information&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;12-2017&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#78&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial Update&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;12-2017&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#78&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-170931&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;Correction of Annex A figure numbers for presentation to TSG\xa0SA#78 for Approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2.0.1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;12-2017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#78&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;MCC Editorial Update after TSG\xa0SA#78 Approval&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Using NRF for UPF discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Configuration information the UE may exchange with the SMF during the lifetime of a PDU Session&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0004&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Handling of MM back-off timer for N3GPP Access&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0005&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction of the definitions of Allowed NSSAI and Configured NSSAI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0006&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Allowed NSSAI and Access Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0007&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to rejected S-NSSAI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0008&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Emergency Services&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of SUCI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180096&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;D&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous editorial corrections (capitalization, messages, procedures etc.)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0011&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to RQoS logic when receiving DL packet with RQI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0013&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Paging Policy Differentiation correction&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UE specific DRX parameter from old AMF to new AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on PCF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0016&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Adding the new clause\xa0about SMSF selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Use of identifiers for mobility between GERAN/UTRAN and 5GS&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remaining IP address/prefix lifetime with SSC mode 3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0020&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to handling of S-NSSAI mapping information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0021&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Wildcard DNN subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0022&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification in LADN clause\xa05.6.5 - TS\xa023.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0023&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean up on the interworking without 26 indication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0024&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TS 23.501 mobility from EPC to 5GC&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-18009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0025&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AMF Load Re-Balancing For CONNECTED mode UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update on Traffic Detection Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Proposal of Specifying Packet Detection Rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0028&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Relation between the SSC mode 3 and the PDU type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0031&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE-specific DRX parameter negotiation between UE and AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0033&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Control of the Messages triggering Paging at AMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment with TS\xa023.502 on Service Request procedure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0035&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections and clarifications for the usage of Packet Filter Set&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update Paging Policy Differentiation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0038&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to AF influence on traffic routing&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarify NSSF discovery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180090&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change subscribed S-NSSAI in UE to configured NSSAI of HPLMN&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0041&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UDM discovery clarifications&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to UPF selection and resolution of related Editor\'s Note&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180097&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Updates to the Security Edge Protection Proxy description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Homogeneous support for IMS voice over PS Session supported indication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Slice selection cleanup&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0048&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resource reservation for services sharing priority&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0049&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Replace PUI with GPSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0050&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Idle and connected state terminology cleanup&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0051&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NAS congestion control update&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Complete of IMS Emergency support in 5G including slice and local numbers&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0053&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Traffic mapping information that disallows UL packets&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clean-up of Characteristics signalling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EPS Fallback for voice&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0056&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Network sharing prioritised PLMN handling&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Combined N3IWF/ePDG Selection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0058&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Moving Network Analytics functionality into 23.501&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0061&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on UDR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QFI in N9&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NF Service Discovery Corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE mobility event notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180092&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;C&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Architectural solution for User Plane (UP) Security policy and User Plane Integrity Protection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CN assistance information enhancement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180098&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Inter-PLMN mobility when N26 is not used&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#79&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-180093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Interworking without N26 corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;15.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;03-2018&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.2215800454227319</v>
+        <v>0.2578710987277127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;G.3.1	Required functions of the PCSCF&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;3.1	Terms&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23558-i30.docx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -753,22 +753,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['', 'When supporting IMS communication for a UE residing behind a NAT or when IP address translation is needed between the IPCAN and the IMS domain on the media path only, the PCSCF may include the IMS-ALG function that is defined in Annex\xa0I of this specification. The following functions shall be performed in the PCSCF:', '', '1)\tThe PCSCF shall be able to recognize that the UE is behind a NAT device or IP address translation is needed between the IPCAN and the IMS domain on the media path only.', '', '2)\tThe IMS-ALG function in the PCSCF shall control the IMS Access Gateway, e.g. request transport addresses (IP addresses and port numbers) from the IMS Access Gateway, and shall perform the necessary changes of the SDP parameters.', '', '3)\tThe IMS-ALG function in the PCSCF shall perform the necessary changes of headers in SIP messages.', '', '4)\tThe IMS-ALG function in the PCSCF shall be able to support scenarios where IMS CN domain and IPCAN use the same IP version and where they use different IP versions.', '', '5)\tThe IMS-ALG function in the P-CSCF shall be able to request opening and closing of gates on the IMS Access Gateway.', '', '6)\tThe IMS-ALG function in the P-CSCF may configure the IMS Access Gateway to police the remote source address/port of the associated media flow(s).', '', '7)\tThe IMS-ALG function in the P-CSCF may configure the IMS Access Gateway to police the bandwidth/data rate of the associated media flow(s) (see TS\xa023.333\xa0[73]).', '', '8)\tThe IMS-ALG may configure the IMS Access Gateway to set the differentiated service code point for egress packets to an explicit value or alternately to allow the differentiated service code point of the ingress packet to be copied into the corresponding egress packet. An IMS Access Gateway can also support differentiated service code point marking based on local configuration.', '', '9)\tThe IMS-ALG may request an IMS Access Gateway to detect and report inactive media flows.', '']</t>
+          <t>['', 'For the purposes of the present document, the terms given in 3GPP TR\xa021.905\xa0[1] and the following apply. A term defined in the present document takes precedence over the definition of the same term, if any, in 3GPP TR\xa021.905\xa0[1].', '', '&lt;b&gt;Application Context:&lt;/b&gt; A set of data about the Application Client that resides in the Edge Application Server.', '', '&lt;b&gt;Application Context Relocation&lt;/b&gt;: Refers to the end-to-end service continuity procedure described in clause\xa08.8.', '', '&lt;b&gt;Application Context Transfer&lt;/b&gt;: Refers to the transfer of the Application Context between the source Edge Application Server and the target Edge Application Server, which is a part of the service continuity procedure described in clause\xa08.8.', '', '&lt;b&gt;Application Server&lt;/b&gt;: Application software resident in the cloud performing the server function.', '', "&lt;b&gt;Edge Computing: &lt;/b&gt;A concept, as described in 3GPP\xa0TS\xa023.501\xa0[2], that enables operator and 3&lt;sup&gt;rd&lt;/sup&gt; party services to be hosted close to the UE's access point of attachment, to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network.", '', '&lt;b&gt;Edge Computing Service Provider&lt;/b&gt;: A mobile network operator or a 3&lt;sup&gt;rd&lt;/sup&gt; party service provider offering Edge Computing service.', '', '&lt;b&gt;Edge Data Network:&lt;/b&gt; A local Data Network that supports the architecture for enabling edge applications.', '', '&lt;b&gt;EEC Context:&lt;/b&gt; A set of data about the Edge Enabler Client that resides in the Edge Enabler Server.', '', '&lt;b&gt;Edge Enabler Layer: &lt;/b&gt;Refers to the overall functionality provided by the entities such as Edge Enabler Client, Edge Enabler Server, Edge Configuration Server and Cloud Enabler Server, in support of applications as per the architecture defined in clause\xa06.', '', "&lt;b&gt;Edge Hosting Environment: &lt;/b&gt;An environment providing support required for Edge Application Server's execution.", '', '&lt;b&gt;Instantiable EAS: &lt;/b&gt;EAS type for which the instantiation trigger from the Edge Enabler Layer is considered by the ECSP management system for instantiating EAS.', '', '&lt;b&gt;Main EAS:&lt;/b&gt; An EAS in EAS bundle taking the role of controlling the ACR for EAS bundle in network side decided ACR scenario.', '', '&lt;b&gt;Partner ECS: &lt;/b&gt;Refers to an ECS deployed by a partner ECSP.', '', '&lt;b&gt;Partner ECSP: &lt;/b&gt;An ECSP with whom there is a service level agreement for resource sharing for roaming or federation or both.', '']</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.2123951150147332</v>
+        <v>0.2033036657562272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;G.3.2	Required functions of the IMS Access Gateway&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;3.2	Abbreviations&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -778,22 +778,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['', 'The required functions of the IMS Access Gateway for NAT translation are the following:', '', '1)\tIt allocates and releases transport addresses according to the requests coming from the IMS-ALG function of the PCSCF.', '', '2)\tIt ensures proper forwarding of media packets coming from or going to the UE.', '', '3)\tIt shall support the scenarios where IMS CN domain and IPCAN use the same IP version and where they use different IP versions.', '', '4)\tIt shall support opening and closing of gates, under control of the IMS-ALG.', '', '5)\tIt shall support policing of the remote source address/port and bandwidth/data rate of media flows, as configured by the IMS-ALG.', '', '6)\tIt shall support the setting of the differentiated service code point for egress packets as configured by the IMS-ALG or else based on local configuration.', '', '7)\tIt may support detection and reporting of inactive media flows.', '', '8)\tIt shall support remote NAT traversal.', '']</t>
+          <t>['', 'For the purposes of the present document, the abbreviations given in TR\xa021.905\xa0[1] and the following apply. An abbreviation defined in the present document takes precedence over the definition of the same abbreviation, if any, in TR\xa021.905\xa0[1].', '', '5GC\t5G Core Network', '', '5G DDNMF\t5G Direct Discovery Name Management Function', '', '5G LAN\t5G Local Area Network', '', '5GS\t5G System', '', '5G-AN\t5G Access Network', '', '5G-AN PDB\t5G Access Network Packet Delay Budget', '', '5G-EIR\t5G-Equipment Identity Register', '', '5G-GUTI\t5G Globally Unique Temporary Identifier', '', '5G-BRG\t5G Broadband Residential Gateway', '', '5G-CRG\t5G Cable Residential Gateway', '', '5G GM\t5G Grand Master', '', '5G NSWO\t5G Non-Seamless WLAN offload', '', '5G-RG\t5G Residential Gateway', '', '5G-S-TMSI\t5G S-Temporary Mobile Subscription Identifier', '', '5G VN\t5G Virtual Network', '', '5QI\t5G QoS Identifier', '', 'ADRF\tAnalytics Data Repository Function', '', 'AF\tApplication Function', '', 'AKMA\tAuthentication and Key Management for Applications', '', 'AnLF\tAnalytics Logical Function', '', 'AMF\tAccess and Mobility Management Function', '', 'AoI\tArea of Interest', '', 'AS\tAccess Stratum', '', 'ATSSS\tAccess Traffic Steering, Switching, Splitting', '', 'ATSSS-LL\tATSSS Low-Layer', '', 'AUSF\tAuthentication Server Function', '', 'BMCA\tBest Master Clock Algorithm', '', 'BSF\tBinding Support Function', '', 'CAG\tClosed Access Group', '', 'CAPIF\tCommon API Framework for 3GPP northbound APIs', '', 'CH\tCredentials Holder', '', 'CHF\tCharging Function', '', 'CN PDB\tCore Network Packet Delay Budget', '', 'CP\tControl Plane', '', 'DAPS\tDual Active Protocol Stacks', '', 'DCCF\tData Collection Coordination Function', '', 'DCS\tDefault Credentials Server', '', 'DetNet\tDeterministic Networking', '', 'DL\tDownlink', '', 'DN\tData Network', '', 'DNAI\tDN Access Identifier', '', 'DNN\tData Network Name', '', 'DRX\tDiscontinuous Reception', '', 'DS-TT\tDevice-side TSN translator', '', 'EAC\tEarly Admission Control', '', 'ePDG\tevolved Packet Data Gateway', '', 'EBI\tEPS Bearer Identity', '', 'EUI\tExtended Unique Identifier', '', 'FAR\tForwarding Action Rule', '', 'FN-BRG\tFixed Network Broadband RG', '', 'FN-CRG\tFixed Network Cable RG', '', 'FN-RG\tFixed Network RG', '', 'FQDN\tFully Qualified Domain Name', '', 'GBA\tGeneric Bootstrapping Architecture', '', 'GEO\tGeostationary Orbit', '', 'GFBR\tGuaranteed Flow Bit Rate', '', 'GIN\tGroup ID for Network Selection', '', 'GMLC\tGateway Mobile Location Centre', '', 'GPSI\tGeneric Public Subscription Identifier', '', 'GUAMI\tGlobally Unique AMF Identifier', '', 'HMTC\tHigh-Performance Machine-Type Communications', '', 'HR\tHome Routed (roaming)', '', 'IAB\tIntegrated access and backhaul', '', 'IMEI/TAC\tIMEI Type Allocation Code', '', 'IPUPS\tInter PLMN UP Security', '', 'I-SMF\tIntermediate SMF', '', 'I-UPF\tIntermediate UPF', '', 'LADN\tLocal Area Data Network', '', 'LBO\tLocal Break Out (roaming)', '', 'LEO\tLow Earth Orbit', '', 'LMF\tLocation Management Function', '', 'LoA\tLevel of Automation', '', 'LPP\tLTE Positioning Protocol', '', 'LRF\tLocation Retrieval Function', '', 'L4S\tLow Latency, Low Loss and Scalable Throughput', '', 'MBS\tMulticast/Broadcast Service', '', 'MBSF\tMulticast/Broadcast Service Function', '', 'MBSR\tMobile Base Station Relay', '', 'MBSTF\tMulticast/Broadcast Service Transport Function', '', 'MB-SMF\tMulticast/Broadcast Session Management Function', '', 'MB-UPF\tMulticast/Broadcast User Plane Function', '', 'MEO\tMedium Earth Orbit', '', 'MFAF\tMessaging Framework Adaptor Function', '', 'MCX\tMission Critical Service', '', 'MDBV\tMaximum Data Burst Volume', '', 'MFBR\tMaximum Flow Bit Rate', '', 'MICO\tMobile Initiated Connection Only', '', 'MINT\tMinimization of Service Interruption', '', 'ML\tMachine Learning', '', 'MPQUIC\tMulti-Path QUIC', '', 'MPS\tMultimedia Priority Service', '', 'MPTCP\tMulti-Path TCP Protocol', '', 'MTLF\tModel Training Logical Function', '', 'N3IWF\tNon-3GPP InterWorking Function', '', 'N3QAI\t\tNon-3GPP QoS Assistance Information', '', 'N5CW\tNon-5G-Capable over WLAN', '', 'NAI\tNetwork Access Identifier', '', 'NEF\tNetwork Exposure Function', '', 'NF\tNetwork Function', '', 'NGAP\tNext Generation Application Protocol', '', 'NID\tNetwork identifier', '', 'NPN\tNon-Public Network', '', 'NR\tNew Radio', '', 'NRF\tNetwork Repository Function', '', 'NS-AoS\tNetwork Slice Area of Service', '', 'NSAC\tNetwork Slice Admission Control', '', 'NSACF\tNetwork Slice Admission Control Function', '', 'NSAG\tNetwork Slice AS Group', '', 'NSI ID\tNetwork Slice Instance Identifier', '', 'NSSAA\tNetwork Slice-Specific Authentication and Authorization', '', 'NSSAAF\tNetwork Slice-specific and SNPN Authentication and Authorization Function', '', 'NSSAI\tNetwork Slice Selection Assistance Information', '', 'NSSF\tNetwork Slice Selection Function', '', 'NSSP\tNetwork Slice Selection Policy', '', 'NSSRG\tNetwork Slice Simultaneous Registration Group', '', 'NSWO\tNon-Seamless WLAN offload', '', 'NSWOF\tNon-Seamless WLAN offload Function', '', 'NW-TT\tNetwork-side TSN translator', '', 'NWDAF\tNetwork Data Analytics Function', '', 'ONN\tOnboarding Network', '', 'ON-SNPN\tOnboarding Standalone Non-Public Network', '', 'PCF\tPolicy Control Function', '', 'PDB\tPacket Delay Budget', '', 'PDR\tPacket Detection Rule', '', 'PDU\tProtocol Data Unit', '', 'PDV\tPacket Delay Variation', '', 'PEGC\tPIN Element with Gateway Capability', '', 'PEI\tPermanent Equipment Identifier', '', 'PEMC\tPIN Element with Management Capability', '', 'PER\tPacket Error Rate', '', 'PFD\tPacket Flow Description', '', 'PIN\tPersonal IoT Network', '', 'PINE\tPIN Element', '', 'PLR\tPacket Loss Rate', '', 'PNI-NPN\tPublic Network Integrated Non-Public Network', '', 'PPD\tPaging Policy Differentiation', '', 'PPF\tPaging Proceed Flag', '', 'PPI\tPaging Policy Indicator', '', 'PSA\tPDU Session Anchor', '', 'PSDB\tPDU Set Delay Budget', '', 'PSER\tPDU Set Error Rate', '', 'PSIHI\tPDU Set Integrated Handling Information', '', 'PTP\tPrecision Time Protocol', '', 'PVS\tProvisioning Server', '', 'QFI\tQoS Flow Identifier', '', 'QoE\tQuality of Experience', '', 'RACS\tRadio Capabilities Signalling optimisation', '', '(R)AN\t(Radio) Access Network', '', 'RG\tResidential Gateway', '', 'RIM\tRemote Interference Management', '', 'RQA\tReflective QoS Attribute', '', 'RQI\tReflective QoS Indication', '', 'RSN\tRedundancy Sequence Number', '', 'RTT\tRound Trip Time', '', 'SA NR\tStandalone New Radio', '', 'SBA\tService Based Architecture', '', 'SBI\tService Based Interface', '', 'SCP\tService Communication Proxy', '', 'SD\tSlice Differentiator', '', 'SEAF\tSecurity Anchor Functionality', '', 'SEPP\tSecurity Edge Protection Proxy', '', 'SF\tService Function', '', 'SFC\tService Function Chain', '', 'SMF\tSession Management Function', '', 'SMSF\tShort Message Service Function', '', 'SN\tSequence Number', '', 'SNPN\tStand-alone Non-Public Network', '', 'S-NSSAI\tSingle Network Slice Selection Assistance Information', '', 'SO-SNPN\tSubscription Owner Standalone Non-Public Network', '', 'SSC\tSession and Service Continuity', '', 'SSCMSP\tSession and Service Continuity Mode Selection Policy', '', 'SST\tSlice/Service Type', '', 'SUCI\tSubscription Concealed Identifier', '', 'SUPI\tSubscription Permanent Identifier', '', 'SV\tSoftware Version', '', 'TA\tTracking Area', '', 'TAI\tTracking Area Identity', '', 'TNAN\tTrusted Non-3GPP Access Network', '', 'TNAP\tTrusted Non-3GPP Access Point', '', 'TNGF\tTrusted Non-3GPP Gateway Function', '', 'TNL\tTransport Network Layer', '', 'TNLA\tTransport Network Layer Association', '', 'TSC\tTime Sensitive Communication', '', 'TSCAI\tTSC Assistance Information', '', 'TSCTSF\tTime Sensitive Communication and Time Synchronization Function', '', 'TSN\tTime Sensitive Networking', '', 'TSN GM\tTSN Grand Master', '', 'TSP\tTraffic Steering Policy', '', 'TT\tTSN Translator', '', 'TWIF\tTrusted WLAN Interworking Function', '', 'UAS NF\tUncrewed Aerial System Network Function', '', 'UCMF\tUE radio Capability Management Function', '', 'UDM\tUnified Data Management', '', 'UDR\tUnified Data Repository', '', 'UDSF\tUnstructured Data Storage Function', '', 'UL\tUplink', '', 'UL CL\tUplink Classifier', '', 'UPF\tUser Plane Function', '', 'URLLC\tUltra Reliable Low Latency Communication', '', 'URRP-AMF\tUE Reachability Request Parameter for AMF', '', 'URSP\tUE Route Selection Policy', '', 'VID\tVLAN Identifier', '', 'VLAN\tVirtual Local Area Network', '', 'W-5GAN\tWireline 5G Access Network', '', 'W-5GBAN\tWireline BBF Access Network', '', 'W-5GCAN\tWireline 5G Cable Access Network', '', 'W-AGF\tWireline Access Gateway Function', '', '', '']</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.2094059985023102</v>
+        <v>0.2053779448624561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;G.6.5	Policy and Charging Control procedures&lt;/h2&gt;</t>
+          <t>&lt;h2&gt;3.2	Abbreviations&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23503-i20.docx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -803,22 +803,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['', 'When PCC is to be employed for a session, the PCSCF is responsible for providing the PCRF/PCF with IMS media flow information related to the service. If the UE has indicated that the active transport address corresponds to a relayed address, the PCSCF shall be responsible for using the additional information provided by the UE to convert the media flows derived from the SDP into flow descriptions which will traverse the Policy and Charging Enforcement Point.', '', 'The deployment of STUN relay servers requires that the UE be able to communicate with such servers prior to session establishment. The PCC for the IPCAN must be set up to allow communication with the STUN relay server prior to IMS session establishment. This may impact gating control in some IPCANs which do not support a default or best effort flow which can be used to communicate with the STUN relay server prior to session establishment.', '', 'NOTE\xa01:\tPredefined PCC rules can be created to allow the UE to communicate with the STUN relay much in the same way the UE is allowed to communicate with the IMS network for session management.', '', 'NOTE\xa02:\tGiven that a STUN relay is a forwarding server under the direction of the UE, necessary precaution needs to be taken by the operator in how it chooses to craft these rules. It is recommended that such predefined rules only guarantee the minimal amount of bandwidth necessary to accomplish the necessary UE to STUN relay communication. Such an approach helps reduce the resources required to support NAT traversal mechanisms. Finally, such an approach allows the preconfigured rule to be over-ridden by dynamic rules which allow for the necessary bandwidth needed by the session.', '', 'NOTE\xa03:\tThe dynamic PCC rule will need to differentiate between different media traffic between UE and STUN relay (e.g. voice vs. video), which can be identified by the different ports assigned by the residential NAT. Session bindings need to take into account that the relevant Terminal IP address may be contained within the ICE candidates contained in the session description, rather than in the normal media description.', '']</t>
+          <t>['', 'For the purposes of the present document, the abbreviations given in TR\xa021.905\xa0[1], TS\xa023.501\xa0[2], TS\xa023.502\xa0[3], TS\xa023.316\xa0[27] and the following apply. An abbreviation defined in the present document takes precedence over the definition of the same abbreviation, if any, in TR\xa021.905\xa0[1].', '', '5G DDNMF\t5G Direct Discovery Name Management Function', '', 'A2XP\tA2X Policy', '', 'AMBR\tAggregated Maximum Bitrate', '', 'ANDSP\tAccess Network Discovery &amp;amp; Selection Policy', '', 'ARP\tAllocation and Retention Priority', '', 'ASP\tApplication Service Provider', '', 'BDT\tBackground Data Transfer', '', 'BSF\tBinding Support Function', '', 'CHF\tCHarging Function', '', 'DCCF\tData Collection Coordination Function', '', 'H-PCF\tA PCF in the HPLMN', '', 'H-UDR\tA UDR in the HPLMN', '', 'MPS\tMultimedia Priority Service', '', 'NBIFOM\tNetwork-based IP flow mobility', '', 'NSWO\tNon-Seamless WLAN Offload', '', 'NWDAF\tNetwork Data Analytics Function', '', 'OAM\tOperation Administration and Maintenance', '', 'OCS\tOnline Charging System', '', 'PCC\tPolicy and Charging Control', '', 'PDTQ\tPlanned Data Transfer with QoS', '', 'PDUID\tProSe Discovery UE ID', '', 'PDV\tPacket Delay Variation', '', 'PFD\tPacket Flow Description', '', 'PFDF\tPacket Flow Description Function', '', 'PRA\tPresence Reporting Area', '', 'ProSe\tProximity based Services', '', 'ProSeP\tProSe Policy', '', 'RAN\tRadio Access Network', '', 'SNPN\tStand-alone Non-Public Network', '', 'URSP\tUE Route Selection Policy', '', 'V2XP\tV2X Policy', '', 'V-PCF\tA PCF in the VPLMN', '', 'V-UDR\tA UDR in the VPLMN', '', 'vSRVCC\tvideo Single Radio Voice Call Continuity', '', 'WLANSP\tWLAN Selection Policy', '']</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.2074623041551474</v>
+        <v>0.2083834820061423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;10.11.2	Request for unicast resources at session establishment&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;4.1	General concepts&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -828,47 +828,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['', 'The procedure defined in this subclause specifies how network resources are requested at session establishment. If concurrent sessions are used the MC service server may utilize the capability of resource sharing specified in 3GPP\xa0TS\xa023.203\xa0[8]. The request for resources is sent to the PCRF on the Rx reference point and includes media type, bandwidth, priority, application identifier and resource sharing information.', '', 'The procedure is generic to any type of session establishment that requires requests for network resources.', '', 'Procedures in figure\xa010.11.2-1 are the signalling procedures for the requesting resource at session establishment. ', '', '----media/image138.emf----', '', 'Figure\xa010.11.2-1: Resource request at session establishment', '', '1.\tMC service client sends a call/session establishment request.', '', '2.\tMC service server receives evaluates the need network resources and use of media resource sharing.', '', '3.\tMC service server send a session progress request containing request for resources.', '', '4.\tPCC procedures (as defined in 3GPP\xa0TS\xa023.203\xa0[8]) initiated from SIP core local inbound/outbound proxy over Rx.', '', '5.\tThe SIP core local inbound / outbound proxy forwards the call control protocol request to the MC service client.', '', '6.\tThe MC service client acknowledges the session progress request with an OK message.', '', '7.\tThe SIP core local inbound / outbound proxy forwards the OK message to the MC service server.', '', '8.\tThe MC service call/session is established and resources have been allocated.', '']</t>
+          <t>['', 'The 5G System architecture is defined to support data connectivity and services enabling deployments to use techniques such as e.g. Network Function Virtualization and Software Defined Networking. The 5G System architecture shall leverage service-based interactions between Control Plane (CP) Network Functions where identified. Some key principles and concept are to:', '', '-\tSeparate the User Plane (UP) functions from the Control Plane (CP) functions, allowing independent scalability, evolution and flexible deployments e.g. centralized location or distributed (remote) location.', '', '-\tModularize the function design, e.g. to enable flexible and efficient network slicing.', '', '-\tWherever applicable, define procedures (i.e. the set of interactions between network functions) as services, so that their re-use is possible.', '', '-\tEnable each Network Function and its Network Function Services to interact with other NF and its Network Function Services directly or indirectly via a Service Communication Proxy if required. The architecture does not preclude the use of another intermediate function to help route Control Plane messages (e.g. like a DRA).', '', '-\tMinimize dependencies between the Access Network (AN) and the Core Network (CN). The architecture is defined with a converged core network with a common AN - CN interface which integrates different Access Types e.g. 3GPP access and non-3GPP access.', '', '-\tSupport a unified authentication framework.', '', '-\tSupport "stateless" NFs, where the "compute" resource is decoupled from the "storage" resource.', '', '-\tSupport capability exposure.', '', '-\tSupport concurrent access to local and centralized services. To support low latency services and local access to data networks, UP functions can be deployed close to the Access Network.', '', '-\tSupport roaming with both Home routed traffic as well as Local breakout traffic in the visited PLMN.', '']</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.219062946771004</v>
+        <v>0.2144235323780339</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;10.3.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;4.1	General&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23548-i20.docx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['', 'A pre-established session is a session established between an MC service client and the MC service server, on a per MC service basis, to exchange necessary media parameters needed for the definition of media bearers, allowing a faster set-up of MC service calls/sessions.', '', 'After a pre-established session is established, a media bearer carrying the media and media control messages is always active. The MC service client establishes one or more pre-established sessions to an MC service server after SIP registration, and prior to initiating any MC service related procedures (e.g. calls, sessions) to other MC service users. When establishing a pre-established session, the MC service client negotiates the media parameters, including establishing IP addresses and ports using interactive connectivity establishment (ICE) as specified in IETF\xa0RFC\xa05245\xa0[22], which later can be used in MC service calls/sessions. This avoids the need to negotiate media parameters (including evaluating ICE candidates) and reserving bearer resources during the MC service call/session establishment that results in delayed MC service call/session establishment.', '', 'The use of pre-established session on the origination side is completely compatible with the use of on demand session on the termination side. The use of pre-established session on the termination side is completely compatible with the use of on demand session on the origination side.', '', 'The pre-established session may be modified by the MC service client and the MC service server using the SIP procedures for session modification.', '', 'The pre-established session may be released by the MC service client and the MC service server using the SIP procedures for terminating a SIP session.', '']</t>
+          <t>['', "Edge Computing enables operator and 3rd party services to be hosted close to the UE's access point of attachment, so as to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network.", '', '5GS supports Edge Hosting Environment (EHE) deployed in the DN beyond the PSA UPF. An EHE may be under the control of either the operator or 3rd parties.', '', 'The Edge Computing features defined in this specification are applicable to PLMN(s) and to SNPN(s).', '', 'The Local part of the DN in which EHE is deployed may have user plane connectivity with both a centrally deployed PSA and locally deployed PSA of same DNN. Edge Computing enablers as described in clause\xa05.13 of TS\xa023.501\xa0[2], e.g. local routing and traffic steering, session and service continuity, AF influenced traffic routing, are leveraged in this specification.', '', 'Edge Computing in the serving network (e.g. for Local Break Out roaming scenario in case of PLMN access) is supported, but for AF guidance to PCF determination of URSP rules, the Serving network (e.g. VPLMN or serving SNPN) has no control on URSP, so cannot influence UE in selecting a specific Edge Computing related DNN and S-NSSAI.', '']</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.2315802460974196</v>
+        <v>0.2013478319201036</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;25.2.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;4.1b	LCS Quality of Service&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23273-i20.docx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -878,47 +878,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['', 'The following requirements shall apply if the MME or S4-SGSN and the SGW support this feature.', '', 'If an SGW detects that an MME or S4-SGSN has restarted (see clause\xa018 "GTP-C based restart procedures"), instead of removing all the resources associated with the peer node, the SGW shall maintain the PDN connection table data and MM bearer contexts for some specific S5/S8 bearer contexts eligible for network initiated service restoration, and initiate the deletion of the resources associated with all the other S5/S8 bearers.', '', 'NOTE 1:\tThis enables the SGW to still receive downlink user plane or control plane data from the PGW or from a PCRF (PMIP based S5/S8) for the maintained S5/S8 bearers.', '', "The S5/S8 bearers eligible for network initiated service restoration are determined based on operator's policy, e.g. based on the QCI and/or ARP and/or APN, and such operator's policy shall be applicable for both the SGW and the MME/SGSN. The Delay Tolerant Connection Indication (DTCI), if set, may also be used to determine that the S5/S8 bearer is not eligible for network initiated service restoration, based on operator's policy when using QCI and/or ARP and/or APN is not sufficient, e.g. for Home routed roaming scenario.", '', 'Emergency PDN connections for users without authenticated IMSI do not need to be maintained by the SGW and cannot be restored at the initiative of the network.', '', 'NOTE 2:\tUsers with an emergency call in progress can re-attach and re-establish the emergency PDN connection after detecting the loss of the signalling connection with the RAN. IMS Emergency PSAP callback is not supported for unauthenticated users with an emergency registration but without an emergency call in progress.', '', 'If at least one S5/S8 bearer needs to be maintained, the SGW shall also start a timer controlling the maximum duration during which those bearers shall be maintained. There is one operator configurable timer per SGW. The timer value may be equal to the periodic tracking area update timer (timer T3412) as specified in 3GPP TS\xa024.301\xa0[19] or the periodic routing area update timer (timer T3312) as specified in 3GPP TS\xa024.008\xa0[20]. This timer ensures that the S5/S8 bearers eligible for network initiated service restoration are maintained until the corresponding UE reattaches to the network. If the timer expires, the maintained resources shall be locally deleted assuming that the corresponding UE might have reattached to the network via a different SGW.', '', 'The SGW shall not release the default bearer of a PDN connection for which one or more dedicated bearers are maintained. Any downlink user plane or control plane packet received on a default bearer which is not eligible for network initiated service restoration but which is maintained for dedicated bearer(s) eligible for such procedure shall be silently discarded by the SGW.', '', 'When releasing the maintained S5/S8 bearers, the SGW may optionally perform other implementation specific actions such as messages to clear other external resources (e.g. PCC messages to clear the resources in the PCRF or GTP/PMIP messages to release the corresponding PDN connection in the PGW).', '', 'If the SGW receives a Create Session Request message for a UE for which some S5/S8 bearers are maintained, the SGW shall delete all the bearers for this UE and proceed with the Create Session Request message handling as specified in 3GPP TS\xa029.274\xa0[13].', '']</t>
+          <t>['', 'LCS Quality of Service is used to characterise the location request. It can either be determined by the operator or determined based on the negotiation with the LCS client or the AF. It is optional for LCS client or the AF to provide the LCS Quality of Service in the location request.', '', 'LCS Quality of Service information is characterised by 3 key attributes:', '', '-\tLCS QoS Class as defined below.', '', '-\tAccuracy: i.e. Horizontal Accuracy (see clause\xa04.3.1 of TS\xa022.071\xa0[2]) and Vertical Accuracy (see clause\xa04.3.2 of TS\xa022.071\xa0[2].', '', '-\tResponse Time (e.g. no delay, low delay or delay tolerant as described in clause\xa04.3.3 of TS\xa022.071\xa0[2]).', '', 'NOTE\xa01:\tOne or two QoS values for Horizontal Accuracy, Vertical Accuracy can be provided in the location request in addition to a preferred accuracy when LCS QoS Class is set to Multiple QoS Class.', '', 'The LCS QoS Class defines the degree of adherence by the Location Service to another quality of service parameter (Accuracy), if requested. The 5G system shall attempt to satisfy the other quality of service parameter regardless of the use of QoS Class. There are 3 LCS QoS Classes:', '', '-\tBest Effort Class: This class defines the least stringent requirement on the QoS achieved for a location request. If a location estimate obtained does not fulfil the other QoS requirements, it should still be returned but with an appropriate indication that the requested QoS was not met. If no location estimate is obtained, an appropriate error cause is sent.', '', '-\tMultiple QoS Class: This class defines intermediate stringent requirements on the QoS achieved for a location request. If the obtained location estimate does not fulfil the most stringent (i.e. primary) other QoS requirements affected by the degree of adherence of the QoS class, then another location estimation may be triggered at LMF attempting less stringent other QoS requirements. The process may be iterated until the least stringent (i.e. minimum) other QoS requirements are attempted. If the least stringent other QoS requirements cannot be fulfilled by a location estimate, then the location estimate shall be discarded, and an appropriate error cause shall be sent.', '', 'NOTE\xa02:\tAn AF may provide a location request with Multiple QoS Class via NEF. For an LCS client to provide a location request with Multiple QoS Class an Le interface implementation supporting Multiple QoS Class may be required.', '', 'NOTE\xa03:\tMultiple QoS Class can only be applied for Deferred 5GC-MT-LR Procedure in this release of the specification.', '', '-\tAssured Class: This class defines the most stringent requirement on the accuracy achieved for a location request. If a location estimate obtained does not fulfil the other QoS requirements, then it shall be discarded, and an appropriate error cause shall be sent.', '', 'NOTE\xa04:\tHow the LMF decides the positioning method is an implementation aspect not pre-determined by QoS criteria.', '', 'For LCS client, it may indicate accuracy defined in TS\xa029.572\xa0[12], tables 6.1.6.3.2-1 and 6.1.6.3.5-1. For AF, it may either indicate the accuracy defined in TS\xa029.572\xa0[12], table 6.1.6.3.2-1, or indicate a particular value e.g. PLMN ID defined in TS\xa029.122\xa0[35], table 5.3.2.4.7-1.', '']</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.2074814335116002</v>
+        <v>0.1891571407614857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;25.2.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.1	LMF Discovery and Selection&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23273-i20.docx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['', 'The following requirements shall apply if the MME or S4-SGSN and the SGW support this feature.', '', 'If an SGW detects that an MME or S4-SGSN has restarted (see clause\xa018 "GTP-C based restart procedures"), instead of removing all the resources associated with the peer node, the SGW shall maintain the PDN connection table data and MM bearer contexts for some specific S5/S8 bearer contexts eligible for network initiated service restoration, and initiate the deletion of the resources associated with all the other S5/S8 bearers.', '', 'NOTE 1:\tThis enables the SGW to still receive downlink user plane or control plane data from the PGW or from a PCRF (PMIP based S5/S8) for the maintained S5/S8 bearers.', '', "The S5/S8 bearers eligible for network initiated service restoration are determined based on operator's policy, e.g. based on the QCI and/or ARP and/or APN, and such operator's policy shall be applicable for both the SGW and the MME/SGSN. The Delay Tolerant Connection Indication (DTCI), if set, may also be used to determine that the S5/S8 bearer is not eligible for network initiated service restoration, based on operator's policy when using QCI and/or ARP and/or APN is not sufficient, e.g. for Home routed roaming scenario.", '', 'Emergency PDN connections for users without authenticated IMSI do not need to be maintained by the SGW and cannot be restored at the initiative of the network.', '', 'NOTE 2:\tUsers with an emergency call in progress can re-attach and re-establish the emergency PDN connection after detecting the loss of the signalling connection with the RAN. IMS Emergency PSAP callback is not supported for unauthenticated users with an emergency registration but without an emergency call in progress.', '', 'If at least one S5/S8 bearer needs to be maintained, the SGW shall also start a timer controlling the maximum duration during which those bearers shall be maintained. There is one operator configurable timer per SGW. The timer value may be equal to the periodic tracking area update timer (timer T3412) as specified in 3GPP TS\xa024.301\xa0[19] or the periodic routing area update timer (timer T3312) as specified in 3GPP TS\xa024.008\xa0[20]. This timer ensures that the S5/S8 bearers eligible for network initiated service restoration are maintained until the corresponding UE reattaches to the network. If the timer expires, the maintained resources shall be locally deleted assuming that the corresponding UE might have reattached to the network via a different SGW.', '', 'The SGW shall not release the default bearer of a PDN connection for which one or more dedicated bearers are maintained. Any downlink user plane or control plane packet received on a default bearer which is not eligible for network initiated service restoration but which is maintained for dedicated bearer(s) eligible for such procedure shall be silently discarded by the SGW.', '', 'When releasing the maintained S5/S8 bearers, the SGW may optionally perform other implementation specific actions such as messages to clear other external resources (e.g. PCC messages to clear the resources in the PCRF or GTP/PMIP messages to release the corresponding PDN connection in the PGW).', '', 'If the SGW receives a Create Session Request message for a UE for which some S5/S8 bearers are maintained, the SGW shall delete all the bearers for this UE and proceed with the Create Session Request message handling as specified in 3GPP TS\xa029.274\xa0[13].', '']</t>
+          <t>['', 'LMF selection functionality is supported by the AMF to determine an LMF for location estimation of the target UE or Ranging/Sidelink Positioning between Target UE and SL Reference UE. The LMF selection functionality is also supported by the LMF if it determines that it is unsuitable or unable to support location for the current UE access network or serving cell for the deferred 5GC-MT-LR procedure for periodic, or triggered location events. The LMF selection functionality may also be supported by the GMLC and the GMLC provides the selected LMF ID to AMF.', '', 'LMF reselection is a functionality supported by AMF when necessary, e.g. due to UE mobility.', '', 'The LMF selection/reselection may be performed at the AMF or LMF or GMLC based on the locally available information i.e. LMF profiles are configured locally at AMF or LMF or GMLC, or by querying NRF.', '', 'The following factors may be considered during the LMF selection:', '', '-\tLCS client type.', '', '-\tRequested Quality of Service information, e.g.:', '', '-\tLCS accuracy,', '', '-\tResponse time (latency),', '', '-\tAccess Type (3GPP /N3GPP).', '', 'NOTE\xa01:\tLocation methods may differ depending on the Access Type, e.g. in the case of WLAN Access Location determination may just correspond to retrieval of IP addressing information from the N3IWF/TNGF; As another example, for Wireline access, Location determination may just correspond to retrieval of geo coordinates corresponding to a GLI as defined in clause\xa04.7.8 of TS\xa023.316\xa0[21] or a HFC Node ID.', '', '-\tRAT type (e.g. 5G NR, eLTE, or any of the RAT Types specified for NR satellite access) and/or the serving AN node (i.e. gNB or NG-eNB) of the target UE.', '', '-\tRAN configuration information.', '', '-\tLMF capabilities, including the support of Uu based positioning as defined in clause\xa04.3.8 and/or Ranging/Sidelink positioning as defined in clause\xa04.3.8 of TS\xa023.586\xa0[40].', '', '-\tLMF load.', '', '-\tLMF location.', '', '-\tIndication of either a single event report or multiple event reports.', '', '-\tDuration of event reporting.', '', '-\tNetwork slicing information, e.g. S-NSSAI and/or NSI ID.', '', '-\tLMF Service Area consisting of one or more TA(s).', '', '-\tSupported GAD shapes.', '', '-\tSupport LCS when MBSR is involved.', '', '-\tRequested UE has maintained user plane connection with certain LMFs.', '', 'When receiving a NAS message from UE, including an LMF ID together with a LPP message (refer to step\xa025 in clause\xa06.3.1 for event reporting for a deferred 5GC-MT-LR), AMF sends the LPP message to the LMF, as indicated by the LMF ID.', '', 'NOTE\xa02:\tDescription on how UE encapsulates the LMF ID in the NAS message is documented in TS\xa024.571\xa0[36].', '', 'UDM may store the LMF ID in UE subscription data. During the location procedure, GMLC received the LMF ID from the UDM and provides it to AMF.', '', 'GMLC may be configured with the following parameters:', '', '-\tLMF ID and/or', '', '-\tper group ID and its correlating LMF ID.', '', 'The AMF may use locally provisioned configuration to determine LMF based on UE identify or its group information.', '', 'NOTE\xa03:\tIt is AMF implementation specific for the priority of different selection criteria from GMLC, AMF and LMF.', '', 'When the GMLC receives a MT location request from LCS client/AF, GMLC determines the LMF ID based on the configured parameters for an LCS Client/AF. In case a group ID is provided or derived from the location request, GMLC determines the correlating LMF ID based on the provisioned group ID.', '', 'GMLC may have configuration with one or several dedicated LMF ID(s), irrelevant to any LCS client/AF. When the GMLC receives a MT location request from LCS client/AF, GMLC only determines the LMF ID within the configuration for all LCS client/AF.', '', "NOTE\xa04:\tWhen AMF can't access the LMF instance of the LMF ID, by default, AMF replies to corresponding error to GMLC. GMLC could retry or fail the request accordingly; with explicit configuration to serve as backup selection in this, AMF can also select different configured LMF instance.", '']</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.2074814335116002</v>
+        <v>0.1990049799709504</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;31.6.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.13	Support for Edge Computing&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -928,47 +928,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['', 'To reduce signalling latency and achieve a better load balancing among PGW-C/SMFs in a Set, an PGW-C/SMF, MME, ePDG supporting S2b over GTPv2 and UPF may support the procedures specified in this clause. These procedures enable an SMF/PGW-C to request MME/ePDG supporting S2b over GTPv2/UPF to move PDN connections and PFCP sessions associated with certain FQ-CSIDs (when partial failure handling is supported), Group IDs or PGW-C/SMF IP Addresses, to (another) PGW-C/SMF(s) in the set, without causing massing signalling.', '', 'NOTE:\tThe FQ-CSID can only be used in the procedure specified in this clause when the partial failure feature (using FQ-CSID) is deployed and used (not to force the NF to use a Group ID). For a network where the partial failure feature is not deployed, a Group ID or a PGW-C/SMF IP address needs to be used.', '', 'The requirements specified in this clause shall apply in addition to the previous requirements specified in clause\xa031.', '']</t>
+          <t>['', "Edge computing enables operator and 3rd party services to be hosted close to the UE's access point of attachment, so as to achieve an efficient service delivery through the reduced end-to-end latency and load on the transport network. Edge Computing support by 5GC is specified in this specification and in TS\xa023.548\xa0[130].", '', 'NOTE: Edge Computing typically applies to non-roaming and LBO roaming scenarios. For HR roaming scenarios, Edge Computing applies only for "Home Routed with Session Breakout in VPLMN (HR-SBO)" which is described in clause\xa06.7 of TS\xa023.548\xa0[130].', '', "The 5G Core Network selects a UPF close to the UE and forwards traffic to enable the local access to the DN via a N6 interface according to the provided traffic steering rules to the UPF. This may be based on the UE's subscription data, UE location, the information from Application Function (AF) as defined in clause\xa05.6.7, the EAS information reported from EASDF (as defined in TS\xa023.548\xa0[130]), policy or other related traffic rules.", '', 'Due to user or Application Function mobility, the service or session continuity may be required based on the requirements of the service or the 5G network.', '', 'The 5G Core Network may expose network information and capabilities to an Edge Computing Application Function.', '', 'NOTE:\tDepending on the operator deployment, certain Application Functions can be allowed to interact directly with the Control Plane Network Functions with which they need to interact, while the other Application Functions need to use the external exposure framework via the NEF (see clause\xa06.2.10 for details).', '', 'Edge computing can be supported by one or a combination of the following enablers:', '', '-\tUser plane (re)selection: the 5G Core Network (re)selects UPF to route the user traffic to the local part of the DN as described in clause\xa06.3.3;', '', '-\tLocal Routing and Traffic Steering: the 5G Core Network selects the traffic to be routed to the applications in the local part of the DN;', '', '-\tthis includes the use of a single PDU Session with multiple PDU Session Anchor(s) (UL CL / IP v6 multi-homing) as described in clause\xa05.6.4 and the use of a PDU Session with Distributed Anchor Point using SSC mode 2/3.', '', '-\tSession and service continuity to enable UE and application mobility as described in clause\xa05.6.9;', '', '-\tAn Application Function may influence UPF (re)selection and traffic routing via PCF or NEF as described in clause\xa05.6.7;', '', '-\tNetwork capability exposure: 5G Core Network and Application Function to provide information to each other via NEF as described in clause\xa05.20 or directly as described in clause\xa04.15 of TS\xa023.502\xa0[3] or from the UPF as described in clause\xa06.4 of TS\xa023.548\xa0[130];', '', '-\tQoS and Charging: PCF provides rules for QoS Control and Charging for the traffic routed to the local part of the DN;', '', '-\tSupport of Local Area Data Network: 5G Core Network provides support to connect to the LADN in a certain area where the applications are deployed as described in clause\xa05.6.5.', '', '-\tDiscovery and re-discovery of Edge Applications Servers as described in TS\xa023.548\xa0[130].', '', "-\tSupport of Edge Relocation as described in TS\xa023.548\xa0[130] and the case of involving AF change as described in clauses 4.3.6.2, 4.3.6.3 and 4.3.6.4 of TS\xa023.502\xa0[3]. Support of 5GC triggered Edge relocation within the same hosting PLMN's EHEs.", '', '-\tSupport of (I-)SMF (re)selection based on DNAI as described in clauses 4.3.5.1, 4.3.5.2 and 4.23.5.1 of TS\xa023.502\xa0[3].', '', '-\tSupport of finer sets of UEs.', '', '-\tSupport of common EAS discovery and common DNAI determination for set of UEs as described in clause\xa06.2 of TS\xa023.548\xa0[130].', '', '-\tSupport of mapping information between EAS IP/IP range and DNAI as described in clause\xa06.8 of TS\xa023.548\xa0[130].', '', '-\tSupport of AF request for DNAI as described in clause\xa06.8 of TS\xa023.548\xa0[130].', '']</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.2106196860336811</v>
+        <v>0.1874711436885421</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;31.6.1	General&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.23	Supporting for Asynchronous Type Communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['', 'To reduce signalling latency and achieve a better load balancing among PGW-C/SMFs in a Set, an PGW-C/SMF, MME, ePDG supporting S2b over GTPv2 and UPF may support the procedures specified in this clause. These procedures enable an SMF/PGW-C to request MME/ePDG supporting S2b over GTPv2/UPF to move PDN connections and PFCP sessions associated with certain FQ-CSIDs (when partial failure handling is supported), Group IDs or PGW-C/SMF IP Addresses, to (another) PGW-C/SMF(s) in the set, without causing massing signalling.', '', 'NOTE:\tThe FQ-CSID can only be used in the procedure specified in this clause when the partial failure feature (using FQ-CSID) is deployed and used (not to force the NF to use a Group ID). For a network where the partial failure feature is not deployed, a Group ID or a PGW-C/SMF IP address needs to be used.', '', 'The requirements specified in this clause shall apply in addition to the previous requirements specified in clause\xa031.', '']</t>
+          <t>['', 'Asynchronous type communication (ATC) enables 5GC to delay synchronizing UE context with the UE, so as to achieve an efficient signalling overhead and increase system capacity. The support of ATC is optional for the AMF.', '', '5GC supports asynchronous type communication with the following functionality:', '', '-\tCapability to store the UE context based on the received message, and synchronize the UE context with the involved network functions or UE later;', '', 'For network function (e.g. PCF, UDM, etc.) triggered signalling procedure (e.g. network triggered Service Request procedure, network triggered PDU Session Modification procedure, etc.), if the UE CM state in the AMF is CM-IDLE state and the requesting network function indicates to the AMF the ATC is allowed for the signalling, if the AMF supports the ATC feature, the AMF may update and store the UE context based on the received message without paging UE immediately. When the UE CM state in the AMF enters CM-CONNECTED state, the AMF forwards N1 and N2 message to synchronize the UE context with the (R)AN and/or the UE.', '', 'If the originating NF does not require immediate delivery, it may indicate that the AMF is allowed to use ATC.', '', 'NOTE:\tPre-Rel-17 AMF implementation cannot decode the indication that ATC is allowed.', '']</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.2106196860336811</v>
+        <v>0.2017095972483164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;31.6.4	Restoration of PFCP sessions associated with an FQ-CSID, Group ID or PGW-C/SMF IP Address&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.33	Support for Ultra Reliable Low Latency Communication&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -978,22 +978,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['', 'When there is a need to change the PGW-C/SMF controlling certain PFCP sessions, e.g. when a partial or complete failure takes place, the PGW-C/SMF (either the PGW-C/SMF serving the PFCP sessions or another PGW-C/SMF in the same Set taking over the control of the PFCP sessions) may send a PFCP Session Set Modification Request message to the PGW-U/UPF(s) to request the PGW-U/UPF(s) to send subsequent PFCP Session Report Request messages to the alternative PGW-C/SMF (as indicated in the Alternative SMF IP Address IE) for the PFCP sessions which are associated with the FQ-CSID(s) or Group ID(s), or which have their CP F-SEID containing one of the PGW-C/SMF IP Address(es) as shown in Figure 31.6.4-1.', '', 'The PGW-C/SMF may instruct the UP function to move sessions associated with different PGW-C/SMF FQ-CSID(s), Group Ids or PGW-C/SMF IP addresses, to different PGW-C/SMF addresses.', '', '----media/image14.emf----', '', 'Figure 31.6.4-1: PGW-C/SMF initiated PFCP Session Set Modification procedure', '', 'NOTE:\tThis procedure enables a PGW-C/SMF from the same set to take the control of multiple PFCP sessions proactively, without causing massing signalling (per PFCP session) towards the PGW-U/UPF. The use of this procecure can reduce signalling latency and achieve a better load balancing among PGW-C/SMFs.', '', '', 'Annex A (informative):', 'Change history', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG\xa0#&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG Doc.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New&lt;/b&gt;&lt;/span&gt;', '', 'Apr 1999', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Transferred to 3GPP CN1', '', '', '', 'CN#03', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Approved at CN#03', '', '3.0.0', '', 'CN#04', '', '\t', '', '\t', '', '001', '', '\t', '', '', '', 'GPRS restoration procedures', '', '3.1.0', '', 'CN#06', '', '\t', '', '\t', '', '002r2', '', '\t', '', '', '', 'Authentication Enhancements', '', '3.2.0', '', 'CN#06', '', '\t', '', '\t', '', '003', '', '\t', '', '', '', 'Support of VLR and HLR Data Restoration procedures with LCS', '', '3.2.0', '', 'CN#07', '', '\t', '', '\t', '', '004', '', '\t', '', '', '', 'Support of VLR and HLR Data Restoration procedures with LCS', '', '3.3.0', '', 'CN#08', '', '\t', '', '\t', '', '005', '', '\t', '', '', '', 'Clarifications on GSM vs. UMTS specific parts', '', '3.4.0', '', 'CN#11', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Release 4 after CN#11', '', '4.0.0', '', 'CN#16', '', '\t', '', '\t', '', '007', '', '\t', '', '', '', 'Removal of an optional IMSI paging after SGSN restart', '', '4.1.0', '', 'CN#16', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Release 5 after CN#16', '', '5.0.0', '', 'CN#22', '', '\t', '', '\t', '', '011r1', '', '\t', '', '', '', 'Restoration of data in RA update', '', '5.1.0', '', 'CN#23', '', '\t', '', '\t', '', '008r3', '', '\t', '', '', '', 'Change of Restart Counter definition for enhanced GTP', '', '6.0.0', '', 'CN#25', '', '\t', '', '\t', '', '012', '', '\t', '', '', '', 'Error Indication during an ongoing MBMS data transfer', '', '6.1.0', '', 'CN#25', '', '\t', '', '\t', '', '013', '', '\t', '', '', '', 'Restoration of GSNs in MBMS', '', '6.1.0', '', 'CT#30', '', '\t', '', '\t', '', '0014', '', '\t', '', '', '', 'Incorrect References', '', '6.2.0', '', 'CT#32', '', '\t', '', '\t', '', '0019r1', '', '\t', '', '', '', 'Correction for Usage of Cancel Location for Supercharger', '', '7.0.0', '', 'CT#40', '', '\t', '', '\t', '', '0020r2', '', '\t', '', '', '', 'EPS Restoration', '', '8.0.0', '', 'CT#41', '', '\t', '', '\t', '', '0021r3', '', '\t', '', '', '', 'Moving restoration procedures from TS\xa023.060 into TS\xa023.007', '', '8.1.0', '', 'CT#41', '', '\t', '', '\t', '', '0023r2', '', '\t', '', '', '', 'Node Restart Restoration Procedures for PGW, SGW and MME', '', '8.1.0', '', 'CT#42', '', '\t', '', '\t', '', '0027r2', '', '\t', '', '', '', 'RNC failure aligns with TS23.060', '', '8.2.0', '', 'CT#42', '', '\t', '', '\t', '', '0028', '', '\t', '', '', '', 'Restoration procedures for SGs interface', '', '8.2.0', '', 'CT#42', '', '\t', '', '\t', '', '0033r5', '', '\t', '', '', '', 'Partial Failure Handling', '', '8.2.0', '', 'CT#42', '', '\t', '', '\t', '', '0037r1', '', '\t', '', '', '', 'PMIP Path management / Restoration Clean-up', '', '8.2.0', '', 'CT#43', '', '\t', '', '\t', '', '0030r5', '', '\t', '', '', '', 'Moving the description of the restoration procedures (from 29.274) to 23.007', '', '8.3.0', '', 'CT#43', '', '\t', '', '\t', '', '0038r4', '', '\t', '', '', '', 'Partial fault handling finalization', '', '8.3.0', '', 'CT#44', '', '\t', '', '\t', '', '0043r1', '', '\t', '', '', '', 'FQ-CSID corrections', '', '8.4.0', '', 'CT#44', '', '\t', '', '\t', '', '0047r1', '', '\t', '', '', '', 'SGSN and SGW handling in case RNC/BSC Failure (Iu mode) using S4', '', '8.4.0', '', 'CT#44', '', '\t', '', '\t', '', '0045r1', '', '\t', '', '', '', 'General on PMIP based restart procedure', '', '9.0.0', '', 'CT#45', '', '\t', '', '\t', '', '0065r1', '', '\t', '', '', '', 'Essential corrections to the partial failure support', '', '9.1.0', '', '', '', '\t', '', '\t', '', '0051', '', '\t', '', '', '', "Removal of Editor's note", '', '', '', '', '', '\t', '', '\t', '', '0053r1', '', '\t', '', '', '', 'Restoration of data in MBMS GW', '', '', '', '', '', '\t', '', '\t', '', '0058r1', '', '\t', '', '', '', 'Echo usage for GTPv2', '', '', '', '', '', '\t', '', '\t', '', '0063r3', '', '\t', '', '', '', 'Error Indication cleanup', '', '', '', '', '', '\t', '', '\t', '', '0064r4', '', '\t', '', '', '', 'Restoration of data in E-UTRAN', '', '', '', 'CT#46', '', '\t', '', '\t', '', '0066', '', '\t', '', '', '', 'Paging signalling optimization after SGSN failure', '', '9.2.0', '', '', '', '\t', '', '\t', '', '0067', '', '\t', '', '', '', 'Paging signalling optimization after MME failure', '', '', '', '', '', '\t', '', '\t', '', '0068', '', '\t', '', '', '', 'Error Indication for MBMS', '', '', '', '', '', '\t', '', '\t', '', '0072r1', '', '\t', '', '', '', "Removal of Editor's Notes for Partial Failure", '', '', '', '', '', '\t', '', '\t', '', '0078r1', '', '\t', '', '', '', 'Error Indication Handling for MBMS', '', '', '', '', '', '\t', '', '\t', '', '0080', '', '\t', '', '', '', 'Alignment of eNodeB failure clause', '', '', '', '', '', '\t', '', '\t', '', '0082r3', '', '\t', '', '', '', 'Alignment of RNC/BSC failure clause', '', '', '', 'CT#47', '', '\t', '', '\t', '', '0091', '', '\t', '', '', '', 'Bulk Binding Revocation Indication', '', '9.3.0', '', '', '', '\t', '', '\t', '', '0082r2', '', '\t', '', '', '', 'Clarifications to eNodeB failure', '', '', '', '', '', '\t', '', '\t', '', '0092r1', '', '\t', '', '', '', 'Reference corrections', '', '', '', '', '', '\t', '', '\t', '', '0095r1', '', '\t', '', '', '', 'Restart counter correction', '', '', '', 'CT#48', '', '\t', '', '\t', '', '0100r1', '', '\t', '', '', '', 'Essential correction to Error Indication message handling for the default bearer', '', '9.4.0', '', '', '', '\t', '', '\t', '', '0076r4', '', '\t', '', '', '', 'Cleanup of hanging PDN connections/bearers', '', '', '', '', '', '\t', '', '\t', '', '0097r1', '', '\t', '', '', '', 'Failure of remote nodes', '', '', '', '', '', '\t', '', '\t', '', '0107r1', '', '\t', '', '', '', 'Optimization on hanging PDN connection cleanup', '', '10.0.0', '', 'CT#49', '', '\t', '', '\t', '', '0115', '', '\t', '', '', '', 'Data Restoration for SMS', '', '10.1.0', '', '', '', '\t', '', '\t', '', '0117', '', '\t', '', '', '', 'GTP-C based restart procedures', '', '', '', '', '', '\t', '', '\t', '', '0121', '', '\t', '', '', '', 'Partial Failure handling', '', '', '', 'CT#50', '', '\t', '', '\t', '', '0135r1', '', '\t', '', '', '', 'Heartbeat Request', '', '10.2.0', '', '', '', '\t', '', '\t', '', '0129r1', '', '\t', '', '', '', 'ePDG Partial Failure  ', '', '', '', '', '', '\t', '', '\t', '', '0133r1', '', '\t', '', '', '', 'Restoration of data in the ePDG', '', '', '', '', '', '\t', '', '\t', '', '0131r1', '', '\t', '', '', '', 'Error Indication handling in PGW and ePDG', '', '', '', '', '', '\t', '', '\t', '', '0132', '', '\t', '', '', '', 'ePDG/PGW restart and restoration', '', '', '', '', '', '\t', '', '\t', '', '0130r1', '', '\t', '', '', '', 'PGW Restart Notification', '', '', '', '', '', '\t', '', '\t', '', '0124', '', '\t', '', '', '', 'Essential correction to the MME and PGW restoration procedure', '', '', '', 'CT#51', '', '\t', '', '\t', '', '0142r2', '', '\t', '', '', '', 'Timing for sending Downlink Data Notification as a result of the SGW having received an Error Indication message from the eNodeB/RNC', '', '10.3.0', '', '', '', '\t', '', '\t', '', '0151r1', '', '\t', '', '', '', 'Unclearness of Downlink Data Notification Handling at MME/S4 SGSN as a result of the SGW having received an Error Indication message from the eNodeB/RNC', '', '', '', '', '', '\t', '', '\t', '', '0155', '', '\t', '', '', '', 'eNodeB failure', '', '', '', '', '', '\t', '', '\t', '', '0154r1', '', '\t', '', '', '', 'RNC failure', '', '', '', '', '', '\t', '', '\t', '', '0148r2', '', '\t', '', '', '', 'Error Indication in SGW', '', '', '', '', '', '\t', '', '\t', '', '0145r1', '', '\t', '', '', '', 'Error Indication for SGW', '', '', '', '', '', '\t', '', '\t', '', '0146r5', '', '\t', '', '', '', 'PCRF Failure and Restoration', '', '', '', '', '', '\t', '', '\t', '', '0152r2', '', '\t', '', '', '', 'Handling of UE specific Error Indication over the PMIP', '', '', '', '', '', '\t', '', '\t', '', '0156r5', '', '\t', '', '', '', 'MME/SGSN restart and restoration procedure', '', '', '', 'CT#52', '', '\t', '', '\t', '', '0166r2', '', '\t', '', '', '', 'SGW behavior when it receives GTP error indication from S4-SGSN', '', '10.4.0', '', '', '', '\t', '', '\t', '', '0160r1', '', '\t', '', '', '', 'Fix wrong statement for the IMSI page in the Network triggered service restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0164r2', '', '\t', '', '', '', 'Clarification on Network triggered service restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0167r2', '', '\t', '', '', '', 'Gateway Control and QoS Policy Rules Provision Procedure handling at SGW', '', '', '', '', '', '\t', '', '\t', '', '0161r1', '', '\t', '', '', '', 'Moving PCRF Restoration text under appropriate heading', '', '', '', '', '', '\t', '', '\t', '', '0162', '', '\t', '', '', '', 'eNB Error Indication Handling', '', '', '', '', '', '\t', '', '\t', '', '0163r3', '', '\t', '', '', '', 'MME/SGSN restart with ISR', '', '', '', 'CT#53', '', '\t', '', '\t', '', '0169r2', '', '\t', '', '', '', 'Signalling path failure handling', '', '10.5.0', '', '', '', '\t', '', '\t', '', '0175r1', '', '\t', '', '', '', 'Downlink Data Notification Handling at MME/S4 SGSN', '', '', '', '', '', '\t', '', '\t', '', '0170r1', '', '\t', '', '', '', 'User plane path failure handling', '', '', '', '', '', '\t', '', '\t', '', '0171r1', '', '\t', '', '', '', 'PMIP alighnment for the network triggered service restoration procedure', '', '', '', 'CT#54', '', '\t', '', '\t', '', '0183', '', '\t', '', '', '', 'Inter MME and intra SGW HO/TAU procedures', '', '10.6.0', '', '', '', '\t', '', '\t', '', '0176', '', '\t', '', '', '', 'NTSR with ISR active', '', '', '', '', '', '\t', '', '\t', '', '0190', '', '\t', '', '', '', 'DDN message in the service restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0185r2', '', '\t', '', '', '', 'Essential correction to Partial failure', '', '', '', 'CT#54', '', '\t', '', '\t', '', '0178', '', '\t', '', '', '', 'FQ-CSID Reporting', '', '11.0.0', '', '', '', '\t', '', '\t', '', '0168r5', '', '\t', '', '', '', 'CS service restoration after MME failure', '', '', '', '', '', '\t', '', '\t', '', '0177r1', '', '\t', '', '', '', 'PGW restoration', '', '', '', 'CT#55', '', '\t', '', '\t', '', '0193r1', '', '\t', '', '', '', 'Error Indication Handling on S2a', '', '11.1.0', '', '', '', '\t', '', '\t', '', '0194r2', '', '\t', '', '', '', 'Restoration of data in the TWAN for S2a', '', '', '', '', '', '\t', '', '\t', '', '0195r2', '', '\t', '', '', '', 'TWAN partial failure', '', '', '', '', '', '\t', '', '\t', '', '0196r1', '', '\t', '', '', '', 'Restoration of data in the PGW for S2a', '', '', '', '', '', '\t', '', '\t', '', '0198r1', '', '\t', '', '', '', 'Correction on the S4-SGSN failure', '', '', '', '', '', '\t', '', '\t', '', '0199r1', '', '\t', '', '', '', 'S1 path failure handling', '', '', '', '', '', '\t', '', '\t', '', '0201r2', '', '\t', '', '', '', 'IP Address of the node sending the recovery IE', '', '', '', 'CT#56', '', '\t', '', '\t', '', '0191r1', '', '\t', '', '', '', 'SGW Restoration procedure', '', '11.2.0', '', '', '', '\t', '', '\t', '', '0204r1', '', '\t', '', '', '', 'Missing SGSN behavior in the PGW failure', '', '', '', '', '', '\t', '', '\t', '', '0206r1', '', '\t', '', '', '', 'PGW triggered SGW restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0208', '', '\t', '', '', '', 'Corrections to external resources cleanup upon SGW failure', '', '', '', 'CT#57', '', '\t', '', '\t', '', '0210r2', '', '\t', '', '', '', 'Restoration of Data for VCSG', '', '11.3.0', '', '', '', '\t', '', '\t', '', '0211r1', '', '\t', '', '', '', 'Downlink Data Notification message handling in S4 SGSN', '', '', '', 'CT#58', '', '\t', '', '\t', '', '0209r3', '', '\t', '', '', '', 'PCC and PMIP impacts for the SGW restoration procedure', '', '11.4.0', '', '', '', '\t', '', '\t', '', '0212', '', '\t', '', '', '', 'Corrections to reference titles', '', '', '', '', '', '\t', '', '\t', '', '0215r1', '', '\t', '', '', '', 'Handling of emergency PDN connections during EPC node restoration', '', '', '', '', '', '\t', '', '\t', '', '0216', '', '\t', '', '', '', 'Corrections to reference errors', '', '', '', '', '', '\t', '', '\t', '', '0217r3', '', '\t', '', '', '', 'SGW failure when ISR is active', '', '', '', '', '', '\t', '', '\t', '', '0214r4', '', '\t', '', '', '', 'Handling of VLR Failure without Restart', '', '', '', 'CT#58', '', '\t', '', '\t', '', '0224r1', '', '\t', '', '', '', 'SGSN handling of VLR restart', '', '11.5.0', '', '', '', '\t', '', '\t', '', '0225r1', '', '\t', '', '', '', "Fixing editor's notes in SGW restoration procedure", '', '', '', '', '', '\t', '', '\t', '', '0226r1', '', '\t', '', '', '', 'The inclusion of the MME/S4-SGSN identifier IE', '', '', '', 'CT#59', '', '\t', '', '\t', '', '0218r1', '', '\t', '', '', '', 'Corrections to reference error for periodic location update timer', '', '12.0.0', '', '', '', '\t', '', '\t', '', '0220r1', '', '\t', '', '', '', 'MME/SGSN behaviour upon MBMS-GW restart', '', '', '', '', '', '\t', '', '\t', '', '0221r1', '', '\t', '', '', '', 'eMBMS service restoration upon MCE failure or M3AP path failure', '', '', '', '', '', '\t', '', '\t', '', '0222r1', '', '\t', '', '', '', 'eMBMS service restoration upon MME/SGSN restart', '', '', '', '', '', '\t', '', '\t', '', '0223r2', '', '\t', '', '', '', 'Sm path failure handling', '', '', '', 'CT#60', '', '\t', '', '\t', '', '0228', '', '\t', '', '', '', 'Trigger for re-establishing MBMS sessions upon an M3AP path recovery', '', '12.1.0', '', '', '', '\t', '', '\t', '', '0239r1', '', '\t', '', '', '', 'MME behaviour upon MBMS GW restart', '', '', '', '', '', '\t', '', '\t', '', '0240r', '', '\t', '', '', '', 'SGSN behaviour upon MBMS GW restart', '', '', '', '', '', '\t', '', '\t', '', '0237r1', '', '\t', '', '', '', 'BM-SC failure', '', '', '', '', '', '\t', '', '\t', '', '0238r1', '', '\t', '', '', '', 'MBMS GW behaviour upon MME/SGSN restart', '', '', '', '', '', '\t', '', '\t', '', '0236r2', '', '\t', '', '', '', 'MCE behavior on MME restart and MME behavior on MCE restart', '', '', '', '', '', '\t', '', '\t', '', '0232r1', '', '\t', '', '', '', 'Contents of MBMS Session Start Request when re-establishing MBMS sessions', '', '', '', '', '', '\t', '', '\t', '', '0231r2', '', '\t', '', '', '', 'SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0230r1', '', '\t', '', '', '', 'BM-SC behaviour upon MBMS GW restart', '', '', '', '', '', '\t', '', '\t', '', '0229r1', '', '\t', '', '', '', 'Moving the control of an MBMS session to another MME', '', '', '', '', '', '\t', '', '\t', '', '0241r2', '', '\t', '', '', '', 'Sn-path failure', '', '', '', '', '', '\t', '', '\t', '', '0245r1', '', '\t', '', '', '', 'SGSN behaviour upon SGW restart', '', '', '', '', '', '\t', '', '\t', '', '0234', '', '\t', '', '', '', 'Restoration Priority during SGW and PGW restoration procedures', '', '', '', '', '', '\t', '', '\t', '', '0243r2', '', '\t', '', '', '', 'Delete Bearer Request triggered by PMIP error indication message', '', '', '', '', '', '\t', '', '\t', '', '0242r1', '', '\t', '', '', '', 'Stop Paging Indication in service restoration procedure with ISR', '', '', '', 'CT#61', '', '\t', '', '\t', '', '0246r1', '', '\t', '', '', '', 'MBMS Session Start Request received for an on-going MBMS bearer service', '', '12.2.0', '', '', '', '\t', '', '\t', '', '0247r1', '', '\t', '', '', '', 'MBMS Session duration', '', '', '', '', '', '\t', '', '\t', '', '0248r1', '', '\t', '', '', '', 'BM-SC behaviour during SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0249r1', '', '\t', '', '', '', 'MCE behavior on MME restart', '', '', '', '', '', '\t', '', '\t', '', '0250r1', '', '\t', '', '', '', 'Release of resources at old MME/SGSN during transient Sm path failure', '', '', '', '', '', '\t', '', '\t', '', '0251r1', '', '\t', '', '', '', 'Separate Clause for MCE and RNC restoration functionality', '', '', '', '', '', '\t', '', '\t', '', '0252r2', '', '\t', '', '', '', 'Correct S-GW behaviors when a peer P-GW failed', '', '', '', '', '', '\t', '', '\t', '', '0253r1', '', '\t', '', '', '', 'Correct wrong NOTE reference', '', '', '', '', '', '\t', '', '\t', '', '0255r2', '', '\t', '', '', '', 'Handling of VLR Failure without Restart for MO SMS', '', '', '', 'Sep 2013', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Clause numbers correcterd in clause\xa017A.2. Style correction also in clause\xa027.2.2.2.', '', '12.2.1', '', 'Dec 2013', '', '\t', '', '\t', '', '0265r2', '', '\t', '', '', '', 'Correction of reference to Update Notifications for Proxy Mobile IPv6', '', '12.3.0', '', '', '', '\t', '', '\t', '', '0271r2', '', '\t', '', '', '', 'Error handling when the PCC rule is removed due to the S-GW restoration support', '', '', '', '', '', '\t', '', '\t', '', '0256r1', '', '\t', '', '', '', 'Cause "GTP Resources Unavailable" handling at the SGSN', '', '', '', '', '', '\t', '', '\t', '', '0258r6', '', '\t', '', '', '', 'Restoration of warning message delivery upon eNB failure/restart', '', '', '', '', '', '\t', '', '\t', '', '0259', '', '\t', '', '', '', 'M3AP path recovery', '', '', '', '', '', '\t', '', '\t', '', '0261r2', '', '\t', '', '', '', 'S4-SGSN procedure upon RNC and Iu path failure', '', '', '', '', '', '\t', '', '\t', '', '0266r2', '', '\t', '', '', '', 'Non transient SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0267r2', '', '\t', '', '', '', 'Detection of peer MBMS node restart and SGmb path failure/recovery', '', '', '', '', '', '\t', '', '\t', '', '0268r2', '', '\t', '', '', '', 'Non-transient SGi-mb path failure', '', '', '', 'Mar 2014', '', '\t', '', '\t', '', '0263r6', '', '\t', '', '', '', 'SGW behaviour upon GTP Error indication', '', '12.4.0', '', '', '', '\t', '', '\t', '', '0277r1', '', '\t', '', '', '', 'Correct the PCRF procedure during the SGW restoration', '', '', '', '', '', '\t', '', '\t', '', '0273r1', '', '\t', '', '', '', 'Update the reference of IETF draft Update Notifications for Proxy Mobile IPv6 to RFC 7077', '', '', '', '', '', '\t', '', '\t', '', '0282r2', '', '\t', '', '', '', 'Handling of "GTP Resources Unavailable" cause in S4-SGSN', '', '', '', '', '', '\t', '', '\t', '', '0275r1', '', '\t', '', '', '', 'PWS Restart Indication parameters', '', '', '', 'Jun 2014', '', '\t', '', '\t', '', '0274r3', '', '\t', '', '', '', 'Sm path failure recovery', '', '12.5.0', '', '', '', '\t', '', '\t', '', '0283r1', '', '\t', '', '', '', 'SGmb path failure recovery', '', '', '', '', '', '\t', '', '\t', '', '0288r1', '', '\t', '', '', '', 'M1 and/or M3/Iu resources modification during MBMS session re-establishment', '', '', '', '', '', '\t', '', '\t', '', '0289', '', '\t', '', '', '', 'MCE Failure', '', '', '', '', '', '\t', '', '\t', '', '0291r1', '', '\t', '', '', '', 'SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0284r1', '', '\t', '', '', '', 'Handling of E-RAB Release due to GTPU error indication for default bearer at MME', '', '', '', '', '', '\t', '', '\t', '', '0296r2', '', '\t', '', '', '', 'Update SGW behaviours after receiving PMIP error indication', '', '', '', '', '', '\t', '', '\t', '', '0285', '', '\t', '', '', '', 'PWS Restart Indication parameters', '', '', '', '', '', '\t', '', '\t', '', '0286r2', '', '\t', '', '', '', 'HeNB ID verification in the PWS Restart Indication message', '', '', '', '', '', '\t', '', '\t', '', '0287r2', '', '\t', '', '', '', 'Routing of PWS messages to HeNBs', '', '', '', '', '', '\t', '', '\t', '', '0298r2', '', '\t', '', '', '', 'SGW restoration when S5 path failure occurs', '', '', '', '', '', '\t', '', '\t', '', '0290', '', '\t', '', '', '', 'Restoring the (S)Gs associations during tracking/routing area update procedures', '', '', '', 'Sep 2014', '', '\t', '', '\t', '', '0300r2', '', '\t', '', '', '', 'Correct procedure name for PDN connection deactivation', '', '12.6.0', '', '', '', '\t', '', '\t', '', '0301r3', '', '\t', '', '', '', 'Handling of GTP Error Indication for Dual connectivity', '', '', '', '', '', '\t', '', '\t', '', '0302r2', '', '\t', '', '', '', 'Restoration for HSS Reset', '', '', '', '', '', '\t', '', '\t', '', '0304r1', '', '\t', '', '', '', "Remove Editor's note for S5 path failure", '', '', '', 'Dec 2014', '', '\t', '', '\t', '', '0307', '', '\t', '', '', '', 'Warning Area List in Write-Replace Warning Request during PWS restoration', '', '12.7.0', '', '', '', '\t', '', '\t', '', '0308r1', '', '\t', '', '', '', 'Serial Number in Write-Replace Warning Request during PWS restoration', '', '', '', '', '', '\t', '', '\t', '', '0309', '', '\t', '', '', '', 'GCSE restoration procedures upon BM-SC restart', '', '', '', '', '', '\t', '', '\t', '', '0310r1', '', '\t', '', '', '', 'GCSE restoration procedures upon GCS AS restart', '', '', '', '', '', '\t', '', '\t', '', '0311r1', '', '\t', '', '', '', 'GCSE restoration procedures upon MB2-C path failure', '', '', '', '', '', '\t', '', '\t', '', '0312', '', '\t', '', '', '', 'GCSE restoration procedures upon SGi-mb path failure', '', '', '', '', '', '\t', '', '\t', '', '0314r1', '', '\t', '', '', '', 'GTP-C based restart procedures for HRPD', '', '', '', 'Mar 2015', '', '\t', '', '\t', '', '0316r2', '', '\t', '', '', '', 'SGW restoration procedure in PMIP case', '', '12.8.0', '', 'Mar 2015', '', '\t', '', '\t', '', '0317r1', '', '\t', '', '', '', 'Deferring GBR bearers deactivation upon S1 Reset or S1AP path failure', '', '13.0.0', '', 'Jun 2015', '', '\t', '', '\t', '', '0318r1', '', '\t', '', '', '', 'MCE configuration update after an MBMS restoration', '', '13.1.0', '', 'Sep 2015', '', '\t', '', '\t', '', '0320r1', '', '\t', '', '', '', 'HSS Reset', '', '13.2.0', '', 'Dec 2015', '', '\t', '', '\t', '', '0321r2', '', '\t', '', '', '', 'Services restoration for UEs using extended idle mode DRX', '', '13.3.0', '', '', '', '\t', '', '\t', '', '0326r2', '', '\t', '', '', '', 'DTCI for restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0323r1', '', '\t', '', '', '', 'Implementation mistake of CR 0309 and CR 0310', '', '', '', '', '', '\t', '', '\t', '', '0324r2', '', '\t', '', '', '', 'HSS restart MONTE impacts', '', '', '', '', '', '\t', '', '\t', '', '0325r2', '', '\t', '', '', '', 'SCEF restart and MONTE impacts', '', '', '', '', '', '\t', '', '\t', '', '0327r2', '', '\t', '', '', '', 'SGW Restoration in Dedicated Core Network', '', '', '', 'Mar 2016', '', '\t', '', '\t', '', '0329r2', '', '\t', '', '', '', 'HSS restart and resultant MONTE impacts', '', '13.4.0', '', '', '', '\t', '', '\t', '', '0330r2', '', '\t', '', '', '', 'Restart of SCEF', '', '', '', '', '', '\t', '', '\t', '', '0331r1', '', '\t', '', '', '', 'Correct the partial failure handling on SGW', '', '', '', '', '', '\t', '', '\t', '', '0332r1', '', '\t', '', '', '', 'S11-U Error Indication handling', '', '', '', '', '', '\t', '', '\t', '', '0334r3', '', '\t', '', '', '', 'Behaviours upon receipt of unknown NIDD', '', '', '', '', '', '\t', '', '\t', '', '0335r3', '', '\t', '', '', '', 'Enhance restoration procedure to be compatible with SCEF PDN connection and Attach without PDN connectivity', '', '', '', '', '', '\t', '', '\t', '', '0336r2', '', '\t', '', '', '', 'Connection Resume procedure used during restoration', '', '', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160228', '', '\t0337', '', '\t3', '', '\t', '', '\tMME handling of GTP Error Indication and MO-Data-Answer (failure)', '', '\t13.5.0', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160231', '', '\t0338', '', '\t2', '', '\t', '', '\tPGW restoration in NBIFOM case', '', '\t13.5.0', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160234', '', '\t0340', '', '\t3', '', '\t', '', '\tRestoration impact on the introduction of &lt;span style="color:000000"&gt;UE context retention at SCTP recovery&lt;/span&gt;', '', '\t13.5.0', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160217', '', '\t0341', '', '\t1', '', '\t', '', '\tBehaviours upon receipt of unknown NIDD (SGSN case)', '', '\t14.0.0', '', '\t2016-09', '', '\tCT#73', '', '\tCP-160422', '', '\t0343', '', '\t1', '', '\t', '', '\tFailure case for NBIFOM', '', '\t14.1.0', '', '\t2017-03', '', '\tCT#75', '', '\tCP-170043', '', '\t0344', '', '\t1', '', '\t', '', '\tRestoration Support for V2X Service', '', '\t14.2.0', '', '\t2017-03', '', '\tCT#75', '', '\tCP-170040', '', '\t0345', '', '\t1', '', '\t', '', '\tNetwork triggered service restoration for PSM UE', '', '\t14.2.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0348', '', '\t1', '', '\t', '', '\tUser Plane Path Failure with Control and User Plane Separation of SGW and PGW', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171023', '', '\t0350', '', '\t1', '', '\t', '', '\tService Restoration for UEs in extended DRX mode', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0351', '', '\t3', '', '\t', '', '\tCUPS restoration procedures in SGW-C and SGW-U', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0352', '', '\t2', '', '\t', '', '\tPartial failure handling for CUPS', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0353', '', '\t2', '', '\t', '', '\tCUPS restoration procedures PGW-C and PGW-U', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0354', '', '\t1', '', '\t', '', '\tCUPS restoration procedures', '', '\t14.3.0', '', '\t2017-12', '', '\tCT#78', '', '\tCP-173019', '', '\t0355', '', '\t-', '', '\t', '', '\tClarification on SGmb path failure', '', '\t14.4.0', '', '\t2018-06', '', '\t-', '', '\t-', '', '\t-', '', '\t-', '', '\t', '', '\tUpdate to Rel-15 version (MCC)', '', '\t15.0.0', '', '\t2018-09', '', '\tCT#81', '', '\tCP-182079', '', '\t0357', '', '\t-', '', '\t', '', '\tCorrections on CUPS restorations', '', '\t15.1.0', '', '\t2018-09', '', '\tCT#81', '', '\tCP-182078', '', '\t0358', '', '\t2', '', '\t', '', '\tS1-U Path Failure Enhancement', '', '\t15.1.0', '', '\t2019-03', '', '\tCT#83', '', '\tCP-190040', '', '\t0359', '', '\t5', '', '\t', '', '\t&lt;span style="color:000000"&gt;Recovery Time Stamp in PFCP&lt;/span&gt;', '', '\t15.2.0', '', '\t2019-06', '', '\tCT#84', '', '\tCP-191024', '', '\t0363', '', '\t2', '', '\t', '', '\t&lt;span style="color:000000"&gt;Corrrections to the restoration procedures for PFCP entities&lt;/span&gt;', '', '\t15.3.0', '', '\t2019-09', '', '\tCT#85', '', '\tCP-192096', '', '\t0364', '', '\t-', '', '\t', '', '\t&lt;span style="color:000000"&gt;Heartbeat procedure&lt;/span&gt;', '', '\t15.4.0', '', '\t2019-12', '', '\tCT#86', '', '\tCP-193041', '', '\t0368', '', '\t-', '', '\t', '', '\t&lt;span style="color:000000"&gt;GTP Recovery Counter and GSN node behaviour&lt;/span&gt;', '', '\t16.0.0', '', '\t2019-12', '', '\tCT#86', '', '\tCP-193045', '', '\t0365', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;PFCP Association Setup Request with same Node ID&lt;/span&gt;', '', '\t16.0.0', '', '\t2019-12', '', '\tCT#86', '', '\tCP-193045', '', '\t0367', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;Reestablishment of PFCP sessions after a UP function restart&lt;/span&gt;', '', '\t16.0.0', '', '\t2020-03', '', '\tCT#87e', '', '\tCP-200038', '', '\t0369', '', '\t-', '', '\t', '', '\t&lt;span style="color:000000"&gt;The Source IP Address in Heartbeat Request message&lt;/span&gt;', '', '\t16.1.0', '', '\t2020-03', '', '\tCT#87e', '', '\tCP-200038', '', '\t0370', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;The Recovery Time Stamp in PFCP Session Establishment Request message&lt;/span&gt;', '', '\t16.1.0', '', '\t2020-03', '', '\tCT#87e', '', '\tCP-200021', '', '\t0371', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;URCMP based restart procedures&lt;/span&gt;', '', '\t16.1.0', '', '\t2020-12', '', '\tCT#90e', '', '\tCP-203061', '', '\t0372', '', '\t3', '', '\t', '', '\t&lt;span style="color:000000"&gt;Restoration of PDN connections after a PGW-C/SMF change&lt;/span&gt;', '', '\t17.0.0', '', '\t2021-06', '', '\tCT#92e', '', '\tCP-211043', '', '\t0373', '', '\t2', '', '\t', '', '\tRestoration of PFCP sessions and PDN connections affected by a partial or complete failure', '', '\t17.1.0', '', '\t2021-06', '', '\tCT#92e', '', '\tCP-211043', '', '\t0374', '', '\t2', '', '\t', '', '\tCombined S/PGW restart', '', '\t17.1.0', '', '\t2021-09', '', '\tCT#93e', '', '\tCP-212033', '', '\t0375', '', '\t1', '', '\tB', '', '\tRestoration of PDN connections served by a combined SGW/PGW in a Set', '', '\t17.2.0', '', '\t2021-12', '', '\tCT#94e', '', '\tCP-213095', '', '\t0376', '', '\t-', '', '\tB', '', '\tSGW IP Address for a combined SGW/PGW/SMF', '', '\t17.3.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220033', '', '\t0379', '', '\t3', '', '\tB', '', '\tePDG support of Restoration of PDN connections after a PGW-C/SMF change', '', '\t17.4.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220033', '', '\t0380', '', '\t1', '', '\tB', '', '\tNew SGW IP Address when moving PDN connections for a combined SGW/PGW/SMF set', '', '\t17.4.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220037', '', '\t0378', '', '\t1', '', '\tB', '', '\tDetection and reporting of the restart of a GTP-U entity', '', '\t17.4.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220086', '', '\t0381', '', '\t1', '', '\tB', '', '\tEnhanced handling at user plane path failure', '', '\t17.4.0', '', '\t2022-03', '', '\t', '', '\t', '', '\t', '', '\t', '', '\t', '', '\tEditorial corrections', '', '\t17.4.1', '', '\t2022-09', '', '\tCT#97e', '', '\tCP-222023', '', '\t0382', '', '\t-', '', '\tB', '', '\tPopulating PGW Change Info during 5GS to EPS mobility procedure ', '', '\t18.0.0', '', '\t2022-12', '', '\tCT#98e', '', '\tCP-223046', '', '\t0384', '', '\t1', '', '\tF', '', '\tPGW triggered PDN connection restoration', '', '\t18.1.0', '', '\t2023-06', '', '\tCT#100', '', '\tCP-221074', '', '\t0386', '', '\t1', '', '\tA', '', '\tPGW-C TEID in Update Bearer Response during PGW triggered PDN connection restoration', '', '\t18.2.0', '', '\t2023-06', '', '\tCT#100', '', '\tCP-221074', '', '\t0388', '', '\t-', '', '\tA', '', '\tCorrections to Restoration of PDN connections after a PGW-CSMF change ', '', '\t18.2.0', '', '\t2023-06', '', '\tCT#100', '', '\tCP-221074', '', '\t0390', '', '\t1', '', '\tA', '', '\tMME or ePDG triggered PDN connection restoration', '', '\t18.2.0', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.256818500263699</v>
+        <v>0.2862987716992696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;31.6.4	Restoration of PFCP sessions associated with an FQ-CSID, Group ID or PGW-C/SMF IP Address&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;5.37	Support for high data rate low latency services, eXtended Reality (XR) and interactive media services&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1003,147 +1003,147 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['', 'When there is a need to change the PGW-C/SMF controlling certain PFCP sessions, e.g. when a partial or complete failure takes place, the PGW-C/SMF (either the PGW-C/SMF serving the PFCP sessions or another PGW-C/SMF in the same Set taking over the control of the PFCP sessions) may send a PFCP Session Set Modification Request message to the PGW-U/UPF(s) to request the PGW-U/UPF(s) to send subsequent PFCP Session Report Request messages to the alternative PGW-C/SMF (as indicated in the Alternative SMF IP Address IE) for the PFCP sessions which are associated with the FQ-CSID(s) or Group ID(s), or which have their CP F-SEID containing one of the PGW-C/SMF IP Address(es) as shown in Figure 31.6.4-1.', '', 'The PGW-C/SMF may instruct the UP function to move sessions associated with different PGW-C/SMF FQ-CSID(s), Group Ids or PGW-C/SMF IP addresses, to different PGW-C/SMF addresses.', '', '----media/image14.emf----', '', 'Figure 31.6.4-1: PGW-C/SMF initiated PFCP Session Set Modification procedure', '', 'NOTE:\tThis procedure enables a PGW-C/SMF from the same set to take the control of multiple PFCP sessions proactively, without causing massing signalling (per PFCP session) towards the PGW-U/UPF. The use of this procecure can reduce signalling latency and achieve a better load balancing among PGW-C/SMFs.', '', '', 'Annex A (informative):', 'Change history', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Date&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG\xa0#&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;TSG Doc.&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;CR&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Rev&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Cat&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;Subject/Comment&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;&lt;b&gt;New&lt;/b&gt;&lt;/span&gt;', '', 'Apr 1999', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Transferred to 3GPP CN1', '', '', '', 'CN#03', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Approved at CN#03', '', '3.0.0', '', 'CN#04', '', '\t', '', '\t', '', '001', '', '\t', '', '', '', 'GPRS restoration procedures', '', '3.1.0', '', 'CN#06', '', '\t', '', '\t', '', '002r2', '', '\t', '', '', '', 'Authentication Enhancements', '', '3.2.0', '', 'CN#06', '', '\t', '', '\t', '', '003', '', '\t', '', '', '', 'Support of VLR and HLR Data Restoration procedures with LCS', '', '3.2.0', '', 'CN#07', '', '\t', '', '\t', '', '004', '', '\t', '', '', '', 'Support of VLR and HLR Data Restoration procedures with LCS', '', '3.3.0', '', 'CN#08', '', '\t', '', '\t', '', '005', '', '\t', '', '', '', 'Clarifications on GSM vs. UMTS specific parts', '', '3.4.0', '', 'CN#11', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Release 4 after CN#11', '', '4.0.0', '', 'CN#16', '', '\t', '', '\t', '', '007', '', '\t', '', '', '', 'Removal of an optional IMSI paging after SGSN restart', '', '4.1.0', '', 'CN#16', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Release 5 after CN#16', '', '5.0.0', '', 'CN#22', '', '\t', '', '\t', '', '011r1', '', '\t', '', '', '', 'Restoration of data in RA update', '', '5.1.0', '', 'CN#23', '', '\t', '', '\t', '', '008r3', '', '\t', '', '', '', 'Change of Restart Counter definition for enhanced GTP', '', '6.0.0', '', 'CN#25', '', '\t', '', '\t', '', '012', '', '\t', '', '', '', 'Error Indication during an ongoing MBMS data transfer', '', '6.1.0', '', 'CN#25', '', '\t', '', '\t', '', '013', '', '\t', '', '', '', 'Restoration of GSNs in MBMS', '', '6.1.0', '', 'CT#30', '', '\t', '', '\t', '', '0014', '', '\t', '', '', '', 'Incorrect References', '', '6.2.0', '', 'CT#32', '', '\t', '', '\t', '', '0019r1', '', '\t', '', '', '', 'Correction for Usage of Cancel Location for Supercharger', '', '7.0.0', '', 'CT#40', '', '\t', '', '\t', '', '0020r2', '', '\t', '', '', '', 'EPS Restoration', '', '8.0.0', '', 'CT#41', '', '\t', '', '\t', '', '0021r3', '', '\t', '', '', '', 'Moving restoration procedures from TS\xa023.060 into TS\xa023.007', '', '8.1.0', '', 'CT#41', '', '\t', '', '\t', '', '0023r2', '', '\t', '', '', '', 'Node Restart Restoration Procedures for PGW, SGW and MME', '', '8.1.0', '', 'CT#42', '', '\t', '', '\t', '', '0027r2', '', '\t', '', '', '', 'RNC failure aligns with TS23.060', '', '8.2.0', '', 'CT#42', '', '\t', '', '\t', '', '0028', '', '\t', '', '', '', 'Restoration procedures for SGs interface', '', '8.2.0', '', 'CT#42', '', '\t', '', '\t', '', '0033r5', '', '\t', '', '', '', 'Partial Failure Handling', '', '8.2.0', '', 'CT#42', '', '\t', '', '\t', '', '0037r1', '', '\t', '', '', '', 'PMIP Path management / Restoration Clean-up', '', '8.2.0', '', 'CT#43', '', '\t', '', '\t', '', '0030r5', '', '\t', '', '', '', 'Moving the description of the restoration procedures (from 29.274) to 23.007', '', '8.3.0', '', 'CT#43', '', '\t', '', '\t', '', '0038r4', '', '\t', '', '', '', 'Partial fault handling finalization', '', '8.3.0', '', 'CT#44', '', '\t', '', '\t', '', '0043r1', '', '\t', '', '', '', 'FQ-CSID corrections', '', '8.4.0', '', 'CT#44', '', '\t', '', '\t', '', '0047r1', '', '\t', '', '', '', 'SGSN and SGW handling in case RNC/BSC Failure (Iu mode) using S4', '', '8.4.0', '', 'CT#44', '', '\t', '', '\t', '', '0045r1', '', '\t', '', '', '', 'General on PMIP based restart procedure', '', '9.0.0', '', 'CT#45', '', '\t', '', '\t', '', '0065r1', '', '\t', '', '', '', 'Essential corrections to the partial failure support', '', '9.1.0', '', '', '', '\t', '', '\t', '', '0051', '', '\t', '', '', '', "Removal of Editor's note", '', '', '', '', '', '\t', '', '\t', '', '0053r1', '', '\t', '', '', '', 'Restoration of data in MBMS GW', '', '', '', '', '', '\t', '', '\t', '', '0058r1', '', '\t', '', '', '', 'Echo usage for GTPv2', '', '', '', '', '', '\t', '', '\t', '', '0063r3', '', '\t', '', '', '', 'Error Indication cleanup', '', '', '', '', '', '\t', '', '\t', '', '0064r4', '', '\t', '', '', '', 'Restoration of data in E-UTRAN', '', '', '', 'CT#46', '', '\t', '', '\t', '', '0066', '', '\t', '', '', '', 'Paging signalling optimization after SGSN failure', '', '9.2.0', '', '', '', '\t', '', '\t', '', '0067', '', '\t', '', '', '', 'Paging signalling optimization after MME failure', '', '', '', '', '', '\t', '', '\t', '', '0068', '', '\t', '', '', '', 'Error Indication for MBMS', '', '', '', '', '', '\t', '', '\t', '', '0072r1', '', '\t', '', '', '', "Removal of Editor's Notes for Partial Failure", '', '', '', '', '', '\t', '', '\t', '', '0078r1', '', '\t', '', '', '', 'Error Indication Handling for MBMS', '', '', '', '', '', '\t', '', '\t', '', '0080', '', '\t', '', '', '', 'Alignment of eNodeB failure clause', '', '', '', '', '', '\t', '', '\t', '', '0082r3', '', '\t', '', '', '', 'Alignment of RNC/BSC failure clause', '', '', '', 'CT#47', '', '\t', '', '\t', '', '0091', '', '\t', '', '', '', 'Bulk Binding Revocation Indication', '', '9.3.0', '', '', '', '\t', '', '\t', '', '0082r2', '', '\t', '', '', '', 'Clarifications to eNodeB failure', '', '', '', '', '', '\t', '', '\t', '', '0092r1', '', '\t', '', '', '', 'Reference corrections', '', '', '', '', '', '\t', '', '\t', '', '0095r1', '', '\t', '', '', '', 'Restart counter correction', '', '', '', 'CT#48', '', '\t', '', '\t', '', '0100r1', '', '\t', '', '', '', 'Essential correction to Error Indication message handling for the default bearer', '', '9.4.0', '', '', '', '\t', '', '\t', '', '0076r4', '', '\t', '', '', '', 'Cleanup of hanging PDN connections/bearers', '', '', '', '', '', '\t', '', '\t', '', '0097r1', '', '\t', '', '', '', 'Failure of remote nodes', '', '', '', '', '', '\t', '', '\t', '', '0107r1', '', '\t', '', '', '', 'Optimization on hanging PDN connection cleanup', '', '10.0.0', '', 'CT#49', '', '\t', '', '\t', '', '0115', '', '\t', '', '', '', 'Data Restoration for SMS', '', '10.1.0', '', '', '', '\t', '', '\t', '', '0117', '', '\t', '', '', '', 'GTP-C based restart procedures', '', '', '', '', '', '\t', '', '\t', '', '0121', '', '\t', '', '', '', 'Partial Failure handling', '', '', '', 'CT#50', '', '\t', '', '\t', '', '0135r1', '', '\t', '', '', '', 'Heartbeat Request', '', '10.2.0', '', '', '', '\t', '', '\t', '', '0129r1', '', '\t', '', '', '', 'ePDG Partial Failure  ', '', '', '', '', '', '\t', '', '\t', '', '0133r1', '', '\t', '', '', '', 'Restoration of data in the ePDG', '', '', '', '', '', '\t', '', '\t', '', '0131r1', '', '\t', '', '', '', 'Error Indication handling in PGW and ePDG', '', '', '', '', '', '\t', '', '\t', '', '0132', '', '\t', '', '', '', 'ePDG/PGW restart and restoration', '', '', '', '', '', '\t', '', '\t', '', '0130r1', '', '\t', '', '', '', 'PGW Restart Notification', '', '', '', '', '', '\t', '', '\t', '', '0124', '', '\t', '', '', '', 'Essential correction to the MME and PGW restoration procedure', '', '', '', 'CT#51', '', '\t', '', '\t', '', '0142r2', '', '\t', '', '', '', 'Timing for sending Downlink Data Notification as a result of the SGW having received an Error Indication message from the eNodeB/RNC', '', '10.3.0', '', '', '', '\t', '', '\t', '', '0151r1', '', '\t', '', '', '', 'Unclearness of Downlink Data Notification Handling at MME/S4 SGSN as a result of the SGW having received an Error Indication message from the eNodeB/RNC', '', '', '', '', '', '\t', '', '\t', '', '0155', '', '\t', '', '', '', 'eNodeB failure', '', '', '', '', '', '\t', '', '\t', '', '0154r1', '', '\t', '', '', '', 'RNC failure', '', '', '', '', '', '\t', '', '\t', '', '0148r2', '', '\t', '', '', '', 'Error Indication in SGW', '', '', '', '', '', '\t', '', '\t', '', '0145r1', '', '\t', '', '', '', 'Error Indication for SGW', '', '', '', '', '', '\t', '', '\t', '', '0146r5', '', '\t', '', '', '', 'PCRF Failure and Restoration', '', '', '', '', '', '\t', '', '\t', '', '0152r2', '', '\t', '', '', '', 'Handling of UE specific Error Indication over the PMIP', '', '', '', '', '', '\t', '', '\t', '', '0156r5', '', '\t', '', '', '', 'MME/SGSN restart and restoration procedure', '', '', '', 'CT#52', '', '\t', '', '\t', '', '0166r2', '', '\t', '', '', '', 'SGW behavior when it receives GTP error indication from S4-SGSN', '', '10.4.0', '', '', '', '\t', '', '\t', '', '0160r1', '', '\t', '', '', '', 'Fix wrong statement for the IMSI page in the Network triggered service restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0164r2', '', '\t', '', '', '', 'Clarification on Network triggered service restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0167r2', '', '\t', '', '', '', 'Gateway Control and QoS Policy Rules Provision Procedure handling at SGW', '', '', '', '', '', '\t', '', '\t', '', '0161r1', '', '\t', '', '', '', 'Moving PCRF Restoration text under appropriate heading', '', '', '', '', '', '\t', '', '\t', '', '0162', '', '\t', '', '', '', 'eNB Error Indication Handling', '', '', '', '', '', '\t', '', '\t', '', '0163r3', '', '\t', '', '', '', 'MME/SGSN restart with ISR', '', '', '', 'CT#53', '', '\t', '', '\t', '', '0169r2', '', '\t', '', '', '', 'Signalling path failure handling', '', '10.5.0', '', '', '', '\t', '', '\t', '', '0175r1', '', '\t', '', '', '', 'Downlink Data Notification Handling at MME/S4 SGSN', '', '', '', '', '', '\t', '', '\t', '', '0170r1', '', '\t', '', '', '', 'User plane path failure handling', '', '', '', '', '', '\t', '', '\t', '', '0171r1', '', '\t', '', '', '', 'PMIP alighnment for the network triggered service restoration procedure', '', '', '', 'CT#54', '', '\t', '', '\t', '', '0183', '', '\t', '', '', '', 'Inter MME and intra SGW HO/TAU procedures', '', '10.6.0', '', '', '', '\t', '', '\t', '', '0176', '', '\t', '', '', '', 'NTSR with ISR active', '', '', '', '', '', '\t', '', '\t', '', '0190', '', '\t', '', '', '', 'DDN message in the service restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0185r2', '', '\t', '', '', '', 'Essential correction to Partial failure', '', '', '', 'CT#54', '', '\t', '', '\t', '', '0178', '', '\t', '', '', '', 'FQ-CSID Reporting', '', '11.0.0', '', '', '', '\t', '', '\t', '', '0168r5', '', '\t', '', '', '', 'CS service restoration after MME failure', '', '', '', '', '', '\t', '', '\t', '', '0177r1', '', '\t', '', '', '', 'PGW restoration', '', '', '', 'CT#55', '', '\t', '', '\t', '', '0193r1', '', '\t', '', '', '', 'Error Indication Handling on S2a', '', '11.1.0', '', '', '', '\t', '', '\t', '', '0194r2', '', '\t', '', '', '', 'Restoration of data in the TWAN for S2a', '', '', '', '', '', '\t', '', '\t', '', '0195r2', '', '\t', '', '', '', 'TWAN partial failure', '', '', '', '', '', '\t', '', '\t', '', '0196r1', '', '\t', '', '', '', 'Restoration of data in the PGW for S2a', '', '', '', '', '', '\t', '', '\t', '', '0198r1', '', '\t', '', '', '', 'Correction on the S4-SGSN failure', '', '', '', '', '', '\t', '', '\t', '', '0199r1', '', '\t', '', '', '', 'S1 path failure handling', '', '', '', '', '', '\t', '', '\t', '', '0201r2', '', '\t', '', '', '', 'IP Address of the node sending the recovery IE', '', '', '', 'CT#56', '', '\t', '', '\t', '', '0191r1', '', '\t', '', '', '', 'SGW Restoration procedure', '', '11.2.0', '', '', '', '\t', '', '\t', '', '0204r1', '', '\t', '', '', '', 'Missing SGSN behavior in the PGW failure', '', '', '', '', '', '\t', '', '\t', '', '0206r1', '', '\t', '', '', '', 'PGW triggered SGW restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0208', '', '\t', '', '', '', 'Corrections to external resources cleanup upon SGW failure', '', '', '', 'CT#57', '', '\t', '', '\t', '', '0210r2', '', '\t', '', '', '', 'Restoration of Data for VCSG', '', '11.3.0', '', '', '', '\t', '', '\t', '', '0211r1', '', '\t', '', '', '', 'Downlink Data Notification message handling in S4 SGSN', '', '', '', 'CT#58', '', '\t', '', '\t', '', '0209r3', '', '\t', '', '', '', 'PCC and PMIP impacts for the SGW restoration procedure', '', '11.4.0', '', '', '', '\t', '', '\t', '', '0212', '', '\t', '', '', '', 'Corrections to reference titles', '', '', '', '', '', '\t', '', '\t', '', '0215r1', '', '\t', '', '', '', 'Handling of emergency PDN connections during EPC node restoration', '', '', '', '', '', '\t', '', '\t', '', '0216', '', '\t', '', '', '', 'Corrections to reference errors', '', '', '', '', '', '\t', '', '\t', '', '0217r3', '', '\t', '', '', '', 'SGW failure when ISR is active', '', '', '', '', '', '\t', '', '\t', '', '0214r4', '', '\t', '', '', '', 'Handling of VLR Failure without Restart', '', '', '', 'CT#58', '', '\t', '', '\t', '', '0224r1', '', '\t', '', '', '', 'SGSN handling of VLR restart', '', '11.5.0', '', '', '', '\t', '', '\t', '', '0225r1', '', '\t', '', '', '', "Fixing editor's notes in SGW restoration procedure", '', '', '', '', '', '\t', '', '\t', '', '0226r1', '', '\t', '', '', '', 'The inclusion of the MME/S4-SGSN identifier IE', '', '', '', 'CT#59', '', '\t', '', '\t', '', '0218r1', '', '\t', '', '', '', 'Corrections to reference error for periodic location update timer', '', '12.0.0', '', '', '', '\t', '', '\t', '', '0220r1', '', '\t', '', '', '', 'MME/SGSN behaviour upon MBMS-GW restart', '', '', '', '', '', '\t', '', '\t', '', '0221r1', '', '\t', '', '', '', 'eMBMS service restoration upon MCE failure or M3AP path failure', '', '', '', '', '', '\t', '', '\t', '', '0222r1', '', '\t', '', '', '', 'eMBMS service restoration upon MME/SGSN restart', '', '', '', '', '', '\t', '', '\t', '', '0223r2', '', '\t', '', '', '', 'Sm path failure handling', '', '', '', 'CT#60', '', '\t', '', '\t', '', '0228', '', '\t', '', '', '', 'Trigger for re-establishing MBMS sessions upon an M3AP path recovery', '', '12.1.0', '', '', '', '\t', '', '\t', '', '0239r1', '', '\t', '', '', '', 'MME behaviour upon MBMS GW restart', '', '', '', '', '', '\t', '', '\t', '', '0240r', '', '\t', '', '', '', 'SGSN behaviour upon MBMS GW restart', '', '', '', '', '', '\t', '', '\t', '', '0237r1', '', '\t', '', '', '', 'BM-SC failure', '', '', '', '', '', '\t', '', '\t', '', '0238r1', '', '\t', '', '', '', 'MBMS GW behaviour upon MME/SGSN restart', '', '', '', '', '', '\t', '', '\t', '', '0236r2', '', '\t', '', '', '', 'MCE behavior on MME restart and MME behavior on MCE restart', '', '', '', '', '', '\t', '', '\t', '', '0232r1', '', '\t', '', '', '', 'Contents of MBMS Session Start Request when re-establishing MBMS sessions', '', '', '', '', '', '\t', '', '\t', '', '0231r2', '', '\t', '', '', '', 'SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0230r1', '', '\t', '', '', '', 'BM-SC behaviour upon MBMS GW restart', '', '', '', '', '', '\t', '', '\t', '', '0229r1', '', '\t', '', '', '', 'Moving the control of an MBMS session to another MME', '', '', '', '', '', '\t', '', '\t', '', '0241r2', '', '\t', '', '', '', 'Sn-path failure', '', '', '', '', '', '\t', '', '\t', '', '0245r1', '', '\t', '', '', '', 'SGSN behaviour upon SGW restart', '', '', '', '', '', '\t', '', '\t', '', '0234', '', '\t', '', '', '', 'Restoration Priority during SGW and PGW restoration procedures', '', '', '', '', '', '\t', '', '\t', '', '0243r2', '', '\t', '', '', '', 'Delete Bearer Request triggered by PMIP error indication message', '', '', '', '', '', '\t', '', '\t', '', '0242r1', '', '\t', '', '', '', 'Stop Paging Indication in service restoration procedure with ISR', '', '', '', 'CT#61', '', '\t', '', '\t', '', '0246r1', '', '\t', '', '', '', 'MBMS Session Start Request received for an on-going MBMS bearer service', '', '12.2.0', '', '', '', '\t', '', '\t', '', '0247r1', '', '\t', '', '', '', 'MBMS Session duration', '', '', '', '', '', '\t', '', '\t', '', '0248r1', '', '\t', '', '', '', 'BM-SC behaviour during SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0249r1', '', '\t', '', '', '', 'MCE behavior on MME restart', '', '', '', '', '', '\t', '', '\t', '', '0250r1', '', '\t', '', '', '', 'Release of resources at old MME/SGSN during transient Sm path failure', '', '', '', '', '', '\t', '', '\t', '', '0251r1', '', '\t', '', '', '', 'Separate Clause for MCE and RNC restoration functionality', '', '', '', '', '', '\t', '', '\t', '', '0252r2', '', '\t', '', '', '', 'Correct S-GW behaviors when a peer P-GW failed', '', '', '', '', '', '\t', '', '\t', '', '0253r1', '', '\t', '', '', '', 'Correct wrong NOTE reference', '', '', '', '', '', '\t', '', '\t', '', '0255r2', '', '\t', '', '', '', 'Handling of VLR Failure without Restart for MO SMS', '', '', '', 'Sep 2013', '', '\t', '', '\t', '', '', '', '\t', '', '', '', 'Clause numbers correcterd in clause\xa017A.2. Style correction also in clause\xa027.2.2.2.', '', '12.2.1', '', 'Dec 2013', '', '\t', '', '\t', '', '0265r2', '', '\t', '', '', '', 'Correction of reference to Update Notifications for Proxy Mobile IPv6', '', '12.3.0', '', '', '', '\t', '', '\t', '', '0271r2', '', '\t', '', '', '', 'Error handling when the PCC rule is removed due to the S-GW restoration support', '', '', '', '', '', '\t', '', '\t', '', '0256r1', '', '\t', '', '', '', 'Cause "GTP Resources Unavailable" handling at the SGSN', '', '', '', '', '', '\t', '', '\t', '', '0258r6', '', '\t', '', '', '', 'Restoration of warning message delivery upon eNB failure/restart', '', '', '', '', '', '\t', '', '\t', '', '0259', '', '\t', '', '', '', 'M3AP path recovery', '', '', '', '', '', '\t', '', '\t', '', '0261r2', '', '\t', '', '', '', 'S4-SGSN procedure upon RNC and Iu path failure', '', '', '', '', '', '\t', '', '\t', '', '0266r2', '', '\t', '', '', '', 'Non transient SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0267r2', '', '\t', '', '', '', 'Detection of peer MBMS node restart and SGmb path failure/recovery', '', '', '', '', '', '\t', '', '\t', '', '0268r2', '', '\t', '', '', '', 'Non-transient SGi-mb path failure', '', '', '', 'Mar 2014', '', '\t', '', '\t', '', '0263r6', '', '\t', '', '', '', 'SGW behaviour upon GTP Error indication', '', '12.4.0', '', '', '', '\t', '', '\t', '', '0277r1', '', '\t', '', '', '', 'Correct the PCRF procedure during the SGW restoration', '', '', '', '', '', '\t', '', '\t', '', '0273r1', '', '\t', '', '', '', 'Update the reference of IETF draft Update Notifications for Proxy Mobile IPv6 to RFC 7077', '', '', '', '', '', '\t', '', '\t', '', '0282r2', '', '\t', '', '', '', 'Handling of "GTP Resources Unavailable" cause in S4-SGSN', '', '', '', '', '', '\t', '', '\t', '', '0275r1', '', '\t', '', '', '', 'PWS Restart Indication parameters', '', '', '', 'Jun 2014', '', '\t', '', '\t', '', '0274r3', '', '\t', '', '', '', 'Sm path failure recovery', '', '12.5.0', '', '', '', '\t', '', '\t', '', '0283r1', '', '\t', '', '', '', 'SGmb path failure recovery', '', '', '', '', '', '\t', '', '\t', '', '0288r1', '', '\t', '', '', '', 'M1 and/or M3/Iu resources modification during MBMS session re-establishment', '', '', '', '', '', '\t', '', '\t', '', '0289', '', '\t', '', '', '', 'MCE Failure', '', '', '', '', '', '\t', '', '\t', '', '0291r1', '', '\t', '', '', '', 'SGmb path failure', '', '', '', '', '', '\t', '', '\t', '', '0284r1', '', '\t', '', '', '', 'Handling of E-RAB Release due to GTPU error indication for default bearer at MME', '', '', '', '', '', '\t', '', '\t', '', '0296r2', '', '\t', '', '', '', 'Update SGW behaviours after receiving PMIP error indication', '', '', '', '', '', '\t', '', '\t', '', '0285', '', '\t', '', '', '', 'PWS Restart Indication parameters', '', '', '', '', '', '\t', '', '\t', '', '0286r2', '', '\t', '', '', '', 'HeNB ID verification in the PWS Restart Indication message', '', '', '', '', '', '\t', '', '\t', '', '0287r2', '', '\t', '', '', '', 'Routing of PWS messages to HeNBs', '', '', '', '', '', '\t', '', '\t', '', '0298r2', '', '\t', '', '', '', 'SGW restoration when S5 path failure occurs', '', '', '', '', '', '\t', '', '\t', '', '0290', '', '\t', '', '', '', 'Restoring the (S)Gs associations during tracking/routing area update procedures', '', '', '', 'Sep 2014', '', '\t', '', '\t', '', '0300r2', '', '\t', '', '', '', 'Correct procedure name for PDN connection deactivation', '', '12.6.0', '', '', '', '\t', '', '\t', '', '0301r3', '', '\t', '', '', '', 'Handling of GTP Error Indication for Dual connectivity', '', '', '', '', '', '\t', '', '\t', '', '0302r2', '', '\t', '', '', '', 'Restoration for HSS Reset', '', '', '', '', '', '\t', '', '\t', '', '0304r1', '', '\t', '', '', '', "Remove Editor's note for S5 path failure", '', '', '', 'Dec 2014', '', '\t', '', '\t', '', '0307', '', '\t', '', '', '', 'Warning Area List in Write-Replace Warning Request during PWS restoration', '', '12.7.0', '', '', '', '\t', '', '\t', '', '0308r1', '', '\t', '', '', '', 'Serial Number in Write-Replace Warning Request during PWS restoration', '', '', '', '', '', '\t', '', '\t', '', '0309', '', '\t', '', '', '', 'GCSE restoration procedures upon BM-SC restart', '', '', '', '', '', '\t', '', '\t', '', '0310r1', '', '\t', '', '', '', 'GCSE restoration procedures upon GCS AS restart', '', '', '', '', '', '\t', '', '\t', '', '0311r1', '', '\t', '', '', '', 'GCSE restoration procedures upon MB2-C path failure', '', '', '', '', '', '\t', '', '\t', '', '0312', '', '\t', '', '', '', 'GCSE restoration procedures upon SGi-mb path failure', '', '', '', '', '', '\t', '', '\t', '', '0314r1', '', '\t', '', '', '', 'GTP-C based restart procedures for HRPD', '', '', '', 'Mar 2015', '', '\t', '', '\t', '', '0316r2', '', '\t', '', '', '', 'SGW restoration procedure in PMIP case', '', '12.8.0', '', 'Mar 2015', '', '\t', '', '\t', '', '0317r1', '', '\t', '', '', '', 'Deferring GBR bearers deactivation upon S1 Reset or S1AP path failure', '', '13.0.0', '', 'Jun 2015', '', '\t', '', '\t', '', '0318r1', '', '\t', '', '', '', 'MCE configuration update after an MBMS restoration', '', '13.1.0', '', 'Sep 2015', '', '\t', '', '\t', '', '0320r1', '', '\t', '', '', '', 'HSS Reset', '', '13.2.0', '', 'Dec 2015', '', '\t', '', '\t', '', '0321r2', '', '\t', '', '', '', 'Services restoration for UEs using extended idle mode DRX', '', '13.3.0', '', '', '', '\t', '', '\t', '', '0326r2', '', '\t', '', '', '', 'DTCI for restoration procedure', '', '', '', '', '', '\t', '', '\t', '', '0323r1', '', '\t', '', '', '', 'Implementation mistake of CR 0309 and CR 0310', '', '', '', '', '', '\t', '', '\t', '', '0324r2', '', '\t', '', '', '', 'HSS restart MONTE impacts', '', '', '', '', '', '\t', '', '\t', '', '0325r2', '', '\t', '', '', '', 'SCEF restart and MONTE impacts', '', '', '', '', '', '\t', '', '\t', '', '0327r2', '', '\t', '', '', '', 'SGW Restoration in Dedicated Core Network', '', '', '', 'Mar 2016', '', '\t', '', '\t', '', '0329r2', '', '\t', '', '', '', 'HSS restart and resultant MONTE impacts', '', '13.4.0', '', '', '', '\t', '', '\t', '', '0330r2', '', '\t', '', '', '', 'Restart of SCEF', '', '', '', '', '', '\t', '', '\t', '', '0331r1', '', '\t', '', '', '', 'Correct the partial failure handling on SGW', '', '', '', '', '', '\t', '', '\t', '', '0332r1', '', '\t', '', '', '', 'S11-U Error Indication handling', '', '', '', '', '', '\t', '', '\t', '', '0334r3', '', '\t', '', '', '', 'Behaviours upon receipt of unknown NIDD', '', '', '', '', '', '\t', '', '\t', '', '0335r3', '', '\t', '', '', '', 'Enhance restoration procedure to be compatible with SCEF PDN connection and Attach without PDN connectivity', '', '', '', '', '', '\t', '', '\t', '', '0336r2', '', '\t', '', '', '', 'Connection Resume procedure used during restoration', '', '', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160228', '', '\t0337', '', '\t3', '', '\t', '', '\tMME handling of GTP Error Indication and MO-Data-Answer (failure)', '', '\t13.5.0', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160231', '', '\t0338', '', '\t2', '', '\t', '', '\tPGW restoration in NBIFOM case', '', '\t13.5.0', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160234', '', '\t0340', '', '\t3', '', '\t', '', '\tRestoration impact on the introduction of &lt;span style="color:000000"&gt;UE context retention at SCTP recovery&lt;/span&gt;', '', '\t13.5.0', '', '\t2016-06', '', '\tCT#72', '', '\tCP-160217', '', '\t0341', '', '\t1', '', '\t', '', '\tBehaviours upon receipt of unknown NIDD (SGSN case)', '', '\t14.0.0', '', '\t2016-09', '', '\tCT#73', '', '\tCP-160422', '', '\t0343', '', '\t1', '', '\t', '', '\tFailure case for NBIFOM', '', '\t14.1.0', '', '\t2017-03', '', '\tCT#75', '', '\tCP-170043', '', '\t0344', '', '\t1', '', '\t', '', '\tRestoration Support for V2X Service', '', '\t14.2.0', '', '\t2017-03', '', '\tCT#75', '', '\tCP-170040', '', '\t0345', '', '\t1', '', '\t', '', '\tNetwork triggered service restoration for PSM UE', '', '\t14.2.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0348', '', '\t1', '', '\t', '', '\tUser Plane Path Failure with Control and User Plane Separation of SGW and PGW', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171023', '', '\t0350', '', '\t1', '', '\t', '', '\tService Restoration for UEs in extended DRX mode', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0351', '', '\t3', '', '\t', '', '\tCUPS restoration procedures in SGW-C and SGW-U', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0352', '', '\t2', '', '\t', '', '\tPartial failure handling for CUPS', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0353', '', '\t2', '', '\t', '', '\tCUPS restoration procedures PGW-C and PGW-U', '', '\t14.3.0', '', '\t2017-06', '', '\tCT#76', '', '\tCP-171036', '', '\t0354', '', '\t1', '', '\t', '', '\tCUPS restoration procedures', '', '\t14.3.0', '', '\t2017-12', '', '\tCT#78', '', '\tCP-173019', '', '\t0355', '', '\t-', '', '\t', '', '\tClarification on SGmb path failure', '', '\t14.4.0', '', '\t2018-06', '', '\t-', '', '\t-', '', '\t-', '', '\t-', '', '\t', '', '\tUpdate to Rel-15 version (MCC)', '', '\t15.0.0', '', '\t2018-09', '', '\tCT#81', '', '\tCP-182079', '', '\t0357', '', '\t-', '', '\t', '', '\tCorrections on CUPS restorations', '', '\t15.1.0', '', '\t2018-09', '', '\tCT#81', '', '\tCP-182078', '', '\t0358', '', '\t2', '', '\t', '', '\tS1-U Path Failure Enhancement', '', '\t15.1.0', '', '\t2019-03', '', '\tCT#83', '', '\tCP-190040', '', '\t0359', '', '\t5', '', '\t', '', '\t&lt;span style="color:000000"&gt;Recovery Time Stamp in PFCP&lt;/span&gt;', '', '\t15.2.0', '', '\t2019-06', '', '\tCT#84', '', '\tCP-191024', '', '\t0363', '', '\t2', '', '\t', '', '\t&lt;span style="color:000000"&gt;Corrrections to the restoration procedures for PFCP entities&lt;/span&gt;', '', '\t15.3.0', '', '\t2019-09', '', '\tCT#85', '', '\tCP-192096', '', '\t0364', '', '\t-', '', '\t', '', '\t&lt;span style="color:000000"&gt;Heartbeat procedure&lt;/span&gt;', '', '\t15.4.0', '', '\t2019-12', '', '\tCT#86', '', '\tCP-193041', '', '\t0368', '', '\t-', '', '\t', '', '\t&lt;span style="color:000000"&gt;GTP Recovery Counter and GSN node behaviour&lt;/span&gt;', '', '\t16.0.0', '', '\t2019-12', '', '\tCT#86', '', '\tCP-193045', '', '\t0365', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;PFCP Association Setup Request with same Node ID&lt;/span&gt;', '', '\t16.0.0', '', '\t2019-12', '', '\tCT#86', '', '\tCP-193045', '', '\t0367', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;Reestablishment of PFCP sessions after a UP function restart&lt;/span&gt;', '', '\t16.0.0', '', '\t2020-03', '', '\tCT#87e', '', '\tCP-200038', '', '\t0369', '', '\t-', '', '\t', '', '\t&lt;span style="color:000000"&gt;The Source IP Address in Heartbeat Request message&lt;/span&gt;', '', '\t16.1.0', '', '\t2020-03', '', '\tCT#87e', '', '\tCP-200038', '', '\t0370', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;The Recovery Time Stamp in PFCP Session Establishment Request message&lt;/span&gt;', '', '\t16.1.0', '', '\t2020-03', '', '\tCT#87e', '', '\tCP-200021', '', '\t0371', '', '\t1', '', '\t', '', '\t&lt;span style="color:000000"&gt;URCMP based restart procedures&lt;/span&gt;', '', '\t16.1.0', '', '\t2020-12', '', '\tCT#90e', '', '\tCP-203061', '', '\t0372', '', '\t3', '', '\t', '', '\t&lt;span style="color:000000"&gt;Restoration of PDN connections after a PGW-C/SMF change&lt;/span&gt;', '', '\t17.0.0', '', '\t2021-06', '', '\tCT#92e', '', '\tCP-211043', '', '\t0373', '', '\t2', '', '\t', '', '\tRestoration of PFCP sessions and PDN connections affected by a partial or complete failure', '', '\t17.1.0', '', '\t2021-06', '', '\tCT#92e', '', '\tCP-211043', '', '\t0374', '', '\t2', '', '\t', '', '\tCombined S/PGW restart', '', '\t17.1.0', '', '\t2021-09', '', '\tCT#93e', '', '\tCP-212033', '', '\t0375', '', '\t1', '', '\tB', '', '\tRestoration of PDN connections served by a combined SGW/PGW in a Set', '', '\t17.2.0', '', '\t2021-12', '', '\tCT#94e', '', '\tCP-213095', '', '\t0376', '', '\t-', '', '\tB', '', '\tSGW IP Address for a combined SGW/PGW/SMF', '', '\t17.3.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220033', '', '\t0379', '', '\t3', '', '\tB', '', '\tePDG support of Restoration of PDN connections after a PGW-C/SMF change', '', '\t17.4.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220033', '', '\t0380', '', '\t1', '', '\tB', '', '\tNew SGW IP Address when moving PDN connections for a combined SGW/PGW/SMF set', '', '\t17.4.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220037', '', '\t0378', '', '\t1', '', '\tB', '', '\tDetection and reporting of the restart of a GTP-U entity', '', '\t17.4.0', '', '\t2022-03', '', '\tCT#95e', '', '\tCP-220086', '', '\t0381', '', '\t1', '', '\tB', '', '\tEnhanced handling at user plane path failure', '', '\t17.4.0', '', '\t2022-03', '', '\t', '', '\t', '', '\t', '', '\t', '', '\t', '', '\tEditorial corrections', '', '\t17.4.1', '', '\t2022-09', '', '\tCT#97e', '', '\tCP-222023', '', '\t0382', '', '\t-', '', '\tB', '', '\tPopulating PGW Change Info during 5GS to EPS mobility procedure ', '', '\t18.0.0', '', '\t2022-12', '', '\tCT#98e', '', '\tCP-223046', '', '\t0384', '', '\t1', '', '\tF', '', '\tPGW triggered PDN connection restoration', '', '\t18.1.0', '', '\t2023-06', '', '\tCT#100', '', '\tCP-221074', '', '\t0386', '', '\t1', '', '\tA', '', '\tPGW-C TEID in Update Bearer Response during PGW triggered PDN connection restoration', '', '\t18.2.0', '', '\t2023-06', '', '\tCT#100', '', '\tCP-221074', '', '\t0388', '', '\t-', '', '\tA', '', '\tCorrections to Restoration of PDN connections after a PGW-CSMF change ', '', '\t18.2.0', '', '\t2023-06', '', '\tCT#100', '', '\tCP-221074', '', '\t0390', '', '\t1', '', '\tA', '', '\tMME or ePDG triggered PDN connection restoration', '', '\t18.2.0', '', '\t2023-06', '', '\t', '', '\t', '', '\t', '', '\t', '', '\t', '', '\tEditorial correction in section 31.4', '', '\t18.2.1', '', '', '', '3GPP', '', '', '', '', '', '', '', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.2568128993597036</v>
+        <v>0.2862987716992696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;4.2.2	Mobile Terminated Short Message&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;H.2.1	Secondary authentication and authorization by DN-AAA at PDN Connection Establishment&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['', 'a)\tSend Routing Information for MT SMS (SMS-GMSC-&amp;gt;HLR):', '', '\tThe HLR returns the MSC number as for normal operation.', '', 'b)\tSend Information for MT SMS (MSC-&amp;gt;VLR) - MAP version 2:', '', '-\tIf the VLR has no IMSI record, or if the record is marked "Subscriber Data Not Confirmed by HLR", the VLR proceeds as follows:', '', '-\tthe VLR returns an "Unidentified Subscriber" error. This causes the MSC to report a short message delivery failure, with cause "Unidentified Subscriber", to the SMS gateway MSC. The Gateway MSC sends a "Report SM Delivery Status" request, with a cause of "Absent Subscriber", to the HLR. This causes the HLR to set the "Mobile Station Not Reachable Flag" for the MS, as described in Technical Specifications 3GPP\xa0TS\xa023.040\xa0[4] and 3GPP\xa0TS\xa029.002\xa0[6]; or', '', '-\tthe VLR performs the data restoration procedure as specified in clause\xa04.2.1 for an incoming call and delay the mobile terminating SMS until the data restoration procedure is complete. During the data restoration procedure, the HLR shall send to the VLR the MME name or/and the SGSN Number if the subscriber is registered on this VLR and is registered to EPS or/and GPRS services respectively.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Not Confirmed by Radio Contact", the VLR handles the request in the normal way, except that the "Search for MS" procedure is used instead of the "Page MS" procedure.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Confirmed by Radio Contact", the VLR handles the request in the normal way; for this MS, VLR restoration is complete.', '', '-\tThe state of the indicator "Location Information Confirmed in HLR" does not affect the "Send Information for MT SMS" procedure.', '', 'c)\tSend Information for I/C Call Setup (MSC-&amp;gt;VLR) - MAP version\xa01:', '', '-\tIf the VLR has no IMSI record, or if the record is marked "Subscriber Data Not Confirmed by HLR", the VLR proceeds as follows:', '', '-\tthe VLR returns a "System Failure" error. This causes the MSC to report a short message delivery failure, with cause "System Failure", to the SMS gateway MSC; or', '', '-\tthe VLR performs the data restoration procedure as specified in clause\xa04.2.1 for an incoming call and delay the mobile terminating SMS until the data restoration procedure is complete. During the data restoration procedure, the HLR shall send to the VLR the MME name or/and the SGSN Number if the subscriber is registered on this VLR and is registered to EPS or/and GPRS services respectively.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Not Confirmed by Radio Contact", the VLR handles the request in the normal way, except that the "Search for MS" procedure is used instead of the "Page MS" procedure.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Confirmed by Radio Contact", the VLR handles the request in the normal way; for this MS, VLR restoration is complete.', '', '-\tThe state of the indicator "Location Information Confirmed in HLR" does not affect the "Send Information for MT SMS" procedure.', '', 'd)\tProcess Access Request in Response to Search (MSC-&amp;gt;VLR):', '', '-\tIf the MS responds to paging, the MSC sends a positive response to the search request and a "Process Access Request" to the VLR. After successful authentication, if required, the VLR sets the indicator "Confirmed by Radio Contact" to "Confirmed", sets the location area information for the MS, and handles the request in the normal way.', '', '-\tThe VLR checks the indicator "Location Information Confirmed in HLR". If it indicates "Not Confirmed" the VLR starts an "Update Location" procedure to the HLR. When this procedure is successfully completed, the VLR sets the indicator "Location Information Confirmed in HLR" to "Confirmed".', '', '-\tIf the MS is roaming, the VLR checks the indicators "Subscriber Data Confirmed by CSS" if the CSS has the corresponding valid CSG subscription data and "Location Information Confirmed by CSS". If either of them indicates "Not Confirmed" the VLR shall start an "Update VCSG Location" procedure to the CSS if the roaming UE is still in the CSG cell. When this procedure is successfully completed the VLR sets the indicator "Subscriber Data Confirmed by CSS" if the CSS has the corresponding valid CSG subscription data and "Location Information Confirmed by CSS" to "Confirmed".', '', '', '', 'For this MS, VLR restoration is complete.', '']</t>
+          <t>['', 'In the figure H.2.1-1, the execution of the secondary authentication and authorization by DN-AAA is specified. The procedure assumes that:', '', '-\tThe APN is associated with the selection of a SMF+PGW-C to serve APN(s) that require secondary authentication and authorization by DN-AAA at PDN connection establishment.', '', '-\tThe SMF+PGW-C is configured with local policies indicating that the APN requires secondary authentication and authorization by DN-AAA at PDN connection establishment.', '', '----media/image271.emf----', '', 'Figure H.2.1-1: EAP-based secondary authentication and authorization by DN-AAA at PDN connection establishment', '', '0.\tAs steps 1 - 13 of Figure 5.3.2.1-1 in TS\xa023.401\xa0[13] (Attach Request) or as steps 1 to 3 of Figure 5.10.2 in TS\xa023.401\xa0[13] (UE requested PDN connectivity) with following modifications: The UE may indicate in PCO its capability to support EAP-based secondary DN authentication over EPC if the UE included the PDU Session Id in PCO', '', '1.\tThe SMF+PGW-C gets subscription data from UDM as defined in step\xa04 of Figure 4.3.2.2.1-1 (not shown in Figure H.2.1-1). The procedure assumes that SMF configuration or subscription data from UDM require EAP-based secondary authentication and authorization by DN-AAA.', '', '\tSecondary DN authorization may be invoked as described in TS\xa029.561\xa0[63]. During this step\xa0the DN-AAA may provide an IP address for the UE and other DN authorization data as described in clause\xa05.6.6 of TS\xa023.501\xa0[2].', '', '2a.\tIf dynamic PCC is to be used for the PDU Session, the SMF+PGW-C performs an SM Policy Association Establishment procedure as defined in clause\xa04.16.4 and if Secondary DN authorization has been invoked in step\xa01, provides to the PCF the PDN Connection parameters received from the DN AAA at step\xa01 as described in step\xa05 of Figure 4.3.2.3-1. In this step the SMF+PGW-C may retrieve the PDU Session related policy information and the PCC rule(s) from the PCF, e.g. the authorized Session AMBR.', '', '2b.\tUPF selection and N4 session establishment is executed with the difference that the SMF+PGW-C configures the UPF+PGW-U to block any UE traffic over the PDN Connection (until the Secondary DN authentication and authorization has been done and is successful).', '', '3.\tSteps 15-24 in Figure 5.3.2.1-1 of TS\xa023.401\xa0[13] or steps 5-16 in Figure 5.10.2 of TS\xa023.401\xa0[13].', '', '\tDuring the Attach procedure, at step\xa015 in Figure 5.3.2.1-1 of TS\xa023.401\xa0[13] or during UE requested PDN connectivity in step\xa05 in Figure 5.10.2 of TS\xa023.401\xa0[13], the SMF+PGW-C includes in PCO, an Indication to the UE that "UpLink Data is NOT ALLOWED" on the PDN connection. The UE shall not send Uplink data to the network, until it receives an indication further from the network that "UpLink Data is ALLOWED".', '', 'NOTE:\tHow the Indication that Uplink data allowed/not allowed is carried in PCO is defined in TS\xa024.501\xa0[25].', '', '4.\t[Conditional] The PGW-C+SMF initiates EAP-based authentication by sending EAP-Request as described in step\xa02 of Figure 4.3.2.3-1.', '', '5.\tMultiple round-trip messages as required by the authentication method used by DN-AAA may follow. The PCO including the authentication message from the DN-AAA is transferred to the UE by the SMF+PGW-C in Update Bearer Request and then over S1 by Downlink NAS Transport (steps 4b-4d). The response from the UE is transferred to the SMF+PGW-C in an Uplink NAS Transport over S1 and Update Bearer Response (steps 4e-4g) over EPS.', '', '6.\tSecondary authentication and authorization by DN-AAA procedure continues as described in step\xa04 of Figure 4.3.2.3-1.', '', '7.\tThe SMF+PGW-C updates the N4 rules in the UPF+PGW-U to allow traffic over the PDN Connection. If dynamic PCC is to be used for the PDU Session and the SMF+PGW-C received DN Authorization information from the DN-AAA as part of step\xa05 or 6 that is different compared to the value received in step\xa02, the SMF+PGW-C contacts the PCF to update the PDN Connection as described in step\xa05 of Figure 4.3.2.3-1', '', '8.\tThe SMF+PGW-C updates the UE by invoking the PDN GW initiated bearer modification without QoS update procedure (figure 5.4.3-1 of TS\xa023.401\xa0[13]) initiated by sending an Update Bearer Request message to the SGW. The PCO includes an indication that "UpLink Data is ALLOWED". The UE confirms the update (see clause\xa05.4.3 of TS\xa023.401\xa0[13]).', '', '\tIf the UE IP address is to be delivered to the UE over user plane (via Router advertisement or DHCP) then the UE IP address is only delivered to the UE after step\xa08.', '', '9.\tAs in step\xa06 of Figure 4.3.2.3-1.', '', 'The DN-AAA Server may revoke the authorization for a PDN connection or update DN authorization data for a PDN connection. According to the request from DN-AAA Server, the SMF+PGW-C may release or update the PDN connection.', '', 'At any time after the PDN connection establishment, the DN-AAA Server or SMF+PGW-C may initiate Secondary Re-authentication procedure for the PDN connection as described in clause\xa04.3.2.3. Steps 4a-4h are performed to transfer the Secondary Re-authentication message between the DN-AAA Server and the UE. The Secondary Re-authentication procedure may start from step\xa04a (DN-AAA initiated Secondary Re-authentication procedure) or step\xa04b (SMF+PGW-C initiated Secondary Re-authentication procedure).', '', 'During Secondary Re-authentication, if the SMF+PGW-C receives an indication from the MME that the UE is unreachable then it informs the DN-AAA Server that UE is not reachable for re-authentication. Based on this indication from SMF+PGW-C, the DN-AAA Server may decide to keep the PDN connection or request to release it.', '', 'DN-AAA may initiate DN-AAA Re-authorization without performing re-authentication based on local policy. DN-AAA Re-authorization procedure may involve steps 5 and 6 of Figure H.2.1-1 above.', '', 'During Secondary Re-authentication/Re-authorization, if the SMF+PGW-c receives DN Authorization Profile Index and/or DN authorized Session AMBR, the SMF+PGW-c reports the received value(s) to the PCF (as described in TS\xa023.501\xa0[2]) by triggering the Policy Control Request Trigger as described in TS\xa023.503\xa0[20].', '', '', '', '', 'Annex I (informative):', 'Member UE selection without the NEF assistance at the AF', '', 'This informative Annex describes an example of the procedure that AF selects the FL members by collecting network exposure information in case that no NEF is present in the 5GS. In this example, QoS Monitoring is used for FL Member UE selection.', '', 'Network exposure information as described in clause\xa04.15 of TS\xa023.502\xa0[4], e.g. UE location reporting from the AMF, user plane information from the UPF and data analytics from NWDAF may be collected and used to assist the AF in application layer Member UE selection e.g. assist in the selection of Member UEs participating in a federating learning operation.', '', '----media/image272.emf----', '', 'Figure I-1: Example of Procedure for Member UE selection without the NEF assistance', '', '1.\t[Optional] The AF requests the location reporting of the UEs from the AMF by invoking existing Namf_EventExposure_Subscribe (Location Reporting).', '', '2.\t[Optional] The AF initiates direct notification of QoS Monitoring procedure for delay information for the UEs in the candidate list, as defined in steps 1a-5 of clause\xa06.4.2.1 of TS\xa023.548\xa0[74].', '', '3.\t[Optional] The AF requests user plane information, e.g. Throughput UL/DL, Packet transmission, Packet retransmission, for the UEs in the candidate list from UPF.', '', '4. [Optional] The AF requests analytics from NWDAF by invoking the Nnwdaf_AnalyticsSubscription_Subscribe service operation, such as UE Communication, User Data Congestion Analytics, WLAN performance analytics per UE, etc. as defined in TS\xa023.288\xa0[50].', '', 'NOTE\xa01:\tIn Steps 1-4, the AF maintains the candidate list itself and collects the Member UE selection information directly from the 5GC and includes the Target UE Identifier(s) for the UEs in the candidate list in the request.', '', '5.\tThe AF selects members, e.g. for application layer Member UE selection for FL, based on the information collected in steps 1-4.', '', 'NOTE\xa02:\tWhat information needs to be collected by the AF to perform Member UE selection is decided by the AF itself.', '', 'NOTE\xa03:\tAF may keep monitoring the information from AMF/UPF/SMF/NWDAF to update the members.', '', '', '', '', 'Annex J (informative):', 'Support for Personal IoT Networks', '']</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.2193742965149686</v>
+        <v>0.2035076148861991</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;4.2.2	Mobile Terminated Short Message&lt;/h3&gt;</t>
+          <t>&lt;h2&gt;K.2.1	Capability exchange&lt;/h2&gt;</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['', 'a)\tSend Routing Information for MT SMS (SMS-GMSC-&amp;gt;HLR):', '', '\tThe HLR returns the MSC number as for normal operation.', '', 'b)\tSend Information for MT SMS (MSC-&amp;gt;VLR) - MAP version 2:', '', '-\tIf the VLR has no IMSI record, or if the record is marked "Subscriber Data Not Confirmed by HLR", the VLR proceeds as follows:', '', '-\tthe VLR returns an "Unidentified Subscriber" error. This causes the MSC to report a short message delivery failure, with cause "Unidentified Subscriber", to the SMS gateway MSC. The Gateway MSC sends a "Report SM Delivery Status" request, with a cause of "Absent Subscriber", to the HLR. This causes the HLR to set the "Mobile Station Not Reachable Flag" for the MS, as described in Technical Specifications 3GPP\xa0TS\xa023.040\xa0[4] and 3GPP\xa0TS\xa029.002\xa0[6]; or', '', '-\tthe VLR performs the data restoration procedure as specified in clause\xa04.2.1 for an incoming call and delay the mobile terminating SMS until the data restoration procedure is complete. During the data restoration procedure, the HLR shall send to the VLR the MME name or/and the SGSN Number if the subscriber is registered on this VLR and is registered to EPS or/and GPRS services respectively.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Not Confirmed by Radio Contact", the VLR handles the request in the normal way, except that the "Search for MS" procedure is used instead of the "Page MS" procedure.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Confirmed by Radio Contact", the VLR handles the request in the normal way; for this MS, VLR restoration is complete.', '', '-\tThe state of the indicator "Location Information Confirmed in HLR" does not affect the "Send Information for MT SMS" procedure.', '', 'c)\tSend Information for I/C Call Setup (MSC-&amp;gt;VLR) - MAP version\xa01:', '', '-\tIf the VLR has no IMSI record, or if the record is marked "Subscriber Data Not Confirmed by HLR", the VLR proceeds as follows:', '', '-\tthe VLR returns a "System Failure" error. This causes the MSC to report a short message delivery failure, with cause "System Failure", to the SMS gateway MSC; or', '', '-\tthe VLR performs the data restoration procedure as specified in clause\xa04.2.1 for an incoming call and delay the mobile terminating SMS until the data restoration procedure is complete. During the data restoration procedure, the HLR shall send to the VLR the MME name or/and the SGSN Number if the subscriber is registered on this VLR and is registered to EPS or/and GPRS services respectively.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Not Confirmed by Radio Contact", the VLR handles the request in the normal way, except that the "Search for MS" procedure is used instead of the "Page MS" procedure.', '', '-\tIf the VLR has an IMSI record marked "Subscriber Data Confirmed by HLR" and "Confirmed by Radio Contact", the VLR handles the request in the normal way; for this MS, VLR restoration is complete.', '', '-\tThe state of the indicator "Location Information Confirmed in HLR" does not affect the "Send Information for MT SMS" procedure.', '', 'd)\tProcess Access Request in Response to Search (MSC-&amp;gt;VLR):', '', '-\tIf the MS responds to paging, the MSC sends a positive response to the search request and a "Process Access Request" to the VLR. After successful authentication, if required, the VLR sets the indicator "Confirmed by Radio Contact" to "Confirmed", sets the location area information for the MS, and handles the request in the normal way.', '', '-\tThe VLR checks the indicator "Location Information Confirmed in HLR". If it indicates "Not Confirmed" the VLR starts an "Update Location" procedure to the HLR. When this procedure is successfully completed, the VLR sets the indicator "Location Information Confirmed in HLR" to "Confirmed".', '', '-\tIf the MS is roaming, the VLR checks the indicators "Subscriber Data Confirmed by CSS" if the CSS has the corresponding valid CSG subscription data and "Location Information Confirmed by CSS". If either of them indicates "Not Confirmed" the VLR shall start an "Update VCSG Location" procedure to the CSS if the roaming UE is still in the CSG cell. When this procedure is successfully completed the VLR sets the indicator "Subscriber Data Confirmed by CSS" if the CSS has the corresponding valid CSG subscription data and "Location Information Confirmed by CSS" to "Confirmed".', '', '', '', 'For this MS, VLR restoration is complete.', '']</t>
+          <t>['', 'DS-TT and NW-TT indicate time synchronization information they support inside the Port management capabilities (see Table 5.28.3.1-1).', '', 'TSN AF and TSCTSF may determine the PTP functionalities supported by DS-TT and NW-TT by retrieving the following port management information or user plane node management information, respectively:', '', '-\tSupported PTP instance types;', '', '-\tSupported transport types;', '', '-\tSupported PTP delay mechanisms;', '', '-\tGrandmaster capability;', '', '-\tSupported PTP profiles;', '', '-\tNumber of supported PTP instances.', '', 'NOTE:\tIf NW-TT or DS-TT do not indicate support for any of the PTP profiles and PTP instance types, then TSN AF or TSCTSF assume that the NW-TT or DS-TT only support acting as a PTP Relay instance with the gPTP GM connected on N6.', '', 'If DS-TT and NW-TT support the PTP Relay instance type as defined by IEEE\xa0802.1AS\xa0[104] then DS-TT and NW-TT shall include the IEEE\xa0 802.1AS\xa0[104] PTP profile in the "Supported PTP profiles" in PMIC and UMIC, respectively.', '', 'The TSN AF or TSCTSF may retrieve the "Number of supported PTP instances" from NW-TT via UMIC and from DS-TT via PMIC.', '']</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.2193742965149686</v>
+        <v>0.2091484167556132</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;4.2.5	The QoS requirements for an IM CN subsystem session&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;10.3.4	Nadrf_MLModelManagement_Retrieval Request service operation&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['', 'The selection, deployment, initiation and termination of QoS signalling and resource allocation shall consider the following requirements so as to guarantee the QoS requirement associated with an IM CN subsystem session.', '', '1.\tIndependence between QoS signalling and Session Control', '', '\tThe selection of QoS signalling and resource allocation schemes should be independent of the selected session control protocols. This allows for independent evolution of QoS control and the session control in the IM CN subsystem.', '', '2.\tNecessity for End-to-End QoS Signalling and Resource -Allocation', '', '\tEnd-to-end QoS indication, negotiation and resource allocation during the session set-up in the IM CN subsystem should be enforced for those services and applications that require QoS better than best-effort.', '', '3.\tVoid.', '', '4.\tRestricted Resource Access at the IP BS Level', '', '\tAccess to the resources and provisioning of QoS at IP BS Level should be authenticated and authorized by applying appropriate QoS policies via the IP Policy Control element', '', '5.\tRestricted Resource Access at the IP-Connectivity Access Network (i.e. layer-2) Level', '', '\tAccess to the resources and provisioning of QoS at the IP-Connectivity Access Network Level should be authenticated and authorized by using existing registration/security/QoS policy control mechanisms of the IPCAN.', '', '6.\tCo-ordination between Session Control and QoS Signalling/Resource Allocation', '', 'a.\tIn establishing an IMS session, it shall be possible for an application to request that the resources needed for bearer establishment be successfully allocated before the destination user is alerted.', '', 'b.\tIn establishing an IMS session, it shall be possible, dependent on the application being offered, to prevent the use of the bearer until the session establishment is completed.', '', 'c.\tIn establishing an IMS session, it shall be possible for a terminating application to allow the destination user to participate in determining which bearers shall be established.', '', 'd.\tSuccessful bearer establishment shall include the completion of any required end-to-end QoS signalling, negotiation and resource allocation.', '', 'e.\tIn establishing an IMS session, it shall be possible to use already allocated bearer resources, if these resources fulfil the needs of the session. However, note that QoS policy control mechanisms of the IPCAN may not allow to use already allocated bearer resources.', '', '\tThe initiation of any required end-to-end QoS signalling, negotiation and resource allocation processes at different network segments shall take place after the initiation and delivery of a session set-up request.', '', '7.\tThe Efficiency of QoS Signalling and Resource Allocation', '', '\tThe sequence of end-to-end QoS signalling, negotiation and resource allocation processes at different network segments should primarily consider the delay in negotiating end-to-end QoS and reserving resources that contributes to the session set-up delay. Parallel or overlapping QoS negotiation and resource reservation shall be allowed where possible.', '', '8.\tDynamic QoS Negotiation and Resource Allocation', '', '\tChanges (upgrading or downgrading) of QoS provided to an active IMS session shall be supported based on either the request from the IM application or the current network loads or link quality (e.g. radio link quality).', '', '\tIt shall be possible to maintain a resource allocation in excess of the resources needed for current media flows (but within the restrictions imposed by points #4 and #5 above), in order to e.g. switch to different media flow characteristics without risk of admission control failure.', '', '9.\tPrevention of Theft of Service', '', '\tThe possibility for theft of service in the IM CN subsystem shall be no higher than that for the corresponding packet data and circuit switched services.', '', '10.\tPrevention of Denial of Service', '', '\tThe system unavailability due to denial of service attacks in the IM CN subsystem shall be no greater than that for the corresponding packet data and circuit switched services.', '']</t>
+          <t xml:space="preserve">['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nadrf_MLModelManagement_Retrieval Request', '', '&lt;b&gt;Description:&lt;/b&gt; The consumer NF uses this service operation to request the ADRF to get the ML model(s) stored in ADRF.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt;', '', '-\tStorage Transaction Identifier; or', '', '-\tone or more tuples of unique ML Model identifier(s).', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt; None.', '', '&lt;b&gt;Outputs Required:&lt;/b&gt;', '', '-\tone or more tuples of unique ML Model identifiers and address (e.g. URL or FQDN) of Model file stored in ADRF.', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt; None.', '', '', 'Annex A (informative):', 'Change history', '', '&lt;span style="font-size:16pt"&gt;Change history&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Date&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Meeting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TDoc&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Rev&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Cat&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Subject/Comment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;New version&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-05&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP-190456&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC Editorial update for presentation to TSG SA#84 for approval&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;1.0.0&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;2019-06&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;SP#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;MCC editorial update for publication after approval at TSG SA#84&lt;/span&gt;', '', '&lt;span style="color:0000FF;font-size:16pt"&gt;16.0.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0001&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to Observed Service experience related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0010&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Specification clean-up&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0012&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous corrections to TS 23.288 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0014&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of NF and AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0015&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the Analytics information provided by NWDAF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0017&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Closing open issue on NEF-AF interaction for data collection from AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0026&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the correlation information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0027&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications of the pre-check behaviours of the NF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0029&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to slice load level analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0034&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on Potential QoS Change &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0036&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to properly separate UE identifiers from Analytics Filter&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0037&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR for update of observed service experience&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0039&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0040&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Optionality of data to be collected by NWDAF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0042&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on Data Collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0045&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Probability assertion clarification on NWDAF services description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0046&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections for analytics exposure framework related parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0052&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;BSF and PCF selection for data collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-09&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#85&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-190612&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0054&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Nnwdaf_AnalyticsSubscription_Subscribe and Nnwdaf_AnalyticsInfo_Request service operations&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.1.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0002&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to NF load data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0003&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;8&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to Network Performance related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0004&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to Abnormal behaviour analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0009&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to UE mobility and Abnormal behaviour analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0043&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Remove UE related analytics for any UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0044&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications to UE communication and mobility analytics output&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0047&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections for observed Service experience related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0055&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;01&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Terminology Alignment&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0057&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Editor\'s Notes cleanup&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0062&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to User Data Congestion Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0063&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction for data collection from OAM&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0064&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;7 &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to general and framework parts of analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0065&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;- &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to data collection from NFs&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0066&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;6&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Miscellaneous corrections/updates to TS 23.288&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0068&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of the data collection of the OSE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0071&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to UE related analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0072&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on Supporting Modification of Analytics Subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0076&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Removing Editor\'s note on how to find a PCF instance serving a UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0078&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;User Data Congestion - Removal of Editor\'s Notes and Description Alignments&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0081&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to update UE communication&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0084&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correction to Analytics Filter for slice load level analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0087&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on NWDAF-assisted expected UE behavioural analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0088&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update the correlation information for AMF data and RAN data&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0091&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of UE related analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0092&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of QoS requirements parameter used for QoS Sustainability Analytics &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0093&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignments on Analytics Filter Information and clarifications on Reporting Thresholds&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0094&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification for UPF related data collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191120&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0095&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignment of User Data Congestion Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0099&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NEF parameter mapping for outbound analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2019-12&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#86&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-191079&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0100&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Alignments on QoS Sustainability Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.2.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0103&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on definitions and NSI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0104&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NWDAF collect MDT/SON parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0105&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Update to Clause 6.1.3 Contents of Analytics Exposure&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0108&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;CR to update Observed Service Experience&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0109&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on UE mobility analytics type by NWDAF service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0110&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections on UE mobility analytics type by NWDAF service&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0112&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Correct the filters for UE related analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0113&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;4&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;A mechanism to avoid the flooding of reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0114&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reporting information updates&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0115&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Mega CR on editorial corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; 0117&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Slice service experience data collection corrections&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0119&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Add the definition for Maximum number of results parameter into clause 6.1.3&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0123&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clause 6.7.2 UE mobility analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0124&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification of clause 6.7.4 Expected UE behavioural parameters related network data analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0126&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarification on abnormal behaviour analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0127&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on data collection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0128&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to Observed Service Experience analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0129&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;1&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections to User Data Congestion Analytics&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0130&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Corrections related to Analytics Filter Information and others&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0132&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Clarifications on Inputs of NWDAF Analytics Subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;0139&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;-&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;F&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt; Clarification of data collection from UPF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;16.3.0&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;2020-03&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP#87E&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SP-200070&lt;/span&gt;', '', </t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.2056136147778597</v>
+        <v>0.2573130190784572</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.19.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;4.12a.5	UE Requested PDU Session Establishment via Trusted non-3GPP Access&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['', 'This clause presents some high level flows to describe the procedures for supporting IMS transit network scenarios.', '', 'The IMS Transit Functions perform an analysis of the destination address, and determine where to route the session. The session may be routed directly to an MGCF, BGCF, or to another IMS entity in the same network, to another IMS network, or to a CS domain or PSTN. The address analysis may use public (e.g. DNS, ENUM) and/or private database lookups, and/or locally configured data. As described in clause\xa04.15 there are various transit configurations possible that may be supported.', '', "For the case where an operator is providing transit functions for other operators and/or enterprise networks, the configuration is as shown in Figure 5.49. The configuration in Figure 5.49 is also intended to cover scenarios where an operator routes traffic from other IMS- or SIP-networks to CS domain or PSTN customers through the IMS transit network. In this case the terminating network as shown in the figure indicates the operator's CS domain or PSTN.", '', '----media/image97.wmf----', '', 'Figure 5.49: IMS transit network', '', 'For the transit operator in Figure 5.49, ISUP messages that arrive at a configured MGCF, are translated into SIP, and are passed to the IMS Transit Functions. SIP messages may arrive directly at the configured entity supporting the transit functions or first pass through an IBCF before arriving at the IMS Transit Functions. The IMS Transit Functions determine whether to route directly to an MGCF, BGCF, or to another IP entity on the path (e.g. an IBCF). In this transit operator configuration, the IMS Transit Functions might reside in a stand-alone entity or might be combined with the functionality of an MGCF, a BGCF, an ICSCF, an SCSCF or an IBCF. When residing in a stand-alone entity the IMS Transit Functions shall be able to generate CDRs.', '', 'For the case where the operator is the terminating network operator handling a terminating service for its own customers, the configuration and operation may be more complex as shown in figure\xa05.50.', '', 'NOTE\xa01:\tIn the case of Fixed Broadband Access to IMS the term "CS domain" in the following text and in figure\xa05.50 may be replaced by the term "PSTN".', '', '----media/image98.emf----', '', 'Figure 5.50: Terminating IMS network with transit support, Transit Functions first', '', 'For the operator in figure\xa05.50, ISUP messages arriving at an MGCF may be destined for an IMS or a CS domain customer (see clause\xa04.15). The ISUP messages are translated into SIP.', '', 'The operator can choose whether to route all traffic through the IMS Transit Functions, which subsequently route to the ICSCF for IMS terminating call scenarios or to an MGCF for the case of CS domain subscribers as described above. This is depicted in figure 5.50. In this case, there may be an additional delay for terminating sessions destined for IMS subscribers.', '', 'NOTE\xa02:\tIn this case, the IMS Transit Functions perform selection of the appropriate domain to terminate the call to, followed by routing to the CS domain (for CS domain destined traffic).', '', 'As an alternative, the operator may choose to route all traffic to the ICSCF directly and then identify those sessions that are not destined to IMS subscribers based on an HSS query. Based on the response from the HSS, sessions are either routed to an SCSCF or to the CS domain (optionally via Transit Functions). In this case there may be an additional delay for terminating sessions destined for the CS domain subscribers.', '', 'NOTE\xa03:\tIf in this case, the ICSCF becomes aware that the call is not destined to an IMS subscriber and forwards it to the Transit Function for further routing, then the Transit Functions only perform routing to the CS domain.', '', "It is the operator's choice to determine which way to route the SIP messages, first through IMS Transit Functions or first to an ICSCF. This may depend on whether the majority of the sessions that enter the IMS network, are destined to IMS or CS domain subscribers.", '', 'NOTE\xa04:\tIn either configuration of the terminating network scenario, once it is determined that the call is not destined for an IMS subscriber, it is necessary to verify that the call is destined for a CS domain subscriber rather than to a ported number or to a wrong number. At which stage of the session establishment this decision is made is FFS.', '', 'In the terminating network configuration shown in figure\xa05.50, the IMS Transit Functions might reside in a stand-alone entity or might be combined with the functionality of an MGCF, a BGCF, an ICSCF, an SCSCF, or an IBCF. When residing in a stand-alone entity the IMS Transit Functions shall be able to generate CDRs.', '', 'For the case where an IMS network serves as a transit network and as a terminating network (depending on the destination of the session), the configuration and operation resembles that of the previous case as shown in figure\xa05.50a and figure\xa05.50b.', '', '----media/image99.emf----', '', 'Figure 5.50a: Terminating/Transit IMS network, Transit Functions first', '', '----media/image100.emf----', '', 'Figure 5.50b: Terminating/Transit IMS network, I-CSCF first', '', 'For the operator in figure\xa05.50a and figure\xa05.50b, ISUP messages arriving at an MGCF may be destined for the own IMS network of for a succeeding network. The ISUP messages are translated into SIP. This is not depicted in figure\xa05.50a and figure\xa05.50b.', '', 'The operator can choose whether to route all traffic through the IMS Transit Functions, which subsequently route to the ICSCF for sessions destined for subscribers of the own IMS network, to the own CS domain for sessions destined to subscribers of the own CS domain, or to a succeeding network for sessions not destined for subscribers of the own IMS network or the own CS domain. This is depicted in figure\xa05.50a. In this case there may be an additional delay for sessions destined to subscribers of the own network.', '', 'NOTE\xa05:\tIn this case, the Transit Functions perform selection of the appropriate domain to terminate the call to, for subscribers of the own network, followed by routing to another network (if the session is not destined to the own network).', '', 'As an alternative, the operator may choose to route all traffic to the ICSCF directly and then identify those sessions that are not destined to IMS subscribers of the own IMS network based on an HSS query. Based on the response from the HSS, sessions are either routed to an SCSCF of the own IMS network or to Transit Functions. The Transit Functions subsequently route the session to either the CS domain of the own network or to a succeeding network. This is depicted in figure\xa05.50b. In this case there may be an additional delay for sessions not destined to subscribers of the own IMS network.', '', "It is the operator's choice to determine which way to route the SIP messages, first through IMS Transit Functions or first to an ICSCF. This may depend on whether the majority of the sessions that enter the IMS network, are destined to subscribers of the own IMS network or not. This operator's choice may be implemented as a functionality of an entry functions such as an IBCF.", '', 'In the terminating/transit network configuration shown in figure\xa05.50a and figure\xa05.50b, the IMS Transit Functions might reside in a stand-alone entity or might be combined with the functionality of an MGCF, a BGCF, an ICSCF, an SCSCF, or an IBCF. When residing in a stand-alone entity the IMS Transit Functions shall be able to generate CDRs.', '']</t>
+          <t>['', 'After the UE registers to 5GC via trusted non-3GPP access, the UE may request a PDU Session establishment by using the same procedure as the one specified in clause\xa04.12.5 for untrusted non-3GPP access, with the following modifications:', '', '-\tThe N3IWF in Figure 4.12.5-1 should be substituted with a TNGF and the Untrusted non-3GPP access should be substituted with a Trusted non-3GPP Access Point (TNAP).', '', '-\tThe TNGF may send a TNGF Identities parameter to AMF inside an N2 Uplink NAS Transport message. The TNGF Identities parameter contains a list of identifiers (i.e. FQDNs or IP addresses) of N3 terminations supported by the TNGF. If received by the AMF, it shall forward it to the SMF, which may use it as input to UPF selection. The AMF provides ULI information received from TNGF to the SMF which then propagates it to the PCF.', '', '-\tThe IKEv2 Create Child SA Request message that is sent by the TNGF to UE (in steps 4a and 4c), in order to establish a child SA for one or more QoS flows, shall also include Additional QoS Information. The Additional QoS Information shall contain:', '', 'a)\tIf the IPsec child SA carries a GBR flow: QoS Characteristics and GBR QoS Flow Information:', '', '-\tThe QoS Characteristics are associated with the 5QI of the GBR flow and are defined in clause\xa05.7.3 of TS\xa023.501\xa0[2]. The TNGF either receives the QoS Characteristics via the N2 interface (in the case of a dynamically assigned 5QI), or is pre-configured with the QoS Characteristics (in the case of a standardized 5QI).', '', '-\tThe GBR QoS Flow Information (defined in TS\xa038.413\xa0[10]) is part of the QoS Profile received via the N2 interface and contains: MFBR, GFBR and optionally Maximum Packet Loss Rate. The Notification Control is not included in the QoS profile.', '', 'b)\tIf the IPsec child SA carries a non-GBR flow: QoS Characteristics:', '', '-\tThe QoS Characteristics are defined in bullet a) above.', '', '\tThe TNGF may aggregate multiple GBR flows or multiple non-GBR flows into the same IPsec child SA. In this case, the TNGF derives, in an implementation specific way, the QoS Characteristics of the aggregated flow by considering the QoS Characteristics of the individual flows. Similarly, the TNGF derives, in an implementation specific way, the GBR QoS Flow Information of an aggregated GBR flow by considering the GBR QoS Flow Information of the individual GBR flows.', '', 'NOTE:\tThe above behaviour of the TNGF does not create any impact on the N2 interface.', '', '-\tAfter receiving an IKEv2 Create Child SA Request message, the UE shall use the Additional QoS Information contained in this message to determine what QoS resources to reserve over the non-3GPP access, including e.g. guaranteed bit rates and delay bounds for UL/DL communication. How the UE determines what QoS resources to reserve over the non-3GPP access and how these QoS resources are reserved, is outside the scope of 3GPP specifications.', '', '-\tIf the UE fails to reserve QoS resources over non-3GPP access for the QoS flows associated with the child SA (e.g. because the non-3GPP Access Network rejects the allocation of the requested bit rates), the UE shall reject the IKEv2 Child SA Request. Based on operator policy, the network may reattempt to establish the Child SA without the Additional QoS Information.', '']</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.2072087931183531</v>
+        <v>0.1982915309804957</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.4	Procedures in the SGSN&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;4.2.6	AN Release&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23502-i20_l.docx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['', 'Upon receipt of a HLR/HSS reset, the SGSN shall mark each relevant MM contexts as invalid and shall set the Non-GPRS Alert Flag (NGAF) if an SGSN - MSC/VLR association exists. After detection of any activity (either signalling or data) from a marked MS or any other implementation dependent trigger for a marked MS in PMM-CONNECTED state with Direct tunnel, the SGSN performs an update location to the HLR/HSS as in the attach or inter-SGSN RA update procedures and, if NGAF is set, the procedure of "Non-GPRS Alert" is followed (see clause\xa07 in 3GPP TS\xa029.018\xa0[7]).', '', 'The update location procedure and the procedure towards the VLR may be delayed by the SGSN for a maximum operator configuration-depending time period to avoid high signalling load.', '']</t>
+          <t>['', 'This procedure is used to release the logical NG-AP signalling connection for the UE between the (R)AN and the AMF and the associated N3 User Plane connections and (R)AN signalling connection between the UE and the (R)AN and the associated (R)AN resources.', '', 'When the NG-AP signalling connection is lost due to (R)AN or AMF failure, the AN release is performed locally by the AMF or the (R)AN as described in the procedure flow below without using or relying on any of the signalling shown between (R)AN and AMF. The AN release causes all UP connections of the UE to be deactivated.', '', 'The initiation of AN release may be due to:', '', '-\t(R)AN-initiated with cause e.g. O&amp;amp;M Intervention, Unspecified Failure, (R)AN (e.g. Radio) Link Failure, User Inactivity, Inter-System Redirection, request for establishment of QoS Flow for IMS voice, Release due to UE generated signalling connection release, mobility restriction, Release Assistance Information (RAI) from the UE, UE using satellite access moved out of PLMN serving area, etc.; or', '', '-\tAMF-initiated with cause e.g. Unspecified Failure, etc.', '', 'Both (R)AN-initiated and AMF-initiated AN Release procedures are shown in Figure 4.2.6-1.', '', 'If Service Gap Control shall be applied for the UE (see clause\xa05.31.16 of TS\xa023.501\xa0[2]) and the Service Gap timer is not already running, the Service Gap timer shall be started in AMF and UE when entering CM-IDLE, unless the connection was initiated after a paging of an MT event, or after a Registration procedure without Uplink data status or after a Registration procedure for regulatory prioritized services like Emergency services or exception reporting.', '', 'For this procedure, the impacted SMF and UPF are all under control of the PLMN serving the UE, e.g. in Home Routed roaming case the SMF and UPF in HPLMN are not involved.', '', '----media/image14.emf----', '', 'Figure 4.2.6-1: AN Release procedure', '', '1.\tIf there is some confirmed (R)AN conditions (e.g. Radio Link Failure) or for other (R)AN internal reason, the (R)AN may decide to initiate the UE context release in the (R)AN. In this case, the (R)AN sends an N2 UE Context Release Request (Cause, List of PDU Session ID(s) with active N3 user plane) message to the AMF. Cause indicates the reason for the release (e.g. AN Link Failure, O&amp;amp;M intervention, unspecified failure, etc.). The List of PDU Session ID(s) indicates the PDU Sessions served by (R)AN of the UE. If the (R)AN is NG-RAN, this step is described in clause\xa08.3.2 of TS\xa038.413\xa0[10]. If the (R)AN is an N3IWF this step is described in clause\xa04.12.4.2.', '', '\tIf the reason for the release is the NG-RAN received an AS Release Assistance Indicator as defined in TS\xa036.331\xa0[16], NG-RAN should not immediately release the RRC connection but instead send an N2 UE Context Release Request message to the AMF. If the AS RAI indicates only a single downlink transmission is expected then NG-RAN should only send the N2 UE Context Release Request after a single downlink NAS PDU or N3 data PDU has been transferred.', '', '\tIf N2 Context Release Request cause indicates the release is requested due to user inactivity or AS RAI then the AMF continues with the AN Release procedure unless the AMF is aware of pending MT traffic or signalling.', '', '\tIf N2 Context Release Request cause indicates the release is requested due to a UE using satellite access moved out of PLMN serving area, the AMF may deregister the UE as described in clause\xa04.2.2.3.3 before continuing with the AN Release procedure.', '', '2.\tAMF to (R)AN: If the AMF receives the N2 UE Context Release Request message or due to an internal AMF event, including the reception of Service Request or Registration Request to establish another NAS signalling connection still via (R)AN, the AMF sends an N2 UE Context Release Command (Cause) to the (R)AN. The Cause indicates either the Cause from (R)AN in step 1 or the Cause due to an AMF event. If the (R)AN is a NG-RAN this step is described in detail in clause\xa08.3.3 of TS\xa038.413\xa0[10]. If the (R)AN is an N3IWF/TNGF/W-AGF this step is described in clauses\xa04.12.4.2 / 4.12a and in clause\xa07.2.5 of TS\xa023.316\xa0[53] for W-5GAN access.', '', '\tIf the AMF receives Service Request or Registration Request to establish another NAS signalling connection still via (R)AN, after successfully authenticating the UE, the AMF releases the old NAS signalling connection and then continues the Service Request or Registration Request procedure.', '', '3.\t[Conditional] If the (R)AN connection (e.g. RRC connection or NWu connection) with the UE is not already released (step 1), either:', '', "a)\tthe (R)AN requests the UE to release the (R)AN connection. Upon receiving (R)AN connection release confirmation from the UE, the (R)AN deletes the UE's context, or", '', 'b)\tif the Cause in the N2 UE Context Release Command indicates that the UE has already locally released the RRC connection, the (R)AN locally releases the RRC connection.', '', '4.\tThe (R)AN confirms the N2 Release by returning an N2 UE Context Release Complete (List of PDU Session ID(s) with active N3 user plane, User Location Information, Age of Location Information) message to the AMF. The List of PDU Session ID(s) indicates the PDU Sessions served by (R)AN of the UE. The AMF stores always the latest UE Radio Capability information or NB-IoT specific UE Radio Access Capability Information received from the NG-RAN node received as described in TS\xa038.413\xa0[10]. The N2 signalling connection between the AMF and the (R)AN for that UE is released. If the UE is served by an NG-eNB that supports WUS, then the NG-eNB should include the Information On Recommended Cells And RAN nodes For Paging; otherwise the (R)AN may provide the list of recommended cells / TAs / NG-RAN node identifiers for paging to the AMF.', '', '\tIf the PLMN has configured secondary RAT usage reporting, the NG-RAN node may provide RAN usage data Report.', '', '\tThis step shall be performed promptly after step\xa02, i.e. it shall not be delayed, for example, in situations where the UE does not acknowledge the RRC Connection Release.', '', '\tThe NG-RAN includes Paging Assistance Data for CE capable UE, if available, in the N2 UE Context Release Complete message. The AMF stores the received Paging Assistance Data for CE capable UE in the UE context for subsequent Paging procedure.', '', '5.\t[Conditional] AMF to SMF: For each of the PDU Sessions in the N2 UE Context Release Complete, the AMF invokes Nsmf_PDUSession_UpdateSMContext Request (PDU Session ID, PDU Session Deactivation, Cause, Operation Type, User Location Information, Age of Location Information, N2 SM Information (Secondary RAT usage data)). The Cause in step 5 is the same Cause in step 2. If List of PDU Session ID(s) with active N3 user plane is included in step 1b, the step 5 to 7 are performed before step 2. The Operation Type is set to "UP deactivate" to indicate deactivation of user plane resources for the PDU Session.', '', '\tFor PDU Sessions using Control Plane CIoT 5GS Optimisation and if the UE has negotiated the use of extended Idle mode DRX, the AMF informs the SMF immediately that the UE is not reachable for downlink data. For PDU Sessions using Control Plane CIoT 5GS Optimisation and if the UE has negotiated the use of MICO mode with Active Time, the AMF informs the SMF that the UE is not reachable for downlink data once the Active Time has expired.', '', '6a\t[Conditional] SMF to UPF: N4 Session Modification Request (AN or N3 UPF Tunnel Info to be removed, Buffering on/off).', '', '\tFor PDU Sessions not using Control Plane CIoT 5GS Optimisation, the SMF initiates an N4 Session Modification procedure indicating the need to remove Tunnel Info of AN or UPF terminating N3. Buffering on/off indicates whether the UPF shall buffer incoming DL PDU or not.', '', '\tIf the SMF has received an indication from the AMF that the UE is not reachable for downlink data for PDU Sessions using Control Plane CIoT 5GS Optimisation, the SMF may initiate an N4 Session Modification procedure to activate buffering in the UPF.', '', '\tIf multiple UPFs are used in the PDU Session and the SMF determines to release the UPF terminating N3, step 6a is performed towards the UPF (e.g. PSA) terminating N9 towards the current N3 UPF. The SMF then releases the N4 session towards the N3 UPF (the N4 release is not shown on the call flow).', '', '\tSee clause\xa04.4 for more details.', '', '\tIf the cause of AN Release is because of User Inactivity, or UE Redirection, the SMF shall preserve the GBR QoS Flows. If the AN Release is due to the reception of Service Request or Registration Request to establish another NAS signalling connection via (R)AN as described in step\xa02, the SMF also preserves the GBR QoS Flows. In any other case, the SMF shall trigger the PDU Session Modification procedure (see clause\xa04.3.3) for the GBR QoS Flows of the UE after the AN Release procedure is completed.', '', '\tIf the redundant I-UPFs are used for URLLC, the N4 Session Modification Request procedure is done for each I-UPF. In this case, SMF selects both the redundant I-UPFs to buffer the DL packets for this PDU Session or drop the DL packets for this PDU session or forward the DL packets for this PDU session to the SMF, based on buffering instruction provided by the SMF as described in clause\xa05.8.3.2 or 5.8.3.3 of TS\xa023.501\xa0[2].', '', '\tIf the redundant N3 tunnels are used for URLLC, the N4 Session Modification Request procedure to the UPF of N3 terminating point is to remove the dual AN Tunnel Info for N3 tunnel of the corresponding PDU Session.', '', '6b.\t[Conditional] UPF to SMF: N4 Session Modification Response acknowledging the SMF request.', '', '\tSee clause\xa04.4 for more details.', '', '7.\t[Conditional] SMF to AMF: Nsmf_PDUSession_UpdateSMContext Response for step 5.', '', 'Upon completion of the procedure, the AMF considers the N2 and N3 as released and enters CM-IDLE state.', '', 'After completion of the procedure, the AMF reports towards the NF consumers are triggered for cases in clause\xa04.15.4.', '', 'After completion of the procedure, if steps 5 to 7 were performed before step\xa02 and the AMF received N2 SM information from NG-RAN in step\xa04 (e.g. Secondary RAT usage data report), the AMF initiates a Nsmf_PDUSession_UpdateSMContext towards SMF to deliver the N2 SM information.', '']</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2076577537775988</v>
+        <v>0.2020703341555894</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.4	Procedures in the SGSN&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;4.6.2	Public network utilization&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23289-i60.docx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1153,22 +1153,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['', 'Upon receipt of a HLR/HSS reset, the SGSN shall mark each relevant MM contexts as invalid and shall set the Non-GPRS Alert Flag (NGAF) if an SGSN - MSC/VLR association exists. After detection of any activity (either signalling or data) from a marked MS or any other implementation dependent trigger for a marked MS in PMM-CONNECTED state with Direct tunnel, the SGSN performs an update location to the HLR/HSS as in the attach or inter-SGSN RA update procedures and, if NGAF is set, the procedure of "Non-GPRS Alert" is followed (see clause\xa07 in 3GPP TS\xa029.018\xa0[7]).', '', 'The update location procedure and the procedure towards the VLR may be delayed by the SGSN for a maximum operator configuration-depending time period to avoid high signalling load.', '']</t>
+          <t>['', 'Migrated MC service users should utilize the home\xa0PLMN of the partner MC system to access MC services in the partner MC system, however, utilizing the home\xa0PLMN of the primary MC system is not precluded.', '', 'NOTE\xa01:\tThe above recommendation ensures the security policy of the partner MC system and is not compromised, the expected 5QIs are used on the 5GS to ensure that servicelevel delay requirements are consistently met (which are especially at risk when the home PLMN of the primary MC system and the home\xa0PLMN of the partner MC system are far apart from a geographical point of view).', '', 'NOTE\xa02:\tWhether the home\xa0PLMN of partner MC systems or the home\xa0PLMNN of the primary MC system is used to access MC services in partner MC systems is left to business agreements between MC service providers and is outside the scope of the present document.', '', "NOTE\xa03:\tThe MC service user's MCData message store will not be available when using the home PLMN of the partner MC system to access MC services in migration.", '', 'The MC service user profile enabled for migration shall be provisioned with configuration data that specifies which PLMNs supporting 5GS are to be selected when migrating to another MC system.', '', 'If the home PLMN of a partner MC system is different from the home\xa0PLMN of the primary MC system (i.e. migrating MC service users roam into the home\xa0PLMN of the partner MC system), then:', '', '-\t5GSlevel roaming is required between the home\xa0PLMN of the primary MC system and home\xa0PLMN of the partner MC system;', '', '-\tthe home\xa0PLMN of the partner MC system needs to enable local break-out for the DNNs in accordance to subclause 4.2.2 that identify the DNs of the partner MC system; and', '', '-\tthe 5GS user profile of the home\xa0PLMN of the primary MC system used by the MC service users who are allowed to migrate to the partner MC system needs to be provisioned with, and local break-out enabled for, the DNNs proposed in subclause 4.2.2 that identify the DNs of the partner MC system.', '', 'If the home\xa0PLMN of the partner MC system and the home\xa0PLMN of the primary MC system are the same (i.e. migrating MC service users continue to use the home\xa0PLMN of their primary MC system), then:', '', '-\tthe 5GS user profile of the home\xa0PLMN of the primary MC system utilized by the MC service users who are allowed to migrate to the partner MC system needs to be provisioned with the DNNs specified in subclause 4.2.2 that identify the DNs of the partner MC system.', '']</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.2076577537775988</v>
+        <v>0.2210505583613912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.5	Procedures in the MME&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;4.7.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>23007-i20.docx</t>
+          <t>23527-i00.docx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1178,72 +1178,72 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['', 'Upon receipt of a HSS reset, the MME shall mark each relevant MM contexts as invalid and shall set Non-EPS Alert Flag (NEAF) if an MME - MSC/VLR association exists. After detection of any activity (either signalling or data) from a marked UE or any other implementation dependent trigger for a marked UE in ECM-CONNECTED state, the MME performs an update location to the HSS as in the attach or inter-MME TA update procedures and, if NEAF is set, the procedure of "NON-EPS Alert" is followed (see clause\xa05.3 in 3GPP TS\xa029.118\xa0[14]).', '', 'The update location procedure and the procedure towards the VLR may be delayed by the MME for a maximum operator configuration-depending time period to avoid high signalling load.', '']</t>
+          <t>['', 'To reduce signalling latency and achieve a better load balancing among SMFs in a SMF Set when it is deployed, an SMF in a SMF Set and a UPF may support the procedures specified in this clause. These procedures enable an SMF from the same set to request UPF to move PFCP sessions associated with certain FQ-CSIDs (when partial failure handling is supported as specified in clause\xa04.6), Group IDs or SMF IP addresses, to (another) SMF(s) in the set proactively, without causing massing signalling (per PFCP session) towards UPF(s).', '', 'NOTE:\tThe FQ-CSID can only be used in the procedure specified in this clause when the partial failure feature (using FQ-CSID) is deployed and used (not to force the NF to use a Group ID). For a network where the partial failure feature is not deployed, a Group ID or a SMF IP address needs to be used.', '']</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.2081950112529057</v>
+        <v>0.2119329429643791</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.2.5	Procedures in the MME&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.2	Located UE Discovery &amp;amp; Selection&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23007-i21.docx</t>
+          <t>23586-i00.docx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['', 'Upon receipt of a HSS reset, the MME shall mark each relevant MM contexts as invalid and shall set Non-EPS Alert Flag (NEAF) if an MME - MSC/VLR association exists. After detection of any activity (either signalling or data) from a marked UE or any other implementation dependent trigger for a marked UE in ECM-CONNECTED state, the MME performs an update location to the HSS as in the attach or inter-MME TA update procedures and, if NEAF is set, the procedure of "NON-EPS Alert" is followed (see clause\xa05.3 in 3GPP TS\xa029.118\xa0[14]).', '', 'The update location procedure and the procedure towards the VLR may be delayed by the MME for a maximum operator configuration-depending time period to avoid high signalling load.', '']</t>
+          <t>['', 'When Sidelink Positioning is applied for Target UE in a 5GC-MO-LR or 5GC-MT-LR procedure, Located UE(s) is discovered and selected:', '', '-\tWhen LMF determines to apply Sidelink Positioning for Target UE, LMF triggers the Target UE to perform discovery of the Located UE.', '', '-\tWhen the Target UE determines to apply Sidelink Positioning, the Target UE triggers the discovery of the Located UE.', '', 'The LMF may be pre-configured with the list of candidate Located UEs including e.g. the capability, stationary information and location information of the Located UE(s), e.g. RSU or the operator deployed Located UE. The LMF may provide to the Target UE a list of candidate Located UE(s) as assistance data.', '', 'The discovery of Located UEs follows the same principles as specified in clause\xa05.2.1. The UE can indicate its role "Located UE" in its list of supported roles during discovery, if it is authorized to be a Located UE in a given PLMN as per the Authorization and Provisioning for Ranging/SL positioning service as specified in clause\xa05.1.', '', "Editor's note:\tPrivacy aspects of sharing the location of a Located UE (e.g. to any Target UE) and exposing information about such privacy aspects during discovery (e.g. to facilitate Located UE selection by a Target UE) needs to be aligned with SA\xa0WG3.", '', 'A Target UE may discover and select one or more Located UEs to be used in the Ranging/SL positioning procedures as specified in clauses 5.3 to 5.5. ', '', 'Multiple candidate Located UEs may be discovered, in that case, the Located UE(s) is selected from the candidate Located UE list. The Located UE(s) is selected based on:', '', '-\tCandidate list of Located UE(s), if available', '', '-\tCapabilities of the candidate Located UE(s), e.g. the supported Sidelink Positioning methods', '', '-\tThe required positioning QoS', '', '-\tWhether the serving PLMN of candidate Located UE(s) is same with serving PLMN of Target UE', '', 'When LMF determines SL positioning for target UE and trigger the discovery of the Located UE, LMF can decide that LMF or target UE selects Located UEs. If the decision is LMF selecting Located UEs, Target UE sends the multiple discovered candidate Located UEs to the LMF for the selection. After the LMF determines the selected Located UE(s), the LMF sends the selected Located UE(s) to the Target UE.', '', 'In this release of the specification, for UE Positioning assisted by Sidelink Positioning and involving 5GC, the Target UE shall discover and select Located UEs that are in the same serving PLMN of the Target UE as described in clause\xa05.5.1.', '', 'LMF needs to provide located UE for discovery when AF request ranging between two UEs. Additionally, LMF may be provisioned with Located UEs that may be sent to target UE as candidate list of located UEs.', '', 'NOTE:\tThe role of being "Located UE" is dynamic and can change over time, in particular if the Located UE is moving. Hence, the discovery results need to be refreshed if there is a (significant) delay between discovery and initiating of a ranging procedure with a discovered Located UE. How often this is done is up to UE implementation.', '']</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.2081950112529057</v>
+        <v>0.2078949730538277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.4.4	Requirements for IP multi-media session control&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.2.4	5G ProSe Direct Discovery Characteristics&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23304-i20.docx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['', 'In order for operators to be able to offer a "carrier-grade" IP multimedia service, and to require bearers whose features (e.g. Bandwidth) are coherent with the media components negotiated through CSCFs, the following features shall be offered:', '', '1.\tBoth end points of the session shall be able to negotiate (according to service /UE settings,) which resources (i.e. which media components) need to be established before the destination party is alerted. The session signalling shall ensure that these resources (including IP-Connectivity Access Network resources and IP multimedia backbone resources) are made available or reserved before the destination UE rings.', '', '\tThis should nevertheless not prevent the UE from offering to the end-user the choice of accepting or rejecting the components of the session before establishing the bearers.', '', '2.\tDepending on regulatory requirements, the IP multimedia service shall be able to charge the originating party for the IP-Connectivity Access Network service of both originating and destination side or when reverse charging applies to charge the terminating party for the IP-Connectivity Access Network service of both originating and terminating side. This implies that it should be easy to correlate CDR held by the IP-Connectivity Access Network service with a session.', '', '3.\tThe session control function of IP multimedia network of an operator (CSCF) shall be able (according to operator choice) to have a strict control (e.g. on source /destination IP address, QoS) on the flows associated with session established through SIP entering the IP multimedia bearer network from IP-Connectivity Access Network service. This does not mean that CSCF is the enforcement point (which actually is the Gateway between the IP-Connectivity Access Network and the IP multimedia network) but that the CSCF may be the final decision point for this control.', '', '4.\tThe session control and bearer control mechanisms shall allow the session control to decide when user plane traffic between end-points of a SIP session may start/shall stop. This allows this traffic to start/stop in synchronisation with the start/stop of charging for a session.', '', '5.\tThe IP-Connectivity Access Network service shall be able to notify the IP multimedia session control when the IP-Connectivity Access Network service has either modified or suspended or released the bearer(s) of a user associated with a session (because e.g. the user is no longer reachable).', '', '6.\tThe solution shall comply with the architectural rules relating to separation of bearer level, session control level, and service level.', '']</t>
+          <t>['', '5G ProSe Direct Discovery over the PC5 reference point has the following characteristics:', '', '-\tPC5 communication channel is used to carry the discovery message over PC5. The discovery message over PC5 is differentiated with other PC5 messages by AS layer.', '', '-\tProSe layer shall indicate to AS layer whether the signalling is discovery message or PC5-S signalling.', '', 'NOTE\xa01:\tThe discovery message format is defined in stage 3.', '', 'Group discovery/management to support on demand-based group communication for commercial services has the following characteristics:', '', '-\tThe group discovery/formation/management can be carried out in the Application layer in coordination with the Application Server.', '', '-\tApplication layer signalling between the UE and the Application Server is out of scope of this specification.', '', '5G ProSe Direct Discovery with 5G DDNMF has the following characteristics:', '', '-\t5G DDNMF in the 5GS is used for 5G ProSe Discovery Direct Code management (including allocation and resolution). The 5G DDNMF gets the PDUID from the PCF and subscribes to notifications on Change of PDUID.', '', '-\t5G DDNMF is defined in clause\xa04.3.2 and the detail procedure for 5G ProSe Direct Discovery with 5G DDNMF is defined in clause\xa06.3.', '', 'Group discovery/management to support public safety has the following characteristics:', '', '-\tPre-configured or provisioned information can be used for the 5G ProSe Direct Discovery procedure as defined in clause\xa05.1.2.', '', 'The information elements included in the 5G ProSe Direct Discovery messages are described in clause\xa05.8.1 and clause\xa06.3.2.', '', 'NOTE\xa02:\tBased on UE implementation, the application layer discovery messages are exchanged either as user traffic over PC5 or alternatively as part of metadata in PC5 Direct Discovery message as specified in clause\xa06.3.2.1 and clause\xa06.4.2. In the latter case, the PC5 Direct Discovery message can contain additional field carrying application layer metadata information, e.g., the Application layer discovery messages for group discovery. The format and contents of this additional field is out of scope of 3GPP. Performance of the PC5 Direct Discovery message including the application layer information will be affected if the resulted PC5 Direct Discovery message size is too big, e.g. longer delay and lower reliability.', '']</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.210084315583363</v>
+        <v>0.2071440383009776</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.4.4	Standardized PQI to QoS characteristics mapping&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.27.0	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1253,97 +1253,97 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['', 'The one-to-one mapping of standardized PQI values to PC5 QoS characteristics is specified in table\xa05.4.4-1.', '', 'Table 5.4.4-1: Standardized PQI to QoS characteristics mapping', '', 'PQI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', 'Packet Error', '', 'Rate ', '', 'Default Maximum Data Burst Volume', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '21', '', '', '', 'GBR', '', '3', '', '20\xa0ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Platooning between UEs – Higher degree of automation;', '', 'Platooning between UE and RSU – Higher degree of automation', '', '22', '', '', '(NOTE\xa01)', '', '4', '', '50 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Sensor sharing – higher degree of automation ', '', '23', '', '', '', '3', '', '100 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Information sharing for automated driving – between UEs or UE and RSU - higher degree of automation', '', '55', '', 'Non-GBR', '', '3', '', '10 ms ', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Cooperative lane change – higher degree of automation', '', '56', '', '', '', '6', '', '20 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-1&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Platooning informative exchange – low degree of automation;', '', 'Platooning – information sharing with RSU ', '', '57', '', '', '', '5', '', '25 ms ', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-1&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Cooperative lane change – lower degree of automation ', '', '58', '', '', '', '4', '', '100 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Sensor information sharing – lower degree of automation', '', '59', '', '', '', '6', '', '500 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-1&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Platooning – reporting to an RSU', '', '90', '', 'Delay Critical GBR', '', '3 ', '', '10\xa0ms', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '2000 bytes', '', '2000 ms', '', 'Cooperative collision avoidance;', '', 'Sensor sharing – Higher degree of automation;', '', 'Video sharing – higher degree of automation', '', '91', '', '(NOTE\xa01)', '', '2', '', '3 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '2000 bytes', '', '2000 ms', '', 'Emergency trajectory alignment;', '', 'Sensor sharing – Higher degree of automation', '', 'NOTE\xa01:\tGBR and Delay Critical GBR PQIs can only be used for unicast PC5 communications.', '', '', '', 'NOTE\xa01:\tFor Standardized PQI to QoS characteristics mapping, the table will be extended/updated to support service requirements for other identified V2X services.', '', 'NOTE 2:\tThe PQIs may be used for other services than V2X.', '', 'NOTE 3:\tA PQI may be used together with an application indicated priority, which overrides the Default Priority Level of the PQI.', '']</t>
+          <t>['', 'This clause describes 5G System features that can be used independently or in combination to enable time-sensitive communication, time synchronization and deterministic networking:', '', '-\tDelay-critical GBR;', '', '-\tA hold and forward mechanism to schedule traffic as defined in IEEE\xa0Std\xa0802.1Q\xa0[98] for Ethernet PDU Sessions in DS-TT and NW-TT (see clause\xa05.27.4) to de-jitter flows that have traversed the 5G System if the 5G System is to participate transparently as a bridge in a TSN network;', '', '-\tTSC Assistance Information: describes TSC flow traffic characteristics as described in clause\xa05.27.2 that may be provided optionally for use by the gNB, to allow more efficiently schedule radio resources for periodic traffic and applies to PDU Session type Ethernet and IP.', '', '-\tTime Synchronization: describes how 5GS can operate as a PTP Relay (IEEE\xa0Std\xa0802.1AS\xa0[104]), as a Boundary Clock or as Transparent Clock (IEEE\xa0Std\xa01588\xa0[126]) for PDU Session type Ethernet and IP and how 5GS can detect and report the status of the time synchronization.', '', '-\tRAN feedback for BAT offset and adjusted periodicity describes a mechanism supported by NG-RAN and 5G CN that enables AF to adapt to received BAT offset and adjusted periodicity from NG-RAN for a given traffic flow.', '', 'The 5G System integration as a bridge in an IEEE\xa0802.1 TSN network as described in clause\xa05.28 can make use of all features listed above.', '', 'To support any of the above features to enable time-sensitive communication, time synchronization and deterministic networking, during the PDU Session establishment, the UE shall request to establish a PDU Session as an always-on PDU Session, and the PDU Sessions are established as Always-on PDU session as described in clause\xa05.6.13. In this release of the specification, to use any of the above features to enable time-sensitive communication, time synchronization and deterministic networking:', '', '-\tHome Routed PDU Sessions are not supported;', '', '-\tPDU Sessions are supported only for SSC mode 1;', '', '-\tService continuity is not supported when the UE moves from 5GS to EPS .i.e. interworking with EPS is not supported for a PDU Session for time synchronization or TSC or deterministic networking.', '']</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.2340344572629284</v>
+        <v>0.1965760633112511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.4.8	QoS-Assured Preconditions&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.27.3	Support for TSC QoS Flows&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['', 'This clause contains concepts for the relation between the resource reservation procedure and the procedure for end-to-end sessions.', '', 'A precondition is a set of constraints about the session, which are introduced during the session initiation. The recipient of the session generates an answer, but does not alert the user or otherwise proceed with session establishment until the preconditions are met. This can be known through a local event (such as a confirmation of a resource reservation), or through a new set of constraints sent by the caller.', '', 'The set-up of a "QoS-Assured" session will not complete until required resources have been allocated to the session. In a QoS-Assured session, the QoS bearer for the media stream shall be successfully established according to the QoS preconditions defined at the session level before the UE may indicate a successful response to complete the session and alert the other end point. The principles for when a UE shall regard QoS preconditions to be met are:', '', '-\tA minimum requirement to meet the QoS preconditions defined for a media stream in a certain direction, is that an appropriate IPCAN bearer is established at the local access for that direction.', '', '-\tSegmented resource reservation is performed since the end points are responsible to make access network resource reservations via local mechanisms.', '', '-\tThe end points shall offer the resources it may want to support for the session and negotiate to an agreed set. Multiple negotiation steps may be needed in order to agree on a set of media for the session. The final agreed set is then updated between the end points.', '', '-\tThe action to take if a UE fails to fulfil the pre-conditions (e.g. failure in establishment of an RSVP session) depends on the reason for failure. If the reason is lack of resources in the network (e.g. an admission control function in the network rejects the request for resources), the UE shall fail to complete the session. For other reasons (e.g. lack of RSVP host or proxy along the path) the action to take is local decision within the UE. It may for example 1) choose to fail to complete the session, 2) attempt to complete the session by no longer requiring some of the additional actions.', '', 'NOTE\xa01:\tTo avoid unwanted session setup delay and IPCAN signalling load, QoS-Assured sessions needs to be used with care and it is decided per application which media that require resource reservation.', '', 'The following cases exist in the context of using "QoS-Assured" preconditions for IMS:', '', 'a.\tThe IMS session requires the reservation of additional bearer resources, and the UE requires confirmation from the other endpoint of the fulfilment of the pre-conditions related to this resource reservation. An endpoint may not require the reservation of bearer resources, and may therefore immediately indicate the local fulfilment of the pre-conditions. One example of such SIP endpoint is the MGCF used for PSTN interworking. In these cases, one or both of the reservation confirmation messages may not be sent.', '', 'b.\tThe IMS session does not require the reservation of additional bearer resources, and both endpoints indicate in their initial session setup message that the pre-conditions are fulfilled.', '', 'c.\tThe IMS session does not require the reservation of additional bearer resources, and the endpoints do not use the mechanism to indicate "QoS-Assured" pre-conditions.', '', 'NOTE\xa02:\tThe flows of clauses\xa05.5, 5.6 and 5.7 depict the case where both UEs require confirmation from each other of the fulfilment of the pre-conditions. The flow in clause\xa05.7a depicts the case where the IMS session does not require the reservation of additional bearer resources and the endpoints do not use pre-conditions.', '']</t>
+          <t>['', 'TSC QoS Flows use a Delay-critical GBR resource type and TSC Assistance Information. TSC QoS Flows may use standardized 5QIs, pre-configured 5QIs or dynamically assigned 5QI values (which requires signalling of QoS characteristics as part of the QoS profile) as specified in clause\xa05.7.2. For each instance of Periodicity, within each Period (defined by periodicity value), TSC QoS Flows are required to transmit only one burst of maximum size MDBV within the 5G-AN PDB. Known QoS Flow traffic characteristics provided in the TSCAI may be used to optimize scheduling in the 5GS.', '', 'The following is applicable for the QoS profile defined for TSC QoS Flows:', '', '1.\tThe TSC Burst Size may be used to set the MDBV as follows:', '', '\tThe maximum TSC Burst Size is considered as the largest amount of data within a time period that is equal to the value of 5G-AN PDB of the 5QI. The maximum value of TSC Burst Size should be mapped to a 5QI with MDBV that is equal or higher. When integration with IEEE TSN applies, this 5QI also shall have a PDB value that satisfies the bridge delay capabilities (see clause\xa05.27.5 for more details) reported for the corresponding traffic class. For TSC QoS Flows, the Maximum Burst Size of the aggregated TSC streams to be allocated to this QoS Flow can be similarly mapped to a 5QI with MDBV value that is equal or higher. If interworking with a TSN network deployed in the transport network is supported, the maximum value of TSC Burst Size should be mapped to a 5QI with MDBV that is equal.', '', '2.\tThe PDB is explicitly divided into 5G-AN PDB and CN PDB as described in clause\xa05.7.3.4. Separate delay budgets are necessary for calculation of expected packet transmit times on 5G System interfaces. For the TSC QoS Flow, the5G-AN PDB is set to value of 5QI PDB minus the CN PDB as described in clause\xa05.7.3.4. The CN PDB may be static value or dynamic value and is up to the implementation of 5GS bridge.', '', '3.\tWhen integration with IEEE TSN applies, the Maximum Flow Bitrate calculated by the TSN AF as per Annex I.1 may be used to set GBR. In this case, MBR is set equal to GBR.', '', '4.\tARP is set to a pre-configured value.', '', '5.\t5QI value is derived using QoS mapping tables and TSN QoS information as described in clause\xa05.28.4 in the case of integration with IEEE TSN network, or using QoS Reference parameters and Requested PDB, Burst Size, Priority parameters as described in clause\xa04.15.6.6 or clause\xa04.15.6.6a of TS\xa023.502\xa0[3] in the case of AF requested Time Sensitive Communication.', '']</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.2025088248650001</v>
+        <v>0.1855997107156709</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.6.4	(NI-O) Non-IMS Origination procedure from an external SIP client&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.27.5	5G System Bridge delay&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['', "This clause describes the session setup procedures when originating from an external SIP client that doesn't support the required IMS SIP extensions, towards an IMS UE.", '', 'An incoming SIP request may arrive, where the UE detects that the originating party does not support the IMS SIP extensions described in TS\xa024.229\xa0[10a]. If the external SIP client does not support the Precondition extension of SIP, the UE continues to setup the session without activating media transfer until the session has been accepted. Figure\xa05.16a shows an example of an end-to-end session setup in such a case.', '', 'For illustration purposes these session flows show the case of a non-roaming termination. This flow is a variant of MT#2 defined in clause\xa05.7.2. The same principles apply in roaming cases, i.e. analogous variants of MT#1 defined in clause\xa05.7.1 are also supported for interworking with SIP clients that do not support the required IMS procedures.', '', '----media/image44.emf----', '', 'Figure 5.16a: Originating session from external SIP client', '', '1-2.\tA session request arrives at the UE in the IMS network with media information but without requiring precondition capability.', '', '3.\tPCSCF examines the media parameters. If PCSCF finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session initiation attempt.', '', 'NOTE\xa01:\tWhether the PCSCF should interact with PCRF/PCF in this step is based on operator policy.', '', '4.\tPCSCF forwards the INVITE request to the UE.', '', '5.\tDepending on the bearer establishment mode selected for the IPCAN session, resource reservation shall be initiated either by the UE or by the IPCAN itself. The UE begins the resource reservation according to the session and media parameters as shown in Figure\xa05.16a. Otherwise, the IPCAN initiates the reservation of required resources after step\xa010.', '', '6-8.\tRinging information is sent end to end towards the originating party. These steps may proceed in parallel with step 5.', '', '9.\tThe UE accepts the session with a 200 OK response.', '', '10.\tBased on operator policy the PCSCF may instruct the PCRF/PCF to authorize the resources necessary for this session.', '', '11-12.\tThe 200 OK response is forwarded to the originating party.', '', '13-15.\tThe originating party acknowledges the session.', '']</t>
+          <t>['', 'This clause applies if 5GS is integrated as a bridge into an IEEE TSN network.', '', 'In order for the 5G System to participate as a TSN bridge according to transmission gate schedules specified, the 5GS Bridge is required to provide Bridge Delays as defined in IEEE\xa0Std\xa0802.1Q\xa0[98] for each port pair and traffic class of the 5GS bridge to an IEEE\xa0802.1 TSN system. In order to determine 5GS Bridge Delays, the following components are needed:', '', '1.\tUE-DS-TT Residence Time.', '', '2.\tPer traffic class minimum and maximum delays between the UE and the UPF/NW-TT that terminates the N6 interface (including UPF and NW-TT residence times), independent of frame length that a given 5GS deployment supports. The per-traffic class delays between the UE and the UPF/NW-TT are pre-configured in the TSN AF (see clause\xa05.28.4).', '', 'The TSN AF calculates the 5GS independentDelayMin and independentDelayMax values for each port pair and for each traffic class using the above components. If the UE-DS-TT Residence Time has not been provided by the UE, then the TSN AF uses a locally configured minimum UE-DS-TT Residence Time for the calculation of independentDelayMin and a locally configured maximum UE-DS-TT Residence Time for the calculation of independentDelayMax.', '', 'The dependentDelayMin and dependentDelayMax for 5GS Bridge specify the time range for a single octet of an Ethernet frame to transfer from ingress to egress and include the time to receive and store each octet of the frame, which depends on the link speed of the ingress Port as per IEEE\xa0Std\xa0802.1Q\xa0[98].', '', 'NOTE:\tFurther details how TSN AF determines dependentDelayMin and dependentDelayMax are up to implementation.', '', 'Since residence times may vary among UEs and per traffic class delay between the UE and the UPF/NW-TT may vary among UPFs, the 5GS Bridge Delay is determined after the PDU Session Establishment for the corresponding UPF and the UE by the TSN AF. The TSN AF deduces the related port pair(s) from the port number of the DS-TT Ethernet port and port number of the NW-TT Ethernet port(s) of the same 5GS Bridge when the TSN AF receives the 5GS Bridge information for a newly established PDU Session and calculates the bridge delays per port pair. Additionally, TSN AF deduces the port pair(s) consisting of two DS-TT ports connecting to the same 5GS bridge and determines the 5GS bridge delay as sum of bridge delays related to PDU Sessions of two DS-TT ports.', '']</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.2132074719817117</v>
+        <v>0.1756893695985602</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;5.7a.2	Procedures for the establishment of sessions without preconditions - no resource reservation required before session becomes active&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.28.1	5GS bridge management for TSN&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['', '----media/image57.emf----', '', 'Figure 5.19h: End-to-end session flow procedure without preconditions - no resource reservation required before session becomes active', '', '1.\tUE#1 sends the SIP INVITE request, containing an initial SDP, to the PCSCF#1 determined via the PCSCF discovery mechanism. The initial SDP may represent one or more media for a multi-media session. It should be noted that a media offer without preconditions in general implies that the offering entity might expect to receive incoming media for any of the offered media as soon as the offer is received by the other endpoint. Therefore either an existing IPCAN bearer is assumed to be available for use or the application is implemented such that incoming media is not expected until some later point in time.', '', '2.\tPCSCF#1 examines the media parameters. If PCSCF#1 finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session initiation attempt.', '', 'NOTE\xa00a:\tWhether the PCSCF should interact with PCRF/PCF in this step is based on operator policy.', '', "3.\tPCSCF#1 forwards the INVITE request to SCSCF#1 along the path determined upon UE#1's most recent registration procedure.", '', "4.\tBased on operator policy SCSCF#1 validates the user's service profile and may invoke whatever service control logic is appropriate for this INVITE request. This may include routing the INVITE request to an Application Server, which processes the request further on.", '', '5.\tSCSCF#1 forwards INVITE request to ICSCF#2.', '', '6.\tICSCF#2 performs Location Query procedure with the HSS to acquire the SCSCF address of the destination user (SCSCF#2).', '', '7.\tICSCF#2 forwards the INVITE request to SCSCF#2.', '', "8.\tBased on operator policy SCSCF#2 validates the user's service profile and may invoke whatever service control logic is appropriate for this INVITE request. This may include routing the INVITE request to an Application Server, which processes the request further on.", '', "9.\tSCSCF#2 forwards the INVITE request to PCSCF#2 along the path determined upon UE#2's most recent registration procedure.", '', '10.\tPCSCF#2 examines the media parameters. If PCSCF#2 finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session initiation attempt.', '', 'NOTE\xa00b:\tWhether the PCSCF should interact with PCRF/PCF in this step is based on operator policy.', '', '11.\tPCSCF#2 forwards the INVITE request to UE#2.', '', '12. - 17.\tUE#2 may optionally generate a ringing message towards UE#1.', '', '18.\tDepending on the bearer establishment mode selected for the IPCAN session, resource reservation shall be initiated either by the UE or by the IPCAN itself. UE#2 may reserve a dedicated IPCAN bearer for media based on the media parameters received in the SDP offer as shown in Figure\xa05.19h. Otherwise, the IPCAN#2 initiates the reservation of required resources after step\xa020 instead.', '', 'NOTE\xa01:\tThe sequential ordering of 18 and 19 does not indicate that these steps are necessarily performed one after the other. If step 19 is performed before step 18 is finished, UE#2 shall use an existing IPCAN bearer to send and receive media unless the application is such that a new bearer is not needed until some later point in time. If step 18 is performed successfully, media are sent and received by UE#2 on the dedicated IPCAN bearer.', '', '19.\tUE#2 accepts the session with a 200 OK response. The 200 OK response is sent to PCSCF#2.', '', '20.\tBased on operator policy PCSCF#2 may instruct PCRF/PCF to authorize the resources necessary for this session.', '', '21. - 24.\tThe 200 OK response traverses back to UE#1.', '', '25.\tBased on operator policy PCSCF#1 may instruct the PCRF/PCF to authorize the resources necessary for this session.', '', '26.\tPCSCF#1 forwards the 200 OK response to UE#1.', '', '27. - 31.\tUE#1 acknowledges the 200 OK with an ACK, which traverses back to UE#2.', '', '32.\tDepending on the bearer establishment mode selected for the IPCAN session, resource reservation shall be initiated either by the UE or by the IPCAN itself. UE#1 may reserve a dedicated IPCAN bearer for media based on the media parameters received in the SDP answer as shown in Figure 5.19h. Otherwise, the IPCAN#1 initiates the reservation of required resources after step 25.', '', 'NOTE\xa02:\tThe sequential ordering of 27 and 32 does not indicate that these steps are necessarily performed one after the other. If step 32 is performed successfully, media are sent and received by UE#1 on the reserved dedicated IPCAN bearer. UE#1 may also use an existing IPCAN bearer to send and receive media.', '']</t>
+          <t>['', '5GS acts as a Layer 2 Ethernet Bridge. When integrated with IEEE TSN network, 5GS functions acts as one or more TSN Bridges of the TSN network. The 5GS Bridge is composed of the ports on a single UPF (i.e. PSA) side, the user plane tunnel between the UE and UPF, and the ports on the DS-TT side. For each 5GS Bridge of a TSN network, the port on NW-TT support the connectivity to the TSN network, the ports on DS-TT side are associated to the PDU Session providing connectivity to the TSN network.', '', 'The granularity of the 5GS TSN bridge is per UPF for each network instance or DNN/S-NSSAI. The bridge ID of the 5GS TSN bridge is bound to the UPF ID of the UPF as identified in TS\xa023.502\xa0[3]. The TSN AF stores the binding relationship between a port on UE/DS-TT side and a PDU Session during reporting of 5GS TSN bridge information. The TSN AF also stores the information about ports on the UPF/NW-TT side. The UPF/NW-TT forwards traffic to the appropriate egress port based on the traffic forwarding information. From the TSN AF point of view, a 5GS TSN bridge has a single NW-TT entity within UPF and the NW-TT may have multiple ports that are used for traffic forwarding.', '', 'NOTE\xa01:\tHow to realize single NW-TT entity within UPF is up to implementation.', '', 'NOTE\xa02:\tEthernet PDU Session type in this release of the specification may be subject to the constraint that it supports a single N6 interface in a UPF associated with the N6 Network Instance.', '', 'There is only one PDU Session per DS-TT port for a given UPF. All PDU Sessions which connect to the same TSN network via a specific UPF are grouped into a single 5GS bridge. The capabilities of each port on UE/DS-TT side and UPF/NW-TT side are integrated as part of the configuration of the 5GS Bridge and are notified to TSN AF and delivered to CNC for TSN bridge registration and modification.', '', 'NOTE\xa03:\tIt is assumed that all PDU Sessions which connect to the same TSN network via a specific UPF are handled by the same TSN AF.', '', '----media/image75.emf----', '', 'Figure 5.28.1-1: Per UPF based 5GS bridge', '', 'NOTE\xa04:\tIf a UE establishes multiple PDU Sessions terminating in different UPFs, then the UE is represented by multiple 5GS TSN bridges.', '', 'In order to support IEEE\xa0802.1Q features related to TSN, including TSN scheduled traffic (clause\xa08.6.8.4 in IEEE\xa0Std\xa0802.1Q\xa0[98]) over 5GS Bridge, the 5GS supports the following functions:', '', '-\tConfigure the bridge information in 5GS.', '', '-\tReport the bridge information of 5GS Bridge to TSN network after PDU Session establishment.', '', '-\tReceiving the configuration from TSN network as defined in clause\xa05.28.2.', '', '-\tMap the configuration information obtained from TSN network into 5GS QoS information (e.g. 5QI, TSC Assistance Information) of a QoS Flow in corresponding PDU Session for efficient time-aware scheduling, as defined at clause\xa05.28.2.', '', 'The bridge information of 5GS Bridge is used by the TSN network to make appropriate management configuration for the 5GS Bridge. The bridge information of 5GS Bridge includes at least the following:', '', '-\tInformation for 5GS Bridge:', '', '-\tBridge ID', '', '\tBridge ID is to distinguish between bridge instances within 5GS. The Bridge ID can be derived from the unique bridge MAC address as described in IEEE\xa0Std\xa0802.1Q\xa0[98], or set by implementation specific means ensuring that unique values are used within 5GS;', '', '-\tNumber of Ports;', '', '-\tlist of port numbers.', '', '-\tCapabilities of 5GS Bridge as defined in IEEE\xa0Std\xa0802.1Q\xa0[98]:', '', '-\t5GS Bridge delay per port pair per traffic class, including 5GS Bridge delay (dependent and independent of frame size, and their maximum and minimum values: independentDelayMax, independentDelayMin, dependentDelayMax, dependentDelayMin), ingress port number, egress port number and traffic class.', '', '-\tPropagation delay per port (txPropagationDelay), including transmission propagation delay, egress port number.', '', '-\tVLAN Configuration Information.', '', 'NOTE\xa05:\tThis Release of the specification does not support the modification of VLAN Configuration Information at the TSN AF.', '', '-\tTopology of 5GS Bridge as defined in IEEE\xa0Std\xa0802.1AB\xa0[97]:', '', '-\tLLDP Configuration Information.', '', '-\tChassis ID subtype and Chassis ID of the 5GS Bridge.', '', '-\tLLDP Discovery Information for each discovered neighbor of each NW-TT port and DS-TT port.', '', '\t-\tTraffic classes and their priorities per port as defined in IEEE\xa0Std\xa0802.1Q\xa0[98].', '', '-\tStream Parameters as defined in clause\xa012.31.1 in IEEE\xa0Std\xa0802.1Q\xa0[98], in order to support PSFP:', '', '-\tMaxStreamFilterInstances: The maximum number of Stream Filter instances supported by the bridge;', '', '-\tMaxStreamGateInstances: The maximum number of Stream Gate instances supported by the bridge;', '', '-\tMaxFlowMeterInstances: The maximum number of Flow Meter instances supported by the bridge (optional);', '', '-\tSupportedListMax: The maximum value supported by the bridge of the AdminControlListLength and OperControlListLength parameters.', '', 'The following parameters: independentDelayMax and independentDelayMin, how to calculate them is left to implementation and not defined in this specification.', '', 'DS-TT and NW-TT report txPropagationDelay to the TSN AF relative to the time base of the TSN GM clock (identified by the TSN time domain number received in PMIC). If the TSN AF has subscribed for notifications on txPropagationDelay and if the difference to the previously reported txPropagationDelay is larger than the txPropagationDelayDeltaThreshold received in PMIC, the corresponding DS-TT or NW-TT informs the TSN AF about the updated txPropagationDelay using PMIC signalling.', '', 'NOTE\xa06:\tConfiguration of TSN time domain number and txPropagationDelayDeltaThreshold via PMIC is optional for NW-TT. NW-TT can instead be pre-configured with the threshold and the single time domain that is used by the CNC for bridge configuration and reporting.', '', 'Bridge ID of the 5GS Bridge, port number(s) of the Ethernet port(s) in NW-TT could be preconfigured on the UPF. The UPF is selected for a PDU Session serving TSC as described in clause\xa06.3.3.3.', '', 'This release of the specification requires that each DS-TT port is assigned with a globally unique MAC address.', '', 'NOTE\xa07:\tThe MAC address of the DS-TT port must not be used in user data traffic; it is used for identification of the PDU Session and the associated bridge port within the 3GPP system.', '', 'When there are multiple network instances within a UPF, each network instance is considered logically separate. The network instance for the N6 interface (clause\xa05.6.12) may be indicated by the SMF to the UPF for a given PDU Session during PDU Session establishment. UPF allocates resources based on the Network Instance and S-NSSAI and it is supported according to TS\xa029.244\xa0[65]. DNN/S-NSSAI may be indicated by the SMF together with the network instance to the UPF for a given PDU Session during PDU Session establishment procedure.', '', 'The TSN AF is responsible to receive the bridge information of 5GS Bridge from 5GS, as well as register or update this information to the CNC.', '']</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.2148143171869629</v>
+        <v>0.1947206174305166</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.1.3	Contents of Analytics Exposure&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.28.2	5GS Bridge configuration for TSN&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1353,22 +1353,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['', 'The consumers of the Nnwdaf_AnalyticsSubscription_Subscribe or Nnwdaf_AnalyticsInfo_Request service operations described in clause\xa07 provide the following input parameters listed below.', '', '-\tA list of Analytics ID(s): identifies the requested analytics.', '', '-\tAnalytics Filter Information: indicates the conditions to be fulfilled for reporting Analytics Information. This set of optional parameter types and values enables to select which type of analytics information is requested. Analytics Filter Information is defined in the analytics related clauses.', '', '-\tTarget of Analytics Reporting: indicates the object(s) for which Analytics information is requested, entities such as specific UEs, a group of UE(s) or any UE (i.e. all UEs).', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) A Notification Target Address (+ Notification Correlation ID) as defined in clause\xa04.15.1 of TS\xa023.502\xa0[3], allowing to correlate notifications received from NWDAF with this subscription.', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Subscription Correlation ID: identifies an existing analytics subscription that is to be modified.', '', '-\tRelated to analytic consumers that aggregate analytics from multiple NWDAF subscriptions:', '', '-\t[OPTIONAL] (Set of) NWDAF identifiers of NWDAF instances used by the NWDAF service consumer when aggregating multiple analytics subscriptions. See clause\xa06.1A.', '', '-\tAnalytics Reporting Information with the following parameters:', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Analytics Reporting Parameters as per Event Reporting parameters defined in Table 4.15.1-1 of TS\xa023.502\xa0[3].', '', 'NOTE\xa01:\tWhen the Analytics Reporting Parameters indicates a periodic reporting mode and the periodicity of the report is equal to or greater than the Supported Analytics Delay associated with the Analytics ID (if available) defined in clause\xa06.2.6.2 of TS\xa023.501\xa0[2], it is expected that the periodic reporting can be provided by the NWDAF as requested.', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Reporting Thresholds, which indicate conditions on the level of each requested analytics that when reached shall be notified by the NWDAF.', '', '-\t[OPTIONAL] Matching direction: A matching direction may be provided such as below, above, or crossed. If no matching direction is provided, the default direction is crossed.', '', '-\t[OPTIONAL] Acceptable deviation: An acceptable deviation from the threshold level in the non-critical direction (i.e. in which the QoS is improving) may be set to limit the amount of signalling.', '', '-\tAnalytics target period: time interval [start..end], either in the past (both start time and end time in the past) or in the future (both start time and end time in the future). An Analytics target period in the past is a request or subscription for statistics. An Analytics target period in the future is a request or subscription for predictions. The time interval is expressed with actual start time and actual end time (e.g. via UTC time). When the Analytics Reporting Parameters indicate a periodic reporting mode, the time interval can also be expressed as positive or negative offsets to the reporting time, which indicates a subscription for predictions or statistics respectively. By setting start time and end time to the same value, the consumer of the analytics can request analytics or subscribe to analytics for a specific time rather than for a time interval.', '', '-\tTime window for historical analytics: time interval [start..end]. The time window for historical analytics indicates the time interval during which the historical analytics was generated. If the time window for historical analytics is included, the NWDAF only needs to provide the existing analytics, and does not need to generate new analytics.', '', '-\t[OPTIONAL] Data time window: if specified, only events that have been created in the specified time interval are considered for the analytics generation.', '', '-\t[OPTIONAL] Preferred level of accuracy of the analytics ("Low", "Medium", "High" or "Highest").', '', '-\t[OPTIONAL] Preferred level of accuracy per analytics subset ("Low", "Medium", "High" or "Highest"). When a preferred level of accuracy is expressed for a given analytics subset, it takes precedence for this subset over the above preferred level of accuracy of the analytics. Analytics subsets are defined in the "Output Analytics" clause\xa0of applicable analytics.', '', '-\t[OPTIONAL] Dataset Statistical Properties: information in order to influence the data selection mechanisms to be used for the generation of an Analytics ID, assuring that the generated Analytics ID reflects the statistical characteristics of the data that are relevant for the NWDAF consumer. The following dataset statistical properties are allowed:', '', '-\tUniformly distributed datasets, which indicates the use of data samples that are uniformly distributed according to the different aspects of the requested analytics (e.g. equivalent data samples for each UE listed as a Target of Analytics Reporting or for S-NSSAIs included in the Analytics Filter Information).', '', '-\tDatasets with or without outliers, which indicates that the data samples shall consider or disregard data samples that are at the extreme boundaries of the value range.', '', '-\tTime when analytics information is needed (if applicable): indicates to the NWDAF the latest time the analytics consumer expects to receive analytics data provided by the NWDAF. It should not be set to a value less than the Supported Analytics Delay of the selected NWDAF if applicable. If the time is reached the consumer does not need to wait for the analytics information any longer, yet the NWDAF may send an error response or error notification to the consumer. "Time when analytics information is needed" is a relative time interval as the gap with respect to analytics request /subscription (e.g. "in 10 minutes").', '', 'NOTE\xa02:\tIf the analytics request contains the parameter "Time when analytics information is needed" for Analytics ID(s), this parameter takes precedence over the requested periodicity, if a periodic reporting mode is requested.', '', 'NOTE\xa03:\tIf the Time when analytics information is needed is provided and it is less than the Supported Analytics Delay per Analytics ID (if available) defined in clause\xa06.2.6.2 of TS\xa023.501\xa0[2], it is expected that the NWDAF might not be able to treat the Analytics ID on time.', '', '-\t[OPTIONAL] Maximum number of objects requested by the consumer (max) to limit the number of objects in a list of analytics per Nnwdaf_AnalyticsSubscription_Notify or Nnwdaf_AnalyticsInfo_Request response.', '', '-\t[OPTIONAL] Preferred granularity of location information: "TA level", "cell level" or "longitude and latitude level".', '', 'NOTE\xa04:\tAs defined in clause\xa04 of TS\xa023.032\xa0[34], longitude and latitude level means the location information is expressed as longitude and latitude in geographical coordinate instead of TA ID or cell ID that is only known in 3GPP system. It also stands for the location information that is expressed as a reference point in local co-ordinate.', '', '-\t[OPTIONAL] Spatial granularity size: maximum number of TA or cells used to define an area for which analytics are provided. When this parameter is provided, the NWDAF should provide analytics per group of TA of cells accordingly.', '', '-\t[OPTIONAL] Temporal granularity size: minimum duration of each time slot for which analytics are provide. When this parameter is provided, the NWDAF should provide analytics per elementary time slot accordingly.', '', 'NOTE\xa05:\tIt is up to NWDAF implementation to determine whether the data is taken into account that the UE locates in an area for a shorter time than the Temporal granularity size.', '', '-\t[OPTIONAL] Preferred orientation of location information: ("horizontal", "vertical", "both").', '', '-\t[OPTIONAL] Preferred order of results when a list of analytics is returned, possibly with a criterion for identifying the property of the results to which the preferred ordering is applied.', '', '-\t[OPTIONAL] Maximum number of SUPIs (SUPImax) requested by the consumer to limit the number of SUPIs in an object. When SUPImax is not provided, the NWDAF shall return all SUPIs concerned by the analytics object. When SUPImax is set to 0, the NWDAF shall not provide any SUPI.', '', '-\t[OPTIONAL] Output strategy: indicates the relevant factors for determining when the analytics reported. The following values are allowed:', '', '-\tBinary output strategy: indicates that the analytics shall only be reported when the preferred level of accuracy is reached within a cycle of periodic notification as defined in the Analytics Reporting Parameters.', '', 'NOTE\xa06:\tIf preferred level of accuracy is more important than providing an output, then the binary strategy is used so that all analytics outputs have equivalent confidence in the prediction.', '', '-\tGradient output strategy: indicates that the analytics shall be reported according to the periodicity defined in the Analytics Reporting Parameters irrespective if the preferred level of accuracy has been reached.', '', 'NOTE\xa07:\tIf having an analytics output is more important than reaching the preferred level of accuracy, then the gradient output strategy is used so that each NWDAF will timely provide the output indicating the confidence of the prediction at the moment of the output generation.', '', 'NOTE\xa08:\tWhen no output strategy is included in the subscription, the analytics output will be generated based on the gradient strategy and includes the confidence of the prediction for the reporting period.', '', '-\t[OPTIONAL] Analytics metadata request: indicates a request from one NWDAF to another NWDAF to provide the "analytics metadata information" related to the produced output analytics. This input parameter indicates which parameters in "analytics metadata information" are required to aggregate the output analytics for the requested Analytics ID(s).', '', "-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Consumer NF's serving area or NF ID. During a pending analytics subscription transfer, this information can be used by the NWDAF to find out if the analytics consumers may change as described in clause\xa06.1B.2.", '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Information of previous analytics subscription. When setting up the analytics generation, this information may be used to retrieve analytics context from the previous NWDAF in order to build upon the context that is already related to this subscription as described in clause\xa06.1B.2.1.', '', '-\t[OPTIONAL] Use case context: indicates the context of use of the analytics to select the most relevant ML model.', '', 'NOTE\xa09:\tThe NWDAF can use the parameter "Use case context" to select the most relevant ML model, when several ML models are available for the requested Analytics ID(s). NWDAF containing AnLF can additionally provide the parameter "Use case context" when requesting an ML model from an NWDAF containing MTLF. The values of this parameter are not standardized. For example, the AMF can use a given value of "Use case context" when requesting UE Mobility analytics for optimizing the definition of a Registration Area, and a different value of "Use case context" when requesting UE Mobility analytics for determines a paging strategy.', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) [OPTIONAL] Analytics feedback information: indicates that the consumer NF has taken an action(s) influenced by the previously provided analytics, which may or may not affect the ground truth data corresponding to analytic ID requested at the time which the prediction refers to, and consequently affect the ML Model Accuracy monitoring by the subscription with following parameter(s):', '', '-\tCorresponding Analytics ID(s) which has been used for taking an action(s);', '', '-\tIndication whether the action will affect on ground truth data (if available);', '', '-\tTime stamp(s) of the action(s) taken.', '', 'NOTE\xa010:\tThe consumer NF cannot include Analytics feedback information in initial subscription request. Analytics feedback information can be included in modification request for the existing analytics subscription.', '', '-\t[OPTIONAL] Analytics Accuracy Request information with the following parameters:', '', '-\tAnalytics accuracy request: indicates NWDAF to provide accuracy information to the analytics consumer.', '', '-\t[OPTIONAL] Analytics accuracy information time window: time interval [start. end], which indicates that analytics consumers only consider the accuracy information which is generated within this time interval.', '', '-\t[OPTIONAL] Analytics accuracy information periodicity: time period, which indicates periodic reporting of accuracy information for the corresponding Analytics ID(s).', '', '-\t[OPTIONAL] Analytics Accuracy threshold(s): a reporting threshold of accuracy value, which is indicated that:', '', '-\tThe NWDAF can provide analytics output and optionally analytics accuracy value to the analytics consumer(s) when the accuracy value is above this Analytics Accuracy threshold;', '', '-\tThe NWDAF can provide "Stop analytics consumption indication", "Updated Analytics" or the analytics accuracy information to the analytics consumer(s) when the accuracy value is under this threshold;', '', '\twhich indicates the deviation of the predictions from the actual network data does not meet analytics accuracy requirement.', '', '-\t[OPTIONAL] Minimal number of analytics output occurrences: determines the minimal number of analytics output provided by NWDAF that have to be considered in the determination of the accuracy information.', '', '-\t[OPTIONAL] Updated Analytics flag: indicates that the NWDAF can provide updated analytics for provided Analytics ID(s), if updated analytics can be generated within analytics accuracy information time window.', '', '-\t[OPTIONAL] Correction time period: a relative time interval as the gap with respect to analytics is provided, which is indicated the time interval during which the updated analytics can be accepted by the analytics consumer.', '', '-\t[OPTIONAL] Pause analytics consumption flag: is a flag indicating to NWDAF to stop sending the notifications of analytics outputs for a subscribed analytics ID, without unsubscribing to such analytics ID.', '', '-\t[OPTIONAL] Resume Analytics Subscription request: is a flag indicating to NWDAF to resume the notification of analytics outputs for an existing analytics ID(s) subscription(s) that have been previously paused.', '', 'The NWDAF provides to the consumer of the Nnwdaf_AnalyticsSubscription_Notify or Nnwdaf_AnalyticsInfo_Request service operations described in clause\xa07, the output information listed below:', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Notify) The Notification Correlation Information.', '', '-\tFor each Analytics ID the analytics information in the requested Analytics target period.', '', '-\tTimestamp of analytics generation: allows consumers to decide until when the received information shall be used. For instance, an NF can deem a received notification from NWDAF for a given feedback as invalid based on this timestamp;', '', '-\tValidity period: defines the time period for which the analytics information is valid.', '', 'NOTE\xa011:\t\tValidity period is determined by NWDAF internal logic and it is a subset of Analytics target period.', '', '-\tConfidence: probability assertion, i.e. confidence in the prediction.', '', '-\t[OPTIONAL] For each Analytics ID the Termination Request, which notifies the consumer that the subscription is requested to be cancelled as the NWDAF can no longer serve this subscription, e.g. due to user consent revoked, NWDAF overload, UE moved out of NWDAF serving area, etc.', '', '-\t[OPTIONAL] Analytics metadata information: additional information required to aggregate the output analytics for the requested Analytics ID(s). This parameter shall be provided if the "Analytics metadata request" parameter was provided in the corresponding Nnwdaf_AnalyticsSubscription_Subscribe or Nnwdaf_AnalyticsInfo_Request service operation.', '', '-\tNumber of data samples used for the generation of the output analytics;', '', '-\tData time window of the data samples;', '', '-\tDataset Statistical Properties of the analytics output used for the generation of the analytics;', '', '-\t[OPTIONAL] Data source(s) of the data used for the generation of the output analytics;', '', '-\t[OPTIONAL] Data Formatting and Processing applied on the data;', '', '-\tOutput strategy used for the reporting of the analytics.', '', '-\t(Only for error response or error notification) Revised waiting time: indicates to the consumer a revised waiting value for "Time when analytics information is needed". Each NWDAF may include this as part of error response or error notification to "Time when analytics information is needed" as described in clause\xa06.2.5. Revised waiting time is the minimum time interval recommended by NWDAF to use as "Time when analytics information is needed" for similar future analytics requests/subscriptions.', '', '-\t[OPTIONAL] Analytics accuracy information generated for each analytics ID, including:', '', '-\tAnalytics accuracy value for requested Analytics ID(s): a value shall be provided if "Analytics accuracy request" parameter was provided in the corresponding Nnwdaf_AnalyticsSubscription_Subscribe service operation. This parameter may be provided if the value crosses the analytics accuracy threshold(s) which is indicated in the subscribe request or locally configured, or the analytics accuracy information periodicity indicated in the subscribe request is reached.', '', '-\t[OPTIONAL] An indication that the determined accuracy value for the analytics ID does not meet the analytics accuracy threshold requested for the analytics ID.', '', '-\t[OPTIONAL] Updated Analytics: NWDAF provides updated Analytics, which is generated within analytics accuracy information time window, for provided Analytics ID(s), if "Updated Analytics flag" parameter was indicated in the corresponding Nnwdaf_AnalyticsSubscription_Subscribe service operation.', '', '-\t[OPTIONAL] Stop Analytics Consumption indication: NWDAF provides to the consumer an indication to stop the consumption of the Analytics ID(s) related to the subscription ID based on NWDAF internal logic or specified analytics accuracy threshold.', '', '-\t[OPTIONAL] Resume Analytics Output Consumption indication: NWDAF provides to consumer an indication to resume the consumption of analytics output for existing subscription to the analytics ID(s) that was previously paused.', '', '-\t[OPTIONAL] Accuracy Information Termination: NWDAF notifies the consumer that the subscription to the accuracy information for an analytics ID has been cancelled as the NWDAF does not support the accuracy checking capability, e.g. as an indication that a new target serving NWDAF supporting accuracy checking capability could not have been selected during the analytics transfer procedures.', '', 'NOTE\xa012:\tIt is left to Stage 3 to decide whether the Accuracy Information Termination is a cause related to the Termination Request or not.', '']</t>
+          <t>['', 'The configuration information of 5GS Bridge as defined in clause\xa08.6.8.4 of IEEE\xa0Std\xa0802.1Q\xa0[98], includes the following:', '', '-\tBridge ID of 5GS Bridge.', '', '-\tConfiguration information of scheduled traffic on ports of DS-TT and NW-TT:', '', '-\tEgress ports of 5GS Bridge, e.g. ports on DS-TT and NW-TT;', '', '-\tTraffic classes and their priorities.', '', 'NOTE\xa01:\tIn this Release of the specification, scheduled traffic (clause\xa08.6.8.4 in IEEE\xa0Std\xa0802.1Q\xa0[98]) is only supported with protected windows, (see clause\xa0Q.2 in IEEE\xa0Std\xa0802.1Q\xa0[98]), therefore, it is enough to support AdminControlList, AdminBaseTime, AdminCycleTime and TickGranularity for the configuration of the 5GS.', '', 'The configuration information of 5GS Bridge as defined in IEEE\xa0Std\xa0802.1Q\xa0[98], includes the following:', '', '-\tChassis ID of 5GS Bridge;', '', '-\tTraffic forwarding information as defined in clause\xa08.8.1 of IEEE\xa0Std\xa0802.1Q\xa0[98]:', '', '-\tDestination MAC address and VLAN ID of TSN stream;', '', '-\tPort number in the Port MAP as defined in clause\xa08.8.1 of IEEE\xa0Std\xa0802.1Q\xa0[98].', '', '-\tConfiguration information per stream according to clause\xa08.6.5.1 of IEEE\xa0Std\xa0802.1Q\xa0[98] including:', '', '-\tStream filters.', '', '-\tStream gates.', '', 'NOTE\xa02:\tIn order to support clause\xa08.6.5.2.1 of IEEE\xa0Std\xa0802.1Q\xa0[98], it is required to support the Stream Identification function as specified by IEEE\xa0Std\xa0802.1CB\xa0[83].', '', "The SMF report the MAC address of the DS-TT port of the related PDU Session to TSN AF via PCF. The association between the DS-TT MAC address, 5GS Bridge ID and port number on DS-TT is maintained at TSN AF and further used to assist to bind the TSN traffic with the UE's PDU session.", '', 'Two models are supported to configure 5GS QoS for TSN traffic:', '', '-\tBased on the assumption that PSFP information is always provided by CNC: In this case the QoS Flows are setup based on the PSFP information provided by CNC;', '', 'NOTE\xa03:\tPSFP information may be provided by CNC if TSN AF has declared PSFP support to CNC. TSN AF indicates the support for PSFP to CNC only if each DS-TT and NW-TT of the 5GS bridge has indicated support of PSFP.', '', '-\tWithout requiring PSFP information provided by the CNC.: In this case, pre-configured QoS Flows are used and configured e.g. during PDU session establishment as described in clause\xa05.28.4. Additional QoS Flows are setup as necessary based on the PSFP, if available, as described in this clause.', '', 'When PSFP information is available, TSN AF identifies the ingress and egress port for the TSN stream as described in Annex I and determines the DS-TT port MAC address(es) identifying the corresponding PDU session(s) carrying the TSN stream. Flow direction of a TSN stream is determined as follows: if the ingress port is a DS-TT port, then the Flow direction is UL; otherwise if the ingress port(s) is (are) NW-TT port, the Flow direction is DL. Flow direction is part of the TSCAI as defined in clause\xa05.27.2.', '', 'The TSN AF uses the stream filter instances of PSFP information to derive the service data flow for TSN streams. The TSN AF uses the Priority values in the stream filter instances in PSFP information (if available) as defined in clause\xa08.6.5.2.1 of IEEE\xa0Std\xa0802.1Q\xa0[98], the 5GS bridge delay information (see clause\xa05.27.5) and may additionally use scheduled traffic information as defined in clause\xa08.6.8.4 of IEEE\xa0Std\xa0802.1Q\xa0[98], to derive the TSN QoS information (i.e. priority and delay) for a given TSN stream or flow of aggregated TSN streams as specified in clause\xa05.28.4.', '', 'The TSN AF identifies the egress port(s) for the TSN stream using local configuration or static filtering entry that matches the TSN stream. If the TSN AF determines that the TSN stream is for UE-UE communication (i.e. ingress and egress ports are in DS-TTs), the TSN AF divides the stream into one uplink stream and one or more downlink streams and provides the streams on AF Session basis to the PCF(s). The SMF applies local switching as specified in clause\xa05.8.2.13 or clause\xa05.8.2.5.3 in order to enable UPF locally forward uplink stream from one PDU session as downlink stream in another PDU session.', '', 'When CNC configures the PSFP information to the TSN AF, TSN AF determines the TSC Assistance Container as described in clause\xa05.27.2. The TSN AF associates the TSN QoS information and TSC Assistance Container (if available) with the corresponding service data flow description and provides to the PCF and the SMF as defined in clause\xa06.1.3.23 of TS\xa023.503\xa0[45].', '', 'NOTE\xa04:\tWhen the TSN stream priority information from PSFP is not available (priority value in stream filters is set to wild card), in certain configurations it can be possible to use the scheduled traffic information as defined in clause\xa08.6.8.4 of IEEE\xa0Std\xa0802.1Q\xa0[98] to derive the Priority of the TSN stream. For example, when there is a single downlink stream for a given DS-TT port, it can be possible to determine the affected DS-TT port in the downlink and the associated TSN stream priority based on the scheduled traffic information of the affected egress port, and to derive an estimated MDBV based on the gate open interval and the assumed ingress port bitrate.', '', 'If TSN AF provides PSFP and/or scheduled traffic information to DS-TT and NW-TT then DS-TT and NW-TT execute on this information relative to the time base of the TSN GM clock (identified by the TSN time domain number received in PMIC).', '', 'NOTE\xa05:\tConfiguration of TSN time domain number via PMIC is optional for NW-TT. NW-TT can instead be pre-configured with the single time domain that is used by the CNC for bridge configuration and reporting.', '']</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.1946732446593581</v>
+        <v>0.1949683611314618</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.13.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.28.4	QoS mapping tables for TSN&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1378,22 +1378,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['', 'This clause describes the Redundant Transmission Experience related analytics. These analytics may be used as follows:', '', '-\tby the SMF to determine whether redundant transmission on N3/N9 interfaces (see clause\xa05.33.2.2 of TS\xa023.501\xa0[2]) shall be performed, or (if it had been activated) shall be stopped;', '', '-\tby the PCF for the calculation of the Route Selection Components in a URSP Rule for redundant PDU Sessions as described in clause\xa05.33.2.1 of TS\xa023.501\xa0[2].', '', 'The service consumer may be a NF (e.g. SMF, PCF).', '', 'The consumer of these analytics may indicate in the request:', '', '-\tAnalytics ID = "Redundant Transmission Experience".', '', '-\tTarget of Analytics Reporting: a single UE (SUPI), any UE, or a group of UEs (an Internal Group ID).', '', '-\tAnalytics Filter Information optionally containing:', '', '-\tArea of Interest;', '', '-\tS-NSSAI;', '', '-\tDNN;', '', '-\toptional list of analytics subsets that are requested (i.e. UL/DL packet drop rate GTP-U, UL/DL packet delay GTP-U, see clause\xa06.13.3).', '', '-\tAn Analytics target period indicates the time period over which the statistics or predictions are requested.', '', '-\tOptionally, Temporal granularity size;', '', '-\tPreferred level of accuracy of the analytics;', '', '-\tPreferred order of results for the list of Redundant Transmission Experience:', '', '-\tordering criterion: "time slot start"; and', '', '-\torder: ascending or descending;', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address are included.', '']</t>
+          <t>['', 'The mapping tables between the traffic class and 5GS QoS Profile is provisioned and further used to find suitable 5GS QoS profile to transfer TSN traffic over the PDU Session. QoS mapping procedures are performed in two phases: (1) QoS capability report phase as described in clause\xa05.28.1, and (2) QoS configuration phase as in clause\xa05.28.2', '', '(1)\tThe TSN AF shall be pre-configured (e.g. via OAM) with a mapping table. The mapping table contains TSN traffic classes, pre-configured bridge delays (i.e. the preconfigured delay between UE and UPF/NW-TT) and priority levels. Once the PDU session has been setup and after retrieving the information related to UE-DS-TT residence time, the TSN AF deduces the port pair(s) in the 5GS bridge and determines the bridge delay per port pair per traffic class based on the pre-configured bridge delay and the UE-DS-TT residence time as described in clause\xa05.27.5. The TSN AF updates bridge delays per port pair and traffic class and reports the bridge delays and other relevant TSN information such as the Traffic Class Table (clause\xa012.6.3 in IEEE\xa0Std\xa0802.1Q\xa0[98]) for every port, according to the IEEE\xa0Std\xa0802.1Q\xa0[98] to the CNC.', '', '(2)\tCNC may distribute PSFP information and transmission gate scheduling parameters to 5GS Bridge via TSN AF, which can be mapped to TSN QoS requirements by the TSN AF.', '', 'The PCF mapping table provides a mapping from TSN QoS information (see clauses 6.2.1.2 and 6.1.3.23 of TS\xa023.503\xa0[45]) to 5GS QoS profile. Based on trigger from TSN AF, the PCF may trigger PDU session modification procedure to establish a new 5G QoS Flow or use the pre-configured 5QI for 5G QoS Flow for the requested traffic class according to the selected QoS policies and the TSN AF traffic requirements.', '', 'Figure 5.28.4-1 illustrates the functional distribution of the mapping tables.', '', '----media/image76.emf----', '', 'Figure 5.28.4-1: QoS Mapping Function distribution between PCF and TSN AF', '', 'The minimum set of TSN QoS-related parameters that are relevant for mapping the TSN QoS requirements are used by the TSN AF: traffic classes and their priorities per port, TSC Burst Size of TSN streams, 5GS bridge delays per port pair and traffic class (independentDelayMax, independentDelayMin, dependentDelayMax, dependentDelayMin), propagation delay per port (txPropagationDelay) and UE-DS-TT residence time.', '', 'Once the CNC retrieves the necessary information, it proceeds to calculate scheduling and paths. The configuration information is then set in the bridge as described in clauses 5.28.2 and 5.28.3. The most relevant information received is the PSFP information and the schedule of transmission gates for every traffic class and port of the bridge. At this point, it is possible to retrieve the TSN QoS requirements by identifying the traffic class of the TSN stream. The traffic class to TSN QoS and delay requirement (excluding the UE-DS-TT residence time) mapping can be performed using the QoS mapping table in the TSN AF as specified in TS\xa023.503\xa0[45]. Subsequently in the PCF, the 5G QoS Flow can be configured by selecting a 5QI as specified in TS\xa023.503\xa0[45]. This feedback approach uses the reported information to the CNC and the feedback of the configuration information coming from the CNC to perform the mapping and configuration in the 5GS.', '', 'If the Maximum Burst Size of the aggregated TSC streams in the traffic class is provided by CNC via TSN AF to PCF, PCF can derive the required MDBV taking the Maximum Burst Size as input. If the default MDBV associated with a standardized 5QI or a pre-configured 5QI in the QoS mapping table cannot satisfy the aggregated TSC Burst Size, the PCF provides the derived MDBV in the PCC rule and then the SMF performs QoS Flow binding as specified in clause\xa06.1.3.2.4 of TS\xa023.503\xa0[45].', '', 'Maximum Flow Bit Rate is calculated over StreamGateAdminCycleTime as described in Annex I and provided by the TSN AF to the PCF. The PCF sets the GBR and MBR values to the Maximum Flow Bitrate value.', '', 'The Maximum Flow Bit Rate is adjusted according to Averaging Window associated with a pre-configured 5QI in the QoS mapping table or another selected 5QI (as specified in TS\xa023.503\xa0[45]) to obtain GBR of the 5GS QoS profile. GBR is then used by SMF to calculate the GFBR per QoS Flow. QoS mapping table in the PCF between TSN parameters and 5GS parameters should match the delay, aggregated TSC burst size and priority, while preserving the priorities in the 5GS. An operator enabling TSN services via 5GS can choose up to eight traffic classes to be mapped to 5GS QoS profiles.', '', 'Once the 5QIs to be used for TSN streams are identified by the PCF as specified in TS\xa023.503\xa0[45], then it is possible to enumerate as many bridge port traffic classes as the number of selected 5QIs.', '', 'When PSFP information is not available to the TSN AF for a given TSN stream (e.g. because of lack of PSFP support in the DS-TTs or the NW-TTs, or exceeding the number of supported table entries for PSFP functions, or because CNC does not provide PSFP information), the 5GS can support the TSN streams using pre-configured mapping from stream priority (i.e. PCP as defined in IEEE\xa0Std\xa0802.1Q\xa0[98]) to QoS Flows.', '']</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.1993118528953386</v>
+        <v>0.1896357850156101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.13.2	Input Data&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.28a.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1403,47 +1403,47 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['', 'The NWDAF supporting data analytics on Redundant Transmission Experience shall be able to collect UE mobility information from OAM, MDAS/MDAF, 5GC and AFs and service data from AF, as described in clause\xa06.7.2.2. In addition, NWDAF shall be able to collect the information for PDU session which is established with redundant transmission from the SMF. UE mobility information is specified in Table 6.7.2.2-1 and service data from AF related to UE mobility in Table 6.7.2.2-2. In addition, the NWDAF shall be able to collect performance measurements on user data congestion as specified in Table 6.8.2-1 for user data congestion analytics.', '', 'Additionally, the NWDAF collects the following input (see Table 6.13.2-1 and Table 6.13.2-2) according to existing measurements defined in clause\xa05.33.3 QoS Monitoring to Assist URLLC Service of TS\xa023.501\xa0[2]. The NWDAF also collects the input from MDAS/MDAF of the end to end latency analysis in Table 6.13.2-3, as defined in clause\xa08.4.2.4.3 of TS\xa028.104\xa0[45].', '', 'Table 6.13.2-1: Packet drop and/or packet delay measurement per QFI or GTP level', '', 'Information', '', 'Source', '', 'Description', '', 'UL/DL packet drop rate GTP-U', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet drop rate measurement on GTP path on N3.', '', 'UL/DL packet delay GTP', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet delay measurement round trip on GTP path on N3.', '', 'E2E UL/DL packet delay', '', 'UPF', '', 'End-to-End (between UE and UPF) packet delay measurements between the UE and the UPF.', '', 'UL/DL packet drop/loss rate of RAN part', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet drop/loss rate measurement of RAN part.', '', 'NOTE\xa01:\tThe information in this table is provided both as the base to compare with the redundant transmission performance as well as when redundant transmission is enabled.', '', 'NOTE\xa02:\tRefer to clause\xa05.1 of TS\xa028.552\xa0[8] for the performance measurement in NG-RAN and clause\xa05.4 1 of TS\xa028.552\xa0[8] for the performance measurement in UPF. In addition, Annex A of TS\xa028.552\xa0[8] describes various performance measurements.', '', '', '', 'Table 6.13.2-2: The information related to PDU Session established', '', 'Information', '', 'Source', '', 'Description', '', 'DNN', '', 'SMF', '', 'Data Network Name associated for URLLC service.', '', 'UP with redundant transmission', '', 'SMF', '', 'Redundant transmission is setup or terminated.', '', '', '', 'Table 6.13.2-3: Data collection from MDAS/MDAF of end-to-end latency analysis', '', 'Information', '', 'Source', '', 'Description', '', 'E2ELatencyIssueType', '', 'MDAF', '', 'Indication the type of the E2E latency issue.', '', 'The allowed value is one of the enumerated values: RAN latency issue, CN latency issue.', '', 'AffectedObjects', '', 'MDAF', '', 'The managed object instances of subnetwork, managed elements or network slices where the latency issue happens.', '', '', '']</t>
+          <t>['', 'When the 5GS supports interworking with IEEE TSN deployed in the transport network, the CUC that is collocated with SMF interworks with the CNC in the transport network (TN CNC) as specified in clause\xa046.2 of IEEE\xa0Std\xa0802.1Q\xa0[98]. The SMF/CUC provides the stream requirements on QoS Flow basis (i.e. translated Talker group and Listener group information) via the User/Network-Interface (UNI) to the TN CNC. The TN CNC uses the stream requirements as input to configure respective path(s) and schedules in TN. Based on the results, the TN CNC provides a Status group that contains the end station communication-configuration back to the SMF/CUC.', '', 'When interworking with TSN deployed in the transport network is applied, the dynamic value for the CN PDB of a Delay-critical GBR 5QI shall be configured in the SMF as described in clause\xa05.7.3.4. When the SMF setups a new QoS Flow, the SMF signals the dynamic value for the CN PDB and TSCAI for the QoS Flow to NG-RAN on QoS Flow basis. Upon receiving the TSCAI for a QoS Flow from the SMF, if the TSCAI includes a BAT in UL direction, the RAN may determine a dynamic value of 5G-AN PDB in UL direction for the QoS Flow. The NG-RAN provides the dynamic value of 5G-AN PDB to the SMF in a response to the QoS Flow request. The dynamic value of 5G-AN PDB is used to generate EarliestTransmitOffset as described in Annex M.', '', 'The details of providing End Station related information to generate the stream requirements for the QoS Flow by the SMF/CUC are described in Annex M.', '', 'If the NG-RAN and UPF support the TSN Talker and Listener functionality (i.e. implement the AN-TL and CN-TL, respectively), the SMF/CUC can communicate with the AN-TL and CN-TL via TL-Container. The TL-Container conveys the data sets defined in IEEE P802.1Qdj [146] between the SMF/CUC and AN-TL and CN-TL.', '', 'The AN-TL and CN-TL enable the following functions:', '', 'a)\thold and buffer functionality in a case when the TSCAI contains a BAT in UL and/or DL direction.', '', 'b)\tsupport of stream transformation functionality with respective information exchange with SMF/CUC.', '', 'c)\tfor SMF/CUC to retrieve the InterfaceCapabilities and/or EndStationInterfaces from the AN-TL or CN-TL.', '', 'd)\ttopology information exchange functionality via LLDP in the TN as described in clause\xa05.28a.3.', '', 'NOTE\xa01:\tHow to realize AN-TL in the base station and CN-TL in UPF is up to implementation.', '', 'NOTE\xa02:\tIn this Release of the specification, it is assumed that connected mode mobility is not used in deployments with a TSN enabled TN.', '']</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.197338080247345</v>
+        <v>0.1920650394485844</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.13.3	Output Analytics&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.31.16	Service Gap Control&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['', 'The NWDAF supporting data analytics on Redundant Transmission Experience shall be able to provide Redundant Transmission Experience analytics as defined in Table 6.13.3-1 and Table 6.13.3-2.', '', 'Table 6.13.3-1: Redundant Transmission Experience statistics', '', 'Information', '', 'Description', '', 'UE group ID or UE ID, any UE', '', 'Identifies a UE, any UE, or a group of UEs.', '', 'DNN', '', 'Data Network Name associated for URLLC service.', '', 'Spatial validity', '', 'Area where the Redundant Transmission Experience statistics applies.', '', 'If Area of Interest information was provided in the request or subscription, spatial validity should be the requested Area of Interest.', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Observed Redundant Transmission Experience', '', 'Observed Redundant Transmission Experience related information during the Analytics target period.', '', '      &amp;gt;&amp;gt; UL/DL packet drop rate GTP-U (NOTE\xa02)', '', 'Observed UL/DL packet drop rate on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; UL/DL packet delay GTP-U (NOTE\xa02)', '', 'Observed UL/DL packet delay round trip on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet delay (NOTE\xa02)', '', 'Observed End-to-End (between UE and UPF) UL/DL packet delay (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet loss rate (NOTE\xa02) (NOTE 3)', '', 'Observed End-to-End (between UE and UPF) UL/DL packet loss (average, variance).', '', '  &amp;gt; Redundant Transmission Status', '', 'Redundant Transmission Status, i.e. redundant transmission was activated or not activated for the time slot entry.', '', '  &amp;gt; Ratio', '', 'Percentage on which UE, any UE, or UE group experience the packet drop rate and packet delay.', '', 'NOTE\xa01:\tThe Observed Redundant Transmission Experience can be further derived by SMF from the observed UL/DL packet drop rate GTP-U and UL/DL packet delay GTP-U.', '', 'NOTE\xa02:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and only applicable when Target of Analytics Reporting is for a single UE.', '', 'NOTE\xa03:\tThe NWDAF outputs the analytics on E2E UL/DL packet loss rate based on the input UL/DL packet drop rate on N3 and UL/DL packet drop/loss rate of RAN part.', '', '', '', 'Table 6.13.3-2: Redundant Transmission Experience predictions', '', 'Information', '', 'Description', '', 'UE group ID or UE ID, any UE', '', 'Identifies a UE or, any UE, a group of UEs.', '', 'DNN', '', 'Data Network Name associated for URLLC service.', '', 'Spatial validity', '', 'Area where the estimated Redundant Transmission Experience predictions applies.', '', 'If Area of Interest information was provided in the request or subscription, spatial validity should be the requested Area of Interest.', '', 'Time slot entry (1..max)', '', 'List of predicted time slots.', '', '  &amp;gt;Time slot start', '', 'Time slot start time within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot.', '', '  &amp;gt; Predicted Redundant Transmission Experience ', '', 'Predicted Redundant Transmission Experience related information during the Analytics target period.', '', '      &amp;gt;&amp;gt; UL/DL packet drop rate GTP-U (NOTE\xa02)', '', 'Predicted UL/DL packet drop rate on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; UL/DL packet delay GTP-U (NOTE\xa02)', '', 'Predicted UL/DL packet delay round trip on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet delay', '', 'Predicted End-to-End (between UE and UPF) UL/DL packet delay (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet loss rate (NOTE\xa04)', '', 'Predicted End-to-End (between UE and UPF) UL/DL packet loss rate (average, variance).', '', '  &amp;gt; Redundant Transmission Status (NOTE\xa03)', '', 'Redundant Transmission Status, i.e., redundant transmission is activated or not activated for the time slot entry.', '', '  &amp;gt; Ratio ', '', 'Percentage on which the UE, any UE, or UE group may efficiently use the PDU session with redundant transmission.', '', '  &amp;gt; Confidence', '', 'Confidence of this prediction.', '', 'NOTE\xa01:\tThe Predicted Redundant Transmission Experience can be further derived by the SMF from the predicted UL/DL packet drop rate GTP-U and UL/DL packet delay GTP-U and based on which the SMF can decide to start redundant transmission or not.', '', 'NOTE\xa02:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and only applicable when Target of Analytics Reporting is for a single UE.', '', 'NOTE\xa03:\tThe list of predicted time slots and predicted redundant transmission experience is provided to the consumer when both the redundant transmission status is activated and not activated.', '', 'NOTE\xa04:\tThe NWDAF outputs the prediction on E2E UL/DL packet loss rate based on the input UL/DL packet drop rate on N3 and UL/DL packet drop/loss rate of RAN part.', '', '', '']</t>
+          <t>['', 'Service Gap Control is an optional feature intended for CIoT UEs to control the frequency at which these UEs can access the network. That is, to ensure a minimum time gap between consecutive Mobile Originated data communications initiated by the UE. This helps reducing peak load situations when there are a large number of these UEs in an operator network. Service Gap Control is intended to be used for "small data allowance plans" for MTC/CIoT UEs where the applications are tolerant to service latency.', '', 'NOTE\xa01:\tTime critical applications, such as regulatory prioritized services like Emergency services can suffer from the latency caused by the Service Gap Control feature. Therefore Service Gap Control feature is not recommended for subscriptions with such applications and services.', '', 'Service Gap Time is a subscription parameter used to set the Service Gap timer and is enforced in the UE and in the AMF on a per UE level (i.e. the same Service Gap Timer applies for all PDU Sessions that the UE has). The UE indicates its capability of support for Service Gap Control in the Registration Request message to the AMF. The AMF passes the Service Gap Time to the UE in the Registration Accept message for a UE that has indicated its support of the Service Gap Control. The Service Gap Control shall be applied in a UE when a Service Gap Time is stored in the UE context and applied in the AMF when the Service Gap Time is stored in the UE Context in the AMF.', '', 'Service Gap Control requires the UE to stay in CM-IDLE mode for at least the whole duration of the Service Gap timer before triggering Mobile Originated user data transmission, except for procedures that are exempted (see TS\xa024.501\xa0[47]). The Service Gap timer shall be started each time a UE moves from CM-CONNECTED to CM-IDLE, unless the connection request was initiated by the paging of a Mobile Terminated event, or after a Mobility or Periodic Registration procedure without Follow-on Request indication and without Uplink data status, which shall not trigger a new or extended Service Gap interval. When a Service Gap timer expires, the UE is allowed to send a connection request again. If the UE does so, the Service Gap timer will be restarted at the next CM-CONNECTED to CM-IDLE transition.', '', 'The Service Gap control is applied in CM-IDLE state only and does not impact UE Mobile Originated user data transmission or Mobile Originated signalling in CM-CONNECTED state. The Service Gap timer is not stopped upon CM-IDLE state to CM-CONNECTED state transition. The UE shall not initiate connection requests for MO user plane data, MO control plane data, or MO SMS when a Service Gap timer is running. The UE shall not initiate PDU Session Establishment Requests when a Service Gap timer is running, unless it is for Emergency services which are allowed. CM-CONNECTED with RRC_INACTIVE is not used for UEs that have a Service Gap Time configured.', '', 'NOTE\xa02:\tAs a consequence of allowing Initial Registration Request procedure, the UE with a running Service Gap timer does not initiate further MO signalling, except for Mobility Registration procedure, until the UE receives MT signalling or after the UE has moved to CM-IDLE state and the Service Gap Timer is not running.', '', 'NOTE\xa03:\tImplementations need to make sure that latest and up-to-date data are always sent when a Service Gap timer expires.', '', 'The AMF may enforce the Service Gap timer by rejecting connection requests for MO user plane data, MO control plane data, or MO SMS when a Service Gap timer is running. The AMF may enforce the Service Gap timer by not allowing MO signalling after Initial Registration requests when a Service Gap timer is running except for Mobility Registration procedure, Periodic Registration procedure or access to the network for regulatory prioritized services like Emergency services, which are allowed. When rejecting the connection requests and the SM signalling after Initial Registration Requests while the Service Gap timer is running, the AMF may include a Mobility Management back-off timer corresponding to the time left of the current Service Gap timer. For UEs that do not support Service Gap Control (e.g. pre-release-16 UEs), Service Gap Control may be enforced using "General NAS level congestion control" as defined in clause\xa05.19.7.2.', '', 'NOTE\xa04:\tAfter MT signalling in CM-CONNECTED state the AMF does not further restrict MO signalling when a Service Gap timer is running as this case is considered equal to a connectivity request in response to paging.', '', 'When the AMF starts the Service Gap timer, the AMF should invoke the Service Gap timer with a value that is slightly shorter than the Service Gap Time value provided to the UE based on the subscription information received from the UDM.', '', 'NOTE\xa05:\tThis ensures that the AMF does not reject any UE requests just before the Service Gap timer expires e.g. because of slightly unsynchronized timers between UE and AMF.', '', 'A UE which transitions from a MICO mode or eDRX power saving state shall apply Service Gap Control when it wakes up if the Service Gap timer is still running.', '', 'Additional aspects of Service Gap Control:', '', '-\tService Gap Control applies in all PLMNs.', '', '-\tWhen the Service Gap timer is running and the UE receives paging, the UE shall respond as normal.', '', '-\tService Gap Control does not apply to exception reporting for NB-IoT.', '', '-\tAccess to the network for regulatory prioritized services like Emergency services are allowed when a Service Gap timer is running.', '', '-\tService Gap Control shall be effective also for UEs performing de-registration and re-registration unless access to the network for regulatory prioritized services like Emergency services is required.', '', '-\tIf the Service Gap timer is running, the Service Gap is applied at PLMN selection as follows:', '', 'a)\tRe-registration to the registered PLMN: The remaining Service Gap timer value survives.', '', 'b)\tRegistration to a different PLMN: The remaining Service Gap timer value survives.', '', 'c)\tUSIM swap: The Service Gap timer is no longer running and the Service Gap feature does not apply, unless re-instantiated by the serving PLMN.', '', '-\tMultiple uplink packets and downlink packets are allowed during one RRC connection for UE operating within its Rate Control limits.', '', 'The following procedures are impacted by Service Gap Control:', '', '-\tRegistration Procedure, see clause\xa04.2.2.2 of TS\xa023.502\xa0[3];', '', '-\tUE Triggered Service Request, see clause\xa04.2.3.2 of TS\xa023.502\xa0[3];', '', 'NOTE\xa06:\tSince UE triggered Service Request is prevented by Service Gap timer, this implicitly prevents the UE from initiating UPF anchored Mobile Originated Data Transport in Control Plane CIoT 5GS Optimisation (see clause\xa04.24.1 of TS\xa023.502\xa0[3]), NEF Anchored Mobile Originated Data Transport (see clause\xa04.25.4 of TS\xa023.502\xa0[3]) and MO SMS over NAS in CM-IDLE (see clause\xa04.13.3.3 of TS\xa023.502\xa0[3]).', '']</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.1878224393217112</v>
+        <v>0.1904708273678072</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.14.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.31.8	High latency communication&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,47 +1453,47 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['', 'This clause\xa0specifies how an NWDAF can provide DN Performance Analytics which provides analytics for user plane performance (i.e. average/maximum traffic rate, average/maximum packet delay, average packet loss rate) in the form of statistics or predictions to a service consumer.', '', 'The DN Performance Analytics may provide one or a combination of the following information:', '', '-\tUser plane performance analytics for a specific Edge Computing application for a UE, group of UEs, or any UE over a specific serving anchor UPF.', '', '-\tUser plane performance analytics for a specific Edge Computing application for a UE, group of UEs, or any UE over a specific DNAI.', '', '-\tUser plane performance analytics for a specific Edge Computing application for a UE, group of UEs, or any UE over a specific Edge Application Server Instance.', '', 'The service consumer may be an NF (e.g. SMF) or an AF.', '', 'The consumer of these analytics shall indicate in the request or subscription:', '', '-\tAnalytics ID = "DN Performance";', '', '-\tTarget of Analytics Reporting: one or more SUPI(s) or Internal Group Identifier(s), or "any UE";', '', '-\tAnalytics Filter Information as defined in table 6.14.1-1; and', '', '-\toptionally, a preferred level of accuracy of the analytics;', '', '-\toptionally, preferred level of accuracy per analytics subset (see clause\xa06.14.3);', '', '-\toptionally, preferred order of results for the list of Network Performance information:', '', '-\tordering criterion: one of the analytics subset (see clause\xa06.14.3);', '', '-\torder: ascending or descending;', '', '-\toptionally, Reporting Thresholds, which apply only for subscriptions and indicate conditions on the level to be reached for respective analytics subsets (see clause\xa06.14.3) in order to be notified by the NWDAF;', '', '-\toptionally, maximum number of objects and maximum number of SUPIs;', '', '-\tAn Analytics target period indicates the time period over which the statistics or predictions are requested; and', '', '-\tOptionally, Spatial granularity size and Temporal granularity size.', '', 'Table 6.14.1-1: Analytics Filter Information related to DN Performance Analytics', '', 'Information', '', 'Description', '', 'Application ID (0..max)', '', 'The identification of the application(s) for which the analytics information is subscribed or requested.', '', 'S-NSSAI', '', 'Identifies the Network Slice for which analytics information is subscribed or requested.', '', 'NSI ID(s)', '', 'Identifies the Network Slice instance(s) for which analytics information is subscribed or requested.', '', 'Area of Interest', '', 'Identifies the Area (i.e. set of TAIs), as defined in TS\xa023.501\xa0[2] for which the analytics information is subscribed or requested.', '', 'Anchor UPF info', '', 'Identifies the UPF where a UE has an associated PDU session.', '', 'DNN', '', 'DNN to access the application.', '', 'DNAI', '', 'The UPF ID/address/FQDN information identifier of a user plane access to one or more DN(s) where applications are deployed as defined in TS\xa023.501\xa0[2].', '', 'Application Server Address(es)', '', "List of IP address(s)/FQDN(s) of the Application Server(s) that a UE, group of UEs, or 'any UE' has a communication session with for which DN Performance Analytic information is requested.", '', 'List of analytics subsets', '', 'List of analytics subsets that are requested among those specified in clause\xa06.14.3.', '', 'NOTE:\tAll parameters are optional.', '', '', '']</t>
+          <t>['', 'Functions for High latency communication may be used to handle mobile terminated (MT) communication with UEs being unreachable while using power saving functions as specified in clause\xa05.31.7 or due to discontinuous coverage as described in clause\xa05.4.13. "High latency" refers to the initial response time before normal exchange of packets is established. That is, the time it takes before a UE has woken up from its power saving state and responded to an initial downlink packet or signal.', '', 'When a NR RedCap UE requests to use the power saving functions as specified in clause\xa05.31.7, then the AMF may, based on local policy, reroute the Registration Request to another AMF that supports High latency communication as specified in clause\xa06.3.5.', '', 'High latency communication is supported by extended buffering of downlink data in the UPF, SMF or NEF when a UE is using power saving functions in CM-IDLE state or in RRC_INACTIVE state, or when the UE is using a satellite access with discontinuous coverage and the UE is not reachable. For UPF anchored PDU sessions the SMF configures during AN release or when NG-RAN indicates via the AMF the UE is in extended DRX for RRC_INACTIVE, the UPF with user data Forwarding Action Rule and user data Buffering Action Rule according to TS\xa029.244\xa0[65]. The rules include instructions whether UPF buffering applies or the user data shall be forwarded to the SMF for buffering in the SMF. For NEF anchored PDU sessions only extended buffering in the NEF is supported in this release of the specification. During the Network Triggered Service Request procedure or Mobile Terminated Data Transport procedures when using Control Plane CIoT 5GS Optimisation, the AMF provides an Estimated Maximum Wait Time to the SMF if the SMF indicates the support of extended buffering. The SMF determines the Extended Buffering Time based on the received Estimated Maximum Wait Time or local configuration. The handling is e.g. specified in the Network Triggered Service Request procedure, clauses\xa04.2.3.3, 4.2.6, 4.24.2 and 4.25.5 of TS\xa023.502\xa0[3].', '', 'High latency communication is also supported through notification procedures. The following procedures are available based on different monitoring events:', '', '-\tUE Reachability;', '', '-\tAvailability after DDN failure;', '', '-\tDownlink Data Delivery Status.', '', 'An AF may request a one-time "UE Reachability" notification when it wants to send data to a UE which is using a power saving function (see event subscription procedure in clause\xa04.15.3.2 of TS\xa023.502\xa0[3]). The SCS/AS/AF then waits with sending the data until it gets a notification that the UE is reachable (see notification procedures in TS\xa023.502\xa0[3]).', '', 'An AF may request repeated "Availability after DDN failure" notifications where each UE reachability notification is triggered by a preceding DDN failure, i.e. the AF sends a downlink packet to request a UE reachability notification when the UE becomes reachable. That downlink packet is discarded by the UPF or SMF or NEF (see notification procedures in TS\xa023.502\xa0[3]).', '', 'An AF may request repeated "Downlink Data Delivery Status" notifications when it wants indications that DL data has been buffered or when buffered DL data has been delivered to the UE.', '', 'If MICO mode or extended idle mode DRX is enabled, Idle Status Indication allows the AF to determine when the UE transitions into idle mode. When requesting to be informed of either "UE Reachability" or "Availability after DDN failure" notification, the AF may also request Idle Status Indication. If the UDM and the AMF support Idle Status Indication, then when the UE for which MICO mode or extended idle mode DRX is enabled transitions into idle mode, the AMF includes in the notification towards the NEF the time at which the UE transitioned into idle mode, the active time and the periodic registration update timer granted to the UE by the AMF, the eDRX cycle length and the Suggested number of downlink packets if a value was provided to the SMF.', '', 'An AF may provide parameters related to High latency communication for different methods to UDM, via NEF, as part of provisioning capability as specified in clause\xa05.20. The UDM can further deliver the parameters to other NFs (e.g. AMF or SMF) as specified in clause\xa04.15.6 of TS\xa023.502\xa0[3].', '', "If the AMF is aware that some signalling or data is pending in the network for an UE that is known as being unreachable for a long duration, e.g. for UE's having extended idle mode DRX, extended DRX for RRC_INACTIVE or MICO enabled, the AMF maintains the N2 connection for at least the Extended Connected Time and provides the Extended Connected Time value in a NG-AP message to the RAN. The Extended Connected Time value indicates the minimum time the RAN should keep the UE in RRC_CONNECTED state regardless of inactivity. At inter-RAN node handovers, if some signalling or data are still pending, the target AMF may send the Extended Connected Time value to the target RAN node.", '']</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.2011582865654092</v>
+        <v>0.1851021335468578</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.14.2	Input Data&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.32.2	Multi Access PDU Sessions&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['', 'The data collected from the AF are defined in table 6.14.2-1', '', 'Table 6.14.2-1: Performance Data from AF', '', 'Information', '', 'Source', '', 'Description', '', 'UE identifier', '', 'AF', '', 'IP address of the UE at the time the measurements was made.', '', 'UE location', '', 'AF', '', 'The location of the UE when the performance measurement was made.', '', 'Application ID', '', 'AF', '', 'To identify the service and support analytics per type of service (the desired level of service).', '', 'IP filter information', '', 'AF', '', 'Identify a service flow of the UE for the application.', '', 'Locations of Application', '', 'AF/NEF', '', 'Locations of application represented by a list of DNAI(s). The NEF may map the AF-Service-Identifier information to a list of DNAI(s) when the DNAI(s) being used by the application are statically defined.', '', 'Application Server Instance address', '', 'AF/NEF', '', 'The IP address/FQDN of the Application Server that the UE had a communication session when the measurement was made.', '', 'UL/DL Performance Data', '', 'AF', '', 'The performance associated with the communication session of the UE with an Application Server that includes: Average/Maximum Packet Delay, Average/Maximum Loss Rate and Average/Minimum/Maximum Throughput.', '', 'Timestamp', '', 'AF', '', 'A time stamp associated to the Performance Data provided by the AF.', '', '', '', 'The data collected by the SMF are described in table 6.4.2-2.', '', 'The NWDAF subscribes to network data as defined in clause\xa06.4.2.', '', 'Data may be collected from OAM as described in table 6.4.2-3 by using the services provided by OAM as described in clause\xa06.2.3.', '', 'The Event Filters for the service data collection from SMF, AMF and AF are defined in TS\xa023.502\xa0[3].', '', 'The timestamps are provided by each NF to allow correlation of QoS and traffic KPIs. The clock reference is able to know the accuracy of the time and correlate the time series of the data retrieved from each NF.', '']</t>
+          <t>['', 'A Multi-Access PDU (MA PDU) Session is managed by using the session management functionality specified in clause\xa05.6, with the following additions and modifications:', '', '-\tWhen the UE wants to request a new MA PDU Session:', '', '-\tIf the UE is registered to the same PLMN over 3GPP and non-3GPP accesses, then the UE shall send a PDU Session Establishment Request over any of the two accesses. The UE also provides Request Type as "MA PDU Request" in the UL NAS Transport message. The AMF informs the SMF that the UE is registered over both accesses and this triggers the establishment of user-plane resources on both accesses and two N3/N9 tunnels between PSA and the RAN/AN.', '', '-\tIf the UE is registered to different PLMNs over 3GPP and non-3GPP accesses, then the UE shall send a PDU Session Establishment Request over one access. The UE also provides Request Type as "MA PDU Request" in the UL NAS Transport message. After this PDU Session is established with one N3/N9 tunnel between the PSA and (R)AN established, the UE shall send another PDU Session Establishment Request over the other access. The UE also provides the same PDU Session ID and Request Type as "MA PDU Request" in the UL NAS Transport message. Two N3/N9 tunnels and User-plane resources on both accesses are established.', '', '-\tIf the UE is registered over one access only, then the UE shall send a PDU Session Establishment Request over this access. The UE also provides Request Type as "MA PDU Request" in the UL NAS Transport message. One N3/N9 tunnel between the PSA and (R)AN and User-plane resources on this access only are established. After the UE is registered over the second access, the UE shall establish user-plane resources on the second access.', '', '-\tIn the PDU Session Establishment Request that is sent to request a new MA PDU Session, the UE shall provide also its ATSSS capabilities, which indicate the steering functionalities and the steering modes supported in the UE. These functionalities are defined in clause\xa05.32.6.', '', '-\tIf the UE indicates it is capable of supporting:', '', '-\tthe ATSSS-LL functionality with any steering mode (as specified in clause\xa05.32.6.1);', '', '\tand the network accepts to activate this functionality, then the network may provide to UE Measurement Assistance Information (see details in clause\xa05.32.5) and shall provide to UE one or more ATSSS rules.', '', 'NOTE\xa01:\tAs specified in Table 5.32.8-1 and in Table 5.8.5.8-1, the ATSSS-LL functionality cannot be used together with the Redundant steering mode. When the UE indicates it is capable of supporting the ATSSS-LL functionality with any steering mode, it is implied that the UE can support the ATSSS-LL functionality with any steering mode except the Redundant steering mode.', '', '-\tIf the UE indicates it is capable of supporting:', '', '-\tthe MPTCP functionality with any steering mode and the ATSSS-LL functionality with only the Active-Standby steering mode (as specified in clause\xa05.32.6.1); or', '', '-\tthe MPTCP functionality with any steering mode and the ATSSS-LL functionality with any steering mode (as specified in clause\xa05.32.6.1);', '', '\tand the network accepts to activate these functionalities, then the network provides MPTCP proxy information to UE, and allocates to UE (a) one IP address/prefix for the MA PDU session (as defined in clause\xa05.8.2.2) and (b) two additional IP addresses/prefixes, called "MPTCP link-specific multipath" addresses. Further details are provided in clause\xa05.32.6.2.1. In addition, the network may provide to UE Measurement Assistance Information and shall provide to UE one or more ATSSS rules. If the UE supports the ATSSS-LL functionality with only the Active-Standby steering mode, the network shall provide to UE an ATSSS rule for non-MPTCP traffic. The ATSSS rule for non-MPTCP traffic shall use the ATSSS-LL functionality and the Active-Standby Steering Mode to indicate how the non-MPTCP traffic shall be transferred across the 3GPP access and the non-3GPP access in the uplink direction.', '', '-\tIf the UE indicates it is capable of supporting', '', '-\tthe MPQUIC functionality with any steering mode and the ATSSS-LL functionality with only the Active-Standby steering mode (as specified in clause\xa05.32.6.1); or', '', '-\tthe MPQUIC functionality with any steering mode and the ATSSS-LL functionality with any steering mode (as specified in clause\xa05.32.6.1);', '', '\tand the network accepts to activate these functionalities, then the network provides MPQUIC proxy information to UE, and allocates to UE (a) one IP address/prefix for the MA PDU session (as defined in clause\xa05.8.2.2) and (b) two additional IP addresses/prefixes, called "MPQUIC link-specific multipath" addresses. Further details are provided in clause\xa05.32.6.2.2. In addition, the network may provide to UE Measurement Assistance Information and shall provide to UE one or more ATSSS rules. If the UE supports the ATSSS-LL functionality with only the Active-Standby steering mode, the network shall provide to UE an ATSSS rule for non-MPQUIC traffic. The ATSSS rule for non-MPQUIC traffic shall use the ATSSS-LL functionality and the Active-Standby Steering Mode to indicate how the non-MPQUIC traffic shall be transferred across the 3GPP access and the non-3GPP access in the uplink direction.', '', '-\tIf the UE indicates it is capable of supporting', '', '-\tthe MPTCP functionality with any steering mode, and the MPQUIC functionality with any steering mode, and the ATSSS-LL functionality with only the Active-Standby steering mode (as specified in clause\xa05.32.6.1); or', '', '-\tthe MPTCP functionality with any steering mode, and the MPQUIC functionality with any steering mode, and the ATSSS-LL functionality with any steering mode (as specified in clause\xa05.32.6.1);', '', '\tand the network accepts to activate these functionalities, then the network provides MPTCP proxy information and MPQUIC proxy information to UE and allocates to UE (a) one IP address/prefix for the MA PDU session (as defined in clause\xa05.8.2.2), (b) two additional IP addresses/prefixes, called "MPTCP link-specific multipath" addresses, and (c) two additional IP addresses/prefixes, called "MPQUIC link-specific multipath" addresses. Further details are provided in clause\xa05.32.6.2.1 and in clause\xa05.32.6.2.2. In addition, the network may provide to UE Measurement Assistance Information and shall provide to UE one or more ATSSS rules. If the UE supports the ATSSS-LL functionality with only the Active-Standby steering mode, the network shall provide to UE an ATSSS rule for non-MPTCP and non-MPQUIC traffic (i.e. the traffic for which neither the MPTCP nor the MPQUIC functionalities are applied). The ATSSS rule for non-MPTCP and non-MPQUIC traffic shall use the ATSSS-LL functionality and the Active-Standby Steering Mode to indicate how the non-MPTCP and non-MPQUIC traffic shall be transferred across the 3GPP access and the non-3GPP access in the uplink direction.', '', 'NOTE\xa02:\tThe "MPTCP link-specific multipath" addresses and the "MPQUIC link-specific multipath" addresses can be the same.', '', '-\tIf the UE requests an S-NSSAI, this S-NSSAI should be allowed on both accesses. Otherwise, the MA PDU Session shall not be established.', '', '-\tThe SMF determines the ATSSS capabilities supported for the MA PDU Session based on the ATSSS capabilities provided by the UE and per DNN configuration on SMF, as follows:', '', 'a)\tIf the UE includes in its ATSSS capabilities "MPTCP functionality with any steering mode and ATSSS-LL functionality with only Active-Standby steering mode" (as specified in clause\xa05.32.6.1), then:', '', 'i)\tIf the DNN configuration allows MPTCP and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), including RTT measurement without using PMF protocol, the MA PDU Session is capable of (1) MPTCP and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink, and (2) MPTCP and ATSSS-LL with Active-Standby mode in the uplink.', '', 'NOTE\xa03:\tIn this case, it is assumed that ATSSS-LL with "Smallest Delay" steering mode is selected for the downlink only when the UPF can measure RTT without using the PMF protocol, e.g. by using other means not defined by 3GPP such as using the RTT measurements of MPTCP.', '', 'ii)\tIf the DNN configuration allows MPTCP and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), but not RTT measurement without using PMF protocol, the MA PDU Session is capable of (1) MPTCP in the downlink (2) ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink, and (3) MPTCP and ATSSS-LL with Active-Standby mode in the uplink.', '', 'iii)\tIf the DNN configuration allows MPTCP with any steering mode and ATSSS-LL with only Active-Standby steering mode, the MA PDU Session is capable of MPTCP and ATSSS-LL with Active-Standby mode in the uplink and in the downlink.', '', 'b)\tIf the UE includes in its ATSSS capabilities "MPQUIC functionality with any steering mode and ATSSS-LL functionality with only Active-Standby steering mode" (as specified in clause\xa05.32.6.1), then:', '', 'i)\tIf the DNN configuration allows MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), including RTT measurement without using PMF protocol, the MA PDU Session is capable of (1) MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink, and (2) MPQUIC and ATSSS-LL with Active-Standby mode in the uplink.', '', 'NOTE\xa04:\tIn this case, it is assumed that ATSSS-LL with "Smallest Delay" steering mode is selected for the downlink only when the UPF can measure RTT without using the PMF protocol, e.g. by using other means not defined by 3GPP such as using the RTT measurements of MPQUIC.', '', 'ii)\tIf the DNN configuration allows MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), but not RTT measurement without using PMF protocol, the MA PDU Session is capable of (1) MPQUIC in the downlink (2) ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink, and (3) MPQUIC and ATSSS-LL with Active-Standby mode in the uplink.', '', 'iii)\tIf the DNN configuration allows MPQUIC with any steering mode and ATSSS-LL with only Active-Standby steering mode, the MA PDU Session is capable of MPQUIC and ATSSS-LL with Active-Standby mode in the uplink and in the downlink.', '', 'c)\tIf the UE includes in its ATSSS capabilities "MPQUIC functionality with any steering mode and ATSSS-LL functionality with any steering mode" (as specified in clause\xa05.32.6.1), and the DNN configuration allows MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), the MA PDU Session is capable of MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the uplink and in the downlink.', '', 'd)\tIf the UE includes in its ATSSS capabilities "ATSSS-LL functionality with any steering mode" (as specified in clause\xa05.32.6.1) and the DNN configuration allows ATSSS-LL with any steering mode allowed for ATSSS-LL, the MA PDU Session is capable of ATSSS-LL with any steering mode allowed for ATSSS-LL in the uplink and in the downlink.', '', 'e)\tIf the UE includes in its ATSSS capabilities "MPTCP functionality with any steering mode and ATSSS-LL functionality with any steering mode" (as specified in clause\xa05.32.6.1), and the DNN configuration allows MPTCP and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), the MA PDU Session is capable of MPTCP and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the uplink and in the downlink.', '', 'f)\tIf the UE includes in its ATSSS capabilities "MPTCP functionality with any steering mode, and the MPQUIC functionality with any steering mode, and the ATSSS-LL functionality with any steering mode" (as specified in clause\xa05.32.6.1), and the DNN configuration allows MPTCP and MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), the MA PDU Session is capable of MPTCP and MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the uplink and in the downlink.', '', 'g)\tIf the UE includes in its ATSSS capabilities "MPTCP functionality with any steering mode, and the MPQUIC functionality with any steering mode, and the ATSSS-LL functionality with only the Active-Standby steering mode" (as specified in clause\xa05.32.6.1), then:', '', 'i)\tIf the DNN configuration allows MPTCP and MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), including RTT measurement without using PMF protocol, the MA PDU Session is capable of (1) MPTCP and MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink, and (2) MPTCP and MPQUIC and ATSSS-LL with Active-Standby mode in the uplink.', '', 'NOTE\xa05:\tIn this case, it is assumed that ATSSS-LL with "Smallest Delay" steering mode is selected for the downlink only when the UPF can measure RTT without using the PMF protocol, e.g. by using other means not defined by 3GPP such as using the RTT measurements of MPTCP or MPQUIC.', '', 'ii)\tIf the DNN configuration allows MPTCP and MPQUIC and ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL), but not RTT measurement without using PMF protocol, the MA PDU Session is capable of (1) MPTCP and MPQUIC in the downlink (2) ATSSS-LL with any steering mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink, and (3) MPTCP and MPQUIC and ATSSS-LL with Active-Standby mode in the uplink.', '', 'iii)\tIf the DNN configuration allows MPTCP and MPQUIC with any steering mode and ATSSS-LL with only Active-Standby steering mode, the MA PDU Session is capable of MPTCP and MPQUIC and ATSSS-LL with Active-Standby mode in the uplink and in the downlink.', '', '\tThe SMF provides the ATSSS capabilities of the MA PDU Session to the PCF during PDU Session Establishment.', '', '-\tThe PCC rules provided by PCF include MA PDU Session Control information (see TS\xa023.503\xa0[45]). They are used by SMF to derive ATSSS rules for the UE and N4 rules for the UPF. When dynamic PCC is not used for the MA PDU Session, the SMF shall provide ATSSS rules and N4 rules based on local configuration (e.g. based on DNN or S-NSSAI).', '', '-\tThe UE receives ATSSS rules from SMF, which indicate how the uplink traffic should be routed across 3GPP access and non-3GPP access. Similarly, the UPF receives N4 rules from SMF, which indicate how the downlink traffic should be routed across 3GPP access and non-3GPP access.', '', '-\tWhen the SMF receives a PDU Session Establishment Request and a "MA PDU Request" indication and determines that UP security protection (see clause\xa05.10.3) is required for the PDU Session, the SMF shall only confirm the establishment of the MA PDU session if the 3GPP access network can enforce the required UP security protection. The SMF needs not confirm whether the non-3GPP access can enforce the required UP security protection.', '', '-\tThe UE indicates during MA PDU Session Establishment to the AMF whether it supports non-3GPP access path switching, i.e. whether the UE can transfer the non-3GPP access path of the MA PDU Session from a source non-3GPP access (N3IWF/TNGF) to a target non-3GPP access (a different N3IWF/TNGF). If the UE has indicated support for non-3GPP access path switching and the AMF supports non-3GPP access path switching, the AMF selects an SMF that supports non-3GPP access path switching, if such an SMF is available. If the AMF supports to maintain two N2 connections for non-3GPP access during the Registration procedure and the selected SMF supports non-3GPP path switching, the AMF indicates whether the UE supports non-3GPP path switching to the SMF. The SMF indicates support for non-3GPP path switching to the UE in the PDU Session Establishment Accept message.', '', 'NOTE\xa06:\tIf the AMF selects an SMF not supporting non-3GPP access path switching, the non-3GPP access path switching can still be performed with the AMF triggering release of the old user plane resources before new user plane resources are established.', '', '-\tAfter the MA PDU Session establishment:', '', '-\tAt any given time, the MA PDU session may have user-plane resources on both 3GPP and non-3GPP accesses, or on one access only, or may have no user-plane resources on any access.', '', '-\tThe AMF, SMF, PCF and UPF maintain their MA PDU Session contexts, even when the UE deregisters from one access (but remains registered on the other access).', '', '-\tWhen the UE deregisters from one access (but remains registered on the other access), the AMF informs the SMF to release the resource of this access type in the UPF for the MA PDU Session. Subsequently, the SMF notifies the UPF that the access type has become unavailable and the N3/N9 tunnel for the access type are released.', '', '-\tIf the UE wants to add user-plane resources on one access of the MA PDU Session, e.g. based on access network performance measurement and/or ATSSS rules, then the UE shall send a PDU Session Establishment Request over this access containing PDU Session ID of the MA PDU Session. The UE also provides Request Type as "MA PDU Request" and the same PDU Session ID in the UL NAS Transport message. If there is no N3/N9 tunnel for this access, the N3/N9 tunnel for this access is established.', '', '-\tIf the UE wants to re-activate user-plane resources on one access of the MA PDU Session, e.g. based on access network performance measurement and/or ATSSS rules, then the UE shall initiate the UE Triggered Service Request procedure over this access.', '', '-\tIf the network wants to re-activate the user-plane resources over 3GPP access or non-3GPP access of the MA PDU Session, the network shall initiate the Network Triggered Service Request procedure, as specified in clause\xa04.22.7 of TS\xa023.502\xa0[3].', '', '-\tIf the UE wants to move the non-3GPP user-plane resources of the MA PDU Session from a source non-3GPP access (e.g. source N3IWF or TNGF) to a target non-3GPP access (e.g. target N3IWF or TNGF), the UE initiates a Mobility Registration Update via the target non-3GPP access as described in TS\xa023.502\xa0[3], clause\xa04.22.9.5. This procedure may also be used to move the non-3GPP user-plane resources of single access PDU Session(s).', '', 'NOTE\xa07:\tThe UE can request activation of single access PDU Session(s) over the target non-3GPP access while performing Mobility Registration Update procedure according to the existing procedure.', '', '-\tThe SMF may add, remove or update one or more individual ATSSS rules of the UE by sending new or updated ATSSS rules with the corresponding Rule IDs to the UE.', '', 'A MA PDU Session may be established either:', '', 'a)\twhen it is explicitly requested by an ATSSS-capable UE; or', '', 'b)\twhen an ATSSS-capable UE requests a single-access PDU Session but the network decides to establish a MA PDU Session instead. This is an optional scenario specified in clause\xa04.22.3 of TS\xa023.502\xa0[3], which may occur when the UE requests a single-access PDU Session but no policy (e.g. no URSP rule) and no local restrictions in the UE mandate a single access for the PDU Session.', '', 'A MA PDU Session may be established during a PDU Session modification procedure when the UE moves from EPS to 5GS, as specified in clause\xa04.22.6.3 of TS\xa023.502\xa0[3].', '', 'The AMF indicates as part of the Registration procedure whether ATSSS is supported or not. When ATSSS is not supported, the UE shall not', '', '-\trequest establishment of a MA PDU Session (as described in clause\xa04.22.2 of TS\xa023.502\xa0[3]); or', '', '-\trequest addition of User Plane resources for an existing MA PDU Session (as described in clause\xa04.22.7 of TS\xa023.502\xa0[3]); or', '', '-\trequest establishment of a PDU Session with "MA PDU Network-Upgrade Allowed" indication (as described in clause\xa04.22.3 of TS\xa023.502\xa0[3]); or', '', '-\trequest PDU Session Modification with Request Type of "MA PDU request" or with "MA PDU Network-Upgrade Allowed" indication after moving from EPC to 5GC (as described in clause\xa04.22.6.3 of TS\xa023.502\xa0[3]).', '', 'The AMF indicates as part of the Registration procedure whether it supports non-3GPP access path switching. When the AMF does not indicate support of non-3GPP access path switching, the UE shall not perform the Mobility Registration Update procedure for non-3GPP access path switching, i.e. to switch traffic from a source non-3GPP access to a target non-3GPP access. The SMF indicates as part of the PDU Session Establishment procedure whether it supports non-3GPP access path switching. If the SMF does not support non-3GPP access path switching, the UE does not include ("Non-3GPP path switching while using old AN resources") indication when the UE performs the Mobility Registration Update procedure for non-3GPP access path switching.', '', 'An ATSSS-capable UE may decide to request a MA PDU Session based on the provisioned URSP rules. In particular, the UE should request a MA PDU Session when the UE applies a URSP rule, which triggers the UE to establish a new PDU Session and the Access Type Preference component of the URSP rule indicates "Multi-Access" (see TS\xa023.503\xa0[45]).', '']</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.2056293459928703</v>
+        <v>0.2017453395215164</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.14.3	Output Analytics&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.32.8	ATSSS Rules&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1503,22 +1503,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['', 'The DN performance analytics is shown in table 6.14.3-1 and table 6.14.3-2.', '', 'Table 6.14.3-1: DN service performance statistics', '', 'Information', '', 'Description', '', 'Application ID', '', 'Identifies the application for which analytics information is provided.', '', 'S-NSSAI', '', 'Identifies the Network Slice for which analytics information is provided. See note\xa01.', '', 'DNN', '', 'Identifies the data network name (e.g. "internet") for which analytics information is provided. See NOTE\xa01.', '', 'DN performance (0-x)', '', 'List of DN performances for the application.', '', '  &amp;gt; Application Server Instance Address', '', 'Identifies the Application Server Instance (IP address/FQDN of the Application Server).', '', '  &amp;gt; Serving anchor UPF info', '', 'The UPF ID/address/FQDN information for the involved anchor UPF. See NOTE\xa01.', '', '  &amp;gt; DNAI', '', 'Identifier of a user plane access to one or more DN(s) where applications are deployed as defined in TS\xa023.501\xa0[2].', '', '  &amp;gt; Performance (NOTE\xa04)', '', 'Performance indicators.', '', '     &amp;gt;&amp;gt; Aggregated Traffic rate (NOTE\xa02, NOTE\xa05)', '', 'Aggregated traffic rate observed for the UE group or all UEs (i.e. any UE) communicating with the application.', '', '     &amp;gt;&amp;gt; Average Traffic rate (NOTE\xa02)', '', 'UE granularity level Average traffic rate observed for the UE group or all UEs communicating with the application, or Average traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; Maximum Traffic rate (NOTE\xa02)', '', 'UE granularity level Maximum traffic rate observed for the UE group or all UEs communicating with the application, or Maximum Traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; Minimum Traffic rate (NOTE\xa03)', '', 'UE granularity level Minimum traffic rate observed for the UE group or all UEs communicating with the application, or Minimum Traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; Variance Traffic rate (NOTE\xa02, NOTE\xa05)', '', 'UE granularity level Variance of the traffic rate observed for the UE group or all the UEs communicating with the application, or Variance Traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; UE ID or list of UE IDs for traffic rate performance (1..SUPImax) (NOTE\xa02, NOTE\xa05)', '', 'Identifies a UE or a list of UEs whose observed traffic rate is higher or lower than the Reporting Threshold.', '', '     &amp;gt;&amp;gt; Average Packet Delay (NOTE\xa02)', '', 'Average packet delay observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Delay (NOTE\xa02)', '', 'Maximum packet delay observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Delay (NOTE\xa02, NOTE\xa05)', '', 'Variance of packet delay observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; UE ID or list of UE IDs for packet delay performance (1..SUPImax) (NOTE\xa02, NOTE\xa05)', '', 'Identifies a UE or a list of UEs whose observed packet delay is higher or lower than the Reporting Threshold.', '', '     &amp;gt;&amp;gt; Average Packet Loss Rate (NOTE\xa02)', '', 'Average packet loss observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Loss Rate (NOTE\xa02)', '', 'Maximum packet loss observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Loss Rate (NOTE\xa02, NOTE\xa05)', '', 'Variance of packet loss rate observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; UE ID or list of UE IDs for packet loss performance (1..SUPImax) (NOTE\xa02, NOTE\xa05)', '', 'Identifies a UE or a list of UEs whose observed packet loss rate is higher than the Reporting Threshold.', '', '     &amp;gt;&amp;gt; Number of UEs (NOTE\xa02)', '', 'The observed number of UEs for the UE group or all UEs (i.e. any UE) communicating with the application in the DNAI.', '', '  &amp;gt; Spatial Validity Condition', '', 'Area (i.e. list of TAIs) where the DN performance analytics applies. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '  &amp;gt; Temporal Validity Condition', '', 'Validity period for the DN performance analytics. If a Temporal granularity size was provided in the request or subscription, the duration of this period is greater than or equal to the Temporal granularity size.', '', 'NOTE\xa01:\tThe item "Serving anchor UPF info" shall not be included if the consumer NF is an AF.', '', 'NOTE\xa02:\tAnalytics subset that can be used in "list of analytics subsets that are requested", "Preferred level of accuracy per analytics subset" and "Reporting Thresholds".', '', 'NOTE\xa03:\tMinimum traffic rate measurements are only derived from active traffic.', '', 'NOTE\xa04:\tPerformance statistics may not be applicable to short group operation cycle for the given application.', '', 'NOTE\xa05:\tAnalytics subset that can be used to support aggregated UE performance monitoring and exposure for a group of UEs.', '', '', '', 'Table 6.14.3-2: DN service performance predictions', '', 'Information', '', 'Description', '', 'Application ID', '', 'Identifies the application for which analytics information is provided.', '', 'S-NSSAI', '', 'Identifies the Network Slice for which analytics information is provided. See NOTE\xa01.', '', 'DNN', '', 'Identifies the data network name (e.g. internet) for which analytics information is provided. See NOTE\xa01.', '', 'DN performance (0-x)', '', 'List of DN performance for the application.', '', '  &amp;gt; Application Server Instance Address', '', 'Identifies the Application Server Instance (IP address/FQDN of the Application Server).', '', '  &amp;gt; Serving anchor UPF info', '', 'The UPF ID/address/FQDN information for the involved anchor UPF. See NOTE\xa01.', '', '  &amp;gt; DNAI', '', 'Identifier of a user plane access to one or more DN(s) where applications are deployed as defined in TS\xa023.501\xa0[2].', '', '  &amp;gt; Performance', '', 'Performance indicators.', '', '     &amp;gt;&amp;gt; Aggregated Traffic rate (NOTE\xa02)', '', 'Aggregated traffic rate predicted for the UE group or all UEs (i.e. any UE) communicating with the application.', '', '     &amp;gt;&amp;gt; Average Traffic rate (NOTE\xa02)', '', 'UE granularity level Average traffic rate predicted for the UE group or all UEs communicating with the application, or Average traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Maximum Traffic rate (NOTE\xa02)', '', 'UE granularity level Maximum traffic rate predicted for the UE group or all UEs communicating with the application, or Maximum Traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Minimum Traffic rate (NOTE\xa03)', '', 'UE granularity level Minimum traffic rate predicted for the UE group or all UEs communicating with the application, or Minimum Traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Variance Traffic rate (NOTE\xa02)', '', 'UE granularity level Variance of the traffic rate predicted for the UE group or all the UEs communicating with the application, or Variance Traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Average Packet Delay (NOTE\xa02)', '', 'Average packet delay predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Delay (NOTE\xa02)', '', 'Maximum packet delay for predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Delay (NOTE\xa02)', '', 'Variance of packet delay predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Average Packet Loss Rate (NOTE\xa02)', '', 'Average packet loss predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Loss Rate (NOTE\xa02)', '', 'Maximum packet loss predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Loss Rate (NOTE\xa02)', '', 'Variance of packet loss rate predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Number of UEs (NOTE\xa02)', '', 'The predicted number of UEs for the UE group or all UEs (i.e. any UE) communicating with the application in the DNAI.', '', '  &amp;gt; Spatial Validity Condition', '', 'Area (i.e. list of TAIs) where the DN performance analytics applies. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '  &amp;gt; Temporal Validity Condition', '', 'Validity period for the DN performance analytics. If a Temporal granularity size was provided in the request or subscription, the duration of this period is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Confidence', '', 'Confidence of this prediction.', '', 'NOTE\xa01:\tThe item "Serving anchor UPF info" shall not be included if the consumer is an AF.', '', 'NOTE\xa02:\tAnalytics subset that can be used in "list of analytics subsets that are requested", "Preferred level of accuracy per analytics subset" and "Reporting Thresholds".', '', 'NOTE\xa03:\tMinimum traffic rate measurements are only derived from active traffic.', '', '', '']</t>
+          <t>['', 'As specified in clause\xa05.32.3, after the establishment of a MA PDU Session, the UE receives a prioritized list of ATSSS rules from the SMF. The structure of an ATSSS rule is specified in Table 5.32.8-1.', '', 'Table 5.32.8-1: Structure of ATSSS Rule', '', 'Information name', '', 'Description', '', 'Category', '', 'SMF permitted to modify in a PDU context', '', 'Scope', '', '&lt;b&gt;Rule identifier&lt;/b&gt;', '', 'Unique identifier to identify the ATSSS Rule', '', 'Mandatory', '', 'No', '', 'PDU context', '', 'Rule Precedence', '', 'Determines the order in which the ATSSS rule is evaluated in the UE.', '', 'Mandatory', '', '(NOTE\xa01)', '', 'Yes', '', 'PDU context', '', '&lt;b&gt;Traffic Descriptor&lt;/b&gt;', '', '&lt;i&gt;This part defines the Traffic descriptor components for the ATSSS rule.&lt;/i&gt;', '', 'Mandatory', '', '(NOTE\xa02)', '', '', '', '', '', 'Application descriptors', '', 'One or more application identities that identify the application(s) generating the traffic (NOTE\xa03).', '', 'Optional', '', 'Yes', '', 'PDU context', '', 'IP descriptors', '', '(NOTE\xa04)', '', 'One or more 5-tuples that identify the destination of IP traffic.', '', 'Optional', '', 'Yes', '', 'PDU context', '', 'Non-IP descriptors', '', '(NOTE\xa04)', '', 'One or more descriptors that identify the destination of non-IP traffic, i.e. of Ethernet traffic.', '', 'Optional', '', 'Yes', '', 'PDU context', '', '&lt;b&gt;Access Selection Descriptor&lt;/b&gt;', '', '&lt;i&gt;This part defines the Access Selection Descriptor components for the ATSSS rule.&lt;/i&gt;', '', 'Mandatory', '', '', '', '', '', 'Steering Mode', '', 'Identifies the steering mode that should be applied for the matching traffic and associated parameters.', '', 'Mandatory', '', '(NOTE\xa08)', '', 'Yes', '', 'PDU context', '', 'Steering Mode Indicator', '', 'Indicates either autonomous load-balance operation or UE-assistance operation if steering mode is set to "Load Balancing".', '', 'Optional', '', '(NOTE\xa06)', '', 'Yes', '', 'PDU context', '', 'Threshold Values', '', '(NOTE\xa09)', '', 'A Maximum RTT and/or a Maximum Packet Loss Rate.', '', 'Optional', '', '(NOTE\xa06)', '', 'Yes', '', 'PDU context', '', 'Steering Functionality', '', 'Identifies whether the MPTCP functionality, the MPQUIC functionality, or the ATSSS-LL functionality should be applied for the matching traffic.', '', 'Optional', '', '(NOTE\xa05)', '', '(NOTE\xa08)', '', 'Yes', '', 'PDU context', '', 'Transport Mode', '', 'Identifies the transport mode (see clause\xa05.32.6.2.2.1) that should be used for the matching traffic, when the Steering Functionality is the MPQUIC functionality.', '', 'Optional', '', '(NOTE 7)', '', '', '', 'Yes', '', 'PDU context', '', 'NOTE\xa01:\tEach ATSSS rule has a different precedence value from the other ATSSS rules.', '', 'NOTE\xa02:\tAt least one of the Traffic Descriptor components is present.', '', 'NOTE\xa03:\tAn application identity consists of an OSId and an OSAppId.', '', 'NOTE\xa04:\tAn ATSSS rule cannot contain both IP descriptors and Non-IP descriptors.', '', 'NOTE\xa05:\tIf the UE supports only one Steering Functionality, this component is omitted.', '', 'NOTE\xa06:\tThe Steering Mode Indicator and the Threshold Values shall not be provided together.', '', 'NOTE\xa07:\tThe Transport Mode shall be included when the Steering Functionality is the MPQUIC functionality. In all other cases, the Transport Mode shall not be included.', '', 'NOTE\xa08:\tThe Steering functionality "ATSSS-LL functionality" shall not be provided together with Steering Mode "Redundant".', '', 'NOTE\xa09:\tIf the Steering Mode is "Redundant", either a Maximum RTT or a Maximum Packet Loss Rate may be provided, but not both.', '', '', '', 'The UE evaluates the ATSSS rules in priority order.', '', 'Each ATSSS rule contains a Traffic Descriptor (containing one or more components described in Table 5.32.8-1) that determines when the rule is applicable. An ATSSS rule is determined to be applicable when every component in the Traffic Descriptor matches the considered service data flow (SDF).', '', 'Depending on the type of the MA PDU Session, the Traffic Descriptor may contain the following components (the details of the Traffic Descriptor generation are described in clause\xa05.32.3):', '', '-\tFor IPv4, or IPv6, or IPv4v6 type: Application descriptors and/or IP descriptors.', '', '-\tFor Ethernet type: Application descriptors and/or Non-IP descriptors.', '', 'One ATSSS rule with a "match all" Traffic Descriptor may be provided, which matches all SDFs. When provided, it shall have the least Rule Precedence value, so it shall be the last one evaluated by the UE.', '', 'NOTE\xa01:\tThe format of the "match all" Traffic descriptor of an ATSSS rule is defined in stage-3.', '', 'Each ATSSS rule contains an Access Selection Descriptor that contains the following components:', '', '-\tA Steering Mode, which determines how the traffic of the matching SDF should be distributed across 3GPP and non-3GPP accesses. The following Steering Modes are supported:', '', '-\tActive-Standby: It is used to steer a SDF on one access (the Active access), when this access is available, and to switch the SDF to the available other access (the Standby access), when Active access becomes unavailable. When the Active access becomes available again, the SDF is switched back to this access. If the Standby access is not defined, then the SDF is only allowed on the Active access and cannot be transferred on another access.', '', '-\tSmallest Delay: It is used to steer a SDF to the access that is determined to have the smallest Round-Trip Time (RTT). As defined in clause\xa05.32.5, measurements may be obtained by the UE and UPF to determine the RTT over 3GPP access and over non-3GPP access. In addition, if one access becomes unavailable, all SDF traffic is switched to the other available access. It can only be used for the Non-GBR SDF.', '', '-\tLoad-Balancing: It is used to split a SDF across both accesses if both accesses are available. It contains the percentage of the SDF traffic that should be sent over 3GPP access and over non-3GPP access. Load-Balancing is only applicable to Non-GBR SDF. In addition, if one access becomes unavailable, all SDF traffic is switched to the other available access, as if the percentage of the SDF traffic transported via the available access was 100%.', '', '-\tPriority-based: It is used to steer all the traffic of an SDF to the high priority access, until this access is determined to be congested. In this case, the traffic of the SDF is sent also to the low priority access, i.e. the SDF traffic is split over the two accesses. In addition, when the high priority access becomes unavailable, all SDF traffic is switched to the low priority access. How UE and UPF determine when a congestion occurs on an access is implementation dependent. It can only be used for the Non-GBR SDF.', '', '-\tRedundant (without Threshold Values): It is used to duplicate traffic of an SDF on both accesses if both accesses are available. A Primary Access (either 3GPP access or Non-3GPP access) may be provided to the UE in the ATSSS rules and to the UPF in the N4 rules. If a Primary Access is provided, UE and UPF shall send all data packets of the SDF on the Primary Access and may duplicate data packets of the SDF on the other access. How many and which data packets are duplicated by UE and UPF on the other access is based on implementation. If the Primary Access is not provided to UE and UPF, the UE and UPF shall send all data packets of the SDF on both accesses. It can be used for GBR and Non-GBR SDF.', '', '-\tA Steering Mode Indicator, which indicates that the UE may change the default steering parameters provided in the Steering Mode component and may adjust the traffic steering based on its own decisions. Only one of the following Steering Mode Indicators may be provided:', '', '-\tAutonomous load-balance indicator: This indicator may be provided only when the Steering Mode is Load-Balancing. When provided, the UE may ignore the percentages in the Steering Mode component (i.e. the default percentages provided by the network) and may autonomously determine its own percentages for traffic splitting, in a way that maximizes the aggregated bandwidth in the uplink direction. The UE is expected to determine its own percentages for traffic splitting by performing measurements across the two accesses. The UPF may apply a similar behaviour when the autonomous load-balance indicator is included in an N4 rule.', '', "-\tUE-assistance indicator: This indicator may be provided only when the Steering Mode is Load-Balancing. When provided by the network, it indicates that (a) the UE may decide how to distribute the UL traffic of the matching SDF based on the UE's internal state (e.g. when the UE is in the special internal state, e.g. lower battery level), and that (b) the UE may inform the UPF how it decided to distribute the UL traffic of the matching SDF. In the normal cases, although with this indicator provided, the UE shall distribute the UL traffic as indicated by the network.", '', 'NOTE\xa02:\tTypically, the UE-assistance indicator can be provided for SDFs for which the network has no strong steering requirements. For example, when the network has no strong steering requirements for the default traffic of an MA PDU Session, the network can indicate (i) that this traffic must be steered with Load-Balancing steering mode using 50% - 50% split percentages, and (ii) that the UE is allowed to use other split percentages, such as 0% - 100%, if this is needed by the UE to optimize its operation (e.g. to minimize its battery consumption).', '', '-\tThreshold Values: One or more threshold values may be provided when the Steering Mode is Priority-based or when the Steering Mode is Load-Balancing with fixed split percentages (i.e. without the Autonomous load-balance indicator or UE assistance indicator). One threshold value may be provided when the Steering Mode is Redundant. A threshold value may be either a value for RTT or a value for Packet Loss Rate. The threshold values are applicable to both accesses and are applied by the UE and UPF as follows:', '', '-\tLoad-Balancing Steering Mode with fixed split percentages (i.e. without the Autonomous load-balance indicator or UE assistance indicator): When at least one measured parameter (i.e. RTT or Packet Loss Rate) on one access exceeds the provided threshold value, the UE and UPF may stop sending traffic on this access, or may continue sending traffic on this access but should reduce the traffic on this access by an implementation specific amount and shall send the amount of reduced traffic on the other access. When all measured parameters (i.e. RTT and Packet Loss Rate) for both accesses do not exceed the provided threshold values, the UE and UPF shall apply the fixed split percentages.', '', '-\tPriority-based Steering Mode: When one or more threshold values are provided for the Priority-based Steering Mode, these threshold values should be considered by UE and UPF to determine when an access becomes congested. For example, when a measured parameter (i.e. RTT or Packet Loss Rate) on one access exceeds the provided threshold value, the UE and UPF may consider this access as congested and send the traffic also to the low priority access.', '', '-\tRedundant Steering Mode: When the measured Packet Loss Rate exceeds the provided threshold value on both accesses, the UE and UPF shall duplicate the traffic of the SDF on both accesses. When the measured RTT exceeds the provided threshold value on both accesses, the UE and UPF may duplicate the traffic of the SDF on both accesses based on implementation. When the measured parameter (i.e. either RTT or Packet Loss Rate) exceeds the provided threshold value on one access only, the UE and UPF shall send the traffic of the SDF only over the other access. When the measured parameter (i.e. either RTT or Packet Loss Rate) does not exceed the provided threshold value on any access, the UE and UPF shall send the traffic of the SDF only over the Primary Access. The Primary Access (either 3GPP access or Non-3GPP access) may be provided to the UE in the ATSSS rules and to the UPF in the N4 rules. If the Primary Access is not provided to the UE and UPF, UE and UPF shall select a Primary Access based on their own implementation (e.g. using the lowest RTT access or the lowest Packet Loss Rate access). If measurement results on an access are not available for a parameter, it is considered that the measured parameter for this access has not exceeded the provided threshold value. If a threshold value is provided when the Steering Mode is Redundant, the Steering Mode can only be used for Non-GBR SDF.', '', '-\tA Steering Functionality, which identifies whether the MPTCP functionality, or the MPQUIC functionality, or the ATSSS-LL functionality should be used to steer the traffic of the matching SDF. This is used when the UE supports multiple functionalities for ATSSS, as specified in clause\xa05.32.6 ("Support of Steering Functions").', '', '-\tA Transport Mode, which identifies the transport mode that should be applied by the MPQUIC functionality for the matching traffic. The transport modes supported by the MPQUIC functionality are defined in clause\xa05.32.6.2.2.1.', '', 'NOTE\xa03:\tThere is no need to update the ATSSS rules when one access becomes unavailable or available.', '', 'As an example, the following ATSSS rules could be provided to UE:', '', 'a)\t"Traffic Descriptor: UDP, DestAddr 1.2.3.4", "Steering Mode: Active-Standby, Active=3GPP, Standby=non-3GPP":', '', '-\tThis rule means "steer UDP traffic with destination IP address 1.2.3.4 to the active access (3GPP), if available. If the active access is not available, use the standby access (non-3GPP)".', '', 'b)\t"Traffic Descriptor: TCP, DestPort 8080", "Steering Mode: Smallest Delay":', '', '-\tThis rule means "steer TCP traffic with destination port 8080 to the access with the smallest delay". The UE needs to measure the RTT over both accesses, in order to determine which access has the smallest delay.', '', 'c)\t"Traffic Descriptor: TCP traffic of Application-1", "Steering Mode: Load-Balancing, 3GPP=20%, non-3GPP=80%", "Steering Functionality: MPTCP":', '', '-\tThis rule means "send 20% of the TCP traffic of Application-1 to 3GPP access and 80% to non-3GPP access by using the MPTCP functionality".', '', 'd)\t"Traffic Descriptor: TCP traffic of Application-1", "Steering Mode: Load-Balancing, 3GPP=20%, non-3GPP=80%, "Threshold Value for Packet Loss Rate: 1%", "Steering Functionality: MPTCP":', '', '-\tThis rule means "send 20% of the TCP traffic of Application-1 to 3GPP access and 80% to non-3GPP access as long as the Packet Loss Rate does not exceed 1% on both accesses, by using the MPTCP functionality. If the measured Packet Loss Rate of an access exceeds 1%, then the TCP traffic of Application-1 may be reduced on this access and sent via the other access".', '', 'e)\t"Traffic Descriptor: UDP traffic of Application-1", "Steering Mode: Load-Balancing, 3GPP=30%, non-3GPP=70%", "Steering Functionality: MPQUIC", "Transport Mode: Datagram mode 1":', '', '-\tThis rule means "send 30% of the UDP traffic of Application-1 to 3GPP access and 70% to non-3GPP access by using the MPQUIC functionality with the Datagram mode 1".', '', 'f)\t"Traffic Descriptor: com.example.app0, TCP", "Steering Mode: Redundant", "Steering Functionality: MPTCP":', '', '-\tThis rule means "traffic duplication is applied by the MPTCP steering functionality to the TCP traffic of application com.example.app0 and 100% of the traffic is duplicated over both accesses".', '', 'g)\t"Traffic Descriptor: com.example.app1, TCP", "Steering Mode: Redundant, Primary Access=3GPP, Threshold Value for Packet Loss Rate: 0.1%", "Steering Functionality: MPTCP":', '', '-\tThis rule means "traffic duplication is applied to the TCP traffic of application com.example.app1. If the measured PLR exceeds 0.1% on both accesses, all matched traffic is duplicated on both accesses. If the measured PLR exceeds 0.1% on one access only (either 3GPP or non-3GPP access), all matched traffic is sent over the other access only. If the measured PLR does not exceed 0.1% on any access, all matched traffic is sent over 3GPP access only as this is the Primary Access".', '', 'h)\t"Traffic Descriptor: com.example.app2, TCP", "Steering Mode: Redundant, Threshold Value for Packet Loss Rate: 0.1%", "Steering Functionality: MPTCP".', '', '-\tThis rule means "traffic duplication is applied to the TCP traffic of application com.example.app2. If the measured PLR exceeds 0.1% on both accesses, all matched traffic is duplicated and transmitted on both accesses. If the measured PLR exceeds 0.1% on one access only (either 3GPP or non-3GPP access), all matched traffic is sent over the other access only. If the measured PLR does not exceed 0.1% on any access, the UE or UPF selects the access based on their own implementation, e.g. the access with lower Packet Loss Rate to transmit all matched traffic".', '']</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.1886573497193035</v>
+        <v>0.2122374842812737</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.16.1	Reporting of Location Events to an LCS Client or AF via user plane&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.33.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>23273-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1528,22 +1528,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['', 'Figure 6.16.1-1 shows a procedure for event reporting from a UE to an LCS Client or AF when a User Plane connection is established directly from the UE to the LCS Client or AF. This procedure is applicable when the target UE is able to determine its location.', '', '----media/image45.emf----', '', 'Figure 6.16.3-1: Reporting of Location Events to an LCS Client or AF via user plane', '', '1.\tSteps 1-21 in clause\xa06.3.1 for the deferred 5GC-MT-LR procedure for periodic or triggered location are performed with the following differences.', '', '-\tAt step\xa01, the LCS Client or AF includes a request for user plane reporting in the LCS Service Request and may include a user plane address of the LCS Client or AF and security information to enable a secure connection. The H-GMLC verifies that both the target UE and the LCS Client or AF are subscribed to user plane reporting. If the LCS Client or AF did not include a user plane address or security information, the H-GMLC obtains a default user plane address and/or default security information from subscription data for the LCS Client or AF. The H-GMLC determines criteria for sending cumulative events reports over control plane. The criteria can include a cumulative event report timer and/or a maximum number of user plane event reports.', '', '-\tAt steps 4, 5 and 14, the request for user plane reporting, the user plane address, the security information and the criteria for sending cumulative events reports over control plane are forwarded in sequence to the V-GMLC (if used), serving AMF and LMF.', '', '-\tAt step\xa014 or step\xa015, the LMF gets the UE capabilities and verifies that the UE is able to support position methods that allow the UE to determine its own location.', '', '-\tAt step\xa016, the LMF includes the request for user plane reporting, the user plane address, the security information and the criteria for sending cumulative events reports in the supplementary services LCS Periodic-Triggered Invoke Request sent to the target UE.', '', '-\tAt step\xa017, the target UE indicates to the LMF whether event reporting via user plane can be supported by the target UE. If event reporting via user plane cannot be supported by the target UE, a failure response is returned to the LCS Client or AF at steps 18-21.', '', '2.\tThe UE establishes a secure user plane connection with TLS to the LCS Client or AF using the user plane address and the security information received at step\xa01.', '', "Editor's note:\tSupport of a secure user plane connection and suitable security information needs to be determined by SA\xa0WG3. The type of user plane connection (e.g. TCP/IP) needs to be determined at stage 3.", '', '3.\tThe UE monitors for and detects the occurrence of a trigger or periodic event as described for step\xa022 of the procedure in clause\xa06.3.1.', '', '4a.\tThe UE obtains location measurements and determines a current location.', '', '4b.\tIf the UE is unable to determine its location at step\xa04a, the UE sends an event report to the LCS Client or AF over control plane as described for steps 24-30 in clause\xa06.3.1.', '', '5.\tThe UE sends an Event Report to the LCS Client or AF over the secure user plane connection established at step\xa02. The event report indicates the type of event being reported and includes the location determined at step\xa04a.', '', '6.\tThe LCS Client or AF may return an Event Report Acknowledgment to the UE over the secure user plane with TLS connection established at step\xa02.', '', "Editor's note:\tWhether the event report and event report acknowledgment reuse existing supplementary services messages or are defined using a new protocol needs to be determined at stage 3.", '', '7.\tThe UE continues to monitor for and detect further trigger or periodic events as at step\xa03 and repeats steps 4-6 for each detected trigger or periodic event.', '', '8.\tThe UE monitors the criteria received at step\xa01 for sending of cumulative event reports. If a cumulative event report timer was received at step\xa01, the UE starts the timer following step\xa01 and after each cumulative event report is sent. If a maximum number of user plane event reports was received at step\xa01, the UE maintains a count of the number of user plane event reports sent at step\xa05. When the cumulative event report timer expires or when the count of user plane events reports sent at step\xa05 reaches the maximum number of user plane event reports, the UE sends a cumulative event report and restarts the timer and the count of user plane event reports. The UE sends the cumulative event report to the LMF, H-GMLC and LCS Client or AF over the control plane portion of the periodic or triggered deferred 5GC-MT-LR using steps 25-30 of the procedure in clause\xa06.3.1. The cumulative event report indicates to the LMF, H-GMLC and External LCS Client or AF that the control plane portion of the periodic or triggered deferred 5GC-MT-LR is still active, that the UE is reporting events via user plane and may include statistics on the events reported since the last cumulative event report was sent (e.g. the number of event reports).', '', '\tA target UE may also send a cumulative event report at step\xa08 to obtain assistance data from the LMF to assist with location at step\xa04a. In this case, the target UE includes a positioning LPP request for assistance data in the cumulative event report sent to the LMF at step\xa025 in clause\xa06.3.1 and the LMF uses step\xa027 in clause\xa06.3.1. to return the requested assistance data to the target UE. In this case, the cumulative event report timer and the count of user plane event reports are restarted and a cumulative event report is sent on to the H-GMLC and LCS Client or AF by the LMF (but without the embedded positioning LPP request for assistance data).', '', '\tDuring step\xa08, the LMF change procedure in clause\xa06.4 may be used to forward the cumulative event report (and any request for assistance data) to another LMF if the current LMF can no longer support the periodic or triggered MT-LR due to a change in target UE location (e.g. a change to the target UE TAI). In this case, the new LMF can return any assistance data to the UE (if this was requested) and can forward the cumulative event report to the H-GMLC and LCS Client or AF.', '', 'NOTE:\tWhen using step\xa08 to request assistance data, the UE may perform step\xa08 well before performing step\xa04a for a user plane event report in order to avoid extra delay in sending the user plane event report.', '', '9.\tAfter the UE has sent the final event report and received an acknowledgment using steps 5 and 6 or step\xa04b, the UE shall release the user plane connection to the LCS Client or AF if the LCS Client or AF has not yet initiated release of the user plane connection', '']</t>
+          <t>['', 'The following features described in 5.33 may be used to enhance 5GS to support Ultra Reliable Low Latency Communication (URLLC):', '', '-\tRedundant transmission for high reliability communication.', '', 'In this Release, URLLC applies to 3GPP access only.', '', 'When a PDU Session is to serve URLLC QoS Flow, the UE and SMF should establish the PDU Session as always-on PDU Session as described in clause\xa05.6.13.', '', 'NOTE\xa01:\tHow the UE knows whether a PDU Session is to serve a URLLC QoS Flow when triggering PDU Session establishment is up to UE implementation.', '', 'NOTE\xa02:\tNo additional functionality is specified for URLLC in order to support Home Routed roaming scenario in this Release.', '']</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.197770808163225</v>
+        <v>0.2045808774755079</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.18.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.33.3	QoS Monitoring for packet delay&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['', 'Clause\xa06.18 describes how NWDAF can provide E2E data volume transfer time analytics, in the form of statistics or predictions or both, to a service consumer. NWDAF collects E2E data volume transfer time related input data from 5GC NFs, OAM and AF. The consumer can either subscribe to analytics notifications (i.e. a Subscribe-Notify model) or request a single notification (i.e. a Request-Response model).', '', 'The E2E data volume transfer time refers to a time delay for completing the transmission of a specific data volume from UE to AF, or from AF to UE. If a target number of repeating data transmissions or a target time interval between data transmissions is given, the E2E data volume transfer time can be provided as an average value of every data volume transfer time within the Analytics target period. The E2E data volume transfer time analytics may be used to assist an AF hosting AI/ML-based services, e.g. for member selection of federated learning.', '', 'The E2E data volume transfer time analytics may be provided as defined in clause\xa06.18.3 for a UE individually or a list of UEs.', '', 'More than one E2E data volume transfer time classes might be assigned by operator or AF for a group of UEs. The UEs might be classified to high-, medium-, and low-transfer time classes with respect to the threshold(s) of the corresponding class.', '', 'The service consumer may be an NF (e.g. AF, or NEF).', '', 'The consumer of these analytics may indicate in the request:', '', '-\tAnalytics ID = "E2E data volume transfer time ".', '', '-\tTarget of Analytics Reporting: a single UE (SUPI/GPSI) or a group of UEs (a list of SUPIs/GPSIs).', '', '-\tAnalytics Filter Information optionally including:', '', '-\tDNN;', '', '-\tS-NSSAI;', '', '-\tApplication ID;', '', '-\tArea of Interest (AOI(s)): restricts the scope of the E2E data volume transfer time analytics to the provided area;', '', '-\tAn optional list of analytics subsets that are requested (see clause\xa06.18.3);', '', '-\tData Volume UL/DL: indicates a specific data volume transmitted once from UE to AF and/or from AF to UE;', '', '-\tQoS requirements (e.g. 5QI, QoS Characteristics);', '', '-\tOptionally, either a target number of repeating data transmissions or a target time interval between data transmissions within the Analytics target period;', '', '-\tOptionally, a request for geographical distribution (i.e. the AoIs) of the UEs.', '', '-\tAn Analytics target period indicates the time period over which the statistics or predictions are requested.', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address are included.', '', '-\tOptionally, preferred level of accuracy of the analytics.', '', '-\tOptional preferred order of results for the list of E2E data volume transfer time:', '', '-\tordering criterion: "E2E data volume transfer time",', '', '-\torder: ascending or descending.', '', '-\tOptionally, Reporting Thresholds, which indicate conditions on the level to be reached for respective analytics subsets (see clause\xa06.18.3)', '', '-\tOptionally, maximum number of UEs.', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.1925576992359293</v>
+        <v>0.2862987716992696</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.18.2	Input Data&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.35A.4	MBSR authorization&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,22 +1578,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>['', 'The NWDAF supporting analytics on E2E data volume transfer time shall be able to collect E2E data volume transfer time information from AF, OAM and 5GC NFs.', '', 'More detailed information collected by the NWDAF from the OAM is defined in the Table 6.18.2-1, from relevant 5GC NFs (i.e. UPF, SMF, AMF) is defined in Table 6.18.2-2, and from AF is defined in Table 6.18.2-3.', '', 'Table 6.18.2-1: Input data from OAM related to E2E data volume transfer time', '', 'Information', '', 'Source', '', 'Description', '', 'RAN part delay', '', 'OAM TS\xa028.554\xa0[10]', '', 'Average packet transmission delay through the RAN part to the UE, per timeslot, per 5QI and per S-NSSAI.', '', 'Timestamp', '', 'OAM', '', 'A time stamp associated with the collected information.', '', 'RAN Throughput for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the throughput for DL and UL as specified in clauses 5.2.1.1 and 5.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet delay for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet delay for DL and UL, including per DRB per UE packet delay as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet loss rate for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet loss rate for DL and UL, including the per DRB per UE packet loss rate as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'Average UL/DL packet delay between PSA UPF and UE', '', 'OAM', '', 'The average of UL/DL packet delay between PSA UPF and UE as captured in clauses 5.4.9.1.1 and 5.4.9.2.1 in TS\xa028.552\xa0[8].', '', 'NOTE\xa01:\tPer UE measurement for a specific UE from OAM (via MDT), is as captured in clause\xa06.2.3.1.', '', '', '', "Editor's note:\tThe inclusion of the following OAM inputs: &lt;i&gt;RAN part delay&lt;/i&gt; and Average &lt;i&gt;UL/DL packed delay between PSA UPF and UE&lt;/i&gt; is subject to SA\xa0WG5 verification.", '', 'NWDAF subscribes the network data from OAM in the Table 6.18.2-1 by using the services provided by OAM as described in clause\xa06.2.3.', '', 'NOTE\xa01:\tWhether the UE(s) is supporting a Slice or not can be checked by retrieving the registered AMF details from UDM or by asking AMF about what Slice is used by the UE(s) at the current registration (Alternatively, if NSACF is deployed, NSACF can provide a report on what slices are used by the UE(s)).', '', 'NOTE\xa02:\tUser consent checking from UDM can apply for these analytics.', '', 'Table 6.18.2-2: Service Data from 5GC NFs for E2E data volume transfer time analytics', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', '5GC NF', '', 'A time stamp associated with the collected information.', '', 'UE location', '', 'AMF, GMLC', '', 'Location of the UE(s) needs to be selected via AMF if the application needs to be started at the same time. If the AoI indicated by the AF is a finer granularity area than the Cell level, the current location of the UE(s) needs to be selected via GMLC instead.', '', 'UE ID', '', 'AMF', '', '(list of) SUPI(s).', '', '5QI', '', 'SMF', '', 'A reference to 5G QoS characteristics.', '', 'QoS flow Packet Delay', '', 'SMF, UPF', '', 'The observed Packet delay for UL/DL/round trip directions between UE and PSA_UPF.', '', 'RAT Type', '', 'SMF', '', 'The RAT types the UE camps on.', '', 'Access Type', '', 'SMF', '', 'The list of Access Type(s) used for the PDU Session.', '', '', '', 'Table 6.18.2-3: Service Data from AF for E2E data volume transfer time analytics', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', 'AF', '', 'Timestamp of the collected information.', '', 'Application ID', '', 'AF', '', 'Identifier of the application at the AF.', '', 'UE ID(s)', '', 'AF', '', 'Internal or External UE IDs (i.e. SUPI or GPSI, respectively).', '', 'Transmitted UL/DL data volume', '', 'AF', '', 'The volume of the transmitted UL/DL data.', '', 'UL/DL transmission time duration', '', 'AF', '', 'The time duration (start and end time) needed for sending the volume of UL/DL data.', '', 'Application Server Instance information', '', 'AF', '', 'The IP address/FQDN of the Application Server.', '', '', '', 'NOTE\xa03:\tHow to derive the time delay for sending a specific data volume between UPF and AF on N6 interface is out of scope of the present specification.', '']</t>
+          <t>['', 'For a MBSR, the subscription information stored in the HPLMN indicates whether it is authorized to operate as MBSR, and the corresponding location and time periods.', '', 'NOTE\xa01:\tFor non-roaming MBSRs, the operator local policy can be taken into consideration for MBSR authorization, e.g. based on the network status, or a limit on the number of MBSRs operating in a certain area.', '', 'When the MBSR (IAB-UE) performs initial registration with the serving PLMN, it indicates the request to operate as a MBSR as described in clause\xa05.35A.1. The AMF authorizes the MBSR based on the subscription information, and provides MBSR authorized indication to the MBSR node over NAS and NG-RAN over NGAP as described in the registration procedure in TS\xa023.502\xa0[3]. The MBSR establishes the connection to OAM system using the configuration information for MBSR operation upon the reception of MBSR authorization indication (authorized).', '', 'When MBSR roaming is supported, a roaming agreement between VPLMN and HPLMN regarding MBSR operation is in place. The AMF can make use of the subscription data for authorization of the MBSR in the V-PLMN.', '', 'MBSR (IAB-DU) can use IAB-node integration procedure or inter-IAB-donor gNB mobility procedure to integrate into the serving PLMN to provide service.', '', 'NOTE\xa02:\tHow the MBSR obtains the configuration information for MBSR operation is described in clause\xa05.35A.2.', '', 'If the MBSR operation is not authorized (e.g. due to location or time limitation), the AMF of the MBSR can indicate to the MBSR IAB-UE that it is not allowed to act as an MBSR, i.e. the MBSR authorization indication (not authorized), as part of registration procedure. In this case, the AMF includes the MBSR authorization indication (not authorized) to donor-gNB. The AMF may provide the indication either in a Registration Accept (if the PLMN allows the MBSR IAB-UE to be registered in the PLMM) or in a Registration Reject (if the PLMN does not allow the MBSR IAB-UE to be registered in the PLMN) message. The MBSR provides the authorization indication (not authorized) to its AS layer. The AMF may provide additional information to the MBSR regarding the authorization indication (not authorized) to assist the MBSR behaviour control.', '', "Editor's note:\tThe details of the additional information and corresponding MBSR behaviour will be added.", '', "Editor's note:\tWhether the MBSR needs to provide the authorization indication (not authorized) to its AS layer will be further synch with RAN\xa0WGs.", '', 'When the MBSR authorization state changes for a registered MBSR node (either authorized, or not authorized), the AMF updates the MBSR and the NG-RAN accordingly. Based on the operator configuration, the AMF may use either Deregistration (including the option with re-registration required indication) or the UE Configuration Update procedure to inform the MBSR regarding the updated authorization status:', '', '-\tWhen Deregistration procedure is used, AMF provides the new authorization indication and the additional information, e.g. proper cause code, when the MBSR performs Registration procedure after the deregistration.', '', '-\tWhen UE Configuration Update procedure is used, the AMF provides the new authorization indication and additional information to the MBSR in the UE Configuration Update Command. The MBSR provides the new authorization indication to its AS layer.', '', 'The AMF informs the NG-RAN of the new authorization status using UE Context Modification, Initial Context Setup procedure or the DOWNLINK NAS TRANSPORT message, with the following principles:', '', '-\tIf the authorization state changes from authorized to not authorized and AMF uses the UE Configuration Updated procedure to update the MBSR, the AMF updates the NG-RAN with the new authorization indication (not authorized) by including this information in the DOWNLINK NAS TRANSPORT message. The NG-RAN completes handover of the UEs served by the MBSR before releasing the F1 connection to the MBSR IAB-DU.', '', '-\tIf the authorization state changes from authorized to not authorized and the AMF uses the Deregistration procedure to update the MBSR, the AMF sends the UE Context Modification message to NG-RAN before triggering the deregistration towards MBSR after a certain period (e.g. based on the expiration of a timer configured on the AMF).', '', 'If a PDU session is used to provide OAM access for MBSR when it is not authorized but remains registered, the AMF may notify the SMF serving the PDU session for O&amp;amp;M access to trigger the release of the PDU Session.', '', 'NOTE\xa03:\tThe AMF delays the MBSR de-registration to allow the IAB-donor gNB to move all connected UEs via MBSR to other cells as specified in clause\xa08.9.10 of TS\xa038.401\xa0[42].', '', 'NOTE\xa04:\tThe mechanism applies to both roaming and non-roaming MBSR operations.', '']</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.2043699309921555</v>
+        <v>0.2110902541053719</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.18.3	Modification of User Plane Connection between UE and LMF&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.37.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>23273-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1603,47 +1603,47 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>['', 'The figure 6.18.3-1 shows how a secure user plane connection between UE and LMF is modified. The flow describes change of LMF but applies also when source and target LMF is the same. The procedure can also be used to terminate the user plane connection to Source LMF not selecting any Target LMF.', '', '----media/image52.emf----', '', 'Figure 6.18.3-1: Connection modification between UE and LMFs', '', '1a.\t[Conditional] The LMF discovers a need to change LMF or re-establish the user plane connection between UE and LMF or terminate the user plane connection. The LMF sends an Nlmf_Location_UPNotify message that includes -target LMF identification and indicates the reason for modification or termination. The address of the AMF was provided to LMF as a "Notification Target Address" in latest Nlmf_Location_UPConfig message or Nlmf_Location_UPNotify Subscribe message.', '', 'NOTE:\tThe LMF change procedure is independent from the SSC mode of the PDU Session with dedicated DNN used for positioning. For SSC mode 2/3, PSA UPF connection with the LMF can be relocated with UE movement and LMF can discover the need to change LMF to reduce the user plane path latency.', '', '1b.\t[Conditional] AMF based on LMF indications need to reselect an LMF used for user plane positioning, or AMF may perform LMF reselection if UE moves to a new location (which may be out of serving area of source LMF and in serving area of target LMF) and select the target LMF for the current UE location based on LMF service area and other information listed in clause\xa05.1. LMF needs to be capable to establish a user plane session for positioning with the UE. Further at AMF relocation the target AMF needs to inform the LMF of the AMF change.', '', '2.\t[Conditional] If AMF reallocation has occurred, this step\xa0is skipped. Otherwise, steps 3-8 of figure 6.18.2-1 are performed between AMF, UE, and Target LMF with addition that UE also terminate connection to Source LMF.', '', '3.\tThe AMF sends an Nlmf_Location_UPConfig Request towards the source LMF. The message may include a request for the Source LMF to terminate a specific user plane connection to the UE and the Target LMF identification. Alternatively, it may include information about AMF reallocation.', '', '4-5.[Conditional] The source LMF may invoke an Nlmf_Location_LocationContextTransfer Request service operation towards the target LMF to provide the current location context of the UE, if there is periodic and triggered UE location events report context. The target LMF informs source LMF of the location context transfer operation results.', '', '6.\t[Conditional] If the user plane connection to source LMF is still active, the source LMF terminates the connection to the UE.', '', '7.\tThe LMF sends Nlmf_Location_UPConfig Response message to AMF to confirm connection termination or acknowledge change of AMF. If this procedure is used for termination, the AMF will release the LCS-UP context after receiving the response message.', '']</t>
+          <t>['', 'This clause\xa0provides an overview of 5GS functionalities for support of XR services (AR/VR applications) and interactive media services that require high data rate and low latency communication, e.g. cloud gaming and tactile/multi-modal communication services according to service requirements documented in TS\xa022.261\xa0[2]. The standardized 5QI characteristics for such interactive services are provided in Table 5.7.4-1 and TSCAI is used to describe the related traffic characteristics as defined in clause\xa05.27.2. Further enhancements for these interactive media services are as follows:', '', '-\tThe 5GS may support QoS policy control for multi-modal traffic, see clause\xa05.37.2.', '', '-\tThe 5GS may support network information exposure which can be based on ECN markings for L4S, see clause\xa05.37.3 or 5GS exposure API, see clause\xa05.37.4.', '', '-\tThe 5GS may support PDU Set based QoS handling including PDU Set identification and marking, see clause\xa05.37.5.', '', '-\tThe 5GS may ensure that the UL and DL packets together meet the requested round trip delay and also update the delay for UL and DL considering QoS monitoring results, see clause\xa05.37.6.', '', '-\tThe 5GS may perform per-flow Packet Delay Variation (PDV) monitoring and policy control according to AF provided requirements, see clause\xa05.37.7.', '', '-\tThe 5GC may provide traffic assistance information to the NG-RAN to enable Connected mode DRX power saving, see clause\xa05.37.8.', '']</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.2004641024817376</v>
+        <v>0.1886607454486006</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.2F.2	Contents of ML Model Training&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.37.2	Policy control enhancements to support multi-modal services&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>['', 'The consumers of the ML model training services (i.e. an NWDAF containing MTLF) may provide the input parameters in Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request service operations as listed below:', '', '-\tAnalytics ID: identifies the analytics for the provided ML model is used.', '', '-\tML Model Interoperability Information as defined in clause\xa06.2A.2.', '', '-\tA Notification Target Address (+ Notification Correlation ID) as defined in TS\xa023.502\xa0[3] clause\xa04.15.1, allowing to correlate notifications received from the NWDAF containing MTLF with the subscription.', '', '-\t[OPTIONAL] ML Model Information (address (e.g. URL or FQDN) of Model file).', '', '-\t[OPTIONAL] ML Model ID: identifies the provided ML model.', '', '-\t[OPTIONAL] ML Preparation Flag: identifies whether the request is for preparing Federated Learning or executing Federated Learning.', '', '-\t[OPTIONAL] ML Model Accuracy Check Flag: identifies that the request is for using the local training data as the testing dataset to calculate the Model Accuracy of the global ML model provided by the service consumer NWDAF acting as the FL Server NWDAF.', '', '-\t[OPTIONAL] ML Correlation ID: identifies the Federated Learning procedure for training the ML model. This parameter is included when the service is used for Federated Learning.', '', '-\t[OPTIONAL] Available data requirement. This is for informing the requirement on available data for the ML model training. e.g. FL Server NWDAF sends the requirement in preparation request to a FL Client NWDAF for selecting the FL Client NWDAF which can meet the available data requirement. The following available data requirements can be included:', '', '-\tEvent ID list to be collected for local model training.', '', '-\tDataset statistical properties as defined in clause\xa06.1.3.', '', '-\tTime window of the data samples.', '', '-\tMinimum number of data samples.', '', '-\t[OPTIONAL] Availability time requirement. This is for informing the requirement on availability time for the ML model training, e.g. FL Server NWDAF sends the requirement in preparation request to FL Client NWDAF for selecting the FL Client NWDAF which is available in the required time for training ML model.', '', '-\t[OPTIONAL] Training Filter Information: enables to select which data for the ML model training is requested, e.g. S-NSSAI, Area of Interest. Parameter types in the Training Filter Information are the same as or subset of parameter types in the ML Model Filter Information which are defined in procedure 6.2A.1.', '', '-\t[OPTIONAL] Target of Training Reporting: indicates the object(s) for which data for ML model training is requested, i.e. a group of UEs or any UE (i.e. all UEs).', '', '-\t[OPTIONAL] Use case context: indicates the context of use of ML model.', '', '-\t[OPTIONAL] Training Reporting Information with the following parameters:', '', '-\tMaximum response time: indicates maximum time for waiting notifications (i.e. training results).', '', '-\t[OPTIONAL] Iteration round ID: indicates the iteration round number of current ML model training.', '', '-\t[OPTIONAL] Expiry time.', '', 'The NWDAF containing MTLF provides to the consumer of the ML model training service operations as described in clause\xa07.10, the output information in notification as listed below:', '', '-\tThe Notification Correlation Information.', '', '-\tML Model Information which includes:', '', '-\teither the ML model file address (e.g. URL or FQDN) or ADRF (Set) ID and ML Model Identifier or ML Model Storage Transaction Identifier if available.', '', '-\t[OPTIONAL] ML Model ID: identifies the provisioned ML model.', '', '-\t[OPTIONAL] Model Accuracy: The model accuracy of the global ML model, which is calculate by the FL Client NWDAF using the local training data as the testing dataset.', '', '\t[OPTIONAL] Status report of FL training: Accuracy of local model and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension , etc.), which are generated by the FL Client NWDAF during FL procedure.', '', 'NOTE:\tThe parameters in Training Input Data Information are up to the implementation.', '', '-\t[OPTIONAL] ML Correlation ID. This parameter may be included when the service is used for Federated Learning.', '', '-\t[OPTIONAL] Iteration round ID: indicates the iteration round number of ML model training indicated by the FL Server NWDAF.', '', '-\t[OPTIONAL] Delay Event Notification with the following parameters:', '', '-\tdelay event indication: this parameter indicates that FL Client NWDAF is not able to complete the training of the interim local ML model within the maximum response time provided by the FL Server NWDAF.', '', '-\t[OPTIONAL] cause code (e.g. local ML model training failure, more time necessary for local ML model training, etc.).', '', '-\t[OPTIONAL] Expected time to complete the training: Indicates to the FL Server NWDAF that expected remaining training time, and may be provided with Delay Event Notification.', '']</t>
+          <t>['', 'Multi-modal services consist of several data flows (named as multi-modal flows) that related to each other and may come from different sources. Each data flow (single-modal data) may be seen as one type of data (for example audio, video, positioning, haptic data) associated with the same communication service. Data flows that comprise a multi-modal service may come from a single UE, either via a single device or via multiple devices connected to the single UE that can access the 5GS, or from multiple UEs.', '', 'For the single UE case, the expected multi-modal application behaviour is that those data flows that are closely related and require strong application coordination for correct delivery of the multi-modal application data, are transmitted in a single PDU session.', '', '-\tThe Nnef_AFsessionWithQoS service allows the AF to provide, at the same time, service requirements, for each media that comprise the multi-modal service, a Multi-modal Service ID and QoS monitoring requirements for multiple IP data flows associated to a multi-modal service.', '', '-\tThe AF may provide to the PCF a Multi-modal Service ID, as an explicit indication that the application traffics are related to a multi-modal service. The PCF may use this information to derive the correct PCC rules and apply QoS policies for data flows that are part of a specific multi-modal application.', '', '-\tThe AF may provide QoS monitoring requirement for data flows associated to a multi-modal service to the PCF (either directly or via NEF) with in a certain period. The PCF generates the authorized QoS Monitoring policy for these service data flows.', '', 'NOTE:\tIn order to start the monitoring of the packet delay results for data flows associated to a multi-modal service within a certain period, the PCF needs to receive the data from AF accordingly.', '', '-\tThe multi-modal services are carried in single PDU session for one UE.', '', 'In addition to the features that are provided for the case that the flows are associated with a single UE, the following features are provided for the case where the flows are associated with more than one UE:', '', '-\tThe same DNN/S-NSSAI combination for the multi-modal service should be selected among the multiple UEs. The URSP Rule evaluation framework is used to ensure that the same DNN/S-NSSAI is selected.', '', '-\tThe AF may allocate the same Multi-modal Service ID to all UE PDU sessions that compose a multi-modal service. The PCF may take this information into account (e.g. to allocate a specific QoS profile) when processing each PDU session independently. The data flows that contribute to the service experience, but may still be valid stand-alone, may be transmitted over separate PDU sessions from multiple UEs.', '', '-\tIf multiple PCFs are involved, the PCF(s) take policy decisions according to the input provided by the AF. There is no support for policy coordination among the multiple PCF(s) in this Release of the specification. Policy decisions are taken by each PCF separately on a per PDU session basis.', '']</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.1995117452039071</v>
+        <v>0.2047117912666067</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.4.2	Input Data&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.37.4	Network Exposure of 5GS information&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1653,47 +1653,47 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>['', 'The service data and performance data collected from the AF (including the service data collected from the UE through the AF), the network data from other 5GC NFs and the network data from OAM and MDAS/MDAF for observed service experience are defined in Table 6.4.2-1, 6.4.2-1a, Table 6.4.2-2, Table 6.4.2-3, Table 6.4.2-4 and Table 6.4.2-5 respectively.', '', 'Table 6.4.2-1: Service Data from AF related to the observed service experience', '', 'Information', '', 'Source', '', 'Description', '', 'Application ID', '', 'AF', '', 'To identify the service and support analytics per type of service (the desired level of service)', '', 'IP filter information', '', 'AF', '', 'Identify a service flow of the UE for the application', '', 'Locations of Application', '', 'AF/NEF', '', 'Locations of application represented by a list of DNAI(s). The NEF may map the AF-Service-Identifier information to a list of DNAI(s) when the DNAI(s) being used by the application are statically defined.', '', 'Service Experience', '', 'AF', '', 'Refers to the QoE per service flow as established in the SLA and during on boarding. It can be either e.g. MOS or video MOS as specified in ITU-T P.1203.3\xa0[11] or a customized MOS for any kind of service including those not related to video or voice.', '', 'UE ID', '', 'AF', '', 'The list of UE ID(s) that are associated with the Service Experience value(s). When the AF is untrusted, GPSI(s) will be provided. When the AF is trusted SUPI(s) will be provided.', '', 'Service Experience Contribution Weight', '', 'AF', '', 'The list of Service Experience Contribution Weight(s) that are associated with each of the provided UE ID(s).', '', 'QoE metrics', '', 'UE (via AF)', '', 'QoE metrics observed at the UE(s). QoE metrics and measurement as described in TS\xa026.114\xa0[27], TS\xa026.247\xa0[28], TS\xa026.118\xa0[29], TS\xa026.346\xa0[30], TS\xa026.512\xa0[31] or ASP specific QoE metrics in TS\xa026.512\xa0[31], as agreed in the SLA with the MNO, may be used.', '', 'Timestamp', '', 'AF', '', 'A time stamp associated to the Service Experience provided by the AF, mandatory if the Service Experience is provided by the ASP.', '', 'Application Server Instance', '', 'AF', '', 'The IP address or FQDN of the Application Server that the UE had a communication session when the measurement was made.', '', '', '', 'NWDAF subscribes to the service data from AF in the Table 6.4.2-1 either directly for trusted AFs by invoking Naf_EventExposure_Subscribe service (Event ID = Service Experience information, Event Filter information = Area of Interest, Application ID) as defined in TS\xa023.502\xa0[3], or indirectly for untrusted AFs via NEF by invoking Nnef_EventExposure_Subscribe service (Event ID = Service Experience information, Event Filter information = Area of Interest, Application ID) where NEF translates the Area of Interest into geographic zone identifier(s). For the information whose source is UE (via AF), the AF collects data from the UE as defined in clause\xa06.2.8.', '', 'NOTE:\tWhen the Service Experience is expressed as a customized MOS, the customized MOS might be defined by the content provider or by the MNO and might be based on the nature of the targeted service type (e.g. web browsing, gaming, augmented reality, V2X, SMS).', '', 'Table 6.4.2-1a: Performance Data from AF', '', 'Information', '', 'Source', '', 'Description', '', 'UE identifier', '', 'AF', '', 'IP address of the UE at the time the measurements was made.', '', 'UE location', '', 'AF', '', 'The location of the UE when the performance measurement was made.', '', 'Application ID', '', 'AF', '', 'To identify the service and support analytics per type of service (the desired level of service).', '', 'IP filter information', '', 'AF', '', 'Identify a service flow of the UE for the application.', '', 'Locations of Application', '', 'AF/NEF', '', 'Locations of application represented by a list of DNAI(s). The NEF may map the AF-Service-Identifier information to a list of DNAI(s) when the DNAI(s) being used by the application are statically defined.', '', 'Application Server Instance address', '', 'AF/NEF', '', 'The IP address/FQDN of the Application Server that the UE had a communication session when the measurement was made.', '', 'Performance Data', '', 'AF', '', 'The performance associated with the communication session of the UE with an Application Server that includes: Average Packet Delay, Average Loss Rate and Throughput.', '', 'Timestamp', '', 'AF', '', 'A time stamp associated to the Performance Data provided by the AF.', '', '', '', 'NWDAF subscribes to the performance data from AF in the Table 6.4.2-1a either directly for trusted AFs by invoking Naf_EventExposure_Subscribe service (Event ID = Performance Data, Event Filter information = Area of Interest, Application ID) as defined in TS\xa023.502\xa0[3], or indirectly for untrusted AFs via NEF by invoking Nnef_EventExposure_Subscribe service (Event ID = Performance Data, Event Filter information = Area of Interest, Application ID) where NEF translates the Area of Interest into geographic zone identifier(s).', '', 'Table 6.4.2-2: QoS flow level Network Data from 5GC NF related to the QoS profile assigned for a particular service (identified by an Application Id or IP filter information)', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', '5GC NF', '', 'A time stamp associated with the collected information.', '', 'Location', '', 'AMF', '', 'The UE location information, e.g. cell ID or TAI.', '', 'Finer granularity location (1...max)', '', 'GMLC', '', 'UE positions.', '', '....&amp;gt;UE location', '', '', '', 'GAD shape or location coordinates (see TS\xa023.032\xa0[34]).', '', '....&amp;gt;Timestamp', '', '', '', 'A time stamp when the location was measured.', '', '....&amp;gt;LCS QoS', '', '', '', 'The accuracy of the measurement.', '', 'UE ID', '', 'AMF', '', '(list of) SUPI(s). If UE IDs are not provided as Target of Analytics Reporting for slice service experience, AMF returns the UE IDs matching the AMF event filters.', '', 'DNN', '', 'SMF', '', 'DNN for the PDU Session which contains the QoS flow.', '', 'S-NSSAI', '', 'SMF', '', 'S-NSSAI for the PDU Session which contains the QoS flow.', '', 'Application ID', '', 'SMF', '', 'Used by NWDAF to identify the application service provider and application for the QoS flow.', '', 'DNAI', '', 'SMF', '', 'Identifies the access to DN to which the PDN session connects.', '', 'PDU Session type', '', 'SMF', '', 'Type of the PDU Session.', '', 'SSC Mode', '', 'SMF', '', 'SSC Mode selected for the PDU Session.', '', 'IP filter information', '', 'SMF', '', 'Provided by the SMF, which is used by NWDAF to identify the service data flow for policy control and/or differentiated charging for the QoS flow.', '', 'QFI', '', 'SMF', '', 'QoS Flow Identifier.', '', 'QoS flow Bit Rate', '', 'UPF', '', 'The observed bit rate for UL direction; and', '', 'The observed bit rate for DL direction.', '', 'QoS flow Packet Delay', '', 'UPF', '', 'The observed Packet delay for UL direction; and', '', 'The observed Packet delay for the DL direction.', '', 'Packet transmission', '', 'UPF', '', 'The observed number of packet transmission.', '', 'Packet retransmission', '', 'UPF or AF', '', 'The observed number of packet retransmission.', '', '', '', 'NOTE:\tCare needs to be taken with regards to load and major signalling caused when requesting Any UE. This could be achieved via utilization of some event filters (e.g. Area of Interest for AMF), Analytics Reporting Information (e.g. SUPImax), or sampling ratio as part of Event Reporting Information.', '', 'NWDAF subscribes to the network data from 5GC NF(s) in the Table 6.4.2-2 by invoking Nnf_EventExposure_Subscribe service operation with the following Event IDs as input parameters:', '', '-\tAMF Source: Namf_EventExposure_Subscribe (Event IDs = Location Changes, Area of Interest).', '', '-\tSMF Source: Nsmf_EventExposure_Subscribe (Event ID = QFI allocation).', '', 'Table 6.4.2-3: UE level Network Data from OAM related to the QoS profile', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', 'OAM', '', 'A time stamp associated with the collected information.', '', 'Reference Signal Received Power', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the received power level in a network cell, including SS-RSRP, CSI-RSRP as specified in clause\xa05.5 of TS\xa038.331\xa0[14] and E-UTRA RSRP as specified in clause\xa05.5.5 of TS\xa036.331\xa0[15].', '', 'Reference Signal Received Quality', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the received quality in a network cell, including SS-RSRQ, CSI-RSRQ as specified in clause\xa05.5 of TS\xa038.331\xa0[14] and E-UTRA RSRQ as specified in clause\xa05.5.5 of TS\xa036.331\xa0[15].', '', 'Signal-to-noise and interference ratio', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the received signal to noise and interference ratio in a network cell, including SS-SINR, CSI-SINR, E-UTRA RS-SINR, as specified in clause\xa05.1 of TS\xa038.215\xa0[12].', '', 'RAN Throughput for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the throughput for DL and UL as specified in clauses 5.2.1.1 and 5.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet delay for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet delay for DL and UL, including per QCI per UE packet delay as specified in clause\xa05.2.1.1 of TS\xa037.320\xa0[20] and per DRB per UE packet delay as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet loss rate for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet loss rate for DL and UL, including the per QCI per UE packet loss rate as specified in clause\xa05.2.1.1 of TS\xa037.320\xa0[20] and the per DRB per UE packet loss rate as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'The mapping information between cell ID and frequency', '', 'OAM', '', 'The mapping information between cell ID and frequency (NOTE\xa02).', '', 'Cell Energy Saving State', '', 'OAM', '', 'List of the cells which are within the area of interest and are in energy saving state, as specified in clauses 3.1 and 6.2 of TS\xa028.310\xa0[24].', '', 'NOTE\xa01:\tPer UE measurement for a specific UE from OAM (via MDT), is as captured in clause\xa06.2.3.1.', '', "NOTE\xa02:\tThe MDT measurement report provides the cell identity and carrier frequency information for UE's serving cell and neighbour cell(s). The NWDAF can get the mapping information between cell ID and frequency using OAM service as described in clause\xa06.2.3.", '', '', '', 'NWDAF subscribes the network data from OAM in the Table 6.4.2-3 by using the services provided by OAM as described in clause\xa06.2.3.', '', 'Table 6.4.2-4: UE level Network Data from 5G NF related to the Service Experience', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', '5GC NF', '', 'A time stamp associated with the collected information.', '', 'Location', '', 'AMF', '', 'The UE location information, e.g. cell ID or TAI.', '', 'Finer granularity location', '', 'GMLC', '', 'UE positions.', '', 'UE ID ', '', 'AMF', '', '(list of) SUPI(s).', '', 'RAT Type', '', 'SMF', '', 'The RAT type the UE camps on.', '', 'Access Type', '', 'SMF', '', 'The Access type the UE camps on.', '', '', '', 'The Event Filters for the service data collection from SMF, AMF and AF are defined in TS\xa023.502\xa0[3].', '', 'The timestamps are provided by each NF to allow correlation of QoS and traffic KPIs. The clock reference is able to know the accuracy of the time and correlate the time series of the data retrieved from each NF.', '', 'The NWDAF collects the following MDAF analysis result listed in Table 6.4.2-5, as defined in clauses 8.4.2.1.3 and 8.4.4.3 of TS\xa028.104\xa0[45].', '', 'Table 6.4.2-5: Data collection from MDAS/MDAF of service experience and energy saving state analysis', '', 'Information', '', 'Source', '', 'Description', '', 'ServiceExperienceIssueType', '', 'MDAF', '', 'Indication of the service experience issue type.', '', 'The allowed value is one of the enumerated values: RAN issue, CN issue, both.', '', 'AffectedObjects', '', 'MDAF', '', 'The managed object instances where the service experience is applicable, e.g. SubNetwork Instance, NetworkSlice Instance, S-NSSAI.', '', 'ServiceExperienceStatistics', '', 'MDAF', '', "The statistics of the level of service experience for a service in a certain time period, e.g. there are five levels which are represented by 1, 2, 3, 4, 5 where level 1 represents the users are enduring bad experience while level 5 represents the users' requirements are perfectly satisfied.", '', 'ServiceExperiencePredictions', '', 'MDAF', '', 'The predictions of the level of service experience for a service in a certain time period.', '', 'StatisticsOfCellsEsState', '', 'MDAF', '', 'The statistic result of current energy saving state of the cells at a certain time.', '', '', '']</t>
+          <t>['', '5GS and XR/media services cooperate to provide a better user experience using External Network Exposure.', '', 'Based on the AF request, the 5GS can expose the following information based on the QoS Monitoring as defined in clause\xa05.33.3 and/or clause\xa05.45:', '', '-\tFor the UL and/or DL congestion information monitoring (see clause\xa05.45.3), based on the PCC rule from PCF, the SMF requests the NG-RAN to report the information via GTP-U header to PSA UPF This NG-RAN reported information is common to support congestion information exposure and to support ECN marking for L4S in PSA UPF as described in clause\xa05.37.3.3. In the case of congestion information exposure, the PSA UPF exposes the UL and/or DL congestion information via Nupf_EventExposure service or via SMF/PCF/NEF as described in clause\xa05.8.2.18. It can be applied to a Non-GBR or GBR QoS flow.', '', '-\tData rate information of UL and/or DL for the QoS flow may be measured and exposed to the AF based on SMF request as one of the following:', '', '-\tmeasured and reported by PSA UPF via Nupf_EventExposure service or via SMF/PCF/NEF as described in clause\xa05.8.2.18.', '', '-\tFor round trip delay for multiple QoS Flows of the XR service (e.g. the UL and DL are separated into two flows) in the same PDU Session, it is determined based on the QoS Monitoring for packet delay of individual QoS Flows as described in clause\xa05.33.3. The AF includes in the request the necessary information for the PCF to derive the associated QoS monitoring requirements for each PCC rule. The PCF provides the QoS Monitoring policies in the PCC rules for the XR service data flows. The PSA UPF reports the delay information per QoS Flow to the SMF. SMF reports to PCF. The PCF derives round trip delay information for the XR service data flows and exposes the information to the AF directly or via NEF.', '', 'NOTE:\tHow PCF calculates the requested round trip delay for multiple QoS flows from delays of individual QoS Flows is not defined in this specification.', '', 'The AF may provide the Alternative QoS parameter set requirements and Averaging Window to the NEF/PCF for the GBR QoS Flow as specified in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', 'Estimated bandwidth for 5QI may be exposed by NWDAF (according to information described in clause\xa06.9.2 of TS\xa023.288\xa0[86]) to AF.', '']</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.2103643080452453</v>
+        <v>0.1874348869139629</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.6.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.37.6	UL/DL policy control based on round-trip latency requirement&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR2_payload</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>['', 'With Network Performance Analytics, NWDAF provides either statistics or predictions on the gNB status information, gNB resource usage, communication performance and mobility performance in an Area of Interest; in addition, NWDAF it may provide statistics or predictions on the number of UEs that are located in that Area of Interest.', '', 'The service consumer may be an NF (e.g. PCF, NEF, AF), or the OAM.', '', 'The consumer of these analytics may indicate in the request:', '', '-\tAnalytics ID = "Network Performance";', '', '-\tTarget of Analytics Reporting: either a single UE (SUPI ), or a group of UEs (an Internal Group ID that refers to the group for which the analytics on the number of UEs that are located in the Area of Interest at the time indicated in the Analytics target period is requested) or any UE;', '', '-\tAnalytics Filter Information:', '', '-\tArea of Interest (list of TA or Cells) which restricts the area in focus (mandatory if Target of Analytics Reporting is set to "any UE", optional otherwise);', '', '-\tOptionally, Traffic type of interest (overall traffic, GBR traffic or Delay-critical GBR traffic);', '', 'NOTE:\tIf Traffic type of interest is not provided, overall traffic is considered.', '', '-\tOptionally, a list of analytics subsets that are requested among those specified in clause\xa06.6.3;', '', '-\tOptionally, a preferred level of accuracy of the analytics;', '', '-\tOptionally, preferred level of accuracy per analytics subset (see clause\xa06.6.3);', '', '-\tOptionally, preferred order of results for the list of Network Performance information:', '', '-\tordering criterion: "number of UEs", "communication performance" or "mobility performance";', '', '-\torder: ascending or descending;', '', '-\tOptionally, Reporting Thresholds, which apply only for subscriptions and indicate conditions on the level to be reached for respective analytics information (see clause\xa06.6.3) in order to be notified by the NWDAF;', '', '-\tAn Analytics target period indicates the time period over which the statistics or prediction are requested; and', '', '-\tOptionally, maximum number of objects.', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address are included.', '', '-\tOptionally, Spatial granularity size (if an Area of Interest is provided) and Temporal granularity size.', '', 'The NWDAF notifies the result of the analytics to the consumer as indicated in clause\xa06.6.3.', '']</t>
+          <t>['', 'For XR and other interactive media services that require very low Round-Trip (RT) latency, Uplink-Downlink policy control may be supported to meet the RT latency requirement. RT latency requirement is the upper bound for the sum of UL delay and DL delay of a data flow between UE and N6 termination point at the UPF. PCF may support Uplink-Downlink policy control based on RT latency requirement based on an RT latency indication from AF during the AF session with the required QoS procedure as defined in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', 'The AF can provide an RT latency indication with a single direction delay requirement between the UE and the PSA UPF expressed as the QoS Reference parameter or individual QoS parameters (as defined in clause\xa06.1.3.22 of TS\xa023.503\xa0[45]). The RT latency indication indicates the need to meet the RT latency requirement for data flow, i.e. doubling of the single direction delay requirement between the UE and the PSA UPF expressed by the QoS Reference parameter or individual QoS parameter.', '', "PCF determines the data flow's UL PDB and DL PDB based on the RT latency requirement. The UL PDB and DL PDB can be unequal, but their sum shall not exceed the RT latency requirement. The PCF shall generate two PCC rules, one for UL QoS flow for UL traffic of the data flow and one for DL QoS flow for DL traffic of the data flow, respectively. PCF shall assign the 5QIs for each of these two PCC rules according to the derived UL PDB and DL PDB.", '', 'To support UL and DL delay tracking, the QoS monitoring for UL packet delay and the DL packet delay (as defined in clause\xa06.1.3.21 of TS\xa023.503\xa0[45]) shall be triggered respectively to request tracking the UL packet delay of the QoS flow used in UL and DL packet delay of the QoS flow used in DL independently. Based on the QoS monitoring results, the PCF may readjust the UL PDB and/or DL PDB under the consideration of the RT latency requirement to better fit the new situation.', '', 'NOTE:\tHow the PCF derives the round-trip latency and takes policy decisions is up to the implementation.', '']</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.1993722683784942</v>
+        <v>0.1725832581113635</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.6.3	Output Analytics&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.37.7	5GS Packet Delay Variation monitoring and reporting&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>['', 'The NWDAF shall be able to provide both statistics and predictions on Network Performance.', '', 'Network performance statistics are defined in Table 6.6.3-1.', '', 'Table 6.6.3-1: Network performance statistics', '', 'Information', '', 'Description', '', 'List of network performance information (1..max)', '', 'Observed statistics during the Analytics target period', '', '&amp;gt; Area subset', '', 'List if TA(s) or Cell ID(s) within the requested area of interest as defined in clause\xa06.6.1. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '&amp;gt; Analytics target period subset', '', 'Time window within the requested Analytics target period as defined in clause\xa06.6.1. If a Temporal granularity size was provided in the request or subscription, the duration of the Analytics target period subset is greater than or equal to the Temporal granularity size.', '', '&amp;gt; gNB status information (NOTE\xa01)', '', 'Average ratio of gNBs that have been up and running during the entire Analytics target period in the area subset', '', '&amp;gt; gNB resource usage (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources', '', '&amp;gt; gNB resource usage for GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources for GBR traffic (average, peak)', '', '&amp;gt; gNB resource usage for Delay-critical GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources usage for Delay-critical GBR traffic (average, peak)', '', '&amp;gt; Number of UEs (NOTE\xa01)', '', 'Average number of UEs observed in the area subset', '', '&amp;gt; Communication performance (NOTE\xa01)', '', 'Average ratio of successful setup of PDU Sessions', '', '&amp;gt; Mobility performance (NOTE\xa01)', '', 'Average ratio of successful handover', '', 'NOTE\xa01:\tAnalytics subset that can be used in "list of analytics subsets that are requested" and "Preferred level of accuracy per analytics subset".', '', 'NOTE\xa02:\tAverage usage of assigned resources for uplink and downlink traffic is provided. The average and peak usage is provided as a percentage.', '', '', '', "Editor's note:\tThe possibility to provide the gNB resource usage for GBR traffic and gNB resource usage for Delay-critical GBR traffic based on existing network performance management parameters defined in TS\xa028.552\xa0[8] is to be confirmed by SA\xa0WG5.", '', "Editor's note:\tArea subsets smaller than cells are FFS.", '', 'Network performance predictions are defined in Table 6.6.3-2.', '', 'Table 6.6.3-2: Network performance predictions', '', 'Information', '', 'Description', '', 'List of network performance information (1..max)', '', 'Predicted analytics during the Analytics target period', '', '&amp;gt; Area subset', '', 'List if TA(s) or Cell ID(s) within the requested area of interest as defined in clause\xa06.6.1. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '&amp;gt; Analytics target period subset', '', 'Time window within the requested Analytics target period as defined in clause\xa06.6.1. If a Temporal granularity size was provided in the request or subscription, the duration of the Analytics target period subset is greater than or equal to the Temporal granularity size.', '', '&amp;gt; gNB status information (NOTE\xa01)', '', 'Average ratio of gNBs that will be up and running during the entire Analytics target period in the area subset', '', '&amp;gt; gNB resource usage (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources (average, peak)', '', '&amp;gt; gNB resource usage for GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources for GBR traffic (average, peak)', '', '&amp;gt; gNB resource usage for Delay-critical GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources usage for Delay-critical GBR traffic (average, peak)', '', '&amp;gt; Number of UEs (NOTE\xa01)', '', 'Average number of UEs predicted in the area subset', '', '&amp;gt; Communication performance (NOTE\xa01)', '', 'Average ratio of successful setup of PDU Sessions', '', '&amp;gt; Mobility performance (NOTE\xa01)', '', 'Average ratio of successful handover', '', '&amp;gt; Confidence', '', 'Confidence of this prediction', '', 'NOTE\xa01:\tAnalytics subset that can be used in "list of analytics subsets that are requested" and "Preferred level of accuracy per analytics subset".', '', 'NOTE\xa02:\tAverage usage of assigned resources for uplink and downlink traffic is provided. The average and peak usage is provided as a percentage.', '', '', '', "Editor's note:\tArea subsets smaller than cells are FFS.", '', "Editor's note:\tThe possibility to provide the gNB resource usage for GBR traffic and gNB resource usage for Delay-critical GBR traffic based on existing network performance management parameters defined in TS\xa028.552\xa0[8] is to be confirmed by SA\xa0WG5.", '', 'NOTE\xa01:\tThe predictions are provided with a Validity Period, as defined in clause\xa06.1.3.', '', 'NOTE\xa02:\tThe analytics on number of UEs are related to the information retrieved from the AMFs.', '', 'The number of network performance information entries is limited by the maximum number of objects provided as part of Analytics Reporting Information.', '', 'The NWDAF provides Network Performance Analytics to a consumer at the time requested by the consumer in the Analytics target period:', '', '-\tAnalytics ID set to "Network Performance".', '', '-\tNotification Target Address including the address of the consumer.', '', '-\tNotification Correlation Id, for the consumer to correlate notifications from NWDAF if subscription applies.', '', '-\tAnalytics specific parameters at the time indicated in the Analytics target period&lt;b&gt;.&lt;/b&gt;', '']</t>
+          <t>['']</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.1946453374696374</v>
+        <v>0.2862987716992696</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.8.2	Input data&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.4.4	Standardized PQI to QoS characteristics mapping&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23287-i00.docx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,22 +1728,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>['', 'The detailed information collected by the NWDAF is defined in Table 6.8.2-1.', '', 'NOTE\xa01:\tPerformance Measurements defined in TS\xa028.552\xa0[8] represent resource utilisation but do not, by themselves, indicate the event of congestion or congestion levels. The NWDAF collects measurements from the OAM and how the NWDAF derives Network Status Indication (NSI) is not specified.', '', 'Table 6.8.2-1: Data Collected from the NF and OAM related to User Data Congestion Analytics', '', 'Information', '', 'Source', '', 'Description', '', 'UE Location', '', 'AMF', '', 'UE location information that NWDAF can use to derive the Area of Interest.', '', 'Measurements', '', 'OAM', '', 'Performance Measurements that will be used by the NWDAF to determine congestion levels. Performance Measurements are related to information transfer over the user plane and/or the control plane (e.g. UE Throughput, DRB Setup Management, RRC Connection Number, PDU Session Management and Radio Resource Utilization as defined in TS\xa028.552\xa0[8]). The NWDAF may obtain measurements by invoking management services that are defined in TS\xa028.532\xa0[6] and TS\xa028.550\xa0[7].', '', '', '', 'Table 6.8.2-2: Data Collected from the UPF or from the AF related to User Data Congestion Analytics', '', 'Information', '', 'Source', '', 'Description', '', 'Application ID', '', 'UPF or AF', '', 'Application identifier as defined in clause 5.8.2 of TS\xa023.501\xa0[2] (see NOTE\xa01).', '', 'IP Packet Filter Set', '', 'UPF or AF', '', 'IP Packet Filter set as defined in clause 5.8.2 of TS\xa023.501\xa0[2] (see NOTE\xa01).', '', 'Measurement period', '', 'UPF or AF', '', 'Measurement period.', '', 'Throughput UL/DL', '', 'UPF or AF ', '', 'Average Throughput UL/DL over the measurement period.', '', 'Throughput UL/DL (peak)', '', 'UPF or AF', '', 'Peak Throughput UL/DL over the measurement period.', '', 'Timestamp', '', 'UPF or AF', '', 'Time when measurements are taken.', '', 'Achieved sampling ratio', '', 'UPF', '', 'Sampling ratio achieved by UPF (see NOTE\xa02).', '', 'NOTE\xa01:\tApplication Id and IP Packet Filter Set are mutually exclusive.', '', 'NOTE\xa02:\tUPF may apply data sampling to reduce the load on the UPF. This parameter is provided when no sampling ratio is configured at the UPF or the UPF could not fulfil the configured sampling ratio.', '', 'NOTE\xa03:\tMultiple outputs are provided by the UPF when multiple Service Data Flows are running at the UPF for the same UE and measurement period.', '', '', '', 'NOTE\xa02:\tCare needs to be taken with regards to load and major signalling caused when requesting "any UE". This can be achieved via utilization of event filters (e.g. Area of Interest), Analytics Reporting Information (e.g. maximum number of objects), or preferred sampling ratio provided by NWDAF to the UPF and/or local UPF configuration of data collection for specific application IDs, Packet Filter Sets and/or PFDs.', '', 'Additionally, NWDAF may use statistics or predictions on service experience as specified in clause\xa06.4.3 as an input, e.g. for service experience in a given area or service experience for some specific applications such as high bandwidth applications.', '']</t>
+          <t>['', 'The one-to-one mapping of standardized PQI values to PC5 QoS characteristics is specified in table\xa05.4.4-1.', '', 'Table 5.4.4-1: Standardized PQI to QoS characteristics mapping', '', 'PQI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', 'Packet Error', '', 'Rate ', '', 'Default Maximum Data Burst Volume', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '21', '', '', '', 'GBR', '', '3', '', '20\xa0ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Platooning between UEs – Higher degree of automation;', '', 'Platooning between UE and RSU – Higher degree of automation', '', '22', '', '', '(NOTE\xa01)', '', '4', '', '50 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Sensor sharing – higher degree of automation ', '', '23', '', '', '', '3', '', '100 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Information sharing for automated driving – between UEs or UE and RSU - higher degree of automation', '', '55', '', 'Non-GBR', '', '3', '', '10 ms ', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Cooperative lane change – higher degree of automation', '', '56', '', '', '', '6', '', '20 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-1&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Platooning informative exchange – low degree of automation;', '', 'Platooning – information sharing with RSU ', '', '57', '', '', '', '5', '', '25 ms ', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-1&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Cooperative lane change – lower degree of automation ', '', '58', '', '', '', '4', '', '100 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Sensor information sharing – lower degree of automation', '', '59', '', '', '', '6', '', '500 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-1&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Platooning – reporting to an RSU', '', '90', '', 'Delay Critical GBR', '', '3 ', '', '10\xa0ms', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '2000 bytes', '', '2000 ms', '', 'Cooperative collision avoidance;', '', 'Sensor sharing – Higher degree of automation;', '', 'Video sharing – higher degree of automation', '', '91', '', '(NOTE\xa01)', '', '2', '', '3 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '2000 bytes', '', '2000 ms', '', 'Emergency trajectory alignment;', '', 'Sensor sharing – Higher degree of automation', '', 'NOTE\xa01:\tGBR and Delay Critical GBR PQIs can only be used for unicast PC5 communications.', '', '', '', 'NOTE\xa01:\tFor Standardized PQI to QoS characteristics mapping, the table will be extended/updated to support service requirements for other identified V2X services.', '', 'NOTE 2:\tThe PQIs may be used for other services than V2X.', '', 'NOTE 3:\tA PQI may be used together with an application indicated priority, which overrides the Default Priority Level of the PQI.', '']</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.2063623328226613</v>
+        <v>0.2340344733087549</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.9.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.43.4	Reporting of satellite backhaul to SMF&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,22 +1753,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>['', 'The consumer of QoS Sustainability analytics may request the NWDAF analytics information regarding the QoS change statistics for an Analytics target period in the past in a certain area or the likelihood of a QoS change for an Analytics target period in the future in a certain area. The consumer can request either to subscribe to notifications (i.e. a Subscribe-Notify model) or to a single notification (i.e. a Request-Response model).', '', 'The service consumer may be a NF (e.g. AF).', '', 'The request includes the following parameters:', '', '-\tAnalytics ID = "QoS Sustainability";', '', '-\tTarget of Analytics Reporting: any UE;', '', '-\tAnalytics Filter Information:', '', '-\tQoS requirements (mandatory):', '', '-\t5QI (standardized or pre-configured) and applicable additional QoS parameters and the corresponding values (conditional, i.e. it is needed for GBR 5QIs to know the GFBR); or', '', '-\tthe QoS Characteristics attributes including Resource Type, PDB, PER and their values;', '', '-\tLocation information (mandatory): an Area Of Interest or a path of interest. The location information could reflect a list of waypoints:', '', '-\tif the location information is an Area Of Interest, the area can be either described in a coarse granularity as list of TAIs or Cell IDs, or in a fine granularity as geographical area (that can be smaller than a cell), or both (coarse and fine granularity); if both granularities are provided, the NWDAF understands that the area of interest is the intersection between the fine granularity location and the list of TAIs or Cell IDs.', '', '-\tif the location information is a path of interest, the area can be either described in a coarse granularity as list of TAIs or Cell IDs, or in a fine granularity as a list of waypoints (expressed as longitude and latitude in geographical coordinates) and combined with a radius value, or both (coarse and fine granularity); if both granularities are provided, the NWDAF understands that the path of interest is the intersection between the fine granularity location and the list of TAIs or Cell IDs.', '', '-\tThreshold linear distance: The distance travelled by the UE before reporting subsequent location as described in TS\xa023.273\xa0[39].', '', 'NOTE\xa01:\tThreshold linear distance is used by the NWDAF when requesting location of the UE from the GMLC.', '', 'NOTE\xa02:\tIn this Release, the consumer of the "QoS Sustainability" Analytics ID will provide location information in the area of interest format (TAIs or Cell IDs or geographical area) which is understandable by NWDAF.', '', 'NOTE\xa03:\tWhen location information is described as an area of interest in a fine granularity (i.e. as geographical area that can be smaller than a cell) the Cell ID(s) can already be determined by the NEF based on its local configuration and provided to the NWDAF in addition. This addresses the scenario when Cell ID(s) cannot be determined by the NWDAF based on its local configuration. Alternatively, the NWDAF can also be configured with the Cell ID(s) corresponding to an area of interest in a fine granularity.', '', '-\tS-NSSAI (optional);', '', '-\tOptional maximum number of objects;', '', '-\tOptional UE Device and Context Information: which may contain one or more of the following:', '', '-\tSpeed range, which is a range of UE speeds for which analytics is requested, where the speed range is indicated as a range of Velocity Estimate, as in clause\xa06.1.6.2.17 of TS\xa029.572\xa0[37];', '', '-\tDevice information, which may contain one of the following:', '', '-\tList of equipment types, according to clause\xa08.0 of GSMA\xa0TS.06\xa0[38].', '', '-\tAnalytics target period: relative time interval, either in the past or in the future, that indicates the time period for which the QoS Sustainability analytics is requested;', '', '-\tOptionally, Spatial granularity size and Temporal granularity size;', '', '-\tReporting Threshold(s), which apply only for subscriptions and indicate conditions on the level to be reached for the reporting of the analytics, i.e. to discretize the output analytics and to trigger the notification when the threshold(s) provided in the analytics subscription are crossed by the expected QoS KPIs.', '', '-\tA matching direction may be provided such as crossed (default value), below, or above.', '', '-\tAn acceptable deviation from the threshold level in the non-critical direction (i.e. in which the QoS is improving) may be set to limit the amount of signalling.', '', '\tThe level(s) relate to value(s) of the QoS KPIs defined in TS\xa028.554\xa0[10], for the relevant 5QI:', '', '-\tfor a 5QI of GBR resource type, the Reporting Threshold(s) refer to the QoS flow Retainability KPI;', '', '-\tfor a 5QI of non-GBR resource type, the Reporting Threshold(s) refer to the RAN UE Throughput KPI and/or delay in RAN KPI as defined in TS\xa028.554\xa0[10].', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address.', '', 'To derive the QoS Sustainability analytics when the location information is an area of interest with coarse granularity (i.e. TAIs or Cell IDs):', '', '-\tThe NWDAF collects the corresponding statistics information on the QoS KPI for the relevant 5QI of interests from the OAM, i.e. the QoS flow Retainability or the RAN UE Throughput or delay in RAN as defined in TS\xa028.554\xa0[10] and average GTP metrics as defined in TS\xa028.552\xa0[8].', '', 'To derive the QoS Sustainability analytics when the location information is an area of interest with fine granularity (i.e. geographical area that can be smaller than a cell):', '', '-\tThe NWDAF derives the UE list for the area of interest with fine granularity by two steps, firstly based on an initial selection of the UE list in the corresponding coarse area from AMF, secondly based on finer granularity location data from LCS, e.g. NWDAF can collect finer granularity location data of a UE from LCS and identify whether this UE is inside of the area of interest with fine granularity area, input data as defined in Table 6.9.2-2.', '', '-\tThe NWDAF can then collect the corresponding UE level information on the QoS KPI for the relevant 5QI of interests from the 5GC NF/OAM, i.e. input data as defined in Table 6.9.2-2.', '', '-\tNWDAF derives QoS sustainability statistics or predictions for the area of interest with fine granularity by averaging these input data for all the UEs that are in the UE list.', '', 'To improve QoS Sustainability analytics, the NWDAF may additionally collect GTP metrics defined in Table 6.9.2-3.', '', 'If the Analytics target period refers to the past:', '', '-\tThe NWDAF verifies whether the triggering conditions for the notification of QoS change statistics are met and if so, generates for the consumer one or more notifications.', '', '-\tThe analytics feedback contains the information on the location and the time for the QoS change statistics and the Reporting Threshold(s) that were crossed.', '', 'If the Analytics target period is in the future:', '', '-\tThe NWDAF detects the need for notification about a potential QoS change based on comparing the expected values for the KPI of the target 5QI against the Reporting Threshold(s) provided by the consumer in any cell in the requested area for the requested Analytics target period. The expected KPI values are derived from the statistics for the 5QI obtained from OAM. OAM information may also include planned or unplanned outages detection and other information that is not in scope for 3GPP to discuss in detail.', '', '-\tThe analytics feedback contains the information on the location and the time when a potential QoS change may occur and what Reporting Threshold(s) may be crossed.', '']</t>
+          <t>['', 'If the AMF is aware that a satellite backhaul is used towards 5G AN, the AMF may report this to SMF as part of the PDU Session establishment procedure as described in clause\xa04.3.2 of TS\xa023.502\xa0[3]. If AMF is aware that satellite backhaul category changes (e.g. at handover), the AMF reports the current satellite backhaul category and indicates the satellite backhaul category change to SMF.', '', 'Satellite backhaul category refers to the type of the satellite (i.e. GEO, MEO, LEO or OTHERSAT, DYNAMIC_GEO, DYNAMIC _MEO, DYNAMIC _LEO, DYNAMIC _OTHERSAT) used in the backhaul. Only a single backhaul category can be indicated.', '', 'If dynamic satellite backhaul is used by the NG-RAN, i.e. capabilities (latency and/or bandwidth) of the satellite backhaul change over time due to e.g. use of varying inter-satellite links as part of backhaul, the AMF notifies the SMF of the corresponding dynamic satellite backhaul category to serve the PDU Session.', '', 'NOTE:\tIt is assumed that the AMF can determine the Satellite backhaul category for the notification to the SMF based on local configuration, e.g. based on Global RAN Node IDs associated with satellite backhaul.', '']</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.1896773194092497</v>
+        <v>0.2071356875282506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;6.9.2	Input data&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.43.5	QoS monitoring when dynamic Satellite Backhaul is used&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,22 +1778,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>['', 'To derive the QoS Sustainability analytics for a path of interest or for an area of interest with coarse granularity (i.e. TAIs or Cell IDs), the input data is listed in Table 6.9.2-1.', '', 'Table 6.9.2-1: Data collection for "QoS Sustainability" analytics', '', 'Information', '', 'Source', '', 'Description', '', 'RAN UE Throughput', '', 'OAM TS\xa028.554\xa0[10]', '', 'Average UE bitrate in the cell (Payload data volume on RLC level per elapsed time unit on the air interface, for transfers restricted by the air interface), per timeslot, per cell, per 5QI and per S-NSSAI.', '', 'QoS flow Retainability', '', 'OAM TS\xa028.554\xa0[10]', '', 'Number of abnormally released QoS flows during the time the QoS Flows were used per timeslot, per cell, per 5QI and per S-NSSAI.', '', 'Delay in RAN', '', 'OAM TS\xa028.554\xa0[10]', '', 'Average Uplink and downlink packet transmission delay through RAN part to the UE, per timeslot, per cell, per 5QI and per S-NSSAI.', '', '', '', 'NOTE\xa01:\tThe timeslot is the time interval split according to the time unit of the OAM statistics defined by operator.', '', 'To derive the QoS Sustainability analytics for an area of interest with fine granularity (i.e. geographical area that can be smaller than a cell), additional input data is listed in Table 6.9.2-2.', '', 'Table 6.9.2-2: UE level data collection for "QoS Sustainability" analytics with fine granularity', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', 'LCS', '', 'A time stamp associated with the collected information.', '', 'UE ID', '', 'LCS, AMF', '', '(list of) SUPI(s).', '', 'Finer granularity location data', '', 'LCS', '', 'UE position in the area of interest.', '', 'Speed', '', 'LCS', '', 'Current UE speed.', '', 'SMF info', '', 'AMF', '', 'SMF address for the SMF serving the UE', '', 'UPF info', '', 'SMF', '', 'Address for the UPF serving the UE.', '', '5QI', '', 'SMF', '', '5G QoS Identifier.', '', 'PEI', '', 'UDM', '', 'Permanent Equipment Identifier, as described in clause\xa05.9.3 of 1\xa023.501\xa0[2].', '', 'Equipment type', '', 'GSMA IMEI database or OAM', '', 'Equipment Type such as smartphone, tablet, dongle, etc. as described in GSMA\xa0TS.06\xa0[38].', '', '', '', 'NOTE\xa02:\tHow to use the input data from GSMA for QoS Sustainability analytics is up to NWDAF implementation.', '', 'Additionally, the NWDAF collects the following input (Table 6.9.2-3) according to measurements defined in clause\xa05.33.3 QoS Monitoring to Assist URLLC Service of TS\xa023.501\xa0[2] and IP-layer clause\xa0capacity and IP-layer available clause\xa0capacity definition from ITU-T\xa0Y.1540\xa0[40] between UE, NG-RAN and UPF at GTP level.', '', 'Table 6.9.2-3: Data collection for QoS Sustainability analytics at GTP level', '', 'Information', '', 'Source', '', 'Description', '', 'UL/DL packet delay GTP', '', 'OAM TS\xa028.552\xa0[8] (NOTE)', '', 'UL/DL packet delay measurement round trip on GTP path on N3 for non-GBR traffic.', '', 'UL/DL capacity GTP between UPF and NG-RAN ', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL capacity measurement from UPF to NG-RAN based on GTP path. The capacity measurement corresponds to the IP-layer section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'UL/DL capacity GTP between UPF and UE', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL capacity measurement from UE to UPF based on GTP path. The capacity measurement corresponds to the IP-layer section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'UL/DL available capacity GTP between UPF and NG-RAN ', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL available capacity measurement from UPF to NG-RAN based on GTP path. The available capacity measurement corresponds to the IP-layer available section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'UL/DL available capacity GTP between UPF and UE', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL available capacity measurement from UE to UPF based on GTP path. The available capacity measurement corresponds to the IP-layer available section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'NOTE:\tRefer to clause\xa05.1 of TS\xa028.552\xa0[8] for the performance measurement in NG-RAN and clause\xa05.4 of TS\xa028.552\xa0[8] for the performance measurement in UPF. In addition, Annex\xa0A of TS\xa028.552\xa0[8] describes various performance measurements, especially, clause\xa0A.61 "Monitoring of one way delay between PSA UPF and NG-RAN" indicates that the measurements on the one way DL and UL delay between PSA UPF and NG-RAN can be used to evaluate and optimize the DL and UL user plane delay performance between 5GC and NG-RAN.', '', '', '']</t>
+          <t>['', 'If dynamic satellite backhaul is used, QoS monitoring can be used to measure packet delay as specified in clause\xa05.45.2.', '', 'If the Satellite backhaul category received from SMF indicates dynamic satellite backhaul is used, the PCF may request QoS monitoring for the packet delay between UE and PSA UPF as specified in clause\xa05.45.2.', '', 'NOTE:\tPCF handling of satellite backhaul category indication and possible QoS monitoring is specified in TS\xa023.503\xa0[45].', '']</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.2028578513050164</v>
+        <v>0.1870549613080755</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;7.10.4	Nnwdaf_MLModelTraining_Notify service operation&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.45.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nnwdaf_MLModelTraining_Notify', '', '&lt;b&gt;Description:&lt;/b&gt; NWDAF notifies the consumer instance of the trained ML model that has subscribed to the specific NWDAF service. The NWDAF can also use this service to indicate to consumer it will terminate the ML model training.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt;', '', '-\tNotification Correlation Information: this parameter indicates the Notification Correlation ID that has been assigned by the consumer during ML model training.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt;', '', '-\tSet of the tuple (Analytics ID, ML model Information as defined in clause\xa06.2F.2;', '', '-\tML Correlation ID, when for Federated Learning;', '', '-\tCorresponding Use case context;', '', '-\tTermination Request: this parameter indicates that NWDAF requests to terminate the ML model training, i.e. NWDAF will not provide further notifications related to this request, with cause code (e.g. NWDAF overload, not available for the FL process anymore, etc.);', '', '-\tML Model ID: this parameter identifies the provisioned ML model;', '', '-\tML Model Accuracy: The model accuracy of the global ML model, which is calculate by the FL Client NWDAF using the local training data as the testing dataset;', '', '-\tStatus report of FL training: Accuracy of local model and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension, etc.), which are generated by the FL Client NWDAF during FL procedure;', '', '-\tDelay Event Notification: as defined in clause\xa06.2F.2;', '', '-\tIteration round ID.', '', 'NOTE:\tThe detail reasons in the cause code are up to stage 3.', '', '&lt;b&gt;Outputs, Required:&lt;/b&gt; Operation execution result indication.', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt; None.', '']</t>
+          <t>['', 'QoS monitoring comprises of measurements of QoS parameters and reports of the measurement result for a QoS Flow and can be enabled based on 3rd party application requests and/or operator policies configured in the PCF.', '', 'The AF may request measurements for one or more of the following QoS parameters, which may trigger QoS monitoring for service data flow(s):', '', '-\tUL packet delay, DL packet delay, round trip packet delay, see clause\xa05.45.2.', '', '-\tCongestion, see clause\xa05.45.3.', '', '-\tData Rate, see clause\xa05.45.4.', '', '-\tPacket Delay Variation, see clause\xa05.37.7.', '', '-\tRound trip packet delay when UL and DL are on different QoS flows, see clause\xa05.37.4.', '', 'The PCF may generate the authorized QoS Monitoring policy for a service data flow based on the QoS Monitoring request received from the AF (as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[45]). The PCF includes the authorized QoS Monitoring policy in the PCC rule and provides it to the SMF.', '', 'The QoS parameter(s) that can be measured by means of QoS monitoring are listed below. The QoS monitoring policy in PCC rule (described in clause\xa06.3.1 of TS\xa023.503\xa0[45]) may include the following:', '', '-\tUL packet delay, DL packet delay, round trip packet delay, see clause\xa05.45.2.', '', '-\tCongestion, see clause\xa05.45.3.', '', '-\tData Rate, see clause\xa05.45.4.', '', 'The SMF configures the UPF to perform QoS monitoring for the QoS Flow and to report the monitoring results as described in clause\xa05.8.2.18 with parameters determined by the SMF based on the authorized QoS Monitoring policy received from the PCF and/or local configuration. The SMF may also configure RAN to measure the QoS parameters based on the authorized QoS Monitoring policy received from the PCF and/or local configuration.', '', 'The following clauses describe the QoS parameters which can be measured and any specific actions or constraints for their measurement.', '', 'NOTE:\tThe QoS parameter which can be measured are parameters which describe the QoS experienced in the 5GS by the application, i.e. they are not restricted to the 5G QoS Parameters defined in clause\xa05.7.2.', '']</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.2078493405724723</v>
+        <v>0.1850158988413417</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;7.11.2	Nnwdaf_MLModelTrainingInfo_Request service operation&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.45.2	Packet delay monitoring&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,22 +1828,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nnwdaf_MLModelTrainingInfo_Request', '', '&lt;b&gt;Description:&lt;/b&gt; Request information about NWDAF ML model training with specific parameters.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt;', '', '-\tAnalytics ID as defined in Table 7.1-2.', '', '-\tInteroperability information.', '', '-\tML Model ID: identifies the provided ML model.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt;', '', '-\tML Model Information (i.e. file address (e.g. URL or FQDN) of ML Model that needs to update).', '', '-\tML Training Information (i.e. data availability requirement, time availability requirement).', '', '-\tML Preparation Flag.', '', '-\tML Model Accuracy Check Flag.', '', '-\tML Correlation ID.', '', '-\tTermination Request, when terminating the Federated Learning identified by the ML Correlation ID, and optionally indicating the reason, e.g. FL Client NWDAF is unselected by the FL Server NWDAF for the FL process, or the FL process is suspended, etc.', '', '-\tTraining Filter Information.', '', '-\tUse case context.', '', '&lt;b&gt;Outputs Required:&lt;/b&gt; When the request is accepted: Operation execution result indication. When the request is not accepted, an error response with cause code (e.g. NWDAF does not meet the ML training requirements, ML training is not complete, NWDAF overload, not available for the FL process anymore, etc.).', '', 'NOTE:\tThe detail reasons in the cause code are up to stage 3.', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt;', '', '-\tML Model ID.', '', '-\tSet of the tuple (Analytics ID, ML model Information (i.e., file address (e.g. URL or FQDN) of updated ML Model).', '', '-\tML Correlation ID, when for Federated Learning.', '', '-\tCorresponding Use case context.', '', '-\tStatus report of FL training: local ML model metric and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension of data, etc.), which are generated by the FL Client NWDAF during FL procedure.', '', '-\tDelay Event Notification with the following parameters:', '', '-\tdelay event indication: this parameter indicates that the FL Client NWDAF is not able to complete the training of the interim local ML model within the maximum response time provided by the FL Server NWDAF.', '', '-\t[OPTIONAL] cause code (e.g. local ML model training failure, more time necessary for local ML model training, etc.).', '', '-\t[OPTIONAL] the expected time to complete the training.', '', '-\tglobal ML model metric.', '']</t>
+          <t>['', 'QoS Monitoring for packet delay allows for the measurement of UL packet delay, DL packet delay or round trip packet delay between UE and PSA UPF. The details of the QoS Monitoring for packet delay are described in clause\xa05.33.3.', '', 'NOTE:\tThe PCF may calculate Packet Delay Variation (clause\xa05.37.7) and the round trip packet delay when UL and DL are on different QoS flows (clause\xa05.37.4) based on packet delay monitoring results of QoS flows.', '']</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.2046645531514943</v>
+        <v>0.1810937609227872</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;7.17.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.6.1	QoS handling for 5G ProSe Direct Communication&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>23281-i40.docx</t>
+          <t>23304-i20.docx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,47 +1853,47 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>['', 'The MCVideo adaption is used by an authorized MCVideo client to automatically change the video communication parameters including codec, resolution etc. according to the network conditions changes detected through such as packet loss or packet delay.', '']</t>
+          <t>['', 'In order to support QoS handling for 5G ProSe Direct Communication, the mechanism defined in clause\xa05.4 of TS\xa023.287\xa0[2] is reused with the following differences:', '', '-\tOnly NR PC5 QoS model is used.', '', '-\tPC5 Packet Filter Set supports three types of packet filters, i.e. the Prose IP Packet Filter Set, ProSe Ethernet Packet Filter Set, and the Prose Packet Filter Set. Each PC5 QoS Rule additionally contains the ProSe identifier when the ProSe identifier is not included in the PC5 Packet Filter Set.', '', '-\tV2X IP Packet Filter Set is replaced by ProSe IP Packet Filter Set.', '', '-\tV2X Packet Filter Set is replaced by ProSe Packet Filter Set. ProSe Packet Filter Set shall support Packet Filters based on at least any combination of:', '', '-\tProSe identifier;', '', '-\tSource/Destination Layer-2 ID;', '', '-\tApplication Layer ID.', '', '-\tProSe Ethernet Packet Filter Set that has the same format as the Ethernet Packet Filter Set defined in clause\xa05.7.6.3 of TS\xa023.501\xa0[4] is additionally defined.', '', '-\tV2X application layer is replaced by ProSe application layer.', '', '-\tV2X layer is replaced by ProSe layer.', '', '-\tV2X service type is replaced by ProSe identifier.', '', '-\tUE-PC5-AMBR is only applied for NR PC5.', '', '-\tThe PQI values are additionally defined. The one-to-one mapping of standardized PQI values that are additionally defined to PC5 QoS characteristics is specified in table\xa05.6.1-1.', '', 'Table 5.6.1-1: Standardized PQI values that are additionally defined to QoS characteristics mapping', '', 'PQI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', 'Packet Error', '', 'Rate ', '', 'Default Maximum Data Burst Volume', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '24', '', 'GBR', '', '(NOTE\xa01)', '', '1', '', '150 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical user plane Push To Talk voice (e.g. MCPTT)', '', '25', '', '', '', '2', '', '200 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Mission-Critical user plane Push To Talk voice, Conversational Voice', '', '26', '', '', '', '2', '', '200 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical Video user plane', '', '32', '', '', '', '4', '', '300 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Conversational Video (Live Streaming)', '', '33', '', '', '', '3', '', '100 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Real Time Gaming, Process automation monitoring', '', '34', '', '', '', '5', '', '600 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Conversational Video (Buffered Streaming)', '', '60', '', 'Non-GBR', '', '1', '', '120 ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical delay sensitive signalling (e.g. MC-PTT signalling)', '', '61', '', '', '', '6', '', '400 ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical Data (e.g. example services are the same as 5QI 6/8/9 as specified in TS\xa023.501\xa0[4])', '', '70', '', '', '', '7', '', '200 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Voice,', '', 'Video (Live Streaming)', '', 'Interactive Gaming', '', '71', '', '', '', '7', '', '20 ms', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Low Latency eMBB applications Augmented Reality', '', '92', '', 'Delay Critical GBR', '', '(NOTE\xa01)', '', '5', '', '5ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '20000 bytes', '', '2000 ms', '', 'Interactive service - consume VR content with high compression rate via tethered VR headset (See TS\xa022.261\xa0[6])', '', '93', '', '', '', '6', '', '10ms', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '20000 bytes', '', '2000 ms', '', 'interactive service - consume VR content with low compression rate via tethered VR headset;', '', 'Gaming or Interactive Data Exchanging (See TS\xa022.261\xa0[6])', '', 'NOTE\xa01:\tGBR and Delay Critical GBR PQIs can only be used for unicast PC5 communications.', '', '', '']</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.2315439537449694</v>
+        <v>0.2308848293310903</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;AA.4.1.1	General&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.7.4	Standardized 5QI to QoS characteristics mapping&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LR3_configuration</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>['', 'While no SBI procedures are defined for MRF (and hence MRFC and MRFP), it is possible to utilize NRF to discover and select the MRF. In networks where MRFC and MRFP are co-located it is only necessary to indicate that the service function is MRF, in networks where separated MRFC and MRFP are deployed the network function discovering the MRF (or MRFC) may not know the network topology, and thus the service function descriptor is always set to MRF (even when registering/discovering an MRFC).', '', 'The MRFP service descriptor is only used by the MRFC when separate MRFC and MRFP are deployed, and the MRFC is configured to use the NRF to discover a suitable of MRFP.', '', 'NOTE:\tIn many implementations where the MRFC and MRFP are separate entities the MRFP resource is directly linked to the MRFC and thus SBI discovery mechanisms are not necessary.', '', 'When an SBI capable IMS entity selects a MRF it shall use the IMS media service list to ensure that the selected MRF supports the required media capabilities for the application. The SBI capable IMS entity may utilize other available information to assist in selecting the MRF based on implementation criteria (e.g. proximity of the UE to MRF to minimize transmission delays).', '', 'A SBI capable IMS entity always selects an MRF (or MRFC within its own PLMN.', '']</t>
+          <t>['', 'Standardized 5QI values are specified for services that are assumed to be frequently used and thus benefit from optimized signalling by using standardized QoS characteristics. Dynamically assigned 5QI values (which require a signalling of QoS characteristics as part of the QoS profile) can be used for services for which standardized 5QI values are not defined. The one-to-one mapping of standardized 5QI values to 5G QoS characteristics is specified in table\xa05.7.4-1.', '', 'Table 5.7.4-1: Standardized 5QI to QoS characteristics mapping', '', '5QI', '', 'Value', '', 'Resource Type', '', 'Default Priority Level', '', 'Packet Delay Budget', '', '(NOTE\xa03)', '', 'Packet Error', '', 'Rate ', '', 'Default Maximum Data Burst Volume', '', '(NOTE\xa02)', '', 'Default', '', 'Averaging Window', '', 'Example Services', '', '1', '', '', '', 'GBR', '', '20', '', '100\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Conversational Voice', '', '2', '', '', '(NOTE\xa01)', '', '40', '', '150\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Conversational Video (Live Streaming)', '', '3', '', '', '', '30', '', '50\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Real Time Gaming, V2X messages (see TS\xa023.287\xa0[121]).', '', 'Electricity distribution – medium voltage, Process automation monitoring', '', '4', '', '', '', '', '50', '', '300\xa0ms', '', '(NOTE\xa011,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Conversational Video (Buffered Streaming)', '', '65', '', '(NOTE\xa09,', '', 'NOTE\xa012)', '', '', '', '7', '', '75\xa0ms', '', '(NOTE\xa07, NOTE\xa08)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical user plane Push To Talk voice (e.g. MCPTT)', '', '66', '', '(NOTE\xa012)', '', '', '', '', '', '20', '', '100\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Non-Mission-Critical user plane Push To Talk voice', '', '67', '', '(NOTE\xa012)', '', '', '', '', '15', '', '100\xa0ms', '', '(NOTE 10,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'Mission Critical Video user plane', '', '75', '', '(NOTE\xa014)', '', '', '', '25', '', '50 ms', '', '(NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', 'V2X messages (see TS\xa023.287\xa0[121]).', '', 'A2X messages (see TS\xa023.256\xa0[136])', '', '71', '', '', '', '56', '', '150 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '72', '', '', '', '56', '', '300 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '73', '', '', '', '56', '', '300 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-8&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '74', '', '', '', '56', '', '500 ms (NOTE\xa011, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-8&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '76', '', '', '', '56', '', '500 ms (NOTE\xa011, NOTE\xa013, NOTE\xa015)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', '2000 ms', '', '"Live" Uplink Streaming (e.g. TS\xa026.238\xa0[76])', '', '5', '', 'Non-GBR', '', '10', '', '100\xa0ms', '', 'NOTE 10,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'IMS Signalling', '', '6', '', '(NOTE\xa01)', '', '', '60', '', '', '300\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Video (Buffered Streaming)', '', 'TCP-based (e.g. www, e-mail, chat, ftp, p2p file sharing, progressive video, etc.), AI/ML model download for image recognition (e.g. for model topology) (see TS\xa022.261\xa0[2])', '', '7', '', '', '', '', '70', '', '', '100\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Voice,', '', 'Video (Live Streaming)', '', 'Interactive Gaming, AI/ML model download for image recognition (e.g. for model weight factors) (see TS\xa022.261\xa0[2])', '', '8', '', '', '', '', '80', '', '', '', '', '300\xa0ms', '', '(NOTE\xa013)', '', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', '', '', '', 'N/A', '', '', '', '', 'N/A', '', '', 'Video (Buffered Streaming)', '', 'TCP-based (e.g. www, e-mail, chat, ftp, p2p file sharing, progressive', '', '9', '', '', '', '90', '', '', '', '', '', '', '', '', '', 'video, etc.)', '', '10', '', '', '', '90', '', '1100ms', '', '(NOTE\xa013)', '', '(NOTE\xa017)', '', '', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Video (Buffered Streaming)', '', 'TCP-based (e.g. www, e-mail, chat, ftp, p2p file sharing, progressive video, etc.) and any service that can be used over satellite access type with these characteristics', '', '69', '', '(NOTE\xa09, NOTE\xa012)', '', '', '', '5', '', '60\xa0ms', '', '(NOTE\xa07, NOTE\xa08)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical delay sensitive signalling (e.g. MC-PTT signalling)', '', '70', '', '(NOTE\xa012)', '', '', '', '', '55', '', '200\xa0ms', '', '(NOTE\xa07,', '', 'NOTE\xa010)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Mission Critical Data (e.g. example services are the same as 5QI 6/8/9)', '', '79', '', '', '', '65', '', '50\xa0ms', '', '(NOTE\xa010,', '', 'NOTE\xa013)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-2&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'V2X messages (see TS\xa023.287\xa0[121])', '', '80', '', '', '', '68', '', '10\xa0ms', '', '(NOTE\xa05,', '', 'NOTE\xa010)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-6&lt;/sup&gt;&lt;/span&gt;', '', 'N/A', '', 'N/A', '', 'Low Latency eMBB applications Augmented Reality', '', '82', '', 'Delay-critical GBR', '', '19', '', '10\xa0ms', '(NOTE\xa04)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '255 bytes', '', '2000 ms', '', 'Discrete Automation (see TS\xa022.261\xa0[2])', '', '83', '', '', '', '22', '', '10\xa0ms', '(NOTE\xa04)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '1354 bytes', '', '(NOTE\xa03)', '', '2000 ms', '', 'Discrete Automation (see TS\xa022.261\xa0[2]);', '', 'V2X messages (UE - RSU Platooning, Advanced Driving: Cooperative Lane Change with low LoA. See TS\xa022.186\xa0[111], TS\xa023.287\xa0[121])', '', '84', '', '', '', '24', '', '30\xa0ms', '', '(NOTE 6)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '1354 bytes', '', '(NOTE\xa03)', '', '2000 ms', '', 'Intelligent transport systems (see TS\xa022.261\xa0[2])', '', '85', '', '', '', '21', '', '5\xa0ms', '', '(NOTE 5)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-5&lt;/sup&gt;&lt;/span&gt;', '', '255 bytes', '', '2000 ms', '', 'Electricity Distribution- high voltage (see TS\xa022.261\xa0[2]).', '', 'V2X messages (Remote Driving. See TS\xa022.186\xa0[111], NOTE\xa016, see TS\xa023.287\xa0[121]).', '', 'Split AI/ML inference - DL Split AI/ML image recognition, (see TS\xa022.261\xa0[2])', '', '86', '', '', '', '18', '', '5\xa0ms', '', '(NOTE 5)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '1354 bytes', '', '2000 ms', '', 'V2X messages (Advanced Driving: Collision Avoidance, Platooning with high LoA. See TS\xa022.186\xa0[111], TS\xa023.287\xa0[121])', '', '87', '', '', '', '25', '', '5\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', '500 bytes', '', '2000 ms', '', 'Interactive Service - Motion tracking data, (see TS\xa022.261\xa0[2])', '', '88', '', '', '', '25', '', '10\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-3&lt;/sup&gt;&lt;/span&gt;', '', '1125 bytes', '', '2000 ms', '', 'Interactive Service - Motion tracking data, (see TS\xa022.261\xa0[2]), split AI/ML inference - UL Split AI/ML image recognition, (see TS\xa022.261\xa0[2])', '', '89', '', '', '', '25', '', '15\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '17000 bytes', '', '2000 ms', '', 'Visual content for cloud/edge/split rendering (see TS\xa022.261\xa0[2])', '', '90', '', '', '', '25', '', '20\xa0ms (NOTE 4)', '', '10&lt;span style="font-size:22pt"&gt;&lt;sup&gt;-4&lt;/sup&gt;&lt;/span&gt;', '', '63000 bytes', '', '2000 ms', '', 'Visual content for cloud/edge/split rendering (see TS\xa022.261\xa0[2])', '', 'NOTE\xa01:\tA packet which is delayed more than PDB is not counted as lost, thus not included in the PER.', '', 'NOTE\xa02:\tIt is required that default MDBV is supported by a PLMN supporting the related 5QIs.', '', 'NOTE\xa03:\tThe Maximum Transfer Unit (MTU) size considerations in clause\xa09.3 and Annex C of TS\xa023.060\xa0[56] are also applicable. IP fragmentation may have impacts to CN PDB, and details are provided in clause\xa05.6.10.', '', 'NOTE\xa04:\tA static value for the CN PDB of 1\xa0ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface. When a dynamic CN PDB is used, see clause\xa05.7.3.4.', '', 'NOTE\xa05:\tA static value for the CN PDB of 2 ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface. When a dynamic CN PDB is used, see clause\xa05.7.3.4.', '', 'NOTE\xa06:\tA static value for the CN PDB of 5 ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface. When a dynamic CN PDB is used, see clause\xa05.7.3.4.', '', 'NOTE\xa07:\tFor Mission Critical services, it may be assumed that the UPF terminating N6 is located "close" to the 5G_AN (roughly 10 ms) and is not normally used in a long distance, home routed roaming situation. Hence a static value for the CN PDB of 10 ms for the delay between a UPF terminating N6 and a 5G_AN should be subtracted from this PDB to derive the packet delay budget that applies to the radio interface.', '', 'NOTE\xa08:\tIn both RRC_IDLE and RRC_CONNECTED mode, the PDB requirement for these 5QIs can be relaxed (but not to a value greater than 320\xa0ms) for the first packet(s) in a downlink data or signalling burst in order to permit reasonable battery saving (DRX) techniques.', '', 'NOTE\xa09:\tIt is expected that 5QI-65 and 5QI-69 are used together to provide Mission Critical Push to Talk service (e.g. 5QI-5 is not used for signalling). It is expected that the amount of traffic per UE will be similar or less compared to the IMS signalling.', '', 'NOTE\xa010:\tIn both RRC_IDLE and RRC_CONNECTED mode, the PDB requirement for these 5QIs can be relaxed for the first packet(s) in a downlink data or signalling burst in order to permit battery saving (DRX) techniques.', '', 'NOTE\xa011:\tIn RRC_IDLE mode, the PDB requirement for these 5QIs can be relaxed for the first packet(s) in a downlink data or signalling burst in order to permit battery saving (DRX) techniques.', '', 'NOTE\xa012:\tThis 5QI value can only be assigned upon request from the network side. The UE and any application running on the UE is not allowed to request this 5QI value.', '', 'NOTE\xa013:\tA static value for the CN PDB of 20\xa0ms for the delay between a UPF terminating N6 and a 5G-AN should be subtracted from a given PDB to derive the packet delay budget that applies to the radio interface.', '', 'NOTE\xa014:\tThis 5QI is only used for transmission of V2X messages as defined in TS\xa023.287\xa0[121] and transmission of A2X messages as defined in TS\xa023.256\xa0[136].', '', 'NOTE\xa015:\tFor "live" uplink streaming (see TS\xa026.238\xa0[76]), guidelines for PDB values of the different 5QIs correspond to the latency configurations defined in TR\xa026.939\xa0[77]. In order to support higher latency reliable streaming services (above 500ms PDB), if different PDB and PER combinations are needed these configurations will have to use non-standardised 5QIs.', '', 'NOTE 16:\tThese services are expected to need much larger MDBV values to be signalled to the RAN. Support for such larger MDBV values with low latency and high reliability is likely to require a suitable RAN configuration, for which, the simulation scenarios in TR\xa038.824\xa0[112] may contain some guidance.', '', 'NOTE\xa017:\tThe worst case one way propagation delay for GEO satellite is expected to be ~270ms, ,~ 21 ms for LEO at 1200km, and 13 ms for LEO at 600km. The UL scheduling delay that needs to be added is also typically two way propagation delay e.g. ~540ms for GEO, ~42ms for LEO at 1200km, and ~26 ms for LEO at 600km. Based on that, the 5G-AN Packet delay budget is not applicable for 5QIs that require 5G-AN PDB lower than the sum of these values when the specific types of satellite access are used (see TS\xa038.300\xa0[27]). 5QI-10 can accommodate the worst case PDB for GEO satellite type.', '', '', '', 'NOTE:\tIt is preferred that a value less than 64 is allocated for any new standardised 5QI of Non-GBR resource type. This is to allow for option 1 to be used as described in clause\xa05.7.1.3 (as the QFI is limited to less than 64).', '']</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.2235183616847434</v>
+        <v>0.2298756924509046</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;AC.7.4.2	DCMF Registration and Discovery&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;5.9.4	5G Globally Unique Temporary Identifier&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1903,22 +1903,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>['', 'The DCMF profile includes NF type=DCMF and may include information to select a local DCMF to minimize transmission delays in the media path, this may include IP address or location.', '', "Editor's note:\tUsage of IP address and IP address ranges is FFS.", '', 'The DCMF can update and deregister in the NRF after registration and the procedures are specified in clauses 4.17.2 and 4.17.3 of TS\xa023.502\xa0[3].', '', 'After registration in the NRF, the DCMF and its services can be discovered by other consumer NFs as specified in clauses 4.17.4 and 4.17.5 of TS\xa023.502\xa0[94].', '']</t>
+          <t>['', 'The AMF shall allocate a 5G Globally Unique Temporary Identifier (5G-GUTI) to the UE that is common to both 3GPP and non-3GPP access. It shall be possible to use the same 5G-GUTI for accessing 3GPP access and non-3GPP access security context within the AMF for the given UE. An AMF may re-assign a new 5G-GUTI to the UE at any time. The AMF provides a new 5G-GUTI to the UE under the conditions specified in clause\xa06.12.3 of TS\xa033.501\xa0[29]. When the UE is in CM-IDLE, the AMF may delay providing the UE with a new 5G-GUTI until the next NAS transaction.', '', 'The 5G-GUTI shall be structured as:', '', '\t&amp;lt;5G-GUTI&amp;gt; := &amp;lt;GUAMI&amp;gt; &amp;lt;5G-TMSI&amp;gt;', '', '\twhere GUAMI identifies one or more AMF(s).', '', 'When the GUAMI identifies only one AMF, the 5G-TMSI identifies the UE uniquely within the AMF. However, when AMF assigns a 5G-GUTI to the UE with a GUAMI value used by more than one AMF, the AMF shall ensure that the 5G-TMSI value used within the assigned 5G-GUTI is not already in use by the other AMF(s) sharing that GUAMI value.', '', 'The Globally Unique AMF ID (GUAMI) shall be structured as:', '', '\t&amp;lt;GUAMI&amp;gt; := &amp;lt;MCC&amp;gt; &amp;lt;MNC&amp;gt; &amp;lt;AMF Region ID&amp;gt; &amp;lt;AMF Set ID&amp;gt; &amp;lt;AMF Pointer&amp;gt;', '', '\twhere AMF Region ID identifies the region, AMF Set ID uniquely identifies the AMF Set within the AMF Region and AMF Pointer identifies one or more AMFs within the AMF Set.', '', 'NOTE\xa01:\tThe AMF Region ID addresses the case that there are more AMFs in the network than the number of AMFs that can be supported by AMF Set ID and AMF Pointer by enabling operators to re-use the same AMF Set IDs and AMF Pointers in different regions.', '', 'NOTE\xa02:\tIn the case of SNPNs, the PLMN IDs may be shared among SNPNs such that the constructed GUAMIs are not globally unique. However, PLMN ID and NID are provided together, separate from the GUAMI, to uniquely identify selected or supported SNPN in RRC and N2.', '', 'NOTE\xa03: See TS\xa023.003\xa0[19] for details on the structure of the fields of GUAMI.', '', 'The 5G-S-TMSI is the shortened form of the GUTI to enable more efficient radio signalling procedures (e.g. during Paging and Service Request) and is defined as:', '', '\t&amp;lt;5G-S-TMSI&amp;gt; := &amp;lt;AMF Set ID&amp;gt; &amp;lt;AMF Pointer&amp;gt; &amp;lt;5G-TMSI&amp;gt;', '', 'As specified in TS\xa038.304\xa0[50] and TS\xa036.304\xa0[52] for 3GPP access, the NG-RAN uses the 10 Least Significant Bits of the 5G-TMSI in the determination of the time at which different UEs are paged. Hence, the AMF shall ensure that the 10 Least Significant Bits of the 5G-TMSI are evenly distributed.', '', "As specified in TS\xa038.331\xa0[28] and TS\xa036.331\xa0[51] for 3GPP access, the NG-RAN's RRC Connection Establishment's contention resolution process assumes that there is a low probability of the same 5G-TMSI being allocated by different AMFs to different UEs. The AMFs' process for allocating the 5G-TMSI should take this account.", '', "NOTE\xa04:\tTo achieve this, the AMF could, for example, use a random seed number for any process it uses when choosing the UE's 5G-TMSI.", '']</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.1987475067033602</v>
+        <v>0.2128295279331611</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>&lt;h3&gt;G.5.2.2	Required functions of the UE&lt;/h3&gt;</t>
+          <t>&lt;h3&gt;6.1.3	Contents of Analytics Exposure&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1928,22 +1928,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>['', 'When supporting ICE, the UE is responsible for managing the overall NAT traversal process and for invoking the various protocol mechanisms to implement the NAT traversal approach. As such, the following functions shall be performed by the UE:', '', '-\tSTUN relay server and STUN server discovery;', '', 'NOTE:\tA configuration mechanism can be used to provision STUN server and STUN relay server addresses in the UE.', '', '-\tTransmission of media packets from the same port on which it expects to receive media packets;', '', '-\tRTCP port advertisement.', '', '-\tICE functionality which includes:', '', '-\tMaintaining of NAT bindings to insure inbound media packets are allowed to traverse the NAT device.', '', '-\tAddress advertisement, which consists of the following operations:', '', '-\tGathering candidate addresses for media communications;', '', '-\tAdvertising the candidate addresses in a special SDP attribute (a=candidate) along with the active transport address in the m/c lines of the SDP.', '', '-\tPerform connectivity checks on the candidate addresses in order to select a suitable address for communications.', '', 'Depending on the results of the connectivity checks, one of the candidate addresses may be promoted to become the active transport address.', '', 'Depending on the active transport address, provide additional information in the session description to insure that correct policy and charging functionality can be applied on relayed media packets.', '', 'Given the desire to minimize session establishment delays during connectivity checks, the UE shall advertise its active address in the SDP offer or answer in the following order based on their availability:', '', '1.\tSTUN relay server assigned address;', '', '2.\tSTUN derived address;', '', '3.\tLocally assigned address.', '']</t>
+          <t>['', 'The consumers of the Nnwdaf_AnalyticsSubscription_Subscribe or Nnwdaf_AnalyticsInfo_Request service operations described in clause\xa07 provide the following input parameters listed below.', '', '-\tA list of Analytics ID(s): identifies the requested analytics.', '', '-\tAnalytics Filter Information: indicates the conditions to be fulfilled for reporting Analytics Information. This set of optional parameter types and values enables to select which type of analytics information is requested. Analytics Filter Information is defined in the analytics related clauses.', '', '-\tTarget of Analytics Reporting: indicates the object(s) for which Analytics information is requested, entities such as specific UEs, a group of UE(s) or any UE (i.e. all UEs).', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) A Notification Target Address (+ Notification Correlation ID) as defined in clause\xa04.15.1 of TS\xa023.502\xa0[3], allowing to correlate notifications received from NWDAF with this subscription.', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Subscription Correlation ID: identifies an existing analytics subscription that is to be modified.', '', '-\tRelated to analytic consumers that aggregate analytics from multiple NWDAF subscriptions:', '', '-\t[OPTIONAL] (Set of) NWDAF identifiers of NWDAF instances used by the NWDAF service consumer when aggregating multiple analytics subscriptions. See clause\xa06.1A.', '', '-\tAnalytics Reporting Information with the following parameters:', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Analytics Reporting Parameters as per Event Reporting parameters defined in Table 4.15.1-1 of TS\xa023.502\xa0[3].', '', 'NOTE\xa01:\tWhen the Analytics Reporting Parameters indicates a periodic reporting mode and the periodicity of the report is equal to or greater than the Supported Analytics Delay associated with the Analytics ID (if available) defined in clause\xa06.2.6.2 of TS\xa023.501\xa0[2], it is expected that the periodic reporting can be provided by the NWDAF as requested.', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Reporting Thresholds, which indicate conditions on the level of each requested analytics that when reached shall be notified by the NWDAF.', '', '-\t[OPTIONAL] Matching direction: A matching direction may be provided such as below, above, or crossed. If no matching direction is provided, the default direction is crossed.', '', '-\t[OPTIONAL] Acceptable deviation: An acceptable deviation from the threshold level in the non-critical direction (i.e. in which the QoS is improving) may be set to limit the amount of signalling.', '', '-\tAnalytics target period: time interval [start..end], either in the past (both start time and end time in the past) or in the future (both start time and end time in the future). An Analytics target period in the past is a request or subscription for statistics. An Analytics target period in the future is a request or subscription for predictions. The time interval is expressed with actual start time and actual end time (e.g. via UTC time). When the Analytics Reporting Parameters indicate a periodic reporting mode, the time interval can also be expressed as positive or negative offsets to the reporting time, which indicates a subscription for predictions or statistics respectively. By setting start time and end time to the same value, the consumer of the analytics can request analytics or subscribe to analytics for a specific time rather than for a time interval.', '', '-\tTime window for historical analytics: time interval [start..end]. The time window for historical analytics indicates the time interval during which the historical analytics was generated. If the time window for historical analytics is included, the NWDAF only needs to provide the existing analytics, and does not need to generate new analytics.', '', '-\t[OPTIONAL] Data time window: if specified, only events that have been created in the specified time interval are considered for the analytics generation.', '', '-\t[OPTIONAL] Preferred level of accuracy of the analytics ("Low", "Medium", "High" or "Highest").', '', '-\t[OPTIONAL] Preferred level of accuracy per analytics subset ("Low", "Medium", "High" or "Highest"). When a preferred level of accuracy is expressed for a given analytics subset, it takes precedence for this subset over the above preferred level of accuracy of the analytics. Analytics subsets are defined in the "Output Analytics" clause\xa0of applicable analytics.', '', '-\t[OPTIONAL] Dataset Statistical Properties: information in order to influence the data selection mechanisms to be used for the generation of an Analytics ID, assuring that the generated Analytics ID reflects the statistical characteristics of the data that are relevant for the NWDAF consumer. The following dataset statistical properties are allowed:', '', '-\tUniformly distributed datasets, which indicates the use of data samples that are uniformly distributed according to the different aspects of the requested analytics (e.g. equivalent data samples for each UE listed as a Target of Analytics Reporting or for S-NSSAIs included in the Analytics Filter Information).', '', '-\tDatasets with or without outliers, which indicates that the data samples shall consider or disregard data samples that are at the extreme boundaries of the value range.', '', '-\tTime when analytics information is needed (if applicable): indicates to the NWDAF the latest time the analytics consumer expects to receive analytics data provided by the NWDAF. It should not be set to a value less than the Supported Analytics Delay of the selected NWDAF if applicable. If the time is reached the consumer does not need to wait for the analytics information any longer, yet the NWDAF may send an error response or error notification to the consumer. "Time when analytics information is needed" is a relative time interval as the gap with respect to analytics request /subscription (e.g. "in 10 minutes").', '', 'NOTE\xa02:\tIf the analytics request contains the parameter "Time when analytics information is needed" for Analytics ID(s), this parameter takes precedence over the requested periodicity, if a periodic reporting mode is requested.', '', 'NOTE\xa03:\tIf the Time when analytics information is needed is provided and it is less than the Supported Analytics Delay per Analytics ID (if available) defined in clause\xa06.2.6.2 of TS\xa023.501\xa0[2], it is expected that the NWDAF might not be able to treat the Analytics ID on time.', '', '-\t[OPTIONAL] Maximum number of objects requested by the consumer (max) to limit the number of objects in a list of analytics per Nnwdaf_AnalyticsSubscription_Notify or Nnwdaf_AnalyticsInfo_Request response.', '', '-\t[OPTIONAL] Preferred granularity of location information: "TA level", "cell level" or "longitude and latitude level".', '', 'NOTE\xa04:\tAs defined in clause\xa04 of TS\xa023.032\xa0[34], longitude and latitude level means the location information is expressed as longitude and latitude in geographical coordinate instead of TA ID or cell ID that is only known in 3GPP system. It also stands for the location information that is expressed as a reference point in local co-ordinate.', '', '-\t[OPTIONAL] Spatial granularity size: maximum number of TA or cells used to define an area for which analytics are provided. When this parameter is provided, the NWDAF should provide analytics per group of TA of cells accordingly.', '', '-\t[OPTIONAL] Temporal granularity size: minimum duration of each time slot for which analytics are provide. When this parameter is provided, the NWDAF should provide analytics per elementary time slot accordingly.', '', 'NOTE\xa05:\tIt is up to NWDAF implementation to determine whether the data is taken into account that the UE locates in an area for a shorter time than the Temporal granularity size.', '', '-\t[OPTIONAL] Preferred orientation of location information: ("horizontal", "vertical", "both").', '', '-\t[OPTIONAL] Preferred order of results when a list of analytics is returned, possibly with a criterion for identifying the property of the results to which the preferred ordering is applied.', '', '-\t[OPTIONAL] Maximum number of SUPIs (SUPImax) requested by the consumer to limit the number of SUPIs in an object. When SUPImax is not provided, the NWDAF shall return all SUPIs concerned by the analytics object. When SUPImax is set to 0, the NWDAF shall not provide any SUPI.', '', '-\t[OPTIONAL] Output strategy: indicates the relevant factors for determining when the analytics reported. The following values are allowed:', '', '-\tBinary output strategy: indicates that the analytics shall only be reported when the preferred level of accuracy is reached within a cycle of periodic notification as defined in the Analytics Reporting Parameters.', '', 'NOTE\xa06:\tIf preferred level of accuracy is more important than providing an output, then the binary strategy is used so that all analytics outputs have equivalent confidence in the prediction.', '', '-\tGradient output strategy: indicates that the analytics shall be reported according to the periodicity defined in the Analytics Reporting Parameters irrespective if the preferred level of accuracy has been reached.', '', 'NOTE\xa07:\tIf having an analytics output is more important than reaching the preferred level of accuracy, then the gradient output strategy is used so that each NWDAF will timely provide the output indicating the confidence of the prediction at the moment of the output generation.', '', 'NOTE\xa08:\tWhen no output strategy is included in the subscription, the analytics output will be generated based on the gradient strategy and includes the confidence of the prediction for the reporting period.', '', '-\t[OPTIONAL] Analytics metadata request: indicates a request from one NWDAF to another NWDAF to provide the "analytics metadata information" related to the produced output analytics. This input parameter indicates which parameters in "analytics metadata information" are required to aggregate the output analytics for the requested Analytics ID(s).', '', "-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Consumer NF's serving area or NF ID. During a pending analytics subscription transfer, this information can be used by the NWDAF to find out if the analytics consumers may change as described in clause\xa06.1B.2.", '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) Information of previous analytics subscription. When setting up the analytics generation, this information may be used to retrieve analytics context from the previous NWDAF in order to build upon the context that is already related to this subscription as described in clause\xa06.1B.2.1.', '', '-\t[OPTIONAL] Use case context: indicates the context of use of the analytics to select the most relevant ML model.', '', 'NOTE\xa09:\tThe NWDAF can use the parameter "Use case context" to select the most relevant ML model, when several ML models are available for the requested Analytics ID(s). NWDAF containing AnLF can additionally provide the parameter "Use case context" when requesting an ML model from an NWDAF containing MTLF. The values of this parameter are not standardized. For example, the AMF can use a given value of "Use case context" when requesting UE Mobility analytics for optimizing the definition of a Registration Area, and a different value of "Use case context" when requesting UE Mobility analytics for determines a paging strategy.', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Subscribe) [OPTIONAL] Analytics feedback information: indicates that the consumer NF has taken an action(s) influenced by the previously provided analytics, which may or may not affect the ground truth data corresponding to analytic ID requested at the time which the prediction refers to, and consequently affect the ML Model Accuracy monitoring by the subscription with following parameter(s):', '', '-\tCorresponding Analytics ID(s) which has been used for taking an action(s);', '', '-\tIndication whether the action will affect on ground truth data (if available);', '', '-\tTime stamp(s) of the action(s) taken.', '', 'NOTE\xa010:\tThe consumer NF cannot include Analytics feedback information in initial subscription request. Analytics feedback information can be included in modification request for the existing analytics subscription.', '', '-\t[OPTIONAL] Analytics Accuracy Request information with the following parameters:', '', '-\tAnalytics accuracy request: indicates NWDAF to provide accuracy information to the analytics consumer.', '', '-\t[OPTIONAL] Analytics accuracy information time window: time interval [start. end], which indicates that analytics consumers only consider the accuracy information which is generated within this time interval.', '', '-\t[OPTIONAL] Analytics accuracy information periodicity: time period, which indicates periodic reporting of accuracy information for the corresponding Analytics ID(s).', '', '-\t[OPTIONAL] Analytics Accuracy threshold(s): a reporting threshold of accuracy value, which is indicated that:', '', '-\tThe NWDAF can provide analytics output and optionally analytics accuracy value to the analytics consumer(s) when the accuracy value is above this Analytics Accuracy threshold;', '', '-\tThe NWDAF can provide "Stop analytics consumption indication", "Updated Analytics" or the analytics accuracy information to the analytics consumer(s) when the accuracy value is under this threshold;', '', '\twhich indicates the deviation of the predictions from the actual network data does not meet analytics accuracy requirement.', '', '-\t[OPTIONAL] Minimal number of analytics output occurrences: determines the minimal number of analytics output provided by NWDAF that have to be considered in the determination of the accuracy information.', '', '-\t[OPTIONAL] Updated Analytics flag: indicates that the NWDAF can provide updated analytics for provided Analytics ID(s), if updated analytics can be generated within analytics accuracy information time window.', '', '-\t[OPTIONAL] Correction time period: a relative time interval as the gap with respect to analytics is provided, which is indicated the time interval during which the updated analytics can be accepted by the analytics consumer.', '', '-\t[OPTIONAL] Pause analytics consumption flag: is a flag indicating to NWDAF to stop sending the notifications of analytics outputs for a subscribed analytics ID, without unsubscribing to such analytics ID.', '', '-\t[OPTIONAL] Resume Analytics Subscription request: is a flag indicating to NWDAF to resume the notification of analytics outputs for an existing analytics ID(s) subscription(s) that have been previously paused.', '', 'The NWDAF provides to the consumer of the Nnwdaf_AnalyticsSubscription_Notify or Nnwdaf_AnalyticsInfo_Request service operations described in clause\xa07, the output information listed below:', '', '-\t(Only for Nnwdaf_AnalyticsSubscription_Notify) The Notification Correlation Information.', '', '-\tFor each Analytics ID the analytics information in the requested Analytics target period.', '', '-\tTimestamp of analytics generation: allows consumers to decide until when the received information shall be used. For instance, an NF can deem a received notification from NWDAF for a given feedback as invalid based on this timestamp;', '', '-\tValidity period: defines the time period for which the analytics information is valid.', '', 'NOTE\xa011:\t\tValidity period is determined by NWDAF internal logic and it is a subset of Analytics target period.', '', '-\tConfidence: probability assertion, i.e. confidence in the prediction.', '', '-\t[OPTIONAL] For each Analytics ID the Termination Request, which notifies the consumer that the subscription is requested to be cancelled as the NWDAF can no longer serve this subscription, e.g. due to user consent revoked, NWDAF overload, UE moved out of NWDAF serving area, etc.', '', '-\t[OPTIONAL] Analytics metadata information: additional information required to aggregate the output analytics for the requested Analytics ID(s). This parameter shall be provided if the "Analytics metadata request" parameter was provided in the corresponding Nnwdaf_AnalyticsSubscription_Subscribe or Nnwdaf_AnalyticsInfo_Request service operation.', '', '-\tNumber of data samples used for the generation of the output analytics;', '', '-\tData time window of the data samples;', '', '-\tDataset Statistical Properties of the analytics output used for the generation of the analytics;', '', '-\t[OPTIONAL] Data source(s) of the data used for the generation of the output analytics;', '', '-\t[OPTIONAL] Data Formatting and Processing applied on the data;', '', '-\tOutput strategy used for the reporting of the analytics.', '', '-\t(Only for error response or error notification) Revised waiting time: indicates to the consumer a revised waiting value for "Time when analytics information is needed". Each NWDAF may include this as part of error response or error notification to "Time when analytics information is needed" as described in clause\xa06.2.5. Revised waiting time is the minimum time interval recommended by NWDAF to use as "Time when analytics information is needed" for similar future analytics requests/subscriptions.', '', '-\t[OPTIONAL] Analytics accuracy information generated for each analytics ID, including:', '', '-\tAnalytics accuracy value for requested Analytics ID(s): a value shall be provided if "Analytics accuracy request" parameter was provided in the corresponding Nnwdaf_AnalyticsSubscription_Subscribe service operation. This parameter may be provided if the value crosses the analytics accuracy threshold(s) which is indicated in the subscribe request or locally configured, or the analytics accuracy information periodicity indicated in the subscribe request is reached.', '', '-\t[OPTIONAL] An indication that the determined accuracy value for the analytics ID does not meet the analytics accuracy threshold requested for the analytics ID.', '', '-\t[OPTIONAL] Updated Analytics: NWDAF provides updated Analytics, which is generated within analytics accuracy information time window, for provided Analytics ID(s), if "Updated Analytics flag" parameter was indicated in the corresponding Nnwdaf_AnalyticsSubscription_Subscribe service operation.', '', '-\t[OPTIONAL] Stop Analytics Consumption indication: NWDAF provides to the consumer an indication to stop the consumption of the Analytics ID(s) related to the subscription ID based on NWDAF internal logic or specified analytics accuracy threshold.', '', '-\t[OPTIONAL] Resume Analytics Output Consumption indication: NWDAF provides to consumer an indication to resume the consumption of analytics output for existing subscription to the analytics ID(s) that was previously paused.', '', '-\t[OPTIONAL] Accuracy Information Termination: NWDAF notifies the consumer that the subscription to the accuracy information for an analytics ID has been cancelled as the NWDAF does not support the accuracy checking capability, e.g. as an indication that a new target serving NWDAF supporting accuracy checking capability could not have been selected during the analytics transfer procedures.', '', 'NOTE\xa012:\tIt is left to Stage 3 to decide whether the Accuracy Information Termination is a cause related to the Termination Request or not.', '']</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.2100097250979517</v>
+        <v>0.1946732669733399</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.11.2a.1	General&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.13.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1953,47 +1953,47 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>['', 'The procedure defined in this clause specifies how network resources are requested at session establishment from the MC service server. The request for resources is sent to the PCRF via the Rx reference point from the MC service server and includes media type, bandwidth, priority, application identifier and resource sharing information. If concurrent sessions are used, the MC service server may utilize the capability of resource sharing specified in 3GPP\xa0TS\xa023.203\xa0[8].', '', 'For the request of network resources by the MC service server via the Rx reference point, the MC service client provides to the MC service server the final access resource details (e.g. IP addresses and ports) of the MC service client and the media anchoring points.', '', 'This procedure is generic to any type of session establishment with the MC service server requesting network resources.', '']</t>
+          <t>['', 'This clause describes the Redundant Transmission Experience related analytics. These analytics may be used as follows:', '', '-\tby the SMF to determine whether redundant transmission on N3/N9 interfaces (see clause\xa05.33.2.2 of TS\xa023.501\xa0[2]) shall be performed, or (if it had been activated) shall be stopped;', '', '-\tby the PCF for the calculation of the Route Selection Components in a URSP Rule for redundant PDU Sessions as described in clause\xa05.33.2.1 of TS\xa023.501\xa0[2].', '', 'The service consumer may be a NF (e.g. SMF, PCF).', '', 'The consumer of these analytics may indicate in the request:', '', '-\tAnalytics ID = "Redundant Transmission Experience".', '', '-\tTarget of Analytics Reporting: a single UE (SUPI), any UE, or a group of UEs (an Internal Group ID).', '', '-\tAnalytics Filter Information optionally containing:', '', '-\tArea of Interest;', '', '-\tS-NSSAI;', '', '-\tDNN;', '', '-\toptional list of analytics subsets that are requested (i.e. UL/DL packet drop rate GTP-U, UL/DL packet delay GTP-U, see clause\xa06.13.3).', '', '-\tAn Analytics target period indicates the time period over which the statistics or predictions are requested.', '', '-\tOptionally, Temporal granularity size;', '', '-\tPreferred level of accuracy of the analytics;', '', '-\tPreferred order of results for the list of Redundant Transmission Experience:', '', '-\tordering criterion: "time slot start"; and', '', '-\torder: ascending or descending;', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address are included.', '']</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.2192214671841868</v>
+        <v>0.1993119129268773</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.11.6.1	General&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.13.2	Input Data&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>['', 'The procedure in this sub clause specify how request for resource for floor control (or transmission control in MCVideo and MCData) and for the media plane can be handled independently. This procedure utilizes the Rx reference point both between from the MC service server to the PCRF and from the SIP core to the PCRF. ', '', 'Resource for the transmission control is requested at session establishment, in this case the IMS standard procedures as specified in 3GPP\xa0TS\xa023.228\xa0[9] are used. The session description shall in this procedure include bandwidth information applicable for the transmission control traffic requirement. At group call setup the request for resources for the media plane is triggered. This request is sent directly from the MC service server to the PCRF.', '', 'The procedure is optional and is suitable when the procedures for pre-established sessions are used, it may also be used to setup and tear down the media plane used by between consecutive group calls in one communication session using the chat call model.', '']</t>
+          <t>['', 'The NWDAF supporting data analytics on Redundant Transmission Experience shall be able to collect UE mobility information from OAM, MDAS/MDAF, 5GC and AFs and service data from AF, as described in clause\xa06.7.2.2. In addition, NWDAF shall be able to collect the information for PDU session which is established with redundant transmission from the SMF. UE mobility information is specified in Table 6.7.2.2-1 and service data from AF related to UE mobility in Table 6.7.2.2-2. In addition, the NWDAF shall be able to collect performance measurements on user data congestion as specified in Table 6.8.2-1 for user data congestion analytics.', '', 'Additionally, the NWDAF collects the following input (see Table 6.13.2-1 and Table 6.13.2-2) according to existing measurements defined in clause\xa05.33.3 QoS Monitoring to Assist URLLC Service of TS\xa023.501\xa0[2]. The NWDAF also collects the input from MDAS/MDAF of the end to end latency analysis in Table 6.13.2-3, as defined in clause\xa08.4.2.4.3 of TS\xa028.104\xa0[45].', '', 'Table 6.13.2-1: Packet drop and/or packet delay measurement per QFI or GTP level', '', 'Information', '', 'Source', '', 'Description', '', 'UL/DL packet drop rate GTP-U', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet drop rate measurement on GTP path on N3.', '', 'UL/DL packet delay GTP', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet delay measurement round trip on GTP path on N3.', '', 'E2E UL/DL packet delay', '', 'UPF', '', 'End-to-End (between UE and UPF) packet delay measurements between the UE and the UPF.', '', 'UL/DL packet drop/loss rate of RAN part', '', 'OAM (see NOTE\xa02)', '', 'UL/DL packet drop/loss rate measurement of RAN part.', '', 'NOTE\xa01:\tThe information in this table is provided both as the base to compare with the redundant transmission performance as well as when redundant transmission is enabled.', '', 'NOTE\xa02:\tRefer to clause\xa05.1 of TS\xa028.552\xa0[8] for the performance measurement in NG-RAN and clause\xa05.4 1 of TS\xa028.552\xa0[8] for the performance measurement in UPF. In addition, Annex A of TS\xa028.552\xa0[8] describes various performance measurements.', '', '', '', 'Table 6.13.2-2: The information related to PDU Session established', '', 'Information', '', 'Source', '', 'Description', '', 'DNN', '', 'SMF', '', 'Data Network Name associated for URLLC service.', '', 'UP with redundant transmission', '', 'SMF', '', 'Redundant transmission is setup or terminated.', '', '', '', 'Table 6.13.2-3: Data collection from MDAS/MDAF of end-to-end latency analysis', '', 'Information', '', 'Source', '', 'Description', '', 'E2ELatencyIssueType', '', 'MDAF', '', 'Indication the type of the E2E latency issue.', '', 'The allowed value is one of the enumerated values: RAN latency issue, CN latency issue.', '', 'AffectedObjects', '', 'MDAF', '', 'The managed object instances of subnetwork, managed elements or network slices where the latency issue happens.', '', '', '']</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.2148014234212539</v>
+        <v>0.1973381242090614</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.11.6.2	Procedure&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.13.3	Output Analytics&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2003,22 +2003,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>['', 'The figure below illustrates the procedure for resource reservation ', '', '----media/image142.emf----', '', 'Figure\xa010.11.6.2-1: Request for resources for transmission control and media plane', '', '1.\tThe MC service client sends a request for group affiliation.', '', '2.\tThe MC service client sends a request to the MC service server for establishment of a communication session.', '', '3.\tThe MC service server answer the session establishment request and adjust the bandwidth information in the session description. The requested bandwidth shall be minimized to cover the bandwidth requirements for floor control signaling (or transmission control for MCVideo or MCData). ', '', '4.\tThe SIP core request resources towards the PCRF according to the session establishment request.5.\tThe session establishment request is completed and a response is sent towards the MC service client.', '', '6.\tThe MC service client sends a cell setup message according to existing procedures.', '', '7.\tThe MC service server sends a request for resources for the media plane to PCRF, and the media plane is by that established. This request includes media description relevant for the media plane. ', '', '8.\tGroup call is ongoing on the group communication session.', '', '9.\tThe MC service serve sends a release of media resources to PCRF, and the media plane is by that terminated.', '', 'NOTE\xa01:\tThe resources for transmission control are retained.', '', 'NOTE\xa02:\tStep 6-9 can be repeated several times within the life cycle of one communication session.', '']</t>
+          <t>['', 'The NWDAF supporting data analytics on Redundant Transmission Experience shall be able to provide Redundant Transmission Experience analytics as defined in Table 6.13.3-1 and Table 6.13.3-2.', '', 'Table 6.13.3-1: Redundant Transmission Experience statistics', '', 'Information', '', 'Description', '', 'UE group ID or UE ID, any UE', '', 'Identifies a UE, any UE, or a group of UEs.', '', 'DNN', '', 'Data Network Name associated for URLLC service.', '', 'Spatial validity', '', 'Area where the Redundant Transmission Experience statistics applies.', '', 'If Area of Interest information was provided in the request or subscription, spatial validity should be the requested Area of Interest.', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Observed Redundant Transmission Experience', '', 'Observed Redundant Transmission Experience related information during the Analytics target period.', '', '      &amp;gt;&amp;gt; UL/DL packet drop rate GTP-U (NOTE\xa02)', '', 'Observed UL/DL packet drop rate on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; UL/DL packet delay GTP-U (NOTE\xa02)', '', 'Observed UL/DL packet delay round trip on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet delay (NOTE\xa02)', '', 'Observed End-to-End (between UE and UPF) UL/DL packet delay (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet loss rate (NOTE\xa02) (NOTE 3)', '', 'Observed End-to-End (between UE and UPF) UL/DL packet loss (average, variance).', '', '  &amp;gt; Redundant Transmission Status', '', 'Redundant Transmission Status, i.e. redundant transmission was activated or not activated for the time slot entry.', '', '  &amp;gt; Ratio', '', 'Percentage on which UE, any UE, or UE group experience the packet drop rate and packet delay.', '', 'NOTE\xa01:\tThe Observed Redundant Transmission Experience can be further derived by SMF from the observed UL/DL packet drop rate GTP-U and UL/DL packet delay GTP-U.', '', 'NOTE\xa02:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and only applicable when Target of Analytics Reporting is for a single UE.', '', 'NOTE\xa03:\tThe NWDAF outputs the analytics on E2E UL/DL packet loss rate based on the input UL/DL packet drop rate on N3 and UL/DL packet drop/loss rate of RAN part.', '', '', '', 'Table 6.13.3-2: Redundant Transmission Experience predictions', '', 'Information', '', 'Description', '', 'UE group ID or UE ID, any UE', '', 'Identifies a UE or, any UE, a group of UEs.', '', 'DNN', '', 'Data Network Name associated for URLLC service.', '', 'Spatial validity', '', 'Area where the estimated Redundant Transmission Experience predictions applies.', '', 'If Area of Interest information was provided in the request or subscription, spatial validity should be the requested Area of Interest.', '', 'Time slot entry (1..max)', '', 'List of predicted time slots.', '', '  &amp;gt;Time slot start', '', 'Time slot start time within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot.', '', '  &amp;gt; Predicted Redundant Transmission Experience ', '', 'Predicted Redundant Transmission Experience related information during the Analytics target period.', '', '      &amp;gt;&amp;gt; UL/DL packet drop rate GTP-U (NOTE\xa02)', '', 'Predicted UL/DL packet drop rate on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; UL/DL packet delay GTP-U (NOTE\xa02)', '', 'Predicted UL/DL packet delay round trip on GTP-U path on N3 (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet delay', '', 'Predicted End-to-End (between UE and UPF) UL/DL packet delay (average, variance).', '', '      &amp;gt;&amp;gt; E2E UL/DL packet loss rate (NOTE\xa04)', '', 'Predicted End-to-End (between UE and UPF) UL/DL packet loss rate (average, variance).', '', '  &amp;gt; Redundant Transmission Status (NOTE\xa03)', '', 'Redundant Transmission Status, i.e., redundant transmission is activated or not activated for the time slot entry.', '', '  &amp;gt; Ratio ', '', 'Percentage on which the UE, any UE, or UE group may efficiently use the PDU session with redundant transmission.', '', '  &amp;gt; Confidence', '', 'Confidence of this prediction.', '', 'NOTE\xa01:\tThe Predicted Redundant Transmission Experience can be further derived by the SMF from the predicted UL/DL packet drop rate GTP-U and UL/DL packet delay GTP-U and based on which the SMF can decide to start redundant transmission or not.', '', 'NOTE\xa02:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and only applicable when Target of Analytics Reporting is for a single UE.', '', 'NOTE\xa03:\tThe list of predicted time slots and predicted redundant transmission experience is provided to the consumer when both the redundant transmission status is activated and not activated.', '', 'NOTE\xa04:\tThe NWDAF outputs the prediction on E2E UL/DL packet loss rate based on the input UL/DL packet drop rate on N3 and UL/DL packet drop/loss rate of RAN part.', '', '', '']</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.2169152988184427</v>
+        <v>0.1878224233156137</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.3.2.3	Pre-established session modification&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.14.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2028,22 +2028,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>['', 'Figure\xa010.3.2.3-1 represents the pre-established session modification flow.', '', '----media/image64.emf----', '', 'Figure\xa010.3.2.3-1: Pre-established session modification', '', '1.\tThe MC service client within the MC service UE gathers ICE candidates, if necessary (e.g. depending on the information that needs to be updated).', '', '2.\tThe MC service client within the MC service UE sends a request to the MC service server to modify a pre-established session.', '', '3.\tMC service server performs necessary service control, obtains any necessary media parameters (e.g. by means of interacting with a media distribution function of the MC service server) and gathers necessary ICE candidates.', '', '4.\tMC service server sends a modify pre-establish session response to the MC service client within the MC service UE.', '', '5.\tIf necessary, ICE candidate pair checks take place e.g. between the MC service client within the MC service UE and a media distribution function of the MC service server.', '', '6.\tIf necessary the MC service client within the MC service UE sends a modify pre-established session request to the MC service server to update the ICE candidate pair for the pre-established session.', '', '7.\tThe MC service server sends a modify pre-established session response accepting the ICE candidate pair update.', '', 'NOTE\xa01:\tThe represented procedure corresponds to a session modification initiated by the MC service client. It can also be initiated by the MC service server.', '', 'NOTE\xa02:\tThe procedure can also be used to switch a media session from the inactive to the active state and the reverse. The modification of the session triggers a corresponding modification of the characteristics (e.g. activity, bandwidth) of the corresponding GBR bearers.', '']</t>
+          <t>['', 'This clause\xa0specifies how an NWDAF can provide DN Performance Analytics which provides analytics for user plane performance (i.e. average/maximum traffic rate, average/maximum packet delay, average packet loss rate) in the form of statistics or predictions to a service consumer.', '', 'The DN Performance Analytics may provide one or a combination of the following information:', '', '-\tUser plane performance analytics for a specific Edge Computing application for a UE, group of UEs, or any UE over a specific serving anchor UPF.', '', '-\tUser plane performance analytics for a specific Edge Computing application for a UE, group of UEs, or any UE over a specific DNAI.', '', '-\tUser plane performance analytics for a specific Edge Computing application for a UE, group of UEs, or any UE over a specific Edge Application Server Instance.', '', 'The service consumer may be an NF (e.g. SMF) or an AF.', '', 'The consumer of these analytics shall indicate in the request or subscription:', '', '-\tAnalytics ID = "DN Performance";', '', '-\tTarget of Analytics Reporting: one or more SUPI(s) or Internal Group Identifier(s), or "any UE";', '', '-\tAnalytics Filter Information as defined in table 6.14.1-1; and', '', '-\toptionally, a preferred level of accuracy of the analytics;', '', '-\toptionally, preferred level of accuracy per analytics subset (see clause\xa06.14.3);', '', '-\toptionally, preferred order of results for the list of Network Performance information:', '', '-\tordering criterion: one of the analytics subset (see clause\xa06.14.3);', '', '-\torder: ascending or descending;', '', '-\toptionally, Reporting Thresholds, which apply only for subscriptions and indicate conditions on the level to be reached for respective analytics subsets (see clause\xa06.14.3) in order to be notified by the NWDAF;', '', '-\toptionally, maximum number of objects and maximum number of SUPIs;', '', '-\tAn Analytics target period indicates the time period over which the statistics or predictions are requested; and', '', '-\tOptionally, Spatial granularity size and Temporal granularity size.', '', 'Table 6.14.1-1: Analytics Filter Information related to DN Performance Analytics', '', 'Information', '', 'Description', '', 'Application ID (0..max)', '', 'The identification of the application(s) for which the analytics information is subscribed or requested.', '', 'S-NSSAI', '', 'Identifies the Network Slice for which analytics information is subscribed or requested.', '', 'NSI ID(s)', '', 'Identifies the Network Slice instance(s) for which analytics information is subscribed or requested.', '', 'Area of Interest', '', 'Identifies the Area (i.e. set of TAIs), as defined in TS\xa023.501\xa0[2] for which the analytics information is subscribed or requested.', '', 'Anchor UPF info', '', 'Identifies the UPF where a UE has an associated PDU session.', '', 'DNN', '', 'DNN to access the application.', '', 'DNAI', '', 'The UPF ID/address/FQDN information identifier of a user plane access to one or more DN(s) where applications are deployed as defined in TS\xa023.501\xa0[2].', '', 'Application Server Address(es)', '', "List of IP address(s)/FQDN(s) of the Application Server(s) that a UE, group of UEs, or 'any UE' has a communication session with for which DN Performance Analytic information is requested.", '', 'List of analytics subsets', '', 'List of analytics subsets that are requested among those specified in clause\xa06.14.3.', '', 'NOTE:\tAll parameters are optional.', '', '', '']</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.2201289960297127</v>
+        <v>0.2011583532222133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.7.2.10	Media distribution release&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.14.2	Input Data&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2053,22 +2053,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>['', 'Table\xa010.7.2.10-1 describes the information flow media distribution release from the MC service server to an MC service server (MBMS bearer control role) that has the used bearer.', '', 'Table\xa010.7.2.10-1: Media distribution release', '', 'Information element', '', 'Status', '', 'Description', '', 'TMGI', '', 'M', '', 'TMGI information', '', 'Bandwidth', '', 'M', '', 'The bandwidth released by the MC service server that used the bearer', '', 'MC Group ID', '', 'O', '', 'The MC group id for when the request is sent for a specific group call.', '', '', '']</t>
+          <t>['', 'The data collected from the AF are defined in table 6.14.2-1', '', 'Table 6.14.2-1: Performance Data from AF', '', 'Information', '', 'Source', '', 'Description', '', 'UE identifier', '', 'AF', '', 'IP address of the UE at the time the measurements was made.', '', 'UE location', '', 'AF', '', 'The location of the UE when the performance measurement was made.', '', 'Application ID', '', 'AF', '', 'To identify the service and support analytics per type of service (the desired level of service).', '', 'IP filter information', '', 'AF', '', 'Identify a service flow of the UE for the application.', '', 'Locations of Application', '', 'AF/NEF', '', 'Locations of application represented by a list of DNAI(s). The NEF may map the AF-Service-Identifier information to a list of DNAI(s) when the DNAI(s) being used by the application are statically defined.', '', 'Application Server Instance address', '', 'AF/NEF', '', 'The IP address/FQDN of the Application Server that the UE had a communication session when the measurement was made.', '', 'UL/DL Performance Data', '', 'AF', '', 'The performance associated with the communication session of the UE with an Application Server that includes: Average/Maximum Packet Delay, Average/Maximum Loss Rate and Average/Minimum/Maximum Throughput.', '', 'Timestamp', '', 'AF', '', 'A time stamp associated to the Performance Data provided by the AF.', '', '', '', 'The data collected by the SMF are described in table 6.4.2-2.', '', 'The NWDAF subscribes to network data as defined in clause\xa06.4.2.', '', 'Data may be collected from OAM as described in table 6.4.2-3 by using the services provided by OAM as described in clause\xa06.2.3.', '', 'The Event Filters for the service data collection from SMF, AMF and AF are defined in TS\xa023.502\xa0[3].', '', 'The timestamps are provided by each NF to allow correlation of QoS and traffic KPIs. The clock reference is able to know the accuracy of the time and correlate the time series of the data retrieved from each NF.', '']</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>0.2234093626989994</v>
+        <v>0.2056293680225552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.7.2.4	Discover bearer request&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.14.3	Output Analytics&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2078,22 +2078,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>['', 'Table\xa010.7.2.4-1 describes the information flow discover bearer request from the MC service server to another MC service server (MBMS bearer control role).', '', 'Table\xa010.7.2.4-1: Discover bearer request', '', 'Information element', '', 'Status', '', 'Description', '', 'List of service area identifiers', '', 'M', '', 'A list of service area identifier for the applicable MBMS broadcast area.', '', 'Bandwidth', '', 'M', '', 'Maximum bandwidth required', '', 'QCI', '', 'O', '', 'Desired QCI', '', '', '']</t>
+          <t>['', 'The DN performance analytics is shown in table 6.14.3-1 and table 6.14.3-2.', '', 'Table 6.14.3-1: DN service performance statistics', '', 'Information', '', 'Description', '', 'Application ID', '', 'Identifies the application for which analytics information is provided.', '', 'S-NSSAI', '', 'Identifies the Network Slice for which analytics information is provided. See note\xa01.', '', 'DNN', '', 'Identifies the data network name (e.g. "internet") for which analytics information is provided. See NOTE\xa01.', '', 'DN performance (0-x)', '', 'List of DN performances for the application.', '', '  &amp;gt; Application Server Instance Address', '', 'Identifies the Application Server Instance (IP address/FQDN of the Application Server).', '', '  &amp;gt; Serving anchor UPF info', '', 'The UPF ID/address/FQDN information for the involved anchor UPF. See NOTE\xa01.', '', '  &amp;gt; DNAI', '', 'Identifier of a user plane access to one or more DN(s) where applications are deployed as defined in TS\xa023.501\xa0[2].', '', '  &amp;gt; Performance (NOTE\xa04)', '', 'Performance indicators.', '', '     &amp;gt;&amp;gt; Aggregated Traffic rate (NOTE\xa02, NOTE\xa05)', '', 'Aggregated traffic rate observed for the UE group or all UEs (i.e. any UE) communicating with the application.', '', '     &amp;gt;&amp;gt; Average Traffic rate (NOTE\xa02)', '', 'UE granularity level Average traffic rate observed for the UE group or all UEs communicating with the application, or Average traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; Maximum Traffic rate (NOTE\xa02)', '', 'UE granularity level Maximum traffic rate observed for the UE group or all UEs communicating with the application, or Maximum Traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; Minimum Traffic rate (NOTE\xa03)', '', 'UE granularity level Minimum traffic rate observed for the UE group or all UEs communicating with the application, or Minimum Traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; Variance Traffic rate (NOTE\xa02, NOTE\xa05)', '', 'UE granularity level Variance of the traffic rate observed for the UE group or all the UEs communicating with the application, or Variance Traffic rate observed for the specific UE in the statistics period.', '', '     &amp;gt;&amp;gt; UE ID or list of UE IDs for traffic rate performance (1..SUPImax) (NOTE\xa02, NOTE\xa05)', '', 'Identifies a UE or a list of UEs whose observed traffic rate is higher or lower than the Reporting Threshold.', '', '     &amp;gt;&amp;gt; Average Packet Delay (NOTE\xa02)', '', 'Average packet delay observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Delay (NOTE\xa02)', '', 'Maximum packet delay observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Delay (NOTE\xa02, NOTE\xa05)', '', 'Variance of packet delay observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; UE ID or list of UE IDs for packet delay performance (1..SUPImax) (NOTE\xa02, NOTE\xa05)', '', 'Identifies a UE or a list of UEs whose observed packet delay is higher or lower than the Reporting Threshold.', '', '     &amp;gt;&amp;gt; Average Packet Loss Rate (NOTE\xa02)', '', 'Average packet loss observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Loss Rate (NOTE\xa02)', '', 'Maximum packet loss observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Loss Rate (NOTE\xa02, NOTE\xa05)', '', 'Variance of packet loss rate observed for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; UE ID or list of UE IDs for packet loss performance (1..SUPImax) (NOTE\xa02, NOTE\xa05)', '', 'Identifies a UE or a list of UEs whose observed packet loss rate is higher than the Reporting Threshold.', '', '     &amp;gt;&amp;gt; Number of UEs (NOTE\xa02)', '', 'The observed number of UEs for the UE group or all UEs (i.e. any UE) communicating with the application in the DNAI.', '', '  &amp;gt; Spatial Validity Condition', '', 'Area (i.e. list of TAIs) where the DN performance analytics applies. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '  &amp;gt; Temporal Validity Condition', '', 'Validity period for the DN performance analytics. If a Temporal granularity size was provided in the request or subscription, the duration of this period is greater than or equal to the Temporal granularity size.', '', 'NOTE\xa01:\tThe item "Serving anchor UPF info" shall not be included if the consumer NF is an AF.', '', 'NOTE\xa02:\tAnalytics subset that can be used in "list of analytics subsets that are requested", "Preferred level of accuracy per analytics subset" and "Reporting Thresholds".', '', 'NOTE\xa03:\tMinimum traffic rate measurements are only derived from active traffic.', '', 'NOTE\xa04:\tPerformance statistics may not be applicable to short group operation cycle for the given application.', '', 'NOTE\xa05:\tAnalytics subset that can be used to support aggregated UE performance monitoring and exposure for a group of UEs.', '', '', '', 'Table 6.14.3-2: DN service performance predictions', '', 'Information', '', 'Description', '', 'Application ID', '', 'Identifies the application for which analytics information is provided.', '', 'S-NSSAI', '', 'Identifies the Network Slice for which analytics information is provided. See NOTE\xa01.', '', 'DNN', '', 'Identifies the data network name (e.g. internet) for which analytics information is provided. See NOTE\xa01.', '', 'DN performance (0-x)', '', 'List of DN performance for the application.', '', '  &amp;gt; Application Server Instance Address', '', 'Identifies the Application Server Instance (IP address/FQDN of the Application Server).', '', '  &amp;gt; Serving anchor UPF info', '', 'The UPF ID/address/FQDN information for the involved anchor UPF. See NOTE\xa01.', '', '  &amp;gt; DNAI', '', 'Identifier of a user plane access to one or more DN(s) where applications are deployed as defined in TS\xa023.501\xa0[2].', '', '  &amp;gt; Performance', '', 'Performance indicators.', '', '     &amp;gt;&amp;gt; Aggregated Traffic rate (NOTE\xa02)', '', 'Aggregated traffic rate predicted for the UE group or all UEs (i.e. any UE) communicating with the application.', '', '     &amp;gt;&amp;gt; Average Traffic rate (NOTE\xa02)', '', 'UE granularity level Average traffic rate predicted for the UE group or all UEs communicating with the application, or Average traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Maximum Traffic rate (NOTE\xa02)', '', 'UE granularity level Maximum traffic rate predicted for the UE group or all UEs communicating with the application, or Maximum Traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Minimum Traffic rate (NOTE\xa03)', '', 'UE granularity level Minimum traffic rate predicted for the UE group or all UEs communicating with the application, or Minimum Traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Variance Traffic rate (NOTE\xa02)', '', 'UE granularity level Variance of the traffic rate predicted for the UE group or all the UEs communicating with the application, or Variance Traffic rate predicted for the specific UE in the prediction period.', '', '     &amp;gt;&amp;gt; Average Packet Delay (NOTE\xa02)', '', 'Average packet delay predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Delay (NOTE\xa02)', '', 'Maximum packet delay for predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Delay (NOTE\xa02)', '', 'Variance of packet delay predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Average Packet Loss Rate (NOTE\xa02)', '', 'Average packet loss predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Maximum Packet Loss Rate (NOTE\xa02)', '', 'Maximum packet loss predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Variance Packet Loss Rate (NOTE\xa02)', '', 'Variance of packet loss rate predicted for the specific UE, the UE group or all UEs communicating with the application.', '', '     &amp;gt;&amp;gt; Number of UEs (NOTE\xa02)', '', 'The predicted number of UEs for the UE group or all UEs (i.e. any UE) communicating with the application in the DNAI.', '', '  &amp;gt; Spatial Validity Condition', '', 'Area (i.e. list of TAIs) where the DN performance analytics applies. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '  &amp;gt; Temporal Validity Condition', '', 'Validity period for the DN performance analytics. If a Temporal granularity size was provided in the request or subscription, the duration of this period is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Confidence', '', 'Confidence of this prediction.', '', 'NOTE\xa01:\tThe item "Serving anchor UPF info" shall not be included if the consumer is an AF.', '', 'NOTE\xa02:\tAnalytics subset that can be used in "list of analytics subsets that are requested", "Preferred level of accuracy per analytics subset" and "Reporting Thresholds".', '', 'NOTE\xa03:\tMinimum traffic rate measurements are only derived from active traffic.', '', '', '']</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.2283516987004401</v>
+        <v>0.1886573274699153</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.7.2.6	Media distribution request&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.16.1	Reporting of Location Events to an LCS Client or AF via user plane&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23273-i20.docx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2103,22 +2103,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>['', 'Table\xa010.7.2.6-1 describes the information flow media distribution request from the MC service server to an MC service server (MBMS bearer control role) that has a desired bearer.', '', 'Table\xa010.7.2.6-1: Media distribution request', '', 'Information element', '', 'Status', '', 'Description', '', 'TMGI', '', 'M', '', 'TMGI information', '', 'Bandwidth', '', 'M', '', 'Maximum bandwidth required', '', 'Separate floor control', '', 'M', '', 'Whether or not a separate bearer is required for floor control', '', 'SDP information', '', 'M', '', 'SDP with media and floor control information applicable to groups that can use this bearer (e.g. codec, protocol id)', '', 'QCI', '', 'O', '', 'Desired QCI', '', 'MC Group ID', '', 'O', '', 'The MC group id for when the request is sent for a specific group call.', '', '', '']</t>
+          <t>['', 'Figure 6.16.1-1 shows a procedure for event reporting from a UE to an LCS Client or AF when a User Plane connection is established directly from the UE to the LCS Client or AF. This procedure is applicable when the target UE is able to determine its location.', '', '----media/image45.emf----', '', 'Figure 6.16.3-1: Reporting of Location Events to an LCS Client or AF via user plane', '', '1.\tSteps 1-21 in clause\xa06.3.1 for the deferred 5GC-MT-LR procedure for periodic or triggered location are performed with the following differences.', '', '-\tAt step\xa01, the LCS Client or AF includes a request for user plane reporting in the LCS Service Request and may include a user plane address of the LCS Client or AF and security information to enable a secure connection. The H-GMLC verifies that both the target UE and the LCS Client or AF are subscribed to user plane reporting. If the LCS Client or AF did not include a user plane address or security information, the H-GMLC obtains a default user plane address and/or default security information from subscription data for the LCS Client or AF. The H-GMLC determines criteria for sending cumulative events reports over control plane. The criteria can include a cumulative event report timer and/or a maximum number of user plane event reports.', '', '-\tAt steps 4, 5 and 14, the request for user plane reporting, the user plane address, the security information and the criteria for sending cumulative events reports over control plane are forwarded in sequence to the V-GMLC (if used), serving AMF and LMF.', '', '-\tAt step\xa014 or step\xa015, the LMF gets the UE capabilities and verifies that the UE is able to support position methods that allow the UE to determine its own location.', '', '-\tAt step\xa016, the LMF includes the request for user plane reporting, the user plane address, the security information and the criteria for sending cumulative events reports in the supplementary services LCS Periodic-Triggered Invoke Request sent to the target UE.', '', '-\tAt step\xa017, the target UE indicates to the LMF whether event reporting via user plane can be supported by the target UE. If event reporting via user plane cannot be supported by the target UE, a failure response is returned to the LCS Client or AF at steps 18-21.', '', '2.\tThe UE establishes a secure user plane connection with TLS to the LCS Client or AF using the user plane address and the security information received at step\xa01.', '', "Editor's note:\tSupport of a secure user plane connection and suitable security information needs to be determined by SA\xa0WG3. The type of user plane connection (e.g. TCP/IP) needs to be determined at stage 3.", '', '3.\tThe UE monitors for and detects the occurrence of a trigger or periodic event as described for step\xa022 of the procedure in clause\xa06.3.1.', '', '4a.\tThe UE obtains location measurements and determines a current location.', '', '4b.\tIf the UE is unable to determine its location at step\xa04a, the UE sends an event report to the LCS Client or AF over control plane as described for steps 24-30 in clause\xa06.3.1.', '', '5.\tThe UE sends an Event Report to the LCS Client or AF over the secure user plane connection established at step\xa02. The event report indicates the type of event being reported and includes the location determined at step\xa04a.', '', '6.\tThe LCS Client or AF may return an Event Report Acknowledgment to the UE over the secure user plane with TLS connection established at step\xa02.', '', "Editor's note:\tWhether the event report and event report acknowledgment reuse existing supplementary services messages or are defined using a new protocol needs to be determined at stage 3.", '', '7.\tThe UE continues to monitor for and detect further trigger or periodic events as at step\xa03 and repeats steps 4-6 for each detected trigger or periodic event.', '', '8.\tThe UE monitors the criteria received at step\xa01 for sending of cumulative event reports. If a cumulative event report timer was received at step\xa01, the UE starts the timer following step\xa01 and after each cumulative event report is sent. If a maximum number of user plane event reports was received at step\xa01, the UE maintains a count of the number of user plane event reports sent at step\xa05. When the cumulative event report timer expires or when the count of user plane events reports sent at step\xa05 reaches the maximum number of user plane event reports, the UE sends a cumulative event report and restarts the timer and the count of user plane event reports. The UE sends the cumulative event report to the LMF, H-GMLC and LCS Client or AF over the control plane portion of the periodic or triggered deferred 5GC-MT-LR using steps 25-30 of the procedure in clause\xa06.3.1. The cumulative event report indicates to the LMF, H-GMLC and External LCS Client or AF that the control plane portion of the periodic or triggered deferred 5GC-MT-LR is still active, that the UE is reporting events via user plane and may include statistics on the events reported since the last cumulative event report was sent (e.g. the number of event reports).', '', '\tA target UE may also send a cumulative event report at step\xa08 to obtain assistance data from the LMF to assist with location at step\xa04a. In this case, the target UE includes a positioning LPP request for assistance data in the cumulative event report sent to the LMF at step\xa025 in clause\xa06.3.1 and the LMF uses step\xa027 in clause\xa06.3.1. to return the requested assistance data to the target UE. In this case, the cumulative event report timer and the count of user plane event reports are restarted and a cumulative event report is sent on to the H-GMLC and LCS Client or AF by the LMF (but without the embedded positioning LPP request for assistance data).', '', '\tDuring step\xa08, the LMF change procedure in clause\xa06.4 may be used to forward the cumulative event report (and any request for assistance data) to another LMF if the current LMF can no longer support the periodic or triggered MT-LR due to a change in target UE location (e.g. a change to the target UE TAI). In this case, the new LMF can return any assistance data to the UE (if this was requested) and can forward the cumulative event report to the H-GMLC and LCS Client or AF.', '', 'NOTE:\tWhen using step\xa08 to request assistance data, the UE may perform step\xa08 well before performing step\xa04a for a user plane event report in order to avoid extra delay in sending the user plane event report.', '', '9.\tAfter the UE has sent the final event report and received an acknowledgment using steps 5 and 6 or step\xa04b, the UE shall release the user plane connection to the LCS Client or AF if the LCS Client or AF has not yet initiated release of the user plane connection', '']</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0.2264963372949614</v>
+        <v>0.1977708301704263</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;10.7.2.7	Media distribution response&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.18.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2128,47 +2128,47 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>['', 'Table\xa010.7.2.7-1 describes the information flow media distribution response from an MC service server (MBMS bearer control role) that has a desired bearer to the MC service server.', '', 'Table\xa010.7.2.7-1: Media distribution response', '', 'Information element', '', 'Status', '', 'Description', '', 'TMGI', '', 'M', '', 'TMGI information', '', 'Bandwidth', '', 'M', '', 'Maximum bandwidth required', '', 'SDP information', '', 'M', '', 'SDP with media and floor control information applicable to groups that can use this bearer (e.g. codec, protocol id)', '', 'QCI', '', 'O', '', 'Actual QCI', '', 'Media stream identifier', '', 'O', '', 'This element identifies the media stream of the SDP used for the group call (e.g. MBMS subchannel).', '', 'Media distribution indicator', '', 'O', '', 'Indicates to the MC service server whether the media in the ongoing group communication should be sent or not', '', '', '']</t>
+          <t>['', 'Clause\xa06.18 describes how NWDAF can provide E2E data volume transfer time analytics, in the form of statistics or predictions or both, to a service consumer. NWDAF collects E2E data volume transfer time related input data from 5GC NFs, OAM and AF. The consumer can either subscribe to analytics notifications (i.e. a Subscribe-Notify model) or request a single notification (i.e. a Request-Response model).', '', 'The E2E data volume transfer time refers to a time delay for completing the transmission of a specific data volume from UE to AF, or from AF to UE. If a target number of repeating data transmissions or a target time interval between data transmissions is given, the E2E data volume transfer time can be provided as an average value of every data volume transfer time within the Analytics target period. The E2E data volume transfer time analytics may be used to assist an AF hosting AI/ML-based services, e.g. for member selection of federated learning.', '', 'The E2E data volume transfer time analytics may be provided as defined in clause\xa06.18.3 for a UE individually or a list of UEs.', '', 'More than one E2E data volume transfer time classes might be assigned by operator or AF for a group of UEs. The UEs might be classified to high-, medium-, and low-transfer time classes with respect to the threshold(s) of the corresponding class.', '', 'The service consumer may be an NF (e.g. AF, or NEF).', '', 'The consumer of these analytics may indicate in the request:', '', '-\tAnalytics ID = "E2E data volume transfer time ".', '', '-\tTarget of Analytics Reporting: a single UE (SUPI/GPSI) or a group of UEs (a list of SUPIs/GPSIs).', '', '-\tAnalytics Filter Information optionally including:', '', '-\tDNN;', '', '-\tS-NSSAI;', '', '-\tApplication ID;', '', '-\tArea of Interest (AOI(s)): restricts the scope of the E2E data volume transfer time analytics to the provided area;', '', '-\tAn optional list of analytics subsets that are requested (see clause\xa06.18.3);', '', '-\tData Volume UL/DL: indicates a specific data volume transmitted once from UE to AF and/or from AF to UE;', '', '-\tQoS requirements (e.g. 5QI, QoS Characteristics);', '', '-\tOptionally, either a target number of repeating data transmissions or a target time interval between data transmissions within the Analytics target period;', '', '-\tOptionally, a request for geographical distribution (i.e. the AoIs) of the UEs.', '', '-\tAn Analytics target period indicates the time period over which the statistics or predictions are requested.', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address are included.', '', '-\tOptionally, preferred level of accuracy of the analytics.', '', '-\tOptional preferred order of results for the list of E2E data volume transfer time:', '', '-\tordering criterion: "E2E data volume transfer time",', '', '-\torder: ascending or descending.', '', '-\tOptionally, Reporting Thresholds, which indicate conditions on the level to be reached for respective analytics subsets (see clause\xa06.18.3)', '', '-\tOptionally, maximum number of UEs.', '']</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.2237907280301429</v>
+        <v>0.1925577215580571</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;4.1a.5.1	Types of event&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.18.2	Input Data&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>23273-i20.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>['', 'The following types of event are defined for a deferred location request.', '', 'a)\tUE availability: Any event in which the 5GCN has established a contact with the UE. This event is considered to be applicable when the UE is temporarily unavailable due to inaction by the user, or for temporarily loss of radio connectivity or IMSI detach and so on. The UE Available event only requires one response to an LCS client/AF and after this response, the UE Available event is concluded.', '', 'b)\tArea: An event where the UE enters, leaves or remains within a pre-defined geographical area. At least one type of area event can be defined (i.e. entering, leaving or remaining within the area). The LCS client or AF may define the target area as a geographical area or as a geopolitical name of an area. The PLMN may translate and define the target area as the identities of one or more radio cells or tracking areas. The LCS client or AF may request an additional check about whether the UE is located within the provisioned target area. The area event may be reported one time only, or multiple times. The area event report shall contain an indication of the event occurrence. The location estimate may be included in the report. If an area event is detected by the UE but an event report cannot be sent (e.g. because the UE cannot access the network or due to a minimum reporting interval), a report shall be sent later when possible irrespective of whether the area event still applies for the current UE location. Area event reporting is controlled by a minimum and a maximum reporting time. The minimum reporting time defines the minimum allowed time between successive area events. The maximum reporting time defines the maximum time between successive reports. When a UE sends a report due to expiration of the maximum reporting time, the UE indicates expiration of the maximum reporting time as the trigger event. The maximum reporting time enables the AF, LCS client and HGMLC to remain aware of continuing support by the UE for the area event (e.g. to detect if area event reporting may have been aborted due to UE power off).', '', 'NOTE:\tTo achieve more precise usage of area event in some scenario, e.g. for small target area, it may be useful if LCS Client/AF requests UE location estimate and compares the location estimate with the target area.', '', 'c)\tPeriodic Location: An event where a defined periodic timer expires in the UE and activates a location report. If a periodic event is detected by the UE but an event report cannot be sent (e.g. because the UE cannot access the network temporarily), a report shall be sent later when possible and the periodic timer for the next event shall then be started. The reporting duration for periodic location shall equal the requested number of reports multiplied by the periodic interval even when reports are delayed.', '', 'd)\tMotion: An event where the UE moves by more than some predefined straight line distance from a previous location. The motion event may be reported one time only, or multiple times. The motion event report shall contain an indication of the event occurrence. A location estimate may be included in the report if requested by the LCS client or AF. For successive motion event reports, motion is determined relative to the UE location corresponding to the immediately preceding event report (including an event report triggered by expiration of the maximum reporting time). If a motion event is detected by the UE but an event report is deferred (e.g. because the UE cannot access the network temporarily), a report shall be sent later when possible irrespective of whether the motion event still applies to the current UE location. Motion reporting is controlled by a minimum and a maximum reporting time. The minimum reporting time defines the minimum allowed time between successive event reports. The maximum reporting time defines the maximum time between successive reports. When a UE sends a report due to expiration of the maximum reporting time, the UE indicates expiration of the maximum reporting time as the trigger event. The maximum reporting time enables the AF, LCS client and HGMLC to remain aware of continuing support by the UE for the motion event (e.g. to detect if motion event reporting may have been aborted due to UE power off).', '']</t>
+          <t>['', 'The NWDAF supporting analytics on E2E data volume transfer time shall be able to collect E2E data volume transfer time information from AF, OAM and 5GC NFs.', '', 'More detailed information collected by the NWDAF from the OAM is defined in the Table 6.18.2-1, from relevant 5GC NFs (i.e. UPF, SMF, AMF) is defined in Table 6.18.2-2, and from AF is defined in Table 6.18.2-3.', '', 'Table 6.18.2-1: Input data from OAM related to E2E data volume transfer time', '', 'Information', '', 'Source', '', 'Description', '', 'RAN part delay', '', 'OAM TS\xa028.554\xa0[10]', '', 'Average packet transmission delay through the RAN part to the UE, per timeslot, per 5QI and per S-NSSAI.', '', 'Timestamp', '', 'OAM', '', 'A time stamp associated with the collected information.', '', 'RAN Throughput for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the throughput for DL and UL as specified in clauses 5.2.1.1 and 5.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet delay for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet delay for DL and UL, including per DRB per UE packet delay as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet loss rate for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet loss rate for DL and UL, including the per DRB per UE packet loss rate as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'Average UL/DL packet delay between PSA UPF and UE', '', 'OAM', '', 'The average of UL/DL packet delay between PSA UPF and UE as captured in clauses 5.4.9.1.1 and 5.4.9.2.1 in TS\xa028.552\xa0[8].', '', 'NOTE\xa01:\tPer UE measurement for a specific UE from OAM (via MDT), is as captured in clause\xa06.2.3.1.', '', '', '', "Editor's note:\tThe inclusion of the following OAM inputs: &lt;i&gt;RAN part delay&lt;/i&gt; and Average &lt;i&gt;UL/DL packed delay between PSA UPF and UE&lt;/i&gt; is subject to SA\xa0WG5 verification.", '', 'NWDAF subscribes the network data from OAM in the Table 6.18.2-1 by using the services provided by OAM as described in clause\xa06.2.3.', '', 'NOTE\xa01:\tWhether the UE(s) is supporting a Slice or not can be checked by retrieving the registered AMF details from UDM or by asking AMF about what Slice is used by the UE(s) at the current registration (Alternatively, if NSACF is deployed, NSACF can provide a report on what slices are used by the UE(s)).', '', 'NOTE\xa02:\tUser consent checking from UDM can apply for these analytics.', '', 'Table 6.18.2-2: Service Data from 5GC NFs for E2E data volume transfer time analytics', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', '5GC NF', '', 'A time stamp associated with the collected information.', '', 'UE location', '', 'AMF, GMLC', '', 'Location of the UE(s) needs to be selected via AMF if the application needs to be started at the same time. If the AoI indicated by the AF is a finer granularity area than the Cell level, the current location of the UE(s) needs to be selected via GMLC instead.', '', 'UE ID', '', 'AMF', '', '(list of) SUPI(s).', '', '5QI', '', 'SMF', '', 'A reference to 5G QoS characteristics.', '', 'QoS flow Packet Delay', '', 'SMF, UPF', '', 'The observed Packet delay for UL/DL/round trip directions between UE and PSA_UPF.', '', 'RAT Type', '', 'SMF', '', 'The RAT types the UE camps on.', '', 'Access Type', '', 'SMF', '', 'The list of Access Type(s) used for the PDU Session.', '', '', '', 'Table 6.18.2-3: Service Data from AF for E2E data volume transfer time analytics', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', 'AF', '', 'Timestamp of the collected information.', '', 'Application ID', '', 'AF', '', 'Identifier of the application at the AF.', '', 'UE ID(s)', '', 'AF', '', 'Internal or External UE IDs (i.e. SUPI or GPSI, respectively).', '', 'Transmitted UL/DL data volume', '', 'AF', '', 'The volume of the transmitted UL/DL data.', '', 'UL/DL transmission time duration', '', 'AF', '', 'The time duration (start and end time) needed for sending the volume of UL/DL data.', '', 'Application Server Instance information', '', 'AF', '', 'The IP address/FQDN of the Application Server.', '', '', '', 'NOTE\xa03:\tHow to derive the time delay for sending a specific data volume between UPF and AF on N6 interface is out of scope of the present specification.', '']</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.1982068408296718</v>
+        <v>0.2043699309921555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.11.3.0	General&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.18.3	Modification of User Plane Connection between UE and LMF&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23273-i20.docx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2178,72 +2178,72 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>['', 'This clause gives information flows for:', '', '-\tthe procedures for determining the set of negotiated characteristics between the endpoints of a multi-media session, determining the initial media characteristics (including common codecs) to be used for the multi-media session, and', '', '-\tthe procedures for modifying a session within the existing resources reservation or with a new resources reservation (adding/deleting a media flow, changing media characteristics including codecs, changing bandwidth requirements) when the session is already established.', '']</t>
+          <t>['', 'The figure 6.18.3-1 shows how a secure user plane connection between UE and LMF is modified. The flow describes change of LMF but applies also when source and target LMF is the same. The procedure can also be used to terminate the user plane connection to Source LMF not selecting any Target LMF.', '', '----media/image52.emf----', '', 'Figure 6.18.3-1: Connection modification between UE and LMFs', '', '1a.\t[Conditional] The LMF discovers a need to change LMF or re-establish the user plane connection between UE and LMF or terminate the user plane connection. The LMF sends an Nlmf_Location_UPNotify message that includes -target LMF identification and indicates the reason for modification or termination. The address of the AMF was provided to LMF as a "Notification Target Address" in latest Nlmf_Location_UPConfig message or Nlmf_Location_UPNotify Subscribe message.', '', 'NOTE:\tThe LMF change procedure is independent from the SSC mode of the PDU Session with dedicated DNN used for positioning. For SSC mode 2/3, PSA UPF connection with the LMF can be relocated with UE movement and LMF can discover the need to change LMF to reduce the user plane path latency.', '', '1b.\t[Conditional] AMF based on LMF indications need to reselect an LMF used for user plane positioning, or AMF may perform LMF reselection if UE moves to a new location (which may be out of serving area of source LMF and in serving area of target LMF) and select the target LMF for the current UE location based on LMF service area and other information listed in clause\xa05.1. LMF needs to be capable to establish a user plane session for positioning with the UE. Further at AMF relocation the target AMF needs to inform the LMF of the AMF change.', '', '2.\t[Conditional] If AMF reallocation has occurred, this step\xa0is skipped. Otherwise, steps 3-8 of figure 6.18.2-1 are performed between AMF, UE, and Target LMF with addition that UE also terminate connection to Source LMF.', '', '3.\tThe AMF sends an Nlmf_Location_UPConfig Request towards the source LMF. The message may include a request for the Source LMF to terminate a specific user plane connection to the UE and the Target LMF identification. Alternatively, it may include information about AMF reallocation.', '', '4-5.[Conditional] The source LMF may invoke an Nlmf_Location_LocationContextTransfer Request service operation towards the target LMF to provide the current location context of the UE, if there is periodic and triggered UE location events report context. The target LMF informs source LMF of the location context transfer operation results.', '', '6.\t[Conditional] If the user plane connection to source LMF is still active, the source LMF terminates the connection to the UE.', '', '7.\tThe LMF sends Nlmf_Location_UPConfig Response message to AMF to confirm connection termination or acknowledge change of AMF. If this procedure is used for termination, the AMF will release the LCS-UP context after receiving the response message.', '']</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0.2241616179402348</v>
+        <v>0.2004641243820492</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.11.3.1	Codec and media characteristics flow negotiation during initial session establishment&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.2.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23548-i20.docx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>['', 'Initial session establishment in the IM CN subsystem must determine a negotiated set of media characteristics (including a common codec or set of common codecs for multi-media sessions) that will be used for the session. This is done through an end-to-end message exchange to determine the complete set of media characteristics, then the decision is made by the session initiator as to the initial set of media flows.', '', 'The session initiator includes an SDP in the SIP INVITE message that lists every media characteristics (including codecs) that the originator is willing to support for this session. When the message arrives at the destination endpoint, it responds with the media characteristics (e.g. common subset of codecs) that it is also willing to support for the session. Media authorization is performed for these media characteristics. The session initiator, upon receiving the common subset, determines the media characteristics (including codecs) to be used initially.', '', 'The negotiation may take multiple media offered and answered between the end points until the media set is agreed upon.', '', 'Once the session is established, the procedures of clause\xa05.11.3.2 may be used by either endpoint to change to a different media characteristic (e.g. codec) that was included in the initial session description, and for which no additional resources are required for media transport. The procedures of clause\xa05.11.3.3 may be used by either endpoint to change the session, which requires resources beyond those allocated to the existing session.', '', 'The flow presented here assumes that Policy and Charging Control is in use.', '', '----media/image69.emf----', '', 'Figure 5.30: Codec negotiation during initial session establishment', '', 'The detailed procedure is as follows:', '', "1.\tUE#1 inserts the codec(s) to a SDP payload. The inserted codec(s) shall reflect the UE#1's terminal capabilities and user preferences for the session capable of supporting for this session. It builds a SDP containing bandwidth requirements and characteristics of each, and assigns local port numbers for each possible media flow. Multiple media flows may be offered, and for each media flow (m= line in SDP), there may be multiple codec choices offered.", '', '2.\tUE#1 sends the initial INVITE message to PCSCF#1 containing this SDP', '', "3.\tPCSCF#1 examines the media parameters. If PCSCF#1 finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session initiation attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session initiation with media parameters that are allowed by local policy of PCSCF#1's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12].", '', '\tIn this flow described in Figure 5.30 above the PCSCF#1 allows the initial session initiation attempt to continue.', '', 'NOTE\xa01:\tWhether the PCSCF should interact with PCRF/PCF in this step is based on operator policy.', '', '4.\tPCSCF#1 forwards the INVITE message to SCSCF#1', '', "5.\tSCSCF#1 examines the media parameters. If SCSCF#1 finds media parameters that local policy or the originating user's subscriber profile does not allow to be used within an IMS session, it rejects the session initiation attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session initiation with media parameters that are allowed by the originating user's subscriber profile and by local policy of SCSCF#1's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12].", '', '\tIn this flow described in Figure 5.30 above the SCSCF#1 allows the initial session initiation attempt to continue.', '', '6.\tSCSCF#1 forwards the INVITE, through the S-S Session Flow Procedures, to SCSCF#2.', '', "7.\tSCSCF#2 examines the media parameters. If SCSCF#2 finds media parameters that local policy or the terminating user's subscriber profile does not allow to be used within an IMS session, it rejects the session initiation attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session initiation with media parameters that are allowed by the terminating user's subscriber profile and by local policy of SCSCF#2's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12].", 'In this flow described in Figure 5.30 above the SCSCF#2 allows the initial session initiation attempt to continue.', '', '8.\tSCSCF#2 forwards the INVITE message to PCSCF#2.', '', "9.\tPCSCF#2 examines the media parameters. If PCSCF#2 finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session initiation attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session initiation with media parameters that are allowed by local policy of PCSCF#2's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12].", '', '\tIn this flow described in Figure 5.30 above the PCSCF#2 allows the initial session initiation attempt to continue.', '', 'NOTE\xa02:\tWhether the PCSCF should interact with PCRF/PCF in this step is based on operator policy.', '', '10.\tPCSCF#2 forwards the INVITE message to UE#2.', '', '11.\tUE#2 determines the complete set of codecs that it is capable of supporting for this session. It determines the intersection with those appearing in the SDP in the INVITE message. For each media flow that is not supported, UE#2 inserts a SDP entry for media (m= line) with port=0. For each media flow that is supported, UE#2 inserts a SDP entry with an assigned port and with the codecs in common with those in the SDP from UE#1.', '', '12.\tUE#2 returns the SDP listing common media flows and codecs to PCSCF#2', '', '13.\tPCSCF#2 authorizes the QoS resources for the remaining media flows and codec choices.', '', '14.\tPCSCF#2 forwards the SDP response to SCSCF#2.', '', '15.\tSCSCF#2 forwards the SDP response to SCSCF#1.', '', '16.\tSCSCF#1 forwards the SDP response to PCSCF#1.', '', '17.\tPCSCF#1 authorizes the QoS resources for the remaining media flows and codec choices.', '', '18.\tPCSCF#1 forwards the SDP response to UE#1.', '', '19.\tUE#1 determines which media flows should be used for this session, and which codecs should be used for each of those media flows. If there was more than one media flow, or if there was more than one choice of codec for a media flow, then UE#1 need to renegotiate the codecs by sending another offer to reduce codec to one with the UE#2.', '', '20-24.\tUE#1 sends the "Offered SDP" message to UE#2, along the signalling path established by the INVITE request', '', 'The remainder of the multi-media session completes identically to a single media/single codec session, if the negotiation results in a single codec per media.', '']</t>
+          <t>['', 'In Edge Computing deployment, an application service may be served by multiple Edge Application Servers typically deployed in different sites. These multiple Edge Application Servers that host service may use a single IP address (anycast address) or different IP addresses. To start such a service, the UE needs to know the IP address(es) of the Application Server(s) serving the service. The UE may do a discovery to get the IP address(es) of a suitable Edge Application Server (e.g. the closest one), so that the traffic can be locally routed to the Edge Application Server and service latency, traffic routing path and user service experience can be optimized.', '', 'EAS discovery is the procedure by which a UE discovers the IP address(es) of a suitable Edge Application Server(s) using Domain Name System (DNS). EAS Re-discovery is the EAS Discovery procedure that takes place when the previously discovered Edge Application Server cannot be used or may have become non-optimal (e.g. at edge relocation).', '', 'The DNS server to be used for EAS (re-)discovery may be deployed in different locations in the network as Central DNS (C-DNS) server or as Local DNS (L-DNS) resolver/server.', '', 'NOTE\xa01:\tThe C-DNS servers and/or L-DNS resolvers/servers can use an anycast address.', '', 'NOTE\xa02:\tThe C-DNS servers or L-DNS resolvers/servers can contact any other DNS servers for recursive queries, which is out of scope of this specification.', '', "NOTE\xa03:\tThis specification describes the discovery procedure based on 5GS NFs as to ensure the UE is served by the application service closest to the UE's point of attachment. However, this does not exclude other upper layer solution that can be adopted by operator or service provider, like the EAS Discovery procedure defined in TS\xa023.558\xa0[5], or other alternatives shown in Annex A and Annex B. How those other solutions work, or whether they are able to guarantee the closest application service for the UE, is out of the scope of this specification.", '', 'In order to provide a translation of the FQDN of an EAS into the address of an EAS as topologically close as possible to the UE, the Domain Name System may use following information:', '', '-\tThe source IP address of the incoming DNS Query; and/or,', '', '-\tan EDNS Client Subnet (ECS) option (as defined in RFC 7871\xa0[6]).', '', 'NOTE\xa04:\tUE IP address can be subject to privacy restrictions, which means that it is not to be sent to Authoritative DNS / DNS Resolvers outside the network operator within EDNS Client Subnet option or as Source IP address of the DNS Query. UE source IP address can be protected by using NAT mechanism.', '', 'EAS (re-)discovery procedures described in this specification should use the top level domains (TLDs) in the public namespace by default. ', '', 'If a private namespace is used, an Edge Computing Service Provider (ECSP) can provision DNS information in the EAS Deployment information via AF request with its Application Identifier, or DNN and NSSAI. Since private namespaces do not have a common root server or naming, the DNS information for each ECSP should be stored individually to prevent any overwriting of resolution entries.', '', 'NOTE\xa05:\tThe DNS information provided by ECSP in the EAS Deployment Information can be used to select the DNS settings for a PDU Session mainly if the PDU Session is specific for the ECSP services.', '', 'If the UE applications want to discover/access EAS by using the mechanisms defined in this TS, the UE shall support receiving DNS settings in PCO during PDU Session Establishment and PDU Session Modification, and the DNS Queries generated by the UE for these applications shall be sent to the DNS server/resolver (e.g. EASDF) indicated by the SMF. To ensure this, the application in the UE either requests the EDC functionality to send a DNS Query or, alternatively, uses the EDC functionality to get the configuration of the DNS Server (IP address and, conditionally, DNS security information of the EASDF/DNS resolver; see TS\xa024.501\xa0[11] and TS\xa033.501\xa0[12]) indicated by the SMF (see clauses 5.2.1 and 6.2.4) then resolves the FQDN by its own DNS mechanism.', '', 'NOTE\xa06:\tIt is the decision of the application in the UE whether to use the EDC functionality or not to resolve the FQDN. If it does not use the EDC functionality, the usage of the EAS (re-)discovery procedures defined in clause\xa06.2 cannot be ensured.', '', 'The case of EAS (Re-)discovery over Distributed Anchor connectivity model is described in clause 6.2.2. For Multiple PDU Sessions connectivity model, the description in clause 6.2.2 also applies to the PDU Session(s) with Local PSA. The case of EAS (Re-)discovery over Session Breakout connectivity model is described in clause 6.2.3.', '']</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.2159051506181826</v>
+        <v>0.2018260850018047</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.11.3.3	Codec or media characteristics flow change requiring new resources and/or authorization&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.2.2	SMF&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>['', 'After the multi-media session is established, it is possible for either endpoint to change the set of media flows or media characteristics (e.g. codecs) for media flow(s). If the change requires different resources beyond those previously reserved, then it is necessary to perform the resource reservation and bearer establishment procedures. If the reservation request fails for whatever reason, the original multi-media session remains in progress.', '', 'The flow presented here assumes that Policy and Charging Control is in use.', '', '----media/image71.wmf----', '', 'Figure 5.32: Codec or media flow change - new reservation', '', 'The detailed procedure is as follows:', '', "1.\tUE#1 inserts the revised set of codecs to a SDP payload. The inserted codec(s) shall reflect the UE#1's terminal capabilities and user preferences for the session. It builds a SDP containing bandwidth requirements and characteristics of each, and assigns local port numbers for each possible media flow. Multiple media flows may be offered, and for each media flow (m= line in SDP), there may be multiple codec choices offered.", '', '2.\tUE#1 sends an INVITE message to PCSCF#1 containing this SDP.', '', "3.\tPCSCF#1 examines the media parameters. If PCSCF#1 finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session modification attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session modification with media parameters that are allowed by local policy of PCSCF#1's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12].", 'In this flow described in Figure 5.32 above the PCSCF#1 allows the initial session modification attempt to continue.', '', 'NOTE\xa01:\tWhether the PCSCF interacts with PCRF/PCF in this step is based on operator policy.', '', '4.\tPCSCF#1 forwards the INVITE message to SCSCF#1.', '', "5.\tSCSCF#1 examines the media parameters. If SCSCF#1 finds media parameters that local policy or the originating user's subscriber profile does not allow to be used within an IMS session, it rejects the session modification attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session modification with media parameters that are allowed by the originating user's subscriber profile and by local policy of SCSCF#1's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12]. ", 'In this flow described in Figure 5.32 above the SCSCF#1 allows the initial session modification attempt to continue.', '', '6.\tSCSCF#1 forwards the INVITE, through the S-S Session Flow Procedures, to SCSCF#2.', '', "7.\tSCSCF#2 examines the media parameters. If SCSCF#2 finds media parameters that local policy or the terminating user's subscriber profile does not allow to be used within an IMS session, it rejects the session modification attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session modification with media parameters that are allowed by the terminating user's subscriber profile and by local policy of SCSCF#2's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12].", 'In this flow described in Figure 5.32 above the SCSCF#2 allows the initial session modification attempt to continue.', '', '8.\tSCSCF#3 forwards the INVITE message to PCSCF#2.', '', "9.\tPCSCF#2 examines the media parameters. If PCSCF#2 finds media parameters not allowed to be used within an IMS session (based on PCSCF local policies, or if available bandwidth authorization limitation information coming from the PCRF/PCF), it rejects the session modification attempt. This rejection shall contain sufficient information for the originating UE to re-attempt session modification with media parameters that are allowed by local policy of PCSCF#2's network according to the procedures specified in IETF\xa0RFC\xa03261\xa0[12]. ", 'In this flow described in Figure 5.32 above the PCSCF#2 allows the initial session modification attempt to continue.', '', 'NOTE\xa02:\tIf session modification request indicates no requirements for resource reservation or that the required resources are already available on the originating side, the PCSCF#2 can send updated session information to PCRF/PCF whenever SDP offer is contained in the session establishment request, as in such cases no SDP answer is received before the PCRF/PCF is requested to authorize the required QoS resources. Otherwise, whether the PCSCF interacts with PCRF/PCF in this step is based on operator policy.', '', '10.\tPCSCF#2 forwards the INVITE message to UE#2.', '', '11.\tUE#2 determines the complete set of codecs that it is capable of supporting for this session. It determines the intersection with those appearing in the SDP in the INVITE message. For each media flow that is not supported, UE#2 inserts a SDP entry for media (m= line) with port=0. For each media flow that is supported, UE#2 inserts a SDP entry with an assigned port and with the codecs in common with those in the SDP from UE#1.', '', '12.\tUE#2 returns the SDP listing common media flows and codecs to PCSCF#2. It may additionally provide more codecs than originally offered and then the offered set need to be renegotiated.', '', '13.\tPCSCF#2 increases the authorization for the QoS resources, if needed, for the remaining media flows and codec choices.', '', 'NOTE\xa03:\tPCSCF can additionally authorize the resources in step\xa09.', '', '14.\tPCSCF#2 forwards the SDP response to SCSCF#2 toward the originating end along the signalling path.', '', '15.\tPCSCF#1 increases the authorization for the QoS resources, if needed, for the remaining media flows and codec choices.', '', '16.\tPCSCF#1 forwards the SDP response to UE#1.', '', '17.\tUE#1 determines which media flows should be used for this session, and which codecs should be used for each of those media flows. If there was more than one media flow, or if there was more than one choice of codec for a media flow, then UE#1 must include an SDP in the response message by including SDP to UE#2.', '', '18.\tUE#1 sends the offered SDP message to UE#2, including the SDP from step #17 if needed.', '', '19.\tUE#1 and UE#2 reserve the resources needed for the added or changed media flows. If the reservation is successfully completed by UE#1, it stops transmitting any deleted media streams. If UE#1 has sent a new media offer in step 18, it would for example wait for the response in step 20 prior to reserving resources.', '', '20.\tIf UE#1 has sent an updated offer of SDP in step 18, then UE#2 responds to the offer and PCSCF#1 authorizes the offered SDP sent by UE#2.', '', '21.\tUE#1 sends the Resource Reservation Successful message with final SDP to UE#2, via the signalling path through the CSCFs.', '', '22.\tUE#2 stops sending the media streams to be deleted, and initialises its media receivers for the new codec.', '', '23.\tUE#2 sends the 200-OK final response to UE#1, along the signalling path.', '', '24.\tUE#1 starts sending media using the new codecs. UE#1 also releases any excess resources no longer needed.', '', '25.\tUE#1 sends the SIP final acknowledgement, ACK, to UE#2 along the signalling path.', '', '26.\tUE#2 starts sending media using the new codecs. UE#2 also releases any excess resources no longer needed.', '']</t>
+          <t>['', 'The Session Management function (SMF) includes the following functionality. Some or all of the SMF functionalities may be supported in a single instance of a SMF:', '', '-\tSession Management e.g. Session Establishment, modify and release, including tunnel maintain between UPF and AN node.', '', '-\tUE IP address allocation &amp;amp; management (including optional Authorization). The UE IP address may be received from a UPF or from an external data network.', '', '-\tDHCPv4 (server and client) and DHCPv6 (server and client) functions.', '', '-\tFunctionality to respond to Address Resolution Protocol (ARP) requests and / or IPv6 Neighbour Solicitation requests based on local cache information for the Ethernet PDUs. The SMF responds to the ARP and / or the IPv6 Neighbour Solicitation Request by providing the MAC address corresponding to the IP address sent in the request.', '', '-\tSelection and control of UP function, including controlling the UPF to proxy ARP or IPv6 Neighbour Discovery, or to forward all ARP/IPv6 Neighbour Solicitation traffic to the SMF, for Ethernet PDU Sessions.', '', '-\tConfigures traffic steering at UPF to route traffic to proper destination.', '', '-\t5G VN group management, e.g. maintain the topology of the involved PSA UPFs, establish and release the N19 tunnels between PSA UPFs, configure traffic forwarding at UPF to apply local switching, N6-based forwarding or N19-based forwarding, manage traffic forwarding in the case that a SMF Set or multiple SMF Sets are serving a 5G VN.', '', '-\tTermination of interfaces towards Policy control functions.', '', '-\tLawful intercept (for SM events and interface to LI System).', '', '-\tSupport for charging.', '', '-\tControl and coordination of charging data collection at UPF.', '', '-\tTermination of SM parts of NAS messages.', '', '-\tDownlink Data Notification.', '', '-\tInitiator of AN specific SM information, sent via AMF over N2 to AN.', '', '-\tDetermine SSC mode of a session.', '', '-\tSupport for Control Plane CIoT 5GS Optimisation.', '', '-\tSupport of header compression.', '', '-\tAct as I-SMF in deployments where I-SMF can be inserted, removed and relocated.', '', '-\tProvisioning of external parameters (Expected UE Behaviour parameters or Network Configuration parameters).', '', '-\tSupport P-CSCF discovery for IMS services.', '', '-\tAct as V-SMF with following roaming functionalities:', '', '-\tHandle local enforcement to apply QoS SLAs (VPLMN).', '', '-\tCharging (VPLMN).', '', '-\tLawful intercept (in VPLMN for SM events and interface to LI System).', '', '-\tSupport for interaction with external DN for transport of signalling for PDU Session authentication/authorization by external DN.', '', '-\tInstructs UPF and NG-RAN to perform redundant transmission on N3/N9 interfaces.', '', '-\tGeneration of the TSC Assistance Information based on the TSC Assistance Container received from the PCF.', '', '-\tSupport for RAN feedback for BAT offset and adjusted periodicity as defined in clause\xa05.27.2.5.', '', 'NOTE:\tNot all of the functionalities are required to be supported in an instance of a Network Slice.', '', 'In addition to the functionalities of the SMF described above, the SMF may include policy related functionalities as described in clause\xa06.2.2 of TS\xa023.503\xa0[45].', '', 'In addition to the functionality of the SMF described above, the SMF may include the following functionality to support monitoring in roaming scenarios:', '', '-\tNormalization of reports according to roaming agreements between VPLMN and HPLMN; and', '', '-\tGeneration of charging information for Monitoring Event Reports that are sent to the HPLMN.', '', 'The SMF may also include following functionalities to support Edge Computing enhancements (further defined in TS\xa023.548\xa0[130]):', '', '-\tSelection of EASDF and provision of its address to the UE as the DNS Server for the PDU session;', '', '-\tUsage of EASDF services as defined in TS\xa023.548\xa0[130];', '', '-\tFor supporting the Application Layer Architecture defined in TS\xa023.558\xa0[134]: Provision and updates of ECS Address Configuration Information to the UE.', '', 'The SMF and SMF+ PGW-C may also include following functionalities to support Network Slice Admission Control:', '', '-\tSupport of NSAC for maximum number of PDU sessions as defined in clauses 5.15.11.2, 5.15.11.3 and 5.15.11.5.', '', '-\tSupport of NSAC for maximum number of UEs as defined in clauses 5.15.11.3 and 5.15.11.5.', '', '-\tSupport of PDU Set based QoS handling as described in clause\xa05.37.5.', '', 'The SMF may also include following functionalities:', '', '-\tProviding per-QoS flow Non-3GPP QoS assistance information to the UE (e.g. PEGC) and formulation of the CN PDB based on non-3GPP delay budget from UE (e.g. PEGC) as described in clause\xa05.44.3.4.', '', 'In addition to the functionalities of the SMF described above, the SMF may also include functionalities to support Network Slice Replacement as described in clause\xa05.15.19.', '']</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.2114888426600266</v>
+        <v>0.1990750754134787</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.11.3.4	Sample MM session flow - addition of another media&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.2.29	TSCTSF&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2253,47 +2253,47 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>['', 'For this end-to-end session flow, we assume the originator is a UE located within the service area of the network operator to whom the UE is subscribed. The UE has already established an IM CN session and is generating an invite to add another media (e.g. video to a voice call) to the already established session. Note that the invite to add media to an existing session could be originated by either end. The invite, and subsequent flows, are assumed to follow the path determined when the initial session was established. Any ICSCFs that were included in the initial session would be included in this session.', '', 'The originating party addresses a destination that is a subscriber of the same network operator.', '', 'The destination party is a UE located within the service area of the network operator to which it is subscribed.', '', 'The flow presented here assumes that Policy and Charging Control is in use.', '', '----media/image72.emf----', '', 'Figure 5.33: Multimedia session flow - addition of another media', '', 'Step-by-step processing of this end-to-end session flow is as follows:', '', '1.\tUE#1 sends a SIP INVITE request, containing new SDP for the new media and including the original SDP, to PCSCF#1, which was obtained from the CSCF discovery procedures.', '', "2.\tPCSCF#1 forwards the INVITE to the next hop name/address, as determined from the registration procedures. In this case the next hop is SCSCF#1 within the same operator's network.", '', '3.\tSCSCF#1 validates the service profile, and invokes whatever service logic is appropriate for this session attempt.', '', '4.\tSCSCF#1 recognises that this invite applies to an existing session. It therefore forwards the INVITE along the existing path to SCSCF#2.', '', '5.\tSCSCF#2 validates the service profile, and invokes whatever service logic is appropriate for this session attempt.', '', '6.\tSCSCF#2 remembers (from the registration procedure) the next hop CSCF for this UE. It forwards the INVITE to PCSCF#2 in the home network.', '', '7.\tPCSCF#2 remembers (from the registration procedure) the address of UE#2 and forwards the INVITE to UE#2.', '', 'NOTE\xa01:\tIf session modification request indicates no requirements for resource reservation or that the required resources are already available on the originating side, the PCSCF#2 can send updated session information to PCRF/PCF whenever SDP offer is contained in the session establishment request, as in such cases no SDP answer is received before the PCRF/PCF is requested to authorize the required QoS resources. Otherwise, whether the PCSCF interacts with PCRF/PCF in this step is based on operator policy.', '', '8.\tUE#2 returns the media stream capabilities of the destination to the session originator, along the signalling path established by the INVITE message.', '', '9.\tPCSCF#2 authorizes the QoS resources required for this additional media.', '', 'NOTE\xa02:\tPCSCF can additionally authorize the resources in step\xa07.', '', '10.\tPCSCF#2 forwards the SDP to SCSCF#2.', '', '11.\tSCSCF#2 forwards the SDP to SCSCF#1.', '', '12.\tSCSCF#1 forwards the SDP message to PCSCF#1.', '', '13.\tPCSCF#1 authorizes the additional resources necessary for this new media.', '', '14.\tPCSCF#1 forwards the SDP message to the originating endpoint, UE#1.', '', '15-19.\tThe originator decides the offered set of media streams for this media addition, and sends the offered SDP to PCSCF#1.', '', '20.\tDepending on the bearer establishment mode selected for the IPCAN session, resource reservation shall be initiated either by the UE or by the IPCAN itself. UE#2 initiates the resource reservation procedures for the resources necessary for this additional media as shown in figure\xa05.33. Otherwise, the IPCAN initiates the reservation of required resources after step\xa09.', '', '21.\tDepending on the bearer establishment mode selected for the IPCAN session, resource reservation shall be initiated either by the UE or by the IPCAN itself. After determining the offered set of media streams for this additional media, in step #15 above, UE#1 initiates the reservation procedures for the additional resources needed for this new media as shown in figure\xa05.33. Otherwise, the IPCAN#1 initiates the reservation of required resources after step\xa013.', '', '22-25.\tWhen the terminating side has successfully reserved the needed resources, it sends the "reservation successful" message to UE#1 along the signalling path established by the INVITE message. The message is sent first to PCSCF#1.', '', '25a.\tPCSCF#1 authorizes any additional media for the proposed SDP.', '', '26.\tPCSCF#1 forwards the message to UE#1.', '', '27-31.\tUE#1 sends the final agreed SDP to UE#2 via the established path.', '', '32-35.\tUE#2 responds to the offered final media.', '', '35a.\tPCSCF#1 authorizes the media agreed.', '', '36.\tThe response is forwarded to UE#1.', '', '37.\tUE#2 may optionally delay the session establishment in order to alert the user to the incoming additional media.', '', '38.\tIf UE#2 performs alerting, it sends a ringing indication to the originator via the signalling path. The message is sent first to PCSCF#2.', '', '39.\tPCSCF#2 forwards the ringing message to SCSCF#2.SCSCF#2 invokes whatever service logic is appropriate for this ringing flow.', '', '40.\tSCSCF#2 forwards the message to SCSCF#1.', '', '41.\tSCSCF#1 forwards the message to PCSCF#1.', '', '42.\tPCSCF#1 forwards the message to UE#1.', '', '43.\tUE#1 indicates to the originator that the media addition is being delayed due to alerting. Typically this involves playing a ringback sequence.', '', '44.\tWhen the destination party accepts the additional media, UE#2 sends a SIP 200-OK final response along the signalling path back to the originator. The message is sent first to PCSCF#2.', '', '44a.\tAfter sending the 200-OK, UE#2 may initiate the new media flow(s).', '', '45.\tPCSCF#2 enables the media flows authorized for this additional media.', '', '46.\tPCSCF#2 forwards the final response to SCSCF#2.', '', '47.\tSCSCF#2 forwards the final response to SCSCF#1.', '', '48.\tSCSCF#1 forwards the final response to PCSCF#1.', '', '49.\tPCSCF#1 enables the media flows authorized for this additional media.', '', '50.\tPCSCF#1 forwards the final response to UE#1.', '', '51.\tUE#1 starts the media flow(s) for this additional media.', '', '52.\tUE#1 responds to the final response with a SIP ACK message, which is passed to the destination via the signalling path. The message is sent first to PCSCF#1.', '', '53.\tPCSCF#1 forwards the ACK to SCSCF#1', '', '54.\tSCSCF#1 forwards the ACK to SCSCF#2.', '', '55.\tSCSCF#2 forwards the ACK to PCSCF#2.', '', '56.\tPCSCF#2 forwards the ACK to UE#2.', '']</t>
+          <t>['', 'The Time Sensitive Communication and Time Synchronization Function (TSCTSF) supports the following functionality:', '', '-\tAssociating the time synchronization service request (see clause\xa05.27.1.8) from the NF consumer to the AF sessions with the PCF (the session between the PCF and TSCTSF).', '', '-\tControlling time synchronization service request from the NF consumer, (g)PTP-based time distribution and ASTI-based time distribution based on subscription data. The TSCTSF may be pre-configured with one or several PTP instance configurations. For each PTP instance configuration, it may contain:', '', '-\ta reference to the PTP instance configuration.', '', '-\tPTP profile.', '', '-\tPTP domain.', '', '-\tDetecting and reporting time synchronization service status based on NG-RAN and UPF/NW-TT timing synchronization status information and reporting status updates.', '', '-\tManaging the DS-TT and NW-TT via exchange of PMIC and UMIC as described in Annex K.', '', '-\tDetecting availability of 5GS Bridge/Router information (including user plane node ID that applies also for IP type PDU Sessions) as reported by PCF for both Ethernet and IP type PDU Sessions (including the need to (un)subscribe 5GS Bridge/Router information Notification from PCF).', '', '-\tCreating the TSC Assistance Container based on individual traffic pattern parameters from the NEF/AF or DetNet controller and providing it to the PCF.', '', '-\tDetermining the Requested PDB by subtracting the UE-DS-TT Residence Time from the Requested 5GS Delay provided by the NEF/AF or DetNet controller and providing the determined Requested PDB to the PCF.', '', '-\tDiscovering the AMFs serving the list of TA(s) that comprise the spatial validity condition from the NRF and subscribing to the discovered AMF(s) to receive notifications about presence of the UE in an Area of Interest events determined by the list of TA(s) served by the AMF.', '', "-\tDiscovering the AMF(s) serving a UE or a list of TA(s) and subscribing to gNB's node-level timing synchronization status.", '', "-\tObtaining gNB's and UPF's node-level timing synchronization status information as defined in clause\xa05.27.1.12.", '', '-\tDetermining the spatial validity condition from the requested coverage area by the NEF/AF and enforcing time synchronization service for the requested coverage area.', '', '-\tSupport for RAN feedback for BAT offset and adjusted periodicity as defined in clause\xa05.27.2.5.', '', '-\tIn the case of support of integration with IETF Deterministic Networking (as depicted in clauses 4.4.8.4 and 5.28.5), acting as a stateful translator function between a DetNet controller and 5G System Network Functions and Procedures, including the NW-TT. This includes exposing the information about the 5GS router to the DetNet controller and mapping 5GS router configuration parameters provided by the DetNet controller to 5G System parameters. The details are defined in clause\xa05.28.5.', '']</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.2203075157337451</v>
+        <v>0.1878841940392046</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.2.10.2	Connectivity&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.2.3	UPF&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>['', 'The MC service clients of the MC service users receiving MC service(s) from a first MC system and using MC service interconnection to take part in communication with MC service users in a second MC system require connectivity to only the identity management server in the second MC system.', '', 'IP connectivity is required between MC systems wishing to interconnect. The IP connectivity is used to carry the signalling and application plane protocols needed to provide MC service.', '', 'NOTE\xa01:\tThe IP connectivity between interconnecting MC systems needs to provide appropriate performance (e.g. low packet latency) in order to meet MC service user performance requirements for the MC service.', '', 'NOTE\xa02:\tIf IP connectivity between interconnecting MC systems is carried outside the trust domain of both MC systems, then there will need to be appropriate security measures applied. Such security measures are outside the scope of the present document.', '']</t>
+          <t>['', 'The User plane function (UPF) includes the following functionality. Some or all of the UPF functionalities may be supported in a single instance of a UPF:', '', '-\tAnchor point for Intra-/Inter-RAT mobility (when applicable).', '', '-\tAllocation of UE IP address/prefix (if supported) in response to SMF request.', '', '-\tExternal PDU Session point of interconnect to Data Network.', '', '-\tPacket routing &amp;amp; forwarding (e.g. support of Uplink classifier to route traffic flows to an instance of a data network, support of Branching point to support multi-homed PDU Session, support of traffic forwarding within a 5G VN group (UPF local switching, via N6, via N19)).', '', '-\tPacket inspection (e.g. Application detection based on service data flow template and the optional PFDs received from the SMF in addition).', '', '-\tUser Plane part of policy rule enforcement, e.g. Gating, Redirection, Traffic steering).', '', '-\tLawful intercept (UP collection).', '', '-\tTraffic usage reporting.', '', '-\tQoS handling for user plane, e.g. UL/DL rate enforcement, Reflective QoS marking in DL.', '', '-\tUplink Traffic verification (SDF to QoS Flow mapping).', '', '-\tTransport level packet marking in the uplink and downlink.', '', '-\tDownlink packet buffering and downlink data notification triggering.', '', '-\tSending and forwarding of one or more "end marker" to the source NG-RAN node.', '', '-\tFunctionality to respond to Address Resolution Protocol (ARP) requests and / or IPv6 Neighbour Solicitation requests based on local cache information for the Ethernet PDUs. The UPF responds to the ARP and / or the IPv6 Neighbour Solicitation Request by providing the MAC address corresponding to the IP address sent in the request.', '', '-\tPacket duplication in downlink direction and elimination in uplink direction in GTP-U layer.', '', '-\tNW-TT functionality.', '', '-\tHigh latency communication, see clause\xa05.31.8.', '', '-\tATSSS Steering functionality to steer the MA PDU Session traffic, refer to clause\xa05.32.6.', '', 'NOTE:\tNot all of the UPF functionalities are required to be supported in an instance of user plane function of a Network Slice.', '', '-\tInter PLMN UP Security (IPUPS) functionality, specified in clause\xa05.8.2.14.', '', '-\tevent exposure, including exposure of network information, i.e. the QoS monitoring information, as specified in clause\xa05.8.2.18, events as specified in clause\xa05.2.26.2 of TS\xa023.502\xa0[3], exposure of data collected for analytics, as specified in clause\xa05.2.26.2 of TS\xa023.502\xa0[3] and exposure of the TSC management information as specified in clause\xa05.8.5.14.', '', '-\tExposure of the UE IP address translation information as specified in clause\xa05.2.26.3 of TS\xa023.502\xa0[3] and clause\xa04.15.10 of TS\xa023.502\xa0[3] if Network address translation (i.e. NAT) functionality of the UE IP address is deployed within UPF.', '', '-\tSupport PDU Set Handling as defined in clause\xa05.37.5.', '']</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0.2127242109220655</v>
+        <v>0.1876012642961527</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.2.2.2	V2X message reception via MBS&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.2F.2	Contents of ML Model Training&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2303,22 +2303,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>['', 'The mechanisms defined in TS\xa023.247\xa0[28] can be used to establish the suitable MBS sessions, and V2X messages are routed from the V2X Application Server towards UEs via broadcast MBS sessions or multicast MBS sessions. As defined in TS\xa023.247\xa0[28] multicast/broadcast service for roaming is not supported in this release.', '', 'For MBS reception of V2X messages, announcement for V2X services is required for the UE. To provide the UE with the announcement, the following ways may be used:', '', '-\tExisting announcement mechanisms specified in TS\xa023.247\xa0[28], TS\xa026.502\xa0[29] and TS\xa026.517\xa0[30].', '', '-\tMBS session announcement provisioned as described in clauses 5.1.1 and 5.1.3.1.', '', 'The V2X Application Server providing the V2X service identified by V2X service type sends the V2X message via UDP/IP transport using information provided in the announcement.', '', 'V2X message transfer via MBS may be achieved by locating the MBS CN NFs (e.g. MB-UPF) closer to the gNB to meet the latency requirement as defined for 5QI 75 specified in TS\xa023.501\xa0[6].', '']</t>
+          <t>['', 'The consumers of the ML model training services (i.e. an NWDAF containing MTLF) may provide the input parameters in Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request service operations as listed below:', '', '-\tAnalytics ID: identifies the analytics for the provided ML model is used.', '', '-\tML Model Interoperability Information as defined in clause\xa06.2A.2.', '', '-\tA Notification Target Address (+ Notification Correlation ID) as defined in TS\xa023.502\xa0[3] clause\xa04.15.1, allowing to correlate notifications received from the NWDAF containing MTLF with the subscription.', '', '-\t[OPTIONAL] ML Model Information (address (e.g. URL or FQDN) of Model file).', '', '-\t[OPTIONAL] ML Model ID: identifies the provided ML model.', '', '-\t[OPTIONAL] ML Preparation Flag: identifies whether the request is for preparing Federated Learning or executing Federated Learning.', '', '-\t[OPTIONAL] ML Model Accuracy Check Flag: identifies that the request is for using the local training data as the testing dataset to calculate the Model Accuracy of the global ML model provided by the service consumer NWDAF acting as the FL Server NWDAF.', '', '-\t[OPTIONAL] ML Correlation ID: identifies the Federated Learning procedure for training the ML model. This parameter is included when the service is used for Federated Learning.', '', '-\t[OPTIONAL] Available data requirement. This is for informing the requirement on available data for the ML model training. e.g. FL Server NWDAF sends the requirement in preparation request to a FL Client NWDAF for selecting the FL Client NWDAF which can meet the available data requirement. The following available data requirements can be included:', '', '-\tEvent ID list to be collected for local model training.', '', '-\tDataset statistical properties as defined in clause\xa06.1.3.', '', '-\tTime window of the data samples.', '', '-\tMinimum number of data samples.', '', '-\t[OPTIONAL] Availability time requirement. This is for informing the requirement on availability time for the ML model training, e.g. FL Server NWDAF sends the requirement in preparation request to FL Client NWDAF for selecting the FL Client NWDAF which is available in the required time for training ML model.', '', '-\t[OPTIONAL] Training Filter Information: enables to select which data for the ML model training is requested, e.g. S-NSSAI, Area of Interest. Parameter types in the Training Filter Information are the same as or subset of parameter types in the ML Model Filter Information which are defined in procedure 6.2A.1.', '', '-\t[OPTIONAL] Target of Training Reporting: indicates the object(s) for which data for ML model training is requested, i.e. a group of UEs or any UE (i.e. all UEs).', '', '-\t[OPTIONAL] Use case context: indicates the context of use of ML model.', '', '-\t[OPTIONAL] Training Reporting Information with the following parameters:', '', '-\tMaximum response time: indicates maximum time for waiting notifications (i.e. training results).', '', '-\t[OPTIONAL] Iteration round ID: indicates the iteration round number of current ML model training.', '', '-\t[OPTIONAL] Expiry time.', '', 'The NWDAF containing MTLF provides to the consumer of the ML model training service operations as described in clause\xa07.10, the output information in notification as listed below:', '', '-\tThe Notification Correlation Information.', '', '-\tML Model Information which includes:', '', '-\teither the ML model file address (e.g. URL or FQDN) or ADRF (Set) ID and ML Model Identifier or ML Model Storage Transaction Identifier if available.', '', '-\t[OPTIONAL] ML Model ID: identifies the provisioned ML model.', '', '-\t[OPTIONAL] Model Accuracy: The model accuracy of the global ML model, which is calculate by the FL Client NWDAF using the local training data as the testing dataset.', '', '\t[OPTIONAL] Status report of FL training: Accuracy of local model and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension , etc.), which are generated by the FL Client NWDAF during FL procedure.', '', 'NOTE:\tThe parameters in Training Input Data Information are up to the implementation.', '', '-\t[OPTIONAL] ML Correlation ID. This parameter may be included when the service is used for Federated Learning.', '', '-\t[OPTIONAL] Iteration round ID: indicates the iteration round number of ML model training indicated by the FL Server NWDAF.', '', '-\t[OPTIONAL] Delay Event Notification with the following parameters:', '', '-\tdelay event indication: this parameter indicates that FL Client NWDAF is not able to complete the training of the interim local ML model within the maximum response time provided by the FL Server NWDAF.', '', '-\t[OPTIONAL] cause code (e.g. local ML model training failure, more time necessary for local ML model training, etc.).', '', '-\t[OPTIONAL] Expected time to complete the training: Indicates to the FL Server NWDAF that expected remaining training time, and may be provided with Delay Event Notification.', '']</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>0.1997138253774657</v>
+        <v>0.1995117452039071</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.2.3.1	General&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23503-i20.docx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2328,47 +2328,47 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>['', 'V2X communication over PC5 reference point may use different protocols and formats than V2X communication over Uu reference point.', '', 'For a V2X service type that can use PC5 reference points or Uu reference point for the transmission of the same V2X messages, the following additional consideration apply for unicast transport of V2X messages over Uu reference point:', '', '-\tfor transport of non-IP based V2X messages from the application:', '', '-\tIP encapsulation (i.e. IP PDU Session type) or Unstructured PDU Session type is used.', '', '-\tThe UE determines which method between IP encapsulation and Unstructured PDU Session type is used for non-IP based V2X messages based on the UE configuration as described in clause\xa05.1.3.1. If no such configuration is available, UE can use the method based on the UE implementation.', '', '-\twhen IP PDU Session type is used for transport of IP based or non-IP based V2X messages:', '', '-\tV2X messages are transported over UDP or TCP:', '', '-\tfor non-IP based V2X messages from the application, UE may learn from V2X Application Server or UE may be configured explicitly about a transport layer protocol needs to be used or no restriction imposed by configuration.', '', '-\tfor IP based V2X messages from the application, UE uses the transport layer protocol set by the upper layer.', '', '-\tthe UE sends a V2X message to a V2X Application Server address. The destined V2X Application Server address is derived from the V2X service type and the UE configuration as described in clause\xa05.1.3.1, and the V2X Application Server receives the V2X message in a UDP/IP packet or a TCP/IP packet on a V2X Application Server address.', '', '-\twhen Unstructured PDU Session type is used for transport of non-IP based V2X messages:', '', '-\tV2X messages are transported to the V2X Application Server as defined in clause\xa05.6.10.3 of TS\xa023.501\xa0[6].', '', 'Latency reduction for V2X message transfer via unicast may be achieved by using various mechanisms, including via e.g., edge computing defined in clauses5.6.7 and 5.13 of TS\xa023.501\xa0[6], where the V2X Application Server acts as an Application Function.', '']</t>
+          <t>['', 'The Policy and charging control rule (PCC rule) comprises the information that is required to enable the user plane detection of, the policy control and proper charging for a service data flow. The packets detected by applying the service data flow template of a PCC rule form a service data flow.', '', 'Two different types of PCC rules exist: Dynamic rules and predefined rules. The dynamic PCC rules are provisioned by the PCF to the SMF, while the predefined PCC rules are configured into the SMF, as described in TS\xa023.501\xa0[2], and only referenced by the PCF.', '', 'NOTE\xa01:\tThe procedure for provisioning predefined PCC rules is out of scope for this specification.', '', 'The operator defines the PCC rules.', '', 'Table 6.3.1 lists the information contained in a PCC rule, including the information name, the description and whether the PCF may modify this information in a dynamic PCC rule which is active in the SMF. The Category field indicates if a certain piece of information is mandatory or not for the construction of a PCC rule, i.e. if it is possible to construct a PCC rule without it.', '', 'The differences with table 6.3 in TS\xa023.203\xa0[4] are shown, either "none" means that the IE applies in 5GS or "removed" meaning that the IE does not apply in 5GS, this is due to the lack of support in the 5GS for this feature or "modified" meaning that the IE applies with some modifications defined in the IE.', '', 'Table 6.3.1: The PCC rule information in 5GC', '', 'Information name', '', 'Description', '', 'Category', '', 'PCF permitted to modify for a dynamic PCC rule in the SMF', '', 'Differences compared with table 6.3. in TS\xa023.203\xa0[4]', '', 'Rule identifier', '', 'Uniquely identifies the PCC rule, within a PDU Session.', '', 'It is used between PCF and SMF for referencing PCC rules.', '', 'Mandatory', '', 'No', '', 'None', '', '&lt;b&gt;Service data flow detection&lt;/b&gt;', '', '&lt;i&gt;This part defines the method for detecting packets belonging to a service data flow.&lt;/i&gt;', '', '', '', '', '', '', '', 'Precedence', '', 'Determines the order, in which the service data flow templates are applied at service data flow detection, enforcement and charging. (NOTE 1).', '', 'Conditional (NOTE 2)', '', 'Yes', '', 'None', '', 'Service data flow template', '', 'For IP PDU traffic: Either a list of service data flow filters or an application identifier that references the corresponding application detection filter for the detection of the service data flow.', '', 'For Ethernet PDU traffic: Combination of traffic patterns of the Ethernet PDU traffic.', '', 'It is defined in clause\xa05.7.6.3 of TS\xa023.501\xa0[2].', '', 'Mandatory (NOTE 3)', '', 'Conditional', '', '(NOTE 4)', '', 'Modified', '', '(packet filters for Ethernet PDU traffic added)', '', 'Mute for notification', '', "Defines whether application's start or stop notification is to be muted.", '', 'Conditional (NOTE 5)', '', 'No', '', 'None', '', '&lt;b&gt;Charging&lt;/b&gt;', '', '&lt;i&gt;This part defines identities and instructions for charging and accounting that is required for an access point where flow based charging is configured&lt;/i&gt;', '', '', '', '', '', '', '', 'Charging key', '', '(NOTE\xa022)', '', 'The charging system (CHF) uses the charging key to determine the tariff to apply to the service data flow.', '', '', '', 'Yes', '', 'None', '', 'Service identifier', '', 'The identity of the service or service component the service data flow in a rule relates to.', '', '', '', 'Yes', '', 'None', '', 'Sponsor Identifier', '', 'An identifier, provided from the AF which identifies the Sponsor, used for sponsored flows to correlate measurements from different users for accounting purposes.', '', 'Conditional', '', '(NOTE\xa06)', '', 'Yes', '', 'None', '', 'Application Service Provider Identifier', '', 'An identifier, provided from the AF which identifies the Application Service Provider, used for sponsored flows to correlate measurements from different users for accounting purposes.', '', 'Conditional', '', '(NOTE\xa06)', '', 'Yes', '', 'None', '', 'Charging method', '', 'Indicates the required charging method for the PCC rule.', '', 'Values: online or offline or neither.', '', 'Conditional', '(NOTE\xa07)', '', '', '', 'No', '', 'None', '', 'Service Data flow handling while requesting credit', '', 'Indicates whether the service data flow is allowed to start while the SMF is waiting for the response to the credit request.', '', 'Only applicable for charging method online.', '', 'Values: blocking or non-blocking', '', '', '', 'No', '', 'New', '', 'Measurement method', '', 'Indicates whether the service data flow data volume, duration, combined volume/duration or event shall be measured.', '', 'This is applicable to reporting, if the charging method is online or offline.', '', 'Note: Event based charging is only applicable to predefined PCC rules and PCC rules used for application detection filter (i.e. with an application identifier).', '', '', '', 'Yes', '', 'None', '', 'Application Function Record Information', '', 'An identifier, provided from the AF, correlating the measurement for the Charging key/Service identifier values in this PCC rule with application level reports.', '', '', '', 'No', '', 'None', '', 'Service Identifier Level Reporting', '', 'Indicates that separate usage reports shall be generated for this Service Identifier.', '', 'Values: mandated or not required', '', '', '', 'Yes', '', 'None', '', '&lt;b&gt;Policy control&lt;/b&gt;', '', '&lt;i&gt;This part defines how to apply policy control for the service data flow.&lt;/i&gt;', '', '', '', '', '', '', '', 'Gate status', '', 'The gate status indicates whether the service data flow, detected by the service data flow template, may pass (Gate is open) or shall be discarded (Gate is closed).', '', '', '', 'Yes', '', 'None', '', '5G QoS Identifier (5QI)', '', 'The 5QI authorized for the service data flow.', '', 'Conditional', '(NOTE\xa010)', '', '', '', 'Yes', '', '\tModified', '', '(corresponds to QCI in TS\xa023.203\xa0[4])', '', 'QoS Notification Control (QNC)', '', 'Indicates whether notifications are requested from 3GPP RAN when the GFBR can no longer (or can again) be guaranteed for a QoS Flow during the lifetime of the QoS Flow. ', '', 'Conditional', '(NOTE\xa015)', '', '', '', 'Yes', '', 'Added', '', 'Reflective QoS Control ', '', 'Indicates to apply reflective QoS for the SDF.', '', '', '', 'Yes', '', 'Added', '', 'UL-maximum bitrate', '', 'The uplink maximum bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'DL-maximum bitrate', '', 'The downlink maximum bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'UL-guaranteed bitrate', '', 'The uplink guaranteed bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'DL-guaranteed bitrate', '', 'The downlink guaranteed bitrate authorized for the service data flow', '', '', '', 'Yes', '', 'None', '', 'UL sharing indication', '', 'Indicates resource sharing in uplink direction with service data flows having the same value in their PCC rule', '', '', '', 'No', '', 'None', '', 'DL sharing indication', '', 'Indicates resource sharing in downlink direction with service data flows having the same value in their PCC rule', '', '', '', 'No', '', 'None', '', 'Redirect', '', 'Redirect state of the service data flow (enabled/disabled)', '', 'Conditional (NOTE 8)', '', 'Yes', '', 'None', '', 'Redirect Destination', '', 'Controlled Address to which the service data flow is redirected when redirect is enabled', '', 'Conditional', '', '(NOTE 9)', '', 'Yes', '', 'None', '', 'ARP', '', 'The Allocation and Retention Priority for the service data flow consisting of the priority level, the pre-emption capability and the pre-emption vulnerability', '', 'Conditional', '(NOTE\xa010)', '', 'Yes', '', 'None', '', 'Bind to QoS Flow associated with the default QoS rule', '', 'Indicates that the dynamic PCC rule shall always have its binding with the QoS Flow associated with the default QoS rule (NOTE\xa011).', '', '', '', 'Yes', '', 'Modified (corresponds to bind to the default bearer in TS\xa023.203\xa0[4]) ', '', 'Bind to QoS Flow associated with the default QoS rule and apply PCC rule parameters', '', 'Indicates that the dynamic PCC rule shall always have its binding with the QoS Flow associated with the default QoS rule.', '', 'It also indicates that the that the QoS related attributes of the PCC rule shall be applied to derive the QoS parameters of the QoS Flow associated with the default QoS rule instead of the PDU Session related parameters Authorized default 5QI/ARP.', '', 'Conditional', '(NOTE\xa017)', '', 'Yes', '', 'Added', '', 'PS to CS session continuity', '', 'Indicates whether the service data flow is a candidate for vSRVCC.', '', '', '', '', '', 'Removed', '', 'Priority Level', '', 'Indicates a priority in scheduling resources among QoS Flows (NOTE\xa014).', '', '', '', 'Yes', '', 'Added', '', 'Averaging Window ', '', 'Represents the duration over which the guaranteed and maximum bitrate shall be calculated (NOTE\xa014). ', '', '', '', 'Yes', '', 'Added', '', 'Maximum Data Burst Volume', '', 'Denotes the largest amount of data that is required to be transferred within a period of 5G-AN PDB (NOTE\xa014). ', '', '', '', 'Yes', '', 'Added', '', 'Disable UE notifications at changes related to Alternative QoS Profiles', '', 'Indicates to disable QoS Flow parameters signalling to the UE when the SMF is notified by the NG-RAN of changes in the fulfilled QoS situation. The fulfilled situation is either the QoS profile or an Alternative QoS Profile.', '', 'Conditional', '', '(NOTE\xa025)', '', 'Yes', '', 'Added', '', 'Precedence for TFT packet filter allocation', '', 'Determines the order of TFT packet filter allocation for PCC rules', '', 'Conditional (NOTE\xa028)', '', 'Yes', '', 'Added', '', 'ECN marking for L4S', '', '(NOTE\xa032)', '', 'The ECN marking for L4S indicates the UL and/or DL of the service data flow, detected by the service data flow template, supports ECN marking for L4S and to enable ECN marking for L4S for the service data flow.', '', 'Conditional', '', 'Yes', '', 'Added', '', '&lt;b&gt;Access Network Information Reporting&lt;/b&gt;', '', '&lt;i&gt;This part describes access network information to be reported for the PCC rule when the corresponding QoS Flow is established, modified or terminated.&lt;/i&gt;', '', '', '', '', '', '', '', 'User Location Report', '', 'The serving cell of the UE is to be reported. When the corresponding QoS Flow is deactivated, and if available, information on when the UE was last known to be in that location is also to be reported.', '', '', '', 'Yes', '', 'None', '', 'UE Timezone Report', '', 'The time zone of the UE is to be reported.', '', '', '', 'Yes', '', 'None', '', '&lt;b&gt;Usage Monitoring Control&lt;/b&gt;', '', '&lt;i&gt;This part describes identities required for Usage Monitoring Control.&lt;/i&gt;', '', '', '', '', '', 'None', '', 'Monitoring key', '', '(NOTE\xa023)', '', 'The PCF uses the monitoring key to group services that share a common allowed usage.', '', '', '', 'Yes', '', 'None', '', 'Indication of exclusion from session level monitoring', '', 'Indicates that the service data flow shall be excluded from PDU Session usage monitoring', '', '', '', 'Yes', '', 'None', '', '&lt;b&gt;N6-LAN Traffic Steering Enforcement Control (NOTE\xa018)&lt;/b&gt;', '', '&lt;i&gt;This part describes information required for N6-LAN Traffic Steering.&lt;/i&gt;', '', '', '', '', '', '', '', 'Traffic steering policy identifier(s)', '', 'Reference to a pre-configured traffic steering policy at the SMF', '', '(NOTE\xa012).', '', '', '', 'Yes', '', 'None', '', 'Metadata', '', 'Data provided by AF and included by UPF when forwarding traffic to N6-LAN.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Application Function influence on traffic routing Enforcement Control (NOTE\xa018)&lt;/b&gt;', '', '&lt;i&gt;This part describes information required for Application Function influence on traffic routing.&lt;/i&gt;', '', '', '', '', '', '', '', 'Data Network Access Identifier', '', 'Identifier(s) of the target Data Network Access (DNAI). It is defined in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Per DNAI: Traffic steering policy identifier', '', 'Reference to a pre-configured traffic steering policy at the SMF', '', '(NOTE\xa019).', '', '', '', 'Yes', '', 'Added', '', 'Per DNAI: N6 traffic routing information', '', 'Describes the information necessary for traffic steering to the DNAI. It is described in clause\xa05.6.7 of TS\xa023.501\xa0[2] (NOTE\xa019).', '', '', '', 'Yes', '', 'Added', '', 'Information on AF subscription to UP change events', '', 'Indicates whether notifications in the case of change of UP path are requested and optionally indicates whether acknowledgment to the notifications shall be expected (as defined in clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Indication of UE IP address preservation', '', 'Indicates UE IP address should be preserved. It is defined in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Indication of traffic correlation', '', '(NOTE\xa029)', '', 'Indicates that the target PDU Sessions should be correlated via a common DNAI in the user plane. It is described in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Information on User Plane Latency requirements', '', 'Indicates the user plane latency requirements. It is defined in clause\xa06.3.6 of TS\xa023.548\xa0[33].', '', '', '', 'Yes', '', 'Added', '', 'Indication for Simultaneous Connectivity at Edge Relocation', '', 'Indicates request for simultaneous connectivity over source and target PSA from the AF (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Information for EAS IP Replacement in 5GC', '', 'Indicates the Source EAS identifier and Target EAS identifier, (i.e. IP addresses and port numbers of the source and target EAS). (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'EAS Correlation indication', '', 'Indicates selecting a common EAS for the application identified by Service data flow template accessed by the UEs with the same Traffic Correlation ID.', '', '', '', 'Yes', '', 'Added', '', 'Traffic Correlation ID', '', 'Identification of a set of UEs accessing the application identified by the Service data flow template (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Common EAS IP address', '', 'IP address of the common EAS for the application identified by the Traffic Description for the UEs the AF request aims at (as defined in clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'Common DNAI', '', 'Common DNAI applicable to the set of UEs identified by a traffic correlation ID.', '', '', '', 'Yes', '', 'Added', '', 'FQDN(s)', '', 'FQDN(s) for the application indicated in the PCC rule (see clause\xa05.6.7 of TS\xa023.501\xa0[2]).', '', '', '', 'Yes', '', 'Added', '', 'NEF information', '', 'Notification Endpoint of NEF subscription to be notified with information related to UE members of the set of UEs identified by traffic correlation ID.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;NBIFOM related control Information&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with NBIFOM.&lt;/i&gt;', '', '', '', '', '', '', '', 'Allowed Access Type', '', 'The access to be used for traffic identified by the PCC rule.', '', '', '', '', '', 'Removed', '', '&lt;b&gt;RAN support information&lt;/b&gt;', '', '&lt;i&gt;This part defines information supporting the RAN for e.g. handover threshold decision.&lt;/i&gt;', '', '', '', '', '', '', '', 'UL Maximum Packet Loss Rate', '', 'The maximum rate for lost packets that can be tolerated in the uplink direction for the service data flow. It is defined in clause\xa05.7.2.8 of TS\xa023.501\xa0[2].', '', 'Conditional (NOTE 13)', '', 'Yes', '', 'None', '', 'DL Maximum Packet Loss Rate', '', 'The maximum rate for lost packets that can be tolerated in the downlink direction for the service data flow. It is defined in clause\xa05.7.2.8 of TS\xa023.501\xa0[2].', '', 'Conditional (NOTE 13)', '', 'Yes', '', 'None', '', '&lt;b&gt;MA PDU Session Control&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa020)&lt;/b&gt;', '', '&lt;i&gt;This part defines information supporting control of MA PDU Sessions&lt;/i&gt;', '', '', '', 'Yes', '', 'New', '', 'Application descriptors', '', 'Identifies the application traffic for which MA PDU Session control is required based on the Steering Functionality, the Steering Mode, Steering Mode Indicator and Threshold Values. It is described in clause\xa05.32.8 of TS\xa023.501\xa0[2].', '', 'Conditional (NOTE\xa027)', '', 'Yes', '', 'New', '', 'Steering Functionality', '', 'Indicates the applicable traffic steering functionality.', '', 'Conditional (NOTE\xa021, NOTE\xa031)', '', 'Yes', '', 'New', '', 'Steering Mode', '', 'Indicates the rule for distributing traffic between accesses together with associated steering parameters (if any).', '', 'Conditional (NOTE\xa021, NOTE\xa031)', '', 'Yes', '', 'New', '', 'Steering Mode Indicator', '', 'Indicates either autonomous load-balance operation or UE-assistance operation, if the Steering Mode is set to "Load Balancing", as defined in TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'New', '', 'Threshold Values', '', '(NOTE\xa030)', '', 'A Maximum RTT or a Maximum Packet Loss Rate or both.', '', '', '', 'Yes', '', 'New', '', 'Transport Mode', '', '(NOTE\xa033)', '', 'Indicates the transport mode that should be used for the matching traffic, as defined in TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'New', '', 'Charging key for Non-3GPP access', '', '(NOTE\xa022)', '', 'Indicates the Charging key used for charging packets carried via Non-3GPP access for a MA PDU Session.', '', '', '', 'Yes', '', 'New', '', 'Monitoring key for Non-3GPP access', '', '(NOTE\xa023)', '', 'Indicates the Monitoring key used to monitor usage of the packets carried via Non-3GPP access for a MA PDU Session.', '', '', '', 'Yes', '', 'New', '', '&lt;b&gt;QoS Monitoring&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with QoS Monitoring.&lt;/i&gt;', '', '', '', '', '', '', '', 'QoS parameter(s) to be measured', '', 'Indicates the QoS parameter(s) for which QoS Monitoring can be enabled as defined in clause\xa05.45 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Reporting frequency', '', 'Defines the frequency for the reporting, such as event triggered, periodic.', '', '', '', 'Yes', '', 'Added', '', 'Target of reporting', '', 'Defines the target of the QoS Monitoring reports, it can be the NEF, the AF or the Local NEF.', '', '', '', 'Yes', '', 'Added', '', 'Indication of direct event notification', '', 'Indicates that the QoS Monitoring event shall be reported by the UPF directly to the NF indicated by the Target of reporting.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;DataCollection_ApplicationIdentifier&lt;/b&gt;', '', 'Identifier used in SMF to decide whether this PCC Rule corresponds to an event exposure subscription (see clause\xa04.15.4.4 of TS\xa023.502\xa0[3]).', '', '', '', 'No', '', 'Added', '', '&lt;b&gt;Alternative QoS Parameter Sets&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa024)&lt;/b&gt;', '', '&lt;b&gt;(NOTE 26)&lt;/b&gt;', '', '&lt;i&gt;This part defines Alternative QoS Parameter Sets for the service data flow.&lt;/i&gt;', '', '', '', '', '', '', '', 'Packet Delay Budget', '', 'The Packet Delay Budget in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'Packet Error Rate', '', 'The Packet Error Rate in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'UL-guaranteed bitrate', '', 'The uplink guaranteed bitrate in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', 'DL-guaranteed bitrate', '', 'The downlink guaranteed bitrate in this Alternative QoS Parameter Set.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;TSC Assistance Container&lt;/b&gt;', '', '&lt;i&gt;This part defines parameters provided by TSN AF or TSCTSF. The parameters are defined in clause\xa05.27.2 of TS\xa023.501\xa0[2].&lt;/i&gt;', '', '', '', 'No', '', 'Added', '', '&lt;b&gt;Traffic Parameter Information&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with Traffic Parameter Information&lt;/i&gt; &lt;i&gt;for power saving as specified in clause\xa05.37.8 of TS\xa023.501\xa0[2].&lt;/i&gt;', '', '', '', '', '', '', '', 'Periodicity', '', 'Indicates the time period between start of two data bursts in UL/DL direction.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Traffic Parameter Measurement&lt;/b&gt;', '', '&lt;i&gt;This part describes PCC rule information related with Traffic Parameter Measurement for power saving as specified in clause\xa05.37.8 of TS\xa023.501\xa0[2].&lt;/i&gt;', '', '', '', '', '', '', '', 'Traffic Parameter to be measured', '', 'Indicates to measure the N6 jitter range associated with DL Periodicity and optionally, the UL/DL periodicity.', '', '', '', 'Yes', '', 'Added', '', 'Reporting condition', '', 'Defines the condition for the reporting, such as event triggered or periodic, frequency.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;Downlink Data Notification Control&lt;/b&gt;', '', '&lt;i&gt;This part describes information required for controlling the sending of Downlink data delivery status event and DDN Failure event notifications as specified in clause\xa04.15.3 of TS\xa023.502\xa0[3].&lt;/i&gt;', '', '', '', '', '', '', '', 'Notification control for DDD status', '', 'Indicates that notifications of downlink data delivery status are required and the requested type of such notifications.', '', '', '', 'Yes', '', 'Added', '', 'Notification Control for DDN Failure', '', 'Indicates that notifications of DDN Failure are required.', '', '', '', 'Yes', '', 'Added', '', '&lt;b&gt;PDU Set Control Information&lt;/b&gt;', '', 'Information needed to support the delivery of PDU Sets of a service data flow.', '', '', '', '', '', '', '', 'PDU Set QoS Parameters', '', 'See clause\xa05.7.7 of TS\xa023.501\xa0[2].', '', '', '', 'Yes', '', 'Added', '', 'Protocol Description', '', 'Indicates the protocol to be used by the PSA UPF to detect PDU Sets received via N6 (See TS\xa023.501\xa0[2] clause\xa05.37.5 and TS\xa026.522\xa0[40]).', '', '', '', 'No', '', 'Added', '', 'NOTE\xa01:\tFor PCC rules based on an application detection filter, the precedence is only relevant for the enforcement, i.e. when multiple PCC rules overlap, only the enforcement, reporting of application starts and stops, monitoring, and charging actions of the PCC rule with the highest precedence shall be applied.', '', 'NOTE\xa02:\tThe Precedence is mandatory for PCC rules with SDF template containing SDF filter(s). For dynamic PCC rules with SDF template containing an application identifier, the precedence is either preconfigured in SMF or provided in the PCC rule from PCF.', '', 'NOTE\xa03:\tEither service data flow filter(s) or application identifier shall be defined per each rule.', '', 'NOTE\xa04:\tYES, if the service data flow template consists of a set of service data flow filters. NO if the service data flow template consists of an application identifier', '', 'NOTE\xa05:\tOptional and applicable only if application identifier exists within the rule.', '', 'NOTE\xa06:\tApplicable to sponsored data connectivity.', '', 'NOTE 7:\tMandatory if there is no default charging method for the PDU Session.', '', 'NOTE\xa08:\tOptional and applicable only if application identifier exists within the rule.', '', 'NOTE\xa09:\tIf Redirect is enabled.', '', 'NOTE\xa010:\tMandatory when Bind to QoS Flow associated with the default QoS rule is not present.', '', 'NOTE\xa011:\tThe presence of this attribute causes the 5QI/ARP/QNC/Priority Level/Averaging Window/Maximum Data Burst Volume of the rule to be ignored for the QoS Flow binding.', '', 'NOTE\xa012:\tThe Traffic steering policy identifier can be different for uplink and downlink direction. If two Traffic steering policy identifiers are provided, then one is for uplink direction, while the other one is for downlink direction.', '', 'NOTE\xa013:\tOptional and applicable only for voice service data flow in this release.', '', 'NOTE\xa014:\tOptional and applicable only when a value different from the standardized value for this 5QI in Table\xa05.7.4-1 TS\xa023.501\xa0[2] is required.', '', 'NOTE\xa015:\tOptional and applicable only for GBR service data flow.', '', 'NOTE\xa016:\tUsage of the charging information in described in TS\xa032.255\xa0[21].', '', 'NOTE 17:\tOnly one PCC rule can contain this attribute and this PCC rule shall not contain the attribute Bind to QoS Flow associated with the default QoS rule.', '', 'NOTE\xa018:\tNone, one of the two or both may be present in a PCC rule.', '', 'NOTE\xa019:\tPer DNAI, a Traffic steering policy identifier and/or N6 traffic routing information can be provided. If the pre-configured traffic steering policy (that is referenced by the Traffic steering policy identifier) contains information that is overlapping with the N6 traffic routing information, the N6 traffic routing information shall take precedence.', '', 'NOTE\xa020:\tOnly applicable to a PCC Rules provided to a MA PDU Session.', '', 'NOTE\xa021:\tMandatory when MA PDU Session Control information is provided.', '', 'NOTE\xa022:\tWhen a Charging key for Non-3GPP access is provided, the parameters in the Charging Section (other than the Charging key) apply to both accesses and the Charging key (in the Charging Section) shall be used for charging packets carried via the 3GPP access.', '', 'NOTE\xa023:\tWhen a Monitoring key for Non-3GPP access is provided, the Monitoring key (in the Usage Monitoring Control Section) shall be used to monitor usage of the packets carried via the 3GPP access.', '', 'NOTE\xa024:\tOptional and applicable only for GBR service data flow with QoS Notification Control enabled.', '', 'NOTE\xa025:\tOptional and applicable only for GBR service data flow for which Alternative QoS Parameter Set(s) are provided.', '', 'NOTE\xa026:\tOne or more Alternative QoS Parameter Sets can be provided in a prioritized order starting with the Alternative QoS Parameter Set that has the highest priority.', '', 'NOTE\xa027:\tMandatory in MA PDU Session Control information only when there is application identifier in the service data flow template.', '', 'NOTE\xa028:\tIf this parameter is used, it has to be present in every PCC rule of the PDU Session.', '', 'NOTE\xa029:\tThe use of traffic correlation is defined in TS\xa023.501\xa0[2], clauses 5.6.7.1 and 5.29.', '', 'NOTE\xa030:\tIf Steering Mode is set to "Redundant", either a Maximum RTT or a Maximum Packet Loss Rate may be provided, but not both.', '', 'NOTE\xa031:\tThe Steering functionality "ATSSS-LL" shall not be provided together with Steering Mode "Redundant".', '', 'NOTE\xa032:\tThis parameter is only provided when the PCF is configured to provide an explicit indicator to the SMF to enable ECN marking for L4S for the traffic identified by the SDF template.', '', 'NOTE 33:\tThe Transport Mode may be included when the Steering Functionality is the MPQUIC functionality.', '', '', '', 'The Rule identifier shall be unique for a PCC rule within a PDU Session. A dynamically provided PCC rule that has the same Rule identifier value as a predefined PCC rule shall replace the predefined rule within the same PDU Session.', '', 'The Precedence defines in what order the activated PCC rules within the same PDU Session shall be applied at the UPF for service data flow detection. When a dynamic PCC rule and a predefined PCC rule have the same precedence, the dynamic PCC rule takes precedence.', '', 'NOTE\xa02:\tThe operator shall ensure that overlap between the predefined PCC rules can be resolved based on precedence of each predefined PCC rule in the SMF. The PCF shall ensure that overlap between the dynamically allocated PCC rules can be resolved based on precedence of each dynamically allocated PCC rule.', '', 'For downlink packets all the service data flow templates, activated for the PDU Session shall be applied for service data flow detection and for the mapping to the correct QoS Flow. For uplink packets the service data flow templates activated on their QoS Flow shall be applied for service data flow detection (further details are provided in clause\xa06.2.2.2).', '', 'The &lt;i&gt;Service data flow template&lt;/i&gt; may comprise any number of &lt;i&gt;Service data flow filters&lt;/i&gt; or an &lt;i&gt;application identifier &lt;/i&gt;as is defined in table 6.3.1.', '', 'NOTE\xa03:\tPredefined PCC rules may include service data flow templates, which support extended capabilities, including enhanced capabilities to identify events associated with application protocols.', '', 'A Service data flow filter contains information for matching user plane packets for IP PDU traffic or Ethernet PDU traffic. All Service data flow filters of a Service data flow template shall be of the same type, i.e. either Packet Filters for IP or Ethernet PDU traffic (defined in clause\xa05.7.6 of TS\xa023.501\xa0[2]). The Service data flow template information within an activated PCC rule is applied by the SMF to instruct the UPF to identify the packets belonging to a particular service data flow.', '', 'For the IP PDU Session type only, the Service data flow template may consist of an application identifier that references an application detection filter that is used for matching user plane packets. The application identifier is also identifying the application, for which the rule applies. The same application identifier value can occur in a dynamic PCC rule and one or multiple predefined PCC rules. If so, the PCF shall ensure that there is at most one PCC rule active per application identifier value at any time.', '', "The &lt;i&gt;Mute for notification&lt;/i&gt; defines whether notification to the PCF of application's starts or stops shall be muted. Absence of this parameter means that start/stop notifications shall be sent.", '', 'The &lt;i&gt;Charging key&lt;/i&gt; is the reference to the tariff for the service data flow. Any number of PCC Rules may share the same charging key value. The Charging key values for each service shall be operator configurable.', '', 'NOTE\xa04:\tAssigning the same Charging key for several service data flows implies that the charging does not require the credit management to be handled separately.', '', 'The &lt;i&gt;Service identifier&lt;/i&gt; identifies the service. PCC Rules may share the same service identifier value. The service identifier provides the most detailed identification, specified for flow-based charging, of a service data flow.', '', 'NOTE\xa05:\tThe PCC rule service identifier need not have any relationship to service identifiers used on the AF level, i.e. is an operator policy option.', '', "The &lt;i&gt;Sponsor Identifier&lt;/i&gt; indicates the (3rd) party organization willing to pay for the operator's charge for connectivity required to deliver a service to the end user.", '', 'The &lt;i&gt;Application Service Provider Identifier&lt;/i&gt; indicates the (3rd) party organization delivering a service to the end user.', '', 'The &lt;i&gt;Charging method&lt;/i&gt; indicates whether online charging or offline charging is required, or the service data flow is not subject to any end user charging. If the charging method identifies that the service data flow is not subject to any end user charging, a Charging key shall not be included in the PCC rule for that service data flow, along with other charging related parameters. If the charging method is omitted the SMF shall apply the default charging method provided within the PDU Session related policy information (see clause\xa06.4). The Charging method is mandatory if there is no default charging method for the PDU Session.', '', 'NOTE\xa06:\tWith converged charging architecture for 5GC, online charging method also includes usage reporting from the SMF to the CHF. Hence, setting the charging method to online will also result in usage reports and thus allow for offline charging being performed by the CHF.', '', 'The &lt;i&gt;Service Data Flow handling while requesting credit&lt;/i&gt; indicates either "blocking" if a credit for the Charging Key needs to be granted as a condition for the PCC Rule to be active or "non-blocking" if a credit for the Charging Key has been requested as a condition for the PCC Rule to be active.', '', 'The &lt;i&gt;Measurement method&lt;/i&gt; indicates what measurements apply to charging for a PCC rule.', '', 'The &lt;i&gt;Service Identifier Level Reporting&lt;/i&gt; indicates whether the SMF shall generate reports per Service Identifier. The SMF shall accumulate the measurements from all PCC rules with the same combination of Charging key/Service Identifier values in a single report.', '', 'The &lt;i&gt;Application Function Record Information&lt;/i&gt; identifies an instance of service usage. A subs</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>0.2015809660941985</v>
+        <v>0.2213892692360793</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.2.9.2	PLMN utilisation&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.3.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23548-i20.docx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>LR3_configuration</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>['', 'Migrated MC service users should utilize the PLMN used by the partner MC system to access MC services in the partner MC system, however, utilizing the PLMN used by the primary MC system is not precluded.', '', 'NOTE\xa01:\tThe above recommendation ensures the security policy of the partner MC system is not compromised, the expected QCIs are used on the RAN, and ensures servicelevel delay requirements are consistently met (which are especially at risk when the HPLMN of the primary MC system and HPLMN of the partner MC system are far apart from a geographical point of view).', '', 'NOTE\xa02:\tWhether the PLMN used by the partner MC systems or the PLMN used by the primary MC system is used to access MC services in partner MC systems is left to business agreements between MC service providers and is outside the scope of the present document.', '', 'MC service users enabled for migration shall be provisioned with configuration that specifies which PLMNs may be used to migrate to other MC systems.', '', 'If the PLMN used by a partner MC system is different from the PLMN used by the primary MC system (i.e. migrating MC service user starts using the PLMN used by the partner MC system), then:', '', '-\tEPClevel roaming (see subclause 5.2.2) is needed between the PLMN used by the primary MC system and PLMN used by the partner MC system; and', '', '-\tthe PLMN used by the partner MC system needs to enable local break-out for the APNs specified in subclause 5.2.7 that identify the PDNs of the partner MC system; and', '', '-\tthe EPS subscriptions of the PLMN used by the primary MC system utilized by the MC service users who are allowed to migrate to the partner MC system need to be provisioned with, and local break-out enabled for, the APNs specified in subclause 5.2.7 that identify the PDNs of the partner MC system.', '', 'If the PLMN used by the partner MC system and the PLMN used by the primary MC system are the same (i.e. migrating MC service user continues to use the PLMN used by the primary MC system), then:', '', '-\tthe EPS subscriptions of the PLMN used by the primary MC system utilized by the MC service users who are allowed to migrate to the partner MC system need to be provisioned with the APNs specified in subclause 5.2.7 that identify the PDNs of the partner MC system.', '', 'NOTE\xa03:\tProvisioning of APNs in all of the above includes provisioning of any needed access credentials e.g. PAP, CHAP.', '']</t>
+          <t>['', 'Edge Relocation refers to the procedures supporting EAS changes and/or PSA UPF relocation.', '', 'Edge Relocation may be triggered by an AF request (e.g. due to the load balance between EAS instances in the EHE) or by the network (e.g. due to the UE mobility).', '', 'With Edge Relocation, the user plane path may be re-configured to keep it optimized. This may be done by PDU Session re-establishment using SSC mode 2/3 mechanisms or Local PSA UPF relocation using UL CL and BP mechanisms. The corresponding procedures are defined in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'Due to Edge Relocation, the UE may need to re-discover a new EAS and establish the connectivity to the new EAS to continue the service. The re-discovery of EAS is specified in clause\xa06.2.', '', 'Edge Relocation may result in AF relocation, for example, as part of initial PDU Session Establishment, a central AF may be involved. However, due to Edge Relocation another AF serving the Edge Applications is selected.', '', 'The trigger of Edge Relocation by the network is specified in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. Some EAS (re)Discovery procedures in clause\xa06.2 may also trigger Edge Relocation.', '', 'This clause further describes the following procedures:', '', '-\tEdge Relocation involving AF change.', '', '-\tEdge Relocation using EAS IP replacement.', '', '-\tAF request for simultaneous connectivity for source and target PSA.', '', '-\tPacket buffering for low Packet Loss.', '', '-\tEdge Relocation considering User Plane Latency Requirements.', '', '-\tEdge Relocation triggered by AF', '', '-\tEdge Relocation for a set of UEs for common DNAI.', '', 'Annex F describes example procedure for EAS Relocation on Release 16 capabilities.', '', 'For non-roaming PDU Session, the 5GC functions in the following clauses are located in the HPLMN.', '', 'For LBO roaming PDU Session, the 5GC functions in the following clauses are located in the serving VPLMN.', '', 'For HR-SBO PDU Sessions specified in clause\xa06.7, the AF may send to V-NEF an AF request to influence traffic routing as described in clause\xa04.3.6 of TS\xa023.502\xa0[3] for supporting Edge Relocation (e.g. for the purpose of subscription to UP path management events, especially for the change of local PSA UPF in VPLMN). In this case, the steps involving PCF in the following clauses are skipped.', '']</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.2164919829910123</v>
+        <v>0.1942322020575966</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.2.9.3	SIP core / IMS utilisation&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.3.13	NWDAF discovery and selection&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2378,47 +2378,47 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>['', 'Migrated MC service users should utilise the SIP core / IMS of the partner MC system.', '', 'NOTE\xa01:\tThe above recommendation ensures the security policy of the partner MC system is not compromised and ensures servicelevel delay requirements are consistently met (which are especially at risk when the SIP core / IMS of the primary MC system and the SIP core / IMS of the partner MC system are far apart from a geographical point of view).', '', 'Where connectivity and security policies allow, the same SIP core / IMS can be utilised to connect to the primary MC system and one or more partner MC systems.', '', 'NOTE\xa02:\tWhether the same SIP core / IMS can be utilised to connect to the primary MC system and a partner MC system is left to business agreements between MC service providers, and is outside the scope of the present document.', '', 'For each partner MC system, MC service UEs of MC service users enabled for migration shall be provisioned with:', '', '-\tconfiguration that controls whether the MC service UE shall connect to the SIP core / IMS of the primary MC system or a different SIP core / IMS (i.e. SIP core / IMS of the partner MC system); and', '', "-\twhere a different SIP core / IMS to the primary MC system's SIP core / IMS is to be connected to then the MC service UE shall also be configured with:", '', '-\tconfiguration required for the MC service UE to access the SIP core / IMS; and', '', '-\tcredentials required for the MC service UE to register with the SIP core / IMS.', '', "Editor's note: It is FFS how the MC service UE connects to the SIP core / IMS of the partner MC system to access MC services in the partner MC system.", '']</t>
+          <t>['', 'Multiple instances of NWDAF may be deployed in a network.', '', 'The NF consumers shall utilize the NRF to discover NWDAF instance(s) unless NWDAF information is available by other means, e.g. locally configured on NF consumers. NF consumers may make an additional query to UDM, when supported, as detailed below. The NWDAF selection function in NF consumers selects an NWDAF instance based on the available NWDAF instances.', '', 'The NRF may return one or more candidate NWDAF instance(s) and each candidate NWDAF instance (based on its registered profile) supports the Analytics ID with a time that is less than or equal to the Supported Analytics Delay.', '', 'The following factors may be considered by the NF consumer for NWDAF selection:', '', '-\tS-NSSAI.', '', '-\tAnalytics ID(s).', '', '-\tSupported service(s), possibly with their associated Analytics IDs.', '', '-\tNWDAF Serving Area information, i.e. list of TAIs for which the NWDAF can provide analytics, trained ML models and/or data; for each item of this list, a weight may be defined in the NWDAF NF profile to indicate the priority of the NWDAF to cover the TA.', '', 'NOTE\xa01:\tIf all services provided by one NWDAF do not support the same Analytics ID, the NWDAF registers the Analytics IDs of the services at the service level.', '', 'NOTE\xa02:\tAnalytics ID(s) at service level take precedence over Analytics ID(s) at NF level.', '', 'NOTE\xa03:\tFor discovery of NWDAF supporting Nnwdaf_AnalyticsSubscription or Nnwdaf_AnalyticsInfo services, the Analytics IDs at the NWDAF NF profile are used.', '', '-\t(only when DCCF is hosted by NWDAF):', '', '-\tNF type of the data source.', '', '-\tNF Set ID of the data source.', '', 'NOTE\xa04:\tCan be used when the NWDAF determines that it needs to discover another NWDAF which is responsible for co-ordinating the collection of required data. The NWDAF does a new discovery for a target NWDAF via NRF using NF Set ID of the data source.', '', 'NOTE\xa05:\tFor discovery of NWDAF supporting Nnwdaf_DataManagement service, at least the NWDAF Serving Area information from the NWDAF profile are used.', '', 'NOTE\xa06:\tThe presence of NF type of data source or NF set ID of the data source denotes that the NWDAF can collect data from such NF Sets or NF Types.', '', '-\tSupported Analytics Delay of the requested Analytics ID(s) (see clause\xa06.2.6.2).', '', 'In the case of multiple instances of NWDAFs deployment, following factors may also be considered:', '', '-\tNWDAF Capabilities:', '', '-\tAnalytics aggregation capability.', '', '-\tAnalytics metadata provisioning capability.', '', '-\tAccuracy checking capability.', '', 'Applicable when NF consumer cannot determine a suitable NWDAF instance based on NRF discovery response, and when NWDAF registration in UDM is supported, as defined in clause\xa05.2 of TS\xa023.288\xa0[86]: NF consumers may query UDM (Nudm_UECM_Get service operation) for determining the ID of the NWDAF serving the UE. The following factors may be considered by NF consumers to select an NWDAF instance already serving a UE for an Analytics ID:', '', '-\tSUPI.', '', '-\tAnalytics ID(s).', '', 'When selecting an NWDAF for ML model provisioning, the following additional factors may be considered by the NWDAF:', '', '-\tThe ML model Filter information parameters S-NSSAI(s) and Area(s) of Interest (see clause\xa05.2, TS\xa023.288\xa0[86]) for the trained ML model(s) per Analytics ID(s) and ML Model Interoperability indicator per Analytics ID, if available.', '', 'When selecting an NWDAF that supports Federated Learning, the following additional factors may be considered by the NWDAF:', '', '-\tTime Period of Interest: time interval [start…end], during which the Federated Learning will be performed.', '', '-\twhen selecting FL client:', '', '-\tFL capability type as FL client per Analytics ID.', '', '-\tNF type(s) where data can be collected as input for local model training.', '', '-\tNF Set ID of the data source.', '', '-\twhen selecting FL server:', '', '-\tFL capability type as FL server per Analytics ID.', '', '-\tThe ML model Filter information parameters S-NSSAI(s) and Area(s) of Interest (see clause\xa05.2 of TS\xa023.288\xa0[86]) for the trained ML model(s) per Analytics ID(s), if available.', '', 'When selecting a NWDAF for roaming case, the detailed mechanism is defined in clause\xa05.2 of TS\xa023.288\xa0[86].', '']</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.2219342329430166</v>
+        <v>0.2016417133286075</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.4.3.1	General&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.3.5	AMF discovery and selection&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23501-i22.docx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR1_signalling</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>['', 'This clause specifies the PC5 QoS characteristics associated with PQI. The following characteristics defined in TS\xa023.501\xa0[6] applies, with differences explained in following clauses:', '', '1\tResource Type (GBR, Delay critical GBR or Non-GBR);', '', '2\tPriority Level;', '', '3\tPacket Delay Budget;', '', '4\tPacket Error Rate;', '', '5\tAveraging window (for GBR and Delay-critical GBR resource type only);', '', '6\tMaximum Data Burst Volume (for Delay-critical GBR resource type only).', '', 'Standardized or pre-configured PC5 QoS characteristics, are indicated through the PQI value.', '', 'V2X layer may derive non-standardized PC5 QoS characteristics by overriding the standardized or pre-configured value of PC5 QoS characteristics based on V2X Application Requirements from V2X application layer and provide the whole set of non-standardized PC5 QoS characteristics to AS layer.', '', 'NOTE:\tNon-standardized PC5 QoS characteristics only applies to UE autonomous resources selection mode.', '']</t>
+          <t>['', 'The AMF discovery and selection functionality is applicable to both 3GPP access and non-3GPP access.', '', 'The AMF selection functionality can be supported by the 5G-AN (e.g. RAN, N3IWF) and is used to select an AMF instance for a given UE. An AMF supports the AMF selection functionality to select an AMF for relocation or because the initially selected AMF was not an appropriate AMF to serve the UE (e.g. due to change of Allowed NSSAI). Other CP NF(s), e.g. SMF, supports the AMF selection functionality to select an AMF from the AMF set when the original AMF serving a UE is unavailable.', '', 'The TSCTSF shall use the AMF discovery functionality to determine the AMFs serving the TAs in the spatial validity condition provided by the AF.', '', '5G-AN selects an AMF Set and an AMF from the AMF Set under the following circumstances:', '', '1)\tWhen the UE provides no 5G-S-TMSI nor the GUAMI to the 5G-AN.', '', '2)\tWhen the UE provides 5G-S-TMSI or GUAMI but the routing information (i.e. AMF identified based on AMF Set ID, AMF pointer) present in the 5G-S-TMSI or GUAMI is not sufficient and/or not usable (e.g. UE provides GUAMI with an AMF region ID from a different region).', '', '3)\tAMF has instructed AN that the AMF (identified by GUAMI(s)) is unavailable and no target AMF is identified and/or AN has detected that the AMF has failed.', '', '4)\tWhen the UE attempts to establish a signalling connection, and the following conditions are met:', '', '-\tthe 5G-AN knows in what country the UE is located; and', '', '-\tthe 5G-AN is connected to AMFs serving different PLMNs of different countries; and', '', '-\tthe UE provides a 5G-S-TMSI or GUAMI, which indicates an AMF serving a different country to where the UE is currently located; and', '', '-\tthe 5G-AN is configured to enforce selection of the AMF based on the country the UE is currently located.', '', "\tThen the 5G-AN shall select an AMF serving a PLMN corresponding to the UE's current location. How 5G-AN selects the AMF in this case is defined in TS\xa038.410\xa0[125].", '', 'NOTE:\tAMF selection case 4) does not apply if 5G-AN nodes serves one country only.', '', 'In the case of NF Service Consumer based discovery and selection, the CP NF selects an AMF from the AMF Set under the following circumstances:', '', '-\tWhen the AMF has instructed CP NF that a certain AMF identified by GUAMI(s) is unavailable and the CP NF was not notified of target AMF; and/or', '', '-\tCP NF has detected that the AMF has failed; and/or', '', "-\tWhen the selected AMF does not support the UE's Preferred Network Behaviour; and/or", '', '-\tWhen the selected AMF does not support the High Latency communication for NR RedCap UE.', '', 'In the case of delegated discovery and associated selection, the SCP selects an AMF from the corresponding AMF Set under the following circumstances:', '', '-\tThe SCP gets an indication "select new AMF within SET" from the CP NF; and/or', '', '-\tSCP has detected that the AMF has failed.', '', 'The AMF selection functionality in the 5G-AN may consider the following factors for selecting the AMF Set:', '', '-\tAMF Region ID and AMF Set ID derived from GUAMI;', '', '-\tRequested NSSAI;', '', '-\tLocal operator policies;', '', '-\t5G CIoT features indicated in RRC signalling by the UE;', '', '-\tIAB-indication;', '', '-\tNB-IoT RAT Type;', '', '-\tCategory M Indication;', '', '-\tNR RedCap Indication;', '', '-\tSNPN Onboarding indication as indicated in RRC signalling by the UE.', '', 'AMF selection functionality in the 5G-AN or CP NFs or SCP considers the following factors for selecting an AMF from AMF Set:', '', '-\tAvailability of candidate AMF(s).', '', '-\tLoad balancing across candidate AMF(s) (e.g. considering weight factors of candidate AMFs in the AMF Set).', '', '-\tIn 5G-AN, 5G CIoT features indicated in RRC signalling by the UE.', '', '-\tIn 5G-AN, SNPN Onboarding indication as indicated in RRC signalling by the UE.', '', 'When the UE accesses the 5G-AN with a 5G-S-TMSI or GUAMI that identifies more than one AMF (as configured during N2 setup procedure), the 5G-AN selects the AMF considering the weight factors.', '', 'When 5G-S-TMSI or GUAMI provided by the UE to the 5G-AN contains an AMF Set ID that is usable, and the AMF identified by AMF pointer that is not usable (e.g. AN detects that the AMF has failed) or the corresponding AMF indicates it is unavailable (e.g. out of operation) then the 5G-AN uses the AMF Set ID for selecting another AMF from the AMF set considering the factors above.', '', 'The discovery and selection of AMF in the CP NFs or SCP follows the principle in clause\xa06.3.1', '', 'In the case of NF Service Consumer based discovery and selection, the AMF or other CP NFs shall utilize the NRF to discover the AMF instance(s) unless AMF information is available by other means, e.g. locally configured on AMF or other CP NFs. The NRF provides the NF profile(s) of AMF instance(s) to the AMF or other CP NFs. The AMF selection function in the AMF or other CP NFs selects an AMF instance as described below:', '', 'When NF Service Consumer performs discovery and selection the following applies:', '', '-\tIn the case of AMF discovery and selection functionality in AMF or other CP NFs use GUAMI (in the SNPN case, along with NID of the SNPN that owns the AMF instances to be discovered and selected) or TAI to discover the AMF instance(s), the NRF provides the NF profile of the associated AMF instance(s). If an associated AMF is unavailable due to AMF planned removal, the NF profile of the backup AMF used for planned removal is provided by the NRF. If an associated AMF is unavailable due to AMF failure, the NF profile of the backup AMF used for failure is provided by the NRF. If AMF pointer value in the GUAMI is associated with more than one AMF, the NRF provides all the AMFs associated with this AMF pointer value. If no AMF instances related to the indicated GUAMI can be found, the NRF may provide a list of NF profiles of candidate AMF instances in the same AMF Set. The other CP NF or AMF may select any AMF instance from the list of candidate AMF instances. If no NF profiles of AMF is returned in the discovery result, the other CP NF or AMF may discover an AMF using the AMF Set as below.', '', '-\tIn the case of AMF discovery and selection functionality in AMF use AMF Set to discover AMF instance(s), the NRF provides a list of NF profiles of AMF instances in the same AMF Set.', '', '-\tAt intra-PLMN mobility, the AMF discovery and selection functionality in AMF may use AMF Set ID, AMF Region ID, the target location information, S-NSSAI(s) of Allowed NSSAI to discover target AMF instance(s). The NRF provides the target NF profiles matching the discovery.', '', '-\tAt intra-SNPN mobility, the AMF discovery and selection functionality in AMF may use AMF Set ID, AMF Region ID (along with NID of the SNPN that owns the AMF instances to be discovered and selected), the target location information, S-NSSAI(s) of Allowed NSSAI, AMF support of SNPN Onboarding (if the UE is registered for SNPN Onboarding) to discover target AMF instance(s). The NRF provides the target NF profiles matching the discovery.', '', '-\tAt inter PLMN mobility, the source AMF selects an AMF instance(s) in the target PLMN by querying target PLMN level NRF via the source PLMN level NRF with target PLMN ID. The target PLMN level NRF returns an AMF instance address based on the target operator configuration. After the Handover procedure the AMF may select a different AMF instance as specified in clause\xa04.2.2.2.3 of TS\xa023.502\xa0[3].', '', 'In the context of Network Slicing, the AMF selection is described in clause\xa05.15.5.2.1.', '', 'When delegated discovery and associated selection is used, the following applies:', '', '-\tIf the CP NF includes GUAMI or TAI in the request, the SCP selects an AMF instance associated with the GUAMI or TAI and sends the request to a selected AMF service instance if it is available. The following also applies:', '', '-\tIf none of the associated AMF service instances are available due to AMF planned removal, an AMF service instance from the backup AMF used for planned removal is selected by the SCP;', '', '-\tIf none of the associated AMF service instances are available due to AMF failure, an AMF service instance from the backup AMF used for failure is selected by the SCP;', '', '-\tIf no AMF service instances related to the indicated GUAMI (in the SNPN case, along with NID of the SNPN that owns the AMF instances to be discovered and selected) can be found the SCP selects an AMF instance from the AMF Set; or', '', '-\tAMF Pointer value used by more than one AMF, SCP selects one of the AMF instances associated with the AMF Pointer.', '', '-\tIf the CP NF includes AMF Set ID in the request, the SCP selects AMF/AMF service instances in the provided AMF Set.', '', '-\tAt intra-PLMN mobility, if a target AMF instance needs to be selected, the AMF may provide AMF Set ID, AMF Region ID, and the target location information, S-NSSAI(s) of Allowed NSSAI in the request, optionally NRF to use. The SCP will select a target AMF instance matching the discovery.', '', '-\tAt intra-SNPN mobility, if a target AMF instance needs to be selected, the AMF may provide AMF Set ID, AMF Region ID along with NID of the SNPN that owns the AMF instances to be discovered and selected, and the target location information, S-NSSAI(s) of Allowed NSSAI, AMF support of SNPN Onboarding in the request (if the UE is registered for SNPN Onboarding), optionally NRF to use. The SCP will select a target AMF instance matching the discovery.', '', '-\tAt inter PLMN mobility, the source AMF selects indicates "roaming" to the SCP. The SCP interacts with the NRF in source PLMN so that the NRF in source PLMN can discover an AMF in the target PLMN via target PLMN NRF.', '']</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.1973963766148422</v>
+        <v>0.2095947732841663</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.4.3.3	Priority Level&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.3.6	Edge Relocation Considering User Plane Latency Requirement&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23548-i20.docx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2428,47 +2428,47 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>['', '\tThe Priority Level for NR PC5 has the same format and meaning as the Priority value of the ProSe Per-Packet Priority (PPPP) for LTE PC5 defined in TS\xa023.285\xa0[8]. For LTE PC5, the PPPP value also reflects the latency requirement and the PDB derivation is according to TS\xa023.285\xa0[8], i.e. the low PDB is mapped to the high priority PPPP value. On the other hand, for NR PC5, the PDB is derived from the PQI table as defined in clause\xa05.4.4.', '', 'NOTE:\tUsing the same format for Priority Level and PPPP provides better backward compatibility.', '', '\tThe Priority Level shall be used to different treatment of V2X service data across different modes of communication, i.e. broadcast, groupcast, and unicast. In the case when all QoS requirements cannot be fulfilled for all the PC5 service data associated with that PC5 reference point, the Priority Level shall be used to select for which PC5 service data the QoS requirements are prioritized such that a PC5 service data packet with Priority Level value N is prioritized over a PC5 service data packet with higher Priority Level values, i.e. N+1, N+2, etc. (lower number meaning higher priority).', '']</t>
+          <t>['', 'Edge relocation may be performed considering user plane latency requirements provided by the AF.', '', 'In a network deployment where the estimated user plane latency between the UE and the potential PSA-UPF is known to the SMF, the 5GC provides the enhancement of AF influence to consider the user plane latency requirements requested by the AF so that the SMF decides to relocate the PSA-UPF based on AF requested requirements.', '', 'The AF may provide user plane latency requirements to the network via AF traffic influence request as described in clause\xa05.2.6.7 of TS\xa023.502\xa0[3]. The user plane latency requirements may include the following information:', '', '-\tMaximum allowed user plane latency: The value of this information is the target user plane latency. The SMF may use this value to decide whether edge relocation is needed to ensure that the user plane latency does not exceed the value. The SMF may decide whether to relocate the PSA UPF to satisfy the user plane latency.', '', 'The AF request on the user plane latency requirements are authorized by PCF. The PCF checks whether the AF has an authority to make such a request.', '', 'Once the user plane latency requirements requested by AF is authorized by the PCF, the AF request including the requirements is informed to the SMF via AF influenced Traffic Steering Enforcement Control (see clause\xa06.3.1 of TS\xa023.503\xa0[4]) in PCC rules. After receiving the user plane latency requirements from AF via PCF, the SMF may take appropriate actions to meet the requirements e.g. by reconfiguring the user plane of the PDU Session as described in the step\xa06 of Figure 4.3.6.2-1 in TS\xa023.502\xa0[3] with the following considerations:', '', '-\tIn the case that the maximum allowed user plane latency is requested, the SMF decides not to perform PSA UPF relocation if the serving PSA satisfies the maximum allowed user plane latency. Otherwise, the SMF may decide to perform PSA UPF relocation if the target PSA UPF satisfies the maximum user plane latency. The SMF may select the PSA UPF with the shortest user plane latency among the PSA UPFs satisfying the maximum user plane latency requirements.', '']</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>0.2013607636628111</v>
+        <v>0.177523428716323</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.4.3.4	Packet Delay Budget&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.4.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23548-i20.docx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>['', 'The Packet Delay Budget (PDB) associated with the PQI is equivalent to the PDB defined in clause\xa05.7.3.4 of TS\xa023.501\xa0[6]. However, when used for PC5 communication, the PDB associated with the PQI defines an upper bound for the time that a packet may be delayed between sending UE and receiving UE(s) over PC5 reference point.', '']</t>
+          <t>['', 'Some real time network information, e.g. user path latency, are useful for application layer. In this release, in order to expose network information timely to local AF, the L-PSA UPF may expose i.e. QoS monitoring results as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2], to the local AF.', '', 'NOTE\xa01:\tLocal PSA UPF can expose the QoS monitoring results to local AF via N6. How to deliver the information on N6 is out of the scope of the present document.', '', 'NOTE\xa02:\tSending QoS monitoring information that has not been properly integrated over time, i.e. with over-high frequency, can increase risk that the application may over-react to instantaneous radio events/conditions e.g. leading to service instability.', '']</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>0.1977397523351462</v>
+        <v>0.1930252432272528</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.4.5.1	General&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.4.2	Input Data&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2478,22 +2478,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>['', 'The V2X service data can be delivered via Non-GBR QoS Flow as well as GBR QoS Flow (i.e. using the GBR resource type or the Delay-critical GBR resource type) as specified in TS\xa023.501\xa0[6].', '', '5QI 75 specified in TS\xa023.501\xa0[6] is intended to be only used for the delivery of V2X messages over MBS.', '']</t>
+          <t>['', 'The service data and performance data collected from the AF (including the service data collected from the UE through the AF), the network data from other 5GC NFs and the network data from OAM and MDAS/MDAF for observed service experience are defined in Table 6.4.2-1, 6.4.2-1a, Table 6.4.2-2, Table 6.4.2-3, Table 6.4.2-4 and Table 6.4.2-5 respectively.', '', 'Table 6.4.2-1: Service Data from AF related to the observed service experience', '', 'Information', '', 'Source', '', 'Description', '', 'Application ID', '', 'AF', '', 'To identify the service and support analytics per type of service (the desired level of service)', '', 'IP filter information', '', 'AF', '', 'Identify a service flow of the UE for the application', '', 'Locations of Application', '', 'AF/NEF', '', 'Locations of application represented by a list of DNAI(s). The NEF may map the AF-Service-Identifier information to a list of DNAI(s) when the DNAI(s) being used by the application are statically defined.', '', 'Service Experience', '', 'AF', '', 'Refers to the QoE per service flow as established in the SLA and during on boarding. It can be either e.g. MOS or video MOS as specified in ITU-T P.1203.3\xa0[11] or a customized MOS for any kind of service including those not related to video or voice.', '', 'UE ID', '', 'AF', '', 'The list of UE ID(s) that are associated with the Service Experience value(s). When the AF is untrusted, GPSI(s) will be provided. When the AF is trusted SUPI(s) will be provided.', '', 'Service Experience Contribution Weight', '', 'AF', '', 'The list of Service Experience Contribution Weight(s) that are associated with each of the provided UE ID(s).', '', 'QoE metrics', '', 'UE (via AF)', '', 'QoE metrics observed at the UE(s). QoE metrics and measurement as described in TS\xa026.114\xa0[27], TS\xa026.247\xa0[28], TS\xa026.118\xa0[29], TS\xa026.346\xa0[30], TS\xa026.512\xa0[31] or ASP specific QoE metrics in TS\xa026.512\xa0[31], as agreed in the SLA with the MNO, may be used.', '', 'Timestamp', '', 'AF', '', 'A time stamp associated to the Service Experience provided by the AF, mandatory if the Service Experience is provided by the ASP.', '', 'Application Server Instance', '', 'AF', '', 'The IP address or FQDN of the Application Server that the UE had a communication session when the measurement was made.', '', '', '', 'NWDAF subscribes to the service data from AF in the Table 6.4.2-1 either directly for trusted AFs by invoking Naf_EventExposure_Subscribe service (Event ID = Service Experience information, Event Filter information = Area of Interest, Application ID) as defined in TS\xa023.502\xa0[3], or indirectly for untrusted AFs via NEF by invoking Nnef_EventExposure_Subscribe service (Event ID = Service Experience information, Event Filter information = Area of Interest, Application ID) where NEF translates the Area of Interest into geographic zone identifier(s). For the information whose source is UE (via AF), the AF collects data from the UE as defined in clause\xa06.2.8.', '', 'NOTE:\tWhen the Service Experience is expressed as a customized MOS, the customized MOS might be defined by the content provider or by the MNO and might be based on the nature of the targeted service type (e.g. web browsing, gaming, augmented reality, V2X, SMS).', '', 'Table 6.4.2-1a: Performance Data from AF', '', 'Information', '', 'Source', '', 'Description', '', 'UE identifier', '', 'AF', '', 'IP address of the UE at the time the measurements was made.', '', 'UE location', '', 'AF', '', 'The location of the UE when the performance measurement was made.', '', 'Application ID', '', 'AF', '', 'To identify the service and support analytics per type of service (the desired level of service).', '', 'IP filter information', '', 'AF', '', 'Identify a service flow of the UE for the application.', '', 'Locations of Application', '', 'AF/NEF', '', 'Locations of application represented by a list of DNAI(s). The NEF may map the AF-Service-Identifier information to a list of DNAI(s) when the DNAI(s) being used by the application are statically defined.', '', 'Application Server Instance address', '', 'AF/NEF', '', 'The IP address/FQDN of the Application Server that the UE had a communication session when the measurement was made.', '', 'Performance Data', '', 'AF', '', 'The performance associated with the communication session of the UE with an Application Server that includes: Average Packet Delay, Average Loss Rate and Throughput.', '', 'Timestamp', '', 'AF', '', 'A time stamp associated to the Performance Data provided by the AF.', '', '', '', 'NWDAF subscribes to the performance data from AF in the Table 6.4.2-1a either directly for trusted AFs by invoking Naf_EventExposure_Subscribe service (Event ID = Performance Data, Event Filter information = Area of Interest, Application ID) as defined in TS\xa023.502\xa0[3], or indirectly for untrusted AFs via NEF by invoking Nnef_EventExposure_Subscribe service (Event ID = Performance Data, Event Filter information = Area of Interest, Application ID) where NEF translates the Area of Interest into geographic zone identifier(s).', '', 'Table 6.4.2-2: QoS flow level Network Data from 5GC NF related to the QoS profile assigned for a particular service (identified by an Application Id or IP filter information)', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', '5GC NF', '', 'A time stamp associated with the collected information.', '', 'Location', '', 'AMF', '', 'The UE location information, e.g. cell ID or TAI.', '', 'Finer granularity location (1...max)', '', 'GMLC', '', 'UE positions.', '', '....&amp;gt;UE location', '', '', '', 'GAD shape or location coordinates (see TS\xa023.032\xa0[34]).', '', '....&amp;gt;Timestamp', '', '', '', 'A time stamp when the location was measured.', '', '....&amp;gt;LCS QoS', '', '', '', 'The accuracy of the measurement.', '', 'UE ID', '', 'AMF', '', '(list of) SUPI(s). If UE IDs are not provided as Target of Analytics Reporting for slice service experience, AMF returns the UE IDs matching the AMF event filters.', '', 'DNN', '', 'SMF', '', 'DNN for the PDU Session which contains the QoS flow.', '', 'S-NSSAI', '', 'SMF', '', 'S-NSSAI for the PDU Session which contains the QoS flow.', '', 'Application ID', '', 'SMF', '', 'Used by NWDAF to identify the application service provider and application for the QoS flow.', '', 'DNAI', '', 'SMF', '', 'Identifies the access to DN to which the PDN session connects.', '', 'PDU Session type', '', 'SMF', '', 'Type of the PDU Session.', '', 'SSC Mode', '', 'SMF', '', 'SSC Mode selected for the PDU Session.', '', 'IP filter information', '', 'SMF', '', 'Provided by the SMF, which is used by NWDAF to identify the service data flow for policy control and/or differentiated charging for the QoS flow.', '', 'QFI', '', 'SMF', '', 'QoS Flow Identifier.', '', 'QoS flow Bit Rate', '', 'UPF', '', 'The observed bit rate for UL direction; and', '', 'The observed bit rate for DL direction.', '', 'QoS flow Packet Delay', '', 'UPF', '', 'The observed Packet delay for UL direction; and', '', 'The observed Packet delay for the DL direction.', '', 'Packet transmission', '', 'UPF', '', 'The observed number of packet transmission.', '', 'Packet retransmission', '', 'UPF or AF', '', 'The observed number of packet retransmission.', '', '', '', 'NOTE:\tCare needs to be taken with regards to load and major signalling caused when requesting Any UE. This could be achieved via utilization of some event filters (e.g. Area of Interest for AMF), Analytics Reporting Information (e.g. SUPImax), or sampling ratio as part of Event Reporting Information.', '', 'NWDAF subscribes to the network data from 5GC NF(s) in the Table 6.4.2-2 by invoking Nnf_EventExposure_Subscribe service operation with the following Event IDs as input parameters:', '', '-\tAMF Source: Namf_EventExposure_Subscribe (Event IDs = Location Changes, Area of Interest).', '', '-\tSMF Source: Nsmf_EventExposure_Subscribe (Event ID = QFI allocation).', '', 'Table 6.4.2-3: UE level Network Data from OAM related to the QoS profile', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', 'OAM', '', 'A time stamp associated with the collected information.', '', 'Reference Signal Received Power', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the received power level in a network cell, including SS-RSRP, CSI-RSRP as specified in clause\xa05.5 of TS\xa038.331\xa0[14] and E-UTRA RSRP as specified in clause\xa05.5.5 of TS\xa036.331\xa0[15].', '', 'Reference Signal Received Quality', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the received quality in a network cell, including SS-RSRQ, CSI-RSRQ as specified in clause\xa05.5 of TS\xa038.331\xa0[14] and E-UTRA RSRQ as specified in clause\xa05.5.5 of TS\xa036.331\xa0[15].', '', 'Signal-to-noise and interference ratio', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the received signal to noise and interference ratio in a network cell, including SS-SINR, CSI-SINR, E-UTRA RS-SINR, as specified in clause\xa05.1 of TS\xa038.215\xa0[12].', '', 'RAN Throughput for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the throughput for DL and UL as specified in clauses 5.2.1.1 and 5.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet delay for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet delay for DL and UL, including per QCI per UE packet delay as specified in clause\xa05.2.1.1 of TS\xa037.320\xa0[20] and per DRB per UE packet delay as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'RAN Packet loss rate for DL and UL', '', 'OAM', '', '(see NOTE\xa01)', '', 'The per UE measurement of the packet loss rate for DL and UL, including the per QCI per UE packet loss rate as specified in clause\xa05.2.1.1 of TS\xa037.320\xa0[20] and the per DRB per UE packet loss rate as specified in clause\xa05.4.1.1 of TS\xa037.320\xa0[20].', '', 'The mapping information between cell ID and frequency', '', 'OAM', '', 'The mapping information between cell ID and frequency (NOTE\xa02).', '', 'Cell Energy Saving State', '', 'OAM', '', 'List of the cells which are within the area of interest and are in energy saving state, as specified in clauses 3.1 and 6.2 of TS\xa028.310\xa0[24].', '', 'NOTE\xa01:\tPer UE measurement for a specific UE from OAM (via MDT), is as captured in clause\xa06.2.3.1.', '', "NOTE\xa02:\tThe MDT measurement report provides the cell identity and carrier frequency information for UE's serving cell and neighbour cell(s). The NWDAF can get the mapping information between cell ID and frequency using OAM service as described in clause\xa06.2.3.", '', '', '', 'NWDAF subscribes the network data from OAM in the Table 6.4.2-3 by using the services provided by OAM as described in clause\xa06.2.3.', '', 'Table 6.4.2-4: UE level Network Data from 5G NF related to the Service Experience', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', '5GC NF', '', 'A time stamp associated with the collected information.', '', 'Location', '', 'AMF', '', 'The UE location information, e.g. cell ID or TAI.', '', 'Finer granularity location', '', 'GMLC', '', 'UE positions.', '', 'UE ID ', '', 'AMF', '', '(list of) SUPI(s).', '', 'RAT Type', '', 'SMF', '', 'The RAT type the UE camps on.', '', 'Access Type', '', 'SMF', '', 'The Access type the UE camps on.', '', '', '', 'The Event Filters for the service data collection from SMF, AMF and AF are defined in TS\xa023.502\xa0[3].', '', 'The timestamps are provided by each NF to allow correlation of QoS and traffic KPIs. The clock reference is able to know the accuracy of the time and correlate the time series of the data retrieved from each NF.', '', 'The NWDAF collects the following MDAF analysis result listed in Table 6.4.2-5, as defined in clauses 8.4.2.1.3 and 8.4.4.3 of TS\xa028.104\xa0[45].', '', 'Table 6.4.2-5: Data collection from MDAS/MDAF of service experience and energy saving state analysis', '', 'Information', '', 'Source', '', 'Description', '', 'ServiceExperienceIssueType', '', 'MDAF', '', 'Indication of the service experience issue type.', '', 'The allowed value is one of the enumerated values: RAN issue, CN issue, both.', '', 'AffectedObjects', '', 'MDAF', '', 'The managed object instances where the service experience is applicable, e.g. SubNetwork Instance, NetworkSlice Instance, S-NSSAI.', '', 'ServiceExperienceStatistics', '', 'MDAF', '', "The statistics of the level of service experience for a service in a certain time period, e.g. there are five levels which are represented by 1, 2, 3, 4, 5 where level 1 represents the users are enduring bad experience while level 5 represents the users' requirements are perfectly satisfied.", '', 'ServiceExperiencePredictions', '', 'MDAF', '', 'The predictions of the level of service experience for a service in a certain time period.', '', 'StatisticsOfCellsEsState', '', 'MDAF', '', 'The statistic result of current energy saving state of the cells at a certain time.', '', '', '']</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.2026557231569903</v>
+        <v>0.2103642571131574</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.4.5.3	QoS Change based on Extended NG-RAN Notification to support Alternative Service Requirements&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.6.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>['', 'To support V2X applications that can operate with different configurations (e.g. different bitrates or delay requirements), the V2X Application Server (V2X AS), acting as the Application Function, can provide, in addition to the requested level of service requirements, Alternative Service Requirements to the 5GS. This enables the 5GS to act on the Alternative Service Requirements and apply them for the extended NG-RAN notification, as described in TS\xa023.501\xa0[6] and TS\xa023.503\xa0[16].', '', 'The V2X AS can use the related procedures specified in clause\xa04.15.6.6 of TS\xa023.502\xa0[7] to influence the QoS provided to the V2X service. If so, the V2X AS includes Alternative Service Requirements as specified in clause\xa06.1.3.22 of TS\xa023.503\xa0[16] when providing service information to the PCF.', '', 'The QoS change based on extended NG-RAN notification operates within the 5GS QoS model as specified in TS\xa023.501\xa0[6] and TS\xa023.503\xa0[16].', '']</t>
+          <t>['', 'With Network Performance Analytics, NWDAF provides either statistics or predictions on the gNB status information, gNB resource usage, communication performance and mobility performance in an Area of Interest; in addition, NWDAF it may provide statistics or predictions on the number of UEs that are located in that Area of Interest.', '', 'The service consumer may be an NF (e.g. PCF, NEF, AF), or the OAM.', '', 'The consumer of these analytics may indicate in the request:', '', '-\tAnalytics ID = "Network Performance";', '', '-\tTarget of Analytics Reporting: either a single UE (SUPI ), or a group of UEs (an Internal Group ID that refers to the group for which the analytics on the number of UEs that are located in the Area of Interest at the time indicated in the Analytics target period is requested) or any UE;', '', '-\tAnalytics Filter Information:', '', '-\tArea of Interest (list of TA or Cells) which restricts the area in focus (mandatory if Target of Analytics Reporting is set to "any UE", optional otherwise);', '', '-\tOptionally, Traffic type of interest (overall traffic, GBR traffic or Delay-critical GBR traffic);', '', 'NOTE:\tIf Traffic type of interest is not provided, overall traffic is considered.', '', '-\tOptionally, a list of analytics subsets that are requested among those specified in clause\xa06.6.3;', '', '-\tOptionally, a preferred level of accuracy of the analytics;', '', '-\tOptionally, preferred level of accuracy per analytics subset (see clause\xa06.6.3);', '', '-\tOptionally, preferred order of results for the list of Network Performance information:', '', '-\tordering criterion: "number of UEs", "communication performance" or "mobility performance";', '', '-\torder: ascending or descending;', '', '-\tOptionally, Reporting Thresholds, which apply only for subscriptions and indicate conditions on the level to be reached for respective analytics information (see clause\xa06.6.3) in order to be notified by the NWDAF;', '', '-\tAn Analytics target period indicates the time period over which the statistics or prediction are requested; and', '', '-\tOptionally, maximum number of objects.', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address are included.', '', '-\tOptionally, Spatial granularity size (if an Area of Interest is provided) and Temporal granularity size.', '', 'The NWDAF notifies the result of the analytics to the consumer as indicated in clause\xa06.6.3.', '']</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.1983406457637834</v>
+        <v>0.1993722984114847</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;5.4.6.1	Objectives&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.6.3	Output Analytics&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>23228-i20.docx</t>
+          <t>23288-i20.docx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>['', 'The general objectives concerning terminal capabilities and end-user behaviour are listed below.', '', '-\tThe capabilities of the terminal have impact on the SDP description in the SIP session flows, since different terminals may support different media types (such as video, audio, application or data) and may have implemented different set of codecs for audio and video. Note that the capabilities of the terminal may change when an external device, such as a video camera is attached to the terminal.', '', '-\tThe configuration of the terminal changes the capabilities of the terminal. This can be done by attaching external devices or possibly by a user setting of certain parameters or profiles in the terminal.', '', '-\tThe preferences of the destination user may depend on who is originating the session and on the situation. Cost, associated with the session, may also be another factor, i.e. depending on time of the day or day of the week etc. Due to this reason the user may want to accept or reject certain media components.', '', '-\tThe available resources in the network play an important role, as certain media streams, consuming high bandwidth, may be denied. Therefore, before the user is alerted that the session set up is successful, it is assumed that the network has guaranteed and has reserved the needed resources for one or several media streams of the session. This does not preclude the possibility for the user to indicate his/her preferences regarding the session also after the alerting, in which case the initial resource reservations may have to be modified.', '', '-\tEnd-to-end quality of service may be provided by using a variety of mechanisms, including guaranteed end-to-end QoS and best effort. The network may not be able to guarantee the requested end-to-end QoS. This may be the case when the user is establishing sessions through the public Internet. On the other hand, certain sessions, with the agreement of the initiating and terminating endpoints, should have the right to go through even without having the requested QoS guarantee.', '']</t>
+          <t>['', 'The NWDAF shall be able to provide both statistics and predictions on Network Performance.', '', 'Network performance statistics are defined in Table 6.6.3-1.', '', 'Table 6.6.3-1: Network performance statistics', '', 'Information', '', 'Description', '', 'List of network performance information (1..max)', '', 'Observed statistics during the Analytics target period', '', '&amp;gt; Area subset', '', 'List if TA(s) or Cell ID(s) within the requested area of interest as defined in clause\xa06.6.1. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '&amp;gt; Analytics target period subset', '', 'Time window within the requested Analytics target period as defined in clause\xa06.6.1. If a Temporal granularity size was provided in the request or subscription, the duration of the Analytics target period subset is greater than or equal to the Temporal granularity size.', '', '&amp;gt; gNB status information (NOTE\xa01)', '', 'Average ratio of gNBs that have been up and running during the entire Analytics target period in the area subset', '', '&amp;gt; gNB resource usage (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources', '', '&amp;gt; gNB resource usage for GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources for GBR traffic (average, peak)', '', '&amp;gt; gNB resource usage for Delay-critical GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources usage for Delay-critical GBR traffic (average, peak)', '', '&amp;gt; Number of UEs (NOTE\xa01)', '', 'Average number of UEs observed in the area subset', '', '&amp;gt; Communication performance (NOTE\xa01)', '', 'Average ratio of successful setup of PDU Sessions', '', '&amp;gt; Mobility performance (NOTE\xa01)', '', 'Average ratio of successful handover', '', 'NOTE\xa01:\tAnalytics subset that can be used in "list of analytics subsets that are requested" and "Preferred level of accuracy per analytics subset".', '', 'NOTE\xa02:\tAverage usage of assigned resources for uplink and downlink traffic is provided. The average and peak usage is provided as a percentage.', '', '', '', "Editor's note:\tThe possibility to provide the gNB resource usage for GBR traffic and gNB resource usage for Delay-critical GBR traffic based on existing network performance management parameters defined in TS\xa028.552\xa0[8] is to be confirmed by SA\xa0WG5.", '', "Editor's note:\tArea subsets smaller than cells are FFS.", '', 'Network performance predictions are defined in Table 6.6.3-2.', '', 'Table 6.6.3-2: Network performance predictions', '', 'Information', '', 'Description', '', 'List of network performance information (1..max)', '', 'Predicted analytics during the Analytics target period', '', '&amp;gt; Area subset', '', 'List if TA(s) or Cell ID(s) within the requested area of interest as defined in clause\xa06.6.1. If a Spatial granularity size was provided in the request or subscription, the number of elements of the list is smaller than or equal to the Spatial granularity size.', '', '&amp;gt; Analytics target period subset', '', 'Time window within the requested Analytics target period as defined in clause\xa06.6.1. If a Temporal granularity size was provided in the request or subscription, the duration of the Analytics target period subset is greater than or equal to the Temporal granularity size.', '', '&amp;gt; gNB status information (NOTE\xa01)', '', 'Average ratio of gNBs that will be up and running during the entire Analytics target period in the area subset', '', '&amp;gt; gNB resource usage (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources (average, peak)', '', '&amp;gt; gNB resource usage for GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources for GBR traffic (average, peak)', '', '&amp;gt; gNB resource usage for Delay-critical GBR traffic (NOTE\xa01) (NOTE\xa02)', '', 'Usage of assigned resources usage for Delay-critical GBR traffic (average, peak)', '', '&amp;gt; Number of UEs (NOTE\xa01)', '', 'Average number of UEs predicted in the area subset', '', '&amp;gt; Communication performance (NOTE\xa01)', '', 'Average ratio of successful setup of PDU Sessions', '', '&amp;gt; Mobility performance (NOTE\xa01)', '', 'Average ratio of successful handover', '', '&amp;gt; Confidence', '', 'Confidence of this prediction', '', 'NOTE\xa01:\tAnalytics subset that can be used in "list of analytics subsets that are requested" and "Preferred level of accuracy per analytics subset".', '', 'NOTE\xa02:\tAverage usage of assigned resources for uplink and downlink traffic is provided. The average and peak usage is provided as a percentage.', '', '', '', "Editor's note:\tArea subsets smaller than cells are FFS.", '', "Editor's note:\tThe possibility to provide the gNB resource usage for GBR traffic and gNB resource usage for Delay-critical GBR traffic based on existing network performance management parameters defined in TS\xa028.552\xa0[8] is to be confirmed by SA\xa0WG5.", '', 'NOTE\xa01:\tThe predictions are provided with a Validity Period, as defined in clause\xa06.1.3.', '', 'NOTE\xa02:\tThe analytics on number of UEs are related to the information retrieved from the AMFs.', '', 'The number of network performance information entries is limited by the maximum number of objects provided as part of Analytics Reporting Information.', '', 'The NWDAF provides Network Performance Analytics to a consumer at the time requested by the consumer in the Analytics target period:', '', '-\tAnalytics ID set to "Network Performance".', '', '-\tNotification Target Address including the address of the consumer.', '', '-\tNotification Correlation Id, for the consumer to correlate notifications from NWDAF if subscription applies.', '', '-\tAnalytics specific parameters at the time indicated in the Analytics target period&lt;b&gt;.&lt;/b&gt;', '']</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.2146226850040574</v>
+        <v>0.1946453675345871</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;6.10.3.1	Data Volume Dispersion Analytics&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.9.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2553,17 +2553,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>['', 'The data volume dispersion analytics results provided by the NWDAF can be for a UE or group of UEs or "any UE" data volume dispersion statistics as defined in table 6.10.3.1-1 and/or UE data volume dispersion predictions as defined in table 6.10.3.1-2. If the analytics covers multiple UEs, the Data dispersed, Data ranking and Data percentile ranking parameters are calculated as the aggregated (i.e. summed up) data volume. When the Target of Analytics Reporting is set as "any UE" the data volume dispersion analytics results provided by the NWDAF can be for all UEs data volume dispersion statistics at a location and/or the slice and/or data volume dispersion predictions at a location and/or the slice.', '', 'Table 6.10.3.1-1: Data volume dispersion statistics bound by location', '', 'Information', '', 'Description', '', 'UE group ID or UE ID or list of UE IDs (1..SUPImax)', '', 'Identifies a UE or a group of UEs, e.g. internal group ID defined in clause\xa05.9.7 of TS\xa023.501\xa0[2], or a list of UEs for which the statistic applies (see NOTE\xa01).', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; UE location (1..max)', '', 'Observed location statistics.', '', '      &amp;gt;&amp;gt; UE location', '', 'TA or cells where the UE or UE group or list of UEs dispersed its data (see NOTE\xa03).', '', '      &amp;gt;&amp;gt; Application ID (0..max) (NOTE\xa07)', '', 'To identify the application (NOTE\xa06).', '', '          &amp;gt;&amp;gt;&amp;gt; Data volume dispersed (NOTE\xa04)', '', 'Data volume dispersed at this location.', '', '      &amp;gt;&amp;gt; Data mobility classification (NOTE\xa04)', '', 'Data mobility classification of the UE for this location: fixed, camper, traveller (see NOTE\xa05).', '', '      &amp;gt;&amp;gt; Data usage ranking (NOTE\xa04) (NOTE\xa07)', '', 'Ranking of UE data usage at this location (See NOTE\xa02).', '', '      &amp;gt;&amp;gt; Data usage percentile ranking (NOTE\xa04) (NOTE\xa07)', '', 'Percentile ranking of the UE or UE group in the Cumulative Distribution Function of data usage for the population of all UEs served at the location.', '', '      &amp;gt;&amp;gt; Ratio', '', 'Percentage of UEs in the group at the location and observation time (in the case of UE group).', '', 'NOTE\xa01:\tWhen Target of Analytics Reporting is an individual UE, a single UE ID (i.e. SUPI) will be included. When Target of Analytics Reporting is a UE group ID, an internal group ID will be included. When Target of Analytics Reporting is a UE group ID or "Any UE" and a filter for Top-Heavy UEs, fixed, camper or traveller is included, the NWDAF will include the list of UEs matching the filter. This information element is not present when Target of Analytic Reporting is "Any UE" and no filter for Top-Heavy UEs, fixed, camper or traveller is included. The NWDAF will provide the dispersion analytics result of one or a list of time slots to the service consumer(s) for the UE, group of UEs or list of UEs.', '', "NOTE\xa02:\tUE is ranked high (i.e. 1), medium (2) and low (3) when its data dispersed, during the period of observation at the location, is higher than N1% or at the range of N1% to N2% or less than N2%, respectively. The percentage values of N1 and N2 are subject to operator's configuration.", '', 'NOTE\xa03:\tWhen possible and applicable to the access type, UE location is provided according to the preferred granularity of location information and Spatial granularity size.', '', 'NOTE\xa04:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and "preferred level of accuracy per analytics subset".', '', 'NOTE\xa05:\tThis parameter is only provided for Target of Analytics Reporting set to single UE.', '', 'NOTE\xa06:\tWhen Application ID is not included in the input, cardinality is zero and data volume dispersed is provided per UE location and applies across all the applications in that location.', '', 'NOTE\xa07:\tThis parameter is not provided for Target of Analytics Reporting set to "Any UE".', '', '', '', 'Table 6.10.3.1-2: Data volume dispersion prediction bound by location', '', 'Information', '', 'Description', '', 'UE group ID or UE ID or list of UE IDs (1..SUPImax)', '', 'Identifies a UE or a group of UEs, e.g. internal group ID defined in clause\xa05.9.7 of TS\xa023.501\xa0[2], or a list of UEs for which the prediction applies (see NOTE\xa01).', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; UE location (1..max)', '', 'Predicted location during the analytics target period.', '', '      &amp;gt;&amp;gt; UE location', '', 'TA or cells where the UE or UE group or list of UEs is predicted to disperse its data (see NOTE\xa03).', '', '      &amp;gt;&amp;gt; Application ID (0..max) (NOTE\xa07)', '', 'To identify the application (NOTE\xa06).', '', '          &amp;gt;&amp;gt;&amp;gt; Data volume dispersion (NOTE\xa04)', '', 'Data volume dispersion prediction at this location.', '', '              &amp;gt;&amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. data volume to be dispersed at this location).', '', '      &amp;gt;&amp;gt; Data mobility classification (NOTE\xa04)', '', 'Data mobility classification of the UE for this location: fixed, camper, traveller (see NOTE\xa05).', '', '          &amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. mobility classification at this location).', '', '      &amp;gt;&amp;gt; Data usage ranking (NOTE\xa04) (NOTE\xa07)', '', 'Ranking of UE data usage at this location (See NOTE\xa02).', '', '      &amp;gt;&amp;gt; Data percentile usage ranking (NOTE\xa04) (NOTE\xa07)', '', 'Percentile ranking of the UE or UE group in the Cumulative Distribution Function of data usage for the population of all UEs served at the location.', '', '          &amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. percentile ranking at this location).', '', '      &amp;gt;&amp;gt; Ratio', '', 'Percentage of UEs in the group (in the case of UE group).', '', 'NOTE\xa01:\tWhen Target of Analytics Reporting is an individual UE, a single UE ID (i.e. SUPI) will be included. When Target of Analytics Reporting is a UE group ID, an internal group ID will be included. When Target of Analytics Reporting is a UE group ID or "Any UE" and a filter for Top-Heavy UEs, fixed, camper or traveller is included, the NWDAF will include the list of UEs matching the filter. This information element is not present when Target of Analytic Reporting is "Any UE" and no filter for Top-Heavy UEs, fixed, camper or traveller is included. The NWDAF will provide the dispersion analytics result of one or a list of time slots to the service consumer(s) for the UE, group of UEs or list of UEs.', '', "NOTE\xa02:\tUE is ranked high (i.e. 1), medium (2) and low (3) when its data dispersed, during the period of observation at the location, is higher than N1% or at the range of N1% to N2% or less than N2%, respectively. The percentage values of N1 and N2 are subject to operator's configuration.", '', 'NOTE\xa03:\tWhen possible and applicable to the access type, UE location is provided according to the preferred granularity of location information and Spatial granularity size.', '', 'NOTE\xa04:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and "preferred level of accuracy per analytics subset".', '', 'NOTE\xa05:\tThis parameter is only provided for Target of Analytics Reporting set to single UE.', '', 'NOTE\xa06:\tWhen Application ID is not included in the input, cardinality is zero and data volume dispersion prediction is provided per UE location and applies across all the applications in that location.', '', 'NOTE\xa07:\tThis parameter is not provided for Target of Analytics Reporting set to "Any UE".', '', '', '', 'The data volume dispersion analytics results provided by the NWDAF can also be for a UE or group of UEs or "any UE" data volume dispersion statistics at a given slice as defined in Table 6.10.3.1-3 and/or data volume dispersion predictions as defined in Table 6.10.3.1-4. If the analytics covers multiple UEs, the Data dispersed, Data ranking and Data percentile ranking parameters are calculated as the aggregated (i.e. summed up) data volume. When the Target of Analytics Reporting is set as "any UE" the data volume dispersion analytics results provided by the NWDAF can be for all UEs data volume dispersion statistics at a given slice and/or data volume dispersion predictions at a given slice.', '', 'Table 6.10.3.1-3: Data volume dispersion statistics bound by slice', '', 'Information', '', 'Description', '', 'UE group ID or UE ID or a list of UE IDs (1..SUPImax)', '', 'Identifies a UE or a group of UEs, e.g. internal group ID defined in clause\xa05.9.7 of TS\xa023.501\xa0[2], or a list of UEs for which the statistic applies (see NOTE\xa01).', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Slice (1..max)', '', 'Observed slice statistics.', '', '        &amp;gt;&amp;gt; S-NSSAI', '', 'Slice where the UE or group of UEs or list of UEs dispersed data.', '', '        &amp;gt;&amp;gt; Application ID (0..max) (NOTE\xa06)', '', 'To identify the application at the slice (NOTE\xa05).', '', '            &amp;gt;&amp;gt;&amp;gt; Data volume dispersed (NOTE\xa03)', '', 'Data volume dispersed at this slice.', '', '        &amp;gt;&amp;gt; Data mobility classification (NOTE\xa03)', '', 'Data mobility classification of the UE at the slice: fixed, camper, traveller (see NOTE\xa04).', '', '        &amp;gt;&amp;gt; Data usage ranking (NOTE\xa03) (NOTE\xa06)', '', 'Ranking of UE data usage at this slice.  (See NOTE\xa02).', '', '        &amp;gt;&amp;gt; Data usage percentile ranking (NOTE\xa03) (NOTE\xa06)', '', 'Percentile ranking of the UE or UE group in the Cumulative Distribution Function of data usage for the population of all UEs served by the slice.', '', '        &amp;gt;&amp;gt; Ratio', '', 'Percentage of UEs in the group (in the case of UE group).', '', 'NOTE\xa01:\tWhen Target of Analytics Reporting is an individual UE, a single UE ID (i.e. SUPI) will be included. When Target of Analytics Reporting is a UE group ID, an internal group ID will be included. When Target of Analytics Reporting is a UE group ID or "Any UE" and a filter for Top-Heavy UEs, fixed, camper or traveller is included, the NWDAF will include the list of UEs matching the filter. This information element is not present when Target of Analytic Reporting is "Any UE" and no filter for Top-Heavy UEs, fixed, camper or traveller is included. The NWDAF will provide the dispersion analytics result of one or a list of time slots to the service consumer(s) for the UE, the group of UEs or the list of UEs.', '', "NOTE\xa02:\tUE is ranked high (i.e. 1), medium (2) and low (3) when its data dispersed, during the period of observation at the location, is higher than N1% or at the range of N1% to N2% or less than N2%, respectively. The percentage values of N1 and N2 are subject to operator's configuration.", '', 'NOTE\xa03:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and "preferred level of accuracy per analytics subset".', '', 'NOTE\xa04:\tThis parameter is only provided for Target of Analytics Reporting set to single UE.', '', 'NOTE\xa05:\tWhen Application ID is not included in the input, cardinality is zero and data volume dispersed is provided per slice and applies across all the applications in the slice.', '', 'NOTE\xa06:\tThis parameter is not provided for Target of Analytics Reporting set to "Any UE".', '', '', '', 'Table 6.10.3.1-4: Data volume dispersion prediction bound by slice', '', 'Information', '', 'Description', '', 'UE group ID or UE ID or list of UE IDs (1..SUPImax)', '', 'Identifies a UE or a group of UEs, e.g. internal group ID defined in clause\xa05.9.7 of TS\xa023.501\xa0[2], or a list of UEs for which the prediction applies (see NOTE\xa01).', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Slice (1..max)', '', 'Predicted slice during the Analytics target period.', '', '        &amp;gt;&amp;gt; S-NSSAI', '', 'Slice where the UE or UE group or list of UEs is predicted to disperse its data.', '', '        &amp;gt;&amp;gt; Application ID (0..max) (NOTE\xa06)', '', 'To identify the application at the slice (NOTE\xa05).', '', '            &amp;gt;&amp;gt;&amp;gt; Data volume dispersion (NOTE\xa03)', '', 'Data volume dispersion prediction at this slice.', '', '                &amp;gt;&amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. data volume to be dispersed at this slice).', '', '        &amp;gt;&amp;gt; Data mobility classification (NOTE\xa03)', '', 'Data mobility classification of the UE at this slice: fixed, camper, traveller (see NOTE\xa04).', '', '            &amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. mobility classification at this slice).', '', '        &amp;gt;&amp;gt; Data usage ranking (NOTE\xa03) (NOTE\xa06)', '', 'Ranking of UE data usage at this slice. See NOTE\xa02.', '', '       &amp;gt;&amp;gt; Data usage percentile ranking (NOTE\xa03) (NOTE\xa06)', '', 'Percentile ranking of the UE or UE group in the Cumulative Distribution Function of data usage for the population of all UEs served by the slice.', '', '            &amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. percentile ranking at this slice).', '', '        &amp;gt;&amp;gt; Ratio', '', 'Percentage of UEs in the group (in the case of UE group).', '', 'NOTE\xa01:\tWhen Target of Analytics Reporting is an individual UE, a single UE ID (i.e. SUPI) will be included. When Target of Analytics Reporting is a UE group ID, an internal group ID will be included. When Target of Analytics Reporting is a UE group ID or "Any UE" and a filter for Top-Heavy UEs, fixed, camper or traveller is included, the NWDAF will include the list of UEs matching the filter. This information element is not present when Target of Analytic Reporting is "Any UE" and no filter for Top-Heavy UEs, fixed, camper or traveller is included. The NWDAF will provide the dispersion analytics result of one or a list of time slots to the service consumer(s) for the UE, group of UEs or list of UEs.', '', "NOTE\xa02:\tUE is ranked high (i.e. 1), medium (2) and low (3) when its data dispersed, during the period of observation at the location, is higher than N1% or at the range of N1% to N2% or less than N2%, respectively. The percentage values of N1 and N2 are subject to operator's configuration.", '', 'NOTE\xa03:\tThis information element is an analytics subset that can be used in "list of analytics subsets that are requested" and "preferred level of accuracy per analytics subset".', '', 'NOTE\xa04:\tThis parameter is only provided for Target of Analytics Reporting set to single UE.', '', 'NOTE\xa05:\tWhen Application ID is not included in the input, cardinality is zero and data volume dispersion prediction is provided per slice and applies across all the applications in the slice.', '', 'NOTE\xa06:\tThis parameter is not provided for Target of Analytics Reporting set to "Any UE".', '', '', '', 'When the Target of Analytics Reporting is set as "any UE", no filter for Top-Heavy UEs, fixed, camper or traveller is included and the Analytics Filter Information is set to one or several S-NSSAIs and DDVA, the data volume dispersion analytics results provided by the NWDAF can be for all UEs data volume dispersion statistics at a given slice as defined in Table 6.10.3.1-5 and/or data volume dispersion predictions as defined in Table 6.10.3.1-6:', '', 'Table 6.10.3.1-5: Data volume dispersion statistics bound by slice (for any UE)', '', 'Information', '', 'Description', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Slice (1..max)', '', 'Observed slice statistics.', '', '    &amp;gt;&amp;gt; S-NSSAI', '', 'Slice where all UEs dispersed data.', '', '    &amp;gt;&amp;gt; Data volume dispersed', '', 'Data volume dispersed at this slice. (see NOTE\xa01).', '', 'NOTE\xa01:\tUtilized bandwidth (i.e. average throughput) at the slice can be calculated by using the Data volume dispersed in the Duration.', '', '', '', 'Table 6.10.3.1-6: Data volume dispersion prediction bound by slice (for any UE)', '', 'Information', '', 'Description', '', 'Time slot entry (1..max)', '', 'List of time slots during the Analytics target period.', '', '  &amp;gt; Time slot start', '', 'Time slot start within the Analytics target period.', '', '  &amp;gt; Duration', '', 'Duration of the time slot. If a Temporal granularity size was provided in the request or subscription, the Duration is greater than or equal to the Temporal granularity size.', '', '  &amp;gt; Slice (1..max)', '', 'Predicted slice during the Analytics target period.', '', '    &amp;gt;&amp;gt; S-NSSAI', '', 'Slice where the UE is predicted to disperse its data.', '', '    &amp;gt;&amp;gt; Data volume dispersion', '', 'Data volume dispersion prediction at this slice. (see NOTE\xa01).', '', '         &amp;gt;&amp;gt;&amp;gt;&amp;gt; Confidence', '', 'Confidence of this prediction (i.e. data to be dispersed at this slice).', '', 'NOTE\xa01:\tUtilized bandwidth (i.e. average throughput) predication at the slice can be calculated by using the Data volume dispersion in the Duration.', '', '', '', 'NOTE:\tThe Application ID in the Data Volume Dispersion Analytics is optional. When the Application ID is missing, the Data Volume Dispersion Analytics is applied across all the applications in an AOI or a slice.', '']</t>
+          <t>['', 'The consumer of QoS Sustainability analytics may request the NWDAF analytics information regarding the QoS change statistics for an Analytics target period in the past in a certain area or the likelihood of a QoS change for an Analytics target period in the future in a certain area. The consumer can request either to subscribe to notifications (i.e. a Subscribe-Notify model) or to a single notification (i.e. a Request-Response model).', '', 'The service consumer may be a NF (e.g. AF).', '', 'The request includes the following parameters:', '', '-\tAnalytics ID = "QoS Sustainability";', '', '-\tTarget of Analytics Reporting: any UE;', '', '-\tAnalytics Filter Information:', '', '-\tQoS requirements (mandatory):', '', '-\t5QI (standardized or pre-configured) and applicable additional QoS parameters and the corresponding values (conditional, i.e. it is needed for GBR 5QIs to know the GFBR); or', '', '-\tthe QoS Characteristics attributes including Resource Type, PDB, PER and their values;', '', '-\tLocation information (mandatory): an Area Of Interest or a path of interest. The location information could reflect a list of waypoints:', '', '-\tif the location information is an Area Of Interest, the area can be either described in a coarse granularity as list of TAIs or Cell IDs, or in a fine granularity as geographical area (that can be smaller than a cell), or both (coarse and fine granularity); if both granularities are provided, the NWDAF understands that the area of interest is the intersection between the fine granularity location and the list of TAIs or Cell IDs.', '', '-\tif the location information is a path of interest, the area can be either described in a coarse granularity as list of TAIs or Cell IDs, or in a fine granularity as a list of waypoints (expressed as longitude and latitude in geographical coordinates) and combined with a radius value, or both (coarse and fine granularity); if both granularities are provided, the NWDAF understands that the path of interest is the intersection between the fine granularity location and the list of TAIs or Cell IDs.', '', '-\tThreshold linear distance: The distance travelled by the UE before reporting subsequent location as described in TS\xa023.273\xa0[39].', '', 'NOTE\xa01:\tThreshold linear distance is used by the NWDAF when requesting location of the UE from the GMLC.', '', 'NOTE\xa02:\tIn this Release, the consumer of the "QoS Sustainability" Analytics ID will provide location information in the area of interest format (TAIs or Cell IDs or geographical area) which is understandable by NWDAF.', '', 'NOTE\xa03:\tWhen location information is described as an area of interest in a fine granularity (i.e. as geographical area that can be smaller than a cell) the Cell ID(s) can already be determined by the NEF based on its local configuration and provided to the NWDAF in addition. This addresses the scenario when Cell ID(s) cannot be determined by the NWDAF based on its local configuration. Alternatively, the NWDAF can also be configured with the Cell ID(s) corresponding to an area of interest in a fine granularity.', '', '-\tS-NSSAI (optional);', '', '-\tOptional maximum number of objects;', '', '-\tOptional UE Device and Context Information: which may contain one or more of the following:', '', '-\tSpeed range, which is a range of UE speeds for which analytics is requested, where the speed range is indicated as a range of Velocity Estimate, as in clause\xa06.1.6.2.17 of TS\xa029.572\xa0[37];', '', '-\tDevice information, which may contain one of the following:', '', '-\tList of equipment types, according to clause\xa08.0 of GSMA\xa0TS.06\xa0[38].', '', '-\tAnalytics target period: relative time interval, either in the past or in the future, that indicates the time period for which the QoS Sustainability analytics is requested;', '', '-\tOptionally, Spatial granularity size and Temporal granularity size;', '', '-\tReporting Threshold(s), which apply only for subscriptions and indicate conditions on the level to be reached for the reporting of the analytics, i.e. to discretize the output analytics and to trigger the notification when the threshold(s) provided in the analytics subscription are crossed by the expected QoS KPIs.', '', '-\tA matching direction may be provided such as crossed (default value), below, or above.', '', '-\tAn acceptable deviation from the threshold level in the non-critical direction (i.e. in which the QoS is improving) may be set to limit the amount of signalling.', '', '\tThe level(s) relate to value(s) of the QoS KPIs defined in TS\xa028.554\xa0[10], for the relevant 5QI:', '', '-\tfor a 5QI of GBR resource type, the Reporting Threshold(s) refer to the QoS flow Retainability KPI;', '', '-\tfor a 5QI of non-GBR resource type, the Reporting Threshold(s) refer to the RAN UE Throughput KPI and/or delay in RAN KPI as defined in TS\xa028.554\xa0[10].', '', '-\tIn a subscription, the Notification Correlation Id and the Notification Target Address.', '', 'To derive the QoS Sustainability analytics when the location information is an area of interest with coarse granularity (i.e. TAIs or Cell IDs):', '', '-\tThe NWDAF collects the corresponding statistics information on the QoS KPI for the relevant 5QI of interests from the OAM, i.e. the QoS flow Retainability or the RAN UE Throughput or delay in RAN as defined in TS\xa028.554\xa0[10] and average GTP metrics as defined in TS\xa028.552\xa0[8].', '', 'To derive the QoS Sustainability analytics when the location information is an area of interest with fine granularity (i.e. geographical area that can be smaller than a cell):', '', '-\tThe NWDAF derives the UE list for the area of interest with fine granularity by two steps, firstly based on an initial selection of the UE list in the corresponding coarse area from AMF, secondly based on finer granularity location data from LCS, e.g. NWDAF can collect finer granularity location data of a UE from LCS and identify whether this UE is inside of the area of interest with fine granularity area, input data as defined in Table 6.9.2-2.', '', '-\tThe NWDAF can then collect the corresponding UE level information on the QoS KPI for the relevant 5QI of interests from the 5GC NF/OAM, i.e. input data as defined in Table 6.9.2-2.', '', '-\tNWDAF derives QoS sustainability statistics or predictions for the area of interest with fine granularity by averaging these input data for all the UEs that are in the UE list.', '', 'To improve QoS Sustainability analytics, the NWDAF may additionally collect GTP metrics defined in Table 6.9.2-3.', '', 'If the Analytics target period refers to the past:', '', '-\tThe NWDAF verifies whether the triggering conditions for the notification of QoS change statistics are met and if so, generates for the consumer one or more notifications.', '', '-\tThe analytics feedback contains the information on the location and the time for the QoS change statistics and the Reporting Threshold(s) that were crossed.', '', 'If the Analytics target period is in the future:', '', '-\tThe NWDAF detects the need for notification about a potential QoS change based on comparing the expected values for the KPI of the target 5QI against the Reporting Threshold(s) provided by the consumer in any cell in the requested area for the requested Analytics target period. The expected KPI values are derived from the statistics for the 5QI obtained from OAM. OAM information may also include planned or unplanned outages detection and other information that is not in scope for 3GPP to discuss in detail.', '', '-\tThe analytics feedback contains the information on the location and the time when a potential QoS change may occur and what Reporting Threshold(s) may be crossed.', '']</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.1993971528251805</v>
+        <v>0.1896773862345172</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;6.1A.3.1	Procedure for analytics aggregation with Provision of Area of Interest&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;6.9.2	Input data&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2573,22 +2573,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>LR3_configuration</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>['', 'The procedure depicted in figure 6.1A.3-1 is used to address cases where an NWDAF service consumer requests Analytics ID(s) for an Area of Interest that requires multiple NWDAFs that collectively serve the request.', '', '----media/image22.emf----', '', 'Figure 6.1A.3.1-1: Procedure for analytics aggregation', '', '1a-b.\tNWDAF service consumer discovers the NWDAF as specified in clause\xa05.2. When NRF is used, NRF may return multiple NWDAF candidates matching the requested capabilities, area of interest and supported Analytics ID(s). NWDAF service consumer selects an NWDAF (e.g. NWDAF1) with analytics aggregation capability (i.e. Aggregator NWDAF), based on its internal selection criteria, considering registered NWDAF capabilities and information in NRF including the Supported Analytics Delay per Analytics ID (if available).', '', '2.\tNWDAF service consumer invokes Nnwdaf_AnalyticsInfo_Request or Nnwdaf_AnalyticsSubscription_Subscribe service operation from the selected Aggregator NWDAF (e.g. NWDAF1). In the request, NWDAF service consumer provides Analytics ID(s) (e.g. Analytics ID 1) Analytics Filter Information (area of interest, e.g. TAI-1, TAI-2, TAI-n, if known to the NWDAF service consumer), Target of Analytics Reporting (e.g. a single UE, a group of UEs or any UE). It may also provide "time when analytics information is needed" (e.g. T1). It is expected that T1 is equal or greater than the Supported Analytics Delay per Analytics ID (if available) of the Aggregator NWDAF. Otherwise, the aggregator NWDAF may reject the analytics request or analytics subscription.', '', '3.\tOn receiving the request in step\xa02, Aggregator NWDAF (e.g. NWDAF1), based on e.g. configuration, queries to NRF including the Real-Time Communication Indication per Analytics ID and queries to UDM for checking which NWDAF(s) is serving the Target of Analytics Reporting. Considering the request from the NWDAF service consumer (e.g. Analytics Filter Information, T1, etc.) and Supported Delay per Analytics ID per NWDAF instance (when Real-Time Communication Indication was included), Aggregator NWDAF determines the other NWDAF instances that collectively can cover the area of interest indicated in the request (e.g. TAI-1, TAI-2, TAI-n).', '', 'NOTE\xa01:\tIn the discovery request sent to NRF, Aggregator NWDAF might indicate "analytics metadata provisioning capability" (e.g. as query parameter), thus, requesting to NRF to reply back with, if available, those NWDAF instance(s) which also supports "analytics metadata provisioning capability" functionality as indicated during particular NWDAF instance registration procedure.', '', '4-5.\tAggregator NWDAF (e.g. NWDAF1) invokes Nnwdaf_AnalyticsInfo_Request or Nnwdaf_AnalyticsSubscription_Subscribe service operation from each of the NWDAFs discovered/determined in step\xa03 (e.g. NWDAF2 and NWDAF3).', '', '\tThe request may optionally indicate "analytics metadata request" parameter to the determined NWDAFs (e.g. NWDAF-2 and/or NWDAF3), when analytics metadata is supported by these NWDAFs.', '', '\tThe request or subscription to the determined NWDAFs (e.g. NWDAF2 and/or NWDAF3) may also include the dataset statistical properties, output strategy and data time window. This indicates to the determined NWDAFs that the Analytics ID output shall be generated based on such parameters when requested.', '', '\tIf "time when analytics information is needed" (T1) was provided in step\xa02, the Aggregator NWDAF shall also provide a "time when analytics information is needed" to the determined NWDAFs, with a smaller value compared with T1 (e.g. T2).', '', 'NOTE\xa02:\tT2 in step\xa04-5 is smaller than T1 accounting for the analytics delay and processing time within the Aggregator NWDAF itself.', '', '6-7a-b.\tThe determined NWDAFs (e.g. NWDAF-2 and/or NWDAF3) reply or notify with the requested output analytics.', '', '\tIf "analytics metadata request" was included in the request received by such NWDAF (in steps 4-5), the NWDAF additionally returns the "analytics metadata information" used for generating the analytics output as defined in clause\xa06.1.3.', '', '\tIf the determined NWDAFs (e.g. NWDAF 2 and/or NWDAF 3) cannot reply or notify with the requested output analytics before the expiry of T2, they may send an error response or error notification to the Aggregator NWDAF including a "revised waiting time".', '', '8.\tAggregator NWDAF (e.g. NWDAF1) aggregates received Analytics information, i.e. generates a single output analytics based on the multiple analytics outputs and, optionally, the "analytics metadata information" received from the determined NWDAFs (e.g. NWDAF2 and NWDAF3).', '', '\tThe Aggregator NWDAF (e.g. NWDAF1) may also take its own analytics for TAI-n into account for the analytics aggregation.', '', '9a-b.\tAggregator NWDAF (e.g. NWDAF1) sends a response or notifies to the NWDAF service consumer the aggregated output analytics for the requested Analytics ID.', '', '\tIf the Aggregator NWDAF (e.g. NWDAF 1) cannot reply or notify with the requested output analytics before the expiry of T1 or anticipates that it cannot reply or notify with the requested output analytics before the expiry of T1 (e.g. due to error notification in step\xa06-7a-b), it may send an error response or error notification to the NWDAF service consumer including a "revised waiting time". The NWDAF service consumer may optionally use the "revised waiting time" to update the "time when analytics information is needed" parameter (i.e. T1) for future analytics requests/subscriptions to the same Aggregator NWDAF as defined in clause\xa06.2.5.2.', '']</t>
+          <t>['', 'To derive the QoS Sustainability analytics for a path of interest or for an area of interest with coarse granularity (i.e. TAIs or Cell IDs), the input data is listed in Table 6.9.2-1.', '', 'Table 6.9.2-1: Data collection for "QoS Sustainability" analytics', '', 'Information', '', 'Source', '', 'Description', '', 'RAN UE Throughput', '', 'OAM TS\xa028.554\xa0[10]', '', 'Average UE bitrate in the cell (Payload data volume on RLC level per elapsed time unit on the air interface, for transfers restricted by the air interface), per timeslot, per cell, per 5QI and per S-NSSAI.', '', 'QoS flow Retainability', '', 'OAM TS\xa028.554\xa0[10]', '', 'Number of abnormally released QoS flows during the time the QoS Flows were used per timeslot, per cell, per 5QI and per S-NSSAI.', '', 'Delay in RAN', '', 'OAM TS\xa028.554\xa0[10]', '', 'Average Uplink and downlink packet transmission delay through RAN part to the UE, per timeslot, per cell, per 5QI and per S-NSSAI.', '', '', '', 'NOTE\xa01:\tThe timeslot is the time interval split according to the time unit of the OAM statistics defined by operator.', '', 'To derive the QoS Sustainability analytics for an area of interest with fine granularity (i.e. geographical area that can be smaller than a cell), additional input data is listed in Table 6.9.2-2.', '', 'Table 6.9.2-2: UE level data collection for "QoS Sustainability" analytics with fine granularity', '', 'Information', '', 'Source', '', 'Description', '', 'Timestamp', '', 'LCS', '', 'A time stamp associated with the collected information.', '', 'UE ID', '', 'LCS, AMF', '', '(list of) SUPI(s).', '', 'Finer granularity location data', '', 'LCS', '', 'UE position in the area of interest.', '', 'Speed', '', 'LCS', '', 'Current UE speed.', '', 'SMF info', '', 'AMF', '', 'SMF address for the SMF serving the UE', '', 'UPF info', '', 'SMF', '', 'Address for the UPF serving the UE.', '', '5QI', '', 'SMF', '', '5G QoS Identifier.', '', 'PEI', '', 'UDM', '', 'Permanent Equipment Identifier, as described in clause\xa05.9.3 of 1\xa023.501\xa0[2].', '', 'Equipment type', '', 'GSMA IMEI database or OAM', '', 'Equipment Type such as smartphone, tablet, dongle, etc. as described in GSMA\xa0TS.06\xa0[38].', '', '', '', 'NOTE\xa02:\tHow to use the input data from GSMA for QoS Sustainability analytics is up to NWDAF implementation.', '', 'Additionally, the NWDAF collects the following input (Table 6.9.2-3) according to measurements defined in clause\xa05.33.3 QoS Monitoring to Assist URLLC Service of TS\xa023.501\xa0[2] and IP-layer clause\xa0capacity and IP-layer available clause\xa0capacity definition from ITU-T\xa0Y.1540\xa0[40] between UE, NG-RAN and UPF at GTP level.', '', 'Table 6.9.2-3: Data collection for QoS Sustainability analytics at GTP level', '', 'Information', '', 'Source', '', 'Description', '', 'UL/DL packet delay GTP', '', 'OAM TS\xa028.552\xa0[8] (NOTE)', '', 'UL/DL packet delay measurement round trip on GTP path on N3 for non-GBR traffic.', '', 'UL/DL capacity GTP between UPF and NG-RAN ', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL capacity measurement from UPF to NG-RAN based on GTP path. The capacity measurement corresponds to the IP-layer section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'UL/DL capacity GTP between UPF and UE', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL capacity measurement from UE to UPF based on GTP path. The capacity measurement corresponds to the IP-layer section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'UL/DL available capacity GTP between UPF and NG-RAN ', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL available capacity measurement from UPF to NG-RAN based on GTP path. The available capacity measurement corresponds to the IP-layer available section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'UL/DL available capacity GTP between UPF and UE', '', 'OAM', '', 'TS\xa028.552\xa0[8]', '', 'UL/DL available capacity measurement from UE to UPF based on GTP path. The available capacity measurement corresponds to the IP-layer available section capacity definition from ITUT\xa0Y.1540\xa0[40].', '', 'NOTE:\tRefer to clause\xa05.1 of TS\xa028.552\xa0[8] for the performance measurement in NG-RAN and clause\xa05.4 of TS\xa028.552\xa0[8] for the performance measurement in UPF. In addition, Annex\xa0A of TS\xa028.552\xa0[8] describes various performance measurements, especially, clause\xa0A.61 "Monitoring of one way delay between PSA UPF and NG-RAN" indicates that the measurements on the one way DL and UL delay between PSA UPF and NG-RAN can be used to evaluate and optimize the DL and UL user plane delay performance between 5GC and NG-RAN.', '', '', '']</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>0.1939919750715144</v>
+        <v>0.202857880524232</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;6.1A.3.2	Procedure for Analytics Aggregation without Provision of Area of Interest&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;7.10.4	Nnwdaf_MLModelTraining_Notify service operation&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2598,22 +2598,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LR3_configuration</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>['', 'The procedure depicted in Figure\xa06.1A.3.2-1 is used to address cases where an NWDAF service consumer requests Analytics ID(s) without providing an Area of Interest, but requires multiple NWDAFs to collectively serve the request.', '', '----media/image23.emf----', '', 'Figure 6.1A.3.2-1: Procedure for analytics aggregation without provision of Area of Interest', '', '1.\tThis step is a NWDAF discovery procedure without providing any area of interest. The service consumer discovers an aggregation NWDAF (e.g. NWDAF1) as specified in clause\xa05.2. When NRF is used, NRF may return multiple NWDAF candidates matching the requested capabilities and supported Analytics ID(s).', '', '\tDepending on the requested Analytics ID, the NWDAF service consumer, e.g. based on internal logic, can be able to determine which NWDAF should be selected for providing the required data analytics. If not, the NWDAF service consumer should select a NWDAF with large serving area from the candidate NWDAFs which supports analytics aggregation, e.g. NWDAF1.', '', '2.\tNWDAF service consumer sends Analytics information or analytics subscription request to the aggregator NWDAF, i.e. NWDAF1 in the Figure\xa06.1A.3.2-1. In the request, NWDAF service consumer provides the requested Analytics ID(s), e.g. Analytics ID 1.', '', '\tThe NWDAF service consumer may also provide "time when analytics information is needed" (e.g. T1). It is expected that T1 is equal or greater than the Supported Analytics Delay per Analytics ID of the Aggregator NWDAF (if available). Otherwise, the aggregator NWDAF may reject the analytics request or analytics subscription.', '', '\tOnce receiving the request, the Aggregator NWDAF1 may decide to subscribe data analytics from other NWDAF instances which can provide the requested data analytics. Based on the Analytics ID, there are two cases for the Aggregator NWDAF1 to subscribe data analytics from other NWDAF instances.', '', '3a.\tIf the data analytics requires UE location information, e.g. for the Analytics IDs "UE Mobility", "Abnormal behaviour", or "User Data Congestion", then:', '', '-\t3a-1: (optional) The Aggregator NWDAF1 queries UDM to discover the NWDAF serving the UE, if it is supported.', '', '-\t3a-2: If step\xa03a-1 is not supported, was not executed, or did not return a suitable NWDAF serving the UE, the Aggregator NWDAF1 determines the AMF serving the UE as specified in the clause\xa06.2.2.1, then requests UE location information from the AMF to be used in the query to NRF in step\xa04.', '', 'NOTE:\tIf an Aggregator NWDAF receives an Analytics request for a group of UEs, i.e. the Target of Analytics Reporting set to an Internal Group ID, it performs NWDAF discovery based on location information of all UEs in the group and then requests all discovered NWDAFs to provide the required analytics.', '', '3b.\tIf the data analytics does not require to collect UE location information, e.g. for the Analytics IDs "Service Experience", "NF load information", or "UE Communication", the Aggregator NWDAF1 can determine the NFs to be contacted for data collection as specified in clause\xa06.2.2.1 and then it can retrieve NF service area for each of the data source NF from NRF.', '', '4.\t(conditional) With the data obtained in step\xa03, the Aggregator NWDAF1 queries the NRF for discovering the required NWDAF, by sending an NF discovery request including UE location (e.g. TAI-1) or NF serving area (e.g. TAI list-1) as a filter to NRF and obtains candidates target NWDAF(s) that can provide the required analytics. This step is skipped if a suitable NWDAF was discovered in step\xa03a-1. Additionally the Aggregator NWDAF1 may include in the NF discovery request the Real-Time Communication Indication per Analytics ID to request Supported Delay per Analytics ID per NWDAF instance.', '', '\tDepending on the discovered NWDAF instance(s), there can be two cases:', '', '5a.\tIf a single target NWDAF (e.g. NWDAF2) can provide the requested analytics data, the Aggregator NWDAF (e.g. NWDAF1) can redirect the Nnwdaf_AnalyticsInfo_Request to that target NWDAF or request an analytics subscription transfer to that target NWDAF, depending on the type of the analytics request/subscription received by the NWDAF Service Consumer.', '', '5b.\tIf the Aggregator NWDAF decides to request data analytics from one or more target NWDAFs, the steps 4-9 of the analytics aggregation procedure in clause\xa06.1A.3.1 are executed.', '']</t>
+          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nnwdaf_MLModelTraining_Notify', '', '&lt;b&gt;Description:&lt;/b&gt; NWDAF notifies the consumer instance of the trained ML model that has subscribed to the specific NWDAF service. The NWDAF can also use this service to indicate to consumer it will terminate the ML model training.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt;', '', '-\tNotification Correlation Information: this parameter indicates the Notification Correlation ID that has been assigned by the consumer during ML model training.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt;', '', '-\tSet of the tuple (Analytics ID, ML model Information as defined in clause\xa06.2F.2;', '', '-\tML Correlation ID, when for Federated Learning;', '', '-\tCorresponding Use case context;', '', '-\tTermination Request: this parameter indicates that NWDAF requests to terminate the ML model training, i.e. NWDAF will not provide further notifications related to this request, with cause code (e.g. NWDAF overload, not available for the FL process anymore, etc.);', '', '-\tML Model ID: this parameter identifies the provisioned ML model;', '', '-\tML Model Accuracy: The model accuracy of the global ML model, which is calculate by the FL Client NWDAF using the local training data as the testing dataset;', '', '-\tStatus report of FL training: Accuracy of local model and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension, etc.), which are generated by the FL Client NWDAF during FL procedure;', '', '-\tDelay Event Notification: as defined in clause\xa06.2F.2;', '', '-\tIteration round ID.', '', 'NOTE:\tThe detail reasons in the cause code are up to stage 3.', '', '&lt;b&gt;Outputs, Required:&lt;/b&gt; Operation execution result indication.', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt; None.', '']</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>0.1999750437885491</v>
+        <v>0.2078493480476177</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;6.2C.2.2	General procedure for Federated Learning among Multiple NWDAF Instances&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;7.11.2	Nnwdaf_MLModelTrainingInfo_Request service operation&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2628,47 +2628,47 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>['', '----media/image61.emf----', '', 'Figure 6.2C.2.2-1: General procedure for Federated Learning among Multiple NWDAF', '', '0.\tThe consumer (NWDAF containing AnLF or NWDAF containing MTLF) sends a subscription request to FL server NWDAF to retrieve an ML model, using Nnwdaf_MLModelProvision service as defined in clause\xa07.5 including Analytics ID, ML model metric (e.g., ML model Accuracy), Accuracy reporting interval, pre-determined status (ML model Accuracy threshold or Time when the ML model is needed).', '', 'NOTE\xa01:\tThe ML model Accuracy threshold can be used to indicate the target ML Model Accuracy of the training process, and the FL server NWDAF may stop the training process when the ML model Accuracy threshold is achieved during the training process.', '', '\tIf the consumer (i.e. the NWDAF containing AnLF or NWDAF containing MTLF) provides the Time when the ML model is needed, the FL Server NWDAF can take this information into account to decide the maximum response time for its FL Client NWDAF(s).', '', '1.\tFL Server NWDAF selects NWDAF(s) containing MTLF (FL Client NWDAF(s)) as described in clause\xa06.2C.2.1.', '', '2.\tFL Server NWDAF sends a Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request to the selected NWDAF containing MTLF(FL Client NWDAF) that participates in the Federated learning to perform the local model training and determine the interim local ML model information based on the input parameter in the request from FL Server NWDAF, including ML model metric and initial ML model. The request also includes the maximum response time before which the FL Client NWDAF has to report the interim local ML model information to the FL Server NWDAF.', '', '3.\t[Optional] Each FL Client NWDAF collects its local data by using the current mechanism in clause\xa06.2 of TS\xa023.288\xa0[5] if the Client NWDAF has not local data available already.', '', '4.\tDuring Federated Learning training procedure, each FL Client NWDAF further trains the ML model provided by the FL Server NWDAF based on its own data, and reports the interim local ML model information to the FL Server NWDAF in Nnwdaf_MLModelTraining_Notify or Nnwdaf_MLModelTrainingInfo_Response. The Nnwdaf_MLModelTraining_Notify or Nnwdaf_MLModelTrainingInfo_Response may also include the local ML model metric computed by the FL Client NWDAF and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension of data, etc.) in the FL Client NWDAF.', '', 'NOTE\xa02:\tThe parameters in characteristics of local training dataset are up to the implementation.', '', '\tThe ML model, which is sent from the FL Client NWDAF(s) to the FL Server NWDAF during the FL training process, is the information needed by the FL Server NWDAF to build the aggregated model based on the locally trained ML model(s).', '', '\tIf the FL Client NWDAF is not able to complete the training of the interim local ML model within the maximum response time provided by the FL Server NWDAF, the FL Client NWDAF shall send the Delay Event Notification that include the delay event indication, an optional cause code (e.g. local ML model training failure, more time necessary for local ML model training) and the expected time to complete the training if available to the FL Server NWDAF before the maximum response time elapses.', '', '4a.\t[Optional]If FL Server NWDAF receives notification/response that the FL Client NWDAF is not able to complete the training within the maximum response time, the FL Server NWDAF may send to the FL Client NWDAF an extended maximum response time in Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request, before which the FL Client NWDAF has to report the interim local ML model information to the FL Server NWDAF. Otherwise, the FL Server NWDAF may indicate FL Client NWDAF to skip reporting for this iteration. FL Server NWDAF includes the current iteration round ID in the message to indicate that the request is to modify the training parameters of the current iteration round.', '', '\tAlternatively, the FL Server NWDAF may inform the FL Client NWDAF to cease the ML model training by sending termination request and to report back the current local ML model updates.', '', '5.\tThe FL Server NWDAF aggregates all the local ML model information retrieved at step\xa04, to update the global ML model. The FL Server NWDAF may also compute the global ML model metric, e.g. based on the local ML model metric(s) or by applying the global model on the validation dataset (if available). The FL Server NWDAF may update the global ML model each time a FL Client NWDAF provides updated local ML model information as part of FL or the FL Server NWDAF may decide to wait for local ML model information from all FL Client NWDAF before updating the global ML model.', '', '\tIf the FL Server NWDAF provides the maximum response time for the FL Client NWDAF(s) to provide the interim local ML model information in step\xa02, or the extended maximum response time in step\xa04a, the FL Server NWDAF decides either to wait for the FL Client NWDAF(s) which have not yet provided their interim local ML model within the (extended) maximum response time or aggregates only the retrieved local ML model information instances to update global ML model. The FL Server NWDAF makes this decision, considering the notification/response from the FL Client NWDAF or, if the notification is not received, based on local configuration.', '', '6a.\t[Optional] Based on the consumer request in step\xa00, the FL Server NWDAF sends a Nnwdaf_MLModelProvision_Notify message to update the global ML model metric to the consumer periodically (e.g. a certain number of training rounds or every 10 min) or dynamically when some pre-determined status is achieved (e.g. the ML Model Accuracy threshold is achieved or training time expires).', '', '6b.\t[Optional] The consumer decides whether the current model can fulfil the requirement, e.g. global ML model metric is satisfactory for the consumer and determines to stop or continue the training process. The consumer re-invokes Nnwdaf_MLModelProvision_Subscribe service operation as used in step\xa00 to stop or continue the training process.', '', '6c.\t[Optional] Based on the subscription request sent from the consumer in step\xa06b, the FL Server NWDAF updates or terminates the current FL training process.', '', '\tIf the FL Server NWDAF received a request in step\xa06b to stop the Federated Training process, steps 7 and 8 are skipped.', '', '7.\tIf the FL procedure continues, FL Server NWDAF determines FL Client NWDAF as described in clause\xa06.2C.2.2 and sends Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request that includes the aggregated ML model information to selected FL Client NWDAF(s) for next round of Federated Training.', '', '8.\tEach FL Client NWDAF updates its own ML model based on the aggregated ML model information distributed by the FL Server NWDAF at step\xa07.', '', 'NOTE\xa03:\tThe steps 3-8 should be repeated until the training termination condition (e.g. maximum number of iterations, or the result of loss function is lower than a threshold) is reached.', '', 'When the Federated Training procedure is complete, the FL Server NWDAF requests the FL client NWDAF(s) to terminate the FL procedure by invoking Nnwdaf_MLModelTraining_Unsubscribe service with a cause code that the FL process has finished and optionally with the final aggregated ML model information. Then the FL client NWDAF(s) terminate the local model training, and if the final aggregated ML model information is received from the FL server NWDAF, the FL client NWDAF(s) can store it for further use.', '', 'After the training process is complete, the FL Server NWDAF may send Nnwdaf_MLModelProvision_Notify that includes the globally optimal ML model information to the consumer.', '']</t>
+          <t>['', '&lt;b&gt;Service operation name:&lt;/b&gt; Nnwdaf_MLModelTrainingInfo_Request', '', '&lt;b&gt;Description:&lt;/b&gt; Request information about NWDAF ML model training with specific parameters.', '', '&lt;b&gt;Inputs, Required:&lt;/b&gt;', '', '-\tAnalytics ID as defined in Table 7.1-2.', '', '-\tInteroperability information.', '', '-\tML Model ID: identifies the provided ML model.', '', '&lt;b&gt;Inputs, Optional:&lt;/b&gt;', '', '-\tML Model Information (i.e. file address (e.g. URL or FQDN) of ML Model that needs to update).', '', '-\tML Training Information (i.e. data availability requirement, time availability requirement).', '', '-\tML Preparation Flag.', '', '-\tML Model Accuracy Check Flag.', '', '-\tML Correlation ID.', '', '-\tTermination Request, when terminating the Federated Learning identified by the ML Correlation ID, and optionally indicating the reason, e.g. FL Client NWDAF is unselected by the FL Server NWDAF for the FL process, or the FL process is suspended, etc.', '', '-\tTraining Filter Information.', '', '-\tUse case context.', '', '&lt;b&gt;Outputs Required:&lt;/b&gt; When the request is accepted: Operation execution result indication. When the request is not accepted, an error response with cause code (e.g. NWDAF does not meet the ML training requirements, ML training is not complete, NWDAF overload, not available for the FL process anymore, etc.).', '', 'NOTE:\tThe detail reasons in the cause code are up to stage 3.', '', '&lt;b&gt;Outputs, Optional:&lt;/b&gt;', '', '-\tML Model ID.', '', '-\tSet of the tuple (Analytics ID, ML model Information (i.e., file address (e.g. URL or FQDN) of updated ML Model).', '', '-\tML Correlation ID, when for Federated Learning.', '', '-\tCorresponding Use case context.', '', '-\tStatus report of FL training: local ML model metric and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension of data, etc.), which are generated by the FL Client NWDAF during FL procedure.', '', '-\tDelay Event Notification with the following parameters:', '', '-\tdelay event indication: this parameter indicates that the FL Client NWDAF is not able to complete the training of the interim local ML model within the maximum response time provided by the FL Server NWDAF.', '', '-\t[OPTIONAL] cause code (e.g. local ML model training failure, more time necessary for local ML model training, etc.).', '', '-\t[OPTIONAL] the expected time to complete the training.', '', '-\tglobal ML model metric.', '']</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.1970223201149587</v>
+        <v>0.2046645754111966</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;6.9.4.2	Procedure for QoS Sustainability in a fine granularity area&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;8.12.1	General&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>23288-i20.docx</t>
+          <t>23558-i30.docx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LR4_calculation</t>
+          <t>LR3_configuration</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>['', '----media/image83.emf----', '', 'Figure 6.9.4.2-1: Procedure for "QoS Sustainability" analytics in a fine granularity area', '', '1.\tThe NF consumer requests or subscribes to analytics information on "QoS Sustainability" provided by the NWDAF. The parameters included in the request are defined in clause\xa06.9.1 of TS\xa023.288\xa0[5]. The NF can request statistics or predictions or both.', '', '\tThe consumer provides the TAIs or Cell IDs, and/or fine granularity area (e.g. below cell via longitude/latitude range etc.) in "Location information" when requesting QoS Sustainability analytics. If the AF doesn\'t provide TAIs or Cell IDs, the NWDAF as an 5GC internal NF is expected to obtain such information, i.e. to determine which cells are related to the fine granularity area.', '', '\tThe consumer may optionally provide UE Context or Subscription information such as one or more of the following: device speed or speed range, IMEI or IMEISV or TAC range, equipment type.', '', '2a.\tIf the request is authorized, and in order to provide the requested analytics, the NWDAF decides the AMF(s) based on the TAIs/Cell IDs, and obtains the UE list in the TAs/Cells from AMF by invoking Namf_EventExposure_Subscribe service operation using event ID "Number of UEs present in a geographical area" as described in TS\xa023.502\xa0[3].', '', '2b.\tThe NWDAF invokes Namf_EventExposure_Subscribe service operation to get the update of the UE list using event ID "UE moving in or out of Area of Interest" as described in TS\xa023.502\xa0[3].', '', '3.\tThe NWDAF initiates the LCS Service Request to the GMLC to get the location and optionally the speed of UEs from UE list provided by the AMF in step\xa02.', '', '4.\tThe GMLC initiates the UE location service procedure and gets the location of the UEs.', '', '5.\tThe GMLC provides location information for each UE in the UE list to the NWDAF.', '', "6.\tFrom the list of UE locations returned by the GMLC, the NWDAF identifies the UEs located in fine granularity area by comparing the UEs' locations to the fine granularity area, provided in step\xa01.", '', '7.\tThe NWDAF invokes Namf_EventExposure_Subscribe service operation to get the serving SMF for the UE.', '', '8.\tBased on the serving SMF in step\xa07, the NWDAF invokes Nsmf_EventExposure_Subscribe service operation to get the UPF information for the UE.', '', '9.\tThe NWDAF may collect QoS information either from the UPF directly, or subscribe to the UPF via the SMF. The QoS information may include the bandwidth, packet delay for the UE and the information on the serving UPF node id.', '', '10.\tOptionally, the NWDAF may collect additional information for the UE Context or UE Subscription from the UDM such as PEI (if available). PEI may be used to retrieve, from GSMA database, additional information such as IMEI or IMEISV or TAC range, equipment type. Such additional information may be used by NWDAF to add more information to the collected measurements and filter those measurements that are applicable to the UE Device and Context Information for which analytics are requested by the service consumer.', '', '11.\tThe NWDAF verifies whether the triggering conditions are met and derives the requested analytics. The NWDAF can detect the need for notification based on comparing the requested analytics of the target 5QI against the Reporting Threshold(s) provided by the consumer in any cell over the requested Analytics target period.', '', '12.\tThe NWDAF provides the response or notification on "QoS Sustainability" to the NF consumer.', '', 'NOTE\xa01:\tNWDAF may decide to ignore some of the filters if collected measurements are not sufficient to derive meaningful analytics.', '', 'NOTE\xa02:\tIn order to reduce the amount of information collected per measurement point, the additional information from UDM may only be collected for the events of GBR unfulfillment. In this way the additional analytics filter information may only be supported for 5QI of resource type GBR and for events of GBR unfulfillment.', '']</t>
+          <t>['', 'The EES may trigger the EAS instantiation dynamically due to e.g., EAS discovery request, EAS discovery subscription request, UE mobility, upon receiving EEC Registration request containing AC profile or upon receiving an EAS information provisioning request.', '', 'Upon receiving the EAS discovery request with EAS discovery filter from the EEC or the S-EES during the procedures for EAS discovery or ACR, the EES may fail to discover and select the EAS that matches the UE location and the requesting application characteristics specified in table\xa08.5.3.2-2 due to no EAS is available or instantiated. The EES may trigger the ECSP management system (which is specified in TS 28.538 [22]) to instantiate the EAS serving the AC in the EDN corresponding to the EAS that can be instantiable before returning the EAS information to the EEC or S-EES, based on the information about instantiable EASs which can be dynamically instantiated at the associated EDN. If EAS selection is performed by the EES, the selected EAS is dynamically instantiated if applicable.', '', 'Based on the information about instantiable EASs, the EES may maintain the EAS instantiation status transition (e.g., among instantiated, instantiable but not instantiated yet, or instantiation in progress) via the EAS (de-)registration procedure or the dynamic EAS instantiation triggering procedure. The EAS instantiation status can be provided to the EEC using the Instantiable EAS Information IE of EAS discovery response and EAS discovery notification for the use of EAS selection by the EEC.', '', 'Upon receiving EEC Registration request with bundle EAS information the EES may determine that only a subset of the EAS(s) in the bundle are registered and instantiated. If only a subset of bundle EASs is determined, the EES may trigger the ECSP management system to instantiate the subset of remaining EASs corresponding to the bundle that can be instantiable before responding to the registration request. ', '', 'Upon receiving one or more EAS discovery subscription request(s) for the availability of an EAS, EES may determine if there is a need for EAS instantiation based on the information about instantiable EASs. If such a need for EAS instantiation determined, EES may send a report for a need of the EAS instantiation to the ECSP management system to consider instantiating the requested EAS by invoking an MnS API of the ECSP management system. When the requested EAS has been instantiated, the EES may obtain the EAS profile during the EAS registration procedure and notify the availability change event of the requested EAS with the EAS profile to the corresponding EECs via the EAS discovery notification procedure as specified in the clause 8.5.2.3.', '', 'Upon receiving the EAS information provisioning request, the EES may trigger the ECSP management system to instantiate the EAS in the EDN before returning the EAS information to the EEC.', '', 'NOTE\xa01:\tThe ECSP management system is responsible for the authorization of the dynamic EAS instantiation.', '', 'NOTE\xa02:\tThe ECSP management system can provide the information about instantiable EASs to the EES. Such a mechanism is out of scope of this release of the present document.', '', 'NOTE\xa03:\tWhen determining a need for EAS instantiation, EES can further consider the requested service characteristics (e.g. location, latency) by EEC or service load/capacity (e.g. number of service sessions) of EAS, which is upon implementation and out the scope of this specification.', '', "Editor's note:\tThe MnS APIs for EAS instantiation request/notification should be provided by the ECSP management system, which is the scope of SA5.", '']</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.1887529885519981</v>
+        <v>0.2064123412346142</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>&lt;h4&gt;7.17.3.1	MCVideo adaptation during group communication procedure – transmitting client triggered&lt;/h4&gt;</t>
+          <t>&lt;h3&gt;8.2.2	Procedure on VAL server performance analytics&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>23281-i40.docx</t>
+          <t>23436-i00.docx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2678,47 +2678,47 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>['', 'Figure\xa07.17.3.1-1 describes the procedure for transmitting MCVideo client triggered MCVideo communication parameters update in on-network. For simplicity, only one receiving user is shown in the figure. This procedure is applicable to only one MCVideo transmitting user during the MCVideo group call, e.g., broadcast group call. ', '', 'NOTE:\tThe MCVideo adaptation for MCVideo group communication allows multiple transmitting users are not specified in this release.', '', 'Pre-conditions:', '', '1.\tMCVideo client 1 and MCVideo client 2 are the group communication participants, and the MCVideo client 1 is transmitting video in the MCVideo group communication.', '', '----media/image90.emf----', '', 'Figure\xa07.17.3.1-1: Transmitting user triggered MCVideo adaptation in group communication', '', '1.\tMCVideo client 1 sends MCVideo communication parameter update request to the MCVideo server to adjust the video communication parameters due to network conditions changes detected, e.g., through packet loss or packet delay. The new parameters including codec, resolution, frame rate and etc. are included.', '', '2.\tMCVideo server checks whether the MCVideo user of MCVideo client 1 has the authorization to update the MCVideo communication parameters.', '', '3.\tWhen authorized, MCVideo server sends the MCVideo communication parameter update request to the MCVideo client 2.', '', '4.\tThe MCVideo user of MCVideo client 2 is notified about the changes of MCVideo communication parameters.', '', '5.\tThe MCVideo client 2 accepts the request, and sends the MCVideo communication parameter update response to the MCVideo server.', '', '6.\tThe MCVideo server sends the MCVideo communication parameter update response to the MCVideo client 1 with the result.', '', '7.\tThen, the MCVideo group communication applies the new MCVideo communication parameters.', '']</t>
+          <t>['', 'Figure\xa08.2.2-1 illustrates the procedure where the VAL server performance analytics are performed based on data collected from the ongoing VAL sessions as well as data from the DN (VAL server, DN database or networking stack at the DN). ', '', 'Pre-conditions:', '', '1.\tADAE Client (ADAEC) is connected to ADAES.', '', '2.\tData producers (e.g. A-ADRF, VAL Client) may be pre-configured with data producer profiles for the data they can provide. ADAES and ADAEC have discovered available data producers and their data producer profiles.', '', '', '', '----media/image9.emf----', '', 'Figure\xa08.2.2-1: ADAES support for VAL server performance analytics', '', '1.\tThe consumer of the ADAES analytics service sends a VAL performance analytics subscription request to ADAES.', '', '2.\tThe ADAES sends a subscription response as a positive or negative acknowledgement to the consumer of the analytics service.', '', '3.\tThe ADAES maps the analytics event ID to a list of data collection event identifiers, and a list of data producer IDs. Such mapping may be preconfigured by OAM or may be determined by ADAES based on the analytics event type / vertical type and/or data producer profile.', '', '4.\tThe ADAES sends a data collection subscription request to the Data Producers (at the DN side or UE side) with the respective Data Collection Event ID and the requirement for data collection. Such data producers include the A-ADRF, the A-DCCF, the VAL server, SEALDD server, or the VAL UEs.', '', '5.\tThe Data Producer(s) sends a subscription response as a positive or negative acknowledgement to the ADAES.', '', 'NOTE:\tThe ADAES acting as AF may also subscribe to NEF/SMF/PCF/NWDAF to monitor network/UE situation or network data analytics required for the application data analytics event.', '', '6.\tThe ADAES based on subscription, may receive offline stats/data from A-ADRF on the VAL server performance based on the analytics/data collection event ID. Such offline data can be average/peak throughput, average/maximum e2e delay, jitter, av. PER, availability, VAL server load, number of failed transactions, and can be for a given area and time of the day (based on the time/area of the request).  ', '', 'A session starts between the VAL server #1 and a UE (this could happen for more than one UEs)', '', '7.\tThe Data Producer at DN side, starts collecting data from the data generating entities, e.g. real-time networking or application data (from networking start at DN or VAL server itself), such as RTT, PER, throughput. ', '', '8a.\tThe Data Producer sends the real-time data to the ADAES, where the data correspond to the data collection ID or the analytics event ID for which the ADAES subscribed.', '', '8b.\tThe ADAES may receive also data (periodically or if a threshold is reached based on configuration) from the application of the UE within the ongoing session (via ADAEC). Such data can be about the RTT, average/peak throughput, jitter, QoE measurements (MOS, stalling events, stalling ratios, etc), QoS profile load, VAL server load, etc.', '', '9.\tWhen the VAL UE session with VAL server finishes, the ADAEC notifies the ADAEC of the completion of the reporting.', '', '10.\tThe ADAES abstracts or correlates the data based on the analytics event and the data collection configuration. Such correlation can be filtering of data for the same metrics but with different granularities or be combining/aggregating the data of segments of the end-to-end path (end to end is between VAL client and server). The outcome is an abstracted/correlated/filtered set of data. ', '', '11.\tThe ADAES derives application layer analytics on VAL server #1 performance, based on the analytics ID and type of request. Such analytics can be stats or prediction for a given area/time and based on the event type for a given network configuration.', '', '12&lt;b&gt;.&lt;/b&gt;\tThe ADAES sends the analytics to the consumer, where these analytics include the VAL server 1 predicted or statistic performance for a given area and time horizon, including also the confidence level, whether offline/online analytics were used.', '']</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.2225319960388197</v>
+        <v>0.2026658624797028</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>&lt;h5&gt;10.7.3.11.1	General&lt;/h5&gt;</t>
+          <t>&lt;h3&gt;8&lt;span style="font-size:20pt"&gt;.&lt;/span&gt;3.2	Procedure&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23436-i00.docx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>['', 'Application layer FEC can be used to recover the packet losses when delivering a MC service over MBMS, to reach its required level of QoS.', '', 'Support of FEC is optional for the MC service servers and MC service clients', '', 'Adding FEC introduces an extra latency in the end to end media transport. This extra latency is bounded to fulfil the low latency requirements for mission critical services.', '', 'FEC can be applied by the BM-SC if required by the MC service server (subclause 10.7.3.11.2), or directly by the MC service server (subclause 10.7.3.11.3). FEC is decoded by the MC service client. Either method is independent of the other.', '', 'The MC service server may consider the listening status reports from previous MBMS bearer quality detection procedures (subclause 10.7.3.6) to adjust the FEC parameters when delivering over a new MBMS bearer.', '']</t>
+          <t>['', 'Figure\xa08.3.2-1 illustrates the procedure where the VAL server performance analytics are performed based on data collected from the ongoing VAL sessions as well as data from the DN (VAL server, DN database or networking stack at DN) for a specific slice. ', '', 'Pre-conditions:', '', '1.\tADAEC is connected to ADAES.', '', '----media/image11.emf----', '', 'Figure\xa08.3.2-1: ADAES support for slice-related performance analytics', '', '1.\tThe consumer of the ADAES analytics service sends a subscription request to ADAES and provides the analytics event ID e.g. "slice perf prediction", the target S-NSSAI, DNN, NSI ID, the time validity and area of the request, the required confidence level, whether offline and/or online analytics are needed etc.', '', '2.\tThe ADAES sends a subscription response as an ACK to the consumer.', '', '3.\tThe ADAES subscribes to the Data Sources with the respective Data Collection Event ID and the requirement for data collection related to the request slice(s). Such requests can be towards:', '', '-\tOAM for providing PM data related to the requested slice / NSI. Alternatively, if the interaction to OAM happens via NSCE layer (see TS 23.435 [6]), such subscription can be performed to NSCE (where ADAES is acting as VAL server).', '', '-\tNWDAF for providing slice related analytics for the given area and time horizon (indicated in step 1). Such analytics can be the slice load level related network data analytics, or the service experience related network data analytics for a given slice', '', '4.\tThe ADAES based on subscription, receives PM data notification from OAM or from NSCE (via OAM APIs or NSCE-S APIs)', '', '5.\tThe ADAES based on subscription, receives the requested NWDAF analytics outputs. Such analytics can be:', '', '-\tnetwork slice or NSI statistics or predictions (clause 6.3.3 of TS 23.288 [4]) ', '', '-\tper slice instance service experience stats or predictions (clause 6.4.3 of TS 23.288 [4])', '', '6.\tThe ADAES can also provide analytics on the VAL session performance (based on the procedure of clause 8.2.2 step 11 or clause 8.2.3 step 12) and filters the analytics only for the sessions which are connected to that requested slice for the area of interest.', '', '7.\tThe ADAES abstracts or correlates the data/analytics from steps 4-6 and provides analytics on the slice or NSI performance for the the target VAL application/server. For example, such analytics can be about the min/average/max predicted RTT / end to end latency for the VAL application/server if this server uses a given slice/NSI (or for a list of given slices) within an area of interest.', '', '8&lt;b&gt;.&lt;/b&gt;\tThe ADAES sends the analytics to the consumer, as a slice-specific performance analytics notification message.', '', '', '']</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.2011223894979726</v>
+        <v>0.1933382058813341</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>&lt;h5&gt;10.7.3.11.2	FEC encoding by the BM-SC&lt;/h5&gt;</t>
+          <t>&lt;h3&gt;8&lt;span style="font-size:20pt"&gt;.&lt;/span&gt;4.2	Procedure&lt;/h3&gt;</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23436-i00.docx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2728,47 +2728,47 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>['', 'In this procedure, depicted in figure\xa010.7.3.11.2-1, the MC service server asks the BM-SC to apply FEC to a set of medias, transported by a MBMS bearer, using the Setup FEC request.', '', 'This procedure can be applied when using pre-established MBMS bearers (10.7.3.1) or dynamic MBMS bearers (10.7.3.2).', '', 'Pre-condition:', '', '1.\tThe MC service server has already activated a MBMS Bearer, with the MBMS Bearer request specified in 3GPP\xa0TS\xa023.468\xa0[18].', '', '', '', '', '----media/image86.emf----', '', 'Figure\xa010.7.3.11.2-1: Application of FEC by the BM-SC', '', '1.\tThe MC service server decides to set up FEC for a set of MC service media flows. The request is done on the MB2-C reference point. It includes the following elements: the TMGI of the bearer transporting those media, the media descriptions (codecs, transport protocols, bitrates, destination ip addresses and ports), the identification of the FEC repair packet flow (IP destination and port), an upper bound to the additional latency resulting to FEC application.  The MC Service server may perform this request several times to protect separately different sets of media transported within the same MBMS bearer.', '', '2.\tIf the BM-SC can satisfy the request, the Setup FEC response includes a modified list of media information and FEC information. The response also includes an identifier to the FEC process instance, which can be used to release the application of FEC for these media flows.', '', 'NOTE\xa01:\tSource media packets may be modified by the application of FEC (e.g. addition of a footer of header), leading to a modification of the delivery protocol to be announced within the media information.', '', 'NOTE\xa02:\tThe Release FEC request is not shown on the figure.', '', '3.\tThe MC service server announces the MBMS bearer to the MC service client with the MBMS bearer announcement procedure, including the modified list of medias information and FEC information within the SDP information.', '', '4.\tWhen the MC service server decides to transmit the MC service media flow for a group communication, the MC service server sends to the group a message identifying the MC service media flow and the TMGI of the MBMS bearer, such as the MapGroupToBearer message for MCPTT, specified in 3GPP\xa0TS\xa023.379 [16], or the MapGroupToBearer message for MCVideo, specified in 3GPP TS 23.380 [12].', '', '5.\tThe MC service server sends the downlink media to the BM-SC on the MB2-U reference points and according to 3GPP\xa0TS\xa023.468\xa0[18].', '', '6. The BM-SC performs FEC encoding of the downlink media in accordance to the announced FEC algorithm and parameters and delivers it over MBMS. ', '', '7. The MC service client performs FEC decoding of the encoded media flows in accordance to the announced FEC information and delivers the decoded flows to the media player.', '', "Editor's note: the need for a MC service server ability to turn off/on the production of repair packets on the BM-SC during the media transmission must be discussed, and may impact the procedure.", '']</t>
+          <t>['', 'Figure\xa08.4.2-1 illustrates the procedure where the VAL session performance analytics are performed based on data collected from the ongoing VAL UE-to-UE sessions.', '', 'Pre-conditions:', '', '1.\tADAECs are connected to ADAES.', '', '', '', '----media/image12.emf----', '', 'Figure\xa08.4.2-1: ADAES support for VAL session performance analytics', '', '1. The consumer of the ADAES analytics service sends a subscription request to ADAES and provides the analytics event ID e.g. "VAL UE to UE session prediction", the target VAL UE ID or group of UE IDs, the VAL session / service ID, the time validity and area of the request, the required confidence level, exposure level for providing UE to UE analytics. Such request can also include whether the analytics notification shall be periodic or based on an expected application QoS change (in that case also the thresholds can be provided at the request)', '', '2.\tThe ADAES sends a subscription response as an ACK to the consumer.', '', '3.\tThe ADAES selects the corresponding ADAEC #1 of the VAL UE 1 where the session performance analytics need to be performed. Such UE can be for example a capable and authorized UE from the involved VAL UEs within the service or group, e.g. a group lead.', '', '4.\tThe ADAES sends a UE to UE analytics request to the ADAEC #1 with the analytics event ID and the configuration of the reporting required (e.g., periodic, based on threshold or event). Such request also includes the application QoS attributes to be analyzed (latency, jitter, PER,..)A session starts between the VAL UE #1 and a VAL UE #2 (or more VAL UEs). ', '', '5.\tThe ADAEC #1 starts collecting data from the corresponding VAL UE(s) based on the request.&lt;span style="color:FF0000"&gt; &lt;/span&gt;Such data can be about the latency, throughput, jitter, QoE measurements, PQI load, etc.  The data can be collected by ADAEC #1 from other ADAECs via ADAE-C interface, or from the VAL clients (VAL client to VAL client interaction is out of scope).', '', '6.\tThe ADAEC either detects or predicts an application QoS change (depending on the authorization of ADAEC to perform analytics). Such change can be for example an application QoS downgrade related to the UE-to-UE session latency, or the PER/channel losses higher than a predefined threshold, for a given time horizon with a certain confidence level.', '', '7.\tThe ADAEC sends the analytics to the ADAES in a UE-to-UE analytics response message.', '', '8.\tThe ADAES based on the received response, confirms/verifies the analytics received or provides analytics (in case that data were reported) for the UE-to-UE session. Such analytics can be about predicting the application QoS change for the UE-to-UE session. ', '', '9&lt;b&gt;.&lt;/b&gt;\tThe ADAES sends the derived analytics notification to the consumer.', '', 'NOTE:\tThe mechanism for analytics collection from the UE side (steps 4, 7) shall align with the SA4 mechanism for generic data collection from the UE (TS 26.531 [3]).', '']</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.2111417415663173</v>
+        <v>0.2027525759300335</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>&lt;h5&gt;5.4.1.1.2	Deriving PC5 QoS parameters and assigning PFI for PC5 QoS Flow&lt;/h5&gt;</t>
+          <t>&lt;h4&gt;14.3.13.2	Request and Select Background Data Transfer Policy &lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>23287-i00.docx</t>
+          <t>23434-i50.docx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>LR2_payload</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>['', 'The following description applies to for both network scheduled operation mode and UE autonomous resources selection mode.', '', 'When a service data packet or request from the V2X application layer is received, the UE determines if there is any existing PC5 QoS Flow matching the service data packet or request, i.e. based on the PC5 QoS Rules for the existing PC5 QoS Flow(s).', '', 'If there is no PC5 QoS Flow matching the service data packet or request, the UE derives PC5 QoS parameters defined in clause\xa05.4.2 as below:', '', '-\tIf the application layer provides the V2X Application Requirements for the V2X service type (e.g. priority requirement, reliability requirement, delay requirement, range requirement), the V2X layer determines the PC5 QoS parameters based on the V2X Application Requirements;', '', '-\tOtherwise, the V2X layer determines the PC5 QoS parameters based on the mapping of the V2X service type to PC5 QoS parameters defined in clause\xa05.1.2.1.', '', 'NOTE\xa01:\tDetails of V2X Application Requirements for the V2X service type is up to implementation and out of scope of this specification.', '', 'After deriving the PC5 QoS parameters, the UE performs the following:', '', '-\tIf there is no existing PC5 QoS Flow that fulfils the derived PC5 QoS parameters:', '', '-\tThe UE creates a new PC5 QoS Flow for the derived PC5 QoS parameters; and', '', '-\tThe UE then assigns a PFI and derives PC5 QoS Rule for this PC5 QoS Flow.', '', '-\tOtherwise, the UE updates the PC5 Packet Filter Set in the PC5 QoS Rule for such PC5 QoS Flow.', '', 'NOTE\xa02:\tIt is expected that the application layer is capable of differentiating traffic from different V2X services that is transported within the same PC5 QoS Flow.', '', 'For V2X communication over NR PC5 reference point, the PC5 QoS Flow is the finest granularity of QoS differentiation in the same destination identified by Destination Layer-2 ID. User Plane traffic with the same PFI receives the same traffic forwarding treatment (e.g. scheduling, admission threshold). The PFI is unique within a same destination.', '']</t>
+          <t>['', 'Figure 14.3.13.2-1 depicts a general procedure for the request and configuration of traffic policies for BDT initiated by a request from a VAL Server. ', '', '----media/image149.emf----', '', 'Figure 14.3.13.2-1: General Procedure for configuration of Background Data Transfer ', '', '1.\tA VAL Server requests the NRM Server to negotiate with the 3GPP network a background data transfer policy.', '', 'The request includes expected data volume, expected number of UEs, expected time window for the background data transfer. The request may also include group ID, geographic information for the UEs, a request expiration time, guidance for policy selection. If guidance for policy selection is not included, the  VAL Server indicates if the NRM Server may choose independently from among multiple transfer policies.', '', '2.\tBased on the request expiration time and Service Provider policies, NRM Server may determine to delay interactions with the 3GPP network in order to negotiate on behalf of multiple VAL Servers.', '', 'The NRM Server performs the resource management of background data transfer procedure described in 3GPP\xa0TS\xa023.502\xa0[11] clause\xa04.16.7.2. The procedure requires that expected data volume, expected number of UEs, and expected time window are provided by the NRM Server. If the NRM Server determined to negotiate on behalf of multiple VAL Servers, the parameters included reflects a superset of the individual VAL Server requests.', '', 'NOTE\xa01:\tThe NRM Server determines to negotiate on behalf of multiple VAL Servers based on implementation options and local policies. For example, if the request expiration time and expected time window are sufficiently large and, respectively, far away in time, the NRM Server may be allowed to delay the negotiations with the 3GPP network in case another request is received, targeting the same group of UEs. If another request is received with expected time windows sufficiently close and if the guidance for policy selection allows, a single policy/time window may be negotiated instead. This allows the UE group to wake up only once for multiple background data transfers.', '', 'The 3GPP network determines one or more applicable transfer policies based on the requesting Background Data Transfer parameters. A list of transfer policies is provided to the NRM Server. Each transfer policy includes mandatory Reference ID, charging rating group reference and allocated time window and optional maximum UL and DL bandwidth. The NRM Server uses ASP policies and the transfer selection guidance (if available) to select a policy. The NRM Server informs the 3GPP Network of the selected transfer policy.', '', 'NOTE\xa02:\tBased on 3GPP TS 23.503 [12]  clause 6.1.2.4. it is assumed that the NRM server is configured to understand the charging rating group reference based on agreements with the operator.', '', 'NOTE\xa03:\tThe NRM server sets the warning notification based on local policies.', '', 'Editor\'s Note: Policy selection guidance options such as "lowest cost", "highest throughput", etc. are to be determined in the normative phase.', '', '3.\tThe NRM Server responds to the VAL Server, providing the Reference ID and allocated time window of the background data transfer policy.', '']</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.1995064642144057</v>
+        <v>0.1950966774989358</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>&lt;h5&gt;7.5.2.10.2	Procedure&lt;/h5&gt;</t>
+          <t>&lt;h4&gt;14.3.2.13	end-to-end QoS management request &lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>23282-i40.docx</t>
+          <t>23434-i50.docx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2778,61 +2778,4136 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>['', 'The procedure in figure\xa07.5.2.10.2-1 describes the case where a MCData user is initiating group standalone data communication for sending a file to multiple MCData users, with or without download completed report request.', '', 'Pre-conditions:', '', '1.\tThe MCData users on the MCData client 1 to n belong to the same group and are already registered for receiving MCData service and affiliated.', '', '2.\tThe file to be distributed is uploaded to the media storage function on the MCData content server using the procedure defined in subclause\xa07.5.2.2.', '', '----media/image44.emf----', '', 'Figure\xa07.5.2.10.2-1: Group standalone FD using the MBMS download delivery method', '', '1-3.\tSteps 1-3 are the same as in the procedure for Group standalone FD using HTTP (7.5.2.6).', '', '4.\tThe MCData server executes the procedure described in subclause\xa07.3.5. The MCData server defines, in the MBMS session properties (subclause 5.4 of 3GPP\xa0TS\xa026.348\xa0[19]), the ingest mode to provide the file into the BMSC via xMBU. As described in clause\xa07.3.5.3.3, the MCData server decides how the file stored in the MCData content server is provided for distribution over the MBMS session.', '', 'If the pull ingest mode is defined, the MCData server may provide in this step the file list. As described in 3GPP\xa0TS\xa026.348\xa0[19], the file list includes, among other information, the file URL to be used by the BMSC to fetch the file and the earliest fetch time. The earliest fetch time may be configured with a long enough delay so that the MBMS session is established and steps 6 to 8 are executed before the delivery over MBMS. The MCData server can also update the MBMS session with the file list in a later step.', '', 'If the push ingest mode is defined, the MCData server obtains the URL from the BMSC to be used to push the file via xMBU. The MCData server ingests the content into the BMSC after the MBMS session is established and steps 6 to 8 are performed.', '', '5.\tThe MCData server initiates the MCData group standalone FD over MBMS request towards each MCData user determined in step 3. The request is sent over unicast or within an MBMS bearer for application level control signalling.', '', '6.\tThe receiving MCData clients 2 to n notify the users about the incoming MCData group standalone FD request (including file metadata, if present).', '', '7.\tThe MCData clients 2 to n automatically send accepted MCData group standalone FD response when the incoming request included mandatory download indication.', '', 'NOTE\xa01:\tWhen the UE is in idle mode, MCData clients may skip step 8. ', '', 'NOTE 2:\tIf the pull ingest mode was defined in step 5 and the file list has not been provided yet, the MCData server updates the MBMS session with the file list. If the push ingest mode was defined, the MCData server can start pushing the file for distribution over MBMS.', '', '8.\tThe MCData server forwards the MCData group standalone FD responses to the MCData client 1.', '', 'NOTE\xa03:\tStep 8 can occur at any time following step 6, and prior to step 10 depending on the conditions to proceed with the file transmission.', '', '9.\tThe MCData clients receive the file delivered over MBMS. ', '', '10.\tIf losses occurred during the file delivery over MBMS, the MCData clients may download the missing parts using the procedures defined in subclause\xa07.5.2.3.', '', 'NOTE\xa04:\tIf the file is not successfully received over MBMS, e.g. due to a poor MBMS reception quality, the media storage client of the MCData client(s) can download the file using the procedure defined in subclause\xa07.5.2.3.', '', '11.\tThe MCData clients, after reception, initiate MCData download completed reports for reporting file download completed, if requested by the user at MCData client 1. ', '', '12.\tThe MCData file download completed reports from the MCData clients may be stored by the MCData server for download history interrogation from authorized MCData users. The MCData file download completed report from each MCData user may be aggregated.', '', '13.\tAggregated or individual MCData download completed reports are sent by the MCData server to the MCData user at MCData client 1.', '']</t>
+          <t>['', 'Table\xa014.3.2.13-1 describes the information flow end-to-end QoS management request from the NRM client to the NRM server.', '', 'Table\xa014.3.2.13-1: end-to-end QoS management request', '', 'Information element', '', 'Status', '', 'Description', '', 'List of VAL UEs or VAL Group ID', '', 'M ', '', 'List of VAL UEs or the group of VAL UEs for whom the end-to-end QoS management occurs', '', '', '', '&amp;gt;VAL UE/user ID', '', 'M', '', 'Identity of the VAL UE', '', '', '', '&amp;gt; IP address', '', 'O', '', 'IP address of the VAL UE', '', '', '', 'VAL service ID', '', 'O', '', 'The VAL service identity for whom the end-to-end QoS management occurs. ', '', 'End-to-end QoS requirements', '', 'O', '', 'The application QoS requirements / KPIs (latency, error rate, ..) for the end-to-end session.', '', '', '', 'This may optionally include information which will support the NRM server to identify the per session QoS requirements (e.g. a flag indicating the use of HD video for assisting the end-to-end session, a video resolution/encoding required for the HD video). ', '', 'Service area', '', 'O', '', 'The area where the QoS management request applies. This can be geographical area, or topological area.', '', 'Time validity', '', 'O', '', ' The time of validity of the requirement.', '', '', '']</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0.2113543178603474</v>
+        <v>0.2290208650975788</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>&lt;h6&gt;10.7.3.9.2.1	MBMS bearer coordination independent on broadcasted media&lt;/h6&gt;</t>
+          <t>&lt;h4&gt;14.3.2.15	QoS downgrade indication&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23434-i50.docx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LR3_configuration</t>
+          <t>LR4_calculation</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>['', 'The procedure in this sub clause may be used when two or more MC service servers are serving users in the same area and are configured to share MBMS bearers for that specific area. The MC service servers may be of the same kind or different kind. The MC service servers are not participating in the same group call, which means that each MC service server broadcast media independently of each other.', '', 'Pre-conditions:', '', '-\tAll MC service servers are configured with the contact information of those MC service servers that are configured to take the MBMS bearer control role.', '', '----media/image83.emf----', '', 'Figure 10.7.3.9.2.1-1: Multiple server MBMS procedure', '', '1.\tThe MC service server 1 evaluates whether multicast is desired for each service area in which MC service group members are located, based upon the locations, affiliation status and other factors.', '', '2.\tThe MC service server 1 determines whether another MC service server has already established a bearer with coverage for the MBMS service area where multicast is desired. To do this, the MC service server 1 consults a pre-configured list of MC service servers and sends them a discover bearer request. This request may be sent to several MC service servers.', '', 'NOTE:\tMC service servers of the same type can be configured to discover bearers from a single server. The single server then becomes a centralized entity for MBMS bearer control for the MC service. Similarly, all MC service servers of all types can be configured to discover bearers from a single server. The single server then becomes a centralized MBMS bearer controller for all MC services.', '', '3.\tThe MC service server 2 (MBMS bearer control role) responds with a discover bearer response indicating whether there is an MBMS bearer available in the specific MBMS service area with the requested bandwidth. The discover bearer response message includes the TMGI of the bearer that is shared between the MC service servers. If the bearer of interest has insufficient bandwidth, the polling MC service server 1 may resort to unicast, or may allocate another bearer for the congested area. If a duplicate bearer is allocated for the same area, the bearer should not be shared with other servers and may be torn down as soon as the congestion on the original bearer clears up, in order to conserve resources.', '', 'For any MBMS service areas not covered by another MC service server, the MC service server 1 prepares to distribute media to those MBMS service areas via multicast by setting up a bearer. The bearer set up by the MC service server 1 may then become available for other MC service servers (controlling role) for other MC service groups. ', '', '4.\tThe MC service server 1 performs the MBMS bearer announcement and the MBMS listening reporting according relevant procedures specified in this specification. If the MC service server 2 is authorized to receive MBMS related location information from the users utilizing the services from MC service server 1, the MC service server 2 may optionally do the MBMS bearer announcement and handling the listening reports on behalf of MC service server 1. Listening reports shall in this case be sent to both MC service server 1 and MC service server 2.', '', '5.\tThe MC service server 1 sends a media distribution request to the MC service server 2 (MBMS bearer control role). The media distribution request is sent to reserve the specified capacity in the MBMS bearer.', '', '6.\tMC service server 2 (MBMS bearer control role) sends a media distribution response to the MC service server 1 indicating whether the request can be supported and supplies details about the bearer.', '', '7.\tThe MC service server 1 establishes a group communication session via the bearer, informing MBMS connected MC service clients 1 and 2 that a group communication session is about to start on the MBMS bearer. This step is equivalent to MapGroupToBearer in MCPTT.', '', '8.\tMC service client 2 sends media on the uplink to the MC service server 1', '', '9.\tThe MC service server 1 forwards the media to MC service server 2 (MBMS bearer control role). ', '', '10.\tThe MC service server 2 (MBMS bearer control role) distributes the media to MBMS served MC service client 1 via multicast.', '', '11.\tThe MC service server 1 sends a media distribution release request, informing the MC service server 2 (MBMB bearer control role) to request the MC service server 2 (MBMS bearer control role) to release the capacity that was reserved in step 5. ', '', '12.\tThe MC service server 2 (MBMS bearer control role) respond to the request by sending a media distribution release request.', '']</t>
+          <t>['', 'Table\xa014.3.2.15-1 describes the information flow QoS downgrade indication from the NRM client to the NRM server.', '', 'Table\xa014.3.2.15-1: QoS downgrade indication', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL UE ID', '', 'M', '', 'The identifier of the VAL UE which indicates the QoS downgrade.', '', 'QoS downgrade report ', '', 'M', '', 'The report including the expected or actual QoS / QoE parameters which were downgraded (i.e. latency, throughput, reliability, jitter). This report may be configured by the end-to-end QoS management response message.', '', '', '']</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.2201457440185461</v>
+        <v>0.2173243608490726</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>&lt;h6&gt;10.7.3.9.2.2	MBMS bearer coordination within one group call&lt;/h6&gt;</t>
+          <t>&lt;h4&gt;14.3.2.20	Unicast QoS monitoring subscription request&lt;/h4&gt;</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>23280-i60.docx</t>
+          <t>23434-i50.docx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.20-1 describes the information flow from the VAL server to the network resource management server for unicast QoS monitoring subscription request.', '', 'Table\xa014.3.2.20-1: Unicast QoS monitoring subscription request', '', 'Information element', '', 'Status', '', 'Description', '', 'Requester Identity ', '', 'M', '', 'The identity of the VAL server performing the request.', '', 'List of VAL UE IDs', '', '', '', 'O', '', '(see\xa0NOTE\xa01 NOTE\xa04)', '', 'List of VAL UEs whose QoS monitoring data is requested.', '', 'VAL group ID', '', '', '', 'O', '', '(see\xa0NOTE\xa01, NOTE\xa04)', '', 'The group ID used for the VAL group for which QoS monitoring data is requested.', '', 'List of VAL stream IDs', '', '', '', 'O', '', '(see\xa0NOTE\xa01, NOTE\xa04)', '', 'List of VAL streams for which QoS monitoring data is requested.', '', 'Measurement requirements', '', 'O', '', 'It describes the requirements on the QoS measurements.', '', '&amp;gt; type of data', '', 'M', '', 'At least one of the following measurement index shall be provided.', '', '&amp;gt;&amp;gt; packet delay', '', 'O', '', 'UL/DL/RT packet delay.', '', '', '', 'For VAL stream, the packet delay means measurement from a source UE to a target UE.', '', '&amp;gt;&amp;gt; packet loss rate', '', 'O', '', 'Average packet loss rate.', '', '&amp;gt;&amp;gt; data rate', '', 'O', '', 'Average data rate and/or maximum data rate.', '', '&amp;gt;&amp;gt; traffic volume', '', 'O', '', 'Average traffic volume for UL and/or DL', '', '&amp;gt; measurement time period', '', 'O', '', 'The measurement time period indicates a current time period. If absent, current time and 5 minutes duration are used as default setting.', '', '&amp;gt; aggregation granularity window', '', 'O', '', 'Indicates how long the QoS monitoring is performed to compute the average value and gather the maximum value. If absent, 1 minute is used as default setting.', '', 'Reporting requirements', '', 'O', '', 'It describes the requirements for QoS monitoring reporting.', '', '&amp;gt; Frequency of reporting', '', 'O', '', 'It indicates the requested frequency of reporting. The reporting frequency may be periodic or event triggered (i.e. threshold reached). If absent in the request, default event triggered reporting is used.', '', '&amp;gt; Reporting threshold', '', 'O', '', 'If the Frequency of reporting is event triggered (threshold reached), the reporting threshold corresponding to the measurement index shall be provided.', '', '&amp;gt; Threshold reaching direction', '', 'O', '', 'It indicates the reaching direction (i.e. ascending, descending or crossed) for the reporting threshold. It shall be provided if reporting threshold is present.', '', '&amp;gt; Reporting periodicity', '', 'O', '', 'If the Frequency of reporting is periodic, the reporting periodicity shall be provided.  ', '', '&amp;gt; Termination of reporting', '', 'O', '', 'It indicates when the reporting of QoS monitoring shall stop. It can be event triggered (i.e. either number of reports reached or threshold reached) or when reporting duration expires or when explicit termination is requested. If absent in the request, it defaults to explicit termination. Once the termination condition is met, the monitoring subscription ceases to exist.', '', '&amp;gt; Max number of reports', '', 'O', '', '(NOTE\xa03)', '', 'It indicates the maximum number of reports, it shall be provided when Termination of reporting is set to event triggered (number of reports reached).', '', '&amp;gt; Termination threshold', '', 'O', '', '(see NOTE\xa02, NOTE\xa03)', '', 'It indicates the reporting termination threshold corresponding to the measurement index. Each measurement index has only one termination threshold.', '', '&amp;gt; Termination condition for termination threshold', '', 'O', '', '(see\xa0NOTE\xa02)', '', 'It indicates threshold-based termination condition (e.g. all reached or any of them reached) if multiple measurement indexes are provided.', '', '&amp;gt; Reporting duration', '', 'O', '', '(NOTE\xa03)', '', 'It indicates the reporting duration, it shall be provided when Termination of reporting is set to duration expiration.', '', 'NOTE\xa01:\tOnly one of these information elements shall be present.', '', 'NOTE 2: \tIt shall be provided when Termination of reporting is set to event triggered (threshold reached).', '', 'NOTE 3:\tOnly one of these information elements may be present.', '', 'NOTE\xa04:\tWhen used by the Update_Unicast_QoS_Monitoring_Subscription operation, the same information element with identical content shall be present as in the associated Subscribe_Unicast_QoS_Monitoring operation.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.2173369652074024</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.24	TSC stream availability discovery response&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.24-1 describes the information flow TSC stream availability discovery response from the NRM server to the VAL server.', '', 'Table\xa014.3.2.24-1: TSC stream availability discovery response', '', 'Information element', '', 'Status', '', 'Description', '', 'Result', '', 'M', '', 'Result includes success or failure of the TSC stream availability discovery with the underlying network.', '', 'Stream specification', '', 'M', '', 'Stream specification includes MAC addresses of the source and destination DS-TT ports (e.g. as defined in IEEE\xa0802.1CB\xa0[37]).', '', 'List of traffic specifications', '', 'M', '', 'The traffic classes supported by the DS-TTs and available end-to-end MaxLatency value per traffic class. The VAL server should not request lower latency than the available end-to-end latency.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2164392338979494</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.25	TSC stream creation request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.25-1 describes the information flow TSC stream creation request from the VAL server to the NRM server.', '', 'Table\xa014.3.2.25-1: TSC stream creation request', '', 'Information element', '', 'Status', '', 'Description', '', 'Requester Identity ', '', 'M', '', 'The identity of the VAL server performing the request.', '', 'VAL Stream ID', '', 'M', '', 'It identifies the VAL stream.', '', 'Stream specification', '', 'M', '', 'Stream specification includes MAC addresses of the source and destination DS-TT ports (e.g. as defined in IEEE\xa0802.1CB\xa0[37]).', '', 'Traffic specification', '', 'M', '', 'It includes MaxLatency, MaxFrameInterval, MaxFrameSize, MaxIntervalFrames, etc. (e.g. as described in IEEE 802.1Qcc [35] in clause 46.2).', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.2234784231353639</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.33	Unicast QoS monitoring data request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.33-1 describes the information flow from the VAL server to the network resource management server for unicast QoS monitoring data request.', '', 'Table\xa014.3.2.33-1: Unicast QoS monitoring data request', '', 'Information element', '', 'Status', '', 'Description', '', 'Requester Identity ', '', 'M', '', 'The identity of the VAL server performing the request.', '', 'List of VAL UE IDs', '', '', '', 'O', '', '(see\xa0NOTE)', '', 'List of VAL UEs whose QoS monitoring data is requested.', '', 'VAL group ID', '', '', '', 'O', '', '(see\xa0NOTE)', '', 'The group ID used for the VAL group for which QoS monitoring data is requested.', '', 'List of VAL stream IDs', '', '', '', 'O', '', '(see\xa0NOTE)', '', 'List of VAL streams for which QoS monitoring data is requested.', '', 'Measurement requirements', '', 'M', '', 'It describes the requirements on the QoS measurement data to be provided.', '', '&amp;gt; type of data', '', 'M', '', 'At least one of the following measurement index shall be provided.', '', '&amp;gt;&amp;gt; packet delay', '', 'O', '', 'UL/DL/RT packet delay.', '', '', '', 'For VAL stream, the packet delay means measurement from a source UE to a target UE.', '', '&amp;gt;&amp;gt; packet loss rate', '', 'O', '', 'Average packet loss rate.', '', '&amp;gt;&amp;gt; data rate', '', 'O', '', 'Average data rate and/or maximum data rate.', '', '&amp;gt;&amp;gt; traffic volume', '', 'O', '', 'Average traffic volume for UL and/or DL', '', '&amp;gt; measurement time period', '', 'O', '', 'The measurement time period indicates either a current or past time period. If absent, current time and 5 minutes duration are used as default setting.', '', '&amp;gt; aggregation granularity window', '', 'O', '', 'Indicates how long the QoS monitoring is performed to compute the average value and gather the maximum value. If absent, 1 minute is used as default setting.', '', 'NOTE:\tOnly one of these information elements shall be present.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.2182758768929892</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.2.35	Application connectivity request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>['', 'Table\xa014.3.2.35-1 describes the information flow for application connectivity request from a NRM client to the NRM server.', '', 'Table\xa014.3.2.35-1: Application connectivity request', '', 'Information element', '', 'Status', '', 'Description', '', 'Source VAL UE ID', '', 'M', '', 'Identifier of the requestor VAL UE ', '', 'Source IP address ', '', 'M', '', 'IP address of the requestor VAL UE ', '', 'VAL service ID', '', 'M', '', 'Identifier of the VAL service', '', 'List of destination VAL UE IDs', '', 'M', '', 'Identifiers of the destination VAL UEs', '', 'Application service requirements', '', 'M', '', 'Details of service requirements', '', '&amp;gt;Packet size (see\xa0NOTE)', '', 'O', '', 'Size of the packet to be transmitted.', '', '&amp;gt;Packet transmission interval (see\xa0NOTE)', '', 'O', '', 'Intervals at which the packet is to be transmitted', '', '&amp;gt;Packet E2E latency (see\xa0NOTE)', '', 'O', '', 'E2E Latency for packet transmission', '', '&amp;gt;Packet error KPI (see\xa0NOTE)', '', 'O', '', 'The KPIs related to packet error (e.g. allowed packet loss rate, packet loss amount, packet error rate)', '', '&amp;gt;Bitrate (see\xa0NOTE)', '', 'O', '', 'The bitrate required', '', 'Application connectivity context', '', 'O', '', 'Application connectivity context of the requester, used for determining the destination and/or resource parameters. If this IE is included, at least one of the information elements in Table 14.3.2.35-2 shall be provided.', '', 'NOTE:\tAt least one of information elements of the application service requirements shall be included.', '', '', '', 'Table\xa014.3.2.35-2: Application connectivity context ', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Information element&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Status&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Description&lt;/b&gt;&lt;/span&gt;', '', 'Location', '', 'O', '', 'Location information of the client. The element may also indicate whether network-determined location is to be used instead.', '', 'Speed', '', 'O', '', 'Speed information for the client.', '', 'Direction', '', 'O', '', 'Direction information for the client.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2183302880773815</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.5.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>['', 'This feature provides the SEAL NRM support for coordinated QoS/resource management for network assisted UE-to-UE communications. Such capability may be required for guaranteeing end-to-end QoS fulfilment (primarily for meeting end-to-end latency requirements) in network assisted UE to UE communications and may accommodate various vertical-specific application services, e.g.: ', '', '-\tNetwork-assisted Command and Control (C2) communications in UASAPP [TS 23.255], where the UAV controller navigates its UAV over the 5GS;', '', '-\tTeleoperated Driving (ToD) in eV2XAPP [TS 23.286], where the a V2X UE acting as server may remotely control a further V2X UE over the 5GS;', '', '-\tNetwork-assisted Device-to-Device communications in Factory of the Future (FF) use cases, such as control-to-control communications.', '', '-\t5G LAN-Type communication within a 5G VN group as specified in 3GPP\xa0TS 23.501\xa0[10].', '']</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.1992227537909892</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.7.2	TSC stream availability discovery procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>['', 'The TSC stream availability discovery procedure is used by the VAL server to discover the availability of resources for TSC communication for the given stream specification (i.e., between the target UEs) prior to creating the stream. ', '', 'Pre-conditions: ', '', '1.\tEach UE has an established Ethernet PDU session and DS-TTs are connected to the 5GS TSC bridge. The traffic classes are configured on each DS-TT.', '', '2.\tThe NRM server has collected the 5GS TSC bridge management and port management information. The latter is related to the Ethernet ports located in the DS-TTs including bridge delay per DS-TT Ethernet port pair per traffic class.', '', '3.\tNRM server has calculated the bridge delay for each port pair, i.e. composed of (ingress DS-TT Ethernet port, egress DS-TT Ethernet port) including the UE-DS-TT residence time, packet delay budget (PDB) and propagation delay for both UL from sender UE and DL to receiver UE. ', '', ' ', '', '----media/image137.emf----', '', 'Figure\xa014.3.7.2-1: TSC stream availability discovery procedure', '', '1.\tThe NRM server receives a request from a VAL server on NRM-S reference point to discover the connectivity and available QoS characteristics between DS-TTs identified by the stream specification. ', '', '2.\tThe NRM server validates the connectivity between the DS-TTs connected in the same 5GS TSC bridge based on the collected 5GS TSC bridge management and port management information, identifies the traffic classes supported by the DS-TTs and determines the end-to-end latency (including the UE-DS-TT residence times, PDBs and propagation delay). ', '', '3.\tNRM server responds to the VAL server with the stream specification and a list of traffic specifications with the available end-to-end latency and the traffic classes supported by the DS-TTs. ', '']</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.1916761147383785</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.7.3	TSC stream creation procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>['', 'This procedure allows the VAL server to create a TSC stream. The TSC stream creation procedure enables the VAL server to establish TSC connectivity with the required QoS between the UEs connected to the 5GS after the stream discovery procedure.', '', 'Pre-conditions:', '', '1.\tEach UE has an established Ethernet PDU session for its DS-TT port MAC address.', '', '2.\tConnectivity between the DS-TTs has been validated by the TSC stream availability discovery procedure specified in clause 14.3.7.2.', '', '3.\tThe NRM server maintains mapping from the traffic class to TSC QoS.', '', '----media/image138.emf----', '', 'Figure\xa014.3.7.3-1: TSC stream creation procedure', '', '1.\tThe NRM server receives a TSC stream creation request from a VAL server to create a TSC stream identified by a VAL Stream ID, between DS-TT ports in the stream specification and for the traffic class in the traffic specification. ', '', '2.\tThe NRM server calculates the schedule for the VAL Stream ID based on the information collected earlier from the 5GS via N5. It provides per-stream filtering and policing parameters (e.g. as defined in IEEE\xa0802.1Q\xa0[36]) used to derive the TSC QoS information and related flow information. NRM server also provides the forwarding rule (e.g. as defined in IEEE\xa0802.1Q\xa0[36]) used to identify the DS-TT MAC address of the corresponding PDU session. Based on the 5GS bridge delay information it determines the TSC QoS information and TSC Assistance information for the stream.', '', '3. \tBased on the Traffic specification (from the TSC stream creation request in step 1), the SEAL NRM server determines whether time synchronization needs to be activated for the TSC stream on the DS-TTs. If the DS-TTs are time synchronized, then the NRM does not activate the time synchronization for the corresponding DS-TT.', '', '4.\tAs a TSCTSF, the NRM server triggers via N5 the Npcf_PolicyAuthorization_Create service operation as described in 3GPP\xa0TS\xa023.502 [11] for the TSC stream for both UL QoS flow (sender UE to UPF/bridge) and DL QoS flow (UPF/bridge to receiver UE). The Policy Authorization request includes the DS-TT port MAC address, TSC QoS information, TSC Assistance Information (3GPP TS 23.501 [1], cl.5.27.2.3), flow bit rate, priority, Service Data Flow Filter containing flow description including Ethernet Packet Filters. The QoS flow will be assigned for the PDU session for the source MAC address for the UL direction and for the PDU session for the destination MAC address for the DL direction. This information is delivered to the DS-TT by the 5GS.', '', 'As part of the Npcf_PolicyAuthorization_Create procedure, if time synchronization is determined to be needed for the TSC stream on the DS-TTs in step 3, the NRM server uses the procedures in clause K.2.2 of 3GPP TS 23.501 [10] to activate the time synchronization. The procedure includes the configuration and initialization of the PTP instance in the DS-TTs, the construction of PMICs to each DS-TT/UE to activate the time synchronization service in the DS-TT and to subscribe for the port management information changes in the DS-TTs.', '', "Editor's note: Using gate control parameters for hold and forward buffering is FFS.", '', '5.\tThe NRM server sends TSC stream creation response to the VAL server with the result of TSC stream creation for the VAL Stream ID.', '']</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.1922163550139659</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;14.3.8.2	5GS TSN Bridge information reporting&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>['', 'Pre-conditions: ', '', '1.\tThere is already an established session between the TSN CNC and the NRM server acting as TSN-AF.', '', '----media/image140.emf----', '', 'Figure\xa014.3.8.2-1: TSN Bridge information reporting procedure', '', '1.\tActing as the TSN AF the NRM server collects 5GS TSN Bridge information by interaction with the 5GS via the N5 reference point, as described in in TS 23.502\xa0[11] Annex F.1. The NRM server stores the binding relationship between 5GS Bridge ID, MAC address of the DS-TT Ethernet port and also updates 5GS bridge delay as defined in clause\xa05.27.5 of TS\xa023.501\xa0[10]. The NRM server retrieves txPropagationDelay and Traffic Class table from DS-TT and it also retrieves txPropagationDelay and Traffic Class table from NW-TT. ', '', '2.\tWhenever there is a new or updated bridge information the NRM server interacts with the TSN CNC and reports the TSN Bridge information to register a new TSN Bridge or update an existing TSN Bridge. The TSN CNC stores the TSN Bridge information and confirms to the NRM server.', '']</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2098798252767015</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.13.4.2	Emergency Services Fallback&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>['', 'The call flow in Figure 4.13.4.2-1 describes the procedure for emergency services fallback.', '', '----media/image122.emf----', '', 'Figure 4.13.4.2-1: Emergency Services Fallback', '', '1.\tUE camps on E-UTRA or NR cell in the 5GS (in either CM-IDLE or CM-CONNECTED state).', '', '2.\tUE has a pending IMS emergency session request (e.g. voice) from the upper layers.', '', '3.\tIf the AMF has indicated support for emergency services using fallback via the Registration Accept message for the current RAT, the UE sends a Service Request message indicating that it requires emergency services fallback. The UE is not required to include the PDU Sessions that are not relevant for the emergency service in the List Of PDU Sessions to be Activated in the Service Request for the emergency service.', '', 'NOTE\xa01:\tIf the UE includes PDU Sessions to be Activated in the Service Request for the emergency service, it will delay the Emergency Services Fallback procedure.', '', '4.\t5GC triggers a request for Emergency Services Fallback by executing an NG-AP procedure in which it indicates to NG-RAN that this is a fallback for emergency services. The AMF based on the support of Emergency Services in EPC or 5GC may indicate the target CN for the RAN node to know whether inter-RAT fallback or inter-system fallback is to be performed. When AMF initiates Redirection for UE(s) that have been successfully authenticated, AMF includes the security context in the request to trigger fallback towards NG-RAN.', '', '5.\tBased on the target CN if indicated in message 4 or otherwise based on the RAN configuration, one of the following procedures is executed by NG-RAN:', '', '5a.\tNG-RAN initiates handover (see clause\xa04.9.1.3) or redirection to a 5GC-connected E-UTRAN cell, if UE is currently camped on NR.', '', '5b. NG-RAN initiates handover (see clause\xa04.11.1.2.1) or redirection to E-UTRAN connected to EPS. NG-RAN uses the security context provided by the AMF to secure the redirection procedure.', '', '\tIf the redirection procedure is used either in 5a or 5b the target CN type (EPC or 5GC) is also conveyed to the UE in order to be able to perform the appropriate NAS procedures (S1 or N1 Mode). The UE uses the emergency indication in the RRC message as specified in clause\xa06.2.2 of TS\xa036.331\xa0[16] and E-UTRAN provides the emergency indication to AMF (during Registration triggered by step\xa05a) and MME (during Tracking Area Update triggered by step\xa05b). Both the Registration and the Tracking Area Update requests should contain Follow-on request and active flag respectively to indicate that the UE has "user data pending". For the handover procedure used in step\xa05b see clause\xa04.11.1.2.1, step\xa01.', '', '\tIn step\xa05b, if the MME does not support emergency services for that UE, the MME should act such that the call for emergency service is likely to succeed promptly, e.g. if the UE successfully completed a combined TA/LA Update with the network, by using the CSFB procedures specified in TS\xa023.272\xa0[61].', '', 'NOTE\xa02:\tIf such a combined TA/LA Update is not successful, or the UE did not request a combined update, then, as specified in TS\xa023.167\xa0[28], the UE autonomously selects a RAT that may (but which might not) support the CS domain.', '', '6.\tAfter handover or redirection to the target cell the UE establishes a PDU Session / PDN connection for IMS emergency services and performs the IMS procedures for establishment of an IMS emergency session (e.g. voice) as defined in TS\xa023.167\xa0[28].', '', 'At least for the duration of the emergency voice call, the E-UTRAN connected to EPC is configured to not trigger any handover to 5GS and the target NG-RAN is configured to not trigger inter NG-RAN handover back to source NG-RAN.', '']</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.2058467332565375</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.3.1	Monitoring Events&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>['', 'The Monitoring Events feature is intended for monitoring of specific events in 3GPP system and making such monitoring events information reported via the NEF. It is comprised of means that allow NFs in 5GS for configuring the specific events, the event detection and the event reporting to the requested party.', '', 'To support monitoring features in roaming scenarios, a roaming agreement needs to be made between the HPLMN and the VPLMN. If the AMF/SMF in the VPLMN determine that normalisation of an event report is required, the AMF/SMF normalises the event report before sending it to the NEF.', '', 'The set of capabilities required for monitoring shall be accessible via NEF to NFs in 5GS. Monitoring Events via the UDM, the AMF, the SMF, the NSACF and the GMLC enables NEF to configure a given Monitor Event at UDM, AMF, SMF, NSACF or GMLC and reporting of the event via UDM and/or AMF, SMF, NSACF or GMLC. Depending on the specific monitoring event or information, it is the AMF, GMLC, NSACF or the UDM that is aware of the monitoring event or information and makes it reported via the NEF.', '', 'The following table enumerates the monitoring events and their detection criteria:', '', 'Table 4.15.3.1-1: List of events for monitoring capability', '', 'Event', '', 'Detection criteria', '', 'Which NF detects the event', '', 'Loss of Connectivity', '', 'Network detects that the UE is no longer reachable for either signalling or user plane communication (see NOTE\xa04).', '', 'The AF may provide a Maximum Detection Time, which indicates the maximum period of time without any communication with the UE after which the AF is to be informed that the UE is considered to be unreachable (see NOTE\xa07).', '', 'If Unavailability Period Duration has been provided by the UE, the AMF uses the remaining value of it to determine the foreseen Loss of Connectivity time as described in clause\xa05.4.1.4 of TS\xa023.501\xa0[2].', '', 'AMF', '', 'UE reachability', '', 'Detected when the UE transitions to CM-CONNECTED state or when the UE will become reachable for paging, e.g. Periodic Registration Update timer. It indicates when the UE becomes reachable for sending downlink data to the UE.', '', 'The AF may provide the following parameters:', '', '1)\tMaximum Latency;', '', '2)\tMaximum Response Time;', '', '3)\tSuggested number of downlink packets. (see NOTE\xa05 and NOTE\xa07).', '', 'This event requires the Reachability Filter set to UE reachable for DL traffic" (see clause\xa05.2.2.3.1-1). For the usage of this event, see clauses 4.2.5.2 and 4.2.5.3.', '', 'When requesting UE reachability monitoring, the AF may in addition request Idle Status Indication to be included in the UE reachability event reporting.', '', 'AMF, UDM', '', 'Location Reporting', '', 'This event is detected based on the Event Reporting Information Parameters that were received in the Monitoring Request (one-time reporting, maximum number of reports, maximum duration of reporting, periodicity, etc. as specified in clause\xa04.15.1).', '', 'It reports either the Current Location or the Last Known Location of a UE.', '', 'When AMF is the detecting NF:', '', 'One-time and Continuous Location Reporting are supported. For Continuous Location Reporting the serving node(s) sends a notification every time it becomes aware of a location change, with the granularity depending on the accepted accuracy of location (see NOTE 1).', '', 'For One-time Reporting with immediate reporting flag set, AMF reports the Last Known Location immediately.', '', 'When AMF is the detecting NF:', '', 'If the immediate reporting flag is not set, the AMF reports the UE Current Location (In case the AMF does not have the UE current location in the granularity as requested by the location report, the AMF retrieves the information via NG-RAN Location reporting procedure as defined in clause\xa04.10).', '', 'When GMLC is the detecting NF:', '', 'Immediate and Deferred Location Reporting is supported. For Deferred Location Reporting the event types UE availability, Area, Periodic Location and Motion are supported.', '', 'AMF, GMLC', '', 'Change of SUPI-PEI association', '', 'This event is detected when the association between PEI and subscription (SUPI) changes (USIM change).', '', 'UDM', '', 'Roaming status', '', "This event is detected based on the UE's current roaming status (the serving PLMN and/or whether the UE is in its HPLMN) and notification is sent when that status changes. (see NOTE 2).", '', 'If the UE is registered via both 3GPP and N3GPP Access Type, then both instances of Roaming status are included.', '', 'UDM', '', 'Communication failure', '', 'This event is detected when RAN or NAS level failure is detected based on connection release and it identifies RAN/NAS release code.', '', 'AMF', '', 'Availability after Downlink Data Notification failure', '', 'This event is detected when the UE becomes reachable again after downlink data delivery failure.', '', 'When requesting Availability after Downlink Data Notification failure monitoring, the AF may in addition request Idle Status Indication to be included in the UE reachability event reporting.', '', 'AMF', '', 'PDU Session Status', '', 'This event is detected when PDU session is established or released. (see NOTE\xa06)', '', 'SMF', '', 'Number of UEs present in a geographical area', '', 'This event is detected based on the Event Reporting Information Parameters that were received in the Monitoring Request (Level of aggregation, Sampling ratio, see clause\xa04.15.1).', '', 'It indicates the number of UEs that are in the geographical area described by the AF. The AF may ask for the UEs that the system knows by its normal operation to be within the area (Last Known Location) or the AF may request the system to also actively look for the UEs within the area (Current Location).', '', 'AMF', '', 'CN Type change', '', 'The event is detected when the UE moves between EPC and 5GC. It indicates the current CN type for a UE or a group of UEs when detecting that the UE switches between being served by a MME and an AMF or when accepting the event subscription. (see NOTE\xa03)', '', 'UDM', '', 'Downlink data delivery status', '', 'It indicates the downlink data delivery status in the core network. Events are reported at the first occurrence of packets being buffered, transmitted or discarded, including:', '', '-\tDownlink data in extended buffering, including:', '', '-\tFirst data packet buffered event', '', '-\tEstimated buffering time, as per clause\xa04.2.3.3', '', '-\tFirst downlink data transmitted event', '', '-\tFirst downlink data discarded event', '', 'SMF', '', 'UE reachability for SMS delivery', '', 'For SMS over NAS, this event is detected when an SMSF is registered for a UE and the UE is reachable as determined by the AMF and the UDM.', '', 'For SMS over IP, the event is detected when the UE is reachable as determined by the AMF and the UDM regardless of an SMSF being registered.', '', 'This enables the UE to receive an SMS. See clauses 4.2.5.2 and 4.2.5.3 (see NOTE\xa08).', '', 'UDM', '', 'UE memory available for SMS', '', 'This event is detected when the UDM receives UE memory available for SMS indication from the SMSF as part of Alert procedure as specified in clause\xa05.1.8 of TS\xa023.540\xa0[84]', '', 'UDM', '', 'Number of registered UEs or established PDU Sessions', '', 'It indicates the current number of registered UEs or established PDU Sessions for a network slice that is subject to NSAC.', '', 'For One-time Reporting with Immediate Reporting Flag set, NSACF reports the number of registered UEs or established PDU Sessions immediately.', '', 'NSACF', '', 'Area Of Interest', '', 'It indicates change of the UE presence in the Area Of Interest.', '', 'AMF, GMLC', '', 'Group Member List Change', '', 'It indicates the changes on the members of the group.', '', 'This event apply to a group of UEs (identified by an External Group ID), such as 5G VN group (see NOTE\xa09) or other groups.', '', 'UDM', '', 'Session inactivity time', '', 'This event is detected by the SMF when the PDU Session has no data transfer for a period specified by the Inactivity Timer. via the User plane status information event, see clause\xa05.2.8.3.1.', '', 'SMF', '', 'Traffic volume', '', 'This event measures the traffic volume (UL and DL) aggregated for the PDU Session (NOTE\xa010).', '', 'UPF', '', 'UL/DL data rate', '', 'This event measures the data rate (UL and DL) aggregated for the PDU Session (NOTE\xa010).', '', 'UPF', '', 'Application Detection', '', 'Detection of application start or stop', '', '(See NOTE\xa011), as described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', 'PCF', '', 'NOTE\xa01:\tLocation granularity for event request, or event report, or both could be at cell level (Cell ID) or TA level. The granularity can also be expressed by other formats such as geodetic uncertainty shapes (e.g. polygons, circles, etc.) or civic addresses (e.g. streets, districts, etc.) which can be mapped by NEF to AMF specific granularity levels.', '', 'NOTE\xa02:\tRoaming status means whether the UE is in HPLMN or VPLMN based on the most recently received registration state in the UDM.', '', 'NOTE\xa03:\tCN type of CN Type change event is defined in clause\xa05.17.5.1 of TS\xa023.501\xa0[2].', '', 'NOTE\xa04:\tIn the case of UDM service operation information flow, the UDM should set the subscribed periodic registration timer to a smaller value than the value of Maximum Detection Time, since the value of the mobile reachable timer is larger than the value of the periodic registration timer.', '', 'NOTE\xa05:\tMaximum Latency, Maximum Response Time and Suggested number of downlink packets are defined in clause\xa04.15.6.3a.', '', 'NOTE\xa06:\tThe NEF makes a mapping between the 5GS internal event "PDU Session Status" and the T8 API event "PDN Connectivity Status".', '', 'NOTE\xa07:\tThe preferred method for provisioning Network Configuration Parameters is External Parameter Provisioning specified in clause\xa04.15.6.3a. Provisioning event specific parameters as part of Monitoring Request is expected to be used only by the AF that does not support Parameter Provisioning procedure specified in clause\xa04.15.6.3a.', '', 'NOTE\xa08:\tThe NEF maps between the T8 API event "UE reachability" with reachability type SMS and the 5GS internal event "UE reachability for SMS delivery" for SMS over NAS.', '', '\tThe event "UE reachability for SMS delivery" for SMS over IP is used by HSS as described in clause\xa05.5.6.3 of TS\xa023.632\xa0[68].', '', 'NOTE\xa09:\t5G VN group management is defined in the clause\xa05.29.2 of TS\xa023.501\xa0[2].', '', 'NOTE\xa010:\tNEF subscribes to the UPF event applicable for a PDU session via SMF and the result is exposed to NEF by UPF directly. The corresponding procedure for NEF to trigger the UPF event can be found in clause\xa04.15.3.2.3.', '', 'NOTE 11:\tThis event uses bulk subscription/notification, which may impact the PCF/SMF/UPF performance.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1994966540750972</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.6.3a	Network Configuration parameters&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>['', 'The Network Configuration parameters are the parameters sent from an AF by invoking the Nnef_ParameterProvision Service as described in clause\xa04.15.6.2.', '', 'The Network Configuration parameters are described in Table 4.15.6.3a-1.', '', 'Table 4.15.6.3a-1: Description of Network Configuration parameters', '', 'Network Configuration parameter', '', 'Description', '', 'Maximum Response Time', '', 'Identifies the time for which the UE stays reachable to allow the AF to reliably deliver the required downlink data.', '', '[optional]', '', 'Maximum Latency', '', 'Identifies maximum delay acceptable for downlink data transfers.', '', 'Example: in order of 1 minute to multiple hours.', '', '[optional]', '', 'Suggested Number of Downlink Packets', '', 'Identifies the number of packets that the core network is suggested to buffer if the UE is not reachable.', '', 'Example: 5 packets.', '', '[optional]', '', '', '', 'The parameters Maximum Response Time and Maximum Latency are stored in the UDM and the Maximum Response Time is sent to the AMF for event monitoring as specified in 4.15.3.2.3b.', '', 'The AMF may use the Maximum Response Time parameter as guide to configure:', '', '-\tExtended Connected time for MICO mode;', '', '-\twhen to send reachability notifications to AF relative to expected reachability events (e.g. paging occasions).', '', 'If the UDM received multiple Network Configuration requests, the UDM shall accept the request as long as the Maximum Latency (if received) and/or the Maximum Response Time (if received) are within the range defined by operator policies. The UDM shall use the minimum value of Maximum Latency(s) to derive the subscribed periodic registration timer and use the maximum value of Maximum Response Time(s) to derive the subscribed Active Time as specified in step\xa02 of clause\xa04.15.3.2.3b. If the newly derived value is changed comparing to the one last time sent to the AMF, the UDM notify the AMF of the updated value via Nudm_SDM_Notification message. If there is a deletion of Network Configuration request, the UDM re-calculates the values (see step\xa02 in clause\xa04.15.3.2.3b) and notify the AMF if needed.', '', 'The Suggested Number of Downlink Packets is classified as SMF associated subscription data. If the NEF is providing DNN and S-NSSAI as specified in clause\xa04.15.3.2.3, then the UDM is able to associate the parameters with subscribed DNN and S-NSSAI and provides the Suggested Number of Downlink Packets consolidated as specified in 4.15.3.2.3b to the SMF for the PDU Session associated with the specific DNN and S-NSSAI as specified in clause\xa04.15.6.2. The SMF may use the Suggested Number of Downlink Packets parameter to configure the number of packets to buffer in the SMF/UPF (in the case of UPF anchored PDU sessions) or in the NEF (in the case of NEF anchored PDU session) when the UE is not reachable and extended buffering of downlink data is activated.', '', 'A Validity Time may be associated with any of the Network Configuration parameters. When the validity time expires, the related NFs delete their local copy of the associated Network Configuration parameter(s). If the deletion results in subscribed value change, the UDM shall notify the AMF or SMF of the changed value.', '']</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.1973165316066486</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.6.6	Setting up an AF session with required QoS procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>['', '----media/image147.emf----', '', 'Figure 4.15.6.6-1: Setting up an AF session with required QoS procedure', '', '1.\tThe AF sends a request to reserve resources for an AF session using Nnef_AFsessionWithQoS_Create request message (UE address, AF Identifier, Flow description information or External Application Identifier, QoS Reference or individual QoS parameters, PDU Set QoS parameters (as described in clause\xa05.7.7 of TS\xa023.501\xa0[2]), Protocol Description (as described in clause\xa05.37.5 of TS\xa023.501\xa0[2]), Alternative Service Requirements (as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]), DNN, S-NSSAI) to the NEF. Optionally, QoS monitoring requirements and Multi-modal Service ID can be included in the AF request. Optionally, a period of time or a traffic volume for the requested QoS can be included in the AF request. The AF may, instead of a QoS Reference, provide one or more of the following individual QoS parameters: Requested 5GS Delay (optional), Requested Priority (optional), Requested Guaranteed Bitrate, Requested Maximum Bitrate, Maximum Burst Size and Requested Packet Error Rate. The AF may also provide an Averaging Window value for deriving such parameters for GBR QoS Flows. Regardless of whether the AF request is formulated using a QoS Reference or individual QoS parameters, the AF may also provide one or more of the following parameters that describe the traffic characteristics: flow direction, Burst Arrival Time at UE (uplink) or UPF (downlink), Periodicity, Time domain, Survival Time, Capability for BAT adaptation or BAT Window, Periodicity Range. The AF may also provide an RT Latency Indication. The optional Alternative Service Requirements provided by the AF shall either contain QoS References or Requested Alternative QoS Parameter Set(s) in a prioritized order as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]. Optionally, Packet Delay Variation requirements can be included in the AF request as described in clause\xa06.1.3.26 of TS\xa023.503\xa0[20]. Optionally, the AF may provide QoS duration and QoS inactivity interval in order to indicate PCF the time period when the QoS should be applied.', '', 'NOTE\xa01:\tFor multi-modal flows related to multiple UEs, multiple UE-specific AF requests are used and the AF provided information to NEF is the same as single UE case (as defined in clause\xa05.37.2 of TS\xa023.501\xa0[2]).', '', '2.\tThe NEF assigns a Transaction Reference ID to the Nnef_AFsessionWithQoS_Create request. The NEF authorizes the AF request and may apply policies to control the overall amount of QoS authorized for the AF. If the authorisation is not granted, all steps (except step\xa05) are skipped and the NEF replies to the AF with a Result value indicating that the authorisation failed.', '', '\tThe NEF determines whether to invoke the TSCTSF or to directly contact the PCF. This determination may use the presence of a QoS Reference or individual QoS parameters in the AF request. The determination may also use the AF identifier or the presence of AF provided parameters that describe the traffic characteristics. The determination may also be based on operator configuration, e.g. SLA between operator and application provider.', '', 'NOTE\xa02:\tThe NEF can determine whether the TSCTSF needs to be involved based on the DNN/S-NSSAI for the AF session according to the SLA.', '', '\tIf the NEF determines not to invoke the TSCTSF, then steps 3, 4, 5, 6, 7, 8 are executed, otherwise, steps 3a, 3b, 4a, 4b, 5, 6a, 7a, 7b, 8 are executed.', '', '3.\tIf the NEF determines to contact the PCF directly without invoking the TSCTSF, the NEF uses the UE address to discover the PCF from the BSF. The NEF forwards received parameters to the PCF in the Npcf_PolicyAuthorization_Create request. Any optionally received period of time or traffic volume mapped and forwarded as sponsored data connectivity information (as defined in TS\xa023.503\xa0[20]).', '', '\tIf the AF is considered to be trusted by the operator, the AF uses the Npcf_PolicyAuthorization_Create request message to interact directly with PCF to request reserving resources for an AF session.', '', '3a.\tIf the NEF determines to invoke the TSCTSF, the NEF forwards received parameters in the Ntsctsf_QoSandTSCAssistance_Create request message to the TSCTSF. Any optionally received period of time or traffic volume is mapped and forwarded as sponsored data connectivity information (as defined in TS\xa023.503\xa0[20]).', '', '\tIf the AF is considered to be trusted by the operator, the AF uses the Ntsctsf_QoSandTSCAssistance_Create request message to interact directly with TSCTSF to request reserving resources for an AF session.', '', '\tA TSCTSF address may be locally configured (a single TSCTSF per DNN/S-NSSAI) in the NEF, PCF and trusted AF. Alternatively, the NEF uses the AF Identifier to determine the DNN/S-NSSAI and uses the DNN/S-NSSAI to discover the TSCTSF from the NRF.', '', '3b.\tThe TSCTSF determines whether it has an AF session with a PCF for the given UE address. In this case the TSCTSF sends a Npcf_PolicyAuthorization_Update request message to the PCF and forwards the received parameters after executing the adjustment and mapping actions described below.', '', '\tIf the TSCTSF does not have an AF-session for a given UE address, the TSCTSF discovers the PCF and a Npcf_PolicyAuthorization_Create request message to the PCF.', '', '\tIf the TSCTSF receives a Requested 5GS Delay, the TSCTSF calculates a Requested PDB by subtracting the UE-DS-TT Residence Time (either provided by the PCF or pre-configured at TSCTSF) from the Requested 5GS Delay and sends the Requested PDB to the PCF instead of the Requested 5GS Delay. If the TSCTSF receives any of the following parameters: flow direction, Burst Arrival Time, Periodicity, Time domain, Survival Time, Capability for BAT adaptation or BAT Window, Periodicity Range from the NEF, the TSCTSF determines the TSC Assistance Container and sends it to the PCF instead of these parameters.', '', '4.\tFor requests received from the NEF in step\xa03, the PCF determines whether the request is authorized and notifies the NEF if the request is not authorized.', '', '\tIf the request is authorized, the PCF derives the required QoS parameters of the PCC rule based on the information provided by the NEF and determines whether this QoS is allowed (according to the PCF configuration) and notifies the result to the NEF. If the AF is considered to be trusted by the operator, the PCF sends the Npcf_PolicyAuthorization_Create response message directly to AF.', '', '\tIf the PCF receives the individual QoS parameters instead of QoS Reference, the PCF determines a 5QI that matches the individual QoS parameters as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]. It also sets the GBR and MBR for the PCC rule according to the requested values. The PCF may use the Requested Priority from the AF to determine Priority Level as defined in clause\xa05.7.3.3 of TS\xa023.501\xa0[2]. Requested individual QoS parameter values supersede default values for the 5QI.', '', '\tIf the PCF receives the RT Latency Indication described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20], the PCF executes Uplink-Downlink Transmission Coordination as described in clause\xa05.37.7 of TS\xa023.501\xa0[2] and the associated QoS monitoring for the two correlated QoS Flows as described in clause\xa06.1.3.27.2 of TS\xa023.503\xa0[20].', '', '\tIf the PCF receives PDU Set QoS parameters described in clause\xa05.7.7 of TS\xa023.501\xa0[2], the PDU Set QoS parameters are applied as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20].', '', '\tIn addition, if the Alternative Service Requirements are provided, the PCF derives the Alternative QoS parameter set(s) in the same way from the one or more QoS Reference parameters or the Requested Alternative QoS Parameter Set(s) contained in the Alternative Service Requirements keeping the same prioritized order (as defined in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]).', '', 'NOTE\xa03:\tThe PCF derived Alternative QoS parameter set(s) for the PCC rule are subsequently used to establish Alternative QoS Profile(s). The Alternative QoS Profile parameters provided to the NG-RAN are specified in clause\xa05.7.1.2a of TS\xa023.501\xa0[2].', '', '\tFor multi-modal flows, the PCF derives the required QoS parameters in the PCC rules and generates the QoS monitoring requirements policy for each media flow, based on the information provided by the NEF.', '', '\tIf the PCF determines that the SMF needs updated policy information, the PCF issues a Npcf_SMPolicyControl_UpdateNotify request with updated policy information about the PDU Session as described in the PCF initiated SM Policy Association Modification procedure in clause\xa04.16.5.2.', '', '4a.\tFor requests received from the TSCTSF in step\xa03b, the PCF determines whether the request is authorized and notifies the TSCTSF if the request is not authorized.', '', '\tIf the request is authorized, the PCF derives the required QoS parameters of the PCC rule in the same way it is described in step\xa04 based on the information provided by the TSCTSF and determines whether this QoS is allowed (according to the PCF configuration) and notifies the result to the TSCTSF.', '', '\tIf the PCF determines that the SMF needs updated policy information, the PCF issues a Npcf_SMPolicyControl_UpdateNotify request with updated policy information about the PDU Session as described in the PCF initiated SM Policy Association Modification procedure in clause\xa04.16.5.2.', '', '\tIf the PCF receives a subscription for the 5GS Bridge/Router information from the TSCTSF, if the PCF does not have the 5GS Bridge/Router information for the PDU Session, the PCF uses the PCF initiated SM Policy Association Modification procedure as described in clause\xa04.16.5.2 to subscribe for 5GS Bridge/Router information event from the SMF. Once the PCF has the 5GS Bridge/Router information, the PCF notifies the TSCTSF for the 5GS Bridge/Router information (including the UE-DS-TT Residence Time).', '', '4b.\tThe TSCTSF sends a Ntsctsf_QoSandTSCAssistance_Create response message (Transaction Reference ID, Result) to the NEF. Result indicates whether the request is granted or not.', '', '\tIf the AF is considered to be trusted by the operator, the TSCTSF sends the Ntsctsf_QoSandTSCAssistance_Create response message directly to AF.', '', '5.\tThe NEF sends a Nnef_AFsessionWithQoS_Create response message (Transaction Reference ID, Result) to the AF. Result indicates whether the request is granted or not.', '', '6.\tThe NEF shall send a Npcf_PolicyAuthorization_Subscribe message to the PCF to subscribe to notifications of Resource allocation status and may subscribe to other events described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', '6a.\tThe TSCTSF shall send a Npcf_PolicyAuthorization_Subscribe message to the PCF to subscribe to notifications of Resource allocation status and may subscribe to other events described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', '\tThe TSCTSF that receives Capability for BAT adaptation or BAT Window in step\xa03a shall subscribe to notification on BAT offset via sending a Npcf_PolicyAuthorization_Subscribe request message to the PCF.', '', '7.\tWhen the event condition is met, e.g. that the establishment of the transmission resources corresponding to the QoS update succeeded or failed, the PCF sends Npcf_PolicyAuthorization_Notify message to the NEF notifying about the event.', '', '\tIf the AF is considered to be trusted by the operator, the PCF sends the Npcf_PolicyAuthorization_Notify message directly to AF.', '', '7a.\tWhen the event condition is met, e.g. that the establishment of the transmission resources corresponding to the QoS update succeeded or failed, the PCF sends Npcf_PolicyAuthorization_Notify message to the TSCTSF notifying about the event.', '', '7b.\tThe TSCTSF sends Ntsctsf_QoSandTSCAssistance_Notify message with the event reported by the PCF to the NEF.', '', '\tIf the AF is considered to be trusted by the operator, the TSCTSF sends the Ntsctsf_QoSandTSCAssistance_Notify message directly to AF.', '', '8.\tThe NEF sends Nnef_AFsessionWithQoS_Notify message with the event reported by the PCF to the AF.', '', 'The AF may send Nnef_AFsessionWithQoS_Revoke request to NEF in order to revoke the AF request. The NEF authorizes the revoke request and triggers the Ntsctsf_QoSandTSCAssistance_Delete/Unsubscribe and/or Npcf_PolicyAuthorization_Delete and the Npcf_PolicyAuthorization_Unsubscribe operations for the AF request.', '']</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1976321981238457</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.6.6a	AF session with required QoS update procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>['', '----media/image148.emf----', '', 'Figure 4.15.6.6a-1: AF session with required QoS update procedure', '', '1.\tFor an established AF session with required QoS, the AF may send a Nnef_AFsessionWithQoS_Update request message (AF Identifier, Transaction Reference ID, [Flow description information], [QoS Reference or individual QoS parameters], [PDU Set QoS parameters (as described in clause\xa05.7.7 of TS\xa023.501\xa0[2]), Protocol Description (as described in clause\xa05.37.5 of TS\xa023.501\xa0[2])], [Alternative Service Requirements (as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20])]) to NEF for updating the reserved resources. Optionally, updated QoS monitoring requirements can be included in the AF request. Optionally, a period of time or a traffic volume for the requested QoS can be included in the AF request. The Transaction Reference ID provided in the AF session with required QoS update request message is set to the Transaction Reference ID that was assigned, by the NEF, to the Nnef_AFsessionWithQoS_Create request message. The AF may, instead of a QoS Reference, provide one or more of the following individual QoS parameters: Requested 5GS Delay (optional), Requested Priority (optional), Requested Guaranteed Bitrate, Requested Maximum Bitrate, Maximum Burst Size and Requested Packet Error Rate. The AF may also provide an Averaging Window. Regardless whether the AF request is formulated using a QoS Reference or individual QoS parameters, the AF may also provide one or more of the following parameters that describe the traffic characteristics: flow direction, Burst Arrival Time at UE (uplink) or UPF (downlink), Periodicity, Time domain, Survival Time, Capability for BAT adaptation or BAT Window, Periodicity Range. The optional Alternative Service Requirements provided by the AF shall either contain QoS References or Requested Alternative QoS Parameter Set(s) in a prioritized order as specified in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]. Optionally, Packet Delay Variation requirements can be included in the AF request as described in clause\xa06.1.3.26 of TS\xa023.503\xa0[20].', '', '2.\tThe NEF authorizes the AF request of updating AF session with required QoS and may apply policies to control the overall amount of QoS authorized for the AF. If the authorisation is not granted, all steps (except step\xa05) are skipped and the NEF replies to the AF with a Result value indicating that the authorisation failed.', '', '3.\tThe NEF shall contact the same NF type (i.e. TSCTSF or PCF) as with the initial Nnef_AFsessionWithQoS_Create request during the establishment procedure in clause\xa04.15.6.6. If the NEF determined not to invoke the TSCTSF, then steps 3, 4, 5, 6, 7 are executed, otherwise, steps 3a, 3b, 4a, 4b, 5, 6a, 6b, 7 are executed. If the Nnef_AfsessionWithQoS_Update request updates an existing Flow description by adding any parameters that would require the NEF to invoke TSCTSF while the NEF determined not to invoke the TSCTSF for the initial Nnef_AFsessionWithQoS_Create request, the NEF shall reject the Nnef_AFsessionWithQoS_Update request with a cause value which may indicate the reason of failure.', '', '\tIf the NEF does not invoke the TSCTSF, the NEF interacts with the PCF by triggering a Npcf_PolicyAuthorization_Update request and forwards received parameters to the PCF. Any optionally received period of time or traffic volume is mapped and forwarded as sponsored data connectivity information (as defined in TS\xa023.503\xa0[20]).', '', '\tIf the AF is considered to be trusted by the operator, the AF uses the Npcf_PolicyAuthorization_Update request message to interact directly with PCF to update the reserving resources for an AF session.', '', '3a.\tIf the NEF decided to contact the TSCTSF when the session was established, the NEF forwards received parameters in the Ntsctsf_QoSandTSCAssistance_Update request message to the TSCTSF. Any optionally received period of time or traffic volume is mapped and forwarded as sponsored data connectivity information (as defined in TS\xa023.503\xa0[20]).', '', '\tIf the AF is considered to be trusted by the operator, the AF uses the Ntsctsf_QoSandTSCAssistance_Update request message to interact directly with TSCTSF to update the reserving resources for an AF session.', '', '3b.\tThe TSCTSF interacts with the PCF by triggering a Npcf_PolicyAuthorization_Update request and forwards the received parameters after executing the adjustment and mapping actions described in step\xa03b of clause\xa04.15.6.6.', '', '4.\tThe PCF processes the Npcf_PolicyAuthorization_Update request according to the actions described in step\xa04 of clause\xa04.15.6.6. If the QoS monitoring requirements are updated, the PCF updates the PCC rules considering the updated QoS information provided by the AF.', '', '4a.\tThe PCF processes the Npcf_PolicyAuthorization_Update request according to the actions described in step\xa04a of clause\xa04.15.6.6. If the PCF has received a request to unsubscribe for 5GS Bridge/Router information Notification, the PCF uses the PCF initiated SM Policy Association Modification procedure as described in clause\xa04.16.5.2 to unsubscribe for 5GS Bridge/Router information event from the SMF.', '', '4b.\tThe TSCTSF sends a Ntsctsf_QoSandTSCAssistance_Update response message (Transaction Reference ID, Result) to the NEF. Result indicates whether the request is granted or not.', '', '\tIf the AF is considered to be trusted by the operator, the TSCTSF sends the Ntsctsf_QoSandTSCAssistance_Update response message directly to AF.', '', '5.\tThe NEF sends a Nnef_AFsessionWithQoS_Update response message (Transaction Reference ID, Result) to the AF. Result indicates whether the request is granted or not.', '', '6.\tThe PCF sends Npcf_PolicyAuthorization_Notify message to the NEF when the modification of the transmission resources corresponding to the QoS update succeeded or failed, or when an Alternative Service Requirement is being applied.', '', '\tIf the AF is considered to be trusted by the operator, the PCF sends the Npcf_PolicyAuthorization_Notify message directly to AF.', '', '6a.\tThe PCF sends Npcf_PolicyAuthorization_Notify message to the TSCTSF when the modification of the transmission resources corresponding to the QoS update succeeded or failed, or when an Alternative Service Requirement is being applied.', '', '6b.\tThe TSCTSF sends Ntsctsf_QoSandTSCAssistance_Notify message with the event reported by the PCF to the NEF.', '', '\tIf the AF is considered to be trusted by the operator, the TSCTSF sends the Ntsctsf_QoSandTSCAssistance_Notify message directly to the AF.', '', '7.\tThe NEF sends Nnef_AFsessionWithQoS_Notify message with the event reported by the PCF to the AF.', '']</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.2038595175530731</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.15.9.4	Procedures for management of 5G access stratum time distribution&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>['', 'The AF can use the procedure to activate, update or delete the 5G access stratum time distribution for one UE or a group of UEs.', '', 'The AF may query the status of the 5G access stratum time distribution using Nnef_ASTI_Get service operation. The Nnef_ASTI_Create and Nnef_ASTI_Update request may contain the parameters as described in Table 4.15.9.4-1. The AF may subscribe to NG-RAN timing synchronization information updates via Nnef_ASTI_Subscribe service operation. The AF may receive 5G access stratum time distribution status update or NG-RAN timing synchronization information via Nnef_ASTI_UpdateNotify service operation.', '', 'Table 4.15.9.4-1: Description of 5G access stratum time distribution parameters', '', 'Parameter', '', 'Description', '', '5G access stratum time distribution indication (enable, disable)', '', 'Indicates that the access stratum time distribution via Uu reference point should be activated or deactivated for the associated UE identities.', '', 'Time synchronization error budget', '', 'Indicates the time synchronization error budget for the time synchronization service (as described in clause\xa05.27.1.9 of TS\xa023.501\xa0[2]).', '', '[optional]', '', 'Temporal Validity Condition', '', 'Indicates start-time and stop-time attributes that describe the time period when the time synchronization service is active.', '', '[optional]', '', 'Spatial Validity Condition', '', 'Indicates a geographical area (e.g. a civic address or shapes) or a TA list in which time synchronization service is enabled (NOTE 1).', '', '[optional]', '', 'Clock quality detail level', '', 'It indicates whether and which clock quality information to provide to the UE and can take one of the following values "clock quality metrics" or "acceptable/not acceptable indication".', '', '[optional]', '', 'Clock quality acceptance criteria', '', 'It indicates acceptance criteria for the UE. It is defined based on the attributes specified in Table 5.27.1.12-1 of TS\xa023.501\xa0[2]. The parameter shall be included if the "clock quality detail level" = "acceptable/not acceptable".', '', '[conditional]', '', 'NOTE 1:\tA geographical area requested by an AF includes at least one tracking area (TA), i.e. the granularity is restricted to a TA level in this release of the specifications.', '', '', '', '----media/image164.emf----', '', 'Figure 4.15.9.4-1: Management of 5G access stratum time information', '', '1.\tAM Policy Association establishment as described in clause\xa04.16.1.', '', '2.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '-\tTo create a new request, the AF provides access stratum time distribution parameters to the NEF using the Nnef_ASTI_Create service operation (together with the AF identifier and potentially further inputs as specified in table 4.15.9.4-1), including a target (one UE identified by SUPI or GPSI, a group of UEs identified by an External Group Identifier. The NEF forwards the GPSI or the External Group Identifier to the TSCTSF by including it inside the Ntsctsf_ASTI_Create request.', '', '-\tTo update or remove an existing request, the AF invokes an Nnef_ASTI_Update or Nnef_ASTI_Delete service operation providing the corresponding time synchronization configuration id.', '', '-\tTo query the status of the access stratum time distribution, the AF invokes Nnef_ASTI_Get service operation providing the target (a list of UE identities (SUPI or GPSIs) or an External Group Identifier).', '', '-\tIf the AF includes clock quality detail level, the request creates a subscription at the TSCTSF for notifications for the changes in 5G access stratum time distribution status.', '', '-\tTo subscribe to NG-RAN timing synchronization status updates, the AF can subscribe to notifications as described in clause\xa04.15.9.5.1.', '', "\tThe AF that is part of operator's trust domain may invoke the services directly with the TSCTSF and identifies the targeted UE(s) using SUPI(s) or an Internal Group Identifier.", '', '\tIf the request includes a spatial validity condition and the AF uses a geographical area as a spatial validity condition, the NEF transforms this information into 3GPP identifiers (e.g. TAI(s)) based on pre-configuration.', '', 'NOTE\xa01:\tSteps 1 and 2 can occur in any order.', '', "NOTE\xa02:\tIt is assumed that AFs within the operator's domain is aware of TAs that can be used to formulate a spatial validity condition for Time Synchronization Coverage Area (see clause\xa05.27.1.10 of TS\xa023.501\xa0[2]).", '', '3.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '-\tThe NEF authorizes the request. After successful authorization, the NEF invokes the Ntsctsf_ASTI_Create/Update/Delete/Get service operation with the TSCTSF discovered and selected as described in clause\xa06.3.24 of TS\xa023.501\xa0[2].', '', '-\tThe TSCTSF determines whether the targeted UE is part of a PTP instance in 5GS, if so the TSCTSF rejects the request (steps 4-10 are skipped).', '', '-\tThe TSCTSF checks whether the AF requested parameters comply with the stored Time Synchronization Subscription Data as defined in clause\xa05.27.1.11 of TS\xa023.501\xa0[2].', '', '-\tThe TSCTSF calculates the Uu time synchronization error budget as described in clause\xa05.27.1.9 of TS\xa023.501\xa0[2]. This does not apply in case of Ntsctsf_ASTI_Delete service operation.', '', '\t(When the procedure is triggered by PTP instance activation or modification in the TSCTSF):', '', '-\tThe TSCTSF calculates the Uu time synchronization error budget as described in clause\xa05.27.1.9 of TS\xa023.501\xa0[2] for corresponding SUPIs that are part of the PTP instance.', '', '4.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tIf the AF targeted UE(s) are identified by GPSI(s) or an External/Internal Group Identifier, the TSCTSF uses the Nudm_SDM_Get request to retrieve the subscription information (SUPI(s)) from the UDM using each GPSI or the External Group Identifier as received from the NEF, or an Internal Group Identifier as provided by the AF directly.', '', '5.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tThe UDM provides the Nudm_SDM_Get response containing SUPI(s) that are mapped from each received GPSI or the External/Internal Group Identifier and identify the targeted UEs.', '', '6a.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tIf the Ntsctsf_ASTI_Create request in step\xa02 contains a spatial validity condition, then the TSCTSF performs the following operations:', '', '-\tFor each target UE, TSCTSF checks with the stored Time Synchronization Subscription data if the spatial validity condition is allowed and determines whether the TSCTSF has subscribed for the UE presence in Area of Interest composed by the TAs list in the spatial validity condition. If not, the TSCTSF discovers the AMF(s), serving in the TAs that comprise the spatial validity condition, using the NRF discovery service (Nnrf_NFDiscovery_Request) with the list of TAs. Then the TSCTSF subscribes to the AMF(s) to receive notifications about the UE presence in Area of Interest using Namf_EventExposure operation with the corresponding event filters as described in clause\xa05.2.2.3. The subscribed area of interest may be the same as the spatial validity condition or may be a subset of the spatial validity condition (e.g. a list of TAs) based on the latest known UE location.', '', "-\tIn order to ensure that a TAI list specifying the AoI for the AMF is aligned with UE's Registration Area (RA), the following steps shall be performed:", '', '-\tWhen invoking the subscription with the AMF(s), the TSCTSF may provide an indication, a new Parameter Type = "Adjust AoI based on RA", that the AMF may adjust the received AoI depending on UE\'s RA.', '', '-\tAfter receiving the Namf_EventExposure_Subscribe request from the TSCTSF with the Parameter Type = "Adjust AoI based on RA" and specified AoI, the AMF compares TAs from the AoI with the UE\'s Registration Area (RA). If the AoI includes one or more TA(s) that are part of UE\'s current RA, the AMF reports the UE is inside the Area Of Interest, otherwise the AMF reports the UE is outside the Area Of Interest, as described in Annex D.', '', "-\tThe AMF notifies the TSCTSF about the UE's presence in the AoI using the Namf_EventExposure_Notify service operation.", '', '-\tBased on the notification from the AMF and spatial validity condition received in step\xa01, the TSCTSF determines whether to activate time synchronization service for this UE:', '', '-\tIf the UE location is within the spatial validity condition, the TSCTSF determines to enable access stratum time distribution for the UE.', '', '-\tIf the UE location is outside the spatial validity condition, the TSCTSF determines to disable access stratum time distribution for the UE.', '', '\tIf the Ntsctsf_ASTI_Create request in step\xa02 contains a temporal validity condition with a start-time and/or the stop-time that is in the future, the TSCTSF maintains the start-time and stop-time for the time synchronization service for the corresponding time synchronization configuration. If the start-time is in the past, the TSCTSF treats the request as if the time synchronization service was activated immediately. When the start-time is reached, the TSCTSF proceeds with the subsequent steps. When the stop-time is reached for active time synchronization service configuration, the TSCTSF proceeds as if Nnef_ASTI_Delete was received.', '', '6b.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tThe TSCTSF checks the AF request with the stored Time Synchronization Subscription data as described in clause\xa05.27.1.11 of TS\xa023.501\xa0[2] for any targeted UE. If the AF is authorized, the TSCTSF determines the Time Synchronization Coverage Area and responds with the Ntsctsf_ASTI_ConfigCreate/Update response as specified in clause\xa05.27.1.11 of TS\xa023.501\xa0[2]. Otherwise, if the AF is not authorized, steps 7-11 are skipped.', '', '7.\tThe TSCTSF searches the PCF for the UE using Nbsf_Management_Subscribe with a SUPI as an input parameter, indicating that it is searching for the PCF that handles the AM Policy Association of the UE.', '', '8.\tThe BSF provides to the TSCTSF the identity of the PCF for the UE for the requested SUPI via an Nbsf_Management_Notify operation. If matching entries already existed in the BSF when step\xa06 is performed, this shall be immediately reported to the TSCTSF.', '', '9.\tThe TSCTSF sends to the PCF for the UE its request for the AM policy of the UE (identified by SUPI) using Npcf_AMPolicyAuthorization request, containing the 5G access stratum time distribution indication (enable, disable), optionally the calculated Uu time synchronization error budget, optionally the clock quality detail level and clock quality acceptance criteria.', '', '\t(When the procedure is triggered by PTP instance activation, modification, or deactivation in the TSCTSF):', '', '\tThe TSCTSF ensures the 5G access stratum time distribution for the UE is enabled if at least one of the PTP instances the UE is part of is active.', '', '10.\tIf the PCF receives multiple time synchronization error budgets for a given UE, then the PCF picks the most stringent budget. The PCF takes a policy decision and then the PCF may initiate an AM Policy Association Modification procedure for the UE as described in clause\xa04.16.2.2 to provide AMF the 5G access stratum time distribution parameters. As part of this, the AMF shall, if supported, store the 5G access stratum time distribution indication (enable, disable), the Uu time synchronization error budget, clock quality detail level and clock quality acceptance criteria, and the UE reconnection indication in the UE context in AMF and send the 5G access stratum time distribution indication (enable, disable), the Uu time synchronization error budget, clock quality detail level and clock quality acceptance criteria when they are available, to NG-RAN during mobility registration, AM policy modification, Service Request, N2 Handover and Xn handover as specified in TS\xa038.413\xa0[10]. The NG-RAN node shall, if supported, store the information in the UE Context. Based on this information, the NG-RAN node provides the 5GS access stratum time to the UE according to the Uu time synchronization error budget as provided by the TSCTSF (if supported by UE and NG-RAN) and NG-RAN provides timing synchronization status reports to the UE (as described in clause\xa04.15.9.5.2).', '', '\tIf the UE has indicated a support for registration update procedure due to RAN timing synchronization status in as described in clause\xa05.3.4.4 of TS\xa023.501\xa0[2], and if the AMF received "clock quality detail level" as part of an AM Policy Association Modification procedure, the AMF sets the "UE reconnection indication" for the UE to connect to the network in the case when the UE later detects that the NG-RAN timing synchronization status has changed while the UE is in RRC Idle or RRC Inactive mode. The AMF shall send the UE reconnection indication to the UE updating the UE configuration as defined in clause\xa04.2.4.2.', '', '\tIf the AMF receives Uu time synchronization error budget in the Access Stratum Time Synchronization Service Authorization as part of the Access and Mobility Subscription data during registration procedure (see clause\xa04.28.2.1) and in the AM Policy, the AMF should use the value received from the AM policy.', '', 'NOTE\xa03:\tThis release of the specification assumes that deployments ensure that the targeted UEs and the NG-RAN nodes serving those UEs support Rel-17 propagation delay compensation as defined in TS\xa038.300\xa0[9].', '', '11.\tThe PCF of the UE replies to the TSCTSF with the result of Npcf_AMPolicyAuthorization operation.', '', '12.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tThe TSCTSF responds the AF with the Ntsctsf_ASTI_Create/Update/Delete/Get service operation response.', '', '13.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tThe NEF informs the AF about the result of the Nnef_ASTI_Create/Update/Delete/Get service operation performed in step\xa02.', '', '14.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tIf TSCTSF received spatial validity condition as part of the Ntsctsf_ASTI_Create request in step\xa02, upon the reception of a change in the UE presence in Area of Interest notification, the TSCTSF determines if the spatial validity condition shall trigger an activation or deactivation of the access stratum time distribution:', '', '-\tIf the UE has moved inside the Time Synchronization Coverage Area, then the TSCTSF determines to enable access stratum time distribution for the UE.', '', '-\tIf the UE has moved outside the Time Synchronization Coverage Area, then the TSCTSF determines to disable access stratum time distribution for the UE.', '', '\tIf TSCTSF received clock quality acceptance criteria as part of the Ntsctsf_ASTI_Create request in step\xa02, upon a reception of a UE presence in Area of Interest notification, the TSCTSF determines if the UE is impacted correlating UE presence in Area of Interest notifications provided by the serving AMF and the timing synchronization status received (e.g. degradation, failure, recovery) as described in clause\xa05.27.1.12 of TS\xa023.501\xa0[2].', '', '15-16.\t(When the procedure is triggered by the AF request to influence the 5G access stratum time distribution):', '', '\tIf TSCTSF determines to modify access stratum time distribution for the UE in step\xa014 for which the AF requested access stratum time distribution, the TSCTSF notifies the service status to AF.', '', '\tIf the TSCTSF determines a change in the support of the clock quality acceptance criteria for the UE in step\xa014 for which the AF requested access stratum time distribution, the TSCTSF includes the clock quality acceptance criteria result to the notification to the AF. Based on this notification, the AF decides whether to modify the ASTI service configured for the UE using Ntsctsf_ASTI_Update service.', '', '17.\tIf there was a failure/degradation/improvement event in step\xa014, the NG-RAN provides timing synchronization status reports to the UE (as described in clause\xa04.15.9.5.2).', '']</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1919528548624218</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.16.5.1	SMF initiated SM Policy Association Modification&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>['', 'The SMF may initiate the SM Policy Association Modification procedure if a Policy Control Request Trigger is met.', '', 'NOTE\xa01:\tWhen SMF instance is changed within the same SMF set the callback URI can be updated via this procedure.', '', '----media/image180.emf----', '', 'Figure 4.16.5.1-1: SMF initiated SM Policy Association Modification', '', 'For local breakout roaming, the interaction with HPLMN (e.g. step\xa02) is not used. In local breakout roaming, the V-PCF interacts with the UDR of the VPLMN.', '', '1.\tWhen a Policy Control Request Trigger condition is met the SMF requests to update (Npcf_SMPolicyControl_Update) the SM Policy Association and provides information on the conditions that have been met as specified in clause\xa05.2.5.4.5.', '', '\tIf the SMF is notified by NRF that the stored PCF instance is not reachable, it should query the NRF for PCF instances within the PCF set and select another instance (see clause\xa06.3.1.0 of TS\xa023.501\xa0[2]).', '', '\tThe QoS constraints from the VPLMN are provided by the H-SMF to the H-PCF in the home routed roaming scenario as defined in clause\xa04.3.2.2.2.', '', '2.\tWhen an AF has subscribed to an event that is met due to the report from the SMF, the PCF reports the event to the AF or TSCTSF by invoking the Npcf_PolicyAuthorization_Notify service operation.', '', '\tIf the SMF has reported that new 5GS Bridge/Router information has been detected and no AF session exists for this PDU session yet:', '', '-\tIf integration with TSN applies (see clause\xa05.28 of TS\xa023.501\xa0[2]), then the PCF informs a pre-configured TSN AF using the Npcf_PolicyAuthorization_Notify (User-plane Node ID, the port number of the DS-TT port, MAC address of the DS-TT Ethernet port for the PDU Session and UE-DS-TT Residence Time (if available)) service operation for the event of "5GS Bridge/Router information Notification" as described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20].', '', '-\tOtherwise, i.e. if the integration with TSN does not apply, the PCF may inform discovered and selected TSCTSF (as described in clause\xa06.3.24 of TS\xa023.501\xa0[2]) using the Npcf_PolicyAuthorization_Notify (User Plane Node ID, UE-DS-TT Residence Time (if available), the port number for the PDU session and MAC address of the DS-TT Ethernet port for Ethernet type PDU Session or IP address for IP type PDU Session, MTU size for IPv4 or IPv6 (if available)) service operation for the event of "5GS Bridge/Router information Notification" as described in clause\xa06.1.3.18 of TS\xa023.503\xa0[20]. In the case of private IPv4 address being used for IP type PDU Session, the Npcf_PolicyAuthorization_Notify also contains DNN and S-NSSAI of the PDU Session.', '', 'NOTE\xa02:\tFor a given DNN and S-NSSAI, it is assumed that the network only needs to deploy one or TSCTSF Set in this Release of the specification.', '', '\tWhen the TSN AF or TSCTSF receives the Npcf_PolicyAuthorization_Notify message and no AF session exists for this PDU Session, the TSN AF shall use the Npcf_PolicyAuthorization service described in clause\xa05.2.5.3 to request creation of a new AF session specific to the received MAC address of the DS-TT Ethernet port of the PDU Session, while the TSCTSF shall use the Npcf_PolicyAuthorization service to request creation of a new AF session specific to the received MAC address of the DS-TT Ethernet port (if available, for Ethernet type PDU Session) or IP address (for IP type PDU Session) of the PDU Session. In the case of private IPv4 address being used for IP type PDU Session, the TSCTSF shall use the Npcf_PolicyAuthorization service to request creation of a new AF session specific to the received IP address, DNN and S-NSSAI of the IP type PDU Session. The TSN AF or TSCTSF shall then use the Npcf_PolicyAuthorization service to subscribe for notifications for 5GS Bridge/Router information Notification event over the newly established AF session. The TSN AF or TSCTSF may provide a Port or User-Plane Management Information Container for the PDU Session and related port number in the Npcf_PolicyAuthorization creation request.', '', '\tIf the SMF has reported PMIC with port number or UMIC, then the PCF also provides these information elements to the TSN AF or TSCTSF.', '', '\tWhen integration with TSN applies (see clause\xa05.28 of TS\xa023.501\xa0[2]), the TSN AF calculates the bridge delay for each port pair, using the UE-DS-TT Residence Time of the DS-TT Ethernet port(s) for the 5GS bridge indicated by the 5GS user-plane Node ID.', '', '3.\tIf the PCF determines a change to policy counter status reporting is required, it may alter the subscribed list of policy counters using the Initial, Intermediate or Final Spending Limit Report Retrieval procedures as defined in clause\xa04.16.8.', '', '4.\tThe PCF makes a policy decision as described in TS\xa023.503\xa0[20]. The PCF may determine that updated or new policy information needs to be sent to the SMF.', '', '\tIf the SMF reported accumulated usage for the PDU session in step\xa01 the PCF deducts the value from the remaining allowed usage for the subscriber, DNN and S-NSSAI in the UDR by invoking Nudr_DM_Update (SUPI, DNN, S-NSSAI, Policy Data, Remaining allowed Usage data, updated data) service operation.', '', '\tIf the SMF reported accumulated usage for a MK(s) in step\xa01 the PCF deducts the value from the remaining allowed usage for the MK in the UDR by invoking Nudr_DM_Update (SUPI, DNN, S-NSSAI, Policy Data, Remaining allowed Usage data, updated data (including MK(s))) service operation.', '', '\tWhen new PCF instance is selected in step\xa01, the new PCF should invoke Nbsf_Management_Update service operation to update the binding information in BSF.', '', '\tIn the non-roaming case, the PCF may subscribe to Analytics from NWDAF as defined in clause\xa06.1.1.3 of TS\xa023.503\xa0[20].', '', '\tIn the home-routed roaming scenario, the H-PCF ensures that the QoS constraints provided by the VPLMN are taken into account as described in TS\xa023.503\xa0[20].', '', 'NOTE\xa03:\tFor local breakout roaming, PDU Session policy control subscription information and Remaining allowed usage subscription information for monitoring control as defined in clause\xa06.2.1.3 of TS\xa023.503\xa0[20] are not available in V-UDR and V-PCF uses locally configured information according to the roaming agreement with the HPLMN operator.', '', '5.\tThe PCF answers with a Npcf_SMPolicyControl_Update response with updated policy information about the PDU Session determined in step\xa04.', '']</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1966964421457034</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.16.5.2	PCF initiated SM Policy Association Modification&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>['', 'The PCF may initiate SM Policy Association Modification procedure based on internal PCF event or triggered by other peers of the PCF (AF, NWDAF, CHF, UDR and TSCTSF).', '', '----media/image181.emf----', '', 'Figure 4.16.5.2-1: PCF initiated SM Policy Association Modification', '', 'This procedure may be triggered by a local decision of the PCF or based on triggers from other peers of the PCF (AF, NWDAF, CHF, UDR and TSCTSF):', '', 'An SM Policy Association is established, with the PCF as described in clause\xa04.16.4 before this procedure is triggered.', '', 'For local breakout roaming, the interaction with HPLMN (e.g. step\xa01b and step\xa02) is not used. In local breakout roaming, the V-PCF interacts with the UDR of the VPLMN.', '', '1a.\tAlternatively, optionally, the AF, NEF or TSCTSF provides/revokes service information to the PCF e.g. due to AF session signalling, by invoking Npcf_PolicyAuthorization_Create Request or Npcf_PolicyAuthorization_Update Request or Npcf_PolicyAuthorization_Subscribe Request service operation. The PCF responds to the AF, NEF or TSCTSF.', '', '1b.\tAlternatively, optionally, the CHF provides a Spending Limit Report to the PCF as described in clause\xa04.16.8. and responds to the CHF.', '', '1c.\tAlternatively, optionally, the UDR notifies the PCF about a policy subscription change by invoking Nudr_DM_Notify (Notification correlation Id, Policy Data, SUPI, updated data, "PDU Session Policy Control Data" | "Remaining allowed Usage data"); The PCF responds to the UDR.', '', '1d.\tAlternatively, optionally, some internal event (e.g. timer, or local decision based on analytics information requested and received from NWDAF) occurs at the PCF. The analytics (i.e. Analytics ID) which can be requested from NWDAF are described in clause\xa06.1.1.3 of TS\xa023.503\xa0[20].', '', '2.\tIf the PCF determines a change to policy counter status reporting is required, it may alter the subscribed list of policy counters using the Initial, Intermediate or Final Spending Limit Report Retrieval procedures as defined in clause\xa04.16.8.', '', 'NOTE\xa01:\tThe PCF ensures that information received in step\xa01 and 2 can be used by later policy decisions.', '', 'NOTE\xa02:\tFor local breakout roaming, PDU Session policy control subscription information and Remaining allowed usage subscription information for monitoring control as defined in clause\xa06.2.1.3 of TS\xa023.503\xa0[20] are not available in V-UDR and V-PCF uses locally configured information according to the roaming agreement with the HPLMN operator.', '', '3.\tThe PCF makes a policy decision. The PCF may determine that updated or new policy information need to be sent to the SMF. In the non-roaming case, the PCF may also decide to subscribe to a new Analytics ID from NWDAF as described in clause\xa06.1.1.3 of TS\xa023.503\xa0[20].', '', '\tIf the AF provided a Background Data Transfer Reference ID in step\xa01a, the PCF may retrieve it from the UDR by invoking the Nudr_DM_Query (BDT Reference Id, Policy Data, Background Data Transfer) service.', '', '4.\tIf the PCF has determined that SMF needs updated policy information in step\xa03 or if the PCF has received a Port Management Information Container for the PDU Session and related port number from the AF or TSCTSF in step\xa01a, the PCF issues a Npcf_SMPolicyControl_UpdateNotify request with possibly updated policy information about the PDU Session.', '', '\tIf the PCF has received a subscription for 5GS Bridge/Router information Notification in Step 1a, the PCF can include a subscription for SMF event for "5GS Bridge/Router information" associated with the PDU Session into the Npcf_SMPolicyControl_UpdateNotify request. In this case, if the SMF has stored the 5GS Bridge/Router information and has not reported the event to the PCF, the SMF notifies the PCF for the event of "5GS Bridge/Router Information ".', '', '\tIf the PCF has received a Npcf_PolicyAuthorization_Unsubscribe request to unsubscribe for 5GS Bridge/Router information Notification, the PCF can remove the subscription for SMF event for "5GS Bridge/Router information" associated with the PDU Session and issue a Npcf_SMPolicyControl_UpdateNotify request with the updated policy information about the PDU Session.', '', 'NOTE\xa03:\tIf the TSCTSF receives a Requested 5GS delay and the TSCTSF does not have the 5GS Bridge/Router information for the AF-session, the TSCTSF can subscribe for the 5GS Bridge/Router information from the PCF by triggering a Npcf_PolicyAuthorization_Subscribe request.', '', '\tIf the PCF has received a subscription to notification on BAT offset along with the TSC Assistance Container from TSCTSF in step\xa01a, the PCF can include a subscription to notification on BAT offset associated with the PDU Session into the Npcf_SMPolicyControl_UpdateNotify request.', '', '5.\tThe SMF acknowledges the PCF request with a Npcf_SMPolicyControl_UpdateNotify response.', '', '\tIf the Npcf_SMPolicyControl_UpdateNotify request is received from new PCF instance in the PCF Set, the SMF store the SM policy association towards the new PCF instance.', '']</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.2034346549512179</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.18.2.1	PFD management triggered by AF&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>['', '----media/image219.emf----', '', 'Figure 4.18.2.1-1 procedure for PFD management via NEF (PFDF) triggered by AF', '', '1.\tThe AF invokes the Nnef_PFDManagement_Create/Update/Delete service. The Allowed Delay is an optional parameter. If the Allowed Delay is included, it indicates that the list of PFDs in this request should be provisioned within the time interval indicated by the Allowed Delay to the SMF(s) that have subscribed to the PFD management service using Nnef_PFDManagement_Subscribe service operation.', '', '2.\tNEF checks whether the AF is authorized to perform this request and NEF (PFDF) checks if the AF is authorised to provision this PFD data based on the operator policies. Besides the information from the AF, the NEF may subscribe to the NWDAF to receive application detection analytics defined in clause\xa06.16.4 of TS\xa023.288\xa0[50].', '', '3.\tThe NEF (PFDF) invokes the Nudr_DM_Create/Update/Delete (Application Identifier, one or more sets of PFDs, Allowed Delay) to the UDR.', '', '4.\tThe UDR updates the list of PFDs for the Application Identifier.', '', '5.\tThe UDR sends a Nudr_DM_Create/Update/Delete Response to the NEF (PFDF).', '', '6.\tThe NEF sends Nnef_PFDManagement_Create/Update/Delete Response to the Application Function.', '']</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2153012496499584</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.18.3.2	Management of PFDs in the SMF&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>LR3_configuration</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>['', 'The procedure in this sub clause may be used when two MC service servers are serving users in the same area and are configured to share MBMS bearers for that specific area. The MC service servers are of the same kind, and the MC service servers may participate in the same group call, and by that have a need to broadcast the same content.', '', 'Pre-conditions:', '', '-\tAll MC service servers are configured with the contact information of those MC service servers that are configured to take the MBMS bearer control role.', '', '----media/image84.emf----', '', 'Figure 10.7.3.9.2.2-1: Multiple server MBMS procedure', '', '1.\tThe MC service server 1 evaluates whether multicast is desired for each service area in which MC service group members are located, based upon the locations, affiliation status and other factors.', '', '2.\tThe MC service server 1 determines whether another MC service server has already established a bearer with coverage for the MBMS service area where multicast is desired. To do this, the MC service server 1 consults a pre-configured list of MC service servers and sends them a discover bearer request. This request may be sent to several MC service servers.', '', 'NOTE\xa01:\tMC service servers of the same type can be configured to discover bearers from a single server. The single server then becomes a centralized entity for MBMS bearer control for the MC service. Similarly, all MC service servers of all types can be configured to discover bearers from a single server. The single server then becomes a centralized MBMS bearer controller for all MC services.', '', '3.\tThe MC service server 2 (MBMS bearer control role) responds with a discover bearer response indicating whether there is an MBMS bearer available in the specific MBMS service area with the requested bandwidth. The discover bearer response message includes the TMGI of the bearer that is shared between the MC service servers. If the bearer of interest has insufficient bandwidth, the polling MC service server 1 may resort to unicast, or may allocate another bearer for the congested area. If a duplicate bearer is allocated for the same area, the bearer should not be shared with other servers and may be torn down as soon as the congestion on the original bearer clears up, in order to conserve resources.', '', 'For any MBMS service areas not covered by another MC service server, the MC service server 1 prepares to distribute media to those MBMS service areas via multicast by setting up a bearer. The bearer set up by the MC service server 1 may then become available for other MC service servers (controlling role) for other MC service groups.', '', '4.\tThe MC service server 1 performs the MBMS bearer announcement and the MBMS listening reporting according relevant procedures specified in this specification. If the MC service server 2 is authorized to receive MBMS related location information from the users utilizing the services from MC service server 1, the MC service server 2 may optionally do the MBMS bearer announcement and handling the listening reports on behalf of MC service server 1. Listening reports shall in this case be sent to both MC service server 1 and MC service server 2.', '', 'NOTE\xa02:\tStep 1-4 is also performed by MC service server 3, but is not shown in the procedure to make it easier to read.', '', '5.\tThe MC service client 2 initiate a group call that is subject for multicast transmission. In this scenario there are more than one MC service server (i.e. MC service server 1 and MC service server 3) that serves MC service clients that are affiliated to the group, and by that should receive the media in the group call.', '', '6a.\tThe MC service server 1 sends a media distribution request to the MC service server 2 (MBMS bearer control role). The media distribution request includes the MC group identifier. This indicates that the media distribution request is used for this specific group call.', '', '6b.\tThe MC service server 3 sends a media distribution request to the MC service server 2 (MBMS bearer control role). The media distribution request includes the MC group identifier. This indicates that the media distribution request is used for this specific group call.', '', '7a.\tThe MC service server 2 (MBMS bearer control role) sends a media distribution response to the MC service server 1 indicating whether the request can be supported and supplies details about the bearer. This also includes details on which media stream that should be used for broadcasting the media on the MBMS bearer. This information is used in the MapGroupToBearer message sent by the MC service server when setting up the group call.', '', '7b.\tThe MC service server 2 (MBMS bearer control role) sends a media distribution response to the MC service server 3 indicating that the group call is already transmitted on the MBMS bearer by another MC service server. Based on the information, the MC service server 3 could decide to not broadcast media if media is already being broadcasted.', '', '8a.\tThe media is sent from the MC service client 2 to MC service server 1, which is the participating server for the MC service group of the group call. ', '', '8b.\tThe media is forwarded to all MC service servers that are serving users that takes part in the group call.', '', 'NOTE\xa03:\tThe figure above does not visualize the participating server for the MC service group and controlling server for the MC service group. The media is sent to all participating servers for the MC service group which are the servers that decide on unicast or multicast transmission.', '', '9.\tThe MC service server 1 forwards the media to MC service server 2 (MBMS bearer control role). ', '', '10.\tThe MC service server 2 (MBMS bearer control role) distributes the media to MBMS served MC service client 1 via multicast.', '', '11.\tThe MC service server 1 sends a media distribution release request, informing the MC service server 2 (MBMS bearer control role) to request the MC service server 2 (MBMS bearer control role) to release the capacity that was reserved in step 5. The media distribution release request shall only be sent when the group call is terminated. 12.\tThe MC service server 2 (MBMS bearer control role) respond to the request by sending a media distribution release request.', '']</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>0.220388196147849</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>['', 'This procedure enables the provisioning, modification or removal of PFDs associated with an application identifier in the SMF. Either the complete list of all PFDs of all application identifiers, the complete list of all PFDs of one or more application identifiers or a subset of PFDs for individual application identifiers may be managed.', '', 'Each PFD of an application identifier is associated with a PFD id if a subset of the PFD(s) associated with an application identifier can be provisioned, updated or removed. If always the full set of PFD(s) for an application identifier is managed in each transaction, PFD ids do not need to be provided.', '', '----media/image222.emf----', '', 'Figure 4.18.3.2-1 Management of PFDs in the SMF', '', '1.\tAs pre-requisite condition to receiving push notifications, the SMF subscribes to PFD notifications from the NEF (PFDF) by sending Nnef_PFDManagement_Subscribe message.', '', '2.\tThe NEF (PFDF) invokes Nnef_PFD_Management_Notify (Application Identifier, PFDs, PFDs operation) to the SMF(s) to which the PFD(s) shall be provided. The NEF (PFDF) may decide to delay the distribution of PFDs to the SMF(s) for some time to optimize the signalling load. If the NEF (PFDF) received an Allowed Delay for a PFD, the NEF (PFDF) shall distribute this PFD within the indicated time interval.', '']</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.2200024974919583</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.1a.5.1	Types of event&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>23273-i20.docx</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>['', 'The following types of event are defined for a deferred location request.', '', 'a)\tUE availability: Any event in which the 5GCN has established a contact with the UE. This event is considered to be applicable when the UE is temporarily unavailable due to inaction by the user, or for temporarily loss of radio connectivity or IMSI detach and so on. The UE Available event only requires one response to an LCS client/AF and after this response, the UE Available event is concluded.', '', 'b)\tArea: An event where the UE enters, leaves or remains within a pre-defined geographical area. At least one type of area event can be defined (i.e. entering, leaving or remaining within the area). The LCS client or AF may define the target area as a geographical area or as a geopolitical name of an area. The PLMN may translate and define the target area as the identities of one or more radio cells or tracking areas. The LCS client or AF may request an additional check about whether the UE is located within the provisioned target area. The area event may be reported one time only, or multiple times. The area event report shall contain an indication of the event occurrence. The location estimate may be included in the report. If an area event is detected by the UE but an event report cannot be sent (e.g. because the UE cannot access the network or due to a minimum reporting interval), a report shall be sent later when possible irrespective of whether the area event still applies for the current UE location. Area event reporting is controlled by a minimum and a maximum reporting time. The minimum reporting time defines the minimum allowed time between successive area events. The maximum reporting time defines the maximum time between successive reports. When a UE sends a report due to expiration of the maximum reporting time, the UE indicates expiration of the maximum reporting time as the trigger event. The maximum reporting time enables the AF, LCS client and HGMLC to remain aware of continuing support by the UE for the area event (e.g. to detect if area event reporting may have been aborted due to UE power off).', '', 'NOTE:\tTo achieve more precise usage of area event in some scenario, e.g. for small target area, it may be useful if LCS Client/AF requests UE location estimate and compares the location estimate with the target area.', '', 'c)\tPeriodic Location: An event where a defined periodic timer expires in the UE and activates a location report. If a periodic event is detected by the UE but an event report cannot be sent (e.g. because the UE cannot access the network temporarily), a report shall be sent later when possible and the periodic timer for the next event shall then be started. The reporting duration for periodic location shall equal the requested number of reports multiplied by the periodic interval even when reports are delayed.', '', 'd)\tMotion: An event where the UE moves by more than some predefined straight line distance from a previous location. The motion event may be reported one time only, or multiple times. The motion event report shall contain an indication of the event occurrence. A location estimate may be included in the report if requested by the LCS client or AF. For successive motion event reports, motion is determined relative to the UE location corresponding to the immediately preceding event report (including an event report triggered by expiration of the maximum reporting time). If a motion event is detected by the UE but an event report is deferred (e.g. because the UE cannot access the network temporarily), a report shall be sent later when possible irrespective of whether the motion event still applies to the current UE location. Motion reporting is controlled by a minimum and a maximum reporting time. The minimum reporting time defines the minimum allowed time between successive event reports. The maximum reporting time defines the maximum time between successive reports. When a UE sends a report due to expiration of the maximum reporting time, the UE indicates expiration of the maximum reporting time as the trigger event. The maximum reporting time enables the AF, LCS client and HGMLC to remain aware of continuing support by the UE for the motion event (e.g. to detect if motion event reporting may have been aborted due to UE power off).', '']</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1982068841516977</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.2.11.3	Configuration for Early Admission Control (EAC) update procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>['', 'The configuration for Early Admission Control (EAC) update procedure indicates to the AMF the activation or the deactivation of the EAC mode for the S-NSSAI subject to NSAC. EAC mode means that the AMF is required to perform the number of UEs per network slice availability check and update procedure before the S-NSSAI subject to NSAC is included in the Allowed NSSAI or Partially Allowed NSSAI and sent to the UE. EAC mode is only applicable in the AMF when the update flag is set to increase.', '', 'The AMF implicitly subscribes to the EAC notification for the S-NSSAI when it performs the first network slice availability check and update procedure for the S-NSSAI with the NSACF. The NSACF sends the EAC mode notification towards all notification endpoints associated with the S-NSSAI.', '', '----media/image21.emf----', '', 'Figure 4.2.11.3-1: Early Admission Control (EAC) update procedure', '', '1.\tThe number of UEs registered with a network slice subject to NSAC crosses a certain operator defined threshold. The NSACF determines whether to activate or deactivate the EAC mode.', '', '2.\tThe NSACF triggers Nnsacf_NSAC_EACNotify operation including the S-NSSAI(s) for which the EAC mode is to be activated or deactivated and a EAC flag(s) set to activated if the number of UEs registered with the network slice is above certain threshold or set to deactivated if the number of the UEs registered with the network slice is below certain threshold which may be same or different with respect to the activation threshold.', '', 'NOTE\xa01:\tWhen the operator set the EAC inactive threshold, the Denial-of-Service issue due to a potential burst of registration request needs to be taken into account.', '', '3.\tThe AMF uses the EAC flag to decide when to trigger the number of UEs per network slice availability check and update procedure so that delays to the registration procedure and impact to the already allowed network slices are avoided.', '', 'If the EAC flag indicates EAC mode activated, the AMF triggers the number of UEs per network slice availability check and update procedure before the Registration Accept step\xa0of the registration procedure or before the UE Configuration Update message.', '', 'If the EAC flag indicates EAC mode deactivated, the AMF triggers the number of UEs per network slice availability check and update procedure after Registration Accept step\xa0of the registration procedure or after the UE Configuration Update.', '', 'NOTE\xa02:\tWhen the S-NSSAI subject to NSAC and NSSAA, with EAC mode activated or deactivated, the AMF performs them as described in clause\xa04.2.11.2.', '']</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.203492204332494</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.22.9.5	Registration procedures for non-3GPP access path switching&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>['', 'If the UE supports non-3GPP access path switching and the AMF indicates that the network supports non-3GPP access path switching as described in clause\xa04.22.2, the UE may trigger a Mobility Registration Update via a new non-3GPP access to switch traffic from an old non-3GPP access (i.e. TNGF or N3IWF) to the new non-3GPP access (i.e. TNGF or N3IWF) if the PLMN of the selected new non-3GPP access is the same PLMN of the old non-3GPP access.', '', 'The UE may trigger non-3GPP path switching if the AMF indicated support during registration as described in clause\xa04.22.9.1, even if the SMF did not indicate support to the UE during the MA PDU Session Establishment.', '', 'In this case the Registration procedure described in clause\xa04.22.9.1 applies with the differences and clarifications described in this clause:', '', '----media/image227.emf----', '', 'Figure 4.22.9.5-1: Mobility Registration procedure for non-3GPP access path switching', '', '1.\tThis is the same as step\xa01 in clause\xa04.22.9.1, with the following additions:', '', '-\tIf the UE wants to switch the user plane from an old non-3GPP access to a new non-3GPP access where the Mobility Registration Update is sent, the UE indicates PDU Session ID(s) of the PDU Session(s) in the List Of PDU Sessions To Be Activated. This may include both PDU Session ID(s) corresponding to MA PDU Sessions and single access PDU Sessions.', '', '\tThe UE may also provide an ("Non-3GPP access path switching while using old AN resources") indication in the Registration Request to indicate that the UP connection(s) via the old non-3GPP access can still be used for the MA PDU Session(s) during the Registration procedure. If the UP connection(s) via the old non-3GPP access cannot be used by the UE during the Registration procedure, the UE shall not provide a "Non-3GPP access path switching while using old AN resources" indication.', '', '\tThe UE shall not perform non-3GPP access path switching if the PLMN of the selected new non-3GPP access is different from the PLMN of the old non-3GPP access.', '', '2.\tThis is the same as step\xa02 in Figure 4.2.2.2.2-1.', '', '3.\tThis is the same as step\xa03 in Figure 4.2.2.2.2-1 with the following additions:', '', '-\tIf the UE provided an ("Non-3GPP access path switching while using old AN resources") indication in step\xa01 and the AMF supports to maintain two N2 connections for non-3GPP access during the Registration procedure and the SMF supports non-3GPP access path switching, the AMF delays the release of the old N2 connection until the UP connection via the new non-3GPP access is established. Otherwise, the AMF may trigger AN release towards the old non-3GPP access before proceeding with the Registration procedure in the new non-3GPP access, as described in clause\xa04.12.4.2 for untrusted non-3GPP access and clause\xa04.12a.4.2 for trusted non-3GPP access with the following clarifications:', '', '-\tDuring the AN release procedure, the AMF should notify the SMF to release the UP resources for the activated PDU Sessions before sending the N2 UE Context Release Command to the old non-3GPP access.', '', '-\tDue to pending downlink data in the UPF, the SMF may requests to establish user plane resources before non-3GPP path switching is finished. In this case, the AMF may reject the request with an indication that the Namf_Communication_N1N2MessageTransfer has been temporarily rejected. Upon reception of an Namf_Communication_N1N2MessageTransfer response with an indication that its request has been temporarily rejected, the SMF shall start a locally configured guard timer and wait for any message to come from an AMF. Upon reception of a message from an AMF, the SMF shall re-invoke the Namf_Communication_N1N2MessageTransfer (with N2 SM info and/or N1 SM info) to the AMF.', '', '4.\tThis is the same as steps 4-16 in Figure 4.2.2.2.2-1.', '', '5-11.\tThese steps are the same as step\xa017 in clause\xa04.22.9.1, with the following additions:', '', '-\tIf the Registration procedure is triggered to switch traffic from the old non-3GPP access to the new non-3GPP access and the UE provided an ("Non-3GPP access path switching while using old AN resources") indication in step\xa01, the AMF, if it supports maintaining two N2 connections for non-3GPP access, forwards this indication to the SMF in case the PDU Session is a MA PDU Session. If the SMF receives this indication, the SMF does not trigger release of the UP connection in the old non-3GPP access towards the old N3IWF or TNGF (if any).', '', 'NOTE\xa01:\tThe resource in the old non-3GPP access, i.e. the old N3IWF or TNGF, will in this case be released by the AMF in step\xa012.', '', '-\tAfter the UP connection via the new non-3GPP access is established, the UE and UPF start to send traffic via the new non-3GPP access.', '', '12.\tAfter the UP connection has been established in new non-3GPP access, the AMF also triggers AN release towards the old non-3GPP access (i.e. old N3IWF or TNGF), unless done previously with following clarifications:', '', '-\tFor the PDU Sessions indicated by the old non-3GPP access in the "List of PDU Session ID(s) with active N3 user plane" but not in the List Of PDU Sessions To Be Activated sent by the UE in step\xa01, the AMF requests the SMF to deactivate the PDU Session(s). For other PDU Sessions, the AMF shall not request the SMF to deactivate the PDU Session(s).', '', '-\tWhen the UE receives Registration Accept over the new non-3GPP access, the UE considers that the UE is deregistered from the old non-3GPP access.', '', 'NOTE\xa02:\tIn order to support RAT restrictions for non-3GPP access in the above procedure, it is assumed that UDM has provided restricted non-3GPP RAT types, if any, in the RAT restriction parameter in AM subscription data. In order to ensure that RAT restrictions are not violated in case the PDU Session is established in LBO roaming scenarios, the AMF in VPLMN may be configured to not indicate support for non-3GPP access path switching for inbound roaming UEs during MA PDU Session Establishment towards a SMF in VPLMN, unless it has been agreed in roaming agreements that non-3GPP access path switching can be supported for such UEs.', '']</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.2108583188658797</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.23.5.3	PDU Session modification procedure&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>['', 'For the non-roaming or LBO roaming case, the procedure defined in clause\xa04.3.3.3 (UE or network requested PDU Session Modification for Home-routed Roaming) is used to modify the PDU Session, with the V-SMF and V-UPF are replaced by I-SMF and I-UPF and H-SMF and H-UPF are replaced by SMF and UPF(PSA) respectively.', '', 'If the QoS Monitoring as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2] is triggered, the following enhancement to clause\xa04.3.3.3 applies:', '', '-\tIn step\xa03, if the SMF determines the need for QoS Monitoring for a QoS flow according to the information received from the PCF in step\xa01b, or based on SMF local policy, SMF includes QoS Monitoring indication and how frequently QoS Monitoring reporting to be performed, in Nsmf_PDUSession_Update Request message.', '', '-\tIn step\xa03, if, according to the information received from the PCF in step\xa01b, or based on SMF local policy, the SMF determines the need for GTP-U Path Monitoring as defined in clause\xa05.33.3.3 of TS\xa023.501\xa0[2], the SMF includes QoS monitoring policy in Nsmf_PDUSession_Update Request message.', '', '-\tIn step\xa04b, if in step\xa03 the I-SMF received QoS Monitoring indication and may receive how frequently QoS Monitoring reporting to be performed in Nsmf_PDUSession_Update Request the I-SMF includes the QoS Monitoring indication and how frequently QoS Monitoring reporting to be performed in N2 SM message sent to the 5G AN.', '', '-\tIn step\xa04b, if in step\xa03 the I-SMF received QoS monitoring policy indication and may receive how frequently QoS Monitoring reporting to be performed in Nsmf_PDUSession_Update Request, the I-SMF includes such QoS monitoring policy also to I-UPF for GTP-U path monitoring.', '', '-\tIn step\xa015, the I-SMF sends Nsmf_PDUSession_Update Response to SMF. The SMF updates N4 session of the UPF PSA as defined for the case where is no I-SMF.', '', '-\tIf later on the RAN provides over N2 the QoS Monitoring Result with UL packet delay information comprising the packet delays of RAN and N3 interface, the I-SMF forwards this information to the SMF in Nsmf_PDUSession_Update Request message.', '', '-\tI-SMF shall forward monitoring report (for QoS monitoring per GTP-U path) from I-UPF to SMF.', '']</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.1996755171471958</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.26.5.3	SMF Context Transfer procedure, LBO or no Roaming, no I-SMF&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>['', 'In the case of dynamic IP address assignment (IPv4 address and/or IPv6 prefix), the procedure in figure\xa04.26.4.1.1-1 assumes that, if the UE IP address is received from Old SMF, the control of the IP address(es) assigned by Old SMF is moved to New SMF by O&amp;amp;M procedures. New SMF is in full control of the concerned IP address(es) when the transfer is complete.', '', 'NOTE\xa01:\tIf UPF has the IP point of presence from the DNN, the same UPF is used.', '', '----media/image256.emf----', '', 'Figure 4.26.4.1.1-1: Context transfer of a PDU session', '', '1.\tSM context transfer is triggered, e.g. by OAM to Old SMF including SUPI, PDU session ID and New SMF ID or SMF set ID. The SMF selection by using SMF set ID not applicable when the IP range is managed by SMF.', '', '2.\t[Conditional - depending on current subscription] Old SMF subscribes to events when UE status becomes CM-IDLE or CM-CONNECTED with RRC_INACTIVE state (Namf_EventExposure_Subscribe).', '', '3.\t[Conditional - depending on the event] The AMF detects the monitored event occurs and sends the event report by means of Namf_EventExposure_Notify message, to Old SMF.', '', '4.\tFrom Old SMF to AMF Nsmf_PDUSession_SMContextStatusNotify (SMF transfer indication, Old SMF ID, New SMF ID or SMF set ID from Step 1, PDU Session ID, SUPI, SM Context ID).', '', '5.\tAMF, or SCP if delegated discovery is used, uses New SMF ID or SMF set ID to select New SMF and sends Nsmf_PDUSession_CreateSMContext request (PDU Session ID, Old SMF ID, SM Context ID in Old SMF, UE location info, Access Type, RAT Type, Operation Type, SMF transfer indication). The same PDU Session ID as received in step\xa04 is used. If the AMF receives the service request from the UE for the PDU session(s) affected by this procedure the AMF delays the transaction with the SMF until the step\xa013 completes. If the AMF receives the UE context transfer request from the other AMF due to the UE mobility, the AMF defers the response until the step\xa013 completes. Also, to avoid infinite waiting time, the AMF starts a locally configured guard timer upon sending the request to the SMF and the AMF decides the procedure has failed at expiry of the guard timer.', '', 'NOTE\xa02:\tEither delay or failure of the SM Context transfer may incur timeout or failure in UE procedure(s).', '', '6.\tFrom New SMF to Old SMF SMF Nsmf_PDUSession_ContextRequest request (SM Context type, SM Context ID, SMF transfer indication). If New SMF is not capable to transfer this SM Context (e.g. it is not responsible for the IP range), steps 9 to 12 are skipped.', '', '7.\tOld SMF releases the N4 session with the UPF by sending a flag notifying the UPF about the expected re-establishment of the N4 session for the same PDU session. Based on this, if supported, the UPF should delay the release of the N4 session up to step\xa010.2 to allow for uninterrupted packet handling until the N4 session is re-established by New SMF.', '', '8.\tFrom Old SMF to New SMF Nsmf_PDUSession_ContextRequest response (SM Context or endpoint address where New SMF can retrieve SM Context). The SM Context includes the IP address(es) if the PDU session is of type IPv4, IPv6 or IPv4v6, or the Ethernet MAC address(es) if the PDU session if of type Ethernet as well as the UPF to be selected by New SMF. Old SMF starts a timer to monitor the SMF context transferring process.', '', '9.\t[Conditional] If dynamic PCC is used for the PDU Session, New SMF sets up a new policy association towards PCF.', '', '10.1.\tUPF receives a N4 session establishment request for the same PDU session from step\xa07. The parameters from step\xa08 and if applies, step\xa09 are used.', '', '10.2.\tNew SMF performs a full re-establishment of the N4 session, establishing a new N4 session. All information related to the N4 session of Old SMF that is not used by the N4 session of New SMF is removed from UPF if not already done.', '', '11.\tNew SMF registers to UDM. The information stored at the UDM includes SUPI, SMF identity and the associated DNN and PDU Session ID.', '', '12.\tNew SMF subscribes to subscription changes for the UE.', '', '13.\tFrom New SMF to AMF: Nsmf_PDUSession_CreateSMContext response. If this response indicates a redirect (e.g. another SMF in the set), the procedure moves to step\xa05 with the indicated endpoint address as target.', '', '14.\tUDM notifies Old SMF that it is deregistered for the PDU Session by sending Nudm_UECM_DeregistrationNotification, optionally including New SMF ID', '', '15.\t[Conditional] If 14 was not received and the timer from step\xa08 expires, Old SMF re-establishes the N4 session. The UPF may for the purpose use the information stored in step\xa07. In this case, the procedure ends here.', '', '16.\t[Conditional] If Nudm_UECM_DeregistrationNotification in step\xa014 was received, Old SMF removes its policy association with PCF. Any changes to the QoS rules need to be sent to the UE when it becomes active.', '', '17.\tOld SMF releases any internal resources corresponding to the indicated PDU session. Subscribers to SMContextStatusNotify for the transferred SM context are notified of the context transfer and optionally of the new location of the transferred SM context.', '']</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.2097001264387592</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.3.3.2	UE or network requested PDU Session Modification (non-roaming and roaming with local breakout)&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>['', 'The UE or network requested PDU Session Modification procedure (non-roaming and roaming with local breakout scenario) is depicted in figure 4.3.3.2-1.', '', '----media/image34.emf----', '', 'Figure 4.3.3.2-1: UE or network requested PDU Session Modification (for non-roaming and roaming with local breakout)', '', '1.\tThe procedure may be triggered by following events:', '', '1a.\t(UE initiated modification) The UE initiates the PDU Session Modification procedure by the transmission of an NAS message (N1 SM container (PDU Session Modification Request (PDU session ID, Packet Filters, Operation, Requested QoS, Segregation, 5GSM Core Network Capability, Number Of Packet Filters, [Connection Capabilities], [Always-on PDU Session Requested], [Requested Non-3GPP Delay Budget])), PDU Session ID, UE Integrity Protection Maximum Data Rate, [Port Management Information Container]) message. Depending on the Access Type, if the UE was in CM-IDLE state, this SM-NAS message is preceded by the Service Request procedure. The NAS message is forwarded by the (R)AN to the AMF with an indication of User location Information. The AMF invokes Nsmf_PDUSession_UpdateSMContext (SM Context ID, N1 SM container (PDU Session Modification Request)).', '', '\tWhen the UE requests specific QoS handling for selected SDF(s), the PDU Session Modification Request includes Packet Filters describing the SDF(s), the requested Packet Filter Operation (add, modify, delete) on the indicated Packet Filters, the Requested QoS and optionally a Segregation indication. The Segregation indication is included when the UE recommends to the network to bind the applicable SDF(s) on a distinct and dedicated QoS Flow e.g. even if an existing QoS Flow can support the requested QoS. The network should abide by the UE request, but is allowed to proceed instead with binding the selected SDF(s) on an existing QoS Flow.', '', 'NOTE\xa01:\tOnly one QoS Flow is used for traffic segregation. If UE makes subsequent requests for segregation of additional SDF(s), the additional SDF(s) are multiplexed on the existing QoS Flow that is used for segregation.', '', '\tThe UE shall not trigger a PDU Session Modification procedure for a PDU Session corresponding to a LADN when the UE is outside the area of availability of the LADN.', '', '\tThe PS Data Off status, if changed, shall be included in the PCO in the PDU Session Modification Request message.', '', '\tFor a PDU Session which was established in the EPS, when the UE moves from EPS to 5GS for the first time, the UE includes an Always-on PDU Session Requested indication in the PDU Session Modification Request message if it wants to change the PDU Session to an always-on PDU Session.', '', '\tIf UE supports to report URSP rule enforcement to network and the URSP rule that triggered this PDU Session Establishment Request included the Indication for reporting URSP rule enforcement, the UE may provide Connection Capabilities as described in clause\xa06.6.2.4 of TS\xa023.503\xa0[20].', '', '\tWhen PCF is deployed, the SMF shall further report the PS Data Off status to PCF if the PS Data Off event trigger is provisioned, the additional behaviour of SMF and PCF for 3GPP PS Data Off is defined in TS\xa023.503\xa0[20].', '', '\tThe 5GSM Core Network Capability is provided by the UE and handled by SMF as defined in clause\xa05.4.4b of TS\xa023.501\xa0[2].', '', '\tThe UE Integrity Protection Maximum Data Rate indicates the maximum data rate up to which the UE can support UP integrity protection. It is set as defined in TS\xa023.501\xa0[2].', '', '\tThe Number Of Packet Filters indicates the number of supported packet filters for signalled QoS rules as described in clause\xa05.17.2.2.2 of TS\xa023.501\xa0[2].', '', '\tWhen it moves from EPS to 5GS for the first time, a UE that supports EAS re-discovery as described in clause\xa06.2.3.3 of TS\xa023.548\xa0[74], may indicate so in the PCO.', '', '\tWhen it moves from EPS to 5GS for the first time, a UE that hosts the EDC functionality shall indicate in the PCO its capability to support the EDC functionality (see clause\xa05.2.1 of TS\xa023.548\xa0[74]).', '', '\tPort Management Information Container may be received from DS-TT and includes DS-TT port related management information as defined in clause\xa05.28.3 of TS\xa023.501\xa0[2].', '', '1b.\t(PCF initiated SM Policy Association Modification) The PCF performs a PCF initiated SM Policy Association Modification procedure as defined in clause\xa04.16.5.2 to notify SMF about the modification of policies. This may e.g. have been triggered by a policy decision or upon AF requests, e.g. Application Function influence on traffic routing as described in step\xa05 in clause\xa04.3.6.2 or AF to provide Port management information Container.', '', '\tIf QoS Monitoring is requested by the AF, the PCF generates the QoS Monitoring policy for the corresponding service data flow and provides the policy in the PCC rules to the SMF in this step.', '', "\tIf Periodicity is provided by the AF, the PCF provides the Periodicity information in the PCC rules. Based on operator's local policies, the PCF sends to the SMF an indication in the PCC Rule to perform N6 Traffic Parameter Measurements for N6 Jitter and, if not received from the AF, also UL and/ or DL Periodicity measurements.", '', '\tThe PCF may provision a Protocol Description within PCC Rules based on the information provided by the AF and/or the local operator policies.', '', '1c.\t(SMF requested modification) The UDM updates the subscription data of SMF by Nudm_SDM_Notification (SUPI, Session Management Subscription Data). The SMF updates the Session Management Subscription Data and acknowledges the UDM by returning an Ack with (SUPI).', '', '1d.\t(SMF requested modification) The SMF may decide to modify PDU Session. This procedure also may be triggered based on locally configured policy or triggered from the (R)AN (see clause\xa04.2.6 and clause\xa04.9.1). It may also be triggered if the UP connection is activated (as described in Service Request procedure) and the SMF has marked that the status of one or more QoS Flows are deleted in the 5GC but not synchronized with the UE yet.', '', '\tIf interworking with TSN deployed in the transport network is supported and either the UPF supports CN-TL or NG-RAN supports AN-TL (see clause\xa04.4.8 of TS\xa023.501\xa0[2]), the procedure may be triggered due to reception of Status group from TN CNC.', '', '\tThe SMF may decide to modify PDU Session to send updated ECS Address Configuration Information to the UE as defined in clause\xa06.5.2 of TS\xa023.548\xa0[74].', '', '\tThe SMF may decide to modify PDU Session to send updated DNS server address to the UE as defined in clause\xa06.2.3.2.3 of TS\xa023.548\xa0[74].', '', '\tThe SMF may decide to modify PDU Session to send the EAS rediscovery indication to the UE as defined in clause\xa06.2.3.3 of TS\xa023.548\xa0[74].', '', '\tIf the SMF receives one of the triggers in step 1b ~ 1d, the SMF starts SMF requested PDU Session Modification procedure.', '', '1e.\t(AN initiated modification) (R)AN shall indicate to the SMF when the AN resources onto which a QoS Flow is mapped are released irrespective of whether notification control is configured. (R)AN sends the N2 message (PDU Session ID, N2 SM information) to the AMF. The N2 SM information includes the QFI, User location Information and an indication that the QoS Flow is released. The AMF invokes Nsmf_PDUSession_UpdateSMContext (SM Context ID, N2 SM information).', '', '\t(AN initiated notification control) If notification control is configured for a GBR QoS Flow, (R)AN sends a N2 message (PDU Session ID, N2 SM information) to SMF when the (R)AN decides the QoS targets of the QoS Flow cannot be fulfilled or can be fulfilled again, respectively. The N2 SM information includes the QFI and an indication that the QoS targets for that QoS Flow cannot be fulfilled or can be fulfilled again, respectively. When QoS targets cannot be fulfilled, the N2 SM information indicates a reference to the Alternative QoS Profile matching the values of the QoS parameters that the NG-RAN is currently fulfilling as specified in clause\xa05.7.2.4 of TS\xa023.501\xa0[2]. If the QoS Flow has a TSCAI including Capability for BAT adaptation and without Burst Arrival Time, the N2 SM information can also include a BAT offset as described in clause\xa05.27.2.5 of TS\xa023.501\xa0[2]. The AMF invokes Nsmf_PDUSession_UpdateSMContext (SM Context ID, N2 SM information). If the PCF has subscribed to the event, SMF reports this event to the PCF for each PCC Rule for which notification control is set in step\xa02.', '', "1f.\t(AMF initiated modification) If the UE supports CE mode B and use of CE mode changes from restricted to unrestricted or vice versa in the Enhanced Coverage Restriction information in the UE context in the AMF and the UE has already established PDU sessions, then the AMF shall trigger a PDU session modification to the SMFs serving the UE's PDU sessions when the AMF determines that NAS-SM timer shall be updated due to the change of Enhanced Coverage Restriction and include the extended NAS-SM indication only if use of CE mode B is now unrestricted in the Enhanced Coverage Restriction information in the UE context in the AMF.", '', '\tIf the AMF, based on configuration, is aware that the UE is accessing over a gNB using GEO satellite backhaul and GEO Satellite ID needs to be updated to the SMF, the AMF may, based on configuration, include the latest GEO Satellite ID as described in clause\xa05.43.2 of TS\xa023.501\xa0[2].', '', '1g.\t(AMF initiated modification) the AMF informs the SMF of updates of the NWDAF ID(s) used for UE related Analytics and corresponding Analytics ID(s). Also, If the PCF request notification of SM Policy Association and there is any PDU Session established to that DNN, S-NSSAI [PCF binding information, notification of SM Policy Association establishment Indication].', '', '1h.\t(AMF initiated modification) When the AMF determines that the S-NSSAI is to be replaced with an Alternative S-NSSAI (as described in clause\xa05.15.19 of TS\xa023.501\xa0[2]), the AMF invokes Nsmf_PDUSession_UpdateSMContext Request (SM Context ID, S-NSSAI, Alternative S-NSSAI) to the SMF of the PDU session associated with the S-NSSAI.', '', '\tBased on the extended NAS-SM timer indication, the SMF shall use the extended NAS-SM timer setting for the UE as specified in TS\xa024.501\xa0[25].', '', '2.\tThe SMF may need to report some subscribed event to the PCF by performing an SMF initiated SM Policy Association Modification procedure as defined in clause\xa04.16.5.1. This step may be skipped if PDU Session Modification procedure is triggered by step 1b or 1d. If dynamic PCC is not deployed, the SMF may apply local policy to decide whether to change the QoS profile.', '', '\tSteps 2a to 7 are not invoked when the PDU Session Modification requires only action at a UPF (e.g. gating).', '', '2a.\tThe SMF may update the UPF with N4 Rules related to new or modified QoS Flow(s).', '', 'NOTE\xa02:\tThis allows the UL packets with the QFI of a new or modified QoS Flow to be transferred.', '', '\tIf the SMF initiated the PDU Session Modification procedure in step\xa01b due to PCF initiated SM Policy Association Modification that adds one or more PCC Rule(s) with a TSC Assistance Container and if interworking with TSN deployed in the transport network is supported and the UPF does not support CN-TL, the SMF instructs the UPF to assign a distinct N3 tunnel end point address for the QoS Flow(s) assigned with a TSC Assistance Container.', '', '\tIf the SMF initiated the PDU Session Modification procedure in step\xa01d due to reception of Status group from TN CNC, the SMF includes a TL-Container with a set-request to the N4 Session Modification request that is sent to the UPF, as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tIf the SMF initiated the PDU Session Modification procedure in step\xa01b due to PCF initiated SM Policy Association Modification that adds one or more PCC Rule(s) with UL and/or DL Periodicity, the SMF composes the TSCAI with the periodicity information.', '', '\tIf the SMF initiated the PDU Session Modification procedure in step\xa01b due to PCF initiated SM Policy Association Modification that adds one or more PCC Rule(s) with an indication to perform N6 Traffic Parameter measurements (e.g. the N6 Jitter range associated with the DL Periodicity, and the UL/DL periodicity), the SMF instructs the UPF to perform N6 Traffic Parameter measurement associated with the DL Periodicity for the QoS Flow, as described in clause\xa05.37.8.2 of TS\xa023.501\xa0[2].', '', '\tIf N6 Jitter measurements are requested and DL Periodicity is received in the PCC Rule, the SMF shall include the DL Periodicity in the request to the UPF, see clause\xa05.8.5.11 of TS\xa023.501\xa0[2].', '', '\tIf the PCC Rule includes a Protocol Description, the SMF should provide the Protocol Description information to the UPF and request the UPF to mark the End of Data burst in the GTP-U header of the last PDU in downlink based on the protocol header identified by the Protocol Description information, according to the local operator policies, see clause\xa05.37.8.3 of TS\xa023.501\xa0[2].', '', '\tIf redundant transmission has not been activated to the PDU session and the SMF decides to perform redundant transmission for the QoS Flow, the SMF indicates to the UPF to perform packet duplication and elimination for the QoS Flow.', '', '\tIf redundant transmission has been activated on the PDU Session and the SMF decides to stop redundant transmission, the SMF indicates the UPF to release the CN Tunnel Info which is used as the redundancy tunnel of the PDU Session and also indicates the UPF to stop packet duplication and elimination for the corresponding QoS Flow(s).', '', 'NOTE\xa03:\tThe method to perform elimination and reordering on RAN/UPF based on the packets received from the two GTP-U tunnels is up to RAN/UPF implementation. The two GTP-U tunnels are terminated at the same RAN node and UPF.', '', '\tIf redundant transmission has not been activated to the PDU Session and the SMF decides to perform redundant transmission for the QoS Flow with two I-UPFs between the PSA UPF and the NG-RAN, the SMF sends a N4 Session Establishment Request message to the I-UPFs including UL CN Tunnel Info of the PSA UPF and a request to allocate CN Tunnel Info.', '', '\tSMF may make use of Redundant Transmission Experience analytics provided by NWDAF, when SMF takes a decision whether to perform redundant transmission, or stop redundant transmission if it had been activated, as described in clause\xa06.13 of TS\xa023.288\xa0[50].', '', '\tIf the AMF initiated the PDU Session Modification procedure in step\xa01h due to network slice replacement with the Alternative S-NSSAI and if the SMF determines that the PDU Session is retained, the SMF sends N4 Session Modification request message to the UPF to replace the S-NSSAI with the Alternative S-NSSAI, as described in clause\xa05.15.19 of TS\xa023.501\xa0[2].', '', '2b.\tThe UPF(s) respond to the SMF. If redundant transmission has not been activated to the PDU session and the SMF indicated the UPF to perform packet duplication and elimination for the QoS Flow in step\xa02a, the UPF allocates an additional CN Tunnel Info. The additional CN Tunnel Info is provided to the SMF.', '', '\tIf redundant transmission has not been activated to the PDU Session and the SMF decides to perform redundant transmission for the QoS Flow with two I-UPFs in step\xa02a, the UPFs allocate CN Tunnel Info. The CN Tunnel Info of each I-UPF is provided to the SMF.', '', '\tIf interworking with TSN deployed in the transport network is supported and the UPF supports CN-TL and received a TL-Container with a set-request from the SMF/CUC in step\xa02a (see clause\xa04.4.8 of TS\xa023.501\xa0[2]), the UPF/CN-TL includes a TL-Container with a set-response to the N4 Session Modification response, as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tIf requested by SMF in step\xa02a, the PSA UPF will initiate N4 Session Level reporting for N6 Traffic Parameter Measurement Report as described in clause\xa04.4.2.2. If N6 Traffic Parameter(s) are available then the response to the SMF in this step\xa0may include the N6 Traffic Parameter(s) (e.g., the N6 Jitter range associated with the DL Periodicity, and the UL/DL periodicity) for the QoS Flow (see clause\xa05.37.8.2 of TS\xa023.501\xa0[2]). The SMF composes the TSCAI with the received N6 Traffic Parameters.', '', '3a.\tFor UE or AN initiated modification or AMF initiated modification, the SMF responds to the AMF through Nsmf_PDUSession_UpdateSMContext Response ([N2 SM information (PDU Session ID, QFI(s), QoS Profile(s), [Alternative QoS Profile(s)], Session-AMBR], [CN Tunnel Info(s)]), N1 SM container (PDU Session Modification Command (PDU Session ID, QoS rule(s), QoS rule operation, QoS Flow level QoS parameters if needed for the QoS Flow(s) associated with the QoS rule(s), Session-AMBR, [Always-on PDU Session Granted], [Port Management Information Container], [Non-3GPP QoS Assistance Information Container]))). See clause\xa05.7 of TS\xa023.501\xa0[2] for the QoS Profile, Alternative QoS Profile and QoS rule and QoS Flow level QoS parameters. Alternative QoS Profile is only valid for AN initiated modification.', '', '\tIf the PDU Session Modification was requested by the UE to modify a PDU Session to an always-on PDU Session, the SMF shall include an Always-on PDU Session Granted indication in the PDU Session Modification Command to indicate whether the PDU Session is to be changed to an always-on PDU Session or not via the Always-on PDU Session Granted indication in the PDU Session Modification Command.', '', '\tThe N2 SM information carries information that the AMF shall provide to the (R)AN. It may include the QoS profiles and the corresponding QFIs to notify the (R)AN that one or more QoS flows were added, or modified. It may include only QFI(s) to notify the (R)AN that one or more QoS flows were removed. The SMF may indicate for each QoS Flow whether redundant transmission shall be performed by a corresponding redundant transmission indicator. If the SMF decides to activate redundant transmission in step\xa02a, the SMF includes the allocated additional CN Tunnel Info in the N2 SM information. If the SMF decides to perform redundant transmission for new QoS Flow with two I-UPFs in step\xa02a, the SMF includes the allocated CN Tunnel Info of the two I-UPFs in the N2 SM information. If the PDU Session Modification was triggered by the (R)AN Release in step\xa01e the N2 SM information carries an acknowledgement of the (R)AN Release. If the PDU Session Modification was requested by the UE for a PDU Session that has no established User Plane resources, the N2 SM information provided to the (R)AN includes information for establishment of User Plane resources. For Network Slice Replacement if the SMF determines that the PDU Session is to be retained, the S-NSSAI in N2 SM information is set to Alternative S-NSSAI.', '', '-\tIf the SMF has received a Requested Non-3GPP Delay Budget for a QoS flow from the PEGC, based on the combination of S-NSSAI and DNN, SMF increases the dynamic CN PDB as defined in clause\xa05.44.3.4 of TS\xa023.501\xa0[2]. If the dynamic CN PDB changes in the SMF (e.g. when an I-UPF is inserted by the SMF), SMF applies the non-3GPP delay budget again as defined in clause\xa05.44.3.4 of TS\xa023.501\xa0[2].', '', '\tIf redundant transmission has been activated on the PDU Session and the SMF decides to stop redundant transmission in step\xa02a, the SMF indicates the (R)AN to release the AN Tunnel and stop packet duplication and elimination associated with the redundancy tunnel of the PDU Session.', '', '\tThe N1 SM container carries the PDU Session Modification Command that the AMF shall provide to the UE. It may include the QoS rules, QoS Flow level QoS parameters if needed for the QoS Flow(s) associated with the QoS rule(s) and corresponding QoS rule operation and QoS Flow level QoS parameters operation to notify the UE that one or more QoS rules were added, removed or modified.', '', '\tFor the AMF initiated the PDU Session Modification procedure in step\xa01h due to network slice replacement, and if the SMF determines that the PDU Session is to be retained, the SMF includes the Alternative S-NSSAI in the PDU Session Modification Command to the UE and a cause value indicating that the S-NSSAI of the PDU Session is replaced with the Alternative S-NSSAI.', '', '\tIf the AMF initiated the PDU Session Modification procedure in step\xa01h due to network slice replacement and if the PDU Session is SSC mode 3 and if the SMF determines that the PDU Session is to be re-established on the Alternative S-NSSAI, the SMF includes the Alternative S-NSSAI in the PDU Session Modification Command to the UE and a cause value indicating that a PDU Session re-establishment on the Alternative S-NSSAI is required. The UE re-establishes a new PDU Session on the Alternative S-NSSAI, as described in clause\xa05.15.19 in TS\xa023.501\xa0[2]. If the PDU Session is SSC mode 1 or SSC mode 2, the SMF may initiate release of the PDU Session as described in clause\xa04.3.4.2.', '', '\tIf port number and a Port Management Information Container have been received from PCF in Step 2 and the port number matches the port number assigned for the DS-TT port for this PDU session, then SMF includes the Port Management Information Container in the N1 SM container.', '', '\tThe SMF may need to send transparently through NG-RAN the PDU Session Modification Command to inform the UE about changes in the QoS parameters (i.e. 5QI, GFBR, MFBR) that the NG-RAN is currently fulfilling after the SMF receives QoS Notification Control as defined in clause\xa05.7.2.4 of TS\xa023.501\xa0[2]. When the SMF sends on the PDU Session Modification Command transparently through NG-RAN, the N2 SM information is not included as part of the Namf_Communication_N1N2MessageTransfer.', '', '\tIf the UE indicated in the PCO that it supports the EDC functionality, the SMF may indicate to the UE either that the use of the EDC functionality is allowed for the PDU Session or that the use of the EDC functionality is required for the PDU Session (see clause\xa05.2.1 of TS\xa023.548\xa0[74]).', '', '-\tSMF may provide the UE with per QoS-flow Non-3GPP QoS Assistance Information in the N1 SM container.', '', '3b.\tFor SMF requested modification, the SMF invokes Namf_Communication_N1N2MessageTransfer ([N2 SM information] (PDU Session ID, QFI(s), QoS Profile(s), [Alternative QoS Profile(s)], Session-AMBR, [CN Tunnel Info(s)], QoS Monitoring indication, QoS Monitoring reporting frequency, [TSCAI(s)], TL-Container, [ECN marking for L4S indicator]), N1 SM container (PDU Session Modification Command (PDU Session ID, QoS rule(s), QoS Flow level QoS parameters if needed for the QoS Flow(s) associated with the QoS rule(s), QoS rule operation and QoS Flow level QoS parameters operation, Session-AMBR))).', '', '\tIf the SMF initiated the PDU Session Modification procedure in step\xa01b due to PCF initiated SM Policy Association Modification that adds one or more PCC Rule(s) with a TSC Assistance Container and if interworking with TSN deployed in the transport network is supported and the NG-RAN does not support AN-TL, the SMF instructs the NG-RAN to assign a distinct N3 tunnel end point address for the QoS Flow(s) assigned with a TSC Assistance Container.', '', '\tThe SMF may indicate for each QoS Flow whether redundant transmission shall be performed by a corresponding redundant transmission indicator. If the SMF decides to activate redundant transmission in step\xa02a, the SMF includes the allocated additional CN Tunnel Info in the N2 SM information. If the SMF decides to perform redundant transmission for new QoS Flow with two I-UPFs in step\xa02a, the SMF includes the allocated CN Tunnel Info of the two I-UPFs in the N2 SM information.', '', '\tIf redundant transmission has been activated on the PDU Session and the SMF decides to stop redundant transmission in step\xa02a, the SMF indicates the (R)AN to release the AN Tunnel and stop packet duplication and elimination associated with the redundancy tunnel of the PDU Session.', '', '\tThe SMF indicates the request for QoS Monitoring for the QoS Flow according to the information received from the PCF in step\xa01b, or based on SMF local policy, e.g. when the RAN rejected the creation of a specific QoS Flow. In the case of receiving the QoS Monitoring indication, the RAN enables the RAN part of UL/DL packet delay measurement for the QoS Flow and the QoS Monitoring reporting frequency is used by RAN to determine the packet delay measurement frequency of the RAN part. The TSCAI is defined in clause\xa05.27.2 of TS\xa023.501\xa0[2].', '', '\tIf the SMF initiated the PDU Session Modification procedure in step\xa01d due to reception of Status group from TN CNC, the SMF includes a TL-Container with a set-request to the N2 SM information, as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tIf the UE is in CM-IDLE state and an ATC is activated, the AMF updates and stores the UE context based on the Namf_Communication_N1N2MessageTransfer and steps 4, 5, 6 and 7 are skipped. When the UE is reachable e.g. when the UE enters CM-CONNECTED state, the AMF forwards the N1 message to synchronize the UE context with the UE.', '', '3c.\tFor SMF requested modification due to updated SMF-Associated parameters from the UDM, the SMF may provide the SMF derived CN assisted RAN parameters tuning to the AMF. The SMF invokes Nsmf_PDUSession_SMContextStatusNotify (SMF derived CN assisted RAN parameters tuning) towards the AMF. The AMF stores the SMF derived CN assisted RAN parameters tuning in the associated PDU Session context for this UE.', '', '3d.\tFor SMF requested modification due to updated NWDAF ID, the SMF informs the AMF of updates of the NWDAF ID(s) used for UE related Analytics and corresponding Analytics ID(s).', '', '4.\tThe AMF may send N2 ([N2 SM information received from SMF], NAS message (PDU Session ID, N1 SM container (PDU Session Modification Command))) Message to the (R)AN.', '', '5.\tThe (R)AN may issue AN specific signalling exchange with the UE that is related with the information received from SMF. For example, in the case of a NG-RAN, an RRC Connection Reconfiguration may take place with the UE modifying the necessary (R)AN resources related to the PDU Session or if only N1 SM container is received in step\xa04 from AMF, RAN transports only the N1 SM container to the UE.', '', '\tThe (R)AN may consider the updated CN assisted RAN parameters tuning to reconfigure the AS parameters.', '', '\tAs part of this, the N1 SM container is provided to the UE. If the N1 SM container includes a Port Management Information Container then the UE provides the container to DS-TT.', '', '\tIf new DNS server address is provided to the UE in the PCO, the UE can refresh all EAS(s) information (e.g. DNS cache) bound to the PDU Session, based on UE implementation as described in clause\xa06.2.3.2.3 of TS\xa023.548\xa0[74].', '', '6.\tThe (R)AN may acknowledge N2 PDU Session Request by sending a N2 PDU Session Ack (N2 SM information (List of accepted/rejected QFI(s), AN Tunnel Info, PDU Session ID, Secondary RAT usage data, TL-Container, BAT offset, Periodicity), User location Information) Message to the AMF. In the case of Dual Connectivity, if one or more QFIs were added to the PDU Session, the Master RAN node may assign one or more of these QFIs to a NG-RAN node which was not involved in the PDU Session earlier. In this case the AN Tunnel Info includes a new N3 tunnel endpoint for QFIs assigned to the new NG-RAN node. Correspondingly, if one or more QFIs were removed from the PDU Session, a (R)AN node may no longer be involved in the PDU Session anymore and the corresponding tunnel endpoint is removed from the AN Tunnel Info. The NG-RAN may reject QFI(s) if it cannot fulfil the User Plane Security Enforcement information for a corresponding QoS Profile, e.g. due to the UE Integrity Protection Maximum Data Rate being exceeded. When receiving the request for QoS Monitoring, the (R)AN may indicate its rejection to perform QoS Monitoring, e.g. due to the (R)AN load condition. The (R)AN may reject the addition or modification of a QoS Flow, e.g. due to handling of the UE-Slice-MBR as described in clause\xa05.7.1.10 of TS\xa023.501\xa0[2]. If the (R)AN rejects the addition or modification of a QoS Flow, the SMF is responsible of updating the QoS rules and QoS Flow level QoS parameters associated to that QoS Flow in the UE accordingly.', '', "\tIf the PLMN has configured secondary RAT usage reporting, the NG-RAN node may provide RAN Usage Data Report. The User Location Information shall include the serving cell's ID and if Dual Connectivity is activated for the UE, the PSCell ID.", '', '\tIf the redundant transmission has not been activated to the PDU session and the SMF indicates to the RAN that one of the QoS Flow shall perform redundant transmission, the RAN includes an additional AN tunnel info in N2 SM information.', '', '\tIf interworking with TSN deployed in the transport network is supported and the NG-RAN supports AN-TL and received a TL-Container with a set-request from the SM/CUC in step\xa03b (see clause\xa04.4.8 of TS\xa023.501\xa0[2]), the NG-RAN/AN-TL includes a TL-Container with a set-response to the N2 SM information, as described in clause\xa05.28a.2 of TS\xa023.501\xa0[2].', '', '\tIf the NG-RAN has determined a BAT offset and optionally a periodicity as described in clause\xa05.27.2.5 of TS\xa023.501\xa0[2], the NG-RAN provides the BAT offset and optionally the periodicity in the N2 SM information.', '', '7.\tThe AMF forwards the N2 SM information and the User location Information received from the AN to the SMF via Nsmf_PDUSession_UpdateSMContext service operation. The SMF replies with a Nsmf_PDUSession_UpdateSMContext Response.', '', '\tIf the N2 SM information indicates failure of whole N2 SM request (i.e. no part of the N2 SM request is successful in (R)AN), the SMF assumes that the NAS PDU, if provided in step\xa03, was not forwarded by NG-RAN to UE, as described in TS\xa038.413\xa0[10]. In this case, if the PDU Session modification is UE triggered the SMF shall reject the PDU session modification by including a N1 SM container with a PDU Session Modification Reject message (see clause\xa08.3.3 of TS\xa024.501\xa0[25]) in the Nsmf_PDUSession_UpdateSMContext Response in step\xa07b. Step\xa08 is skipped in this case.', '', '\tOtherwise, the SMF assumes that the NAS PDU was sent to UE successfully. If the (R)AN rejects QFI(s), the SMF is responsible of updating the QoS rules and QoS Flow level QoS parameters if needed for the QoS Flow(s) associated with the QoS rule(s) in the UE accordingly, i.e. the SMF shall trigger a separate NAS PDU Session Modification procedure after step\xa011 to align the SM context of this PDU Session in UE.', '', '8.\tThe SMF may update N4 session of the UPF(s) that are involved by the PDU Session Modification by sending N4 Session Modification Request message to the UPF (see NOTE\xa03).', '', '\tThe SMF may update the UPF with N4 Rules related to new, modified or removed QoS Flow(s), unless it was done already in step\xa02a.', '', 'NOTE\xa04:\tThis allows the DL packets of the new or modified QoS Flow to be transferred.', '', '\tIf an additional AN Tunnel Info is returned by RAN in step\xa06, the SMF informs the UPF about this AN Tunnel Info for redundant transmission. In the case of redundant transmission with two I-UPFs, the SMF provides AN Tunnel Info to two I-UPFs. If CN Tunnel Info of two I-UPFs is allocated by the UPFs in step\xa02b, the SMF also provides the DL CN Tunnel Info of two I-UPFs to the UPF (PSA).', '', '\tIf the QoS Monitoring is enabled for the QoS Flow, the SMF provides the N4 rules containing the QoS Monitoring policy generated according to the information received in step\xa01b to the UPF via the N4 Session Modification Request message.', '', '\tIf port number and a Port Management Information Container have been received from PCF in Step 2 and the port number matches the port number of the NW-TT port for this PDU session, then SMF includes the Port Management Information Container in the N4 Session Modification Request. If the N4 Session Modification Request includes a Port Management Information Container, then UPF al</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.1916101065374199</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.3.6.2	Processing AF requests to influence traffic routing and/or Service Function Chaining for Sessions not identified by an UE address&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>['', '----media/image46.emf----', '', 'Figure 4.3.6.2-1: Processing AF requests to influence traffic routing and/or Service Function Chaining for Sessions not identified by an UE address', '', 'NOTE\xa01:\tThe 5GC functions used in this scenario are assumed to all belong to the same PLMN (HPLMN in non-roaming case or VPLMN in the case of a PDU Session in LBO mode).', '', '0.\tThe PCF(s) subscribe to modifications of AF requests (Data Set = Application Data; Data Subset = AF traffic influence request information, Data Key = S-NSSAI and/or DNN and/or Internal Group Identifier or SUPI) from the UDR.', '', '1.\tTo create a new request, the AF invokes a Nnef_TrafficInfluence_Create service operation. The content of this service operation (AF request) is defined in clause\xa05.2.6.7. The request contains also an AF Transaction Id. If it subscribes to events related with PDU Sessions the AF indicates also where it desires to receive the corresponding notifications (AF notification reporting information).', '', '\tTo update or remove an existing request, the AF invokes a Nnef_TrafficInfluence_Update or Nnef_TrafficInfluence_Delete service operation providing the corresponding AF Transaction Id.', '', '\tThe Nnef_TrafficInfluence_Create (initiated by target AF) or Nnef_TrafficInfluence_Update (initiated by source AF or target AF) service operation may be used for the case of AF instance change. If Nnef_TrafficInfluence_Update service operation is invoked, the NEF is required to update the subscription resource. The Nnef_TrafficInfluence_Update service operation may include an updated notification target address. The updated subscription resource is used by the target AF.', '', 'NOTE\xa02:\tIf the source AF transfers the application context to the target AF, then target AF may create new subscription via Nnef_TrafficInfluence_Create operation or update existing subscription via Nnef_TrafficInfluence_Update. However, whether and how the application context transfer is done is out of this specification.', '', '2.\tThe AF sends its request to the NEF. If the request is sent directly from the AF to the PCF, the AF reaches the PCF selected for the existing PDU Session by configuration or by invoking Nbsf_management_Discovery service.', '', '\tThe NEF ensures the necessary authorization control, including throttling of AF requests and as described in clause\xa04.3.6.1, mapping from the information provided by the AF into information needed by the 5GC.', '', '\tThe NEF determines the HPLMN based on the AF request and its local configuration, e.g. the AF ID or tunnelling of the AF request.', '', '\tIf DNN/S-NSSAI is not provided in the AF request, the NEF determines DNN/S-NSSAI based on the AF request and its local configuration.', '', '\tIf the HPLMN is the PLMN that the NEF belongs to, the following steps are performed. Otherwise, the procedure described in clause\xa04.3.6.5 will be performed instead.', '', '3.\t(in the case of Nnef_TrafficInfluence_Create or Update): The NEF stores the AF request information in the UDR (Data Set = Application Data; Data Subset, Data Key = AF Transaction Internal ID, S-NSSAI and DNN and/or Internal Group Identifier(s) and/or Subscriber Category(s) or SUPI). The Data Subset identifies whether the information relates to AF traffic influence request information for traffic routing or AF traffic influence request information for service function chaining, as described in Table 5.2.12.2.1-1.', '', 'NOTE\xa03:\tBoth the AF Transaction Internal ID and S-NSSAI and DNN and/or Internal Group Identifier(s) and/or Subscriber Category(s) or SUPI are regarded as Data Key when the AF request information are stored into the UDR, see Table 5.2.12.2.1-1. The Subscriber Category(s) is determined by NEF as described in clause\xa04.3.6.1.', '', '\t(in the case of Nnef_TrafficInfluence_delete): The NEF deletes the AF requirements in the UDR (Data Set = Application Data; Data Subset, Data Key = AF Transaction Internal ID). The Data Subset identifies whether the information relates to AF traffic influence request information for traffic routing or AF traffic influence request information for service function chaining.', '', '\tThe NEF responds to the AF.', '', '4.\tThe PCF(s) that have subscribed to modifications of AF requests receive(s) a Nudr_DM_Notify notification of data change from the UDR. The Data Subset identifies whether the information relates to AF traffic influence request information for traffic routing or AF traffic influence request information for service function chaining.', '', '5.\tThe PCF determines if existing PDU Sessions are potentially impacted by the AF request. For each of these PDU Sessions, the PCF updates the SMF with corresponding new policy information about the PDU Session by invoking Npcf_SMPolicyControl_UpdateNotify service operation as described in steps 5 and 6 in clause\xa04.16.5.', '', '\tThe PCF validates whether the SFC identifier (if available) corresponds to an authorized SFC for the AF based on local configuration. If the validation has succeeded the PCF maps the SFC identifier to the corresponding Traffic Steering Policy identifier (i.e. TSP ID).', '', '\tThe PCF includes the Traffic Steering Policy ID(s) in the AF influence on traffic routing Enforcement Control information and/or N6-LAN Traffic Steering Enforcement Control information of the relevant PCC rule as defined in clause\xa06.3.1 of TS\xa023.503\xa0[20]. The PCF also includes the Metadata in the N6-LAN Traffic Steering Enforcement Control information of the PCC rule when Metadata was provided by the AF.', '', '\tIf the AF request includes a notification reporting request for UP path change, the PCF includes in the PCC rule(s) the information required for reporting the event, including the Notification Target Address pointing to the NEF or AF and the Notification Correlation ID containing the AF Transaction Internal ID.', '', '\tIf the AF request includes an EAS Correlation indication or indication of traffic correlation, PCF includes in the PCC rule(s) an EAS Correlation indication or indication of traffic correlation and a Traffic Correlation ID corresponding to a set of UEs that AF request aims at, also if AF request includes a common EAS IP address or common DNAI for a set of UEs, PCC rule includes the common EAS IP address or common DNAI.', '', '\tIn the case of AF influence on traffic routing, the PCF may, optionally, use service experience analytics per UP path, as defined in clause\xa06.4.3 of TS\xa023.288\xa0[50], to provide an updated list of DNAI(s) to the SMF.', '', '\tThe PCF may use the "Subscriber categories" as defined in "PDU Session policy control subscription information" in table 6.2-2 of TS\xa023.503\xa0[20] to determine whether the PDU Session is impacted by the AF request.', '', '6.\tWhen the updated policy information about the PDU Session is received from the PCF, the SMF may take appropriate actions to reconfigure the User plane of the PDU Session.', '', '\tIn the case of AF influence on traffic routing, examples of actions are:', '', '-\tThe SMF may consider service experience analytics and/or DN Performance analytics per UP path (i.e. including UPF and/or DNAI and/or AS instance) as defined in clauses 6.4.3 and 6.14.3, respectively, of TS\xa023.288\xa0[50] before taking any actions.', '', '-\tDetermining a target DNAI.', '', '-\tDetermining if a common DNAI needs to be used as a target DNAI.', '', '-\tAdding, replacing or removing a UPF in the data path to e.g. act as an UL CL or a Branching Point e.g. as described in clause\xa04.3.5.', '', '-\tAllocate a new Prefix to the UE (when IPv6 multi-Homing applies).', '', '-\tUpdating the UPF in the target DNAI with AF influence on traffic routing control parameters as described in clause\xa05.6.7.1 of TS\xa023.501\xa0[2].', '', '-\tSubscribe to notifications from the AMF for an Area of Interest via Namf_EventExposure_Subscribe service operation.', '', '-\tDetermining whether to relocate PSA UPF considering the user plane latency requirements provided by the AF (see clause\xa06.3.6 of TS\xa023.548\xa0[74]).', '', '\tWhen the updated policy information about the PDU Session is received from the PCF, the SMF may take appropriate actions to assist the EAS discovery and re-discovery for PDU Session with Session Breakout connectivity model such as:', '', '-\tRetrieve the EAS deployment information as defined in clause\xa06.2.3.4.1 of TS\xa023.548\xa0[74].', '', '-\tProviding DNS message handling rule to forward DNS messages of the UE and/or report when detecting DNS messages as defined in clause\xa06.2.3.2.2 of TS\xa023.548\xa0[74].', '', '\tIn the case of AF influence on Service Function Chaining, the SMF may take appropriate actions to enforce the N6-LAN traffic steering control:', '', '-\tProvide N6-LAN traffic steering control parameters to UPF as described in clause\xa05.6.16 of TS\xa023.501\xa0[2].', '', '7.\tThe SMF may decide whether it is required to send the target DNAI to the AMF for triggering SMF/I-SMF (re)selection and then inform the target DNAI information for the current PDU session or for the next PDU session to AMF via Nsmf_PDUSession_SMContextStatusNotify service operation.', '']</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1957863070645327</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.3.6.3	Notification of User Plane Management Events&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>['', 'The SMF may send a notification to the AF if the AF had subscribed to user plane management event notifications as described in clause\xa04.3.6.2 and in clause\xa05.6.7 of TS\xa023.501\xa0[2]. The following are the examples of such events:', '', '-\tA PDU Session Anchor identified in the AF subscription request has been established or released.', '', '-\tA DNAI has changed.', '', '-\tThe SMF has received a request for AF notification and the on-going PDU Session meets the conditions to notify the AF.', '', '-\tEthernet PDU Session Anchor Relocation as defined in clause\xa04.3.5.8.', '', '-\tCandidate DNAI(s) has changed.', '', '-\tA common EAS has changed.', '', 'The SMF uses notification reporting information received from PCF to issue the notification either via an NEF (2a, 2b and 4a, 4b) or directly to the AF (2c and 4c).', '', 'In the case of the AF interacting with VPLMN in the HR-SBO case, the NF(s) in the procedure are located in VPLMN.', '', 'NOTE\xa01:\t1a: In HR-SBO case, no PCF in VPLMN is involved.', '', 'The following flow depicts the sequence of events:', '', '----media/image47.emf----', '', 'Figure 4.3.6.3-1: Notification of user plane management event', '', '1.\tA condition for an AF notification has been met as described above. The SMF sends notification to the NF that is subscribed for SMF notifications. Further processing of the SMF notification depends on the receiving NF, as shown in steps 2a and 2c.', '', '\tIf immediate reporting flag is included in AF subscription for user plane management event as described in clause\xa05.6.7 of TS\xa023.501\xa0[2], SMF sends notification, as shown in steps 2a or 2c.', '', '2a.\tIf early notification via NEF is requested by the AF, the SMF notifies the NEF of the target DNAI or candidate DNAI(s) of the PDU Session or indication of EAS rediscovery and may indicate capability of supporting EAS IP replacement in 5GC by invoking Nsmf_EventExposure_Notify service operation. The SMF may provide the target AF ID if it determines that the target DNAI is not supported by the source AF as specified in TS\xa023.548\xa0[74]. The SMF may consider the UE location and available DNAI list provided by AF to select the closest available DNAI(s) as candidate DNAI(s). The SMF may also provide the candidate DNAI(s) in a prioritized order.', '', 'NOTE\xa02:\tFor the reporting of candidate DNAIs from SMF/NEF to AF, only early notification is used.', '', '2b.\tWhen the NEF receives Nsmf_EventExposure_Notify, the NEF performs information mapping (e.g. AF Transaction Internal ID provided in Notification Correlation ID to AF Transaction ID, SUPI to GPSI, etc.) as applicable according to clause\xa05.6.7 of TS\xa023.501\xa0[2] and triggers the appropriate Nnef_TrafficInfluence_Notify message. In this case, step\xa02c is not applicable.', '', '2c.\tIf early direct notification is requested by the AF, the SMF notifies the AF of the target DNAI or candidate DNAI(s) of the PDU Session or indication of EAS rediscovery and may indicate capability of supporting EAS IP replacement in 5GC by invoking Nsmf_EventExposure_Notify service operation. The SMF may provide the target AF ID if it determines that the target DNAI is not supported by the source AF.', '', "2d.\tThe AF replies to Nnef_TrafficInfluence_Notify by invoking Nnef_TrafficInfluence_AppRelocationInfo service operation either immediately or after any required application relocation in the target DNAI is completed. The AF may include N6 traffic routing details corresponding to the target DNAI and /or the 'uplink buffering' indication to indicate that buffering of uplink traffic to the target DNAI is needed. The AF may include Information for EAS IP Replacement in 5GC. AF may reply in negative e.g. if the AF determines that the application relocation cannot be completed successfully and/or on time.", '', 'NOTE\xa03:\tThe maximum time the new PSA is to buffer UL data relates to the maximum delay between steps 4a-4c and step\xa04f/4g of Figure 4.3.6.3-1. SMF local policies can control this maximum time.', '', 'NOTE\xa04:\tThe traffic being buffered is the traffic associated with the PCC rule that has requested the notification.', '', '2d-a.\tIf information sent via Nnef_TrafficInfluence_Create is to be changed e.g. N6 traffic routing details corresponding to the target DNAI, the AF invokes Nnef_TrafficInfluence_update service operation in order for PCF to be able to include this information in PCC rules sent to SMF.', '', '\tIf the AF includes information such as N6 traffic routing details corresponding to the target DNAI in Nnef_TrafficInfluence_AppRelocationInfo it shall include the same information in Nnef_TrafficInfluence_update.', '', "\tIf common DNAI or common EAS is required for set of UEs and AF is used to select common DNAI or common EAS according to operator's configuration, the AF determines the common DNAI/EAS according to the candidate DNAI(s) of each UE of the set reported by SMF(s) serving the set of UEs, then informs SMF(s) of each UE of the selected common DNAI as clause\xa06.2.3.2.6 of TS\xa023.548\xa0[74] or the selected common EAS as clause\xa06.2.3.2.5 of TS\xa023.548\xa0[74].", '', '2e.\tWhen the NEF receives Nnef_TrafficInfluence_AppRelocationInfo, the NEF triggers the appropriate Nsmf_EventExposure_AppRelocationInfo message.', '', '2e-a.\tWhen the NEF receives Nnef_TrafficInfluence_update, the NEF triggers step\xa03a as in Figure\xa04.3.6.2-1 or step\xa02 of Figure 4.3.6.4-1 if targeting an individual UE by a UE address.', '', "2f.\tThe AF replies to Nsmf_EventExposure_Notify by invoking Nsmf_EventExposure_AppRelocationInfo service operation either immediately or after any required application relocation in the target DNAI is completed. The AF may include N6 traffic routing details corresponding to the target DNAI and /or the 'uplink buffering' indication to indicate that buffering of uplink traffic to the target DNAI is needed. The AF may include Information for EAS IP Replacement in 5GC. AF may reply in negative e.g. if the AF determines that the application relocation cannot be completed successfully on time.", '', '2f-a.\tIf information sent via Npcf_PolicyAuthorization_Create is to be changed e.g. N6 traffic routing details corresponding to the target DNAI, the AF invokes Npcf_PolicyAuthorization_Update service operation in order for PCF to be able to include this information in PCC rules sent to SMF.', '', '\tIf the AF includes information such as N6 traffic routing details corresponding to the target DNAI in Nsmf_EventExposure_AppRelocationInfo it shall include the same information in Npcf_PolicyAuthorization_Update.', '', '3.\tThe SMF enforces the change of DNAI or addition, change, or removal of a UPF. This may correspond to the mechanisms described in Figure 4.3.5.6-1 or in Figure 4.3.5.7-1.', '', '\tIf the runtime coordination between 5GC and AF is enabled based on local configuration, according to the indication of "AF acknowledgment to be expected" included in AF subscription to SMF events, the SMF may wait for a response from the AF to the early notification before this step. The SMF does not perform this step until it receives a positive response from the AF, as described in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '4a.\tIf late notification via NEF is requested by the AF, the SMF notifies the NEF of the target DNAI of the PDU Session or indication of EAS rediscovery and may indicate capability of supporting EAS IP replacement in 5GC by invoking Nsmf_EventExposure_Notify service operation. The SMF may provide the target AF ID if it determines that the target DNAI is not supported by the source AF.', '', '\tIf the runtime coordination between 5GC and AF is enabled based on local configuration, according to the indication of "AF acknowledgment to be expected" included in AF subscription to SMF events, the SMF may send late notification and wait for a positive response from the AF before activating the new UP path, as described in clause\xa05.6.7 of TS\xa023.501\xa0[2].', '', '4b.\tWhen the NEF receives Nsmf_EventExposure_Notify, the NEF performs information mapping (e.g. AF Transaction Internal ID provided in Notification Correlation ID to AF Transaction ID, SUPI to GPSI, etc.) as applicable according to clause\xa05.6.7 of TS\xa023.501\xa0[2] and triggers the appropriate Nnef_TrafficInfluence_Notify message. In this case, step\xa04c is not applicable.', '', '4c.\tIf late direct notification is requested by the AF, the SMF notifies the AF of the target DNAI of the PDU Session or indication of EAS rediscovery may indicate capability of supporting EAS IP replacement in 5GC by invoking Nsmf_EventExposure_Notify service operation. The SMF may provide the target AF ID if it determines that the target DNAI is not supported by the source AF.', '', '4d.\tWhen the AF receives either the Nnef_TrafficInfluence_Notify message or the Nsmf_EventExposure_Notify message, the AF checks whether it can serve the target DNAI. If the AF instance change is needed, the AF determines the proper target AF for the target DNAI (e.g. based on locally configured information or the AF ID provided by the SMF in step\xa04a or 4c) and performs the AF migration.', '', 'NOTE\xa05:\tIf the source AF is already locally configured with information associated with the target DNAI, the source AF is assumed to use the locally configured information, even if it has received from the SMF target AF ID in a previous step\xa0above.', '', 'NOTE\xa06:\tThe determination of the target AF for the target DNAI and the AF migration to the target AF are out of the scope of this release.', '', '4e.\tThe AF replies to Nnef_TrafficInfluence_Notify by invoking Nnef_TrafficInfluence_AppRelocationInfo service operation either immediately or after any required application relocation in the target DNAI is completed. AF includes N6 traffic routing details corresponding to the target DNAI. AF may reply in negative e.g. if the AF determines that the application relocation cannot be completed successfully on time. Nnef_TrafficInfluence_AppRelocationInfo with positive response may indicate that buffering of uplink traffic to the target DNAI is no more needed.', '', '\tIf SMF has sent an EAS re-discovery request to the UE as defined in TS\xa023.548\xa0[74], e.g. due to change of common EAS, the SMF sends an indication to the AF that an EAS re-discovery request has been sent to the UE.', '', 'NOTE\xa07:\tThe action taken by the AF when receiving such an indication that an EAS re-discovery request has been sent to the UE is out of scope of 3GPP specifications.', '', '4e-a.\tIf information sent via Nnef_TrafficInfluence_Create/Update is to be changed e.g. N6 traffic routing details corresponding to the target DNAI, the AF invokes Nnef_TrafficInfluence_Create or Nnef_TrafficInfluence_Update service operation in order for PCF to be able to include this information in PCC rules sent to SMF. The Nnef_TrafficInfluence_Create shall be used if the AF is notified (e.g. in step\xa04b) that the UE IP address is changed and the initial Nnef_TrafficInfluence_Create was targeted to an individual UE address, otherwise the Nnef_TrafficInfluence_Update may be used.', '', '\tIf the AF includes information such as N6 traffic routing details corresponding to the target DNAI in Nnef_TrafficInfluence_AppRelocationInfo it shall include the same information in Nnef_TrafficInfluence_Create or Nnef_TrafficInfluence_Update, whichever is appropriate.', '', '4f.\tWhen the NEF receives Nnef_TrafficInfluence_AppRelocationInfo, the NEF triggers the appropriate Nsmf_EventExposure_AppRelocationInfo message.', '', '4f-a.\tWhen the NEF receives Nnef_TrafficInfluence_Create/update, the NEF triggers step\xa03a as in Figure\xa04.3.6.2-1 or step\xa02 of Figure 4.3.6.4-1 if targeting an individual UE by a UE address.', '', '4g.\tThe AF replies to Nsmf_EventExposure_Notify by invoking Nsmf_EventExposure_AppRelocationInfo service operation either immediately or after any required application relocation in the target DNAI is completed. AF includes N6 traffic routing details corresponding to the target DNAI. AF may reply in negative e.g. if the AF determines that the application relocation cannot be completed successfully on time. Nsmf_EventExposure_AppRelocationInfo with positive response may indicate that buffering of uplink traffic to the target DNAI is no more needed.', '', '4g-a.\tIf information sent via Npcf_PolicyAuthorization_Create/Update is to be changed e.g. N6 traffic routing details corresponding to the target DNAI, the AF invokes Npcf_PolicyAuthorization_Create or Npcf_PolicyAuthorization_Update service operation in order for PCF to be able to include this information in PCC rules sent to SMF. The Npcf_PolicyAuthorization_Create shall be used if the AF is notified (e.g. in step\xa04c) that the UE IP address is changed, otherwise the Npcf_PolicyAuthorization_Update may be used.', '', '\tIf the AF includes information such as N6 traffic routing details corresponding to the target DNAI in Nsmf_EventExposure_AppRelocationInfo it shall include the same information in Npcf_PolicyAuthorization_Create or Npcf_PolicyAuthorization_Update, whichever is appropriate.', '']</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2001907372632354</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.3.6.4	Transferring an AF request targeting an individual UE address to the relevant PCF&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>['', '----media/image48.emf----', '', 'Figure 4.3.6.4-1: Handling an AF request targeting an individual UE address to the relevant PCF', '', 'Depending on the AF deployment (see clause\xa06.2.10 of TS\xa023.501\xa0[2]), the AF may send the AF request to PCF directly, in which case step\xa01 is skipped, or via the NEF.', '', '1.\t[Conditional] If the AF sends the AF request via NEF, the AF sends Nnef_TrafficInfluenceCreate/Update/Delete Request targeting an individual UE address to the NEF. This request corresponds to an AF request to influence traffic routing to a local network and/or to a service function chain that targets an individual UE address.', '', '\tWhen NEF receives an AF request from AF, the NEF ensures the necessary authorization control and as described in clause\xa04.3.6.1, mapping from the information provided by the AF into information needed by the 5GC. The NEF responds to the AF.', '', '\tThe NEF determines the HPLMN of the UE that the AF requests to influence based on UE IP address included in the AF request:', '', '-\tIf the IP in the AF request is a private IP, the NEF determines the HPLMN of the AF request based on e.g. the AF ID or tunnelling of the AF request, and local configuration.', '', '-\tOtherwise, if the IP in AF request is a NATed IP by the PLMN that the NEF belongs to, the NEF invokes Nupf_GetPrivateUEIP_Get service to get corresponding private UE IP address and its IP domain from corresponding L-PSA UPF in the serving PLMN. The NEF then determines the PLMN based on the IP domain.', '', '-\tOtherwise, the NEF determines the target PLMN based the IP in the AF request and public IP range of each PLMN.', '', 'NOTE\xa01:\tIt is assumed that the NEF is configured with the NATed IP range of its own PLMN, and IP domains/ranges of PLMNs with roaming agreements.', '', '\tIf DNN/S-NSSAI is not provided in the AF request, the NEF also determines the DNN/S-NSSAI based on the IP domain.', '', '\tIf the HPLMN is the PLMN that the NEF belongs to, the following steps are performed. Otherwise, the procedure described in clause\xa04.3.6.5 will be performed instead.', '', '2.\t[Conditional] AF/NEF consumes Nbsf_Management_Discovery service operation (providing at least the UE address) to find out the address of the relevant PCF if the PCF address is not available on the NEF based on local configuration, otherwise step\xa01 is skipped.', '', 'NOTE\xa02:\tThe AF/NEF finds the BSF based on local configuration or using the NRF.', '', '3.\tBSF provides the PCF address in the Nbsf_Management_Discovery response to AF/NEF.', '', '4.\tIf step\xa01 was performed, NEF invokes the Npcf_PolicyAuthorization service to the PCF to transfer the AF request. If an AF sends the AF request directly to the PCF, AF invokes Npcf_PolicyAuthorization service and the PCF responds to the AF. To support the AF instance change, the Npcf_PolicyAuthorization_Create (initiated by target AF) or Npcf_PolicyAuthorization_Update (initiated by source AF or target AF) service operation may be used.', '', 'NOTE\xa03:\tIf the source AF transfers the application context to the target AF, then target AF may create new subscription via Npcf_PolicyAuthorization_Create or update existing subscription via Npcf_PolicyAuthorization_Update. However, whether and how the application context transfer is done is out of this specification.', '', "5.\tThe PCF authorizes the AF request. If the PCF determines that the requirements can't be authorized, it rejects the AF request. Once the PCF authorizes the AF request, the PCF updates the SMF with corresponding new PCC rule(s) with PCF initiated SM Policy Association Modification procedure as described in clause\xa04.16.5.2.", '', '\tThe PCF includes the Traffic Steering Policy ID(s) for AF influence on traffic routing Enforcement Control information and/or N6-LAN Traffic Steering Enforcement Control information in the relevant PCC rule as defined in clause\xa06.3.1 of TS\xa023.503\xa0[20].', '', '\tThe PCF may, optionally, use service experience analytics per UP path, as defined in clause\xa06.4.3 of TS\xa023.288\xa0[50], to provide a an updated list of DNAI(s) to the SMF.', '', '\tIf Npcf_PolicyAuthorization_Update service operation is invoked, the PCF is required to update the subscription resource. The Npcf_PolicyAuthorization_Update service operation may include an updated notification target address. The updated subscription resource is used by the target AF.', '', '\tWhen a PCC rule is received from the PCF, the SMF may take appropriate actions, when applicable, to reconfigure the User plane of the PDU Session.', '', '\tIn the case of AF influence on traffic routing, examples of actions are:', '', '-\tThe SMF may consider service experience analytics and/or DN Performance analytics per UP path (i.e. including UPF and/or DNAI and/or AS instance) as defined in clauses 6.4.3 and 6.14.3, respectively, of TS\xa023.288\xa0[50] before taking any actions.', '', '-\tDetermining a target DNAI and adding, replacing or removing UPF(s) in the data path, e.g. to act as UL CL, Branching Point and/or PDU Session Anchor e.g. as described in clause\xa04.3.5.', '', '-\tAllocate a new Prefix to the UE (when IPv6 multi-Homing applies).', '', '-\tUpdating the UPF regarding the target DNAI with AF influence on traffic routing control parameters as described in clause\xa05.6.7.1 of TS\xa023.501\xa0[2].', '', '-\tSubscribe to notifications from the AMF for an Area of Interest via Namf_EventExposure_Subscribe service operation.', '', '-\tDetermining whether to relocate PSA UPF considering the user plane latency requirements provided by the AF (see clause\xa06.3.6 of TS\xa023.548\xa0[74]).', '', '\tIn the case of AF influence on Service Function Chaining, the SMF may take appropriate actions to enforce the N6-LAN traffic steering control:', '', '-\tProvide N6-LAN traffic steering control parameters to UPF as described in clause\xa05.6.16 of TS\xa023.501\xa0[2].', '']</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.1992057074521727</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.8.1.1a	Connection Inactive procedure with CN based MT communication handling&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>['', 'This procedure may be initiated by the serving NG-RAN node when CN based mobile terminating (MT) communication handling is requested for a UE that is configured with eDRX cycle value longer than 10.24 seconds for RRC_INACTIVE state and has at least one PDU session with active user plane as defined in clause\xa05.31.7 of TS\xa023.501\xa0[2].', '', '----media/image64.emf----', '', 'Figure 4.8.1.1a-1: NG-RAN initiated Connection Inactive procedure with CN based MT communication handling', '', '0.\tThe UE is registered in the network with negotiated eDRX parameters for CM-IDLE state and is in CM-CONNECTED with RRC_CONNECTED state. The AMF provides the eDRX cycle value for CM-IDLE state to NG-RAN as part of the RRC Inactive Assistance Information as defined in clause\xa05.3.3.2.5 of TS\xa023.501\xa0[2].', '', '1.\tNG-RAN determines eDRX cycle value for UE in RRC_INACTIVE state and decides to initiate Connection Inactive with CN based MT communication handling as specified in clause\xa05.31.7.2.4 of TS\xa023.501\xa0[2].', '', '1a.\tOptionally the NG-RAN may initiate state transition from RRC_CONNECTED to RRC_INACTIVE with RRC configuring eDRX value as specified in TS\xa038.300\xa0[9]. The NG-RAN may send the request in step\xa02 towards CN immediately following step\xa01a or the NG-RAN may delay this request towards CN as specified in clause\xa05.31.7.2.1 of TS\xa023.501\xa0[2].', '', '2.\tEither immediately following step\xa01a or after having delayed the request for NG-RAN based on implementation, the NG-RAN sends N2 MT Communication Handling request message to AMF indicating the UE is transitioning to RRC_INACTIVE state. The CN takes the NG-RAN request into consideration and handles MT communication. The NG-RAN also provides the eDRX cycle value for RRC_INACTIVE to AMF.', '', '\tIf the NG-RAN receives DL NAS message and the UE is in RRC_INACTIVE with RRC configured eDRX cycle and is considered not reachable, NG-RAN indicates to the AMF a NAS non-delivery and then initiates for the CN to handle mobile terminated (MT) communication.', '', '3.\tFor each of the PDU sessions with user plane resources have been activated, the AMF invokes Nsmf_PDUSession_UpdateSMContext Request (PDU Session ID, Cause, Operation type, User Location Information, Age of Location Information, N2 SM Information (Secondary RAT usage data), CN based MT handling indication) towards SMF. The Operation Type is set to a value that indicates to stop user plane DL data transmissions towards the UE and enable data buffering. The SMF starts data buffering for MT data if the data buffering is handled in SMF.', '', '4.\tIf data buffering is handled in the UPF, the SMF updates the UPF with proper rules for MT data handling.', '', '5.\tThe SMF sends the Nsmf_PDUSession_UpdateSMContext response.', '', '6.\tThe AMF sends N2 MT Communication Handling response message to NG-RAN acknowledging the NG-RAN request and indicating the AMF has taken the NG-RAN request into account. The AMF considers the UE is in CM-CONNECTED with RRC_INACTIVE state.', '', '7.\tIf the UE connection is not released as specified in step\xa01a, the NG-RAN initiates state transition from RRC_CONNECTED to RRC_INACTIVE with RRC configuring the eDRX cycle value as specified in TS\xa038.300\xa0[9].', '']</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.1941001664565064</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;4.8.2.2b	Network Triggered Connection Resume in RRC_INACTIVE with CN based MT communication handling&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>['', 'When the UE is in CM-CONNECTED with RRC_INACTIVE state with CN based mobile terminating (MT) communication handling, high latency communication as described in clause\xa05.31.8 of TS\xa023.501\xa0[2] is applied.', '', 'This procedure may be triggered by MT data, or a N1 procedure from SMF and UPF as shown in Figure 4.8.2.2b-1. When the procedure is triggered by other NFs (e.g. SMSF, LMF, GMLC), the UPF (or SMF) in the following figure should be replaced by the respective NF (the corresponding service operations used by other NFs when they communicate with AMF may also be different from the service operations used by SMF/UPF).', '', 'During the procedure, the NG-RAN (i.e. gNB) performs RAN paging towards the UE based on the N2 message from the AMF in order to trigger the UE triggered Connection Resume procedure in clause\xa04.8.2.2.', '', '----media/image68.emf----', '', 'Figure 4.8.2.2b-1: Network Triggered Connection Resume for UE in RRC_INACTIVE with CN based MT communication handling', '', '1a.\tWhen downlink data is received and the SMF/UPF is requested to perform buffering as specified in clause\xa04.8.1.1a, the UPF/SMF checks with AMF for the possibility of data delivery, similar to step\xa02 of clause\xa04.24.2 with the following differences:', '', '-\tIn the Namf_MT_EnableUEReachability the SMF may also send the PPI, the ARP and the 5QI, and/or QFI of the QoS Flow of the PDU Session which triggered the request for paging policy differentiation as defined in clause\xa05.4.3.2 of TS\xa023.501\xa0[2].', '', '\tIf the SMF, while waiting for UE triggered Connection Resume indication or a reject response (with Estimated Maximum Wait time) from the AMF, receives any additional Data Notification message due to additional data packets for another QoS Flow associated with a higher priority (i.e. ARP priority level) than the priority indicated to the AMF in the previous Namf_MT_EnableUEReachability, or the SMF derive a different Paging Policy Indicator according to the additional Data Notification, the SMF invokes a new Namf_MT_EnableUEReachability indicating the higher priority or different Paging Policy Indicator to the AMF. The information contained in the new Namf_MT_EnableUEReachability request overrides the information from the previous Namf_MT_EnableUEReachability request that is stored in the AMF. If the SMF receives any additional Data Notification messages due to additional data packets for another QoS Flow associated with same or lower priority than the priority indicated to the AMF in the previous Namf_MT_EnableUEReachability or if the SMF has sent the second Namf_MT_EnableUEReachability message indicating the higher priority and receives additional downlink data packets for this UE, the SMF buffers these downlink data packets and does not send a new Namf_MT_EnableUEReachability meassage.', '', '-\tThe AMF determines if the UE is reachable based on the stored eDRX cycle value for RRC_INACTIVE state provided by NG-RAN in clause\xa04.8.1.1a. If the UE is unreachable, the AMF stores the information received in the Namf_MT_EnableUEReachability request and provides the Estimated Maximum Wait time in the response message based on the eDRX cycle value for RRC_INACTIVE in AMF (steps 2-5 are postponed until the UE becomes reachable). If the UE is considered reachable, step\xa02 is executed immediately.', '', 'NOTE:\tThis handling is similar to CM-IDLE with eDRX. When the AMF provides the Estimated Maximum Wait time, it can consider the time needed for RRC level procedures (e.g. RRC RNA update procedure) when UE wakes up from the eDRX cycle.', '', "2.\tWhen the AMF determines that the UE is reachable, the AMF sends an N2 DL Data Notification message to NG-RAN with the request for the UE's RRC connection to be resumed. The AMF may include the following parameter(s) the PPI, the ARP and the 5QI, and/or QFI of the QoS Flow of the PDU Session ID in the N2 DL Data Notification message to trigger and enable RAN paging.", '', '3.\tNG-RAN performs RAN paging towards the UE considering the parameters provided by the AMF.', '', '4.\tWhen the UE receives RAN paging, it initiates the UE triggered Connection Resume procedure and NG-RAN notifies CN as specified in clause\xa04.8.2.2 including the N2 Notification in step\xa03b.', '', '5.\tThe UPF triggers downlink data delivery if there is any. The AMF sends downlink NAS messages if there is any.', '']</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1901924119101125</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.15.2.2	Standardised SST values&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>['', 'Standardized SST values provide a way for establishing global interoperability for slicing so that PLMNs can support the roaming use case more efficiently for the most commonly used Slice/Service Types.', '', 'The SSTs which are standardised are in the following Table\xa05.15.2.2-1.', '', 'Table 5.15.2.2-1: Standardised SST values', '', 'Slice/Service type', '', 'SST value', '', 'Characteristics', '', 'eMBB', '', '', '', '1', '', 'Slice suitable for the handling of 5G enhanced Mobile Broadband.', '', 'URLLC', '', '2', '', 'Slice suitable for the handling of ultra- reliable low latency communications.', '', 'MIoT', '', '3', '', 'Slice suitable for the handling of massive IoT.', '', 'V2X', '', '4', '', 'Slice suitable for the handling of V2X services.', '', 'HMTC', '', '5', '', 'Slice suitable for the handling of High-Performance Machine-Type Communications.', '', 'HDLLC', '', '6', '', 'Slice suitable for the handling of High Data rate and Low Latency Communications.', '', '', '', 'NOTE\xa01:\tThe support of all standardised SST values is not required in a PLMN. Services indicated in this table for each SST value can also be supported by means of other SSTs.', '', 'NOTE\xa02:\tA mapping of GSMA defined Network Slice Types (NEST) to standard SST values is defined in GSMA\xa0NG.116\xa0[137].', '']</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.2235424356386612</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.17.5.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>['', 'Clause\xa04.3.5 shows the Service Exposure Network Architecture in scenarios where for EPC-5GC Interworking is required.', '', 'In scenarios where interworking between 5GS and EPC is possible, the network configuration is expected to associate UEs with SCEF+NEF node(s) for Service Capability Exposure. The SCEF+NEF hides the underlying 3GPP network topology from the AF (e.g. SCS/AS) and hides whether the UE is served by 5GC or EPC.', '', "If the service exposure function that is associated with a given service for a UE is configured in the UE's subscription information, then an SCEF+NEF identity shall be used to identify the exposure function. For example, if a UE is capable of switching between EPC and 5GC, then the SCEF ID that is associated with any of the UE's APN configurations should point to an SCEF+NEF node.", '', 'For external exposure of services related to specific UE(s), the SCEF+NEF resides in the HPLMN. Depending on operator agreements, the SCEF+NEF in the HPLMN may have interface(s) with NF(s) in the VPLMN.', '', 'The SCEF+NEF exposes over N33 the same API as the SCEF supports over T8. If CAPIF is not supported, the AF is locally configured with the API termination points for each service. If CAPIF is supported, the AF obtains the service API information from the CAPIF core function via the Availability of service APIs event notification or Service Discover Response as specified in TS\xa023.222\xa0[64].', '', 'The common state information shall be maintained by the combined SCEF+NEF node in order to meet the external interface requirements of the combined node. The common state information includes at least the following data that needs to be common for the SCEF and NEF roles of SCEF+NEF:', '', '-\tSCEF+NEF ID (must be the same towards the AF).', '', '-\tSCEF+NEF common IP address and port number.', '', '-\tMonitoring state for any ongoing monitoring request.', '', '-\tConfigured set of APIs supported by SCEF+ NEF.', '', '-\tPDN Connection/PDU Session State and NIDD Configuration Information, including Reliable Data Service state information.', '', '-\tNetwork Parameter Configuration Information (e.g. Maximum Response Time and Maximum Latency).', '', 'The SCEF+NEF need not perform the same procedures for the configuration of monitoring events towards the HSS+UDM twice. For example, if the HSS+UDM is deployed as a combined node, a monitoring event only need to be configured by the SCEF+NEF just once.', '', 'The SCEF+NEF may configure monitoring events applicable to both EPC and 5GC using only 5GC procedures towards UDM. In this case, the SCEF+NEF shall indicate that the monitoring event is also applicable to EPC (i.e. the event must be reported both by 5GC and EPC) and may include a SCEF address (i.e. if the event needs to be configured in a serving node in the EPC and the corresponding notification needs to be sent directly to the SCEF). If the HSS and UDM are deployed as separate network entities, UDM shall use HSS services to configure the monitoring event in EPC as defined in TS\xa023.632\xa0[102]. The UDM shall return an indication to SCEF+NEF of whether the configuration of the monitoring event in EPC was successful. In the case that the UDM reports that the configuration of a monitoring event was not possible in EPC, then the SCEF+NEF may configure the monitoring event using EPC procedures via the HSS as defined in TS\xa023.682\xa0[36].', '', 'NOTE\xa01:\tThe SCEF+NEF uses only 5GC procedures to configure monitoring events in EPC and 5GC.', '', 'NOTE\xa02:\tIn terms of the CAPIF, the SCEF+NEF is considered a single node.', '']</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.2053156089036419</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.2.2	V2X message reception via MBS&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>['', 'The mechanisms defined in TS\xa023.247\xa0[28] can be used to establish the suitable MBS sessions, and V2X messages are routed from the V2X Application Server towards UEs via broadcast MBS sessions or multicast MBS sessions. As defined in TS\xa023.247\xa0[28] multicast/broadcast service for roaming is not supported in this release.', '', 'For MBS reception of V2X messages, announcement for V2X services is required for the UE. To provide the UE with the announcement, the following ways may be used:', '', '-\tExisting announcement mechanisms specified in TS\xa023.247\xa0[28], TS\xa026.502\xa0[29] and TS\xa026.517\xa0[30].', '', '-\tMBS session announcement provisioned as described in clauses 5.1.1 and 5.1.3.1.', '', 'The V2X Application Server providing the V2X service identified by V2X service type sends the V2X message via UDP/IP transport using information provided in the announcement.', '', 'V2X message transfer via MBS may be achieved by locating the MBS CN NFs (e.g. MB-UPF) closer to the gNB to meet the latency requirement as defined for 5QI 75 specified in TS\xa023.501\xa0[6].', '']</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.1997138253774657</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.2.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>['', 'V2X communication over PC5 reference point may use different protocols and formats than V2X communication over Uu reference point.', '', 'For a V2X service type that can use PC5 reference points or Uu reference point for the transmission of the same V2X messages, the following additional consideration apply for unicast transport of V2X messages over Uu reference point:', '', '-\tfor transport of non-IP based V2X messages from the application:', '', '-\tIP encapsulation (i.e. IP PDU Session type) or Unstructured PDU Session type is used.', '', '-\tThe UE determines which method between IP encapsulation and Unstructured PDU Session type is used for non-IP based V2X messages based on the UE configuration as described in clause\xa05.1.3.1. If no such configuration is available, UE can use the method based on the UE implementation.', '', '-\twhen IP PDU Session type is used for transport of IP based or non-IP based V2X messages:', '', '-\tV2X messages are transported over UDP or TCP:', '', '-\tfor non-IP based V2X messages from the application, UE may learn from V2X Application Server or UE may be configured explicitly about a transport layer protocol needs to be used or no restriction imposed by configuration.', '', '-\tfor IP based V2X messages from the application, UE uses the transport layer protocol set by the upper layer.', '', '-\tthe UE sends a V2X message to a V2X Application Server address. The destined V2X Application Server address is derived from the V2X service type and the UE configuration as described in clause\xa05.1.3.1, and the V2X Application Server receives the V2X message in a UDP/IP packet or a TCP/IP packet on a V2X Application Server address.', '', '-\twhen Unstructured PDU Session type is used for transport of non-IP based V2X messages:', '', '-\tV2X messages are transported to the V2X Application Server as defined in clause\xa05.6.10.3 of TS\xa023.501\xa0[6].', '', 'Latency reduction for V2X message transfer via unicast may be achieved by using various mechanisms, including via e.g., edge computing defined in clauses5.6.7 and 5.13 of TS\xa023.501\xa0[6], where the V2X Application Server acts as an Application Function.', '']</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.2015809879605529</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.27.1.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>['', 'For supporting time synchronization service, the 5GS is configured to operate in one or multiple PTP instances and to operate in one of the following modes (if supported) for each PTP instance:', '', '1)\tas time-aware system as described in IEEE\xa0Std\xa0802.1AS\xa0[104],', '', '2)\tas Boundary Clock as described in IEEE\xa0Std\xa01588\xa0[126], provisioned by the profiles supported by this 3GPP specification including SMPTE Profile for Use of IEEE Std\xa01588\xa0[126] Precision Time Protocol in Professional Broadcast Applications ST\xa02059-2:2015\xa0[127];', '', 'NOTE\xa01:\tVia proper configuration of the IEEE\xa0Std\xa01588\xa0[126] data set members, the 5G internal system clock can become the time source for the PTP grandmaster function for the connected networks in the case of mode 1 and mode 2.', '', 'NOTE\xa02:\tIn some cases where the 5G internal system clock is the time source for the PTP grandmaster function for the connected networks, it might not be required for the UE to receive gPTP or PTP messages over user plane. The UE and DS-TT uses the 5G timing information and generates the necessary gPTP or PTP message for the end station, if needed (this is implementation specific).', '', '3)\tas peer-to-peer Transparent Clock as described in IEEE\xa0Std\xa01588\xa0[126], provisioned by the profiles supported by this 3GPP specification including SMPTE Profile for Use of IEEE Std 1588 Precision Time Protocol in Professional Broadcast Applications ST\xa02059-2:2015\xa0[127]; or', '', '4)\tas end-to-end Transparent Clock as described in IEEE\xa0Std\xa01588\xa0[126], provisioned by the profiles supported by this 3GPP specification including SMPTE Profile for Use of IEEE Std 1588 Precision Time Protocol in Professional Broadcast Applications ST\xa02059-2:2015\xa0[127].', '', 'NOTE\xa03:\tWhen the GM is external, the operation of 5GS as Boundary Clock assumes that profiles that are supported by the 5GS allows the exemption specified in clauses 9.5.9 and 9.5.10 of IEEE\xa0Std\xa01588\xa0[126] where the originTimestamp (or preciseOriginTimestamp in case of two-step operation) is not required to be updated with the syncEventEgressTimestamp (and a Local PTP Clock locked to the external GM). As described in clause\xa05.27.1.2.2, only correctionField is updated with the 5GS residence time and link delay, in a similar operation as specified by IEEE\xa0Std\xa0802.1AS\xa0[104].', '', 'The configuration of the time synchronization service in 5GS for option 1 by TSN AF and CNC is described in clause\xa05.28.3, and for options 1-4 by AF/NEF and TSCTSF in clause\xa05.27.1.8 and clause\xa05.28.3.', '', 'The 5GS shall be modelled as an IEEE\xa0Std\xa0802.1AS\xa0[104] or IEEE\xa0Std\xa01588\xa0[126] compliant entity based on the above configuration.', '', 'NOTE\xa04:\tThis release of the specification does not support the PTP management mechanism or PTP management messages as described in clause\xa015 in IEEE\xa0Std\xa01588\xa0[126].', '', "The DS-TT and NW-TT at the edge of the 5G system may support the IEEE\xa0Std\xa0802.1AS\xa0[104] or other IEEE\xa0Std\xa01588\xa0[126] profiles' operations respective to the configured mode of operation. The UE, gNB, UPF, NW-TT and DS- TTs are synchronized with the 5G GM (i.e. the 5G internal system clock) which shall serve to keep these network elements synchronized. The TTs located at the edge of 5G system fulfil some functions related to IEEE\xa0Std\xa0802.1AS\xa0[104] and may fulfil some functions related to IEEE\xa0Std\xa01588\xa0[126], e.g. (g)PTP support and timestamping. Figure 5.27.1-1 illustrates the 5G and PTP grandmaster (GM) clock distribution model via 5GS.", '', '----media/image74.emf----', '', 'Figure 5.27.1-1: 5G system is modelled as PTP instance for supporting time synchronization', '', 'Figure 5.27.1-1 depicts the two synchronizations systems considered: the 5G Clock synchronization and the (g)PTP domain synchronization.', '', '-\t5G Access Stratum-based Time Distribution: Used for NG RAN synchronization and also distributed to the UE. The 5G Access Stratum-based Time Distribution over the radio interface towards the UE is specified in TS\xa038.331\xa0[28]. This method may be used to either further distribute the 5G timing to devices connected to a UE (using implementation-specific means) or to support the operation of the (g)PTP-based time distribution method.', '', '-\t(g)PTP-based Time Distribution: Provides timing among entities in a (g)PTP domain. This process follows the applicable profiles of IEEE\xa0Std\xa0802.1AS\xa0[104] or IEEE\xa0Std\xa01588\xa0[126]. This method relies on the 5G access stratum-based time distribution method to synchronize the UE/DS-TT and on the 5GS time synchronization to synchronize the gNB (which, in turn, may synchronize the DS-TT) and the NW-TT.', '', 'The gNB needs to be synchronized to the 5G GM clock.', '', 'The 5GS supports two methods for determining the grandmaster PTP Instance and the time-synchronization spanning tree.', '', '-\tMethod a), BMCA procedure.', '', '-\tMethod b), local configuration.', '', 'This is further described in clause\xa05.27.1.6.', '']</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1944767622375903</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.27.1.12	Support for network timing synchronization status monitoring&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>['', 'While the time synchronization service is offered by the 5GS, based on 5G access stratum-based time distribution or (g)PTP-based time distribution, the network timing synchronization status of the nodes involved in the operation (e.g. gNBs and/or UPF/NW-TTs) may change. gNBs and UPF/NW-TT can detect timing synchronization degradation or improvement locally. The support for network timing synchronization status monitoring enables the 5GS to modify time synchronization service for a UE or a group of UEs depending on the current synchronization status and notify service updates. There may be three consumers of this information:', '', '-\tTSCTSF may receive node-level information about timing synchronization status from gNB and/or UPF/NW-TT directly from OAM or alternatively, if supported by a node, using control plane signalling at node level. Node level signalling uses UMIC for UPF/NW-TT case and an AMF service to report N2 node level information for the gNB case. In the latter case, the AMF controls the gNB node level reporting and subscription using NGAP messages (see TS\xa038.413\xa0[34]).', '', '-\tAF may subscribe to time synchronization status notifications for a UE or group of UEs for which the AF requests or has requested time synchronization service (for 5G access stratum time distribution or (g)PTP services).', '', '-\tFor 5G access stratum time synchronization service, the UE may receive clock quality information from the gNB based on UE subscription data stored in the UDM (see clause\xa05.27.1.11) or AF request for clock quality reporting to the UE.', '', 'When activating time synchronization for a UE, TSCTSF forwards the clock quality detail level (if available) to the AMF (via PCF using AM policy). The AMF instructs the UE to transition to the RRC_CONNECTED state in the case when the UE later detects that the gNB timing synchronization status has changed while the UE is in the RRC_INACTIVE or RRC_IDLE state. When the UE wants to access the 5GS, the UE shall perform Unified Access Control as defined in TS\xa038.331\xa0[28].', '', 'gNBs may be pre-configured with thresholds for each timing synchronization status attribute, if supported, that is described in Table 5.27.1.12-1. When the network timing synchronization status exceeds the thresholds (i.e. status degradation), or the network timing synchronization status meets the thresholds again (i.e. status improvement), the gNB notifies the TSCTSF (either using N2 node level signalling via AMF, or via OAM) with the gNB ID, the scope of the timing synchronization status (i.e. all cells or a list of Cell IDs within a single gNB) and the corresponding network timing synchronization status (TSS) attributes as described in this clause. The gNB indicates the status change to the UEs via SIB information:', '', '-\tWhen the network timing synchronization status exceeds any of the pre-configured thresholds, the gNB includes in SIB information a reference report ID. When the network timing synchronization status meets the thresholds again (i.e. status improvement), the gNB broadcasts the reference report ID in SIB information. Either event serves as a notification for the UEs reading the SIB information that there is new TSS information available.', '', 'NOTE\xa01:\tit is assumed that the gNB does not provide clock quality metrics to the UE which is better than the pre-configured thresholds.', '', 'NOTE\xa02:\tIt is assumed the pre-configured thresholds in the gNB(s) are sufficient to meet UE time sync performance requirement which are configured by the operator.', '', '-\tIf supported, the UE in the RRC_INACTIVE or RRC_IDLE state compares the reference report ID in SIB information with its locally stored reference report ID to determine whether it has the latest available clock quality information already or it needs to transit to the RRC_CONNECTED state to retrieve it. A reference report ID consists of a scope of the TSS and an Event ID. The Event ID is an integer indicating the clock quality information from a gNB.', '', '\tA scope of the TSS supports providing TSS information for a group of cells within a single gNB. Uniqueness of the event ID is ensured by combining with a gNB ID.', '', "-\tIf the UE is instructed by AMF (via the Registration procedure, or the UE Configuration Update procedure) to reconnect to the network in the case when the UE determines that the reference report ID has changed, the UE in the RRC_INACTIVE or RRC_IDLE state, if supported by the UE, reconnects to the network. RAN may delay or prioritize UE's transition to the RRC_CONNECTED state using the UAC framework\xa0[28], i.e. UEs are not expected to transition to the RRC_CONNECTED state immediately after determining that the clock quality information has changed and receiving instructions from the AMF. After the UE has reconnected to the network, the gNB uses unicast RRC signalling to provision the clock quality information to the UEs.", '', 'The network timing synchronization status information from gNB or UPF/NW-TT to the TSCTSF may contain the following information as described in the Table 5.27.1.12-1. However, it is up to gNB to determine whether to provide its timing synchronization status reporting and which of the information elements to include in the TSS report to the TSCTSF, i.e. based on the implementation gNB may report all, some, or none of the information elements from Table 5.27.1.12-1.', '', 'Table 5.27.1.12-1: Information elements that gNB or UPF/NW-TT timing synchronization status information may contain (all optional)', '', 'Information Name', '', 'Description', '', 'Synchronization state', '', 'Indicates the state of the node synchronization, represented by the values "Locked", "Holdover", or "Freerun" (NOTE\xa01).', '', 'Clock quality', '', '', '', '&amp;gt;&amp;gt; Traceable to GNSS', '', 'Indicates whether the current time source is traceable to the GNSS and represented by values “Yes” or “No”.', '', '&amp;gt;&amp;gt; Traceable to UTC', '', 'Indicates whether the current time source is traceable to the UTC and represented by values “Yes” or “No”.', '', '&amp;gt;&amp;gt; Frequency stability', '', 'Describes the estimate of the variation of the local clock when it is not synchronized to another source (NOTE\xa02).', '', '&amp;gt;&amp;gt; Clock Accuracy', '', 'Describes the mean in ns over an ensemble of measurements of the time between the clock under test and a reference clock (NOTE\xa03).', '', 'Parent time source', '', 'Describes the primary source the node is currently using, represented by the values "SyncE", "PTP", "GNSS", "atomic clock", "terrestrial radio", "serial time code", "NTP", "hand_set", "other".', '', 'NOTE\xa01:\tClock is in the "Locked", "Holdover", or "Freerun" mode, as defined in ITUT\xa0G.810\xa0[164].', '', 'NOTE\xa02: \tFrequency stability is estimated in a similar manner as for offsetScaledLogVariance attribute defined in clause\xa07.6.3.5 of IEEE\xa0Std\xa01588 [126].', '', 'NOTE\xa03: \tClock accuracy measurement considers accuracy up to gNB antenna and RAN internal process.', '', '', '', "The TSCTSF determines the UEs impacted by gNB's timing synchronization status change (i.e. degradation, failure or improvement) or UPF timing synchronization status change (only for the case when UPF/NW-TT is involved in providing time information to DS-TT).", '', "-\tFor the gNB case, when the TSCTSF receives information about timing synchronization status change, the TSCTSF discovers the AMFs serving the impacted gNBs and subscribes to receive notifications for UE's presence in Area of Interest information. The Area of Interest is set to the scope of the timing synchronization status (i.e. gNB ID or a group of cells within the gNB specified with a list of Cell IDs that has reported status degradation (i.e. the pre-configured thresholds are exceeded in the gNB) from AMF as described in clause\xa05.3.4.4. The subscription is targeted to any UE in the AMF, the TSCTSF correlates information about impacted gNBs and the UE location information received from the AMF. If the gNB notifies the TSCTSF for the status improvement (i.e. the pre-configured thresholds are met in the gNB), the TSCTSF modifies the subscription to remove the corresponding Area of Interest from the subscription.", '', '-\tFor UPF case, the TSCTSF determines the UEs for which the impacted UPF/NW-TT is configured to send (g)PTP messages on behalf of DS-TT (see clause\xa05.27.1.7).', '', "If the gNB's or UPF's timing synchronization status change, the TSCTSF may perform the following:", '', '-\tFor AFs that subscribe for 5G access stratum time synchronization service or (g)PTP time synchronization service status update (i.e. change in support status of the clock quality acceptance criteria provided by the AF and specified using TSS attributes from Table 5.27.1.12-1), the TSCTSF may provide notification towards the AF when there is a change in support status for a UE or group of UEs.', '', '-\tDeactivating/reactivating/updating time synchronization services:', '', '-\t(g)PTP time synchronization service case: For UEs that are part of a PTP instance and which are impacted by NG-RAN or UPF time synchronization status degradation or improvement:', '', '-\tIf TSCTSF determines that the clock quality acceptance criteria provided by AF can still be met, then TSCTSF may update the clock quality information sent in Announce messages (see clause\xa07.6.2 of IEEE 1588\xa0[8]) for the PTP instance using existing procedures and existing PMIC/UMIC information. The handling of Announce messages follows existing procedures as described in clause\xa05.27.1.6.', '', '-\tIf TSCTSF determines that the clock quality acceptance criteria provided by AF cannot be met, then TSCTSF informs the AF for the corresponding PTP port being inactive due to the result of fulfilling the clock quality acceptance criteria; and the TSCTSF temporarily removes the UE/DS-TT from the PTP instance using the procedure in clause\xa0K.2.2.1 and clause\xa0K.2.2.4. The AF may send a service update or delete request (see clause\xa04.15.9.3 of TS\xa023.502\xa0[3]).', '', '-\tIf TSCTSF determines that the clock quality acceptance criteria provided by AF can be met again then TSCTSF informs the AF about the result, adds the DS-TT PTP port to the PTP instance again and re-activates the Grandmaster functionality.', '', 'For 5G access stratum time synchronization service, clock quality reporting control information manages the gNBs timing synchronization status reporting to the UE. When AMF provides the 5G access stratum time distribution indication and the Uu time synchronization error budget to gNB, the AMF also includes the clock quality reporting control information (CQRCI) provided by the TSCTSF or retrieved from UDM. CQRCI may be a part of Access and Mobility Subscription data at the UDM, or AF may include CQRCI in its request. CQRCI contains the following fields:', '', '-\tClock quality detail level. It indicates whether and which clock quality information to provide to the UE and can take one of the following values: clock quality metrics or acceptable/not acceptable indication.', '', '-\tIf the clock quality detail level equals "clock quality metrics", the NG-RAN provides clock quality metrics to the UE that reflect its current timing synchronization status. i.e. one or more of the following information elements: clock accuracy, traceability to UTC and to GNSS, frequency stability, parent time source, synchronization state as defined in Table 5.27.1.12-1. NG-RAN is locally configured which of the clock quality metrics supported by NG-RAN are provided to UE(s).', '', '-\tIf the clock quality detail level equals "acceptable/not acceptable indication", clock quality acceptance criteria for the UE. The gNB provides an acceptable indication to the UE if the gNB\'s timing synchronization status matches the acceptance criteria received from the AMF; otherwise, the gNB indicates "not acceptable" to the UE. Clock quality acceptance criteria can be defined based on one or more information elements listed in Table 5.27.1.12-1. If AF includes clock quality acceptance criteria in its request towards TSCTSF, the AF shall be notified about the result once TSCTSF determines whether the clock quality acceptance criteria can be met or not. Based on the notification, the AF may decide to modify the service if preferred (e.g., disable the service upon degradation or enable it again upon recovery).', '', 'When determining the clock quality metrics for a UE and when determining whether clock quality is acceptable or not acceptable for a UE, the gNB considers whether propagation delay compensation is performed.', '', 'NOTE\xa03:\tIn this Release, UE capabilities and internal inaccuracies are assumed to be budgeted by the client network operator when agreeing the required clock accuracy with the 5G network operator.', '', 'To provision clock quality information to the UEs, a gNB uses unicast RRC signalling:', '', '-\tFor UEs in the RRC Connected state, the gNB uses unicast RRC signalling.', '', '-\tUEs that are not in the RRC_CONNECTED state first need to establish or resume the RRC connection to receive the TSS information from the gNB via unicast RRC signalling.', '', 'During N2 Handover and Xn handover, Service Request, mobility registration and AM policy modification procedure, the AMF may provide the Clock quality, Clock quality acceptance criteria to NG-RAN.', '']</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1876130266580214</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.27.1.4	DS-TT and NW-TT Time Synchronization functionality&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>['', 'This clause describes the support of Time Synchronization functionality supported by the 5G System. Synchronization between UPF/NW-TT and NG-RAN is outside scope of 3GPP.', '', 'DS-TT and NW-TT may support the following PTP instance types:', '', '-\tBoundary Clock as defined in IEEE Std 1588\xa0[126] as described in clause\xa05.27.1.1;', '', '-\tEnd-to-End Transparent Clock as defined in IEEE\xa0Std\xa01588\xa0[126] as described in clause\xa05.27.1.1;', '', '-\tPeer-to-Peer Transparent Clock as defined in IEEE\xa0Std\xa01588\xa0[126] as described in clause\xa05.27.1.1;', '', '-\tPTP Relay instance as defined in IEEE\xa0Std\xa0802.1AS\xa0[104].', '', "Editor's note:\tSupport for external networks operating with IEEE\xa0Std\xa01588-2008\xa0[107] is for further study.", '', 'DS-TT and NW-TT may support the following transports for PTP:', '', '-\tIPv4 as defined in IEEE Std 1588\xa0[126] Annex\xa0C;', '', '-\tIPv6 as defined in IEEE Std 1588\xa0[126] Annex\xa0D;', '', '\tIEEE\xa0Std\xa0802.3\xa0[131] (Ethernet) as defined in IEEE\xa0Std\xa01588\xa0[126] Annex\xa0E.', '', 'For operation as a Boundary clock or as a Transparent Clock, DS-TT and NW-TT may support the following path and link delay measurement methods:', '', '-\tDelay request-response mechanism as described in clause\xa011.3 of IEEE\xa0Std\xa01588\xa0[126];', '', '-\tPeer-to-peer delay mechanism as defined in clause\xa011.4 of IEEE\xa0Std\xa01588\xa0[126].', '', 'DS-TT and NW-TT may support acting as a PTP grandmaster, i.e. may support generating (g)PTP Announce, Sync and Follow_Up messages. DS-TT and NW-TT supporting (g)PTP shall support one or more PTP profiles as described in clause\xa020.3 of IEEE\xa0Std\xa01588\xa0[126],  i.e.:', '', '-\tDefault PTP Profiles in IEEE\xa0Std\xa01588\xa0[126], Annex\xa0I;', '', '-\tIEEE\xa0Std\xa0802.1AS\xa0[104] PTP profile for transport of timing as defined in IEEE\xa0Std\xa0802.1AS\xa0[104] Annex\xa0F;', '', '-\tSMPTE Profile for Use of IEEE\xa0Std\xa01588\xa0[126] Precision Time Protocol in Professional Broadcast Applications ST\xa02059-2:2015\xa0[127].', '', 'TSN AF and TSCTSF may determine the PTP functionalities supported by DS-TT and NW-TT and may configure PTP instances in DS-TT and NW-TT using port and user plane node management information exchange as described in Annex\xa0K, clause\xa0K.2.', '', 'NOTE:\tHow the TSN AF or TSCTSF assigns NW-TT port(s) of one NW-TT to different PTP instances is up to implementation.', '']</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>0.1912820444366852</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.27.1.9	Support for derivation of Uu time synchronization error budget&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>['', 'The AF may request a specific time synchronization error budget when requesting a time synchronization service employing the (g)PTP-based or 5G access stratum-based time distribution method. If the AF includes a time synchronization error budget in its request, the TSCTSF uses it to derive an error budget available for the NG-RAN to provide the 5G access stratum time via the Uu interface to each targeted UE (referred to as Uu time synchronization error budget hereafter).', '', 'The Time Synchronization Subscription data may optionally contain the authorized Uu time synchronization error budget. When the TSCTSF receives an AF request with a specific time synchronization error budget for the time synchronization service, the TSCTSF validates the Uu time synchronization error budget as described in clause\xa05.27.1.11.', '', 'To derive the Uu time synchronization error budget for each targeted UE, the TSCTSF takes the following into account:', '', '-\tselected time synchronization distribution method (i.e. 5G access stratum-based time distribution or (g)PTP-based time distribution);', '', '-\tUu time synchronization error budget in the Time Synchronization Subscription data defined in clause\xa05.27.1.11;', '', '-\tin the case of the (g)PTP-based time distribution:', '', '-\twhether 5GS operates as a boundary clock and acts as a GM;', '', '-\twhether a clock connected to the DS-TT/NW-TT acts as a GM;', '', '-\tPTP port states;', '', '-\ta CN part and a Device part of the time synchronization error budget (both parts may be predefined at the TSCTSF, or calculated by the 5GS using the implementation-specific means).', '', 'If the AF does not include a time synchronization error budget, the TSCTSF uses a preconfigured time synchronization error budget to derive the Uu time synchronization error budget.  TheTSCTSF provides a 5G access stratum time distribution indication and the derived Uu time synchronization error budget to NG-RAN as described in clause\xa04.15.9.4 of TS\xa023.502\xa0[3]. Based on this, NG-RAN provides the 5G access stratum time to the UE according to the Uu interface time synchronization error budget as provided by the TSCTSF (if supported by UE and NG-RAN). During Handover, Service Request, mobility registration and AM policy modification procedure, the AMF may provide the 5G access stratum time distribution indication and the Uu time synchronization error budget to NG-RAN as described in clause\xa04.15.9.4 of TS\xa023.502\xa0[3], if needed.', '', 'NOTE:\tThis release of the specification assumes that deployments ensure that the targeted UEs and the NG-RAN nodes serving those UEs support Rel-17 propagation delay compensation as defined in TS\xa038.300\xa0[27].', '']</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>0.1844774541173909</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.27.2.2	TSC Assistance Container determination based on PSFP&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>['', 'In the case of integration with IEEE TSN network, the TSN AF determines a TSC Assistance Container (defined in Table 5.27.2-2) and provides it to the PCF. The determination of TSC Assistance Container based on Per-Stream Filtering and Policing (PSFP) information applies only to Ethernet type PDU Sessions.', '', 'NOTE\xa01:\tThis clause assumes that PSFP information as defined in IEEE\xa0Std\xa0802.1Q\xa0[98] and Table 5.28.3.1-1is provided by CNC. PSFP information may be provided by CNC if TSN AF has declared PSFP support to CNC. TSN AF indicates the support for PSFP to CNC only if all the DS-TT and NW-TT ports of the 5GS Bridge have indicated support of PSFP. Means to derive the TSC Assistance Container if PSFP is not supported by 5GS and/or the CNC are beyond the scope of this specification.', '', 'The TSN AF may be able to identify the ingress port and thereby the PDU Session as described in clause\xa05.28.2.', '', 'The TSN AF interfaces towards the CNC for the PSFP (IEEE\xa0Std\xa0802.1Q\xa0[98]) managed objects that correspond to the PSFP functionality implemented by the DS-TT and the NW-TT. Thus, when PSFP information is provided by the CNC, the TSN AF may extract relevant parameters from the PSFP configuration. The TSN AF calculates traffic pattern parameters (such as burst arrival time with reference to the ingress port and periodicity). TSN AF also obtains the flow direction as specified in clause\xa05.28.2. Survival Time may be pre-configured in TSN AF.', '', 'TSN AF may enable aggregation of TSN streams if the TSN streams belong to the same traffic class, terminate in the same egress port and have the same periodicity and compatible Burst arrival time. When Survival Time information is provided for a TSN stream, then it should not be aggregated with other TSN streams into a single QoS Flow, or if they are aggregated, then the Survival Time parameter shall not be provided. One set of parameters and one TSC Assistance Container are created by the TSN AF for multiple TSN streams to enable aggregation of TSN streams to the same QoS Flow.', '', 'Annex I describe how the traffic pattern information is determined.', '', 'NOTE\xa02:\tFurther details of aggregation of TSN streams (including determination of burst arrival times that are compatible so that TSN streams can be aggregated) are left for implementation.', '', 'NOTE\xa03:\tIn order for the TSN AF to get Burst Arrival Time, Periodicity on a per TSN stream basis, support for IEEE\xa0Std\xa0802.1Q\xa0[98] (as stated in clause\xa04.4.8.2) Per-Stream Filtering and Policing (PSFP) with stream gate operation is a prerequisite.', '', 'For a UE-UE TSC stream, the (TSN) AF divides the stream into one uplink stream and one or more downlink streams as defined in clause\xa05.28.2. The TSN AF binds the uplink and downlink streams to the PDU Sessions, and provides the streams on AF Session basis to the PCF(s). The TSN AF calculates traffic pattern parameters for the UL and the DL stream using the PSFP configuration (if provided) respectively:', '', '-\tFor the uplink stream, the Flow Direction is set to uplink and traffic pattern parameters (such as burst arrival time with reference to the ingress port and periodicity) is determined as described in Annex I.', '', '-\tFor downlink stream, the Flow Direction is set to downlink, the burst arrival time is set to sum of burst arrival time of the UL stream and 5GS Bridge delay of PDU Session carrying the UL stream, and the periodicity is determined as described in Annex\xa0I.', '']</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1872738323448125</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.28.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>['', 'Port number for the PDU Session is assigned by the UPF during PDU session establishment. The port number for a PDU Session shall be reported to the SMF from the UPF and further stored at the SMF. The SMF provides the port number via PCF to the TSN AF or TSCTSF. TSN AF or TSCTSF maintains an association between the port number for the PDU Session and the DS-TT port MAC address (with Ethernet type PDU session) or IP address (applicable for TSCTSF only, with IP type PDU Session) of the UE. If a PDU session for which SMF has reported a port number to TSN AF or TSCTSF is released, then SMF informs TSN AF or TSCTSF accordingly. The port number for the PDU Session corresponds to the device side port of the 5GS bridge/router. When the device supports the DS-TT functionality, the port number represents the DS-TT port number corresponding to the given PDU Session.', '', 'NOTE\xa01:\tPort number can refer either to Ethernet port or PTP port. In Ethernet type PDU Sessions, it is assumed that the PTP port number is the same as the associated Ethernet port number.', '', 'When the DS-TT or the NW-TT functions are used, the 5GS shall support transfer of standardized and deployment-specific port management information transparently between TSN AF or TSCTSF and DS-TT or NW-TT, respectively inside a Port Management Information Container. NW-TT may support one or more ports. In this case, each port uses separate Port Management Information Container. 5GS shall also support transfer of standardized and deployment-specific user plane node management information transparently between TSN AF or TSCTSF and NW-TT, respectively inside a User Plane Node Management Information Container. Table 5.28.3.1-1 and Table 5.28.3.1-2 list standardized port management information and user plane node management information, respectively.', '', 'If TSN AF is deployed, i.e. if 5GS is integrated with an IEEE TSN network, the port and user plane node management information is exchanged between CNC and TSN AF. The port management information is related to ports located in DS-TT or NW-TT. The user plane node management information container is related to 5GS bridge management.', '', 'If TSN AF is not deployed, the port and user plane node management information is exchanged between TSCTSF and DS-TT/NW-TT.', '', 'NOTE\xa02:\tThe time synchronization parameters used in Port Management Information Container and User Plane Node Management Information Container are from IEEE Std 1588\xa0[126], Edition 2019, and from IEEE\xa0Std\xa0802.1AS\xa0[104]. Since the IEEE time synchronization data sets are not exposed, care needs to be taken when interoperating with devices supporting Edition 2008, IEEE\xa0Std\xa01588-2008\xa0[107] (which can be the case when operating under the SMPTE profile, ST\xa02059-2:2015\xa0[127]) and using a common management.', '', 'Table 5.28.3.1-1: Standardized port management information', '', 'Port management information', '', 'Applicability (see NOTE 6)', '', 'Supported operations by TSN AF', '', 'Supported operations by TSCTSF', '', 'Reference', '', '', '', 'DS-TT', '', 'NW-TT', '', '(see NOTE\xa01)', '', '(see NOTE\xa01)', '', '', '', '&lt;b&gt;General&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'Port management capabilities (see NOTE\xa02)', '', 'X', '', 'X', '', 'R', '', 'R', '', '', '', '&lt;b&gt;Bridge delay related information&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'txPropagationDelay', '', 'X', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] clause\xa012.32.2.1', '', 'txPropagationDelayDeltaThreshold (see NOTE\xa023)', '', 'X', '', 'X', '', 'RW', '', '', '', '', '', '&lt;b&gt;Traffic class related information&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'Traffic class table', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] clause\xa012.6.3 and clause\xa08.6.6.', '', '&lt;b&gt;Gate control information&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'GateEnabled', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'AdminBaseTime', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'AdminControlList', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'AdminCycleTime (see NOTE\xa03)', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'AdminControlListLength (see NOTE\xa03)', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'AdminCycleTimeExtension', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'Tick granularity', '', 'X', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', 'SupportedListMax', '', 'X', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-32', '', '&lt;b&gt;General Neighbor discovery configuration&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa04)&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'adminStatus', '', 'D', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] clause\xa09.2.5.1', '', 'lldpV2LocChassisIdSubtype', '', 'D', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2LocChassisId', '', 'D', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2MessageTxInterval', '', 'D', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2MessageTxHoldMultiplier', '', 'D', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', '&lt;b&gt;NW-TT port neighbor discovery configuration&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'lldpV2LocPortIdSubtype', '', '', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2LocPortId', '', '', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', '&lt;b&gt;DS-TT port neighbor discovery configuration&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'lldpV2LocPortIdSubtype', '', 'D', '', '', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2LocPortId', '', 'D', '', '', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', '&lt;b&gt;Neighbor discovery information for each discovered neighbor of NW-TT (NOTE\xa026)&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'lldpV2RemChassisIdSubtype', '', '', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2RemChassisId', '', '', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2RemPortIdSubtype', '', '', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2RemPortId', '', '', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'TTL', '', '', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] clause\xa08.5.4', '', '&lt;b&gt;Neighbor discovery information for each discovered neighbor of DS-TT&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa05)&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'lldpV2RemChassisIdSubtype', '', 'D', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2RemChassisId', '', 'D', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2RemPortIdSubtype', '', 'D', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'lldpV2RemPortId', '', 'D', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table 11-2', '', 'TTL', '', 'D', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] clause\xa08.5.4.1', '', 'Information for deterministic networking for each NW-TT port (NOTE\xa027)', '', '', '', '', '', '', '', '', '', '', '', 'Interface information', '', '', '', '', '', '', '', '', '', '', '', 'Interface type', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08343\xa0[151]', '', 'Interface enabled status', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08343\xa0[151]', '', 'phys-address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08343\xa0[151]', '', 'IPv4 information', '', '', '', '', '', '', '', '', '', '', '', 'IPv4 enabled status', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'IPv4 forwarding status', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'IPv4 MTU', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'Information for each IPv4 address', '', '', '', '', '', '', '', '', '', '', '', 'IPv4 address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'prefix-length', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'netmask', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', ' origin', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'Information for each IPv4 neighbor', '', '', '', '', '', '', '', '', '', '', '', 'IPv4 address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'link-layer-address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'origin', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'IPv6 information', '', '', '', '', '', '', '', '', '', '', '', 'IPv6 enabled status', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'IPv6 forwarding status', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'IPv6 MTU', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'Information for each IPv6 address', '', '', '', '', '', '', '', '', '', '', '', 'IPv6 address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'prefix-length', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'origin', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'status', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'Information for each IPv6 neighbor', '', '', '', '', '', '', '', '', '', '', '', 'IPv6 address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'link-layer-address', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'origin', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'is-router', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', 'state', '', '', '', 'X', '', '', '', 'R', '', 'IETF\xa0RFC\xa08344\xa0[152]', '', '&lt;b&gt;Stream Parameters&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa011)&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'MaxStreamFilterInstances', '', 'X', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98]', '', ' clause\xa012.31.1.1', '', 'MaxStreamGateInstances', '', 'X', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98]', '', ' clause\xa012.31.1.2', '', 'MaxFlowMeterInstances', '', 'X', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98]', '', ' clause\xa012.31.1.3', '', 'SupportedListMax', '', 'X', '', '', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98]', '', ' clause\xa012.31.1.4', '', '&lt;b&gt;Per-Stream Filtering and Policing information&lt;/b&gt;', '', '(NOTE\xa010)', '', '', '', '', '', '', '', '', '', '', '', 'Stream Filter Instance Table', '', '(NOTE\xa08)', '', '', '', '', '', '', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-35', '', '&amp;gt; StreamFilterInstanceIndex', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-35', '', '&amp;gt; Stream Identification type', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0802.1CB\xa0[83] clause\xa09.1.1.6', '', '&amp;gt; Stream Identification Controlling Parameters', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0802.1CB\xa0[83] clauses 9.1.2, 9.1.3, 9.1.4', '', '(NOTE\xa012)', '', '&amp;gt; PrioritySpec', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-35', '', '&amp;gt; StreamGateInstanceID', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-35', '', 'Stream Gate Instance Table', '', '(NOTE\xa09)', '', '', '', '', '', '', '', '', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-33', '', 'StreamGateInstanceIndex', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-36', '', 'StreamGateAdminBaseTime', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-36', '', 'StreamGateAdminControlList', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-36', '', 'StreamGateAdminCycleTime', '', 'X', '', 'X', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-36', '', 'StreamGateTickGranularity', '', 'X', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-36', '', 'StreamGateAdminCycleTimeExtension', '', 'X', '', 'X', '', 'R', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] Table 12-36', '', '&lt;b&gt;Time Synchronization Information&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'TSN Time domain number (NOTE\xa024)', '', 'X', '', 'X', '', 'RW', '', '', '', '', '', 'Supported PTP instance types (NOTE\xa013)', '', 'X', '', '', '', 'R', '', 'R', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.5.5', '', 'Supported transport types (NOTE\xa014)', '', 'X', '', '', '', 'R', '', 'R', '', '', '', 'Supported delay mechanisms (NOTE\xa015)', '', 'X', '', '', '', 'R', '', 'R', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.4', '', 'PTP grandmaster capable (NOTE\xa016)', '', 'X', '', '', '', 'R', '', 'R', '', '', '', 'gPTP grandmaster capable (NOTE\xa017)', '', 'X', '', '', '', 'R', '', 'R', '', '', '', 'Supported PTP profiles (NOTE\xa018)', '', 'X', '', '', '', 'R', '', 'R', '', '', '', 'Number of supported PTP instances', '', 'X', '', '', '', 'R', '', 'R', '', '', '', '&lt;b&gt;PTP instance specification&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', 'PTP Instance ID (NOTE\xa025)', '', 'X', '', 'X', '', 'RW', '', 'RW', '', '', '', '&amp;gt; PTP profile (NOTE\xa019)', '', 'X', '', '', '', 'RW', '', 'RW', '', '', '', '&amp;gt; Transport type (NOTE\xa020)', '', 'X', '', '', '', 'RW', '', 'RW', '', '', '', '&amp;gt; Grandmaster enabled (NOTE\xa021)', '', 'X', '', '', '', 'RW', '', 'RW', '', '', '', '&lt;b&gt;IEEE\xa0Std\xa01588\xa0[126] data sets (NOTE\xa022)&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', '&amp;gt; defaultDS.clockIdentity', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.2.2', '', '&amp;gt; defaultDS.clockQuality.clockClass', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.3.1.2', '', '&amp;gt; defaultDS.clockQuality.clockAccuracy', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.3.1.3', '', '&amp;gt; defaultDS.clockQuality.offsetScaledLogVariance', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.3.1.4', '', '&amp;gt; defaultDS.priority1', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.4.1', '', '&amp;gt; defaultDS.priority2', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.4.2', '', '&amp;gt; defaultDS.domainNumber', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.4.3', '', '&amp;gt; defaultDS.sdoId', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.4.5', '', '&amp;gt; defaultDS.instanceEnable', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.5.2', '', '&amp;gt; defaultDS.instanceType', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.1.5.5', '', '&amp;gt; portDS.portIdentity', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.2.1', '', '&amp;gt; portDS.portState', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.3.1', '', '&amp;gt; portDS.logMinDelayReqInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.3.2', '', '&amp;gt; portDS.logAnnounceInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.1', '', '&amp;gt; portDS.announceReceiptTimeout', '', '', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.2', '', '&amp;gt; portDS.logSyncInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.3', '', '&amp;gt; portDS.delayMechanism', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.4', '', '&amp;gt; portDS.logMinPdelayReqInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.5', '', '&amp;gt; portDS.versionNumber', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.6', '', '&amp;gt; portDS.minorVersionNumber', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.7', '', '&amp;gt; portDS.delayAsymmetry', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.4.8', '', '&amp;gt; portDS.portEnable', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.15.5.1', '', '&amp;gt; timePropertiesDS.currentUtcOffset', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.4.2', '', '&amp;gt; timePropertiesDS.timeSource', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa08.2.4.9', '', '&amp;gt; externalPortConfigurationPortDS.desiredState', '', '', '', '', '', 'RW', '', 'RW', '', 'IEEE\xa0Std\xa01588\xa0[126] clause\xa015.5.3.7.15.1', '', '&lt;b&gt;IEEE Std 802.1AS\xa0[104] data sets (NOTE\xa022)&lt;/b&gt;', '', '', '', '', '', '', '', '', '', '', '', '&amp;gt; defaultDS.clockIdentity', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.2', '', '&amp;gt; defaultDS.clockQuality.clockClass', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.4.2', '', '&amp;gt; defaultDS.clockQuality.clockAccuracy', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.4.3', '', '&amp;gt; defaultDS.clockQuality.offsetScaledLogVariance', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.4.4', '', '&amp;gt; defaultDS.priority1', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.5', '', '&amp;gt; defaultDS.priority2', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.6', '', '&amp;gt; defaultDS.timeSource', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.15', '', '&amp;gt; defaultDS.domainNumber', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.16', '', '&amp;gt; defaultDS.sdoId', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.4.3', '', '&amp;gt; defaultDS.instanceEnable', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.2.19', '', '&amp;gt; portDS.portIdentity', '', '', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.2', '', '&amp;gt; portDS.portState', '', '', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.3', '', '&amp;gt; portDS.ptpPortEnabled', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.4', '', '&amp;gt; portDS.delayMechanism', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.5', '', '&amp;gt; portDS.isMeasuringDelay', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.6', '', '&amp;gt; portDS.asCapable', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.7', '', '&amp;gt; portDS.meanLinkDelay', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.8', '', '&amp;gt; portDS.meanLinkDelayThresh', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.9', '', '&amp;gt; portDS.delayAsymmetry', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.10', '', '&amp;gt; portDS.neighborRateRatio', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.11', '', '&amp;gt; portDS.initialLogAnnounceInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.12', '', '&amp;gt; portDS.currentLogAnnounceInterval', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.13', '', '&amp;gt; portDS.useMgtSettableLogAnnounceInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.14', '', '&amp;gt; portDS.mgtSettableLogAnnounceInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.15', '', '&amp;gt; portDS.announceReceiptTimeout', '', '', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.16', '', '&amp;gt; portDS.initialLogSyncInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.17', '', '&amp;gt; portDS.currentLogSyncInterval', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.18', '', '&amp;gt; portDS.useMgtSettableLogSyncInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.19', '', '&amp;gt; portDS.mgtSettableLogSyncInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.20', '', '&amp;gt; portDS.syncReceiptTimeout', '', '', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.21', '', '&amp;gt; portDS.syncReceiptTimeoutTimeInterval', '', '', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.22', '', '&amp;gt; portDS.initialLogPdelayReqInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.23', '', '&amp;gt; portDS.currentLogPdelayReqInterval', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.24', '', '&amp;gt; portDS.useMgtSettableLogPdelayReqInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.25', '', '&amp;gt; portDS.mgtSettableLogPdelayReqInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.26', '', '&amp;gt; portDS.initialLogGptpCapableMessageInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.27', '', '&amp;gt; portDS.currentLogGptpCapableMessageInterval', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.28', '', '&amp;gt; portDS.useMgtSettableLogGptpCapableMessageInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.29', '', '&amp;gt; portDS.mgtSettableLogGptpCapableMessageInterval', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.30', '', '&amp;gt; portDS.initialComputeNeighborRateRatio', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.31', '', '&amp;gt; portDS.currentComputeNeighborRateRatio', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.32', '', '&amp;gt; portDS.useMgtSettableComputeNeighborRateRatio', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.33', '', '&amp;gt; portDS.mgtSettableComputeNeighborRateRatio', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.34', '', '&amp;gt; portDS.initialComputeMeanLinkDelay', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.35', '', '&amp;gt; portDS.currentComputeMeanLinkDelay', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.36', '', '&amp;gt; portDS.useMgtSettableComputeMeanLinkDelay', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.37', '', '&amp;gt; portDS.mgtSettableComputeMeanLinkDelay', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.38', '', '&amp;gt; portDS.allowedLostResponses', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.39', '', '&amp;gt; portDS.allowedFaults', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.40', '', '&amp;gt; portDS.gPtpCapableReceiptTimeout', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.41', '', '&amp;gt; portDS.versionNumber', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.42', '', '&amp;gt; portDS.nup', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.43', '', '&amp;gt; portDS.ndown', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.44', '', '&amp;gt; portDS.oneStepTxOper', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.45', '', '&amp;gt; portDS.oneStepReceive', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.46', '', '&amp;gt; portDS.oneStepTransmit', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.47', '', '&amp;gt; portDS.initialOneStepTxOper', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.48', '', '&amp;gt; portDS.currentOneStepTxOper', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.49', '', '&amp;gt; portDS.useMgtSettableOneStepTxOper', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.50', '', '&amp;gt; portDS.mgtSettableOneStepTxOper', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.51', '', '&amp;gt; portDS.syncLocked', '', 'X', '', 'X', '', 'R', '', 'R', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.52', '', '&amp;gt; portDS.pdelayTruncatedTimestampsArray', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.53', '', '&amp;gt; portDS.minorVersionNumber', '', 'X', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.8.54', '', '&amp;gt; timePropertiesDS.currentUtcOffset', '', 'X', '', '', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.5.2', '', '&amp;gt; externalPortConfigurationPortDS.desiredState', '', '', '', 'X', '', 'RW', '', 'RW', '', 'IEEE Std 802.1AS\xa0[104] clause\xa014.12.2', '', 'NOTE\xa01:\tR = Read only access; RW = Read/Write access; ― = not supported.', '', 'NOTE\xa02:\tIndicates which standardized and deployment-specific port management information is supported by DS-TT or NW-TT.', '', 'NOTE\xa03:\tAdminCycleTime and AdminControlListLength are optional for gate control information.', '', 'NOTE\xa04:\tIf DS-TT supports neighbor discovery, then TSN AF sends the general neighbor discovery configuration for DS-TT Ethernet ports to DS-TT. If DS-TT does not support neighbor discovery, then TSN AF sends the general neighbor discovery configuration for DS-TT Ethernet ports to NW-TT using the User Plane Node Management Information Container (refer to Table 5.28.3.1-2) and NW-TT performs neighbor discovery on behalf on DS-TT. When a parameter in this group is changed, it is necessary to provide the change to every DS-TT and the NW-TT that belongs to the 5GS TSN bridge. It is mandatory that the general neighbor discovery configuration is identical for all DS-TTs and the NW-TTs that belongs to the bridge.', '', 'NOTE\xa05:\tIf DS-TT supports neighbor discovery, then TSN AF retrieves neighbor discovery information for DS-TT Ethernet ports from DS-TT. TSN AF indicates the neighbor discovery information for each discovered neighbor of DS-TT port to CNC. If DS-TT does not support neighbor discovery, then TSN AF retrieves neighbor discovery information for DS-TT Ethernet ports from NW-TT, using the User Plane Node Management Information Container (refer to Table 5.28.3.1-2), the NW-TT performing neighbor discovery on behalf on DS-TT.', '', 'NOTE\xa06:\tX = applicable; D = applicable when validation and generation of LLDP frames is processed at the DS-TT.', '', 'NOTE\xa07:\tVoid.', '', 'NOTE\xa08:\tThere is a Stream Filter Instance Table per Stream.', '', 'NOTE\xa09:\tThere is a Stream Gate Instance Table per Gate.', '', 'NOTE\xa010:\tTSN AF indicates the support for PSFP to the CNC only if each DS-TT and NW-TT of the 5GS bridge has indicated support of PSFP. DS-TT indicates support of PSFP using port management capabilities, i.e. by indicating support for the Per-Stream Filtering and Policing information and by setting higher than zero values for MaxStreamFilterInstances, MaxStreamGateInstances, MaxFlowMeterInstances, SupportedListMax parameters. When available, TSN AF uses the PSFP information for determination of the traffic pattern information as described in Annex I. The PSFP information can be used at the DS-TT (if supported) and at the NW-TT (if supported) for the purpose of per-stream filtering and policing as defined in clause\xa08.6.5.2.1 of IEEE\xa0Std\xa0802.1Q\xa0[98].', '', 'NOTE\xa011:\tTSN AF composes a Stream Parameter Table towards the CNC. It is up to TSN AF how it composes the Stream Parameter Table based on the numerical values as received from DS-TT and NW-TT port(s) and for the bridge for each individual parameter.', '', 'NOTE\xa012:\tThe set of Stream Identification Controlling Parameters depends on the Stream Identification type value as defined in IEEE\xa0Std\xa0802.1CB\xa0[83] Table 9-1 and clauses 9.1.2, 9.1.3, 9.1.4.', '', 'NOTE\xa013:\tEnumeration of supported PTP instance types. Allowed values as defined in clause\xa08.2.1.5.5 of IEEE\xa0Std\xa01588\xa0[126].', '', 'NOTE\xa014:\tEnumeration of supported transport types. Allowed values: IPv4 (as defined in Annex\xa0C of IEEE\xa0Std\xa01588\xa0[126]), IPv6 (as defined in IEEE\xa0Std\xa01588\xa0[126] Annex\xa0D), Ethernet (as defined in Annex\xa0E of IEEE\xa0Std\xa01588\xa0[126]).', '', 'NOTE\xa015:\tEnumeration of supported PTP delay mechanisms. Allowed values as defined in clause\xa08.2.15.4.4 of IEEE\xa0Std\xa01588\xa0[126].', '', 'NOTE\xa016:\tIndicates whether DS-TT supports acting as a PTP grandmaster.', '', 'NOTE\xa017:\tIndicates whether DS-TT supports acting as a gPTP grandmaster.', '', 'NOTE 18:\tEnumeration of supported PTP profiles, each identified by PTP profile ID, as defined in clause\xa020.3.3 of IEEE\xa0Std\xa01588\xa0[126].', '', 'NOTE\xa019:\tPTP profile to apply, identified by PTP profile ID, as defined in clause\xa020.3.3 of IEEE\xa0Std\xa01588\xa0[126].', '', 'NOTE\xa020:\tTransport type to use. Allowed values: IPv4 (as defined in Annex\xa0C of IEEE\xa0Std\xa01588\xa0[126]), IPv6 (as defined in IEEE\xa0Std\xa01588\xa0[126] Annex\xa0D), Ethernet (as defined in Annex\xa0E of IEEE\xa0Std\xa01588\xa0[126]).', '', 'NOTE\xa021:\tIndicates whether to act as grandmaster or not, i.e. whether to send Announce, Sync and optionally Follow_Up messages.', '', 'NOTE\xa022:\tThe IEEE\xa0Std 802.1AS\xa0[104] data sets apply if the IEEE 802.1AS PTP profile is used; otherwise the IEEE\xa0Std\xa01588\xa0[126] data sets apply.', '', 'NOTE\xa023:\tIndicates how much the txPropagationDelay needs to change so that DS-TT/NW-TT report a change in txPropagationDelay to TSN AF. This is optional for NW-TT.', '', 'NOTE\xa024:\tIndicates the gPTP domain (identified by a domain number) that is assumed by the CNC as the reference clock for time information in the scheduled traffic (gate control) information, PSFP information and bridge delay related information. This is optional for NW-TT.', '', 'NOTE\xa025:\tPTP Instance ID uniquely identifies a PTP instance within the user plane node.', '', 'NOTE\xa026:\tTSN AF indicates the neighbor discovery information for each discovered neighbor of NW-TT port to CNC.', '', 'NOTE\xa027:\tApplicable in case of interworking with IETF Deterministic Networking.', '', '', '', 'Table 5.28.3.1-2: Standardized user plane node management information', '', 'User plane node management information', '', 'Supported operations by TSN AF', '', 'Supported operations by TSCTSF', '', 'Reference', '', '', '', '(see NOTE\xa01)', '', '(see NOTE\xa01)', '', '', '', '&lt;b&gt;Information for 5GS Bridge/Router&lt;/b&gt;', '', '', '', '', '', '', '', 'User plane node Address', '', 'R', '', 'R', '', '', '', 'User plane node ID', '', 'R', '', 'R', '', '', '', 'NW-TT port numbers', '', 'R', '', 'R', '', '', '', '&lt;b&gt;Traffic forwarding information&lt;/b&gt;', '', '', '', '', '', '', '', 'Static Filtering Entry (NOTE\xa03)', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1Q\xa0[98] clause\xa08.8.1', '', '&lt;b&gt;General Neighbor discovery configuration&lt;/b&gt;', '', '&lt;b&gt;(NOTE\xa02)&lt;/b&gt;', '', '', '', '', '', '', '', 'adminStatus', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] clause\xa09.2.5.1', '', 'lldpV2LocChassisIdSubtype', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table\xa011-2', '', 'lldpV2LocChassisId', '', 'RW', '', '-', '', 'IEEE\xa0Std\xa0802.1AB\xa0[97] Table\xa0</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2334280362329392</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.31.14.2	Serving PLMN Rate Control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>['', 'The Serving PLMN Rate Control value is configured in the (V-)SMF.', '', 'NOTE\xa01:\tHomogeneous support of Serving PLMN Rate Control in a network is assumed.', '', 'At PDU Session establishment and PDU Session modification, the (V-)SMF may inform the UE and UPF/NEF of any per PDU Session local Serving PLMN Rate Control that the Serving PLMN intends to enforce for NAS Data PDUs. The (V-)SMF shall only indicate a Serving PLMN Rate Control command to the UPF if the PDU Session is using N4 and is set to Control Plane only. The (V-)SMF shall only indicate a Serving PLMN Rate Control command to the NEF if that PDN connection is using NEF.', '', 'Serving PLMN rate control is operator configurable and expressed as "X NAS Data PDUs per deci hour" where X is an integer that shall not be less than 10. There are separate limits for uplink and downlink NAS Data PDUs:', '', '-\tThe UE shall limit the rate at which it generates uplink NAS Data PDUs to comply with the Serving PLMN policy. In the UE the indicated rate control applies only on the PDU Session where it was received, and therefore the UE shall limit the rate of its uplink NAS Data PDUs to comply with the rate that is indicated for the PDU Session. The indicated rate is valid until the PDU Session is released.', '', '-\tThe UPF/NEF shall limit the rate at which it generates downlink Data PDUs. In the UPF/NEF the indicated rate control applies only on the PDU Session where it was received, and therefore the UPF/NEF shall limit the rate of its downlink Data PDUs to comply with the rate that is indicated for the PDU Session.', '', '-\tThe (V-)SMF may enforce these limits per PDU Session by discarding or delaying packets that exceed these limits. The Serving PLMN Rate does not include SMS using NAS Transport PDUs. The (V-)SMF starts the Serving PLMN Rate Control when the first NAS Data PDU is received.', '', 'NOTE\xa02:\tIf the UE/UPF/NEF start the Serving PLMN rate control at a different time than the (V-)SMF, PDUs sent within the limit enforced at the UE/UPF/NEF can still exceed the limit enforced by the (V-)SMF.', '', 'NOTE\xa03\tIt is assumed that the Serving PLMN Rate is sufficiently high to not interfere with the Small Data Rate Control as the Small Data Rate Control, if used, is assumed to allow fewer messages. NAS PDUs related to exception reports are not subject to the Serving PLMN Rate Control.', '']</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1920075483788994</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.31.14.3	Small Data Rate Control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>['', 'The (H-)SMF may consider, e.g. based on operator policy, subscription, DNN, S-NSSAI, RAT type etc. to determine whether to apply Small Data Rate Control or not. The (H-)SMF can send a Small Data Uplink Rate Control command to the UE using the PCO information element. The (H-)SMF informs the UPF or NEF of any Small Data Rate Control that shall be enforced.', '', 'The Small Data Rate Control applies to data PDUs sent on that PDU Session by either Data Radio Bearers or Signalling Radio Bearers (NAS Data PDUs).', '', 'The rate control information is separate for uplink and downlink and in the form of:', '', "-\tan integer 'number of packets per time unit', and", '', "-\tan integer 'number of additional allowed exception report packets per time unit' once the rate control limit has been reached.", '', "The UE shall comply with this uplink rate control instruction. If the UE exceeds the uplink 'number of packets per time unit', the UE may still send uplink exception reports if allowed and the 'number of additional allowed exception reports per time unit' has not been exceeded. The UE shall consider this rate control instruction as valid until it receives a new one from (H-)SMF.", '', 'When a PDU Session is first established, the (H-)SMF may provide the configured Small Data Rate Control parameters to the UE and UPF or NEF.', '', 'When the PDU Session is released, the Small Data Rate Control Status (including the number of packets still allowed in the given time unit, the number of additional exception reports still allowed in the given time unit and the termination time of the current Small Data Rate Control validity period) may be stored in the AMF so that it can be retrieved for a subsequent re-establishment of a new PDU Session.', '', 'At subsequent establishment of a new PDU Session, the (H-)SMF may receive the previously stored Small Data Rate Control Status and if the validity period has not expired, it provides the parameters to the UE in the PCO and to the UPF/NEF as the initially applied parameters, in addition to the configured Small Data Rate Control parameters. If the initially applied parameters are provided, the UE and UPF or NEF shall apply them and shall use the SMF provided configured Small Data Rate Control parameters once the initially applied Small Data Rate Control validity period expires.', '', 'NOTE\xa01:\tStorage of Small Data Rate Control Status information for very long time intervals can be implementation specific.', '', "For the UPF and NEF, Small Data Rate Control is based on a 'maximum allowed rate' per direction. If (H-)SMF provided the 'number of additional allowed exception report packets per time unit', then the 'maximum allowed rate' is equal to the 'number of packets per time unit' plus the 'number of additional allowed exception report packets per time unit', otherwise the 'maximum allowed rate' is equal to the 'number of packets per time unit'.", '', "The UPF or NEF may enforce the uplink rate by discarding or delaying packets that exceed the 'maximum allowed rate'. The UPF or NEF shall enforce the downlink rate by discarding or delaying packets that exceed the downlink part of the 'maximum allowed rate'.", '', 'NOTE\xa02:\tIt is assumed that the Serving PLMN Rate is sufficiently high to not interfere with the Small Data Rate Control as the Small Data Rate Control, if used, is assumed to allow fewer messages. NAS PDUs related to exception reports are not subject to the Serving PLMN Rate Control.', '', 'For NB-IoT the AMF maintains an "MO Exception Data Counter" which is incremented when the RRC establishment cause "MO exception data" is received from NG-RAN. The AMF reports whether the UE accessed using "MO exception data" RRC establishment cause, to all (H-)SMFs which have PDU Sessions that are subject to Small Data Rate Control and if the UE is accessing using "MO exception data" then the "MO Exception Data Counter" is also provided by the AMF. The SMF indicates each use of the RRC establishment cause "MO Exception Data" by including the related counter on the charging information.', '', 'NOTE\xa03:\tSince Exception Data PDUs and normal priority PDUs cannot be distinguished within an RRC connection, the AMF is only counting the number of RRC Connection establishments with "MO Exception data" priority.', '', 'If the UE moves to EPC then the UE and the PGW-U+UPF store the current Small Data Rate Control Status for all PDU Sessions that are not released. If the UE moves back to 5GC the stored Small Data Rate Control Status is restored and continues to apply to PDU Session(s) that are moved from EPC to 5GC, taking into account remaining validity period of the stored Small Data Rate Control Status. When the UE moves to EPC the Small Data Rate Control Status for all PDU Session(s) may also be stored in the AMF if the PDU Session is released while the UE is connected to EPC and re-established when the UE moves to 5GC. The time to store the Small Data Rate Control Status information is implementation specific.', '']</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.1898984564225759</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.31.7.5	MICO mode and Periodic Registration Timer Control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>LR1_signalling</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>['', 'If the Expected UE Behaviour indicates the absence of DL communication, the AMF may allow MICO mode for the UE and allocate a large periodic registration timer value based on e.g. Network Configuration parameters to the UE so that the UE can maximise power saving between Periodic Registration Updates.', '', 'If the Expected UE Behaviour indicates scheduled DL communication the AMF should allow MICO mode for the UE and allocate a periodic registration timer value such that the UE performs Periodic Registration Update to renegotiate MICO mode before or at the scheduled DL communication time, if the AMF decides to allow MICO mode for the UE. When UE requests the MICO mode with active time, the UE may also request a periodic registration timer value suitable for the latency/responsiveness of the DL communication service known to UE. If the UE wants to change the periodic registration timer value, e.g. when the conditions are changed in the UE, the UE consequently requests the value it wants in the registration procedure. The AMF takes the UE requested periodic registration time value into consideration when providing the periodic registration timer to UE during Registration procedure as specified in clause\xa04.2.2.2.2 of TS\xa023.502\xa0[3].', '', "If the UE supports 'Strictly Periodic Registration Timer Indication', the UE indicates its capability of supporting 'Strictly Periodic Registration Timer Indication' in the Registration Request message. If the UE indicates its support of 'Strictly Periodic Registration Timer Indication' in the Registration Request message, the AMF may provide a Strictly Periodic Registration Timer Indication to the UE together with the periodic registration timer value, e.g. based on Expected UE Behaviour. If the indication is provided by the AMF, the UE and the AMF shall start the periodic registration timer after completion of the Registration procedure. The UE and the AMF shall neither stop nor restart the periodic registration timer when the UE enters CM-CONNECTED, and shall keep it running while in CM-CONNECTED state and after returning to CM-IDLE state. If and only when the timer expires and the UE is in CM-IDLE, the UE shall perform a Periodic Registration Update. If the timer expires and the UE is in CM-CONNECTED state, the AMF and the UE restart the periodic registration timer while still applying 'Strictly Periodic Registration Timer Indication'. The AMF may use the UE Configuration Update procedure to trigger the UE to perform Registration procedure, in which the periodic registration timer value and 'Strictly Periodic Registration Timer Indication' can be renegotiated.", '', "When the UE and the AMF locally disable MICO mode (e.g. when an emergency service is initiated), the UE and the AMF shall not apply 'Strictly Periodic Registration Timer Indication'.", '', 'If the periodic registration timer is renegotiated during a Registration procedure, e.g. triggered by UE Configuration Update, and if the periodic registration timer is running, then the periodic registration timer is stopped and restarted using the renegotiated value even when the Strictly Periodic Registration Timer Indication was provided to the UE.', '']</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.2021593990064341</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.32.5.1	General principles&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>['', 'When an MA PDU Session is established, the network may provide the UE with Measurement Assistance Information. This information assists the UE in determining which measurements shall be performed over both accesses, as well as whether measurement reports need to be sent to the network.', '', 'Measurement Assistance Information shall include the addressing information of a Performance Measurement Function (PMF) in the UPF, the UE can send PMF protocol messages to:', '', '-\tFor a PDU Session of IP type, Measurement Assistance Information contains one IP address for the PMF, one UDP port associated with 3GPP access and another UDP port associated with non-3GPP access. PMF messages sent by UE to one of these UDP ports, shall be transmitted to UPF via the QoS Flow associated with the default QoS rule.', '', '-\tFor a PDU Session of Ethernet type, Measurement Assistance Information contains one MAC address associated with 3GPP access and another MAC address associated with non-3GPP access. PMF messages sent by UE to one of these MAC addresses, shall be transmitted to UPF via the QoS Flow associated with the default QoS rule.', '', 'NOTE\xa01:\tTo protect the PMF in the UPF (e.g. to block DDOS to the PMF), the IP addresses of the PMF are only accessible from the UE IP address via the N3/N9 interface.', '', 'NOTE\xa02:\tAfter the MA PDU Session is released, the same UE IP address/prefix is not allocated to another UE for MA PDU Session in a short time.', '', 'If the SMF determines that access performance measurements per QoS Flow shall be applied for the MA PDU Session, then the Measurement Assistance Information shall also include a list of QoS Flows on which access performance measurements may be performed. For each QoS Flow in this list, the following information is included:', '', '-\tThe QFI of the associated QoS Flow.', '', '-\tFor a PDU Session of IP type, one UDP port associated with 3GPP access and another UDP port associated with non-3GPP access. PMF messages sent by UE to one of these UDP ports, shall be transmitted to UPF via the associated QoS Flow.', '', '-\tFor a PDU Session of Ethernet type, one MAC address associated with 3GPP access and another MAC address associated with non-3GPP access. PMF messages sent by UE to one of these MAC addresses, shall be transmitted to UPF via the associated QoS Flow.', '', 'The QoS rules and the N4 rules provided by SMF to UE and to UPF respectively shall include information (e.g. packet filters containing the UDP port or the MAC address associated with a QoS Flow), which enables the UE and UPF to route a PMF message to a specific QoS Flow.', '', 'The UE and the UPF may need to perform access performance measurements in order to estimate the Round-Trip Time (RTT) and/or the Packet Loss Rate (PLR) that an SDF is expected to experience when transmitted on a certain access type. Based on these measurements and the provisioned ATSSS rules in the UE and MAR rules in the UPF, the UE and the UPF decide how to distribute the traffic of an SDF across the two accesses.', '', 'If the UE and the UPF decide to initiate access performance measurements to estimate the RTT and/or the PLR for an SDF, the access performance measurements shall be performed either', '', '(a)\tusing the QoS Flow associated with the default QoS rule; or', '', '(b)\tusing the target QoS Flow, which is the QoS Flow that the SDF traffic is transmitted on.', '', 'When the access performance measurements are using the target QoS Flow, it is termed that "access performance measurements per QoS Flow" are applied for the MA PDU Session.', '', 'The UE shall indicate in its ATSSS capabilities that it supports access performance measurements per QoS Flow. Based on this UE capability and other information (such as local policy), the SMF determines whether access performance measurements per QoS Flow shall be applied for the MA PDU Session or not. If the SMF determines that access performance measurements per QoS Flow shall be applied for the MA PDU Session, then:', '', '-\tThe SMF determines a list of QoS Flows over which access performance measurements may be performed and provides this list to the UE (within the Measurement Assistance Information) and to the UPF.', '', '-\tThe UE and the UPF may initiate access performance measurements on one or more of the QoS Flows included in this list. The UE and the UPF shall be able to receive and respond to PMF messages sent on any QoS Flow included in this list.', '', '-\tThe SMF may update the list of QoS Flows over which access performance measurements may be performed during the lifetime of a MA PDU Session, e.g. when a new PCC rule that could benefit from PMF access performance measurements is bound to a QoS Flow.', '', 'NOTE\xa03:\tThe SMF can e.g. add a QoS Flow into the list when at least one PCC Rule is bound to that QoS Flow that is using one of the Steering Modes where performance measurements via PMF are applicable, such as Lowest Delay Steering Mode or a Steering Mode where threshold values have been provided.', '', 'The UE shall perform access performance measurements per QoS Flow only when this is explicitly indicated in the Measurement Assistance Information, i.e. only when the UE receives the list of QoS Flows over which access performance measurements may be performed. Otherwise, the UE shall perform access performance measurements based on the QoS Flow associated with the default QoS rule. The UPF shall perform access performance measurements per QoS Flow only when this is explicitly indicated by SMF, i.e. only when the UPF receives the list of QoS Flows over which access performance measurements may be performed. Otherwise, the UPF shall perform access performance measurements based on the QoS Flow associated with the default QoS rule. In this case the UPF learns what QoS Flow to use as described in TS\xa029.244\xa0[65].', '', 'The UE and the UPF may decide not to initiate access performance measurements using PMF over a certain target QoS Flow, when they already have access performance measurements for another target QoS Flow which they determine can be reused.', '', 'NOTE\xa04:\tHow the UE and UPF determine that the performance measurements using a certain target QoS Flow apply to another target QoS Flow is based on implementation, e.g. AN resource to QoS Flow mapping in the UE or getting similar access measurements results with other QoS Flow.', '', 'When access performance measurements for an SDF are performed based on the target QoS Flow, the UE needs to be able to determine the QoS Flow a downlink packet arrives on. In order to enable this, the SMF shall include downlink Packet Filter information in the QoS rule provided to UE matching this SDF, unless Reflective QoS is used for the SDF.', '', 'NOTE\xa05:\tFor example, if a QoS Flow requires to activate Reflective QoS, the SMF does not need to provide downlink QoS Flow information for the QoS Flow to minimize usage of packet filters. When a data packet is received over a QoS Flow, the UE can decide whether to check the downlink QoS Flow information based on the existence of SDAP header for the QoS Flow.', '', 'The addressing information of the PMF in the UPF is retrieved by the SMF from the UPF during N4 session establishment. If the UPF receives from the SMF, during N4 session establishment or modification procedure, a list of QoS Flows over which access performance measurements may be performed, the UPF allocates different UDP ports per QoS Flow per access for IP PDU sessions, or allocates different MAC addresses per QoS Flow per access for Ethernet PDU sessions. For IP PDU sessions, the UPF sends the PMF IP addressing information and the UDP ports with the QFI of the associated QoS Flow to the SMF. For Ethernet PDU sessions, the UPF sends the MAC addresses with the QFI of the associated QoS Flow to the SMF.', '', 'The following PMF protocol messages can be exchanged between the UE and the UPF:', '', '-\tMessages to allow for Round Trip Time (RTT) measurements, i.e. when the "Smallest Delay" steering mode is used or when either "Priority-based", "Load-Balancing" or "Redundant" steering mode is used with RTT threshold value being applied;', '', '-\tMessages to allow for Packet Loss Rate (PLR) measurements, i.e. when steering mode is used either "Priority-based", "Load-Balancing" or "Redundant" steering mode is used with PLR threshold value being applied;', '', '-\tMessages for reporting Access availability/unavailability by the UE to the UPF.', '', '-\tMessages for sending UE-assistance data to UPF. Such messages may be sent from the UE to UPF only when the UE receives the UE-assistance indicator in an ATSSS rule, as specified in clause\xa05.32.8. Further details are provided in clause\xa05.32.5.5.', '', '-\tMessages for sending Suspend Traffic Duplication and Resume Traffic Duplication from UPF to UE to suspend or resume traffic duplication as defined in clause\xa05.32.5.6.', '', 'Since steering modes can be different in up-link and down-link, the UE needs to be able to handle PMF protocol messages for RTT and PLR measurements received from UPF even if it is not using one of the steering modes associated with the RTT and PLR measurements (and vice versa).', '', 'The PMF protocol is specified in TS\xa024.193\xa0[109].', '', 'The PMF protocol messages used for access availability/unavailability reports shall be sent on the QoS Flow associated with the default QoS rule. The PMF protocol messages used for access performance measurements shall be sent either on the QoS Flow associated with the default QoS rule, or on the target QoS Flow, as specified above.', '', 'The QoS Flow associated with the default QoS rule for MA PDU Session is Non-GBR QoS Flow.', '', 'The UE shall not apply the ATSSS rules and the UPF shall not apply the MAR rules for the PMF protocol messages.', '', 'When the UE requests a MA PDU session and indicates it is capable to support:', '', '-\tthe MPTCP functionality with any steering mode and the ATSSS-LL functionality with only the Active-Standby steering mode (as specified in clause\xa05.32.6.1); or', '', '-\tthe MPQUIC functionality with any steering mode and the ATSSS-LL functionality with only the Active-Standby steering mode (as specified in clause\xa05.32.6.1); or', '', '-\tthe MPTCP functionality with any steering mode, and the MPQUIC functionality with any steering mode and the ATSSS-LL functionality with only the Active-Standby steering mode (as specified in clause\xa05.32.6.1);', '', 'the network may send Measurement Assistance Information for the UE to send Access availability/unavailability reports to the UPF. In this case, the UE and UPF shall not perform RTT and PLR measurements using PMF as the UE and UPF can use measurements available at the MPTCP layer and/or at the MPQUIC layer.', '']</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.1938422615754697</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.32.5.2	Round Trip Time Measurements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>['', 'RTT measurements can be conducted by the UE and UPF independently. There is no measurement reporting from one side to the other. RTT measurements are defined to support the "Smallest Delay", "Priority-based", "Load Balancing" or "Redundant" steering mode (i.e. when RTT threshold value is applied).', '', 'The estimation of the RTT by the UE and by the UPF is based on the following mechanism:', '', '1.\tThe PMF in the UE sends over the user plane PMF-Echo Request messages to the PMF in the UPF, and the PMF in the UPF responds to each one with a PMF-Echo Response message. Similarly, the PMF in the UPF sends over the user plane PMF-Echo Request messages to the PMF in the UE, and the PMF in the UE responds to each one with a PMF-Echo Response message.', '', '2.\tWhen the UP connection of the MA PDU session is deactivated on an access, no PMF-Echo Request messages are sent on this access. The PMF in the UPF shall not send PMF-Echo Request on this access if the UP connection is not available or after it receives notification from the (H-)SMF to stop sending the PMF-Echo Request on this access.', '', '3.\tThe UE and the UPF derive an estimation of the average RTT over an access type and QoS Flow by averaging the RTT measurements obtained over this access type and QoS Flow.', '']</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.1994480304654496</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.33.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>['', "QoS Monitoring for packet delay can be applied based on 3rd party application request and/or PCF policy control, e.g. to assist URLLC services. The packet delay between UE and PSA UPF is a combination of the RAN part of UL/DL packet delay as defined in TS\xa038.314\xa0[120] and UL/DL packet delay between NG-RAN and PSA UPF. The NG-RAN is required to provide the QoS monitoring results on the RAN part of UL/DL packet delay measurement. The measurement of the UL/DL packet delay between NG-RAN and PSA UPF can be performed on different levels of granularities, i.e. per QoS Flow per UE level, or per GTP-U path level, subject to the operators' configuration.", '', 'The PCF generates the authorized QoS Monitoring policy for a service data flow based on the QoS Monitoring request received from the AF (as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[45]). The PCF includes the authorized QoS Monitoring policy in the PCC rule and provides it to the SMF.', '', 'When SMF receives the authorized QoS Monitoring policy for packet delay, SMF configures the UPF(s) and NG-RAN to perform delay measurements according to the method selected: per QoS Flow per UE QoS measurement (as described in clause\xa05.33.3.2) or per GTP-U Path measurement (as described in clause\xa05.33.3.3). The SMF configure the UPF to report the QoS monitoring results for the QoS Flow as described in clause\xa05.8.2.18 with parameters determined by the SMF based on the authorized QoS Monitoring policy received from the PCF and/or local configuration.', '', 'The UPF reporting behaviour for QoS Monitoring for packet delay of a QoS Flow is the same when per QoS Flow per UE level measurement (described further in clause\xa05.33.3.2) or when per GTP-U path level measurement (described further in clause\xa05.33.3.3) is used.', '']</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1912493811415565</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.33.3.2	Per QoS Flow per UE QoS Measurement&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>['', 'SMF may activate the end to end UL/DL packet delay measurement between UE and PSA UPF for a QoS Flow during the PDU Session Establishment or Modification procedure.', '', 'The SMF sends a QoS Monitoring request to the PSA UPF via N4 and NG-RAN via N2 signalling to request the QoS monitoring between PSA UPF and NG-RAN. The QoS Monitoring request may contain monitoring parameters determined by SMF based on the authorized QoS Monitoring policy received from the PCF and/or local configuration.', '', 'The NG-RAN initiates the RAN part of UL/DL packet delay measurement based on the QoS Monitoring request from SMF. NG-RAN reports the RAN part of UL/DL packet delay result to the PSA UPF in the UL data packet or dummy UL packet.', '', 'If the NG-RAN and PSA UPF are time synchronised, the one way packet delay monitoring between NG-RAN and PSA UPF is supported.', '', 'If the NG-RAN and PSA UPF are not time synchronised, it is assumed that the UL packet delay and the DL packet delay between NG-RAN and PSA UPF are the same.', '', 'For both time synchronised and not time synchronised between NG-RAN and PSA UPF, the PSA UPF creates and sends the monitoring packets to the RAN in a measurement frequency, decided by the PSA UPF, taking the Reporting frequency for QoS Monitoring received from the SMF into account:', '', '-\tThe PSA UPF encapsulates in the GTP-U header with QFI, QoS Monitoring Packet (QMP) indicator (which indicates the packet is used for UL/DL packet delay measurement) and the local time T1 when the PSA UPF sends out the DL monitoring packets.', '', '-\tThe NG-RAN records the local time T1 received in the GTP-U header and the local time T2 at the reception of the DL monitoring packets.', '', '-\tWhen receiving an UL packet from UE for that QFI or when the NG-RAN sends a dummy UL packet as monitoring response (in case there is no UL service packet for UL packet delay monitoring), the NG-RAN encapsulates QMP indicator, the RAN part of UL/DL packet delay result, the time T1 received in the GTP-U header, the local time T2 at the reception of the DL monitoring packet and the local time T3 when NG-RAN sends out this monitoring response packet to the UPF via N3 interface, in the GTP-U header of the monitoring response packet.', '', "NOTE\xa01:\tWhen the NG-RAN sends the dummy UL packet as monitoring response to PSA UPF depends on NG-RAN's implementation.", '', '-\tThe PSA UPF records the local time T4 when receiving the monitoring response packets and calculates the round trip (if not time synchronized) or UL/DL packet delay (if time synchronized) between NG-RAN and anchor PSA UPF based on the time information contained in the GTP-U header of the received monitoring response packet. If the NG-RAN and PSA UPF are not time synchronised, the PSA UPF calculates the UL/DL packet delay between the NG-RAN and the PSA UPF based on the (T2-T1+T4-T3)/2. If the NG-RAN and PSA UPF are time synchronised, the PSA UPF calculates the UL packet delay and DL packet delay between the NG-RAN and the PSA UPF based on (T4-T3) and (T2-T1), respectively. The PSA UPF calculates the UL/DL packet delay between UE and PSA UPF based on the received RAN part of UL/DL packet delay result and the calculated UL/DL packet delay between RAN and PSA UPF.', '', 'NOTE\xa02:\tIf the NG-RAN and PSA UPF are not time synchronised, it can cause inaccurate result of UL/DL packet delay.', '', '-\tThe PSA UPF reports the QoS Monitoring results as described in clause\xa05.8.2.18.', '', 'If the redundant transmission on N3/N9 interfaces is activated, the UPF and NG-RAN performs QoS monitoring for both UP paths. The UPF reports the packet delays of the two UP paths independently to the SMF.', '']</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>0.1818316319511292</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.33.3.3	GTP-U Path Measurement&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>['', 'The SMF can request to activate QoS monitoring for the GTP-U path(s) between all UPF(s) and the (R)AN based on locally configured policies. Alternatively, when a QoS monitoring policy is received in a PCC rule and the QoS monitoring is not yet active for the DSCP corresponding to the 5QI in the PCC rule, the SMF activates QoS Monitoring for all UPFs currently in use for this PDU Session and the (R)AN. In this case, the SMF performs the QoS Flow Binding without taking the QoS Monitoring Policy within the PCC rule into account. The SMF sends the QoS monitoring policy to each involved UPF and the (R)AN via N4 interface and via N2 interface respectively.', '', 'NOTE\xa01:\tThe PCC rule containing a QoS monitoring policy is just a trigger for the SMF to instruct the UPFs to initiate the GTP-U based QoS Monitoring.', '', 'A GTP-U sender performs an estimation of RTT to a GTP-U receiver on a GTP-U path by sending Echo messages and measuring time that elapses between the transmission of Request message and the reception of Response message. A GTP-U sender computes an accumulated packet delay by adding RTT/2, the processing time and, if available, an accumulated packet delay from an upstream GTP-U sender (i.e. an immediately preceding GTP-U sender in user plane path) thus the measured accumulated packet delay represents an estimated elapsed time since a user plane packet entered 3GPP domain.', '', 'It is expected that a GTP-U sender determines RTT periodically in order to detect changes in transport delays. QoS monitoring is performed by a GTP-U end-point (UP function) that receives, stores and executes the QoS monitoring policy as described below for a QoS Flow. QoS monitoring is performed by comparing a measured accumulated packet delay with the stored parameters. If the GTP-U end-point (the PSA UPF, in the case of accumulated packet delay reporting) determines that the packet delay exceeds the value of a stored parameter, then the node triggers QoS monitoring alert signalling to the relevant SMF or to the OA&amp;amp;M function as further described in TS\xa029.244\xa0[65].', '', 'NOTE\xa02:\tEcho Request message and Echo Response message are sent outside GTP-U tunnels (the messages are using TEID set to 0). If underlying transport is using QoS differentiation (e.g. IP DiffServ) then it is up to the implementation to ensure that the Echo messages are classified correctly and receive similar treatment by the underlaying transport as GTP-U GTP-PDUs carrying QoS Flows (user data).', '', 'When QoS Monitoring is used to measure the packet delay for a QoS Flow, the following applies:', '', '-\tPacket delay measurement is performed by using GTP-U Echo Request/Response as defined in the TS\xa028.552\xa0[108], in the corresponding user plane transport path(s), independent of the corresponding PDU Session and the 5QI for a given QoS Flow.', '', '-\tRAN measures and provides the RAN part of UL/DL packet delay towards UPF (in the GTP-U header of the respective QoS Flow via N3).', '', '-\tThe UPF calculates the UL/DL packet delay by combining the received measurements of RAN part with the measurements of N3/N9 interface (N9 is applicable when I-UPF exists).', '', '-\tThe UPF reports the QoS Monitoring results as described in clause\xa05.8.2.18.', '', 'QoS Monitoring can also be used to measure the packet delay for transport paths to influence the mapping of QoS Flows to appropriate network instances, DSCP values as follows:', '', '-\tSMF activates QoS monitoring for the GTP-U path(s) between all UPF(s) and all (R)AN nodes based on locally configured policies.', '', '-\tUPF does measurement of network hop delay per transport resources that it will use towards a peer network node identified by an IP destination address (the hop between these two nodes) and port. The network hop measured delay is computed by sending an Echo Request over such transport resource (Ti) and measuring RTT/2 when Echo Response is received.', '', '-\tUPF maps {network instance, DSCP} into Transport Resource and measures delay per IP destination address and port. Thus, for each IP destination address, the measured delay per (network instance, DSCP) entry is determined.', '', '-\tThe UPF performing the QoS monitoring can provide the corresponding {Network instance, DSCP} along with the measured accumulated packet delay for the corresponding transport path to the SMF. The UPF reports the measurement results to the SMF based on some specific conditions e.g. first time, periodic, event triggered, when thresholds for reporting towards SMF (via N4) are reached.', '', '-\tBased on this, SMF can determine QoS Flow mapping to the appropriate {Network instance, DSCP} considering {5QI, QoS characteristics, ARP} for the given QoS Flow.', '']</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>0.1783039800586197</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.37.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>['', 'L4S (Low Latency, Low Loss and Scalable Throughput) is described in IETF\xa0RFC\xa09330\xa0[159], IETF\xa0RFC\xa09331\xa0[160] and IETF\xa0RFC\xa09332\xa0[161]. It exposes congestion information by marking ECN bits in the IP header of the user IP packets between the UE and the application server to trigger application layer rate adaptation.', '', 'In 5G System, ECN marking for L4S may be supported. ECN marking for L4S is enabled on a per QoS Flow basis in the uplink and/or downlink direction and may be used for GBR and non-GBR QoS Flows. ECN marking for the L4S in the IP header is supported in either the NG-RAN (see clause\xa05.37.3.2 and TS\xa038.300\xa0[27]), or in the PSA UPF (see clause\xa05.37.3.3).', '', "NOTE\xa01:\tWhether NG-RAN or PSA UPF based ECN marking for L4S is used is decided by SMF based on operator's network configuration and policies.", '', 'In the case of ECN marking for L4S by PSA UPF, the NG-RAN is instructed to perform congestion information monitoring.', '', 'NOTE\xa02:\tAs for any QoS flow, QoS rules in the UE and PDRs in the PSA UPF control which packets are bound to the L4S enabled QoS flow. The Packet Filter Set in the QoS rule or PDR can use packet filter(s) in clause\xa05.7.6.2 (e.g. ECT(1) and/or IP 5 tuple) to steer traffic to an L4S enabled QoS Flow.', '', 'NOTE\xa03:\tA QoS flow may be enabled with ECN marking for L4S requirement e.g. statically when a PDU session is established based on configuration in SMF or PCF, or dynamically based on detection of the L4S traffic e.g. via ECT(1) and/or IP 5 tuple in the IP header whereby SMF or PCF triggers a setup of a QoS Flow enabled for L4S, or by requests by an AF.', '', 'NOTE\xa04:\tTo support this functionality, the UE needs to support L4S feedback as described in IETF\xa0RFC\xa09330\xa0[159], which is not in the scope of 3GPP.', '', 'When serving PSA UPF or NG-RAN is changed e.g. due to inter-NG-RAN handover or PSA UPF relocation, target NG-RAN and target PSA UPF should keep contributing to ECN marking for L4S for the QoS Flow. However, if not available (i.e. ECN marking for L4S is not supported in both, target NG-RAN and target PSA UPF), AF should be notified.', '']</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>0.1922662735712833</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.37.7.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>['', 'The 5GS Packet Delay Variation is the variation of packet delay measured between UE and PSA UPF. The AF may send the requirement for Packet Delay Variation monitoring to 5GS together with the requirement for packet delay measurement, as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[45].', '', 'Upon AF request for Packet Delay Variation monitoring together with packet delay monitoring, the PCF triggers the QoS monitoring procedure, and gets the UL, DL or RT QoS Monitoring result from the SMF. The PCF derives the 5GS Packet Delay Variation based on the QoS Monitoring result and then reports to the AF/NEF both packet delay measurements and Packet Delay Variation.', '', 'NOTE:\tThe derivation of 5GS Packet Delay Variation by PCF, based on QoS Monitoring, is implementation dependent. The Packet Delay Variation calculation method needs to be the same within the PLMN, based on operator policy.', '', 'QoS Monitoring is used to obtain measurement of QoS parameters of individual QoS Flows. PCF determines the measurements required based on input from AF and enables the measurements by generating an authorized QoS Monitoring Policy for the PCC Rule as specified in clause\xa06.1.3.21 of TS\xa023.503\xa0[45].', '']</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>0.1863906225144042</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.1.4	Support of Unavailability Period&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>['', 'During Registration procedure, the UE supporting the Unavailability Period feature provides "Unavailability Period Support" indication as part of 5GMM Core Network Capability in Registration Request message for initial registration and for every mobility registration. The AMF indicates whether the corresponding feature is supported in the AMF by providing the "Unavailability Period Supported" indication in Registration Accept message.', '', 'If the UE and network support Unavailability Period and an event is triggered in the UE that would make the UE unavailable or lose coverage (see clause\xa05.4.13.1) for a certain period of time, the UE uses Support of Unavailability Period to inform the AMF of the upcoming unavailability and whether it is due to NR satellite access discontinuous coverage. Use of Support of Unavailability Period for loss of coverage due to NR satellite access discontinuous coverage shall only be used if both UE and the AMF signalled "discontinuous coverage support", see clause\xa05.4.13.0.', '', 'If the use of Support of Unavailability Period is not due to NR satellite access discontinuous coverage, the UE may store its MM and SM context in the USIM or Non-Volatile memory in the ME to be able to reuse it after its unavailability period. If the UE can store its contexts the UE may trigger Mobility Registration Update procedure otherwise the UE shall trigger UE-initiated Deregistration procedure.', '', 'NOTE:\tHow and where the UE stores its contexts depends upon the UE implementation and the type of unavailability. The UE can store some or all of its contexts in the ME or USIM using existing ME or USIM functionality.', '', 'Before the start of an event that makes the UE unavailable, the UE includes an indication and type of unavailability, the Start of the Unavailability Period if known and the Unavailability Period Duration (if known) and triggers either Mobility Registration Update or UE initiated Deregistration procedure:', '', 'a)\tIf the UE initiates Mobility Registration Update procedure:', '', '1)\tIf the UE did not include a Start of Unavailability Period, the AMF considers implicitly the Start of Unavailability Period to be the time at which it has received the Registration Request message from the UE. If the UE included a Start of Unavailability Period, the Start of Unavailability Period indicates the time at which the UE determines it expects to be unavailable, i.e. time until which the UE determines it is available.', '', '2)\tThe AMF may determine, if not provided by the UE, or update the Unavailability Period Duration.', '', '\tIf the AMF knows an Unavailability Period Duration (e.g. based on the type of unavailability and other information available to the AMF as described in clause\xa05.4.13.3), and the UE did not include an Unavailability Period Duration or the UE included an Unavailability Period Duration different to the Unavailability Period Duration known to the AMF, the AMF may use either the Unavailability Period Duration known to the AMF or the Unavailability Period Duration from the UE as the Unavailability Period Duration. The AMF should include the Unavailability Period Duration known to the AMF in the Registration Accept. How the UE treats the AMF provided Unavailability Period Duration is up to UE implementation e.g. to help to determine when to return to coverage after a discontinuous coverage period, whether to listen to paging in eDRX, not to initiate any NAS signalling (including Service Request for MO data) within the discontinuous coverage period in case of any UL signalling/data request or the UE may deactivate its Access Stratum functions for NR satellite access in order to optimise power consumption until coverage returns, etc.', '', '3)\tThe AMF indicates to the UE in the Registration Accept whether the UE is not required to perform a Registration procedure when the unavailability period has ended, is delayed or is cancelled.', '', '4)\tThe AMF may take the Unavailability Period Duration (if available) and Start of Unavailability Period into account when determining Periodic Registration Update timer value. The AMF may provide a Periodic Registration Update time longer than or equal to the combination of the Unavailability Period Duration and Start of Unavailability Period to avoid interfering with the UE dealing with the event that causes the unavailability;', '', '5)\tThe AMF stores the information that the UE is unavailable at the Start of Unavailability Period in UE context, and considers the UE is unreachable (i.e. clear the PPF in AMF) from then until the UE enters CM-CONNECTED state;', '', '6)\tWhile the UE is unreachable, all high latency communication solutions (see clause\xa05.31.8) apply if supported in the network, e.g. extended data buffering, downlink data buffering status report, etc; and', '', '7)\tIf there is "Loss of Connectivity" event subscription for the UE by AF, the AMF considers the remaining time in the Unavailability Period (if available) when constructing the "Loss of Connectivity" event report towards the NEF and the Unavailability Period is reported to the respective subscribed AF.', '', 'b)\tIf the UE initiates UE-initiated Deregistration procedure:', '', '1)\tIf there is "Loss of Connectivity" event subscription for the UE by AF, the AMF considers the remaining time in the Unavailability Period when constructing the "Loss of Connectivity" event report towards the NEF and the Unavailability Period is reported to the respective subscribed AF;', '', 'Unless the AMF indicated that the UE is not required to perform a Registration procedure when the unavailability period has ended, is delayed or is cancelled, then once the event which makes the UE unavailable is completed in the UE or the event is delayed to a future time or cancelled in the UE, the UE triggers Registration procedure. The UE may also trigger a Registration procedure before the Unavailability Period has started for other reasons. Depending on the UE state, the Registration procedure can be Initial Registration procedure or Mobility Registration Update procedure.', '', 'If the UE determines an upcoming loss of coverage no longer applies or determines a new Start of Unavailability Period or Unavailability Period Duration related to the upcoming loss of coverage, the UE sends a new Registration Request.', '', 'The UE and the AMF re-negotiate unavailability at every Registration procedure, if it is required. If Start of Unavailability Period and/or Unavailability Period Duration is not included in a Registration procedure any pending unavailability configuration stored in the UE context at AMF is discarded.', '', "Editor's note:\tThe encoding of the Start of Unavailability Period and the indication for use of Support of Unavailability will be determined by CT\xa0WG1.", '']</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>0.2023919696298957</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.12.2	Core Network Assistance for PEIPS&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>['', 'To support the Paging Early Indication with Paging Subgrouping (PEIPS), Paging Subgrouping Support Indication and the PEIPS Assistance Information is used by the AMF and NG-RAN to help determine whether PEIPS applies to the UE and which paging subgroup used when paging the UE (see TS\xa038.300\xa0[27]).', '', "In the Registration Request message, the Paging Subgrouping Support Indication indicates whether the UE supports PEIPS with AMF PEIPS Assistance Information. If the UE includes Paging Subgrouping Support Indication, the UE may also include the paging probability information to assist the AMF. If the AMF supports PEIPS assistance and if the UE provided Paging Subgrouping Support Indication, the AMF stores the indication in the UE context in AMF. The AMF may use local configuration, the UE's paging probability information if provided, information provided by the RAN (e.g. any of the &lt;i&gt;Information On Recommended Cells And RAN nodes For Paging&lt;/i&gt;), and/or previous statistical information for the UE to determine the AMF PEIPS Assistance Information. The AMF PEIPS Assistance Information includes the Paging Subgroup ID.", '', 'NOTE\xa01:\tTo minimise MT voice call setup latency, the AMF could allocate Paging Subgroup IDs taking into account whether or not the UE is likely to receive IMS voice over PS session calls.', '', "NOTE\xa02:\tTo avoid MT traffic for more mobile UEs causing more stationary UEs to be woken up, the AMF could allocate Paging Subgroup IDs taking into account the UE's mobility pattern.", '', 'If the AMF has determined AMF PEIPS Assistance Information for the UE, the AMF stores it in the UE context in AMF and provides it to the UE in every Registration Accept message.', '', 'If the AMF has determined AMF PEIPS Assistance Information, the AMF shall provide it to NG RAN when paging the UE. In addition, in order to support PEIPS for UEs in RRC_INACTIVE mode, the AMF shall provide the AMF PEIPS Assistance Information to NG-RAN as part of the RRC Inactive Assistance Information.', '', 'The NG-RAN chooses on a per-cell basis whether to use PEIPS and which paging subgrouping mechanism to use. When using AMF allocated subgroups, both the UE and NG-RAN use the AMF PEIPS Assistance Information to determine the paging subgroup to apply as defined in TS\xa038.300\xa0[27].', '', 'The AMF may use the UE Configuration Update procedure (as described in clause\xa04.2.4 of TS\xa023.502\xa0[3]) and N2 UE Context Modification procedure (as described in clause\xa08.3.4 of TS\xa038.413\xa0[34]) to update the AMF PEIPS Assistance Information in the UE and NG-RAN.', '', 'When the UE has an active emergency PDU Session:', '', '-\tThe UE shall not signal Paging Subgrouping Support Indication in the Registration Request message.', '']</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>0.2031668054344867</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.13.1	Mobility Management and Power Saving Optimization&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>['', 'For NR satellite access that provides discontinuous network coverage the Mobility Management and Power Saving Optimization functionality may be used.', '', 'If both the UE and the network support "Unavailability Period Support", and if the UE determines it will lose coverage and will become unavailable, and the UE decides to remain in no service during that time, then:', '', '-\tthe UE triggers the Mobility Registration Update procedure to inform the network of its unavailability, as described in clause\xa05.4.1.4.', '', '-\tThe UE may be able to determine, including considering current and expected future locations of the UE, a Start of Unavailability Period and/or Unavailability Period Duration for when it expects to be out of coverage and include them in the Mobility Registration Update procedure, as described in clause\xa05.4.1.4.', '', '-\tThe UE should trigger the Mobility Registration Update procedure early enough such that the procedure, under normal conditions, is able to complete before the start of the unreachability period.', '', 'NOTE\xa01:\tA UE based on implementation can combine successive periods of no satellite coverage into a single continuous period that is notified to the network if the UE does not require network access during this period.', '', "NOTE\xa02:\tUE informing the network of coverage gaps would increase signalling and UE power consumption if coverage gaps are more frequent than UE's communication period.", '', 'In case the UE requests power saving features the AMF uses the procedures defined in other clauses to provide the UE with timers (e.g. Periodic Registration Update timer), extended DRX in CM-IDLE configuration (see clause\xa05.31.7.2), and MICO mode configuration (see clause\xa05.4.1.3), and to the NG-RAN Extended Connected Time (see clause\xa05.31.7.3) and may also consider the Unavailability Period Duration and Start of Unavailability Period (if available). This is to keep UE in power saving mode and avoid the network attempting to page the UE if it is out of satellite network coverage.', '', 'The AMF should adjust the mobile reachable timer or Implicit Deregistration timer or both such that the AMF does not implicitly deregister the UE while the UE is unavailable, see clause\xa05.4.1. Features described for High latency communication in clause\xa05.31.8 may be used to handle mobile terminated (MT) communication with UEs being unreachable due to discontinuous coverage and the Unavailability Period Duration and Start of Unavailability Period (if available) may be used to when determining Maximum Time Offset.', '', 'Tracking Area or RAT specific configuration in the AMF may be used to set timer values based on typical coverage periods of a satellite system.', '', 'NOTE\xa03:\tFor example, if a satellite system only provides coverage to a UE for 20 minutes when a satellite passes, and the maximum time before a satellite passes any point on the earth is 10 hours, the AMF could configure the periodic registration timer and Mobile Reachable timer to be just greater than 20 minutes and the Implicit Deregistration timer to be greater than 10 hours to avoid unintended implicit detach due to coverage gap. Such configuration does not require AMF to be aware of detailed coverage times for each UE or for different locations.', '', 'The UE may send Mobility Registration Update procedure to inform the network of its UE unavailability period (see clause\xa05.4.1.4) even if Mobility Management back-off timer is running.', '']</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1910648939405176</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>['', 'This clause specifies the PC5 QoS characteristics associated with PQI. The following characteristics defined in TS\xa023.501\xa0[6] applies, with differences explained in following clauses:', '', '1\tResource Type (GBR, Delay critical GBR or Non-GBR);', '', '2\tPriority Level;', '', '3\tPacket Delay Budget;', '', '4\tPacket Error Rate;', '', '5\tAveraging window (for GBR and Delay-critical GBR resource type only);', '', '6\tMaximum Data Burst Volume (for Delay-critical GBR resource type only).', '', 'Standardized or pre-configured PC5 QoS characteristics, are indicated through the PQI value.', '', 'V2X layer may derive non-standardized PC5 QoS characteristics by overriding the standardized or pre-configured value of PC5 QoS characteristics based on V2X Application Requirements from V2X application layer and provide the whole set of non-standardized PC5 QoS characteristics to AS layer.', '', 'NOTE:\tNon-standardized PC5 QoS characteristics only applies to UE autonomous resources selection mode.', '']</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>0.1973963587560245</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.3.3	Priority Level&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>['', '\tThe Priority Level for NR PC5 has the same format and meaning as the Priority value of the ProSe Per-Packet Priority (PPPP) for LTE PC5 defined in TS\xa023.285\xa0[8]. For LTE PC5, the PPPP value also reflects the latency requirement and the PDB derivation is according to TS\xa023.285\xa0[8], i.e. the low PDB is mapped to the high priority PPPP value. On the other hand, for NR PC5, the PDB is derived from the PQI table as defined in clause\xa05.4.4.', '', 'NOTE:\tUsing the same format for Priority Level and PPPP provides better backward compatibility.', '', '\tThe Priority Level shall be used to different treatment of V2X service data across different modes of communication, i.e. broadcast, groupcast, and unicast. In the case when all QoS requirements cannot be fulfilled for all the PC5 service data associated with that PC5 reference point, the Priority Level shall be used to select for which PC5 service data the QoS requirements are prioritized such that a PC5 service data packet with Priority Level value N is prioritized over a PC5 service data packet with higher Priority Level values, i.e. N+1, N+2, etc. (lower number meaning higher priority).', '']</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>0.2013607832506342</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.3.4	Packet Delay Budget&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>['', 'The Packet Delay Budget (PDB) associated with the PQI is equivalent to the PDB defined in clause\xa05.7.3.4 of TS\xa023.501\xa0[6]. However, when used for PC5 communication, the PDB associated with the PQI defines an upper bound for the time that a packet may be delayed between sending UE and receiving UE(s) over PC5 reference point.', '']</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>0.1977397458358648</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.5.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>['', 'The V2X service data can be delivered via Non-GBR QoS Flow as well as GBR QoS Flow (i.e. using the GBR resource type or the Delay-critical GBR resource type) as specified in TS\xa023.501\xa0[6].', '', '5QI 75 specified in TS\xa023.501\xa0[6] is intended to be only used for the delivery of V2X messages over MBS.', '']</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>0.20265569511954</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.5.3	QoS Change based on Extended NG-RAN Notification to support Alternative Service Requirements&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>23287-i00.docx</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>['', 'To support V2X applications that can operate with different configurations (e.g. different bitrates or delay requirements), the V2X Application Server (V2X AS), acting as the Application Function, can provide, in addition to the requested level of service requirements, Alternative Service Requirements to the 5GS. This enables the 5GS to act on the Alternative Service Requirements and apply them for the extended NG-RAN notification, as described in TS\xa023.501\xa0[6] and TS\xa023.503\xa0[16].', '', 'The V2X AS can use the related procedures specified in clause\xa04.15.6.6 of TS\xa023.502\xa0[7] to influence the QoS provided to the V2X service. If so, the V2X AS includes Alternative Service Requirements as specified in clause\xa06.1.3.22 of TS\xa023.503\xa0[16] when providing service information to the PCF.', '', 'The QoS change based on extended NG-RAN notification operates within the 5GS QoS model as specified in TS\xa023.501\xa0[6] and TS\xa023.503\xa0[16].', '']</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1983406674183658</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.4.9.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>['', "The RAN and UE may use a Wake Up Signal (WUS) to reduce the UE's idle mode power consumption. The RAN sends the WUS shortly before the UE's paging occasion. The WUS feature enables UEs to determine that in the paging occasions immediately following their WUS occasion they will not be paged if their WUS is not transmitted, or that they might be paged if their WUS is transmitted (see TS\xa036.304\xa0[52]).", '', "To avoid waking up UEs due to an AMF paging other UEs across multiple cells (e.g. due to frequent UE mobility and/or for low paging latency services such as VoLTE), the use of WUS by the ng-eNB and the UE is restricted to the last used cell, i.e. the cell in which the UE's RRC connection was last released. To support this:", '', 'a)\tng-eNBs should provide the Recommended Cells for Paging IE in the &lt;i&gt;Information on Recommended Cells and RAN Nodes for Paging IE&lt;/i&gt; (see TS\xa038.413\xa0[34]) to the AMF in the NGAP UE Context Release Complete, UE Context Suspend Request and UE Context Resume Request messages;', '', 'b)\tif received during the last NGAP UE Context Release Complete or UE Context Suspend Request message, the AMF provides (without modification) the &lt;i&gt;Recommended Cells for Paging as Assistance Data for Recommended Cells IE in the Assistance Data for Paging IE&lt;/i&gt; within the NGAP Paging message to the RAN (see also TS\xa038.413\xa0[34]); and', '', 'c)\tthe AMF shall delete (or mark as invalid) the &lt;i&gt;Information On Recommended Cells And RAND nodes For Paging&lt;/i&gt; when a new NGAP association is established for the UE.', '', 'In the NGAP Paging message, the last used cell ID is sent in the &lt;i&gt;Assistance Data for Recommended Cells IE&lt;/i&gt; in the &lt;i&gt;Assistance Data for Paging IE&lt;/i&gt; (see TS\xa038.413\xa0[34]). When receiving an NGAP Paging message for a WUS-capable UE that also includes the &lt;i&gt;Assistance Data for Recommended Cells IE&lt;/i&gt; then a WUS-capable ng-eNB shall only broadcast the WUS on the cell that matches the last used cell ID.', '']</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>0.1997575963953478</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.43.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>['', 'The UE to UE traffic may be locally routed by UPF(s) deployed on satellite (i.e. through local switch) to the target UE without traversing back to the satellite gateway on the ground.', '', 'Local switching via UPF(s) deployed on satellite in this clause\xa0only applies on GEO satellite backhaul case and considers only DNNs and slices for 5G VN.', '', 'N19 tunnel may be established between two UPFs deployed on different satellites for traffic between UEs. Also, N6 may be used for carrying traffic between UPFs deployed on different satellites.', '', 'Only a single SMF is supported for local switching and N19 forwarding, i.e. both UEs are served by the same SMF.', '', 'NOTE:\tThe latency optimisation that can be gained by inter-satellite link between UPFs on different GEO satellites depends on the distance between the satellites that can be substantial, depending on the number of deployed satellites.', '', 'Clause\xa05.43.3.2 describes the case of PSA UPF deployed on satellite, clause\xa05.43.3.3 describes the case of UL CL/BP and local PSA deployed on satellite (PSA UPF is on the ground). Selection of PSA UPF or UL CL/BP/local PSA on satellite is described in clause\xa06.3.3 and determination of DNAI to select the UPF deployed on the corresponding GEO satellite reuses the mechanism described in clause\xa05.43.2.', '', 'A combination of DNN/S-NSSAI is assigned by the operator for the communications between UEs where backhaul with UPF is deployed on GEO satellite, the URSP is described in TS\xa023.503\xa0[45] and its configuration to enable the selection PSA UPF on the GEO satellite reuses the mechanism described in clause\xa05.43.2.', '']</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1976673699001443</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.44.3.4	Non-3GPP delay budget between PINE and PEGC&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>['', 'For PIN related traffic via PEGC and 5GC, non-3GPP delay is the delay between the PEGC and the PINE. 5GC may need to be aware of the non-3GPP delay budget and compensate for this delay in 5GS. The compensation is achieved by reducing the PDB for the 3GPP network by the non-3GPP delay.', '', 'If the PEGC supports requesting of the non-3GPP delay budget for a specific traffic flow, the PEGC may use the UE requested PDU Session Modification procedure to request a non-3GPP delay budget for a set of packet filters. Based on the (DNN, S-NSSAI) combination of the PDU Session, the SMF increases the dynamic CN PDB for the related GBR QoS flow by the requested non-3GPP delay budget according to operator policy and implementation and signals the updated dynamic CN PDB to NG-RAN. If the dynamic CN PDB changes in the SMF (e.g., when an I-UPF is inserted by the SMF), based on the (DNN, S-NSSAI) combination of the PDU Session, the SMF applies the non-3GPP delay budget again before signalling the dynamic CN PDB to NG-RAN. The non-3GPP delay budget does not impact the QoS flow binding in SMF.', '', 'NOTE\xa01:\tFor deployments that support a PEGC to request a non-3GPP delay budget it is assumed that RAN is locally configured to give precedence to the CN PDB value received via N2 signalling as specified in clause\xa05.7.3.4.', '', 'It is assumed that the PEGC will limit the frequency of triggering the UE-initiated PDU Session Modification request to provide the non-3GPP delay budget to the network to avoid unnecessary signalling.', '', 'NOTE\xa02:\tIt is up to CT\xa0WG1 to discuss to potentially introduce a timer to limit how often a PEGC is allowed to request a delay budget.', '']</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.1867247776672251</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.6.7.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>['', 'The content of this clause applies to non-roaming and to LBO deployments i.e. to cases where the involved entities (AF, PCF, SMF, UPF) belong to the Serving PLMN or AF belongs to a third party with which the Serving PLMN has an SLA agreement.', '', 'AF influence on traffic routing may apply in the case of Home Routed deployments with Session Breakout (HR SBO) as defined in TS\xa023.548\xa0[130]. In that case when an AF belonging to the V-PLMN (or with an offloading SLA with the V PLMN) desires to provide Traffic Influence policies it may invoke at the V-NEF the API defined in this clause\xa0and provide the information listed in Table 5.6.7-1 below but the corresponding Traffic Influence information is provided directly from V-NEF to V-SMF bypassing the PCF. This is further defined in TS\xa023.548\xa0[130] clause\xa06.7.2. and the rest of the clause\xa05.6.7.1 does not address how information related with AF influence on traffic routing may be provided to the SMF in the case of HR SBO.', '', 'PCF shall not apply AF requests to influence traffic routing to PDU Sessions established in Home Routed mode.', '', 'The AF may determine the common EAS/DNAI for the UE set in order to indicate a common EAS or common local part of DN, and provide the common EAS/DNAI to the 5GS.', '', 'An AF may send requests to influence SMF routeing decisions for traffic of PDU Session. The AF requests may influence UPF (re)selection and (I-)SMF (re)selection and allow routeing user traffic to a local access to a Data Network (identified by a DNAI).', '', 'The AF may issue requests on behalf of applications not owned by the PLMN serving the UE.', '', 'If the operator does not allow an AF to access the network directly, the AF shall use the NEF to interact with the 5GC, as described in clause\xa06.2.10.', '', 'The AF may be in charge of the (re)selection or relocation of the applications within the local part of the DN (as defined in TS\xa023.548\xa0[130]). Such functionality is not defined. For this purpose, the AF may request to get notified about events related with PDU Sessions.', '', 'In the case of AF instance change, the AF may send request of AF relocation information.', '', 'The AF requests are sent to the PCF via N5 (in the case of requests targeting specific on-going PDU Sessions of individual UE(s), for an AF allowed to interact directly with the 5GC NFs) or via the NEF. The AF requests that target existing or future PDU Sessions of multiple UE(s) or of any UE are sent via the NEF and may target multiple PCF(s), as described in clause\xa06.3.7.2. The PCF(s) transform(s) the AF requests into policies that apply to PDU Sessions. When the AF has subscribed to UP path management event notifications from SMF(s) (including notifications on how to reach a GPSI over N6), such notifications are sent either directly to the AF or via an NEF (without involving the PCF). For AF interacting with PCF directly or via NEF, the AF requests may contain the information as described in the Table 5.6.7-1:', '', 'Table 5.6.7-1: Information element contained in AF request', '', 'Information Name', '', 'Applicable for PCF or NEF (NOTE 1)', '', 'Applicable for NEF only', '', 'Category', '', 'Traffic Description', '', 'Defines the target traffic to be influenced, represented by the combination of DNN and optionally S-NSSAI, and application identifier or traffic filtering information. ', '', 'The target traffic can be represented by AF-Service-Identifier, instead of combination of DNN and optionally S-NSSAI. ', '', 'Mandatory', '', 'Potential Locations of Applications', '', 'Indicates potential locations of applications, represented by a list of DNAI(s).', '', 'The potential locations of applications can be represented by AF-Service-Identifier.', '', 'Conditional', '', '(NOTE\xa02)', '', 'Target UE Identifier(s)', '', 'Indicates the UE(s) that the request is targeting, i.e. one or a list of individual UE(s), a group of UE represented by Internal Group Identifier(s) (NOTE\xa03), or any UE accessing the combination of DNN, S-NSSAI and DNAI(s).', '', 'GPSI can be applied to identify the individual UE, or External Group Identifier(s) can be applied to identify a group of UE (NOTE\xa03). External Subscriber Category(s) (NOTE\xa05).', '', 'Mandatory', '', 'Spatial Validity Condition', '', 'Indicates that the request applies only to the traffic of UE(s) located in the specified location, represented by areas of validity.', '', 'The specified location can be represented by geographical area.', '', 'Optional', '', 'AF transaction identifier', '', 'The AF transaction identifier refers to the AF request.', '', 'N/A', '', 'Mandatory', '', 'N6 Traffic Routing requirements', '', 'Routing profile ID and/or N6 traffic routing information corresponding to each DNAI and an optional indication of traffic correlation (NOTE\xa04).', '', 'N/A', '', 'Optional', '', '(NOTE 2)', '', 'Application Relocation Possibility', '', 'Indicates whether an application can be relocated once a location of the application is selected by the 5GC.', '', 'N/A', '', 'Optional', '', 'UE IP address preservation indication', '', 'Indicates UE IP address should be preserved.', '', 'N/A', '', 'Optional', '', 'Temporal Validity Condition', '', 'Time interval(s) or duration(s).', '', 'N/A', '', 'Optional', '', 'Information on AF subscription to corresponding SMF events', '', 'Indicates whether the AF subscribes to change of UP path of the PDU Session and the parameters of this subscription.', '', 'N/A', '', 'Optional', '', 'Information for EAS IP Replacement in 5GC', '', 'Indicates the Source EAS identifier and Target EAS identifier, (i.e. IP addresses and port numbers of the source and target EAS).', '', 'N/A', '', 'Optional', '', 'User Plane Latency Requirement', '', 'Indicates the user plane latency requirements', '', 'N/A', '', 'Optional', '', 'Information on AF change', '', 'N/A', '', 'Indicates the AF instance relocation and relocation information.', '', 'Optional', '', 'Indication for EAS Relocation', '', 'Indicates the EAS relocation of the application(s)', '', 'N/A', '', 'Optional', '', 'Indication for Simultaneous Connectivity over the source and target PSA at Edge Relocation', '', 'Indicates that simultaneous connectivity over the source and target PSA should be maintained at edge relocation and provides guidance to determine when the connectivity over the source PSA can be removed.', '', 'N/A', '', 'Optional', '', 'EAS Correlation indication', '', 'Indicates selecting a common EAS for the application identified by the Traffic Description for the set of UEs.', '', '', '', 'Optional', '', 'Common EAS IP address', '', 'the common EAS for the application identified by the Traffic Description for a set of UEs the AF request aims at.', '', '', '', 'Optional', '', 'Traffic Correlation ID', '', 'Identification of a set of UEs targeted at by the AF request, and accessing the application identified by the Traffic Description.', '', '', '', 'Optional', '', 'FQDN(s)', '', 'FQDN(s) used for influencing EASDF-based DNS query procedure as defined in TS\xa023.548\xa0[130] (NOTE\xa06).', '', '', '', 'Optional', '', 'NOTE\xa01:\tWhen the AF request targets existing or future PDU Sessions of multiple UE(s) or of any UE and is sent via the NEF, as described in clause\xa06.3.7.2, the information is stored in the UDR by the NEF and notified to the PCF by the UDR.', '', 'NOTE\xa02:\tThe potential locations of applications and N6 traffic routing requirements may be absent only if the request is for subscription to notifications about UP path management events only or request is for indication of seleting Common EAS for a set of UEs.', '', 'NOTE\xa03:\tInternal Group ID can only be used by an AF controlled by the operator and only towards PCF. If a list of Internal/External Group IDs is provided by the AF, the AF request applies to the UEs that belong to every one of these groups, i.e. a single UE needs to be a member of every group in the list of Internal/External Group IDs.', '', 'NOTE\xa04:\tThe indication of traffic correlation can be used for 5G VN groups as described in clause\xa05.29.', '', 'NOTE\xa05:\tExternal Subscriber category(s) can be combined with External Group ID(s) or any UE. If a list of External Subscriber categories are provided by the AF, the AF request applies to the UEs that belong to every one of these Subscriber categories.', '', 'NOTE\xa06:\tFQDN(s) is used for influencing EASDF-based DNS query procedure as defined in clause\xa06.2.3.2.2 of TS\xa023.548\xa0[130].', '', '', '', 'For each information element mentioned above in the AF request, the detailed description is as follows:', '', '1)\tInformation to identify the traffic. The traffic can be identified in the AF request by', '', '-\tEither a DNN and possibly slicing information (S-NSSAI) or an AF-Service-Identifier', '', '-\tWhen the AF provides an AF-Service-Identifier i.e. an identifier of the service on behalf of which the AF is issuing the request, the 5G Core maps this identifier into a target DNN and slicing information (S-NSSAI)', '', '-\tWhen the NEF processes the AF request the AF-Service-Identifier may be used to authorize the AF request.', '', '-\tAn application identifier or traffic filtering information (e.g. IP 5 Tuple). The application identifier refers to an application handling UP traffic and is used by the UPF to detect the traffic of the application.', '', '\tWhen the AF request is for influencing SMF routing decisions, the information is to identify the traffic to be routed.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the information is to identify the traffic that the events relate to.', '', '2)\tInformation about the N6 traffic routing requirements for traffic identified as defined in 1). This includes:', '', '-\tInformation about the N6 traffic routing requirements that is provided per DNAI: for each DNAI, the N6 traffic routing requirements may contain a routing profile ID and/or N6 traffic routing information.', '', '-\tAn optional indication of traffic correlation, when the information in 4) identifies a group of UEs. This implies the targeted PDU Sessions should be correlated by a common DNAI in the user plane for the traffic identified in 1). If this indication is provided by the AF, the 5GC should select a common DNAI for the target PDU Sessions from the list of DNAI(s) specified in 3).', '', 'NOTE\xa01:\tThe N6 traffic routing requirements are related to the mechanism enabling traffic steering in the local access to the DN. The routing profile ID refers to a pre-agreed policy between the AF and the 5GC. This policy may refer to different steering policy ID(s) sent to SMF and e.g. based on time of the day etc.', '', 'NOTE\xa02:\tThe mechanisms enabling traffic steering in the local access to the DN are not defined.', '', '3)\tPotential locations of applications towards which the traffic routing should apply. The potential location of application is expressed as a list of DNAI(s). If the AF interacts with the PCF via the NEF, the NEF may map the AF-Service-Identifier information to a list of DNAI(s). The DNAI(s) may be used for UPF (re)selection and (I)SMF (re)selection. When only one DNAI is included, and the Indication of traffic correlation is available, the DNAI is used as common DNAI for UEs identified by AF request.', '', '4)\tInformation on the set of target UE(s). This may correspond to:', '', '-\tIndividual UEs (i.e. one or a list of UEs) identified using GPSI, or an IP address/Prefix or a MAC address.', '', '-\tGroup(s) of UEs identified by External Group Identifier(s) as defined in TS\xa023.682\xa0[36] when the AF interacts via the NEF, or Internal-Group Identifier (see clause\xa05.9.7) when the AF interacts directly with the PCF.', '', '-\tAny UE accessing the combination of DNN, S-NSSAI and DNAI(s).', '', '-\tExternal Group ID(s) or any UE can both be complemented with External Subscriber Category(s) for a more granular selection of UEs. NEF may map this to Internal Group ID(s) or a combination of Internal Group ID(s) and Subscriber Category(s), defined in TS\xa023.503\xa0[45].', '', 'NOTE\xa03:\tOnly NEF is aware of the External Subscriber Category. As a user can be associated with multiple Subscriber Category(s), some values of Subscriber Category(s) can correspond to an SLA between an application provider represented by an AF and the 5GC operator. In the NEF API, the combination of application identifier and External Subscriber Category can also be used to refer to this SLA.', '', '\tWhen the PDU Session type is IPv4 or IPv6 or IPv4v6, and the AF provides an IP address and/or an IP Prefix, or when the PDU Session type is Ethernet and the AF provides a MAC address, this allows the PCF to identify the PDU Session for which this request applies and the AF request applies only to that specific PDU Session of the UE. In this case, additional information such as the UE identity may also be provided to help the PCF to identify the correct PDU Session.', '', '\tOtherwise, the request targets multiple UE(s) and shall apply to any existing or future PDU Sessions that match the parameters in the AF request.', '', '\tWhen the AF request targets an individual or a list of UE(s) and GPSI is provided within the AF request, the GPSI is mapped to SUPI according to the subscription information received from UDM.', '', '\tWhen the AF request targets any UE or a group of UE, the AF request is likely to influence multiple PDU Sessions possibly served by multiple SMFs and PCFs.', '', '\tWhen the AF request targets a group of UE it provides one or several group identifiers in its request. The group identifiers provided by the AF are mapped to Internal-Group identifiers. Members of the group have Group Identifier(s) in their subscription. The Internal-Group Identifier(s) is(are) stored in UDM, retrieved by SMF from UDM and passed by SMF to PCF at PDU Session set-up. The PCF can then map the AF request with user subscription and determine whether an AF request targeting a Group of users applies to a PDU Session. When External Subscriber Category(s) is provided, the NEF maps External Subscriber Category(s) into Subscriber Category(s), the PCF can map the AF request with user subscription and then creates PCC rules for UEs that have the Susbscriber Category(s) in their subscription.', '', '\tWhen the AF request is for influencing SMF routing decisions, the information is to identify UE(s) whose traffic is to be routed.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the information is to identify UE(s) whose traffic the events relate to.', '', '\tWhen the AF request is for traffic forwarding in a PDU Session serving for TSC, the MAC address used by the PDU Session is determined by the AF to identify UE whose traffic is to be routed according to the previously stored binding relationship of the 5GS Bridge and the port number of the traffic forwarding information received from TSN network.', '', '5)\tIndication of application relocation possibility. This indicates whether an application can be relocated once a location of the application is selected by the 5GC. If application relocation is not possible, the 5GC shall ensure that for the traffic related with an application, no DNAI change takes place once selected for this application.', '', '6)\tTemporal validity condition. This is provided in the form of time interval(s) or duration(s) during which the AF request is to be applied.', '', '\tWhen the AF request is for influencing SMF routing decisions, the temporal validity condition indicates when the traffic routing is to apply.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the temporal validity condition indicates when the notifications are to be generated.', '', '7)\tSpatial validity condition on the UE(s) location. This is provided in the form of validity area(s). If the AF interacts with the PCF via the NEF, it may provide geographical area (e.g. a civic address or shapes) and the NEF maps the information to areas of validity based on pre-configuration. The PCF in turn determines area(s) of interest based on validity area(s).', '', '\tWhen the AF request is for influencing SMF routing decisions, the spatial validity condition indicates that the request applies only to the traffic of UE(s) located in the specified location.', '', '\tWhen the AF request is for subscription to notifications about UP path management events, the spatial validity condition indicates that the subscription applies only to the traffic of UE(s) located in the specified location.', '', '8)\tInformation on AF subscription to corresponding SMF events.', '', '\tThe AF may request to be subscribed to change of UP path associated with traffic identified in the bullet 1) above. The AF request contains:', '', '-\tA type of subscription (subscription for Early and/or Late notifications).', '', '\tThe AF subscription can be for Early notifications and/or Late notifications. In the case of a subscription for Early notifications, the SMF sends the notifications before the (new) UP path is configured. In the case of a subscription for Late notifications, the SMF sends the notification after the (new) UP path has been configured.', '', '-\tNotification target address for receiving event notification.', '', '-\tOptionally, an indication of "AF acknowledgment to be expected".', '', '\tThe indication implies that the AF will provide a response to the notifications of UP path management events to the 5GC. The SMF may, according to this indication, determine to wait for a response from the AF before the SMF configures in the case of early notification, or activates in the case of late notification, the new UP path as described in clause\xa05.6.7.2.', '', '-\tOptionally, an immediate reporting flag.', '', '\tThe immediate reporting flag is included when AF subscribe for candidate DNAI(s) of UE for common EAS/DNAI selection. With this flag, SMF should immediately response AF with the candidate DNAI(s) using Notification of user plane management event as described in clause\xa04.3.6.3 in TS\xa023.502\xa0[3].', '', '\tThe AF subscription can also request to receive information associating the GPSI of the UE with the IP address(es) of the UE and/or with actual N6 traffic routing to be used to reach the UE on the PDU Session; in this case the corresponding information is sent by the SMF regardless of whether a DNAI applies to the PDU Session.', '', '9)\tAn AF transaction identifier referring to the AF request. This allows the AF to update or remove the AF request and to identify corresponding UP path management event notifications. The AF transaction identifier is generated by the AF.', '', '\tWhen the AF interacts with the PCF via the NEF, the NEF maps the AF transaction identifier to an AF transaction internal identifier, which is generated by the NEF and used within the 5GC to identify the information associated to the AF request. The NEF maintains the mapping between the AF transaction identifier and the AF transaction internal identifier. The relation between the two identifiers is implementation specific.', '', '\tWhen the AF interacts with the PCF directly, the AF transaction identifier provided by the AF is used as AF transaction internal identifier within the 5GC.', '', '10)\tIndication of UE IP address preservation. This indicates UE IP address related to the traffic identified in bullet 1) should be preserved. If this indication is provided by the AF, the 5GC should preserve the UE IP address by preventing reselection of PSA UPF for the identified traffic once the PSA UPF is selected.', '', '11)\tInformation for EAS IP Replacement in 5GC. This indicates the Source EAS identifier and Target EAS identifier (i.e. IP addresses and port numbers of the source and target EAS) for a service subject to Edge Computing.', '', '12)\tUser Plane Latency Requirement. This includes AF requirements for User Plane latency. (see clause\xa06.3.6 of TS\xa023.548\xa0[130]).', '', '13)\tInformation on AF change. The AF relocation information includes:', '', '-\tAF Identifier: the identifier of the target AF instance.', '', 'NOTE\xa04:\tThe AF relocation information is applicable for interaction with NEF only and it is not stored in UDR or transferred to PCF, even for the case AF directly interacts with PCF.', '', '14)\tIndication for EAS relocation. This indicates the application(s) are to be relocated.', '', '15)\tIndication for Simultaneous Connectivity over source and target PSA at Edge Relocation (see clause\xa06.3.4 of TS\xa023.548\xa0[130]). Indicates that source and target PSA should coexist for some time at PSA relocation, and may influence the establishment of a temporary N9 forwarding tunnel between the source UL CL and target UL CL. It may also provide guidance for the time interval after the described traffic ceases when the connectivity over the source PSA may be removed.', '', '16)\tTraffic Correlation ID. Identification of a set of UEs subjecting to the AF request and accessing the application identified by the Traffic Description. UEs associated with the same Traffic Correlation ID and accessing the application identified by the Traffic Description should connect to a common EAS or EAS(es) corresponding to a common DNAI.', '', '\tThe following attributes may be provided with the Traffic Correlation ID:', '', '-\tEAS Correlation indication. Indicates selecting a common EAS for a set of UEs identified by Traffic Correlation ID and accessing the application identified by the Traffic Description.', '', '-\tCommon EAS IP address. IP address of the common EAS to be accessed by the UEs in the set of UE subject to AF request, for the application identified by the Traffic Description.', '', 'NOTE\xa05:\tIn the case of common EAS selection, if Traffic Correlation ID is provided, either EAS Correlation indication or Common EAS will be included in AF request.', '', '-\tFQDN(s). FQDN(s) corresponding to the application to be accessed by a set of UEs. When FQDN(s) is included, it is used for influencing EAS discovery procedure as defined in TS\xa023.548\xa0[130].', '', '-\tIndication of traffic correlation as described in 2).', '', 'An AF may send requests to influence SMF routeing decisions, for event subscription or for both.', '', 'The AF may request to be subscribed to notifications about UP path management events, i.e. a UP path change occurs for the PDU Session. The corresponding notification about a UP path change sent by the SMF to the AF may indicate the DNAI and /or the N6 traffic routing information and/or common EAS that has changed as described in clause\xa04.3.6.3 of TS\xa023.502\xa0[3]. It may include the AF transaction internal identifier, the type of notification (i.e. early notification or late notification), the Identity of the source and/or target DNAI, the IP address/prefix of the UE or the MAC address used by the UE, the GPSI and the N6 traffic routing information related to the 5GC UP. The AF may subscribe for notifications of candidate DNAI(s) for UE if AF selection of common EAS/DNAI for a set of UEs is used.', '', 'NOTE\xa06:\tThe change from the UP path status where no DNAI applies to a status where a DNAI applies indicates the activation of this AF request; the change from the UP path status where a DNAI applies to a status where no DNAI applies indicates the de-activation of this AF request.', '', '\tIn the case of IP PDU Session Type, the IP address/prefix of the UE together with N6 traffic routing information indicates to the AF how to reach over the User Plane the UE identified by its GPSI. N6 traffic routing information indicates any tunnelling that may be used over N6. The nature of this information depends on the deployment.', '', 'NOTE\xa07:\tN6 traffic routing information can e.g. correspond to the identifier of a VPN or to explicit tunnelling information such as a tunnelling protocol identifier together with a Tunnel identifier.', '', 'NOTE\xa08:\tIn the case of Unstructured PDU Session type the nature of the N6 traffic routing information related to the 5GC UP is described in clause\xa05.6.10.3.', '', '\tIn the case of Ethernet PDU Session Type, the MAC address of the UE together with N6 traffic routing information indicates to the AF how to reach over the User Plane the UE identified by its GPSI. The UE MAC address (es) is reported by the UPF as described in clause\xa05.8.2.12. The N6 traffic routing information can be, e.g. a VLAN ID or the identifier of a VPN or a tunnel identifier at the UPF.', '', 'When notifications about UP path management events are sent to the AF via the NEF, if required, the NEF maps the UE identify information, e.g. SUPI, to the GPSI and the AF transaction internal identifier to the AF transaction identifier before sending the notifications to the AF.', '', "The PCF, based on information received from the AF, operator's policy, optionally service experience analytics per UP path received from NWDAF, etc. authorizes the request received from the AF and determines for each DNAI, a traffic steering policy ID (derived from the routing profile ID provided by the AF) and/or the N6 traffic routing information (as provided by the AF) to be sent to the SMF as part of the PCC rules. The traffic steering policy IDs are configured in the SMF or in the UPF. The traffic steering policy IDs are related to the mechanism enabling traffic steering to the DN.", '', 'The DNAIs are related to the information considered by the SMF for UPF selection and (I)SMF (re)selection, e.g. for diverting (locally) some traffic matching traffic filters provided by the PCF.', '', 'The PCF acknowledges a request targeting an individual PDU Session to the AF or to the NEF.', '', 'For PDU Session that corresponds to the AF request, the PCF provides the SMF with a PCC rule that is generated based on the AF request, Local routing indication from the PDU Session policy control subscription information and taking into account UE location presence in area of interest (i.e. Presence Reporting Area). The PCC rule contains the information to identify the traffic, information about the DNAI(s) towards which the traffic routing should apply and optionally, an indication of traffic correlation and/or an indication of application relocation possibility and/or indication of UE IP address preservation. The PCC rule also contains per DNAI a traffic steering policy ID and/or N6 traffic routing information, if the N6 traffic routing information is explicitly provided in the AF request.', '', 'If Traffic Correlation ID is included in the AF request, with EAS Correlation Indication or Common EAS, and FQDN(s) parameters, the Traffic Correlation ID and the EAS Correlation Indication or Common EAS, and FQDN(s) will be included in the PCC rule sent to SMF. The SMF can use the Traffic Correlation ID to determine that the UE belongs to a set of UEs identified by Traffic Correlation ID and a common EAS should be selected for the set of UE for the traffic identified by Traffic Descriptor as described in clause\xa06.2.3.2.5 of TS\xa023.548\xa0[130].', '', 'If Traffic Correlation ID is included in the AF request, NEF updates the AF influence data in the UDR with the NEF Notification Endpoint to indicate it as responsible of the set of UEs associated with the Traffic correlation ID and to be notified with 5GC determined information as described in clause\xa06.2.3.2.7 of TS\xa023.548\xa0[130].', '', 'The PCF provides in the PCC rule with information to notify to the NEF with 5GC determined information related to the UE members of the set of UEs identified by traffic correlation ID.', '', 'If Traffic Correlation ID, and traffic correlation indication and FQDN(s) is included in the AF request, the Traffic Correlation ID and the traffic correlation indication will be included in the PCC rule sent to SMF. The SMF can use the Traffic Correlation ID to determine that the UE belongs to a set of UEs identified by Traffic Correlation ID and the UE needs to connect to EAS(s) corresponding to a common DNAI selected for the set of UE for the traffic identified by Traffic Descriptor, as described in clause\xa06.2.3.2.6 of TS\xa023.548\xa0[130].', '', "The PCF may also provide in the PCC rule information to subscribe the AF (or the NEF) to SMF events (UP path changes) corresponding to the AF request in which case it provides the information on AF subscription to corresponding SMF events received in the AF request. This is done by providing policies at PDU Session set-up or by initiating a PDU Session Modification procedure. When initiating a PDU Session set-up or PDU Session Modification procedure, the PCF considers the latest known UE location to determine the PCC rules provided to the SMF. The PCF evaluates the temporal validity condition of the AF request and informs the SMF to activate or deactivate the corresponding PCC rules according to the evaluation result. When policies specific to the PDU Session and policies general to multiple PDU Sessions exist, the PCF gives precedence to the PDU Session specific policies over the general policies. The PCF authorizes the AF request of User Plane Latency Requirements. If the PCF determines that the requirements can't be authorized, the PCF rejects the AF request.", '', 'The spatial validity condition is resolved at the PCF. In order to do that, the PCF subscribes to the SMF to receive notifications about change of UE location in an area of interest (i.e. Presence Reporting Area). The subscribed area of interest may be the same as spatial validity condition, or may be a subset of the spatial validity condition (e.g. a list of TAs) based on the latest known UE location. When the SMF detects that UE entered the area of interest subscribed by the PCF, the SMF notifies the PCF and the PCF provides to the SMF the PCC rules described above by triggering a PDU Session Modification. When the SMF becomes aware that the UE left the area subscribed by the PCF, the SMF notifies the PCF and the PCF provides updated PCC rules by triggering a PDU Session Modification. SMF notifications to the PCF about UE location in or out of the subscribed area of interest are triggered by UE location change notifications received from the AMF or by UE location information received during a Service Request or Handover procedure.', '', 'When the PCC rules are activated, the SMF may, based on local policies, take the information in the PCC rules and, optionally, the Service Experience analytics and/or DN Performance analytics per UP path (including UPF and/or DNAI and/or AS instance) as defined in clause\xa06.4.3 and clause\xa06.14.3, respectively, of TS\xa023.288\xa0[86] into account to:', '', '-\t(re)select UP paths (including DNAI(s)) for PDU Sessions. The SMF is responsible for handling the mapping between the UE location (TAI / Cell-Id) and DNAI(s) associated with UPF and applications and the selection of the UPF(s) that serve a PDU Session. This is described in clause\xa06.3.3. If the PDU Session is of IP type and if Indication of UE IP address preservation is included in the PCC rules, the SMF should preserve the UE IP address, by not reselecting the related PSA UPF once the PSA UPF is selected, for the traffic identified in the PCC rule. If the user plane latency requirement is included in the PCC rules, the SMF chooses the PSA UPF that satisfies the user plane latency requirement. If the PCC rules are related to a 5G VN group served by the SMF and if the PCC rule includes an indication of traffic correlation, the SMF should select a common DNAI for the PDU Sessions of the 5G VN group, see clause\xa05.29.', '', '-\tconfigure traffic steering at UPF, including activating mechanisms for traffic multi-homing or enforcement of an UL Classifier (UL CL). Such mechanisms are defined in clause\xa05.6.4. This may include that the SMF is providing the UPF with packet handling instructions (i.e. PDRs and FARs) for steering traffic to the local access to the DN. The packet handling instructions are generated by the SMF using the traffic steering policy ID and/or the N6 traffic routing information in the PCC rules corresponding to the applied DNAI. In the case of UP path reselection, the SMF may configure the source UPF to forward traffic to the UL CL/BP so that the traffic is steered towards the target UPF.', '', '-\tif Information on AF subscription to corresponding SMF events has been provided in the PCC rule, inform the AF of the (re)selection of the UP path (UP path change). If the information includes an indication of "AF acknowledgment</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.207096093759138</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.1.2a	Alternative QoS Profile&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>['', 'The Alternative QoS Profile(s) can be optionally provided for a GBR QoS Flow with Notification control enabled. If the corresponding PCC rule contains the related information (as described in TS\xa023.503\xa0[45]), the SMF shall provide, in addition to the QoS profile, a prioritized list of Alternative QoS Profile(s) to the NG-RAN. If the SMF provides a new prioritized list of Alternative QoS Profile(s) to the NG-RAN (if the corresponding PCC rule information changes), the NG-RAN shall replace any previously stored list with it.', '', 'An Alternative QoS Profile represents a combination of QoS parameters PDB, PER, Averaging Window and GFBR to which the application traffic is able to adapt. For delay-critical GBR QoS flows, an Alternative QoS Profile may also include an MDBV.', '', 'NOTE\xa01:\tThere is no requirement that the GFBR monotonically decreases, nor that the PDB or PER monotonically increase as the Alternative QoS Profiles become less preferred.', '', 'When the NG-RAN sends a notification to the SMF that the QoS profile is not fulfilled, the NG-RAN shall, if the currently fulfilled values match an Alternative QoS Profile, include also the reference to the Alternative QoS Profile to indicate the QoS that the NG-RAN currently fulfils (see clause\xa05.7.2.4). The NG-RAN shall enable the SMF to determine when an NG-RAN node supports the Alternative QoS feature but cannot fulfil even the least preferred Alternative QoS Profile.', '', 'NOTE\xa02:\tTo reduce the risk that GBR QoS Flows are released in case of RAN resource limitations (and then experience difficulties in being re-established), Application Functions can set the least preferred Alternative Service Requirement to an undemanding level.', '']</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.2013533607336141</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.2.5	Flow Bit Rates&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>['', 'For GBR QoS Flows only, the following additional QoS parameters exist:', '', '-\tGuaranteed Flow Bit Rate (GFBR) - UL and DL;', '', '-\tMaximum Flow Bit Rate (MFBR) -- UL and DL.', '', 'The GFBR denotes the bit rate that is guaranteed to be provided by the network to the QoS Flow over the Averaging Time Window. The MFBR limits the bit rate to the highest bit rate that is expected by the QoS Flow (e.g. excess traffic may get discarded or delayed by a rate shaping or policing function at the UE, RAN, UPF). Bit rates above the GFBR value and up to the MFBR value, may be provided with relative priority determined by the Priority Level of the QoS Flows (see clause\xa05.7.3.3).', '', 'GFBR and MFBR are signalled to the (R)AN in the QoS Profile and signalled to the UE as QoS Flow level QoS parameter (as specified in TS\xa024.501\xa0[47]) for each individual QoS Flow.', '', 'NOTE\xa01:\tThe GFBR is recommended as the lowest acceptable service bitrate where the service will survive.', '', 'NOTE\xa02:\tFor each QoS Flow of Delay-critical GBR resource type, the SMF can ensure that the GFBR of the QoS Flow can be achieved with the MDBV of the QoS Flow using the QoS Flow binding functionality described in clause\xa06.1.3.2.4 of TS\xa023.503\xa0[45].', '', 'NOTE\xa03:\tThe network can set MFBR larger than GFBR for a particular QoS Flow based on operator policy and the knowledge of the end point capability, i.e. support of rate adaptation at application / service level.', '']</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1990876273693785</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.3.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>['', 'This clause specifies the 5G QoS characteristics associated with 5QI. The characteristics describe the packet forwarding treatment that a QoS Flow receives edge-to-edge between the UE and the UPF in terms of the following performance characteristics:', '', '1\tResource type (Non-GBR, GBR, Delay-critical GBR);', '', '2\tPriority Level;', '', '3\tPacket Delay Budget (including Core Network Packet Delay Budget);', '', '4\tPacket Error Rate;', '', '5\tAveraging window (for GBR and Delay-critical GBR resource type only);', '', '6\tMaximum Data Burst Volume (for Delay-critical GBR resource type only).', '', 'The 5G QoS characteristics should be understood as guidelines for setting node specific parameters for each QoS Flow e.g. for 3GPP radio access link layer protocol configurations.', '', 'Standardized or pre-configured 5G QoS characteristics, are indicated through the 5QI value, and are not signalled on any interface, unless certain 5G QoS characteristics are modified as specified in clauses 5.7.3.3, 5.7.3.4, 5.7.3.6, and 5.7.3.7.', '', 'NOTE:\tAs there are no default values specified, pre-configured 5G QoS characteristics have to include all of the characteristics listed above.', '', 'Signalled 5G QoS characteristics are provided as part of the QoS profile and shall include all of the characteristics listed above.', '']</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.1991814915672364</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.3.2	Resource Type&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>['', 'The resource type determines if dedicated network resources related to a QoS Flow-level Guaranteed Flow Bit Rate (GFBR) value are permanently allocated (e.g. by an admission control function in a radio base station).', '', 'GBR QoS Flows are therefore typically authorized "on demand" which requires dynamic policy and charging control. A GBR QoS Flow uses either the GBR resource type or the Delay-critical GBR resource type. The definition of PDB and PER are different for GBR and Delay-critical GBR resource types, and the MDBV parameter applies only to the Delay-critical GBR resource type.', '', 'A Non-GBR QoS Flow may be pre-authorized through static policy and charging control. A Non-GBR QoS Flow uses only the Non-GBR resource type.', '']</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.2236945465032457</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.3.4	Packet Delay Budget&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>['', "The Packet Delay Budget (PDB) defines an upper bound for the time that a packet may be delayed between the UE and the N6 termination point at the UPF. The PDB applies to the DL packet received by the UPF over the N6 interface, and to the UL packet sent by the UE. For a certain 5QI the value of the PDB is the same in UL and DL. In the case of 3GPP access, the PDB is used to support the configuration of scheduling and link layer functions (e.g. the setting of scheduling priority weights and HARQ target operating points). For GBR QoS Flows using the Delay-critical resource type, a packet delayed more than PDB is counted as lost if the data burst is not exceeding the MDBV within the period of PDB and the QoS Flow is not exceeding the GFBR. For GBR QoS Flows with GBR resource type not exceeding GFBR, 98 percent of the packets shall not experience a delay exceeding the 5QI's PDB.", '', 'The 5G Access Network Packet Delay Budget (5G-AN PDB) is determined by subtracting a static value for the Core Network Packet Delay Budget (CN PDB), which represents the delay between any N6 termination point at the UPF (for any UPF that may possibly be selected for the PDU Session) and the 5G-AN from a given PDB.', '', 'NOTE\xa01:\tFor a standardized 5QI, the static value for the CN PDB is specified in the QoS characteristics Table 5.7.4-1.', '', 'NOTE\xa02:\tFor a non-standardized 5QI, the static value for the CN PDB is homogeneously configured in the network.', '', 'For GBR QoS Flows using the Delay-critical resource type, in order to obtain a more accurate delay budget PDB available for the NG-RAN, a dynamic value for the CN PDB, which represents the delay between the UPF terminating N6 for the QoS Flow and the 5G-AN, can be used. If used for a QoS Flow, the NG-RAN shall apply the dynamic value for the CN PDB instead of the static value for the CN PDB (which is only related to the 5QI). Different dynamic value for CN PDB may be configured per uplink and downlink direction.', '', 'NOTE\xa03:\tThe configuration of transport network on CN tunnel can be different per UL and DL, which can be different value for CN PDB per UL and DL.', '', 'NOTE\xa04:\tIt is expected that the UPF deployment ensures that the dynamic value for the CN PDB is not larger than the static value for the CN PDB. This avoids that the functionality that is based on the 5G-AN PDB (e.g. MDBV, NG-RAN scheduler) has to handle an unexpected value.', '', 'The dynamic value for the CN PDB of a Delay-critical GBR 5QI may be configured in the network in two ways:', '', '-\tConfigured in each NG-RAN node, based on a variety of inputs such as different IP address(es) or TEID range of UPF terminating the N3 tunnel and based on different combinations of PSA UPF to NG-RAN under consideration of any potential I-UPF, etc;', '', '-\tConfigured in the SMF, based on different combinations of PSA UPF to NG-RAN under consideration of any potential I-UPF. The dynamic value for the CN PDB for a particular QoS Flow shall be signalled to NG-RAN (during PDU Session Establishment, PDU Session Modification, Xn/N2 handover and the Service Request procedures) when the QoS Flow is established or the dynamic value for the CN PDB of a QoS Flow changes, e.g. when an I-UPF is inserted by the SMF.', '', 'If the NG-RAN node is configured locally with a dynamic value for the CN PDB for a Delay-critical GBR 5QI, and receives a different value via N2 signalling for a QoS Flow with the same 5QI, local configuration in RAN node determines which value takes precedence.', '', 'Services using a GBR QoS Flow and sending at a rate smaller than or equal to the GFBR can in general assume that congestion related packet drops will not occur.', '', 'NOTE\xa05:\tExceptions (e.g. transient link outages) can always occur in a radio access system which may then lead to congestion related packet drops. Packets surviving congestion related packet dropping may still be subject to non-congestion related packet losses (see PER below).', '', "Services using Non-GBR QoS Flows should be prepared to experience congestion-related packet drops and delays. In uncongested scenarios, 98 percent of the packets should not experience a delay exceeding the 5QI's PDB.", '', 'The PDB for Non-GBR and GBR resource types denotes a "soft upper bound" in the sense that an "expired" packet, e.g. a link layer SDU that has exceeded the PDB, does not need to be discarded and is not added to the PER. However, for a Delay-critical GBR resource type, packets delayed more than the PDB are added to the PER and can be discarded or delivered depending on local decision.', '']</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.1884370580730459</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.3.5	Packet Error Rate&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>['', 'The Packet Error Rate (PER) defines an upper bound for the rate of PDUs (e.g. IP packets) that have been processed by the sender of a link layer protocol (e.g. RLC in RAN of a 3GPP access) but that are not successfully delivered by the corresponding receiver to the upper layer (e.g. PDCP in RAN of a 3GPP access). Thus, the PER defines an upper bound for a rate of non-congestion related packet losses. The purpose of the PER is to allow for appropriate link layer protocol configurations (e.g. RLC and HARQ in RAN of a 3GPP access). For every 5QI the value of the PER is the same in UL and DL. For GBR QoS Flows with Delay-critical GBR resource type, a packet which is delayed more than PDB is counted as lost, and included in the PER unless the data burst is exceeding the MDBV within the period of PDB or the QoS Flow is exceeding the GFBR.', '']</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.2182566393900213</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.3.6	Averaging Window&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>['', 'Each GBR QoS Flow shall be associated with an Averaging window. The Averaging window represents the duration over which the GFBR and MFBR shall be calculated (e.g. in the (R)AN, UPF, UE).', '', 'Every standardized 5QI (of GBR and Delay-critical GBR resource type) is associated with a default value for the Averaging window (specified in QoS characteristics Table 5.7.4.1). The averaging window may also be signalled together with a standardized 5QI to the (R)AN and UPF, and if it is received, it shall be used instead of the default value.', '', 'The Averaging window may also be signalled together with a pre-configured 5QI to the (R)AN, and if it is received, it shall be used instead of the pre-configured value.', '']</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.2130788100644878</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.3.7	Maximum Data Burst Volume&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>['', 'Each GBR QoS Flow with Delay-critical resource type shall be associated with a Maximum Data Burst Volume (MDBV).', '', 'MDBV denotes the largest amount of data that the 5G-AN is required to serve within a period of 5G-AN PDB.', '', 'Every standardized 5QI (of Delay-critical GBR resource type) is associated with a default value for the MDBV (specified in QoS characteristics Table 5.7.4.1). The MDBV may also be signalled together with a standardized 5QI to the (R)AN, and if it is received, it shall be used instead of the default value.', '', 'The MDBV may also be signalled together with a pre-configured 5QI to the (R)AN, and if it is received, it shall be used instead of the pre-configured value.', '']</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.2095341329728578</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.5.3	Reflective QoS Control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>['', 'Reflective QoS is controlled on per-packet basis by using the Reflective QoS Indication (RQI) in the encapsulation header on N3 (and N9) reference point together with the QFI and together with a Reflective QoS Timer (RQ Timer) value that is either signalled to the UE upon PDU Session Establishment (or upon PDU Session Modification as described in clause\xa05.17.2.2.2) or set to a default value. The RQ Timer value provided by the core network is at the granularity of PDU Session (the details are specified in TS\xa024.501\xa0[47]).', '', "When the 5GC determines that Reflective QoS has to be used for a specific SDF belonging to a QoS Flow, the SMF shall provide the RQA (Reflective QoS Attribute) within the QoS Flow's QoS profile to the NG-RAN on N2 reference point unless it has been done so before. When the RQA has been provided to the NG-RAN for a QoS Flow and the 5GC determines that the QoS Flow carries no more SDF for which Reflective QoS has to be used, the SMF should signal the removal of the RQA (Reflective QoS Attribute) from the QoS Flow's QoS profile to the NG-RAN on N2 reference point.", '', 'NOTE\xa01:\tThe SMF could have a timer to delay the sending of the removal of the RQA. This would avoid signalling to the RAN in the case of new SDFs subject to Reflective QoS are bound to this QoS Flow in the meantime.', '', 'When the 5GC determines to use Reflective QoS for a specific SDF, the SMF shall ensure that the UPF applies the RQI marking (e.g. by setting the indication to use Reflective QoS in the QER associated with the DL PDR if not already set) for this SDF. The SMF shall also ensure that the uplink packets for this SDF can be received by the UPF from the QoS Flow to which the DL PDR of the SDF is associated with as specified in TS\xa029.244\xa0[65], e.g. by generating a new UL PDR for this SDF for that QoS Flow and providing it to the UPF.', '', 'When the UPF is instructed by the SMF to apply RQI marking, the UPF shall set the RQI in the encapsulation header on the N3 (or N9) reference point for every DL packet corresponding to this SDF.', '', 'When an RQI is received by (R)AN in a DL packet on N3 reference point, the (R)AN shall indicate to the UE the QFI and the RQI of that DL packet.', '', 'Upon reception of a DL packet with RQI:', '', '-\tif a UE derived QoS rule with a Packet Filter corresponding to the DL packet does not already exist,', '', '-\tthe UE shall create a new UE derived QoS rule with a Packet Filter corresponding to the DL packet (as described in clause\xa05.7.5.2); and', '', '-\tthe UE shall start, for this UE derived QoS rule, a timer set to the RQ Timer value.', '', '-\totherwise,', '', '-\tthe UE shall restart the timer associated to this UE derived QoS rule; and', '', '-\tif the QFI associated with the downlink packet is different from the QFI associated with the UE derived QoS rule, the UE shall update this UE derived QoS rule with the new QFI.', '', 'NOTE\xa02:\tNon-3GPP ANs does not need N2 signalling to enable Reflective QoS. Non 3GPP accesses are expected to send transparently the QFI and RQI to the UE. If the UPF does not include the RQI, no UE derived QoS rule will be generated. If RQI is included to assist the UE to trigger an update of the UE derived QoS rule, the reception of PDU for a QFI restarts the RQ Timer.', '', 'Upon timer expiry associated with a UE derived QoS rule the UE deletes the corresponding UE derived QoS rule.', '', 'When the 5GC determines not to use Reflective QoS for a specific SDF any longer:', '', '-\tThe SMF shall ensure that the UPF stops applying RQI marking as specified in TS\xa029.244\xa0[65] (e.g. by removing the indication to use Reflective QoS from the QER associated with the DL PDR) for this SDF.', '', '-\tWhen the UPF receives this instruction to stop applying RQI marking, the UPF shall no longer set the RQI in the encapsulation header on the N3 (or N9) reference point DL packets corresponding to this SDF.', '', '-\tThe SMF shall also ensure that, after an operator configurable time, the uplink packets for this SDF will not be accepted by the UPF over the QoS Flow on which Reflective QoS was applied for this SDF as specified in TS\xa029.244\xa0[65], e.g. by removing the UL PDR for this SDF from that QoS Flow.', '', 'NOTE\xa03:\tThe operator configurable time has to be at least as long as the RQ Timer value to ensure that no UL packet would be dropped until the UE derived QoS rule is deleted by the UE.', '', 'When the 5GC determines to change the binding of the SDF while Reflective QoS is used for this SDF, the SMF shall ensure that the uplink packets for this SDF are accepted over the newly bound QoS Flow and, for an operator configurable time, over the previously bound QoS Flow.', '']</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.1961871936770553</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.7.1	General&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>['', 'PDU Set QoS Parameters are used to support PDU Set based QoS handling in the NG-RAN. At least one PDU Set QoS Parameter shall be sent to the NG-RAN to enable PDU Set based QoS handling.', '', 'The following PDU Set QoS Parameters are specified:', '', '1.\tPDU Set Delay Budget (PSDB).', '', '2.\tPDU Set Error Rate (PSER).', '', '3.\tPDU Set Integrated Handling Information (PSIHI).', '', 'The QoS Profile may include the PDU Set QoS Parameters described in this clause\xa0(see clause\xa05.7.1.2). The PCF determines the PDU Set QoS Parameters based on information provided by AF and/or local configuration. The PDU Set QoS parameters are sent to the SMF as part of PCC rule. The SMF sends them to NG-RAN as part of the QoS Profile.', '', 'If the NG-RAN receives PDU Set QoS Parameters and supports them, it enables the PDU Set based QoS handling and applies PDU Set QoS Parameters as described in this clause.', '', "Editor's note:\t[XRM] The applicability and details of supporting PDU Set handling in uplink direction may be updated based on RAN\xa0WG's progress.", '']</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.1996436706066425</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.7.7.2	PDU Set Delay Budget&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>['', 'The PDU Set Delay Budget (PSDB) defines an upper bound for the delay that a PDU Set may experience for the transfer between the UE and the N6 termination point at the UPF, i.e. the duration between the reception time of the first PDU (at the N6 termination point for DL or the UE for UL) and the time when all PDUs of a PDU Set have been successfully received (at the UE for DL or N6 termination point for UL). PSDB applies to the DL PDU Set received by the PSA UPF over the N6 interface, and to the UL PDU Set sent by the UE.', '', 'NOTE:\tTo enable support for PSDB, it is required that a maximum inter arrival time between the first received PDU and the last received PDU of a PDU Set complies with SLA. This maximum inter arrival time does not exceed PSDB. NG-RAN behaviour when the SLA is not fulfilled is out of scope of this specification.', '', 'A QoS Flow is associated with only one PDU Set Delay Budget. The value of the PDU Set Delay Budget is the same in UL and DL. PSDB is an optional parameter that may be provided by the PCF. The provided PSDB can be used by the NG-RAN to support the configuration of scheduling and link layer functions.', '', 'When the PSDB is available, the PSDB supersedes the PDB for the given QoS Flow.', '', 'The AN PSDB is derived at NG-RAN by subtracting CN PDB (as described in clause\xa05.7.3.4) from the PSDB.', '']</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.1942332109949431</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.8.2.17	Data exposure via Service Based interface&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>['', 'The UPF may expose information by means of UPF event exposure service as described in TS\xa023.502\xa0[3] clause\xa05.2.26.2, via a service-based interface directly. The NF consumer, which may receive UPF event notifications, are AF/NEF, TSNAF/TSCTSF and NWDAF/DCCF/MFAF.', '', 'When the UPF supports the data exposure via the SBI interface, it may register its NF profile to the NRF including the UPF Event Exposure service. For the UPF Event Exposure service, the NF profile includes the related event ID(s).', '', 'For data collection from UPF (see clause\xa04.15.4.5 of TS\xa023.502\xa0[3]), NF consumer do the subscription to the UPF directly or indirectly via SMF. A consumer may subscribe to the UPF event exposure service directly only for data collected for "any UE" e.g. to collect user data usage information for NWDAF NF Load analytic (see clause\xa06.5 of TS\xa023.288\xa0[86]), and if the subscription is not including any of the following parameters: AoI, traffic filtering, BSSID/SSID, Application ID.', '', 'UPF selection is further described in clause\xa06.3.3.1.', '', 'To minimize the impact of event notification to UPF data processing, the event subscription may include Reporting suggestion information. The Reporting suggestion information includes Report urgency and Reporting window information. Reporting urgency information represents whether this event report can be delay tolerant, i.e. the event report can be delayed. If the Reporting urgency information indicates "delay tolerant", the Reporting time is also provided, which defines the last valid reporting time, and UPF shall report the detected event before the last valid time. Per Reporting suggestion information UPF can concatenate several notification messages to the same notification endpoint in one notification message.', '', 'An UPF which is deployed with NAT (Network Address Translation) functionality may support to provide the 5GC UE IP address to NEF based on NEF request containing public IP address and port number using the Nupf_GetPrivateUEIPaddr service as described in clause\xa04.15.10 of TS\xa023.502\xa0[3] for AF specific UE ID retrieval.', '']</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.1985329007815613</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.8.5.6	Forwarding Action Rule&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>['', 'The following table describes the Forwarding Action Rule (FAR) that defines how a packet shall be buffered, dropped or forwarded, including packet encapsulation/decapsulation and forwarding destination.', '', 'Table 5.8.5.6-1: Attributes within Forwarding Action Rule', '', 'Attribute', '', 'Description', '', 'Comment', '', 'N4 Session ID', '', 'Identifies the N4 session associated to this FAR.', '', 'NOTE\xa09.', '', 'Rule ID', '', 'Unique identifier to identify this information.', '', '', '', 'Action', '', 'Identifies the action to apply to the packet', '', 'Indicates whether the packet is to be forwarded, duplicated, dropped or buffered.', '', 'When action indicates forwarding or duplicating, a number of additional attributes are included in the FAR.', '', 'For buffering action, a Buffer Action Rule is also included and the action can also indicate that a notification of the first buffered and/or a notification of first discarded packet is requested (see clause\xa05.8.3.2).', '', 'For drop action, a notification of the discarded packet may be requested (see clause\xa05.8.3.2).', '', 'Network instance', '', '(NOTE\xa02)', '', 'Identifies the Network instance associated with the outgoing packet (NOTE 1).', '', 'NOTE\xa08.', '', 'Destination interface', '', '(NOTE\xa03)', '', '(NOTE\xa07)', '', 'Contains the values "access side", "core side", "SMF", "N6-LAN", "5G VN internal".', '', 'Identifies the interface for outgoing packets towards the access side (i.e. down-link), the core side (i.e. up-link), the SMF, the N6-LAN (i.e. the DN), or to 5G VN internal (i.e. local switch).', '', 'Outer header creation', '', '(NOTE\xa03)', '', 'Instructs the UP function to add an outer header (e.g. IP+UDP+GTP, VLAN tag), IP + possibly UDP to the outgoing packet.', '', 'Contains the CN tunnel info, N6 tunnel info or AN tunnel info of peer entity (e.g. NG-RAN, another UPF, SMF, local access to a DN represented by a DNAI) (NOTE\xa08).', '', 'Any extension header stored for this packet shall be added.', '', 'The time stamps should be added in the GTP-U header if QoS Monitoring for packet delay is enabled for the traffic corresponding to the PDR(s).', '', 'Send end marker packet(s)', '', '(NOTE\xa02)', '', 'Instructs the UPF to construct end marker packet(s) and send them out as described in clause\xa05.8.1.', '', 'This parameter should be sent together with the "outer header creation" parameter of the new CN tunnel info.', '', 'Transport level marking', '', '(NOTE\xa03)', '', 'Transport level packet marking in the uplink and downlink, e.g. setting the DiffServ Code Point.', '', 'NOTE\xa08.', '', 'Forwarding policy', '', '(NOTE\xa03)', '', 'Reference to a preconfigured traffic steering policy or http redirection (NOTE\xa04).', '', 'The Forwarding policy refers to a preconfigured forwarding behaviour in UPF, which may be related to:', '', "-\tN6-LAN steering to steer the subscriber's traffic to the appropriate N6 Service Functions deployed by the operator;", '', '-\tlocal N6 steering to enable traffic steering in the local access to the DN according to the routing information provided by an AF as described in clause\xa05.6.7;', '', '-\ta Redirect Destination and values for the forwarding behaviour (always, after measurement report (for termination action "redirect")).', '', 'Metadata', '', '(NOTE\xa010)', '', 'Metadata the UPF needs to add to traffic sent over a SFC.', '', 'The metadata information is associated with a TSP ID related to N6-LAN steering.', '', 'Request for Proxying in UPF', '', 'Indicates that the UPF shall perform ARP proxying and / or IPv6 Neighbour Solicitation Proxying as specified in clause\xa05.6.10.2.', '', 'Applies to the Ethernet PDU Session type.', '', 'Container for header enrichment', '', '(NOTE\xa02)', '', 'Contains information to be used by the UPF for header enrichment.', '', 'Only relevant for the uplink direction.', '', 'Buffering Action Rule', '', '(NOTE\xa05)', '', 'Reference to a Buffering Action Rule ID defining the buffering instructions to be applied by the UPF', '', '(NOTE\xa06)', '', '', '', 'NOTE\xa01:\tNeeded e.g. if:', '', '\t-\tUPF supports multiple DNN with overlapping IP addresses;', '', '\t-\tUPF is connected to other UPF or NG-RAN node in different IP domains;', '', '\t-\tUPF "local switch" and N19 forwarding is used for different 5G LAN groups.', '', 'NOTE\xa02:\tThese attributes are required for FAR action set to forwarding.', '', 'NOTE\xa03:\tThese attributes are required for FAR action set to forwarding or duplicating.', '', 'NOTE\xa04:\tThe TSP ID is preconfigured in the SMF and used to determine the Forwarding Policy included in the FAR according to the description in clause\xa05.6.7 and clause\xa06.1.3.14 of TS\xa023.503\xa0[45] for local N6 steering and in clause\xa05.6.16 and clause\xa06.1.3.14 of TS\xa023.503\xa0[45] for N6-LAN steering. The Forwarding Policy action is enforced before the Outer header creation actions.', '', 'NOTE\xa05:\tThis attribute is present for FAR action set to buffering.', '', 'NOTE\xa06:\tThe buffering action rule is created by the SMF and associated with the FAR in order to apply a specific buffering behaviour for UL/DL packets requested to be buffered, as described in clause\xa05.8.3 and clause\xa05.2.4 of TS\xa029.244\xa0[65].', '', 'NOTE\xa07:\tThe use of "5G VN internal" instructs the UPF to send the packet back for another round of ingress processing using the active PDRs pertaining to another N4 session of the same 5G VN group.', '', 'NOTE\xa08:\tWhen in architectures defined in clause\xa05.34, a FAR is sent over N16a from SMF to I-SMF, the FAR sent by the SMF may indicate that the I-SMF is to locally determine the value of this attribute in order to build the N4 FAR rule sent to the actual UPF controlled by the I-SMF. This is further defined in clause\xa05.34.6.', '', 'NOTE\xa09:\tIn the architecture defined in clause\xa05.34, the rules exchanged between I-SMF and SMF are not associated with a N4 Session ID but are associated with a N16a association.', '', 'NOTE\xa010:\tThe use of Metadata is described in clause\xa05.6.16. How the UPF transforms the Metadata into actual information sent with the traffic (e.g. in the encapsulation header) is based on local policies related with the Forwarding Policy and not specified.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.2082239074697501</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;5.8.5.8	Multi-Access Rule&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>['', 'The following table describes the Multi-Access Rule (MAR) that includes the association to the two FARs for both 3GPP access and non-3GPP access in the case of supporting ATSSS.', '', 'Table 5.8.5.8-1: Attributes within Multi-Access Rule', '', 'Attribute', '', 'Description', '', 'Comment', '', 'N4 Session ID', '', 'Identifies the N4 session associated to this MAR.', '', '', '', 'Rule ID', '', 'Unique identifier to identify this rule.', '', '', '', 'Steering functionality', '', '(NOTE\xa05)', '', 'Indicates the applicable traffic steering functionality:', '', 'Values "MPTCP functionality", "ATSSS-LL functionality", "MPQUIC functionality".', '', '', '', 'Transport Mode', '', 'Identifies the transport mode (see clause\xa05.32.6.2.2.1) that should be used for the matching traffic, when the Steering functionality is the MPQUIC functionality.', '', 'The Transport Mode shall be included only when the Steering Functionality is the MPQUIC functionality. In all other cases, the Transport Mode shall not be included.', '', 'Steering mode', '', '(NOTE\xa05)', '', 'Values "Active-Standby", "Smallest Delay", "Load Balancing", or "Priority-based" or "Redundant".', '', '', '', 'Steering Mode Indicator', '', '(NOTE\xa04)', '', 'Indicates either autonomous load-balance operation or UE-assistance operation if steering mode is set to "Load Balancing".', '', '', '', 'Threshold values', '', '(NOTE\xa03, NOTE\xa04)', '', 'A Maximum RTT and/or a Maximum Packet Loss Rate', '', 'The Threshold Values are applied by UPF as described in clause\xa05.32.8.', '', 'Per-Access Forwarding', '', 'Forwarding Action Rule ID', '', 'The Forwarding Action Rule ID identifies a forwarding action that has to be applied.', '', '', '', 'Action information', '', 'Weight', '', 'Identifies the weight for the FAR if steering mode is "Load Balancing"', '', 'The weights for all FARs need to sum up to 100', '', '(NOTE\xa01)', '', '(NOTE\xa02)', '', 'Priority', '', 'Values "Active or Standby" or "High or Low" for the FAR', '', '"Active or Standby" for "Active-Standby" steering mode and "High or Low" for "Priority-based" steering mode', '', '', '', 'List of Usage Reporting Rule ID(s)', '', 'Every Usage Reporting Rule ID identifies a measurement action that has to be applied.', '', 'This enables the SMF to request separate usage reports for different FARs (i.e. different accesses)', '', 'NOTE\xa01:\tThe Per-Access Forwarding Action information is provided per access type (i.e. 3GPP access or Non-3GPP access).', '', 'NOTE\xa02:\tThe Weight is treated as the default percentages if the Autonomous operation is allowed for the "Load Balancing" steering mode.', '', 'NOTE\xa03:\tThe Threshold Values may be provided when the Steering Mode is Priority-based, or when the Steering Mode is Load-Balancing with fixed split percentages or when the Steering Mode is "Redundant". If the Steering Mode is "Redundant", either a Maximum RTT or a Maximum Packet Loss Rate may be provided, but not both..', '', 'NOTE\xa04:\tThe Steering Mode Indicator and the Threshold Values shall not be provided together.', '', 'NOTE\xa05:\tThe Steering functionality "ATSSS-LL functionality" shall not be provided together with Steering Mode "Redundant".', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.22410966709283</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.18	Event reporting from the PCF&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>['', 'The AF may subscribe/unsubscribe to notifications of events from the PCF for the PDU Session to which the AF session is bound. The AF can either subscribe/unsubscribe directly at the PCF or indirectly via an NEF or a TSCTSF.', '', 'The PCF for the UE may subscribe/unsubscribe to notifications of events from the PCF for the PDU Session of a UE. Other NFs may subscribe/unsubscribe to notifications of events from the PCF for a PDU Session or for a UE.', '', 'The events that can be subscribed by the AF and by other NFs are listed in Table 6.1.3.18-1.', '', '', '', 'Table 6.1.3.18-1: Events relevant for reporting from the PCF', '', '&lt;span style="font-size:16pt"&gt;Event&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Description&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NF that can subscribe for reporting&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Availability for Rx PDU Session (NOTE\xa02)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Availability for N5 per PDU Session &lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Availability for Bulk Subscription&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa01)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Availability for N43 per SUPI, DNN, S-NSSAI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Availability for N5 per UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa06)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Availability for N24 per UE&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa06)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PLMN Identifier Notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa05)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The PLMN identifier or SNPN identifier where the UE is currently located.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF, PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of Access Type&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The Access Type and, if applicable, the RAT Type of the PDU Session has changed.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EPS fallback&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;EPS fallback is initiated&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Signalling path status&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The status of the resources related to the signalling traffic of the AF session.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Access Network Charging Correlation Information&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The Access Network Charging Correlation Information of the resources allocated for the AF session.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Access Network Information Notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The user location and/or timezone when the PDU Session has changed in relation to the AF session.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reporting Usage for Sponsored Data Connectivity&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The usage threshold provided by the AF has been reached; or the AF session is terminated.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Service Data Flow deactivation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The resources related to the AF session are released.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF, TSCTSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Resource allocation outcome&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The outcome of the resource allocation related to the AF session.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF, TSCTSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS targets can no longer (or can again) be fulfilled&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The QoS targets can no longer (or can again) be fulfilled by the network for (a part of) the AF session.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;QoS Monitoring parameters&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The QoS Monitoring parameter(s) (as defined in clause\xa05.45 of TS\xa023.501\xa0[2]) are reported to the AF according to the subscription based on QoS Monitoring reports received from the SMF.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Packet Delay Variation&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Monitoring and reporting of 5GS Packet Delay Variation based on packet delay measured between UE and PSA UPF.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Round-trip delay measurement over two service data flows&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Measurements of round-trip delay considering the UL direction of a service data flow and the DL direction of another service data flow. It is derived from measurements of packet delay between UE and PSA UPF.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Out of credit&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Credit is no longer available.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reallocation of credit&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Credit has been reallocated after the former Out of credit indication.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5GS Bridge/Router information Notification&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa03)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5GS Bridge/Router information that the PCF has received from the SMF.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TSN AF, TSCTSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Notification on outcome of service area coverage change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The outcome of the request of service area coverage change.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Notification on outcome of UE Policies delivery&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The outcome of the request for UE policies delivery due to service specific parameter provisioning procedure.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Start of application traffic detection and&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Stop of application traffic detection&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The start or the stop of application traffic has been detected.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PCF, AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa04)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;UE reporting Connection Capabilities from associated URSP rule&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The Connection Capability received from the UE during PDU Session Establishment or Modification, see clause\xa06.6.2.4.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Satellite backhaul category change&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The backhaul has changed between different satellite backhaul categories (e.g. GEO, MEO, LEO, OTHERSAT), or the backhaul has changed between satellite backhaul and non-satellite backhaul.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;AF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Change of PDUID&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The PDUID assigned to a UE has changed.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;5G DDNMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;SM Policy Association established or terminated&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The establishment or termination of a SM Policy Association is reported&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;(NOTE\xa07)&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reporting of extra UE addresses&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Reporting of the extra IP addresses or address ranges allocated for the given PDU Session resulting from framed routes or IPv6 prefix delegation.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TSCTSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Notification on BAT offset&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The PCF reports the BAT offset and optionally the adjusted periodicity that has been received from the SMF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;TSCTSF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '', '', '&lt;span style="font-size:16pt"&gt;Network Slice Replacement&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;The PCF reports the Alternative S-NSSAI when the PDU Session is transferred from S-NSSAI to Alternative S-NSSAI&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;PCF&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;Yes&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;No&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa01:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Additional parameters for the subscription as well as reporting related to these events are described in TS\xa023.502\xa0[3].&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa02:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Applicability of Rx is described in Annex\xa0C.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa03:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;5GS Bridge/Router information is described in clause\xa06.1.3.5.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa04:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;Bulk subscription is implicit. NOTE\xa01 does not apply.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa05:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;For a PDU Session established over a SNPN, the combination of the PLMN id and the NID identifies the SNPN.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa06:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This column contains also UE context related events that are reported to other consumers such as 5G DDNMF via other reference points than N5. The Conditions for reporting column indicates the respective consumer.&lt;/span&gt;', '', '&lt;span style="font-size:16pt"&gt;NOTE\xa07:&lt;/span&gt;\t&lt;span style="font-size:16pt"&gt;This PCF for the UE subscribes to this Event via AMF and SMF.&lt;/span&gt;', '', '', '', '', '', 'If an AF requests the PCF to report the PLMN identifier where the UE is currently located, then the PCF shall provide the PLMN identifier or the SNPN identifier to the AF if available. Otherwise, the PCF shall provision the corresponding PCC rules, and the Policy Control Request Trigger to report PLMN change to the SMF. The PCF shall, upon receiving the PLMN identifier or the SNPN identifier from the SMF forward this information to the AF, including the PLMN Id and if available the NID. If the H-PCF requests to report the PLMN identifier where the UE is currently located, the V-PCF provisions the PCRT on "PLMN change" to the AMF as described in clause\xa06.1.2.5 and then forwards the PLMN ID received from the AMF to the H-PCF.', '', 'If an AF requests the PCF to report on the change of Access Type, the PCF shall provide the corresponding Policy Control Request Trigger to the SMF to enable the report of the Change in Access Type to the PCF. The PCF shall, upon reception of information about the Access Type the user is currently using and upon indication of change of Access Type, notify the AF on changes of the Access Type and forward the information received from the SMF to the AF. The change of the RAT Type shall also be reported to the AF, even if the Access Type is unchanged. For MA PDU Session the Access Type information may include two Access Type information that the user is currently using.', '', 'If an AF requests the PCF to report on the signalling path status, for the AF session, the PCF shall, upon indication of removal of PCC Rules identifying signalling traffic from the SMF report it to the AF.', '', 'If an AF requests the PCF to report Access Network Charging Correlation Information, the PCF shall provide to the AF the Access Network Charging Correlation Information, which allows to identify the usage reports that include measurements for the Service Data Flow(s), once the Access Network Charging Correlation Information is known at the PCF.', '', 'If an AF requests the PCF to report Access Network Information (i.e. the User Location Report and/or the UE Timezone Report) at AF session establishment, modification or termination, the PCF shall set the Access Network Information report parameters in the corresponding PCC rule(s) and provision them together with the corresponding Policy Control Request Trigger to the SMF. For those PCC rule(s) based on preliminary service information the PCF may assign the 5QI and ARP of the QoS Flow associated with the default QoS rule to avoid signalling to the UE.', '', 'NOTE\xa01:\tThe PCF can also use the dynamic or pre-defined PCC Rules related to the IMS signalling to request Access Network Information reporting. This can be used to support e.g. regulatory requirements for SMS over IP, where the IMS network (i.e. PCSCF) needs to retrieve the user location and/or UE Time Zone information. Note that due to regulatory requirements, the Access Network Information can be requested for SMS over IP, impacting a large number of PDU Sessions, that can lead to significant increase in signalling load when the Access Network Information is requested from AMF.', '', 'The PCF shall, upon receiving an Access Network Information report corresponding to the AF session from the SMF, forward the Access Network Information as requested by the AF (if the SMF only reported the serving PLMN identifier or the SNPN identifier to the PCF, as described in clause\xa06.1.3.5, the PCF shall forward it to the AF). For AF session termination the communication between the AF and the PCF shall be kept alive until the PCF report is received.', '', 'If an AF requests the PCF to report the Usage for Sponsored Data Connectivity, the PCF shall provision the corresponding PCC rules, and the Policy Control Request Trigger to the SMF. If the usage threshold provided by the AF has been reached or the AF session is terminated, the PCF forwards such information to the AF.', '', 'If an AF or TSCTSF requests the PCF to report the Service Data Flow deactivation, the PCF shall report the release of resources corresponding to the AF session. The PCF shall, upon being notified of the removal of PCC Rules corresponding to the AF session from the SMF, forward this information to the AF. The PCF shall also forward, if available, the reason why the resources are released, the user location information and the UE Timezone.', '', 'If an AF or TSCTSF requests the PCF to report the Resource allocation outcome, the PCF shall report the outcome of the resource allocation of the Service Data Flow(s) related to the AF session. The AF or TSCTSF may request to be notified about successful or failed resource allocation. In this case, the PCF shall instruct the SMF to report the successful resource allocation trigger (see clause\xa06.1.3.5). If the SMF has notified the PCF that the resource allocation of a Service Data Flow is successful and the currently fulfilled QoS matches an Alternative QoS parameter set (as described in clause\xa06.2.2.1), the PCF shall also provide to the AF the QoS Reference parameter or the Requested Alternative QoS Parameter Set which corresponds to the Alternative QoS parameter set referenced by the SMF.', '', 'If an AF requests the PCF to report when the QoS targets can no longer (or can again) be fulfilled for a particular media flow, the PCF shall set the QNC indication in the corresponding PCC rule(s) that includes a GBR or delay critical GBR 5QI value and provision them together with the corresponding Policy Control Request Trigger to the SMF. At the time, the SMF notifies that GFBR can no longer (or can again) be guaranteed for a QoS Flow to which those PCC Rule(s) are bound, the PCF shall report to the AF the affected media flow and provides the indication that QoS targets can no longer (or can again) be fulfilled. If additional information is received with the notification from SMF (see clause\xa05.7.2.4 of TS\xa023.501\xa0[2]), the PCF shall also provide to the AF the QoS Reference parameter or the Requested Alternative QoS Parameter Set which corresponds to the Alternative QoS parameter set referenced by the SMF. If the SMF has indicated that the lowest priority Alternative QoS parameter set cannot be fulfilled, the PCF shall indicate to the AF that the lowest priority QoS Reference or the lowest priority set of Requested Alternative QoS Parameters of the Alternative Service Requirements cannot be fulfilled.', '', 'If the AF subscribes to be notified of the QoS Monitoring reports, the PCF decides about the path for the QoS Monitoring reports and sets the QoS Monitoring Policy Control Request Trigger accordingly, as described in clause\xa06.1.3.21. The PCF sends the QoS Monitoring reports to AF based on the QoS Monitoring reports that it receives from the SMF, according to AF subscription and PCF selected notification path e.g. PCF does not report to AF if AF will receive the QoS Monitoring reports directly from the UPF).', '', 'NOTE\xa02:\tThe QoS monitoring report received by the PCF and the information sent to the AF can be different. The QoS Monitoring report (e.g. packer delay) may be used by PCF to calculate the requested QoS parameter (e.g. packet delay variation).', '', 'NOTE\xa03:\tThis event can only be subscribed as part of an AF session with required QoS (described in clause\xa06.1.3.22) and as part of AF requested QoS for a UE or group of UEs not identified by a UE address (described in clause\xa06.1.3.28).', '', 'If the AF subscribes to be notified of Packet Delay Variation reports (the variation of UL/DL packet delay between UE and PSA UPF), the PCF triggers the QoS monitoring procedure, derives the 5GS Packet Delay Variation and reports the value to the AF, as described in clause\xa06.1.3.26.', '', 'NOTE\xa04:\tThis event can only be subscribed as part of an AF session with required QoS (described in clause\xa06.1.3.22).', '', 'If the AF subscribes to Round-trip delay measurement over two service data flows, PCF triggers the QoS monitoring procedure to derive the Round-Trip delay measurement for measurements on the individual QoS Flows as described in clause\xa06.3.1.27.1 and in clause\xa05.37.4 of TS\xa023.501\xa0[2] considering for UL direction one service data flow and for DL the other service data flow and reports the results to the AF. PCF sets QoS Monitoring Policies for each of the individual service data flows and QoS Monitoring Policy Control Request Trigger as described in clause\xa06.1.3.21.', '', 'NOTE\xa05:\tThis event can only be subscribed as part of an AF session with required QoS (described in clause\xa06.1.3.22).', '', 'If an AF requests the PCF to report on the Out of credit event for the associated service data flow(s), the PCF shall inform the AF (when it gets informed by the SMF) that credit is no longer available for the services data flow(s) related to the AF session together with the applied termination action.', '', 'If an AF requests the PCF to report on the Reallocation of credit event for the associated service data flow(s), the PCF shall inform the AF (when it gets informed by the SMF) that credit has been reallocated after credit was no longer available and the termination action was applied for the service data flow(s) related to the AF session.', '', 'The PCF can arm the trigger of 5GS Bridge/Router information available to SMF based on local policy (i.e. without an AF request) or based on subscription request from TSCTSF. The PCF shall, upon reception of the 5GS Bridge/Router information (refer to clauses 6.1.3.23, 6.1.3.23a, 6.1.3.23b) from the SMF, forward this information to the TSN AF or the TSCTSF. When the PCF has received the User plane node Management Information Container or Port Management Information Container and related port number from SMF, the PCF also provides User plane node Management Information Container or Port Management Information Container and related port number to the TSN AF or TSCTSF. When SMF has reported the 5GS Bridge/Router information and no AF session exists, the PCF forward this information to a pre-configured TSN AF, or to a pre-configured TSCTSF or a TSCTSF discovered and selected via NRF. In the case of private IPv4 address being used for IP type PDU Session, the PCF shall additionally report DNN and S-NSSAI of the PDU Session to TSCTSF.', '', 'If the AF requests the PCF to report on the outcome of the service area coverage change, the PCF reports the outcome of the service area coverage change to the AF and notifies the current service area coverage to the AF. The outcome is the result of the execution of the request of service coverage change at the PCF; the outcome is successful if the request was executed, and includes the current service area coverage that may be the same or different from the service area coverage provided by the AF. The subscription may also be implicit. In this case there may be bulk subscription, either for an Internal-Group-Id or for any UE. In order to prevent massive notifications to the AF, the request for any UE is associated to a specific Application Identifier or DNN, S-NSSAI. For bulk subscription, when the AF request includes an expiration time, the PCF stops reporting to the AF when the expiration time is reached.', '', 'If the AF requests the (H-)PCF, via V-PCF when roaming, to report on the outcome of the UE Policies delivery due to service specific parameter provisioning procedure targeting a single UE, the (H-)PCF reports the outcome of the related UE Policies provisioning procedure for the related traffic descriptor for the UE to the AF, via V-PCF when roaming. The outcome of the UE Policies provisioning procedure includes the success, the failure with an appropriate cause or the interim status report such as the UE is temporarily unreachable or that URSP Rules have not yet been delivered by the H-PCF (see clauses 4.15.6.7 and 5.2.5.7 of TS\xa023.502\xa0[3]).', '', 'NOTE\xa06:\tAn example reason for sending an interim status report that indicates that "URSP Rules have not yet been delivered by the H-PCF" may be that the UE does not support the VPLMN Specific URSP Rules feature and is not registered in the PLMN where the service parameters apply.', '', 'A request to report Start of application traffic detection and Stop of application traffic detection triggers the reporting when the PCF receives start of application traffic detection event or stop of application traffic detection event from SMF. The reception of a subscription to this event triggers the setting of the corresponding Policy Control Request Trigger to SMF, if not already subscribed.', '', 'A request to forward UE reporting Connection Capabilities from an associated URSP rule triggers the reporting when the PCF receives UE reporting of URSP rule enforcement information from the SMF matching specific Connection Capabilities (see clause\xa06.6.2.4). The request may include SUPI(s), DNN(s) and/or S-NSSAI(s) to which the request applies. The PCF includes the received Connection Capabilities and PDU session information including the allocated UE address/prefix, SUPI, UE requested DNN, Selected DNN, S-NSSAI, SSC Mode, Request-Type, Access Type, RSN, PDU Session Pair ID. The reception of a subscription to this event triggers the setting of the corresponding Policy Control Request Trigger to SMF, if not already subscribed.', '', 'If an AF requests the PCF to report Start of application traffic detection and Stop of application traffic detection via bulk subscription, the AF shall provide the application identifier together with the S-NSSAI and DNN. The PCF provides a PCC rule for the application identifier together with the corresponding Policy Control Request Trigger to the SMF for every PDU Session to this S-NSSAI and DNN. When the PCF receives start of application traffic detection event or stop of application traffic detection event for the PCC rule in a PDU Session, the PCF forwards the event to the AF together with the UE identifier and optionally the IP address of the PDU Session corresponding to this PCC rule. When the AF removes bulk subscription for this application identifier, then the PCF removes the Policy Control Request Trigger from the SMF for every PDU Session to this S-NSSAN and DNN, if it is not used for other purpose.', '', 'NOTE\xa07:\tThe restriction of the bulk subscription to a specific combination of S-NSSAI and DNN avoids excessive signalling load.', '', 'If an AF requests the PCF to report on the change between different satellite backhaul categories (e.g. GEO, MEO, LEO, OTHERSAT) or the change between satellite backhaul and non-satellite backhaul, the PCF shall provide the corresponding Policy Control Request Trigger to the SMF to enable the report of satellite backhaul category change (see clause\xa06.1.3.5) to the PCF. The PCF shall, upon reception of information about the change between satellite backhaul categories or change between satellite backhaul and non-satellite backhaul, notify the AF on the satellite backhaul category change event was met and forward the current satellite backhaul category information received from the SMF to the AF, or indicate that a satellite backhaul is no longer used.', '', 'If 5G DDNMF requests the PCF to report on the Change of PDUID, the PCF shall notify whenever a new PDUID is allocated. Further details on how the 5G DDNMF retrieves and subscribes to notifications on Change of PDUID are defined in TS\xa023.304\xa0[34].', '', 'A request to report SM Policy Association established or terminated triggers the reporting when the PCF receives the request for notification on the SM Poli</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.2442830109308103</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.20	Access Traffic Steering, Switching and Splitting&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>['', 'As specified in TS\xa023.501\xa0[2], the Access Traffic Steering, Switching and Splitting (ATSSS) feature is an optional feature that may be supported by the UE and the 5GC network.', '', 'The ATSSS feature enables a multi-access PDU Connectivity Service, which can exchange PDUs between the UE and a data network by simultaneously using one 3GPP access network and one non-3GPP access network (both connected to 5GC) when both accesses are allowed for the same S-NSSAI. The multi-access PDU Connectivity Service also supports the exchange of PDUs between the UE and a data network by simultaneously using one 3GPP access network in EPC and one non-3GPP access network in 5GC, or one 3GPP access network in 5GC and one non-3GPP access network in EPC, as described in TS\xa023.501\xa0[2]. This enables a scenario where a MA PDU Session can simultaneously be associated with user-plane resources on 3GPP access network connected to 5GC or EPC and non-3GPP access connected to 5GC, or with user-plane resources on 3GPP access network connected to 5GC and non-3GPP access connected to EPC.', '', 'The PCF is informed of the ATSSS capabilities of a MA PDU Session by the SMF, as defined in clause\xa05.32.2 of TS\xa023.501\xa0[2]. The ATSSS capabilities are both the Steering Mode and the Steering Functionality.', '', 'The PCF control of Access Traffic Steering, Switching and Splitting for a detected service data flow (SDF) is enabled by including Multi-Access PDU (MA PDU) Session Control information in the PCC rule. This allows the PCF to control:', '', '-\tThe Steering Mode that is used to steer/switch/split the detected SDF. The available Steering Modes are defined in TS\xa023.501\xa0[2].', '', '-\tThe Steering Functionality that is used for the detected SDF, e.g. the MPTCP functionality or the ATSSS-LL functionality or the MPQUIC functionality defined in TS\xa023.501\xa0[2].', '', '-\tThe Steering Mode Indicator authorized for the detected SDF.', '', '-\tThe Threshold values for RTT and Packet Loss Rate authorized for the detected SDF.', '', '-\tThe Charging information depending on what Access Type is used for a detected SDF.', '', '-\tThe Usage Monitoring information depending on what Access Type is used for a detected SDF.', '', '-\tTransport Mode that is used for the detected SDF. The available Transport Modes are defined in TS\xa023.501\xa0[2].', '', 'The rest of the information in the PCC Rule apply to the SDF as such and are not dependent on what Access Type is used for a packet.', '', 'The MA PDU Session Control information in the PCC rules is used by the SMF in order to create applicable N4 rules for the UPF and ATSSS rules for the UE, as described in TS\xa023.501\xa0[2]. The ATSSS rules are sent to UE via NAS when the MA PDU Session is created or updated by the SMF/PCF, as described in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'When MA PDU Session Control Information is provided to the SMF within a PCC Rule, the (H-)PCF provides both the Service Data Flow templates to identify a Service Data Flow in the UPF and if the Service Data Flow template includes an application identifier, then the corresponding Application descriptors to identify the application traffic in the UE is also included.', '', 'The (H-) PCF may use the OSid stored in the UDR as DataSet "Policy Data" and Data Subset "UE context policy control data" to determine the OSAppId supported by the OSid. The (H-)PCF may also provide multiple Application descriptors to identify application traffic in the UE, this is determined by the (H-)PCF local policies that indicates e.g. the operating system supported by the UE. If no OSid is available in the UDR, the (H-)PCF may use the PEI to determine the OSid supported by the UE.', '', 'NOTE\xa01:\tIf the (H-)PCF does not take into account the received PEI and/or OSId then the (H-)PCF can send PCC rules containing application traffic descriptors associated to multiple operating systems.', '', 'The Traffic Descriptor in the ATSSS rule is generated by the SMF from the SDF template of the PCC rule. If the SDF template contains SDF filters, the SMF uses the UL SDF filters for the generation of the IP descriptors or Non-IP descriptors, respectively. If the SDF template contains an application identifier, the SMF includes the Application descriptors received from the PCF as part of the MA PDU Session information in the PCC Rule within the Traffic Descriptors in the ATSSS rule.', '', 'For the Load-Balancing steering mode with fixed split percentages (i.e. without the Autonomous load-balance indicator or UE-assistance indicator), the PCF may provide one or more threshold values together with the split percentages. For the Priority-based steering mode, the PCF may provide one or more threshold values together with the priority of the accesses. For the Redundant steering mode, the PCF may provide one threshold value and/or a primary access. For the Load-Balancing and the Priority-based steering mode, one threshold value for the Round Trip Time (RTT) and/or one threshold value for the Packet Loss Rate (PLR) may be included in a PCC Rule. For the Redundant steering mode, either one threshold value for the Round Trip Time (RTT) or one threshold value for the Packet Loss Rate (PLR) may be included in a PCC Rule based on local configuration or QoS requirements received from AF as specified in clause\xa04.15.6.6 or clause\xa04.15.6.6a of TS\xa023.502\xa0[3]. The threshold values are not dependent on what Access Type is used for a packet, i.e. a given threshold value is applicable to both accesses. The threshold values are applied by the UE and UPF as described in TS\xa023.501\xa0[2].', '', 'NOTE\xa02:\tThe Round Trip Time (RTT) threshold value can be determined based on the PDB of the 5QI authorized for the SDF, and the Packet Loss Rate (PLR) threshold value can be determined based on the PER of the 5QI authorized for the SDF.', '', 'The MA PDU Session Control information in a PCC rule may contain only one of the following Steering Mode Indicators:', '', '-\tAutonomous load-balance indicator: This indicator may be included only when the Steering Mode is Load-Balancing and indicates whether autonomous load-balance operation is allowed. Further details are specified in clause\xa05.32.8 of TS\xa023.501\xa0[2].', '', '-\tUE-assistance indicator: It indicates that the UE can decide how to distribute the UL traffic based on its internal state (e.g. battery level), and that the UE can request from UPF to apply the same distribution for the DL traffic. Further details are specified in clause\xa05.32.8 of TS\xa023.501\xa0[2].', '', 'The PCF may also provide URSP rules to the UE for instructing the UE to establish a MA PDU Session, as described in clause\xa06.6.2.', '', 'The PCF control of PDU Session level Usage Monitoring depending on what access type is used to carry the traffic is enabled by providing Usage Monitoring control related information per access in the PDU Session related policy control information (as described in clause\xa06.4).', '', 'The Transport Mode may be included in a PCC rule that is used for the detected SDF only when the Steering functionality is the MPQUIC functionality.', '', 'If the MA PDU Session is capable of supporting one of the following:', '', '-\tMPTCP and ATSSS-LL with any Steering Mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink and MPTCP and ATSSS-LL with Active-Standby in the uplink;', '', '-\tMPQUIC and ATSSS-LL with any Steering Mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink and MPQUIC and ATSSS-LL with Active-Standby in the uplink;', '', '-\tMPTCP, MPQUIC and ATSSS-LL with any Steering Mode (i.e. any Steering Mode allowed for ATSSS-LL) in the downlink and MPTCP, MPQUIC and ATSSS-LL with Active-Standby in the uplink,', '', 'then the PCF shall provide a PCC Rule for "match all" traffic. This PCC Rule contains a "match all" SDF template, the lowest precedence, the Steering Functionality set to "ATSSS-LL" and the Steering Mode set to "Active-Standby" for the uplink direction, and the Steering Functionality set to "ATSSS-LL" and the Steering Mode set to any supported steering mode (i.e. any Steering Mode allowed for ATSSS-LL) for the downlink direction.', '', 'If the MA PDU Session is capable of supporting one of the following:', '', '-\tMPTCP with any Steering Mode in the downlink, ATSSS-LL with any steering mode except Smallest Delay steering mode and Redundant steering mode in the downlink, and MPTCP and ATSSS-LL with Active-Standby in the uplink;', '', '-\tMPQUIC with any Steering Mode in the downlink, ATSSS-LL with any steering mode except Smallest Delay steering mode and Redundant steering mode in the downlink, and MPQUIC and ATSSS-LL with Active-Standby in the uplink;', '', '-\tBoth MPTCP and MPQUIC with any Steering Mode in the downlink, ATSSS-LL with any steering mode except Smallest Delay steering mode and Redundant steering mode in the downlink, and MPTCP, MPQUIC and ATSSS-LL with Active-Standby in the uplink,', '', 'then the PCF shall provide a PCC Rule for "match all" traffic. This PCC Rule contains a "match all" SDF template, the lowest precedence, the Steering Functionality set to "ATSSS-LL" and the Steering Mode set to "Active-Standby" for the uplink direction, and the Steering Functionality set to "ATSSS-LL" and the Steering Mode set to any supported steering mode except Smallest Delay steering mode and Redundant steering mode for the downlink direction.', '', 'If the MA PDU Session is capable of supporting one of the following:', '', '-\tMPTCP and ATSSS-LL with Active-Standby in the uplink and downlink;', '', '-\tMPQUIC and ATSSS-LL with Active-Standby in the uplink and downlink;', '', '-\tMPTCP, MPQUIC and ATSSS-LL with Active-Standby in the uplink and downlink,', '', 'then the PCF shall provide a PCC Rule for "match all" traffic. This PCC Rule contains a "match all" SDF template, the lowest precedence, the Steering Functionality set to "ATSSS-LL" and the Steering Mode set to "Active-Standby" for the uplink direction and the downlink direction.', '', 'If the MA PDU Session is capable of supporting one of the following:', '', '-\tMPTCP and ATSSS-LL with any Steering Mode (i.e. any Steering Mode allowed for ATSSS-LL) in the uplink and downlink;', '', '-\tMPQUIC and ATSSS-LL with any Steering Mode (i.e. any Steering Mode allowed for ATSSS-LL) in the uplink and downlink;', '', '-\tMPTCP, MPQUIC and ATSSS-LL with any Steering Mode (i.e. any Steering Mode allowed for ATSSS-LL) in the uplink and downlink,', '', 'then the PCF shall provide a PCC Rule for "match all" traffic. This PCC Rule may contain a "match all" SDF template, the lowest precedence, the Steering Functionality set to "ATSSS-LL" and the Steering Mode set to any supported steering mode for the uplink direction and for the downlink direction (i.e. any Steering Mode allowed for ATSSS-LL).', '', 'The Steering functionality "ATSSS-LL" shall not be provided together with Steering Mode "Redundant".', '', 'These PCC Rules are used by the SMF to generate an ATSSS rule for the UE and an N4 rule for the UPF to route the "match all" traffic of the MA PDU Session in the uplink and downlink direction respectively.', '', 'NOTE\xa03:\tThe PCF can also use the ATSSS capability of the MA PDU Session to provide PCC Rules containing SDF template for some specific non-MPTCP traffic or non-MPQUIC traffic other than the PCC Rule containing a "match all" SDF template. This allows the operator to apply different policies e.g. charging key to non-MPTCP traffic or non-MPQUIC traffic other than the non-MPTCP traffic or non-MPQUIC matching the "match all" PCC Rule.', '']</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.199656105486208</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.21	QoS Monitoring control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>['', 'The QoS Monitoring control refers to the enabling of real-time measurements of QoS parameters for a service data flow.', '', 'An AF request may include QoS Monitoring measurements (clause\xa05.45 of TS\xa023.501\xa0[2]) and/or measurements of QoS parameters that PCF calculates by itself from QoS monitoring measurements on individual flows. The following QoS parameter measurements are derived by PCF:', '', '-\tPacket Delay Variation monitoring and reporting, as described in clause\xa06.1.3.26.', '', '-\tRound-trip delay measurements on two service data flows, as described in clause\xa05.37.4 of TS\xa023.501\xa0[2].', '', 'NOTE\xa01:\tThe QoS parameter which can be measured are parameters which describe the QoS experienced in the 5GS by the application, i.e. they are not restricted to the 5G QoS Parameters.', '', 'The PCF generates the authorized QoS Monitoring policy for the service data flow based on local policy and AF request, including the QoS Monitoring request if received from the AF (as specified in clause\xa06.1.3.22 and in TS\xa023.502\xa0[3]) and AF subscription requests for other QoS parameter measurements as listed above.', '', 'The QoS Monitoring policy includes the following:', '', '-\tQoS parameters to be measured as defined in clause\xa05.45 of TS\xa023.501\xa0[2];', '', '-\tReporting frequency (event triggered, periodic):', '', '-\tif the reporting frequency is event triggered:', '', '-\tthe corresponding reporting threshold to each QoS parameter;', '', '-\tminimum waiting time between subsequent reports;', '', '-\tthe reporting period;', '', '-\toptionally, Target of reporting (i.e. the NEF, the AF or the Local NEF, indicated as Notification Target Address + Notification Correlation ID);', '', '-\toptionally, an indication of direct event notification (to request the UPF to directly send QoS Monitoring reports to the Local NEF or the AF as described in clause\xa05.8.2.18 of TS\xa023.501\xa0[2]).', '', 'When multiple QoS parameters are required to be measured for a given service data flow, multiple QoS Monitoring policies may be included within one PCC rule. At a given time, the PCC Rule only has one authorized QoS Monitoring policy enabling the measurement of each QoS parameter.', '', 'NOTE\xa02:\tWithin a PCC rule, each QoS parameter to be measured can only be requested in one QoS Monitoring Policy. As an example, if a new QoS Monitoring Policy is provided for a QoS parameter, the existing QoS Monitoring Policy for same QoS parameter (if any) will be replaced.', '', 'NOTE\xa03:\tThe AF requested QoS parameters to be measured and the PCF requested QoS parameters to be measured based on the AF request can be different, e.g. Packet Delay Variation and packet delay, as described in clause\xa06.1.3.26.', '', 'If the AF did not provide an indication of direct event notification in the request and the PCF may decide that it does not want to receive the QoS Monitoring reports. If so, the PCF forwards the Target of reporting parameter in the QoS Monitoring policy and the SMF shall then send the QoS Monitoring reports directly to the NF indicated by the Target of reporting parameter. If the PCF decides that it wants to receive the QoS Monitoring reports, e.g. when the AF request includes measurements that are derived by PCF, the PCF shall not forward the Target of reporting parameter in the QoS Monitoring policy and instead subscribe to receive QoS Monitoring reports from SMF by setting the QoS Monitoring Policy Control Request Trigger.', '', 'If the AF provided an indication of direct event notification in the request and PCF determines that the QoS Monitoring reports can be notified directly (i.e. the AF request does not include QoS parameter measurements that are derived by PCF), the PCF forwards the Target of reporting parameter in the QoS Monitoring policy and sets the indication of direct event notification to indicate that QoS Monitoring reports have to be sent by the UPF directly to the NF indicated by the Target of reporting. The PCF may also subscribe to receive QoS Monitoring reports, by setting the QoS Monitoring Policy Control Request Trigger. In that case, the UPF is asked to duplicate the reports and the QoS Monitoring reports will be sent by the UPF to both, the NF indicated by the Target of reporting and to the SMF (which then forwards the report to the PCF).', '', 'If the AF provided an indication of direct event notification and PCF determines that the QoS Monitoring reports can not be notified directly (i.e. the AF request includes QoS parameter measurements that are derived by PCF), the PCF generates a successful response to AF and indicates that direct event notification is not possible. The PCF shall neither forward the Target of reporting parameter nor the indication of direct event notification in the QoS Monitoring policy and instead subscribe to receive QoS Monitoring reports from SMF by setting the QoS Monitoring Policy Control Request Trigger.', '', 'NOTE\xa04:\tIf there are multiple QoS rules containing a QoS monitoring policy, the PCF will receive the QoS Monitoring reports for all of them when the QoS Monitoring Policy Control Request Trigger is set.', '', 'The PCF includes the authorized QoS Monitoring policy in the PCC rule and provides it to the SMF. The SMF determines the configuration for the measurement of the QoS parameters (e.g. for the QoS parameter(s) to be measured) from the QoS Monitoring policy in the PCC rule and requests the RAN (if necessary) and the UPF to perform the measurement of the QoS parameters defined in clause\xa05.45 of TS\xa023.501\xa0[2] as needed and as defined in clause\xa05.8.2.18 of TS\xa023.501\xa0[2] and in clause\xa04.3.3.2 of TS\xa023.502\xa0[3].', '', 'The PCF can be configured to include in the QoS monitoring policy of the PCC rule a DataCollection_ApplicationIdentifier determined based on the AF request or local configuration. The DataCollection_ApplicationIdentifier is provided to assist the SMF when it needs to decide whether this PCC Rule corresponds to an event exposure subscription (see clause\xa04.15.4.4 of TS\xa023.502\xa0[3]).', '', 'NOTE\xa05:\tThe SMF selects the PCC Rules whose DataCollection_ApplicationIdentifier matches the Application Identifier received in the event exposure subscription, e.g. a subscription for QoS Monitoring event for data collection that includes an Application Identifier.', '', 'NOTE\xa06:\tThe PCF can also include the DataCollection_ApplicationIdentifier when the SDF template of the PCC rule contains a list of service data flow filters.', '']</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.1926757523026442</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.22	AF session with required QoS&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>['', 'The AF may request that a data session to a UE is set up with a specific QoS (e.g. low latency or PDV) and priority handling. The AF can request the network to provide QoS for the AF session based on the service requirements with the help of a QoS Reference parameter that refers to pre-defined QoS information. Instead of the QoS Reference, the AF may provide individual QoS parameters associated to the Flow Description.', '', 'a)\tWhen the AF provides only a QoS Reference to determine the QoS parameters but no individual QoS parameters:', '', '-\tWhen the PCF authorizes the service information from the AF, it derives the QoS parameters of the PCC rule based on the service information and the indicated QoS Reference.', '', 'NOTE\xa01:\tA SLA has to be in place between the operator and the ASP defining the possible QoS levels and their charging rates. For each of the possible pre-defined QoS information sets, the PCF needs to be configured with the corresponding QoS parameters and their values as well as the appropriate Charging key (or receive this information from the UDR).', '', '-\tThe AF may change the QoS by providing a different QoS Reference while the AF session is ongoing. If this happens, the PCF shall update the related QoS parameter sets in the PCC rule accordingly.', '', 'b)\tWhen the AF provides individual QoS parameters instead of a QoS Reference:', '', '-\tThe AF provides one or more of the following individual QoS parameters, i.e. Requested Priority, Maximum Burst Size, Requested 5GS Delay, Requested Maximum Bitrate, Requested Guaranteed Bitrate and Requested Packet Error Rate.', '', 'NOTE\xa02:\tDifferent combinations of individual QoS parameters with specific parameter names exist and they are described in TS\xa023.501\xa0[2] (for Time Sensitive Communication), in clause\xa06.1.3.23 (for integration with Time Sensitive Networking) and in TS\xa029.514\xa0[36].', '', '-\tIf the AF request for QoS is sent via the TSCTSF and the request contains a Requested 5GS Delay, the TSCTSF determines a Requested PDB considering the UE-DS-TT Residence Time (either provided by the PCF or pre-configured).', '', '-\tWhen the PCF authorizes the service information from the AF, it derives the QoS parameters of the PCC rule based on the service information and the individual QoS parameters received from the AF and TSCTSF. The PCF should select a standardized, pre-configured or existing dynamically assigned 5QI that matches the individual QoS parameters. If no 5QI exists that matches the individual QoS parameters, the PCF generates a new dynamically assigned 5QI based on the individual QoS parameters.', '', '-\tThe AF may change the QoS by providing different values for the individual QoS parameters while the AF session is ongoing. If this happens, the PCF shall update the related QoS parameter sets in the PCC rule accordingly.', '', '-\tThe PCF may reject the individual QoS parameters received from the AF based on operator policy or impossibility to support the requested values of the individual QoS parameters. If this happens, the PCF may provide in the response to the AF one or more combinations of individual QoS parameters that can be supported.', '', '\tIn addition to the QoS Reference or the individual QoS parameters described above, the AF may provide further parameters associated with the Flow Description, e.g. parameters that describe traffic characteristics as described in clause\xa06.1.3.23 or 6.1.3.23a and Indication of ECN marking for L4S.', '', '\tThe AF may also provide QoS duration and QoS inactivity interval to indicate to the PCF the time period when the QoS should be applied. The PCF provides a PCC Rule with the QoS parameters to SMF in order to allocate resources at the time it received the request from the AF and removes the PCC Rule to release the resources when the QoS duration is reached. Once the resources are released, the PCF waits for the QoS inactivity interval and repeats the process of establishing and releasing the resources. If the AF has subscribed to the PCF and resource allocation for any of the requested time windows fails, the PCF informs the AF. Any notification to the AF about allocated resources may include the corresponding time window.', '', 'NOTE\xa03:\tWhen leveraging the QoS duration and the QoS inactivity interval, both are expected to be in the order of minutes to avoid too frequent signalling between RAN and PCF.', '', 'If the AF provides an explicit indication (i.e. Indication of ECN marking for L4S) that the UL and/or DL of the service data flow supports ECN marking for L4S or the PCF decides, based on local configuration, that the service data flow supports ECN marking for L4S, then the PCF may explicitly, or implicitly (based on PCF/SMF local configuration), indicate to the SMF to enable for ECN marking for L4S. The PCF decision may be taken, based on local configuration in PCF and SMF and L4S traffic detection result. If L4S support is detected on the UL and/or DL traffic of the service data flow, the QoS flow is enabled with ECN marking for L4S, see clause\xa05.37.3 of TS\xa023.501\xa0[2].', '', 'The AF may provide a Round-Trip (RT) latency indication together with a single direction delay requirement between the UE and the PSA UPF expressed as the QoS Reference or the individual QoS parameters. The RT latency indication indicates the application flow needs to meet the RT latency requirement that does not exceed twice the single direction delay requirement between the UE and the PSA UPF expressed by the QoS Reference parameter or the individual QoS parameter.', '', 'The PCF generates a PCC Rule with service data flow filter (including IP Packet Filter set as in clause\xa05.7.6.2 of TS\xa023.501\xa0[2]) or Ethernet Packet Filter set as in clause\xa05.7.6.3 of TS\xa023.501\xa0[2]) derived from the Flow Descriptions provided by the AF, the derived PCC rule QoS parameters such a 5QI, ARP, GBR and MBR (see clause\xa06.3.1 for all possible PCC rule QoS parameters) and the associated TSC Assistance Container as received from the TSN AF or TSCTSF.', '', 'When the PCF authorizes the service information including the RT latency indication from the AF, the PCF shall generate two separate PCC rules, one for UL SDF and the other for DL SDF. The PCF derives the 5QI values of these two PCC rules considering the sum of UL and DL delay budgets does not exceed the RT latency requirement. Besides, the PCF may enable QoS monitoring to track the RT latency and may adjust the UL PDB and DL PDB to meet the requested RT latency as described in clause\xa06.1.3.27.', '', 'For TSC QoS, the PCF derives the 5QI value as defined in clause\xa05.27.3 of TS\xa023.501\xa0[2], the PCF derives the MBR using the Requested Maximum Bitrate provided by the AF and sets the GBR equal to the MBR unless the AF provides a Requested Guaranteed Bitrate, in which case the MBR and GBR are set separately.', '', 'If the PCF gets informed about Policy Control Request Triggers relevant for the AF session, the PCF shall inform the AF about it as defined in clause\xa06.1.3.18.', '', 'If an AF session can adjust to different QoS parameter combinations, the AF may provide Alternative Service Requirements in a prioritized order (indicating the preference of the QoS requirements with which the service can operate) in addition to the QoS Reference or individual QoS parameters. Alternative Service Requirements contain:', '', '-\tWhen the AF requests the network to provide QoS with a QoS Reference, one or more QoS Reference parameters in a prioritized order.', '', '-\tWhen the AF requests the network to provide QoS with individual QoS parameters, one or more Requested Alternative QoS Parameter Set(s) in a prioritized order. Each Requested Alternative QoS Parameter Set is comprised of the following individual parameters: Requested 5GS Delay, Requested Guaranteed Flow Bitrate and Requested Packet Error Rate.', '', '\tIf the AF request is sent via the TSCTSF, the TSCTSF determines a Requested PDB considering the Requested 5GS Delay and the UE-DS-TT Residence Time.', '', 'An AF that provides Alternative Service Requirements shall also subscribe to receive notifications from the PCF for successful resource allocation and when the QoS targets can no longer (or can again) be fulfilled as described in clause\xa06.1.3.18.', '', 'When the PCF authorizes the service information from the AF and generates a PCC rule, it shall also derive Alternative QoS Parameter Sets for this PCC rule based on the QoS Reference parameters or the Requested Alternative QoS Parameter Sets in the Alternative Service Requirements. If the AF provided Requested Alternative QoS Parameter Sets in the request, the PCF may reject any of the Requested Alternative QoS Parameter Sets it has received based on operator policy or impossibility to support the requested values of the individual parameters. If this happens, the PCF may provide in the response to the AF one or more Requested Alternative QoS Parameters Sets that can be supported.', '', 'The PCF shall enable QoS Notification Control and include the derived Alternative QoS parameter sets (in the same prioritized order indicated by the AF) in the PCC rule sent to the SMF. When the PCF notifies the AF that QoS targets can no longer be fulfilled, the PCF shall include the QoS Reference parameter or the set of Requested Alternative QoS Parameters corresponding to the Alternative QoS parameter set referenced by the SMF, or an indication that the lowest priority QoS Reference or the lowest priority set of Requested Alternative QoS Parameters of the Alternative Service Requirements cannot be fulfilled (as described in clause\xa06.1.3.18).', '', 'The PCF may generate policies to request to monitor the DL Periodicity associated N6 jitter and include it into a PCC rule based local policy. Based on the received PCC rule or local configuration, the SMF indicates UPF to monitor and report the requested traffic characteristics as described in clause\xa05.20c in TS\xa023.501\xa0[2]. The N6 jitter measurement is not triggered if the Burst Arrival Time (as described in the clause\xa05.27.2 in TS\xa023.501\xa0[2]) is received.', '', 'NOTE\xa04:\tThe AF behaviour is out of the scope of this TS\xa0but can include adaptation to the change of QoS (e.g. rate adaptation) as well as application layer signalling with the UE.', '', 'The AF may change the Alternative Service Requirements while the AF session is ongoing. If this happens, the PCF shall update the Alternative QoS parameter sets in the PCC rule accordingly.', '', 'The AF may indicate to the PCF that the UE does not need to be informed about changes related to Alternative QoS Profiles. With this indication received from the AF, the PCF decides whether to disable the notifications to the UE when changes related to the Alternative QoS Profiles occur and sets the Disable UE notifications at changes related to Alternative QoS Profiles parameter in the PCC rule accordingly.', '']</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.1838930283938331</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.23	Support of integration with Time Sensitive Networking&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>['', 'Time Sensitive Networking (TSN) support is defined in TS\xa023.501\xa0[2], where the 5GS represents logical TSN bridge(s) based on the defined granularity model. The TSN AF and PCF interact to perform QoS mapping as described in clause\xa05.28.4 of TS\xa023.501\xa0[2].', '', 'The PCF provides the following parameters to the TSN AF:', '', '-\t5GS user-plane Node information:', '', '-\t5GS Bridge ID;', '', '-\tUE-DS-TT Residence time;', '', '-\tport number of the Ethernet port of DS-TT;', '', '-\tMAC address of the Ethernet port of DS-TT (i.e. DS-TT port MAC address).', '', '-\tPort Management Information Container and the related port number.', '', '-\tUser plane node Management Information Container.', '', 'The TSN AF may use this information to construct IEEE\xa0802.1 managed objects, to interwork with IEEE\xa0802.1 TSN networks, as described in TS\xa023.501\xa0[2] and TS\xa023.502\xa0[3].', '', 'The TSN AF may use the PTP Port state of NW-TT and DS-TT in the Port/User plane node Management Information Container to determine the Port Pairs that will be used for (g)PTP delivery. Based on this the TSN AF may request appropriate QoS treatment for the (g)PTP flows from PCF.', '', 'The TSN AF request related to TSN configuration or gPTP flow delay requirement is sent on the AF session associated with the DS-TT port MAC address. The TSN AF decides the TSN QoS information (i.e. priority, delay, maximum TSC Burst Size and Maximum Flow Bitrate) and TSC Assistance Container based on the received configuration information of 5GS Bridge from the CNC as defined in clause\xa05.28.2 of TS\xa023.501\xa0[2], the bridge delay information at the TSN AF and the UE-DS-TT Residence time.', '', 'NOTE:\tTSC burst size can represent the maximum burst size of the TSN streams that have been aggregated.', '', 'The TSN AF provides the Flow Descriptions (including Ethernet Packet Filters), TSC Assistance Container (as described in clause\xa05.27.2.2 of TS\xa023.501\xa0[2]), and the related QoS information to the PCF by setting up an AF session with required QoS as described in clause\xa06.1.3.22. In addition, the TSN AF may provide the following parameters to the PCF:', '', '-\tPort Management Information Container and related Port number as applicable;', '', '-\tUser plane node Management Information Container;', '', '-\toptionally, Notification Target Address for PMIC/UMIC UPF event and Correlation ID for PMIC/UMIC UPF event.', '', 'The PCF provides the SMF the parameters received from the TSN AF (as specified in TS\xa023.502\xa0[3]). The SMF indicates the UPF to report the TSC management information as defined in clause\xa05.8.5.14 of TS\xa023.501\xa0[2] if the PCF forwards the Target of reporting parameter.', '', 'The PCF assigns the ARP to a value preconfigured for TSN services.', '']</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.1912667973838323</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.23b	Support of IETF Deterministic Networking&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>['', 'Enablers for the support of IETF Deterministic Networking are defined in clauses 4.4.8.4 and 5.28.5 of TS\xa023.501\xa0[2].', '', 'When the PCF has received the 5GS Bridge/Router information for the PDU Session from SMF and has a subscription for the 5GS Bridge/Router information Notification from the TSCTSF or based on a local policy, if integration with IETF Deterministic Networking applies, the PCF provides the following information to the TSCTSF for device side ports:', '', '-\tuser-plane node ID;', '', '-\tport number;', '', '-\tIP address or IPv6 prefix allocated to the PDU Session;', '', '-\tMTU size for IPv4 or MTU size for IPv6 (optional).', '', 'Upon reception of the above information, if the TSCTSF does not have a corresponding AF session, the TSCTSF shall create an AF session with the PCF.', '', 'The TSCTSF shall subscribe for notifications from the PCF for reporting of extra UE addresses for the same PDU Session. As a result, the TSCTSF shall be notified of any extra address or address range that is allocated for the given PDU Session as a result of Framed Routes or IPv6 Prefix delegation.', '', 'When the TSCTSF is first notified about a 5GS DetNet router identified by the user-plane node ID, the TSCTSF may subscribe with the NW-TT for receiving user plane node management information changes for the 5GS router, as described in clause\xa05.28.3.1 of TS\xa023.501\xa0[2] .', '', 'After receiving a User plane node Management Information Container (UMIC) containing the NW-TT port numbers, the TSCTSF may subscribe with the NW-TT for receiving NW-TT port management information changes for the NW-TT port indicated by each of the NW-TT port numbers as described in clause\xa05.28.3.1 of TS\xa023.501\xa0[2]. For network side ports, the Port Management Information Container may contain information to be exposed to the DetNet controller (see Information for deterministic networking in Table 5.28.3.1.1 of TS\xa023.501\xa0[2]).', '', 'The TSCTSF may receive DetNet YANG configuration as described in IETF draft-ietf-detnet-yang\xa0[37] from a DetNet Controller that describe the traffic characteristics and requirements.', '', 'When both the TSCTSF and the DetNet controller support 3GPP extensions to the IETF draft-ietf-detnet-yang\xa0[37], the DetNet controller may provide the 5GS-node-max-latency and 5GS-node-max-loss specific to the 5GS system.', '', 'NOTE\xa01:\tThe 3GPP extension to the IETF draft-ietf-detnet-yang\xa0[37] is defined in 3GPP as a YANG model which imports draft-ietf-detnet-yang\xa0[37] and adds the 3GPP specific parameters. The 3GPP defined YANG model uses the 3GPP namespace as defined in RFC\xa05279\xa0[38].', '', 'NOTE\xa02:\tIf the DetNet YANG configuration neither includes 5GS specific 5GS-node-max-latency nor the end-to-end Max-latency, the TSCTSF can derive the Requested 5GS Delay or the PCF can derive the PDB. Similarly, if the DetNet YANG configuration neither includes 5GS specific 5GS-node-max-loss nor the end-to-end Max-loss, the TSCTSF can derive the Requested Packet Error Rate or the PCF can derive the PER. This derivation is not further specified.', '', 'The TSCTSF provides the Flow Descriptions, the TSC Assistance Container (as described in clause\xa05.27.2.3 of TS\xa023.501\xa0[2]), and the related QoS information to the PCF as specified in the AF session with required QoS procedure for the signalling between the TSCTSF and the PCF described in clause\xa04.15.6.6 of TS\xa023.502\xa0[3]. The TSCTSF maps the DetNet configuration as follows before interacting with the PCF.', '', '-\t5GS-node-max-latency to Requested 5GS Delay.', '', '-\tMin-bandwidth to Requested Guaranteed Bitrate.', '', '-\t5GS-node-max-loss to Requested Packet Error Rate.', '', '-\tMax-consecutive-loss-tolerance to Survival time (see clause\xa05.27.2.1 of TS\xa023.501\xa0[2]) - when such mapping is possible, such as when there is only a single packet per interval.', '', '-\tInterval to Periodicity.', '', '-\tmax-pkts-per-interval * (max-payload-size + protocol header size) to Maximum Burst Size.', '', '-\tmax-pkts-per-interval * (max-payload-size + protocol header size)/ Interval to Requested Maximum Bitrate.', '', '-\tDetNet flow specification is mapped to the Flow Description information. The DetNet flow specification is based on the following header fields: IP source and destination address, IPv4 protocol or IPv6 next header, IPv4 type of service or IPv6 traffic class, IPv6 flow label, TCP or UDP source or destination ports, IPsec SPI as defined in clause\xa05.1 of IETF\xa0RFC\xa08939\xa0[42], which are mapped to the corresponding fields in the Flow Description information.', '', 'If the DetNet YANG configuration includes the Max-latency and Max-loss only for the end-to-end flow and not the 5GS specific requirement, the TSCTSF determines the requirements applicable to 5GS (5GS-node-max-latency and 5GS-node-max-loss) based on a pre-configured mapping for the given deployment.', '', 'Based on the mapping, the TSCTSF provides the Flow Descriptions, the TSC Assistance Container (as described in clause\xa05.27.2.3 of TS\xa023.501\xa0[2]), and the related QoS information to the PCF by setting up an AF session with required QoS as described in clause\xa06.1.3.22.', '', 'The TSCTSF shall subscribe to the Resource allocation outcome and Service Data Flow deactivation events at the PCF, so that TSCTSF gets notified when the DetNet requirements are not satisfied. In that case, the DetNet controller shall be notified.', '']</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.18244321601767</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.26	Packet Delay Variation monitoring and reporting&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>['', 'Th AF may send requirement for Packet Delay Variation (i.e. between UE to PSA UPF) monitoring and reporting to the PCF, together with the requirement for packet delay measurements. The PCF generates the authorized QoS Monitoring policy for the service data flow based on both, Packet Delay Variation request and the QoS Monitoring request', '', 'The Packet Delay Variation request includes the following:', '', '-\tPacket Delay Variation parameters to be measured (UL, DL or RT packet delay variation);', '', '-\tfrequency of reporting (event triggered or periodic):', '', '-\tif the reporting frequency is event triggered:', '', '-\tthe corresponding reporting thresholds;', '', '-\tminimum waiting time between subsequent reports.', '', 'Based on the above Packet Delay Variation request, the requirements for packet delay measurements received from the AF and any other AF requirements related to QoS monitoring, the PCF generates the authorized QoS monitoring policy for packet delay measurements. The PCF shall subscribe to receive QoS Monitoring reports from SMF by setting the QoS Monitoring Policy Control Request Trigger. Then, the SMF reports the measured packet delay values to the PCF, the PCF derives the Packet Delay Variation and reports to the AF both, the packet delay measurements and Packet Delay Variation.', '']</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.1925445628128488</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.28	AF requested QoS for a UE or group of UEs not identified by a UE address&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>['', 'The AF may request that the data session(s) for a UE (identified by a GPSI) or a group of UEs (identified by an External Group ID) for a specific DNN and S-NSSAI are set up with a specific QoS (e.g. low latency or PDV) and priority handling. The request from the AF may also include parameters for QoS monitoring and parameters that describe the traffic characteristics.', '', 'According to the QoS parameters for AF session with QoS as described in clause\xa06.1.3.22, the parameters that describe the traffic characteristics for AF session with QoS as described in clause\xa06.1.3.23a, and the parameters to subscribe to be notified of the QoS Monitoring reports as described in clause\xa06.1.3.21, the AF request information may include:', '', '-\tDNN and S-NSSAI;', '', '-\tInformation about target UEs: External Group Identifier or GPSI;', '', '-\tFlow Descriptions as described in clause\xa06.1.3.6;', '', 'NOTE\xa01:\tAt the time of providing Flow Description from AF, the AF can only provide the server side information as Flow Description, e.g. 3-tuple(s) including protocol, server side IP address and port number. At the time of applying the Flow Description for generation of PCC rules, the PCF can supplement the UE side information, e.g. UE IP address and port.', '', '-\tTraffic characteristics as described in clause\xa06.1.3.23 or clause\xa06.1.3.23a;', '', '-\tQoS parameters (e.g. QoS Reference or individual QoS parameters or Alternative QoS Parameter Set) as defined in clause\xa06.1.3.22;', '', '-\tQoS parameters for monitoring as defined in clause\xa06.1.3.21;', '', 'NOTE\xa02:\tThe AF can support monitoring of specific performance characteristic by requesting the Notification control with Alternative QoS Profiles as defined in clause\xa05.7.2.4.1b of TS\xa023.501\xa0[2] and deriving the specific degraded QoS characteristic (e.g. GFBR, PDB or PER) and the way it is degraded with the "GFBR can no longer be guaranteed" notifications and indications to Alternative QoS Profile.', '', '-\tTemporal invalidity condition (start-time, end-time), indicate the time period when there will be no user payload for the DNN/S-NSSAI and Flow Descriptions provided with the request (e.g. at night or on weekends);', '', '-\tSubscription to events as defined in clause\xa06.1.3.18.', '', 'The NEF determines whether or not to invoke the TSCTSF in the same way as for AF session with required QoS procedure, as described in step\xa02 of clause\xa04.15.6.6 in TS\xa023.502\xa0[3].', '', 'In case the TSCTSF is not used, the NEF stores the AF request on UDR. The PCF receives the AF requested QoS information from the UDR as described in clause\xa04.15.6.14 of TS\xa023.502\xa0[3]. If the AF requested QoS information contains temporal invalidity condition, the PCF activates, modifies, or removes PCC rules corresponding to the QoS information as needed based on the invalidity conditions.', '', 'In the case that the TSCTSF is used, the TSCTSF receives the AF requested QoS information from the NEF. The TSCTSF applies the AF requested QoS information as described in clause\xa05.20c of TS\xa023.501\xa0[2] and clause\xa04.15.6.14 of TS\xa023.502\xa0[3].', '']</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.1888312909140558</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1.3.6	Policy control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>['', 'QoS control refers to the authorization and enforcement of the maximum QoS that is authorized for a service data flow, for a QoS Flow or for the PDU Session. A service data flow may be either of IP type or of Ethernet type. PDU Sessions may be of IP type or Ethernet type or unstructured.', '', 'The PCF, in a dynamic PCC Rule, associates a service data flow template to an authorized QoS that is provided in a PCC Rule to the SMF. The PCF may also activate a pre-defined PCC Rule that contains that association.', '', 'The authorized QoS for a service data flow template shall include a 5QI and the ARP and may include a 5QI Priority Level. For a 5QI of GBR or Delay-critical GBR resource type, the authorized QoS shall also include the MBR, GBR and may include the QoS Notification Control parameter (for notifications when authorized GFBR can no longer ( or can again) be fulfilled). For 5QI of Non-GBR resource type, the authorized QoS may include the MBR and the Reflective QoS Control parameter. The 5QI value can be standardized (i.e. referring to QoS characteristics as defined in clause\xa05.7.3 of TS\xa023.501\xa0[2]), pre-configured (i.e. referring to QoS characteristics configured in the RAN) or dynamically assigned (i.e. referring to QoS characteristics provided by the PCF as Explicitly signalled QoS Characteristics in the PDU Session related policy information described in clause\xa06.4).', '', 'NOTE\xa01:\tFurther details, special cases and additional parameters are described in clause\xa06.3.1.', '', 'QoS control also refers to the authorization and enforcement of the Session-AMBR, default 5QI/ARP combination and 5QI Priority Level, if applicable. The PCF may provide the Authorized Session-AMBR, the Authorized default 5QI and ARP combination and the 5QI Priority Level as part of the PDU Session information for the PDU Session to the SMF. The Authorized Session-AMBR, Authorized default 5QI/ARP and if available, 5QI Priority Level values take precedence over other values locally configured or received at the SMF.', '', 'In home routed roaming, the H-SMF may provide the QoS constraints (defined in clause\xa05.7.1.11 of TS\xa023.501\xa0[2]) received from the VPLMN (according to clause\xa04.3.2.2.2 of TS\xa023.502\xa0[3]) to the H-PCF. The H-PCF ensures that the Authorized Session-AMBR value does not exceed the Session-AMBR value provided by the VPLMN, that the Authorized default 5QI/ARP contains a 5QI and ARP value supported by the VPLMN and if available, the applicable 5QI Priority Level is supported by the VPLMN. If no QoS constraints are provided the H-PCF considers that no QoS constraints apply unless operator policies define any. The PCF shall also consider the QoS constraints for the setting of the Subsequent Authorized default 5QI/ARP, if available, the applicable 5QI Priority Level and Subsequent Authorized Session-AMBR.', '', 'For policy control, the AF interacts with the PCF and the PCF interacts with the SMF as instructed by the AF. For certain events related to policy control, the AF shall be able to give instructions to the PCF to act on its own, i.e. based on the service information currently available. The following events are subject to instructions from the AF:', '', '-\tThe authorization of the service based on incomplete service information;', '', 'NOTE\xa02:\tThe QoS authorization based on incomplete service information is required for e.g. IMS session setup scenarios with available resources on originating side and a need for resource reservation on terminating side.', '', '-\tThe immediate authorization of the service;', '', '-\tThe gate control (i.e. whether there is a common gate handling per AF session or an individual gate handling per AF session component required);', '', '-\tThe forwarding of QoS Flow level information or events (see clause\xa06.1.3.18).', '', 'The UE and the AF shall provide all available flow description information (e.g. source and destination IP address and port numbers and the protocol information) to enable the binding functionality and the generation or selection of the service data flow filter(s) in the PCC rules. The AF may also provide a ToS (IPv4) or TC (IPv6) value that is set by the application as part of the flow description information. The PCF generates a PCC Rule with service data flow filter(s) (either as IP Packet Filter set as defined in clause\xa05.7.6.2 of TS\xa023.501\xa0[2] or as Ethernet Packet Filter set as defined in clause\xa05.7.6.3 of TS\xa023.501\xa0[2]) derived from the flow description information.', '', 'NOTE\xa03:\tA ToS/TC value can be useful when another packet filter attribute is needed to differentiate between packet flows. For example, packet flows encapsulated and encrypted by a tunnelling protocol can be differentiated by the ToS/TC value of the outer header if appropriately set by the application. To use ToS/TC for service data flow detection, network configuration by the operator (and additionally by the 3rd party Service Provider when the transport network is not fully within the operator control) needs to ensure there is no ToS/TC re-marking applied along the path from the application to the PSA UPF and the specific ToS/TC values are managed properly to avoid potential collision with other usage (e.g. paging policy differentiation). An example that the transport network is not fully within operator control is the Edge Hosting Environment according to TS\xa023.548\xa0[33].', '', 'If SMF indicates that a PDU Session is carried over NR satellite access or satellite backhaul, the PCF may take this information into account for the policy decision, e.g. together with any delay requirements provided by the AF.', '', 'When SMF indicates that the dynamic satellite backhaul is used to serve the PDU Session, the PCF may use QoS monitoring (as described in clause\xa06.1.3.21) to get reports for the packet delay (defined in clause\xa05.45.2 of TS\xa023.501\xa0[2]).', '']</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.1925226365645175</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1A.3.1	Procedure for analytics aggregation with Provision of Area of Interest&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>23288-i20.docx</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>LR3_configuration</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>['', 'The procedure depicted in figure 6.1A.3-1 is used to address cases where an NWDAF service consumer requests Analytics ID(s) for an Area of Interest that requires multiple NWDAFs that collectively serve the request.', '', '----media/image22.emf----', '', 'Figure 6.1A.3.1-1: Procedure for analytics aggregation', '', '1a-b.\tNWDAF service consumer discovers the NWDAF as specified in clause\xa05.2. When NRF is used, NRF may return multiple NWDAF candidates matching the requested capabilities, area of interest and supported Analytics ID(s). NWDAF service consumer selects an NWDAF (e.g. NWDAF1) with analytics aggregation capability (i.e. Aggregator NWDAF), based on its internal selection criteria, considering registered NWDAF capabilities and information in NRF including the Supported Analytics Delay per Analytics ID (if available).', '', '2.\tNWDAF service consumer invokes Nnwdaf_AnalyticsInfo_Request or Nnwdaf_AnalyticsSubscription_Subscribe service operation from the selected Aggregator NWDAF (e.g. NWDAF1). In the request, NWDAF service consumer provides Analytics ID(s) (e.g. Analytics ID 1) Analytics Filter Information (area of interest, e.g. TAI-1, TAI-2, TAI-n, if known to the NWDAF service consumer), Target of Analytics Reporting (e.g. a single UE, a group of UEs or any UE). It may also provide "time when analytics information is needed" (e.g. T1). It is expected that T1 is equal or greater than the Supported Analytics Delay per Analytics ID (if available) of the Aggregator NWDAF. Otherwise, the aggregator NWDAF may reject the analytics request or analytics subscription.', '', '3.\tOn receiving the request in step\xa02, Aggregator NWDAF (e.g. NWDAF1), based on e.g. configuration, queries to NRF including the Real-Time Communication Indication per Analytics ID and queries to UDM for checking which NWDAF(s) is serving the Target of Analytics Reporting. Considering the request from the NWDAF service consumer (e.g. Analytics Filter Information, T1, etc.) and Supported Delay per Analytics ID per NWDAF instance (when Real-Time Communication Indication was included), Aggregator NWDAF determines the other NWDAF instances that collectively can cover the area of interest indicated in the request (e.g. TAI-1, TAI-2, TAI-n).', '', 'NOTE\xa01:\tIn the discovery request sent to NRF, Aggregator NWDAF might indicate "analytics metadata provisioning capability" (e.g. as query parameter), thus, requesting to NRF to reply back with, if available, those NWDAF instance(s) which also supports "analytics metadata provisioning capability" functionality as indicated during particular NWDAF instance registration procedure.', '', '4-5.\tAggregator NWDAF (e.g. NWDAF1) invokes Nnwdaf_AnalyticsInfo_Request or Nnwdaf_AnalyticsSubscription_Subscribe service operation from each of the NWDAFs discovered/determined in step\xa03 (e.g. NWDAF2 and NWDAF3).', '', '\tThe request may optionally indicate "analytics metadata request" parameter to the determined NWDAFs (e.g. NWDAF-2 and/or NWDAF3), when analytics metadata is supported by these NWDAFs.', '', '\tThe request or subscription to the determined NWDAFs (e.g. NWDAF2 and/or NWDAF3) may also include the dataset statistical properties, output strategy and data time window. This indicates to the determined NWDAFs that the Analytics ID output shall be generated based on such parameters when requested.', '', '\tIf "time when analytics information is needed" (T1) was provided in step\xa02, the Aggregator NWDAF shall also provide a "time when analytics information is needed" to the determined NWDAFs, with a smaller value compared with T1 (e.g. T2).', '', 'NOTE\xa02:\tT2 in step\xa04-5 is smaller than T1 accounting for the analytics delay and processing time within the Aggregator NWDAF itself.', '', '6-7a-b.\tThe determined NWDAFs (e.g. NWDAF-2 and/or NWDAF3) reply or notify with the requested output analytics.', '', '\tIf "analytics metadata request" was included in the request received by such NWDAF (in steps 4-5), the NWDAF additionally returns the "analytics metadata information" used for generating the analytics output as defined in clause\xa06.1.3.', '', '\tIf the determined NWDAFs (e.g. NWDAF 2 and/or NWDAF 3) cannot reply or notify with the requested output analytics before the expiry of T2, they may send an error response or error notification to the Aggregator NWDAF including a "revised waiting time".', '', '8.\tAggregator NWDAF (e.g. NWDAF1) aggregates received Analytics information, i.e. generates a single output analytics based on the multiple analytics outputs and, optionally, the "analytics metadata information" received from the determined NWDAFs (e.g. NWDAF2 and NWDAF3).', '', '\tThe Aggregator NWDAF (e.g. NWDAF1) may also take its own analytics for TAI-n into account for the analytics aggregation.', '', '9a-b.\tAggregator NWDAF (e.g. NWDAF1) sends a response or notifies to the NWDAF service consumer the aggregated output analytics for the requested Analytics ID.', '', '\tIf the Aggregator NWDAF (e.g. NWDAF 1) cannot reply or notify with the requested output analytics before the expiry of T1 or anticipates that it cannot reply or notify with the requested output analytics before the expiry of T1 (e.g. due to error notification in step\xa06-7a-b), it may send an error response or error notification to the NWDAF service consumer including a "revised waiting time". The NWDAF service consumer may optionally use the "revised waiting time" to update the "time when analytics information is needed" parameter (i.e. T1) for future analytics requests/subscriptions to the same Aggregator NWDAF as defined in clause\xa06.2.5.2.', '']</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.1939919353111021</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.1A.3.2	Procedure for Analytics Aggregation without Provision of Area of Interest&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>23288-i20.docx</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>LR3_configuration</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>['', 'The procedure depicted in Figure\xa06.1A.3.2-1 is used to address cases where an NWDAF service consumer requests Analytics ID(s) without providing an Area of Interest, but requires multiple NWDAFs to collectively serve the request.', '', '----media/image23.emf----', '', 'Figure 6.1A.3.2-1: Procedure for analytics aggregation without provision of Area of Interest', '', '1.\tThis step is a NWDAF discovery procedure without providing any area of interest. The service consumer discovers an aggregation NWDAF (e.g. NWDAF1) as specified in clause\xa05.2. When NRF is used, NRF may return multiple NWDAF candidates matching the requested capabilities and supported Analytics ID(s).', '', '\tDepending on the requested Analytics ID, the NWDAF service consumer, e.g. based on internal logic, can be able to determine which NWDAF should be selected for providing the required data analytics. If not, the NWDAF service consumer should select a NWDAF with large serving area from the candidate NWDAFs which supports analytics aggregation, e.g. NWDAF1.', '', '2.\tNWDAF service consumer sends Analytics information or analytics subscription request to the aggregator NWDAF, i.e. NWDAF1 in the Figure\xa06.1A.3.2-1. In the request, NWDAF service consumer provides the requested Analytics ID(s), e.g. Analytics ID 1.', '', '\tThe NWDAF service consumer may also provide "time when analytics information is needed" (e.g. T1). It is expected that T1 is equal or greater than the Supported Analytics Delay per Analytics ID of the Aggregator NWDAF (if available). Otherwise, the aggregator NWDAF may reject the analytics request or analytics subscription.', '', '\tOnce receiving the request, the Aggregator NWDAF1 may decide to subscribe data analytics from other NWDAF instances which can provide the requested data analytics. Based on the Analytics ID, there are two cases for the Aggregator NWDAF1 to subscribe data analytics from other NWDAF instances.', '', '3a.\tIf the data analytics requires UE location information, e.g. for the Analytics IDs "UE Mobility", "Abnormal behaviour", or "User Data Congestion", then:', '', '-\t3a-1: (optional) The Aggregator NWDAF1 queries UDM to discover the NWDAF serving the UE, if it is supported.', '', '-\t3a-2: If step\xa03a-1 is not supported, was not executed, or did not return a suitable NWDAF serving the UE, the Aggregator NWDAF1 determines the AMF serving the UE as specified in the clause\xa06.2.2.1, then requests UE location information from the AMF to be used in the query to NRF in step\xa04.', '', 'NOTE:\tIf an Aggregator NWDAF receives an Analytics request for a group of UEs, i.e. the Target of Analytics Reporting set to an Internal Group ID, it performs NWDAF discovery based on location information of all UEs in the group and then requests all discovered NWDAFs to provide the required analytics.', '', '3b.\tIf the data analytics does not require to collect UE location information, e.g. for the Analytics IDs "Service Experience", "NF load information", or "UE Communication", the Aggregator NWDAF1 can determine the NFs to be contacted for data collection as specified in clause\xa06.2.2.1 and then it can retrieve NF service area for each of the data source NF from NRF.', '', '4.\t(conditional) With the data obtained in step\xa03, the Aggregator NWDAF1 queries the NRF for discovering the required NWDAF, by sending an NF discovery request including UE location (e.g. TAI-1) or NF serving area (e.g. TAI list-1) as a filter to NRF and obtains candidates target NWDAF(s) that can provide the required analytics. This step is skipped if a suitable NWDAF was discovered in step\xa03a-1. Additionally the Aggregator NWDAF1 may include in the NF discovery request the Real-Time Communication Indication per Analytics ID to request Supported Delay per Analytics ID per NWDAF instance.', '', '\tDepending on the discovered NWDAF instance(s), there can be two cases:', '', '5a.\tIf a single target NWDAF (e.g. NWDAF2) can provide the requested analytics data, the Aggregator NWDAF (e.g. NWDAF1) can redirect the Nnwdaf_AnalyticsInfo_Request to that target NWDAF or request an analytics subscription transfer to that target NWDAF, depending on the type of the analytics request/subscription received by the NWDAF Service Consumer.', '', '5b.\tIf the Aggregator NWDAF decides to request data analytics from one or more target NWDAFs, the steps 4-9 of the analytics aggregation procedure in clause\xa06.1A.3.1 are executed.', '']</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.1999750702057055</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2.1.2	Input for PCC decisions&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>['', 'The PCF shall accept input for PCC decision-making from the SMF, the AMF, the CHF, the NWDAF if present, the UDR and if the AF is involved, from the AF, as well as the PCF may use its own predefined information. These different nodes should provide as much information as possible to the PCF. At the same time, the listed information below describes only examples of the information provided by the respective node and is not intended to be complete. Depending on the particular scenario all the information may not be available or is already provided to the PCF.', '', 'The AMF may provide information related to the UE as defined in clauses 5.2.5.2 and 5.2.5.6 of TS\xa023.502\xa0[3], for example:', '', '-\tSUPI;', '', '-\tPEI of the UE;', '', '-\tLocation of the subscriber;', '', '-\tService Area Restrictions;', '', '-\tRFSP Index;', '', '-\tRAT Type;', '', '-\tGPSI;', '', '-\tAccess Type;', '', '-\tServing Network identifier (PLMN ID or PLMN ID and NID, see clause\xa05.34 of TS\xa023.501\xa0[2]);', '', '-\tAllowed NSSAI;', '', '-\tUE time zone;', '', '-\tSubscribed UE-AMBR;', '', '-\tConfigured NSSAI for the serving PLMN;', '', '-\tMapping Of Allowed NSSAI;', '', '-\tS-NSSAI for the PDU Session;', '', '-\tSatellite backhaul category information;', '', '-\tRequested DNN.', '', 'NOTE\xa01:\tThe Access Type and RAT Type parameters should allow extension to include new types of accesses.', '', 'The UE may provide information such as:', '', '-\tOSId;', '', '-\tList of PSIs;', '', '-\tIndication of UE support for ANDSP.', '', '-\tIndication of URSP Provisioning Support in EPS.', '', '-\tIndication of UE capability of support to report URSP rule enforcement to network (see clause\xa06.6.2.4).', '', 'The SMF may provide information related to the PDU Session as defined in clause\xa05.2.5.4 of TS\xa023.502\xa0[3], for example:', '', '-\tSUPI;', '', '-\tPEI of the UE;', '', '-\tIPv4 address of the UE;', '', '-\tIPv6 network prefix assigned to the UE;', '', '-\tDefault 5QI and default ARP;', '', '-\tRequest type (initial, modification, etc.);', '', '-\tType of PDU Session (IPv4, IPv6, IPv4v6, Ethernet, Unstructured);', '', '-\tAccess Type;', '', '-\tRAT Type;', '', '-\tGPSI;', '', '-\tInternal-Group Identifier;', '', '-\tLocation of the subscriber;', '', '-\tS-NSSAI;', '', '-\tDNN;', '', '-\tServing Network identifier (PLMN ID or PLMN ID and NID, see clause\xa05.34 of TS\xa023.501\xa0[2]);', '', '-\tApplication Identifier;', '', '-\tAllocated application instance identifier;', '', '-\tDetected service data flow descriptions;', '', '-\tUE support of reflective QoS (as defined in clause\xa05.7.5.1 of TS\xa023.501\xa0[2]);', '', '-\tNumber of supported packet filters for signalled QoS rules for the PDU Session (indicated by the UE as defined in clause\xa05.7.1.4 of TS\xa023.501\xa0[2]);', '', '-\t3GPP PS Data Off status;', '', '-\tDN Authorization Profile Index (see clause\xa05.6.6 of TS\xa023.501\xa0[2]);', '', '-\tDN authorized Session AMBR (see clause\xa05.6.6 of TS\xa023.501\xa0[2]);', '', '-\tSatellite backhaul category information;', '', '-\tProvisioning Server address(es) (see clause\xa05.30 of TS\xa023.501\xa0[2]);', '', '-\tUE report of URSP rule enforcement from URSP rule associated with the PDU session (see clause\xa06.6.2.4).', '', '-\tHR-SBO support indication for requesting VPLMN Specific Offloading Policy (see clause\xa06.2.1.12 and clause\xa06.7 of TS\xa023.548\xa0[33]).', '', 'The UDR may provide the information for a subscriber connecting to a specific DNN and S-NSSAI, as described in the clause 6.2.1.3.', '', 'The UDR may provide policy information related to an ASP as defined in clause\xa05.2.12.2 of TS\xa023.502\xa0[3], for example:', '', '-\tThe ASP identifier;', '', '-\tA transfer policy together with a Background Data Transfer Reference ID, the volume of data to be transferred per UE, the expected amount of UEs;', '', '-\tAn PDTQ policy together with an PDTQ Reference ID, the requested QoS for each of the AF session for each of the UEs involved and the expected amount of UEs.', '', 'NOTE\xa02:\tThe information related with AF influence on traffic routing may be provided by UDR when the UDR serving the NEF is deployed and stores the application request.', '', 'The UDR may provide the service specific information as defined in clause\xa04.15.6.7 of TS\xa023.502\xa0[3].', '', 'The AF, if involved, may provide application session related information as defined in clause\xa05.2.5.3 of TS\xa023.502\xa0[3] directly or via NEF, e.g. based on SIP and SDP, for example:', '', '-\tSubscriber Identifier(s);', '', '-\tIP address of the UE;', '', '-\tMedia Type;', '', '-\tMedia Format, e.g. media format sub-field of the media announcement and all other parameter information (a= lines) associated with the media format;', '', '-\tBandwidth;', '', '-\tSponsored data connectivity information;', '', '-\tFlow description information, e.g. source and destination IP address and port numbers and the protocol and optionally, ToS (IPv4) or TC (IPv6) value (as described in clause\xa06.1.3.6);', '', '-\tIndication of ECN marking for L4S;', '', '-\tAF application identifier, i.e. an identifier that refers to the application the AF session belongs to, containing either an AF identifier, an external application identifier (if the NEF is involved and performs the mapping to the application identifier) or an application identifier (if the AF is configured accordingly);', '', 'NOTE\xa03:\tEither Flow description or (external) application identifier for application detection control can be provided.', '', '-\tDNN and possibly S-NSSAI;', '', '-\tAF Communication Service Identifier (e.g. IMS Communication Service Identifier), UE provided via AF;', '', '-\tAF Application Event Identifier;', '', '-\tAF Record Information;', '', '-\tFlow status (for gating decision);', '', '-\tPriority indicator, which may be used by the PCF to guarantee service for an application session of a higher relative priority;', '', 'NOTE\xa04:\tThe AF Priority information represents session/application priority and is separate from the MPS 5GS Priority indicator.', '', '-\tEmergency indicator;', '', '-\tApplication service provider;', '', '-\tDNAI;', '', '-\tInformation about the N6 traffic routing requirements;', '', '-\tGPSI;', '', '-\tInternal-Group Identifier;', '', '-\tTemporal validity condition;', '', '-\tSpatial validity condition;', '', '-\tAF subscription for early and/or late notifications about UP management events;', '', '-\tAF transaction identifier;', '', '-\tTSC individual QoS information as described in clause\xa06.1.3.22;', '', '-\tQoS information to be monitored;', '', 'NOTE\xa05:\tThe information related with QoS monitoring may be provided by UDR when the UDR serving the NEF is deployed and stores the application request.', '', '-\tService area coverage;', '', '-\tIndication that high throughput is desired;', '', '-\tReporting frequency;', '', '-\tUser Plane Latency Requirement.', '', 'The AF may provide BDT related information as defined in clause\xa05.2.5.5 of TS\xa023.502\xa0[3] via NEF, for example:', '', '-\tBackground Data Transfer Reference ID;', '', '-\tBDT Policy;', '', '-\tVolume per UE;', '', '-\tNumber of UEs;', '', '-\tDesired time window;', '', '-\tNetwork Area Information.', '', 'The CHF, if involved, may provide the following information for a subscriber as defined in clause\xa05.2.5.17 of TS\xa023.502\xa0[3], for example:', '', '-\tPolicy counter status for each relevant policy counter.', '', 'The NWDAF, if involved, may provide analytics information as described in clause\xa06.1.1.3.', '', 'In addition, the predefined information in the PCF may contain additional rules based on charging policies in the network, whether the subscriber is in its home network or roaming, depending on the QoS Flow attributes.', '', 'The 5QIs (see clause\xa05.7.4 of TS\xa023.501\xa0[2]) in the PCC rule is derived by the PCF from AF or UDR interaction if available. The input can be SDP information or other available application information, in line with operator policy.', '', 'The Allocation and Retention Priority in the PCC Rule is derived by the PCF from AF or UDR interaction if available, in line with operator policy.', '']</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>0.1989864106744242</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2.2.4	QoS control&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>23503-i20.docx</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>['', 'The SMF receives the authorized QoS for a service data flow in the PCC rule. The SMF derives the QoS parameters for a QoS Flow (other than the QoS Flow associated with the default QoS rule) based on the PCC rule information of the PCC rule(s) bound to this QoS Flow:', '', '-\tThe SMF shall set the QoS Flow parameters 5QI and ARP to the values of the corresponding PCC rule parameters.', '', '-\tFor the QoS Flow parameters QNC, Priority Level, Averaging Window and Maximum Data Burst Volume, the SMF shall use the corresponding PCC rule parameters if they are available in the PCC rule.', '', '-\tThe SMF shall set the PDU Set Delay Budget, the PDU Set Error Rate and the PDU Set Integrated Handling Information for QoS Flow based on the corresponding parameter in the PDU Set Control Information if available in the PCC rule.', '', '-\tFor GBR QoS Flows, the SMF should set the GFBR to the sum of the GBRs of all PCC rules that are active and bound to that QoS Flow and the MFBR to the sum of the MBRs of all PCC rules that are active and bound to that GBR QoS Flow. If a set of PCC Rules is subject to resource sharing as specified in clause\xa06.1.3.13 the SMF should use, for each applicable direction, the highest GBR from the set of PCC Rules sharing resources as input for calculating the GFBR and may use, for each applicable direction, the highest MBR from the set of PCC Rules as input for calculating the MFBR.', '', '-\tFor GBR QoS Flows, the SMF shall set the QoS Flow parameter Maximum Packet Loss Rate for UL and DL if the corresponding PCC rule parameters are available in the PCC rule. In the case multiple PCC Rules are bound to the QoS Flow and the SMF received multiple Maximum Packet Loss Rates, the SMF chooses the lowest value per direction in all these PCC rules.', '', '-\tIf the PCC rule contains a non-standardized 5QI, the SMF shall also provide the corresponding 5G QoS characteristics parameters (as received in the PDU Session related information Explicitly signalled QoS Characteristics) for the QoS Flow.', '', '-\tIf the PCC rule contains Alternative QoS Parameter Sets, the SMF shall provide their attributes as Alternative QoS Profile(s) (see clause\xa05.7.1.2a of TS\xa023.501\xa0[2]) in the same prioritized order (in which they occur in the PCC rule) in addition to the QoS parameters for the QoS Flow.', '', 'The SMF shall set the QoS parameters of the QoS Flow associated with the default QoS rule to:', '', '-\tthe PCC rule parameters contained in the PCC rule that is bound to this QoS Flow (in the way it is described above) if the PCC rule attribute Bind to QoS Flow associated with the default QoS rule and apply PCC rule parameters is present; or otherwise', '', '-\tthe Authorized default 5QI/ARP received in the PDU Session related information. If the Authorized default 5QI contains a non-standardized 5QI, the SMF shall also provide the corresponding 5G QoS characteristics parameters (as received in the PDU Session related information Explicitly signalled QoS Characteristics) for the QoS Flow associated with the default QoS rule.', '', 'The SMF receives the Authorized Session-AMBR in the PDU Session related information. The SMF ensures that the Authorized Session-AMBR for a PDU Session is enforced for bandwidth policing at the UPF(s) as described in clause\xa05.7.1 of TS\xa023.501\xa0[2].', '', 'The SMF generates QoS rule(s) as described in TS\xa023.501\xa0[2]. For a PDU Session of unstructured type, only one PCC Rule allowing all packets is to be activated in the SMF and only the QoS Flow associated with the default QoS rule exists as described in clause\xa05.7.1 of TS\xa023.501\xa0[2].', '']</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.1987689499483276</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2.6.2	NF profile&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>['', 'NF profile of NF instance maintained in an NRF includes the following information:', '', '-\tNF instance ID.', '', '-\tNF type.', '', '-\tPLMN ID in the case of PLMN, PLMN ID + NID in the case of SNPN.', '', '-\tNetwork Slice related Identifier(s) e.g. S-NSSAI, NSI ID.', '', '-\tFQDN or IP address of NF.', '', '-\tNF capacity information.', '', '-\tNF priority information.', '', 'NOTE\xa01:\tThis parameter is used for AMF selection, if applicable, as specified in clause\xa06.3.5. See clause\xa06.1.6.2.2 of TS\xa029.510\xa0[58] for its detailed use.', '', '-\tNF Set ID.', '', '-\tNF Service Set ID of the NF service instance.', '', '-\tNF Specific Service authorization information.', '', '-\tif applicable, Names of supported services.', '', '-\tEndpoint Address(es) of instance(s) of each supported service.', '', '-\tIdentification of stored data/information.', '', 'NOTE\xa02:\tThis is only applicable for a UDR profile. See applicable input parameters for Nnrf_NFManagement_NFRegister service operation in clause\xa05.2.7.2.2 of TS\xa023.502\xa0[3]. This information applicability to other NF profiles is implementation specific.', '', '-\tOther service parameter, e.g. DNN or DNN list, notification endpoint for each type of notification that the NF service is interested in receiving.', '', '-\tLocation information for the NF instance.', '', 'NOTE\xa03:\tThis information is operator specific. Examples of such information can be geographical location, data centre.', '', '-\tTAI(s).', '', '-\tNF load information.', '', '-\tRouting Indicator, Home Network Public Key identifier, for UDM and AUSF.', '', '-\tFor UDM, AUSF and NSSAAF in the case of access to an SNPN using credentials owned by a Credentials Holder with AAA Server, identification of Credentials Holder (i.e. the realm of the Network Specific Identifier based SUPI).', '', '-\tFor UDM and AUSF, and if UDM/AUSF is used for access to an SNPN using credentials owned by a Credentials Holder, identification of Credentials Holder (i.e. the realm if Network Specific Identifier based SUPI is used or the MCC and MNC if IMSI based SUPI is used); see clause\xa05.30.2.1.', '', '-\tFor AUSF and NSSAAF in the case of SNPN Onboarding using a DCS with AAA server, identification of DCS (i.e. the realm of the Network Specific Identifier based SUPI).', '', '-\tFor UDM and AUSF, and if UDM/AUSF is used as DCS in the case of SNPN Onboarding, identification of DCS (i.e. the realm if Network Specific Identifier based SUPI, or the MCC and MNC if IMSI based SUPI).', '', '-\tOne or more GUAMI(s), in the case of AMF.', '', '-\tFor the UPF, see clause\xa05.2.7.2.2 of TS\xa023.502\xa0[3].', '', '-\tUDM Group ID, range(s) of SUPIs, range(s) of GPSIs, range(s) of internal group identifiers, range(s) of external group identifiers for UDM.', '', '-\tUDR Group ID, range(s) of SUPIs, range(s) of GPSIs, range(s) of external group identifiers for UDR.', '', '-\tAUSF Group ID, range(s) of SUPIs for AUSF.', '', '-\tPCF Group ID, range(s) of SUPIs for PCF.', '', '-\tHSS Group ID, set(s) of IMPIs, set(s) of IMPU, set(s) of IMSIs, set(s) of PSIs, set(s) of MSISDN for HSS.', '', '-\tFor NWDAF: Supported Analytics ID(s), possibly per service, NWDAF Serving Area information (i.e. list of TAIs for which the NWDAF can provide services and/or data), Supported Analytics Delay per Analytics ID (if available), NF types of the NF data sources, NF Set IDs of the NF data sources, if available, Analytics aggregation capability (if available), Analytics metadata provisioning capability (if available), ML model Filter information parameters S-NSSAI(s) and Area(s) of Interest for the trained ML model(s) per Analytics ID(s) (if available), FL capability information per analytics ID including FL capability type (i.e. FL server or FL client, if available), Time interval supporting FL (if available), Accuracy checking capability (if available) and roaming exchange capability (if available).', '', "NOTE\xa04:\tThe NWDAF's Serving Area information is common to all its supported Analytics IDs.", '', 'NOTE\xa05:\tThe Analytics IDs supported by the NWDAF may be associated with a Supported Analytics Delay i.e. the Analytics report can be generated with a time (including data collection delay and inference delay) in less than or equal to the Supported Analytics Delay.', '', 'NOTE\xa06:\tThe determination of Supported Analytics Delay, and how the NWDAF avoid updating its Supported Analytics Delay in NRF frequently is NWDAF implementation specific.', '', '-\tEvent ID(s) supported by AFs, in the case of NEF.', '', '-\tEvent Exposure service supported event ID(s) by UPF.', '', '-\tApplication Identifier(s) supported by AFs, in the case of NEF.', '', '-\tRange(s) of External Identifiers, or range(s) of External Group Identifiers, or the domain names served by the NEF, in the case of NEF.', '', 'NOTE\xa07:\tThis is applicable when NEF exposes AF information for analytics purpose as detailed in TS\xa023.288\xa0[86].', '', 'NOTE\xa08:\tIt is expected service authorization information is usually provided by OA&amp;amp;M system, and it can also be included in the NF profile in the case that e.g. an NF instance has an exceptional service authorization information.', '', 'NOTE\xa09:\tThe NRF may store a mapping between UDM Group ID and SUPI(s), UDR Group ID and SUPI(s), AUSF Group ID and SUPI(s) and PCF Group ID and SUPI(s), to enable discovery of UDM, UDR, AUSF and PCF using SUPI, SUPI ranges as specified in clause\xa06.3 or interact with UDR to resolve the UDM Group ID/UDR Group ID/AUSF Group ID/PCF Group ID based on UE identity, e.g. SUPI (see clause\xa06.3.1 for details).', '', '-\tIP domain list as described in clause\xa06.1.6.2.21 of TS\xa029.510\xa0[58], Range(s) of (UE) IPv4 addresses or Range(s) of (UE) IPv6 prefixes, Range(s) of SUPIs or Range(s) of GPSIs or a BSF Group ID, in the case of BSF.', '', '-\tSCP Domain the NF belongs to.', '', '-\tDCCF Serving Area information, NF types of the data sources, NF Set IDs of the data sources, if available, in the case of DCCF.', '', '-\tSupported DNAI list, in the case of SMF.', '', '-\tFor SNPN, capability to support SNPN Onboarding in the case of AMF and capability to support User Plane Remote Provisioning in the case of SMF.', '', '-\tIP address range, DNAI for UPF.', '', '-\tAdditional V2X related NF profile parameters are defined in TS\xa023.287\xa0[121].', '', '-\tAdditional ProSe related NF profile parameters are defined in TS\xa023.304\xa0[128].', '', '-\tAdditional MBS related NF profile parameters are defined in TS\xa023.247\xa0[129].', '', '-\tAdditional UAS related NF profile parameters are defined in TS\xa023.256\xa0[136].', '', '-\tAdditional Ranging based services and Sidelink Positioning related NF profile parameters are defined in TS\xa023.586\xa0[180].', '']</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.2003948120588339</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.2C.2.2	General procedure for Federated Learning among Multiple NWDAF Instances&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>23288-i20.docx</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>['', '----media/image61.emf----', '', 'Figure 6.2C.2.2-1: General procedure for Federated Learning among Multiple NWDAF', '', '0.\tThe consumer (NWDAF containing AnLF or NWDAF containing MTLF) sends a subscription request to FL server NWDAF to retrieve an ML model, using Nnwdaf_MLModelProvision service as defined in clause\xa07.5 including Analytics ID, ML model metric (e.g., ML model Accuracy), Accuracy reporting interval, pre-determined status (ML model Accuracy threshold or Time when the ML model is needed).', '', 'NOTE\xa01:\tThe ML model Accuracy threshold can be used to indicate the target ML Model Accuracy of the training process, and the FL server NWDAF may stop the training process when the ML model Accuracy threshold is achieved during the training process.', '', '\tIf the consumer (i.e. the NWDAF containing AnLF or NWDAF containing MTLF) provides the Time when the ML model is needed, the FL Server NWDAF can take this information into account to decide the maximum response time for its FL Client NWDAF(s).', '', '1.\tFL Server NWDAF selects NWDAF(s) containing MTLF (FL Client NWDAF(s)) as described in clause\xa06.2C.2.1.', '', '2.\tFL Server NWDAF sends a Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request to the selected NWDAF containing MTLF(FL Client NWDAF) that participates in the Federated learning to perform the local model training and determine the interim local ML model information based on the input parameter in the request from FL Server NWDAF, including ML model metric and initial ML model. The request also includes the maximum response time before which the FL Client NWDAF has to report the interim local ML model information to the FL Server NWDAF.', '', '3.\t[Optional] Each FL Client NWDAF collects its local data by using the current mechanism in clause\xa06.2 of TS\xa023.288\xa0[5] if the Client NWDAF has not local data available already.', '', '4.\tDuring Federated Learning training procedure, each FL Client NWDAF further trains the ML model provided by the FL Server NWDAF based on its own data, and reports the interim local ML model information to the FL Server NWDAF in Nnwdaf_MLModelTraining_Notify or Nnwdaf_MLModelTrainingInfo_Response. The Nnwdaf_MLModelTraining_Notify or Nnwdaf_MLModelTrainingInfo_Response may also include the local ML model metric computed by the FL Client NWDAF and Training Input Data Information (e.g. areas covered by the data set, sampling ratio, maximum/minimum of value of each dimension of data, etc.) in the FL Client NWDAF.', '', 'NOTE\xa02:\tThe parameters in characteristics of local training dataset are up to the implementation.', '', '\tThe ML model, which is sent from the FL Client NWDAF(s) to the FL Server NWDAF during the FL training process, is the information needed by the FL Server NWDAF to build the aggregated model based on the locally trained ML model(s).', '', '\tIf the FL Client NWDAF is not able to complete the training of the interim local ML model within the maximum response time provided by the FL Server NWDAF, the FL Client NWDAF shall send the Delay Event Notification that include the delay event indication, an optional cause code (e.g. local ML model training failure, more time necessary for local ML model training) and the expected time to complete the training if available to the FL Server NWDAF before the maximum response time elapses.', '', '4a.\t[Optional]If FL Server NWDAF receives notification/response that the FL Client NWDAF is not able to complete the training within the maximum response time, the FL Server NWDAF may send to the FL Client NWDAF an extended maximum response time in Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request, before which the FL Client NWDAF has to report the interim local ML model information to the FL Server NWDAF. Otherwise, the FL Server NWDAF may indicate FL Client NWDAF to skip reporting for this iteration. FL Server NWDAF includes the current iteration round ID in the message to indicate that the request is to modify the training parameters of the current iteration round.', '', '\tAlternatively, the FL Server NWDAF may inform the FL Client NWDAF to cease the ML model training by sending termination request and to report back the current local ML model updates.', '', '5.\tThe FL Server NWDAF aggregates all the local ML model information retrieved at step\xa04, to update the global ML model. The FL Server NWDAF may also compute the global ML model metric, e.g. based on the local ML model metric(s) or by applying the global model on the validation dataset (if available). The FL Server NWDAF may update the global ML model each time a FL Client NWDAF provides updated local ML model information as part of FL or the FL Server NWDAF may decide to wait for local ML model information from all FL Client NWDAF before updating the global ML model.', '', '\tIf the FL Server NWDAF provides the maximum response time for the FL Client NWDAF(s) to provide the interim local ML model information in step\xa02, or the extended maximum response time in step\xa04a, the FL Server NWDAF decides either to wait for the FL Client NWDAF(s) which have not yet provided their interim local ML model within the (extended) maximum response time or aggregates only the retrieved local ML model information instances to update global ML model. The FL Server NWDAF makes this decision, considering the notification/response from the FL Client NWDAF or, if the notification is not received, based on local configuration.', '', '6a.\t[Optional] Based on the consumer request in step\xa00, the FL Server NWDAF sends a Nnwdaf_MLModelProvision_Notify message to update the global ML model metric to the consumer periodically (e.g. a certain number of training rounds or every 10 min) or dynamically when some pre-determined status is achieved (e.g. the ML Model Accuracy threshold is achieved or training time expires).', '', '6b.\t[Optional] The consumer decides whether the current model can fulfil the requirement, e.g. global ML model metric is satisfactory for the consumer and determines to stop or continue the training process. The consumer re-invokes Nnwdaf_MLModelProvision_Subscribe service operation as used in step\xa00 to stop or continue the training process.', '', '6c.\t[Optional] Based on the subscription request sent from the consumer in step\xa06b, the FL Server NWDAF updates or terminates the current FL training process.', '', '\tIf the FL Server NWDAF received a request in step\xa06b to stop the Federated Training process, steps 7 and 8 are skipped.', '', '7.\tIf the FL procedure continues, FL Server NWDAF determines FL Client NWDAF as described in clause\xa06.2C.2.2 and sends Nnwdaf_MLModelTraining_Subscribe or Nnwdaf_MLModelTrainingInfo_Request that includes the aggregated ML model information to selected FL Client NWDAF(s) for next round of Federated Training.', '', '8.\tEach FL Client NWDAF updates its own ML model based on the aggregated ML model information distributed by the FL Server NWDAF at step\xa07.', '', 'NOTE\xa03:\tThe steps 3-8 should be repeated until the training termination condition (e.g. maximum number of iterations, or the result of loss function is lower than a threshold) is reached.', '', 'When the Federated Training procedure is complete, the FL Server NWDAF requests the FL client NWDAF(s) to terminate the FL procedure by invoking Nnwdaf_MLModelTraining_Unsubscribe service with a cause code that the FL process has finished and optionally with the final aggregated ML model information. Then the FL client NWDAF(s) terminate the local model training, and if the final aggregated ML model information is received from the FL server NWDAF, the FL client NWDAF(s) can store it for further use.', '', 'After the training process is complete, the FL Server NWDAF may send Nnwdaf_MLModelProvision_Notify that includes the globally optimal ML model information to the consumer.', '']</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.1970223863786419</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.3.3.3	Selection of an UPF for a particular PDU Session&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>23501-i22.docx</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>['', 'If there is an existing PDU Session, and the SMF receives another PDU Session request to the same DNN and S-NSSAI, and if the SMF determines that interworking with EPC is supported for this PDU Session as specified in clause\xa04.11.5 of TS\xa023.502\xa0[3], the SMF should select the same UPF, otherwise, if the SMF determines that interworking with EPC is not supported for the new PDU Session, a different UPF may be selected.', '', 'For the same DNN and S-NSSAI if different UPF are selected at 5GC, when the UE is moved to EPC network, there is no requirement to enforce APN-AMBR. Whether and how to apply APN-AMBR for the PDN Connection associated with this DNN/APN is implementation dependent, e.g. possibly only AMBR enforcement per PDU Session applies.', '', 'The following parameter(s) and information may be considered by the SMF for UPF selection and re-selection:', '', "-\tUPF's dynamic load.", '', '-\tAnalytics (i.e. statistics or predictions) for UPF load, Service Experience analytics and/or DN Performance analytics per UP path (including UPF and/or DNAI and/or AS instance) and UE related analytics (UE mobility, UE communication, and expected UE behavioural parameters) as received from NWDAF (see TS\xa023.288\xa0[86]), if NWDAF is deployed.', '', "-\tUPF's relative static capacity among UPFs supporting the same DNN.", '', '-\tUPF location available at the SMF.', '', '-\tUE location information.', '', '-\tCapability of the UPF and the functionality required for the particular UE session: An appropriate UPF can be selected by matching the functionality and features required for an UE.', '', '-\tData Network Name (DNN).', '', '-\tPDU Session Type (i.e. IPv4, IPv6, IPv4v6, Ethernet Type or Unstructured Type) and if applicable, the static IP address/prefix.', '', '-\tSSC mode selected for the PDU Session.', '', '-\tUE subscription profile in UDM.', '', '-\tDNAI as included in the PCC Rules and described in clause\xa05.6.7.', '', '-\tLocal operator policies.', '', '-\tS-NSSAI.', '', '-\tAccess technology being used by the UE.', '', '-\tInformation related to user plane topology and user plane terminations, that may be deduced from:', '', '-\t5G-AN-provided identities (e.g. CellID, TAI), available UPF(s) and DNAI(s);', '', '-\tIdentifiers (i.e. a FQDN and/or IP address(es)) of N3 terminations provided by a W-AGF or a TNGF or a TWIF;', '', '-\tInformation regarding the user plane interfaces of UPF(s). This information may be acquired by the SMF using N4;', '', '-\tInformation regarding the N3 User Plane termination(s) of the AN serving the UE. This may be deduced from 5G-AN-provided identities (e.g. CellID, TAI);', '', '-\tInformation regarding the N9 User Plane termination(s) of UPF(s) if needed;', '', '-\tInformation regarding the User plane termination(s) corresponding to DNAI(s).', '', '-\tRSN, support for redundant GTP-U path or support for redundant transport path in the transport layer (as in clause\xa05.33.2) when redundant UP handling is applicable.', '', '-\tInformation regarding the ATSSS Steering Capability of the UE session (e.g. any combination of ATSSS-LL capability, MPTCP capability, MPQUIC capability) and information on the UPF support of RTT measurements without PMF.', '', '-\tSupport for UPF allocation of IP address/prefix.', '', '-\tSupport of the IPUPS functionality, specified in clause\xa05.8.2.14.', '', '-\tSupport for High latency communication (see clause\xa05.31.8).', '', '-\tSupport for ECN marking for L4S, specified in clause\xa05.37.3.', '', '-\tUser Plane Latency Requirements within AF request (see clause\xa05.6.7.1 and clause\xa06.3.6 of TS\xa023.548\xa0[130]).', '', '-\tList of supported Event ID(s) for exposure of UPF-related information via service based interface (see clause\xa07.2.29 and clause\xa05.2.26.2 of TS\xa023.502\xa0[3]).', '', 'NOTE\xa01:\tHow the SMF determines information about the user plane network topology from information listed above, and what information is considered by the SMF, is based on operator configuration.', '', 'NOTE\xa02:\tIn this release the SMF uses no additional parameters for UPF selection for a PDU Session serving TSC or Deterministic Networking. If a PDU Session needs to connect to a specific UPF hosting a specific TSN 5GS bridge or 5GS router, this can be achieved e.g. by using a dedicated DNN/S-NSSAI combination.', '', 'A W-AGF or a TNGF may provide Identifiers of its N3 terminations when forwarding over N2 uplink NAS signalling to the 5GC. The AMF may relay this information to the SMF, as part of session management signalling for a new PDU Session.', '']</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.1924951708120564</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.4.2.1	Usage of Nupf_EventExposure to Report QoS Monitoring results&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>23548-i20.docx</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>['', 'The UPF may be instructed to report information about a PDU Session directly i.e. bypassing the SMF and the PCF. This reporting may target an Edge Application Server (EAS) or a local AF that itself interfaces the EAS.', '', 'Local NEF deployed at the edge may be used to support network exposure with low latency to local AF. The local NEF may support one or more of the functionalities described in clause\xa06.2.5.0 of TS\xa023.501\xa0[2]. and may support a subset of the APIs specified for capability exposure based on local policy. In order to support the network exposure locally, the local NEF shall support Nnef_AFSessionWithQoS service operation for the local AF. The local NEF selection by AF is described in clauses 6.2.5.0 and 6.3.14 of TS\xa023.501\xa0[2].', '', 'The local AF subscribes the direct notification of QoS Monitoring results from the PCF via a local NEF or NEF. If the NEF detects that it is not the most suitable NEF instance to serve the local AF request, it may redirect the AF to a local NEF instance.', '', 'NOTE\xa01:\tIf the notifications need to go via the local NEF, then the local NEF needs to be involved in order to be able to map these notifications to the URI where the AF expects to receive them.', '', 'The local AF may also use the Npcf_PolicyAuthorization_Create or Update service of the PCF directly. In this case, reporting is done directly from the UPF to the local AF.', '', "Based on the indication of direct event notification and operator's policy, the PCF includes Direct event notification method and the Target of reporting (including target local NEF address or target AF address) within the PCC rule that it provides to the SMF as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].", '', 'The SMF sends the QoS monitoring request to the RAN and N4 rules to the L-PSA UPF. If the L-PSA UPF supports such reporting, N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring. When QoS monitoring of GTP-U Path(s) is used, it is also activated if needed. This is as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]. When N4 rules indicate that the QoS flow needs direct notification of QoS Monitoring results, upon the detection of the QoS monitoring event (e.g. when threshold for the packet delay of the QoS flow is reached as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2]), the L-PSA UPF notifies the QoS Monitoring event information to the AF (directly or via Local NEF). If the L-PSA UPF supports the Nupf_EventExposure_Notify service operation, as defined in clause\xa05.2.26 of TS\xa023.502\xa0[3], the L-PSA UPF sends the Nupf_EventExposure_Notify to the Notification Target Address indicated by the Session Reporting Rule received from the SMF. The Notification Target Address may correspond to the AF or to a local NEF. When the Notification Target Address corresponds to a Local NEF, the local NEF reports the QoS Monitoring result to the AF.', '', 'During UE mobility, the SMF may trigger the L-PSA UPF relocation/reselection and then send the N4 rules to the new L-PSA UPF to indicate the QoS flow needs direct notification of QoS Monitoring. The UE mobility may also trigger AF relocation or local NEF reselection, then the local AF should update the subscription for local exposure with QoS monitoring results possibly via local NEF, towards the PCF. This updated /new subscription is then propagated via SMF (via PCC rule updates) and then to the L-PSA UPF via N4 rules.', '', 'NOTE\xa02:\tThe new local AF can subscribe direct notification of QoS Monitoring if Edge Relocation Involving AF Change happens as described in clause\xa06.3.2.', '', '----media/image25.emf----', '', 'Figure 6.4.2.1-1: Network exposure to Edge Application Server', '', '0.\tThe UE establishes a PDU Session as defined in clause\xa04.3.2.2.1 of TS\xa023.502\xa0[3] A L-PSA UPF is assigned for this PDU Session.', '', '1.\tThe AF initiates setting up an AF session with required QoS procedure as defined in clause\xa04.15.6.6 of TS\xa023.502\xa0[3].', '', '\tIn the request, the AF may subscribe to direct notification of QoS monitoring results for the service data flow to PCF possibly via Local NEF or NEF. If so, the AF shall include the corresponding QoS monitoring parameters as defined in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in TS\xa023.502\xa0[3].', '', '\tThe AF may also first initiate an AF Session with PCF and later subscribe to direct notification of QoS monitoring to PCF by invoking Npcf_PolicyAuthorization_Update service operation.', '', '\tThe local AF or NEF may discover a local NEF as specified in clause\xa06.2.5.0 of TS\xa023.501\xa0[2] and using parameters as specified in clause\xa06.3.14. Alternatively, if the NEF detects that it is not the most suitable NEF instance to serve the local AF request, the NEF may redirect the AF to a (more) local NEF. The NEF may use information on the L-PSA UPF for this determination.', '', '2.\tThe PCF makes the policy decision and initiates the PDU Session modification procedure as defined in clause\xa04.3.3.2 of TS\xa023.502\xa0[3], steps 1b, 3b, 4-8b.', '', '\tIf the direct notification of QoS monitoring results is subscribed, the PCF includes the Direct event notification method and the Target of reporting (including target local NEF or local AF address) in the PCC rule of the service data flow as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4].', '', '\tIf the SMF receives the Direct event notification form the PCF and the SMF determines that the L-PSA UPF supports such reporting, the SMF determines the QoS monitoring parameters based on the information received from the PCF and/or local configuration and provides them to the L-PSA UPF via N4 rules as described in clause\xa05.33.3.1 of TS\xa023.501\xa0[2]. Otherwise the SMF activates N4 reporting for the QoS monitoring results. The PCF may determine that the duplicated notification is required, i.e. both, direct notification to the AF (i.e. sent from UPF) and notification sent to the PCF/SMF is required and indicate it to the SMF using the Direct event notification method in the PCC rule as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4]. In this case, the SMF shall activate the N4 reporting together with the direct reporting to the local NEF/AF.', '', 'NOTE\xa02:\tThe details of the parameters for the control of the QoS monitoring as well as the PCF and SMF behaviour are described in clause\xa06.1.3.21 of TS\xa023.503\xa0[4] and in clause\xa05.33.3.1 of TS\xa023.501\xa0[2], respectively.', '', '3.\tThe L-PSA UPF obtains QoS monitoring information as defined in clause\xa05.33.3 of TS\xa023.501\xa0[2].', '', '4.\tThe L-PSA UPF sends the notification related with QoS monitoring information over Nupf_EventExposure_Notify service operation. The notification is sent to Notification Target Address that may correspond (4a) to the local AF or (4b) to the local NEF.', '', '5.\tIf Local NEF is used, it reports the real-time network information to local AF by invoking Nnef_EventExposure_Notify service operation.', '', '6.\tDue to e.g. UE mobility, the PSA relocation and/or EAS relocation may happen as described in clause\xa06.3. During the PSA and/or EAS relocation (if the event was subscribed e.g. as in step\xa01), the SMF notifies the (local) NEF or the AF with the PSA and/or EAS relocation, and the AF may trigger a new L-NEF discovery as in step\xa01. During this step, the application mechanisms may involve a new AF for this session.', '', '7.\tThe new AF may initiate a new AF session to (re-)subscribe the direct notification of QoS monitoring as described in steps 1-4.', '', '8.\tThe old AF revokes the AF session.', '', 'NOTE\xa03:\tStep\xa08 can take place before step\xa07.', '']</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.1921908780958982</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;6.9.4.2	Procedure for QoS Sustainability in a fine granularity area&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>23288-i20.docx</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>['', '----media/image83.emf----', '', 'Figure 6.9.4.2-1: Procedure for "QoS Sustainability" analytics in a fine granularity area', '', '1.\tThe NF consumer requests or subscribes to analytics information on "QoS Sustainability" provided by the NWDAF. The parameters included in the request are defined in clause\xa06.9.1 of TS\xa023.288\xa0[5]. The NF can request statistics or predictions or both.', '', '\tThe consumer provides the TAIs or Cell IDs, and/or fine granularity area (e.g. below cell via longitude/latitude range etc.) in "Location information" when requesting QoS Sustainability analytics. If the AF doesn\'t provide TAIs or Cell IDs, the NWDAF as an 5GC internal NF is expected to obtain such information, i.e. to determine which cells are related to the fine granularity area.', '', '\tThe consumer may optionally provide UE Context or Subscription information such as one or more of the following: device speed or speed range, IMEI or IMEISV or TAC range, equipment type.', '', '2a.\tIf the request is authorized, and in order to provide the requested analytics, the NWDAF decides the AMF(s) based on the TAIs/Cell IDs, and obtains the UE list in the TAs/Cells from AMF by invoking Namf_EventExposure_Subscribe service operation using event ID "Number of UEs present in a geographical area" as described in TS\xa023.502\xa0[3].', '', '2b.\tThe NWDAF invokes Namf_EventExposure_Subscribe service operation to get the update of the UE list using event ID "UE moving in or out of Area of Interest" as described in TS\xa023.502\xa0[3].', '', '3.\tThe NWDAF initiates the LCS Service Request to the GMLC to get the location and optionally the speed of UEs from UE list provided by the AMF in step\xa02.', '', '4.\tThe GMLC initiates the UE location service procedure and gets the location of the UEs.', '', '5.\tThe GMLC provides location information for each UE in the UE list to the NWDAF.', '', "6.\tFrom the list of UE locations returned by the GMLC, the NWDAF identifies the UEs located in fine granularity area by comparing the UEs' locations to the fine granularity area, provided in step\xa01.", '', '7.\tThe NWDAF invokes Namf_EventExposure_Subscribe service operation to get the serving SMF for the UE.', '', '8.\tBased on the serving SMF in step\xa07, the NWDAF invokes Nsmf_EventExposure_Subscribe service operation to get the UPF information for the UE.', '', '9.\tThe NWDAF may collect QoS information either from the UPF directly, or subscribe to the UPF via the SMF. The QoS information may include the bandwidth, packet delay for the UE and the information on the serving UPF node id.', '', '10.\tOptionally, the NWDAF may collect additional information for the UE Context or UE Subscription from the UDM such as PEI (if available). PEI may be used to retrieve, from GSMA database, additional information such as IMEI or IMEISV or TAC range, equipment type. Such additional information may be used by NWDAF to add more information to the collected measurements and filter those measurements that are applicable to the UE Device and Context Information for which analytics are requested by the service consumer.', '', '11.\tThe NWDAF verifies whether the triggering conditions are met and derives the requested analytics. The NWDAF can detect the need for notification based on comparing the requested analytics of the target 5QI against the Reporting Threshold(s) provided by the consumer in any cell over the requested Analytics target period.', '', '12.\tThe NWDAF provides the response or notification on "QoS Sustainability" to the NF consumer.', '', 'NOTE\xa01:\tNWDAF may decide to ignore some of the filters if collected measurements are not sufficient to derive meaningful analytics.', '', 'NOTE\xa02:\tIn order to reduce the amount of information collected per measurement point, the additional information from UDM may only be collected for the events of GBR unfulfillment. In this way the additional analytics filter information may only be supported for 5QI of resource type GBR and for events of GBR unfulfillment.', '']</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.1887529663679203</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.4.3.4	UE-to-UE analytics request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>23436-i00.docx</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.4.3.4-1 describes information elements for the UE-to-UE Analytics request from the ADAE server to the ADAE client.', '', 'Table 8.4.3.4-1: UE-to-UE analytics request', '', 'Information element', '', 'Status', '', 'Description', '', 'ADAE server ID', '', 'M', '', 'The identifier of the ADAE server', '', 'Analytics ID', '', 'M ', '', 'The identifier of the analytics event (Analytics ID=’UE to UE session analytics’).', '', 'List of VAL UE IDs and addresses', '', 'M ', '', 'The VAL UE(s) identifiers and IP address(es) for which the data/analytics apply', '', 'Application QoS attributes', '', 'M', '', 'The QoS attributes (latency, rate, PER,..) to be analyzed at the ADAE client.', '', 'Reporting configuration', '', 'O', '', 'The configuration of analytics reporting including the format, frequency of analytics report, data collection requirements, abstraction needed, etc', '', 'Area of Interest', '', 'O', '', 'The geographical or service area for which the subscription request applies', '', 'Time validity', '', 'O', '', 'The time validity of the request', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.2208267147771064</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.5.2.2	Request-response model&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>23558-i30.docx</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>LR3_configuration</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>['', 'Pre-conditions:', '', '1.\tThe EEC has received information (e.g. URI, IP address) related to the EES;', '', '2.\tThe EEC has received appropriate security credentials authorizing it to communicate with the EES as specified in clause\xa08.11; and', '', "3.\tThe EES is configured with ECSP's policy for EAS discovery.", '', "NOTE 1:\tDetails of ECSP's policy are out of scope.", '', '----media/image31.emf----', '', 'Figure\xa08.5.2.2-1: EAS Discovery procedure', '', "1.\tThe EEC sends an EAS discovery request to the EES. The EAS discovery request includes the requestor identifier [EECID] along with the security credentials and may include EAS discovery filters, EEC service continuity support, and may also include UE location to retrieve information about particular EAS(s) or a category of EASs, e.g. gaming applications, or Edge Applications Server(s) available in certain service areas, e.g. available on a UE's predicted or expected route. The request may include an EAS selection request indicator.", '', "2.\tUpon receiving the request from the EEC, the EES checks if the EEC is authorized to discover the requested EAS(s). The authorization check may apply to an individual EAS, a category of EASs or to the EDN, i.e. to all the EASs. If UE's location information is not already available, the EES obtains the UE location by utilizing the capabilities of the 3GPP core network as specified in clause\xa08.10.3. If EAS discovery filters are provided by the EEC, but it does not contain Application group profile, the EES identifies the EAS(s) based on the provided EAS discovery filters and the UE location. ", '', 'When the bundle EAS information is provided, then;', '', '-\tIf bundle EAS information includes EAS bundle identifier, the EES identifies all or part of the EAS(s) associated the same EAS bundle identifier.', '', '-\tIf bundle EAS information includes a list of EASIDs, the EES identifies the EASs which are all or part of the EAS bundle.', '', "If the EEC indicates that service continuity support is required, when identify the EAS, the EES shall take the indication which ACR scenarios are supported by the AC, the EEC, the EES and the EAS and which of these are preferred by the AC into consideration. The EES may select one EAS and determine whether to perform application traffic influence for this AC based on AC's service KPI or EAS’s service KPI in desired response time, when the EAS does not perform traffic influence in advance.", '', '\tWhen EAS discovery filters are not provided, then:', '', '-\tif available, the EES identifies the EAS(s) based on the UE-specific service information at the EES and the UE location;', '', '-\tEES identifies the EAS(s) by applying the ECSP policy (e.g. based only on the UE location);', '', 'When EAS discovery filters contain Application group profile, the EES checks whether information about common EAS and related Application Group ID is available or not. If the common EAS information related to the Application Group ID is:', '', '-\tnot available, then based on the policy if EES needs to select the common EAS, the EES identifies an EAS for the Application Group ID based on the provided EAS discovery filters such as KPIs, UE-specific service information or the ECSP policy. Furthermore, the EES stores the common EAS information and related Application Group ID. ', '', '-\tavailable at the EES, then the EES provides information of that EAS as result for EAS discovery. ', '', 'NOTE 2:\tThe EES may have previously determined and stored the common EAS for Application group ID, or the EES may have received the common EAS selection information for Application group ID during the common EAS announcement procedure. ', '', 'When the Central Repository is not available and the EES selects the common EAS, the selected common EAS shall be announced to other EES(s) as per procedure specified in clause 8.19.', '', 'When the Central Repository is available and common EAS information corresponding to the Application Group ID is not available, then the EES identifies one EAS for the group and interacts with the Central Repository to store the common EAS information. If common EAS information is already available corresponding to the Application Group ID in the repository, then the Central Repository returns the common EAS information to the EES.', '', 'Editor\'s Note: "It is FFS whether the EES interaction with the Central Repository (CR) occurs at EAS discovery, EAS provisioning request, or both.', '', 'NOTE 3:\tDetails of the UE-specific service information and how it is available at the EES is out of scope.', '', 'NOTE 4:\tBoth steps are evaluated prior to sending a response.', '', 'Upon receiving the request from the EEC, the EES may also collect edge load analytics from ADAES (as specified in clause 8.8.2 of TS\xa023.436\xa0[28]) or performance data from OAM to find whether the EAS(s) satisfies the Expected AC service KPIs or the Minimum required AC Service KPIs.', '', 'Upon receiving the request from the EEC, if the EEC does not indicate EAS Instantiation Triggering Suppress in the EAS Discovery request, the EES may trigger the ECSP management system to instantiate the EAS that matches with EAS discovery filter IEs (e.g. ACID) as in clause\xa08.12.', '', 'Otherwise, upon receiving the request from the EEC, if the EEC indicates EAS Instantiation Triggering Suppress in the EAS Discovery request and the EES supports such capability, the EES determines not triggering the ECSP management system to instantiate the EAS and may determine Instantiable EAS Information for EAS(s) that are instantiable but not yet instantiated and match the EAS discovery filter IEs. Instantiable EAS Information is provided in the EAS Discovery response and includes the EASID(s) and, for each EASID, the status indicating whether the EAS is instantiated or instantiable but not yet instantiated.', '', 'If the EEC provides in the EAS discovery request the EAS selection request indicator, the EES selects EAS satisfying the EAS discovery filter or based on other information (e.g. ECSP policy) as described above (if no EAS discovery filter received), and then provides the selected EAS information to the EEC in the discovered EAS list of EAS discovery response.', '', 'NOTE\xa05:\tWithout EAS selection request indication, the EES handling is as per R17 procedure.', '', '3.\tIf the processing of the request was successful, the EES sends an EAS discovery response to the EEC, which includes information about the discovered EASs and Instantiable EAS Information. For discovered EASs, this includes endpoint information. Depending on the EAS discovery filters received in the EAS discovery request, the response may include additional information regarding matched capabilities, e.g. service permissions levels, KPIs, AC locations(s) that the EASs can support, ACR scenarios supported by the EAS, etc. The EAS discovery response may contain a list of EASs and Instantiable EAS Information. This list may be based on EAS discovery filters containing a Geographical or Topological Service Area, e.g. a route, included in the EAS discovery request by the EEC. When the discovered EAS is for a certain application group, then the Application Group ID is also included in the response message. If the discovered EAS is registered to another EES, then the EES endpoint of the EES where the discovered EAS is registered is also included in the response message.', '', 'When the EES determines to trigger the EAS instantiation, then the response may indicate that the EAS instantiation is in progress so that the detailed EAS profile information will be available later. When EEC receives the EAS instantiation in progress indication, the EEC may send EAS discovery subscription request message or send EAS discovery request message later to the EES for obtaining updated EAS information.', '', 'If the EES is unable to determine the EAS information using the inputs in the EAS discovery request, UE-specific service information at the EES or the ECSP policy, the EES shall reject the EAS discovery request and respond with an appropriate failure cause.', '', 'If the EEC is not registered with the EES, and ECSP policy requires the EEC to perform EEC registration prior to EAS discovery, the EES shall include an appropriate failure cause in the EAS discovery response indicating that EEC registration is required.', '', 'If the UE location and predicted/expected UE locations, provided in the EAS discovery request, are outside the Geographical or Topological Service Area of an EAS, then the EES shall not include that EAS in the discovery response. The discovery response may include EAS(s) that cannot serve the UE at its current location if a predicted/expected UE location was provided in the EAS discovery request. ', '', 'Upon receiving the EAS discovery response, if the EEC selects an EAS which is instantiated (i.e., an EAS profile was provided), the EEC uses the endpoint information for routing of the outgoing application data traffic to EAS(s), as needed, and may provide necessary notifications to the AC(s). The EEC may use the border or overlap between EAS Geographical Service Areas for service continuity purposes. The EEC may cache the EAS information (e.g. EAS endpoint) for subsequent use and avoid the need to repeat step 1. If the Lifetime IE is included in the response, the EEC may cache the EAS information only for the duration specified by the Lifetime IE.', '', 'Upon receiving the EAS discovery response, if the EEC selects an EAS which is instantiable but not yet instantiated (i.e. an EAS profile is not provided), the EEC sends the EAS information provisioning request indicating the selected EASID as in clause 8.15.', '', 'NOTE\xa06:\tWithin the duration specified by the Lifetime IE, the cached EAS Profile can be updated (e.g. according to notifications from the EES for changes of EAS information due to EAS status change) or the cached EAS Profile can be invalidated due to new EAS information discovery (e.g. due to UE mobility). The EEC can update or invalidate the cached EAS information (e.g. on PDU Session Release or Modification Command).', '', 'NOTE\xa07:\tThe AC can cache the EAS information (e.g. EAS endpoint) for subsequent use. In the case of the cached information needing to be updated or invalidated, the mechanisms for the EEC to notify the AC is up to implementation and is not specified in the current release of the present document.', '', 'NOTE\xa08:\tThe EEC can use the EAS information provided by the discovery procedure to perform service continuity planning, for example when ultra-low latency ACR is required.', '', 'If the EAS discovery request fails, the EEC may resend the EAS discovery request, taking into account the received failure cause. If the failure cause indicated that EEC registration is required, the EEC shall perform an EEC registration before resending the EAS discovery request.', '', 'NOTE\xa09:\tAs long as a proper EAS (e.g. considering expected AC service KPIs included in EAS discovery request) is discovered and selected by the EES, EEC of a constraint UE can stop sending EAS discovery to rest candidate EES(s), and provide the selected EAS information to AC.', '']</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.2027810908517513</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.6.3.2	PIN Communication Create Request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>23542-i00.docx</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.6.3.2-1 shows the informational elements of the PIN Communication Create request sent by a PIN Element/PEMC to the PEGC to provide the PIN communication information.', '', 'Table 8.6.3.2-1: PIN Communication Create request', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Information element&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Status&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Description&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;PIN ID&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The identifier of the PIN&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Requester PINE ID/PEMC&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The identifier of the PIN Element/PEMC making the request &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Security credentials&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Security credentials resulting from a successful authorization for the PIN service.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;MAC address/IP address&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;O&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;MAC address/IP address of PINE/PEMC&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Traffic descriptors&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Identify the target traffic to/from application server or to/from PINE, e.g.: IP 5 Tuple. &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Packet filters&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The Packet Filter is used in PEGC to identify one or more packet flow(s), and the PEGC can route the traffic to the target application server/PINEs.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Request QoS&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;O&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The QoS (e.g.: packet delay or AMBR) of packet flow that requested by PINE. &lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>0.2393371302444574</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;8.6.3.4	PIN Communication Update Request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>23542-i00.docx</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>['', 'Table 8.6.3.4-1 shows the informational elements of the PIN Communication Update request sent by a PIN Element/PEMC to the PEGC to provide the updated PIN communication information.', '', 'Table 8.6.3.4-1: PIN Communication Update request', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Information element&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Status&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;&lt;b&gt;Description&lt;/b&gt;&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;PIN ID&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The identifier of the PIN&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Requester PINE ID/PEMC&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The identifier of the PIN Element/PEMC making the request &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Security credentials&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Security credentials resulting from a successful authorization for the PIN service.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;MAC address/IP address&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;O&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;MAC address/IP address of PINE/PEMC&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Traffic descriptors&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Identify the updated target traffic to/from application server or to/from PINE, e.g.: IP 5 Tuple. &lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Packet filters&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Updated packet filters that is used in PEGC to identify one or more packet flow(s), and the PEGC can route the traffic to the target application server/PINEs.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;PIN communication flow ID&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;M&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Includes the communication flow that has been successfully established by PEGC.&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;Request QoS&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;O&lt;/span&gt;', '', '&lt;span style="font-size:18pt"&gt;The updated QoS (e.g.: packet delay or AMBR) of packet flow that requested by PINE. &lt;/span&gt;', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>0.2398976886286018</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.1.1.2	Service requirement&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>['', 'The service requirement indicates the VAL application requirements pertaining to the slice(s). ', '', 'Table 9.1.1.2-1: Service requirement', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL service ID', '', 'M', '', 'The identification of the application ID related with the service requirement.', '', 'VAL service KPIs', '', 'O', '', 'KPIs including application QoS requirements (latency, error rates, throughput, jitter,..)', '', 'Network slice related identifier(s)', '', 'M', '', 'Identifier of network slice for which the request applies', '', 'Application layer Service Profile', '', 'O', '', 'The properties of network slice related requirement. If Service Profile is known by the VAL server, it can be provided to the NSCE server. The GST defined by GSMA (see clause 2.2 in [5]) and the performance requirements defined in clause 7 TS 22.261 [6] are all considered as input for it.', '', 'Area of interest', '', 'O', '', 'The geographical or service area for which the requirement applies', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>0.219093122531646</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.11.2.1	Procedure for VAL server-triggered and network-based network slice adaptation for VAL application&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.11.2.1-1 illustrates the VAL server-triggered and network-based procedure where the NSCE server supports the network slice adaptation with the underlying 3GPP system for the VAL UEs of the VAL application.', '', '----media/image27.emf----', '', 'Figure 9.11.2.1-1: Network slice adaptation for VAL application', '', '1.\tThe VAL server sends a network slice adaptation request to the NSCE server for the VAL application (and the VAL UEs within the VAL application). This request may be in the form of exact requested network slice (and optionally DNN) for all the VAL UEs of the VAL application; or indication that the VAL application needs to be remapped to a different network slice (and optionally DNN). The request optionally includes the adaptation threshold of network slice adaptation as defined in Table 9.11.3.1-1.', '', '2.\t[Optional]NSCE server collects the network slice status information, including network slice performance measurements in clause 5.1.1.1, clause 5.1.1.2, clause 5.1.1.3, in 3GPP TS 28.552 [19] and key performance indicators in clause 6.3, in 3GPP TS 28.554 [20], and network slice related E2E latency analytics report in clause 8.4.2.4.3, in 3GPP TS 28.104 [21] from network slice management functions by utilizing MnS of create MOI operation defined in clause 11.1 and MnS of streaming data reporting service or file data reporting service defined in clause 11.5 and 11.6, 3GPP TS 28.532 [7].', '', '3.\tThe NSCE server processes the request and triggers the network slice configuration per VAL UE within the VAL Application. If network slice status from step 2 is considered, the NSCE server analyses the network slice status information before triggering the network slice configuration. If the threshold is crossed for the current network slice of adaptation and the objective network slice satisfy the requests, NSCE server triggers the network slice configuration per VAL UE within the VAL Application.', '', '4.\tThe NSCE server acting as AF provides the updated S-NSSAI and DNN per VAL UE. In particular, NSCE server sends this information to the PCF via NEF as part of the AF-driven guidance for URSP determination to 5G system (as specified in 3GPP TS 23.502 [12] clause 4.15.6.10, 3GPP TS 23.503 [17] clause 6.6.2.2, 3GPP TS 23.548 [18] clause 6.2.4). This guidance may update the route selection parameters to indicate different sets of PDU Session information (DNN, S-NSSAI) that can be associated with applications matching the application traffic.', '', 'NOTE:\tNSCE server provides the updated S-NSSAI/DNN as a suggestion/guidance to PCF; however it is up to PCF to decide whether to perform the slice/DNN re-mapping ', '', '5.\tUpon successful adaptation of the route selection parameters, the NSCE server provides a network slice adaptation response to the VAL server, providing information on the fulfilment of the network slice adaptation request per VAL application.', '']</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>0.1952401814907447</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.11.3.1	Network slice adaptation request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.11.3.1-1 describes the information flow network slice adaptation request from the VAL server to the NSCE server.', '', 'Table 9.11.3.1-1: Network slice adaptation request', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL service ID', '', 'M', '', 'The VAL service ID of the VAL application for which the network slice adaptation may corresponds to.', '', 'List of VAL UE IDs', '', 'M', '', 'List of the VAL UE IDs within the VAL service for which the slice adaptation request corresponds', '', 'Requested Network slice related identifier(s)', '', 'O', '', 'Identifier of network slice for which the VAL server requests to use for adaptation', '', 'Requested monitored Network slice related identifier(s)', '', 'O', '', '(see NOTE 1)', '', 'Identifier of the provisioned network slice(s) which are provisioned for the listed UE(s) and requested to be monitored by NSCE server', '', 'Requested DNN ', '', 'O', '', 'Indication of the new DNN which is requested.', '', 'Requested Adaptation threshold ', '', 'O', '', '(see\xa0NOTE 2)', '', 'The threshold of network slice adaptation', '', '&amp;gt;Requested adaptation threshold of the delay of network slice', '', 'O', '', 'The network slice delay defined clause 5.1.1.1, 5.1.1.2, 5.1.1.3, in 3GPP\xa0TS\xa028.552\xa0[19] and key performance indicators in clause 6.3, in TS 28.554 [20], and network slice related analytics report in clause 8.4.2.4.3, in 3GPP\xa0TS\xa028.104\xa0[21]. ', '', 'NOTE\xa01:\tIf this IE is not present then the NSCE server monitors all the slices provisioned for the listed UE(s) mentioned in this request. If this IE is present, the NSCE server monitors the network slice(s) only indicated by the identifier(s).', '', 'NOTE\xa02:\tThe NSCE is requested to adapt UE to the requested network slice only when the status of the provisioned network slice for the listed UE(s) crosses the requested threshold.', '', ' ', '']</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>0.2109007628327128</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.12.3.2	Slice related communication service creation &lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.12.3.2-1 and Table 9.12.3.2-2 describe information elements for slice related communication service creation request and response between the VAL server and the NSCE server.', '', 'Table 9.12.3.2-1: Slice related communication service creation request', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service name', '', 'M', '', 'The name of the application service to be supported by the created slice related communication service, the value can be as followings:', '', 'V2X service;', '', 'Video streaming service;', '', 'Remote control service;', '', '…', '', '', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service ', '', 'Area of interest', '', 'M', '', 'The geographical or service area for which the application service profile applies.', '', 'Application service profile', '', 'M', '', 'The list of the requirements of the corresponding application service', '', '&amp;gt; ReqInfo', '', 'M', '', 'The element containing the reqName and reqValue', '', '&amp;gt;&amp;gt;ReqName', '', 'M', '', 'The name of the application service requirement, the value of this IE can be as followings:', '', 'the resolution of a video service,', '', 'the end user numbers,', '', 'the latency,', '', '…', '', '&amp;gt;&amp;gt;ReqValue', '', 'M', '', 'The corresponding value of the application service requirement', '', '', '', 'Table 9.12.3.2-2: Slice related communication service creation response', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service to be supported by the created slice related communication service.', '', 'Result', '', 'M', '', 'Indicates the success or failure of the slice related communication service creation', '', 'Network slice info List', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The list of the network slice info determined by NSCE', '', '&amp;gt; Network slice info', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The network slice info which includes the attributes and the corresponding values of network slice', '', '&amp;gt;&amp;gt;S-NSSAI', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The identifier of network slice', '', '&amp;gt;&amp;gt;attributes of network slice', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The list of attributes of the serviceProfile e.g, &lt;i&gt;dLtThptPerSlice or &lt;/i&gt;latencies of network slice as defined in &lt;i&gt;serviceProfile&lt;/i&gt; TS 28.541[10]', '', '&amp;gt;&amp;gt;AttributeValues', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The corresponding values of the attributes of the service profiles that determined by the NSCE server ', '', 'Cause', '', 'O', '', '(see\xa0NOTE\xa02)', '', 'Indicates the cause of creation failure', '', 'NOTE\xa01: \tShall be present if the result is success and shall not be present otherwise', '', 'NOTE\xa02: \tShall be present if the result is failure and shall not be present otherwise', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>0.222850111659851</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.12.3.3	Slice related communication service reconfiguration&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.12.3.3-1 and Table 9.12.3.3-2 describe information elements for slice related communication service reconfiguration request and response between the VAL server and the NSCE server.', '', 'Table 9.12.3.3-1: Slice related communication service reconfiguration request', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service name ', '', 'M', '', 'The name of the application service to be upgrade/downgrade which requires the reconfiguration of the slice related communication service, the value can be as followings:', '', 'V2X service;', '', 'Video streaming service;', '', 'Remote control service;', '', '…', '', '', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service', '', 'Area of interest', '', 'M', '', 'The geographical or service area for which the application profile applies.', '', 'Application service profile', '', 'M', '', 'The list of the requirements of the corresponding application service to be changed', '', '&amp;gt; ReqInfo', '', 'M', '', 'The element containing the reqName and reqValue', '', '&amp;gt;&amp;gt;ReqName', '', 'M', '', 'The name of the application service requirement, the value of this IE can be as followings:', '', 'the resolution of a video service,', '', 'the end user numbers,', '', 'the latency,', '', '…', '', '&amp;gt;&amp;gt;ReqValue', '', 'M', '', 'The corresponding updated value of the application service requirement', '', '', '', 'Table 9.12.3.3-2: Slice related communication service reconfiguration response', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service', '', 'Result', '', 'M', '', 'Indicates the success or failure of the slice related communication service reconfiguration', '', 'Network slice info List', '', 'O (see\xa0NOTE\xa01)', '', 'The list of the network slice info updated by NSCE', '', '&amp;gt; Network slice info', '', 'O (see\xa0NOTE\xa01)', '', 'The network slice info which includes the attributes and the corresponding values of network slice', '', '&amp;gt;&amp;gt;S-NSSAI', '', 'O (see\xa0NOTE\xa01)', '', 'The identifier of network slice', '', '&amp;gt;&amp;gt;Attributes of network slice', '', 'O (see\xa0NOTE\xa01)', '', 'The list of attributes of the serviceProfile e.g., &lt;i&gt;dLtThptPerSlice or &lt;/i&gt;latencies of network slice as defined in &lt;i&gt;serviceProfile&lt;/i&gt; TS 28.541[10]', '', '&amp;gt;&amp;gt;AttributeValues', '', 'O (see\xa0NOTE\xa01)', '', 'The corresponding values of the attributes of the service profiles that updated by the NSCE server', '', 'Cause', '', 'O', '', '(see\xa0NOTE\xa02)', '', 'Indicates the cause of reconfiguration failure', '', 'NOTE\xa01:\tShall be present if the result is success and shall not be present otherwise', '', 'NOTE\xa02:\tShall be present if the result is failure and shall not be present otherwise', '', ' ', '']</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>0.2209977481502668</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.17.2.1	Network Slice Information delivery request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>['', 'This subclause depicts the procedure of the Network Slice Information delivery to the VAL server via NSCE server, when the VAL server requests the Network Slice Information after registration. ', '', 'Pre-condition:', '', '1. \tThe NSCE server should have the agreement with MNO (NOP) for retrieval of ServiceProfile, if the NSCE server is the external entity. ', '', '----media/image36.emf----', '', 'Figure 9.17.2.1-1: Network Slice Information delivery request', '', "1.\tThe NSCE server retrieves the Network Slice ServiceProfile from 5GS (e.g., NSMF) when the NSCE server acting as a NSP prepares a Network Slice to be provided. The NSCE server follows the procedure to request/receive the Network Slice Service Profile with 'getMOIAttributes' operation as specified in 3GPP TS 28.532[7].", '', 'NOTE:\tIf NSCE server and NSMF are in same operator, then the NSCE server gets access directly to NSMF. The delivered Network Slice Service Profile contains the values of attributes such as PLMN, S-NSSAI, SST, maximum number of UEs, maximum number of PDU sessions, Slice Coverage Area, Latency, and, Data volume, which specify the Network Slice characteristics, as specified in clause of ServiceProfile in 3GPP TS 28.541 [10].  ', '', "2.\tThe NSCE server, as Network Slice as a Service, creates and stores the Network Slice information. When NSCE server retrieves the Network Slice Information, it is necessary for NSCE server to convert the attributes in Network Slice ServiceProfile to the Network Slice information for readable information and to compose the Network Slice information, according to the NSP's policy. ", '', 'In order to reduce to request often the Network Slice Information Retrieval, the NSCE server stores the Network Slice information.  ', '', '3.\tThe VAL server requests the Network Slice Information to the NSCE server. If the VAL server needs to know the specific attribute value for its service, then the attribute name of Network Slice Information (e.g., S-NSSAI, SST, Slice Coverage Area, etc.) can be added in the Request message. ', '', '4.\tThe NSCE server performs to check whether the requesting VAL server is registered or not. The NSCE server identifies which the Network Slice Customer is authorized to use.', '', '5.\tThe NSCE server sends the Network Slice Information, if the VAL server is registered and authorized. The NSCE server rejects to the request of the Network Slice Information, if not registered.', '']</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>0.1999453349359305</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.18.3.2	Network Slice Allocation&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.18.3.2-1 and Table 9.18.3.2-2 describe information elements for Network Slice Allocation request and response between the VAL server and the NSCE server.', '', 'Table 9.18.3.2-1: Network Slice Allocation request', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service ', '', "VAL UE's ID List", '', 'O', '', 'The list of VAL UE IDs for which the request applies', '', 'Area of interest', '', 'M', '', 'The geographical or service area for which the application service profile applies.', '', 'Network slice related Identifier(s)', '', 'O', '', 'The slice identifier', '', 'Network Slice requirements', '', 'O', '', 'The properties of network slice related requirement. If Service Profile is known by the VAL server, it can be provided to the NSCE server. The GST defined by GSMA (see clause 2.2 in [5]) and the performance requirements defined in clause 7 TS 22.261 [6] are all considered as input for it.', '', '', '', 'Table 9.18.3.2-2: Network Slice Allocation response', '', 'Information element', '', 'Status', '', 'Description', '', 'VAL server ID', '', 'M', '', 'The identifier of the VAL server', '', 'VAL service ID', '', 'M', '', 'Identifier of the application service to be supported by the created slice related communication service.', '', 'Result', '', 'M', '', 'Indicates the success or failure of the slice related communication service creation', '', 'Network slice info List', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The list of the network slice info allocated by NSCE', '', '&amp;gt; Network slice info', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The network slice info which includes the attributes and the corresponding values of network slice', '', '&amp;gt;&amp;gt;S-NSSAI', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The identifier of network slice', '', '&amp;gt;&amp;gt;attributes of network slice', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The list of attributes of the serviceProfile e.g, &lt;i&gt;dLtThptPerSlice or &lt;/i&gt;latencies of network slice as defined in &lt;i&gt;serviceProfile&lt;/i&gt; TS 28.541[10]', '', '&amp;gt;&amp;gt;AttributeValues', '', 'O', '', '(see\xa0NOTE\xa01)', '', 'The corresponding values of the attributes of the service profiles that determined by the NSCE server ', '', 'Cause', '', 'O', '', '(see\xa0NOTE\xa02)', '', 'Indicates the cause of creation failure', '', 'NOTE\xa01: \tShall be present if the result is success and shall not be present otherwise', '', 'NOTE\xa02: \tShall be present if the result is failure and shall not be present otherwise', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>0.2198929616133005</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.4.2.1	Procedures on slice lifecycle management&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.4.2.1-1 illustrates a procedure of application layer network slice lifecycle management based on network slice related data and QoE collected from application layer.', '', 'Pre-conditions:', '', '1.\tThe NSCE server has authenticated and authorized to the capabilities to collect current network slice from 5GS.', '', '2.\tThe NSCE server has authenticated and authorized to the capabilities trigger the network slice LCM operations.', '', '3.\tThere is signed contract for LCM between the entities using VAL server and entities using NSCE. ', '', '----media/image10.emf----', '', 'Figure 9.4.2.1-1: Application layer network slice lifecycle management', '', '1.\tThe VAL server sends the application layer network slice lifecycle management (AppLayer-NS-LCM) subscribe request to NSCE server, with network slice requirements from VAL server/consumer (e.g. delay, throughput, load, the maximum number of users supported, etc.). The request can indicate whether the notification is needed before performing the AppLayer-NS-LCM. The request can also indicate the trigger conditions, such as by providing the monitored parameters and the corresponding thresholds as described in clause 9.4.3.2.', '', '2.\tAfter receiving the request, the NSCE server checks that the user is authenticated and authorized to perform the corresponding AppLayer-NS-LCM operations, and filters the unauthorized requests, if any.', '', '3.\tAccording to network slice requirements and/or the trigger conditions, NSCE server triggers the provision of network slice status and QoE metrics. If the trigger conditions are not indicated in the subscription, the NSCE server can help to configure an appropriate trigger condition, such as report period or thresholds.', '', '3a.\tThe network slice status could be collected through subscribing or requesting to 5GS. List of network slice status parameters to be collected are:', '', '-\tNetwork Slice load statistics information, and/or Network Slice load predictions information from NWDAF/NEF as defined in TS 23.288 Table 6.3.3A.', '', '-\tPerformance metric in the performance data file from OAM as defined in clause 11.3 of TS 28.532 [7].', '', '3b.\tAlso, the NSCE server could get the information of QoE metrics from the application layer domain by QoE metric subscribe as described in clause 9.4.3.5. ', '', '4.\tOnce authenticated and authorized, the NSCE server sends the AppLayer-NS-LCM response to the VAL server.', '', '5.\tThe NSCE server may process and combine the collected network slice status and QoE metrics, if needed. The NSCE server may process and combine the parameters in the trigger conditions, if multiple trigger conditions were provided. Once the trigger condition or the combination of trigger conditions are met which indicating the network slice requirements from VAL server is not satisfied, the NSCE server determines whether and what network slice LCM operations should be taken based on requirements from VAL server/consumer and network slice status and QoE metrics, and makes the decision(s)/recommendation(s), such as modifyNsi/AllocateNsi/DeallocateNsi request as specified in TS 28.531 [8]. ', '', '6.\tOptionally, if it is indicated in the request to notify the VAL server/consumer before performing the AppLayer-NS-LCM, the NSCE sends the network slice LCM recommendation(s) with network slice information to VAL server, to see whether takes the recommendation(s) or not.', '', '7.\tOptionally, the VAL server sends the response to NSCE server.', '', '8.\tBased on decision made by VAL server or NSCE server, the NSCE server sends the network slice LCM request to the OAM.', '', '9.\tAccording to the corresponding operation(s) result, the NSCE server sends the response to the VAL server.', '']</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>0.1919332660497332</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.4.3.5	QoE metrics subscribe&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.4.3.5-1 describes information elements for the QoE metrics subscribe from the NSCE server to the VAL server. ', '', 'Table 9.4.3.5-1: QoE metrics Subscribe', '', 'Information element', '', 'Status', '', 'Description', '', 'Requestor Identifier', '', 'M', '', 'Unique identifier of the requestor (i.e. NSCE server ID).', '', 'Security credentials', '', 'M', '', 'Security credentials resulting from a successful authorization.', '', 'Notification Target Address', '', 'O', '', 'The Notification Target Address (e.g. URL) where the notifications destined for the requestor should be sent to.', '', 'Subscription ID', '', 'M ', '', 'Identifier of the subscription.', '', 'Event Filter', '', 'M', '', 'The associated filter on a network slice to be notified', '', '&amp;gt; Network slice related Identifier(s)', '', 'M', '', 'Identifier of the interested network slice', '', '&amp;gt; VAL service ID', '', '', '', 'O', '', 'Indicator of the interested application (i.e. App ID)', '', '&amp;gt;QoE type indicator', '', 'M', '', 'QoE metric type including latency, throughput, jitter, etc.  ', '', 'Event Reporting information', '', 'M', '', 'Information indicates how the notification is supposed to be sent, threshold based or the notification is periodical or the Immediate reporting is requested', '', '&amp;gt;Threshold', '', 'O', '', 'Threshold of QoE metrics', '', '&amp;gt;Reporting period ', '', 'O', '', 'Indicating the metrics reporting period', '', '&amp;gt;Immediate reporting flag', '', 'O', '', 'Indicating the request needs immediate reporting or not', '', 'Proposed expiration time', '', 'O', '', 'Proposed expiration time for the subscribe', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.2263233310477708</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.5.2.2	Network slice optimization based on VAL server policy&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.5.2.2-1 illustrates the procedure of network slice optimization based on VAL server policy. ', '', 'Pre-conditions:', '', '1.\tThe NSCE server is authorized to get network slice management data notification from OAM, and/or NWDAF via NEF.', '', '2.\tThe VAL server is authorized to the NSCE server for network slice optimization.', '', '3.\tThere is enough network capacity when the expected action is to expand the network slice.', '', '4.\tThe VAL server policy has been pre-configured on the VAL server.', '', '5.\tThe VAL server policy has been provided to the NSCE server as specified in clause 9.5.2.1.', '', '----media/image16.emf----', '', 'Figure 9.5.2.2-1: Network slice optimization based on VAL server policy', '', '1.\tVAL server sends network slice optimization subscription request to NSCE server. The request contains the policy ID indicating the different policies. Optionally the request contains the Secondary policy ID indicating the fallback policy to be used for the failed network slice optimization. The NSCE server retries the network slice optimization using a Secondary policy in the case of a failed optimization.', '', '2.\tThe NSCE server translates the trigger event to service API(s) with necessary parameters, and subscribe to the related service if needed.', '', '-\tTo get the monitored performance metric from OAM, the notifyThresholdCrossing as defined in TS 28.532[7] clause 11.3.1.3 which is filled in with corresponding S-NSSAI in objectInstance could be used. ', '', '-\tTo obtain the Network Slice load predictions from NWDAF, the NSCE server subscribes to the NWDAF prediction by invoking Nnef_AnalyticsExposure_Subscribe or Nnef_AnalyticsExposure_Fetch  as defined in TS 23.288[4] clauses 6.1.1.2, and 6.1.1.2.', '', '-\tTo monitor the Network Slice load (e.g. the number of UEs or the number of PDU Sessions) from NSACF, the NSCE server subscribes to the NSACF by using the Nnef_EventExposure_Subscribe Request or Nnsacf_SliceEventExposure_Subscribe_Request as defined in clause 4.15.3.2.10 of TS 23.502 [12], and the APIs defined in clause 6.2 of TS 29.536 [13] can be utilized.', '', '-\tTo monitor the time period, the NSCE server setup the timer.', '', '3.\tNSCE server sends the network slice optimization subscription response to the VAL server to confirm the subscription of network slice optimization.', '', '4.\tUpon receiving the notification which indicating the trigger event is met, i.e., the monitored information reaches the threshold or specific time period is arrived, the NSCE server performs the expected action by triggering the slice modification as specified in the VAL server policy. The network slice modification could be triggered by consuming the Network Slice Provisioning service with the modifyMOIAttributes operation as specified in TS 28.531 [8]. The OAM responds back to NSCE server that the requested slice modification was successful or not. The slice modification requests contain the parameters need to be updated to fit the requirement of network slice (e.g., scale in or scale out the network slice capability), including at least one of the following, uLThptPerSlice, dLThptPerSlice, dLThptPerUE, uLThptPerUE, dLThptPerSliceSubnet, uLThptPerSliceSubnet, delayTolerance, dLLatency, uLLatency, maximum number of UEs, maximum number of PDU session as specified in TS 28.541 [10].', '', 'NOTE 1:\tThe slice modification could be done by application layer network slice lifecycle management as defined in clause 9.4.', '', '5.\tThe NSCE server provides a network slice optimization notification to the VAL server. The successful response optionally includes the Optimization time and the Enforced policy ID. The optimization time indicates the time the NSCE server has taken to optimize the slice. The Enforced policy ID indicates which secondary policy is used by the NSCE server for slice optimization in the case of a failed attempt for network slice optimization.', '', 'NOTE 2:\tThere is no expectation to have constant and exact mapping between slice configuration parameters and actual traffic load of the same slice.', '']</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.1921129174024872</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.1	Data transmission quality measurement &lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.7.2-1 illustrate the procedure for SEALDD enabled data transmission quality measurement. The SEALDD client and SEALDD server is enhanced to carry out the data transmission quality measurement.', '', 'Pre-conditions:', '', '1.\tThe SEALDD server and SEALDD client are synchronized to the time source provided by 5GS as specified in 3GPP\xa0TS\xa023.501\xa0[5].', '', '2.\tThe VAL server discovers and selects the SEALDD server by CAPIF functions.', '', '----media/image28.emf----', '', 'Figure 9.7.2.1-1: SEALDD enabled data transmission quality measurement procedure', '', '1.\tAn on-going regular data transmission connection is established according to clause 9.2.2.2.', '', '2.\tThe VAL server sends a SEALDD transmission quality measurement subscription request to the SEALDD server. The request includes the identifiers of the application traffic (e.g. VAL service ID, VAL server ID), requirement of transmission quality measurement (e.g. latency, jitter, bitrate, packet loss rate) and measurement target UE (e.g. a single UE, a group of UEs or all UEs), and may also include reporting criteria, reporting frequency, spatial condition and temporal condition.', '', 'NOTE:\tThe spatial and/or temporal condition can be used by SEALDD server to apply when and where the measurement is performed. For instance, the measurement is expected to be done for a group of VAL UEs with a scheduled route (from city A to city B via highway A2 and A3), from 9:00 a.m. to 11:00 a.m. on Tuesday and from 1:00 p.m. to 5:00 p.m. on Thursday.', '', '3.\tUpon receiving the request, the SEALDD server performs an authorization check. If authorization is successful, the SEALDD server sends a response to the VAL server with the subscription ID, expiration time.', '', '4.\tIf the transmission quality measurement requirement list provided by VAL server in step 2, indicates that the latency is needed to be measured, the SEALDD server initiates the DL packet delay measurement. The SEALDD server encapsulates the DL monitoring packet (i.e. DL SEALDD packet with SEALDD DL monitoring header and VAL traffic as payload, or dummy DL SEALDD packet generated for data transmission quality monitoring) with local time T1 when the SEALDD server sends out the DL monitoring packets. The SEALDD server considers the spatial and/or temporal conditions when starting/resuming the transmission quality measurement. If the conditions are not satisfied, the SEALDD server stops/suspends the transmission quality measurement.', '', 'NOTE:\tFor other metrics in transmission quality measurement requirement list (e.g. bitrate), the transmission quality result can be obtained by performance detection on the SEALDD server within a period of time.', '', '5.\tThe SEALDD client receives the DL monitoring packet, and records the local time T2.', '', '6.\tSimilarly, the SEALDD client encapsulates the UL monitoring packet (i.e. UL SEALDD packet with SEALDD UL monitoring header and VAL traffic as payload, or dummy UL SEALDD packet generated for data transmission quality monitoring) with local time T2 recorded in step 5 and local time T3 when the SEALDD client sends out the UL monitoring packet.', '', '7.\tThe SEALDD server records the local time T4 when the SEALDD server receives the UL monitoring packet and calculates the latency with T1, T2, T3, T4. The SEALDD server can also calculate the bitrate, jitter and packet loss rate over a certain period over a specific SEALDD connection by recording the status of the SEALDD packets carrying VAL traffic or dummy SEALDD packets generated for transmission quality measurement reports. The SEAL DD server also evaluates the reporting criteria if present in the SEALDD transmission quality measurement subscription request in order to generate the transmission quality measurement report.', '', '8.\tThe SEALDD server reports the data transmission quality measurement results (e.g. latency, jitter, bitrate, packet loss rate) to the VAL server via the notification message.', '', 'When a VAL group ID or a list of VAL UE IDs or all VAL UEs indication is received in step 2, step 4 to step 7 is repeated for VAL UEs in the group/list or for all VAL UEs. The SEALDD server maps the VAL UE group ID to a list of VAL UE IDs if a VAL group ID is received. The SEALDD server identifies SEALDD connections corresponding to the desired VAL UE(s) to trigger measurement. And depending on the reporting requirement for multiple UEs, the SEALDD server calculates the needed report for the VAL server.', '']</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1894089737143031</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.1	Network slice related performance and analytics monitoring job creation request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>['', 'For network slice related performance and analytics monitoring job creation capabilities exposed to the VAL server, the VAL server triggers the procedure by sending the network slice related performance and analytics monitoring job creation request to NSCE server as Figure &lt;span style="font-size:18pt"&gt;9.7.2.2-1 &lt;/span&gt;shows:', '', '----media/image20.emf----', '', 'Figure 9.7.2.1-1: Request Network slice related performance and analytics job creation monitoring', '', '1.\tThe VAL server sends a request to NSCE server to create the Network slice related performance and analytics monitoring job to collect the desired service/VAL service specific performance and analytics data, the detailed content of the reported data depends on the type of the VAL services. The required end-to-end network slice related data performance data are indicated by &lt;i&gt;Perflist&lt;/i&gt; IE as described in table 9.7.3.2-1.', '', '2.\tThe NSCE server shall check if the VAL server is authorized to request the network slice performance and analytics data monitoring job creation.', '', '3.\tNSCE server determines the requested data needed to collect from network side and collects the performance measurements and analytics data of network slice from 5GS. For OAM system, the APIs defined in clause 11.3, TS 28.532[7] is utilized, e.g., packet delay, radio resource utilization. For CN functions, the APIs of Nnwdaf_AnalyticsInfo service defined in clause 7.3, TS 23.288 [4] is utilized, e.g., slice load level related network data analytics, slice load level related network data analytics.', '', '4.\tOptionally, NSCE server retrieves the KQI data of services, the QoE data and the end user’s information from NSCE client.', '', 'NOTE 1: The Data collection from NSCE client follows the mechanism defined in SA4 EVEX in TS 26.531 clause 5.6.', '', 'NOTE 2: How the collected data is stored in the NSCE server is implementation based.', '', '5.\tNSCE server responds to VAL server to inform the VAL server if the monitoring request is succeed. &lt;span style="font-size:18pt"&gt; &lt;/span&gt;', '']</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.1937548084219523</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.2	Data transmission quality query&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.7.2.2-1 illustrate the procedure for SEALDD enabled data transmission quality query. This procedure is used to obtain the historical transmission quality result already measured as described in clause 9.7.2.1.', '', 'Pre-conditions:', '', '1.\tThe SEALDD server performs the data transmission quality measurement procedure, as described in clause 9.7.2.1.', '', '', '', ' ----media/image29.emf----', '', 'Figure 9.7.2.2-1: SEALDD enabled data transmission quality query procedure', '', '\t1. The consumers (e.g. VAL server, SEALDD server, NSCE server) can send a SEALDD transmission quality query request to the SEALDD server to obtain the transmission quality measurement result. The request includes the identifiers of the application traffic (e.g. VAL service ID, VAL server ID), VAL UE ID or VAL UE group ID.', '', '\t2. The SEALDD server responds with the transmission quality measurement result (e.g. packet delay, bitrate, packet loss rate).', '']</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.2055392069991293</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.3	Data transmission quality measurement reported by SEALDD client&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.7.2.3-1 illustrate the procedure for SEALDD enabled data transmission quality measurement for VAL traffic. The SEALDD client receives transmission quality measurement requirement, decides to start VAL data transmission monitoring and generates measurement reports.', '', '----media/image30.emf----', '', 'Figure 9.7.2.3-1: VAL data transmission quality measurement reported by SEALDD client', '', '1.\tAn on-going regular data transmission connection is established according to clause 9.2.2.2.', '', '\tThe transmission quality measurement can be triggered by VAL server or VAL client, which is described in step 2 to step 5 and step 6, correspondingly.', '', '2.\tThe VAL server sends a SEALDD transmission quality measurement subscription request to the SEALDD server. The request includes the identifiers of the application traffic (e.g. VAL service ID, VAL server ID), requirement of transmission quality measurement (e.g. latency, jitter, bitrate) and measurement target UE (e.g. a single UE, a group of UEs or all UEs), and may also include reporting criteria, reporting frequency, spatial condition and temporal condition.', '', 'NOTE\xa01:\tThe spatial and/or temporal condition can be used by SEALDD client to apply when and where the measurement is performed. For instance, the measurement is expected to be done for a group of VAL UEs with a scheduled route (from city A to city B via highway A2 and A3), from 9:00 a.m. to 11:00 a.m. on Tuesday and from 1:00 p.m. to 5:00 p.m. on Thursday.', '', '3.\tUpon receiving the request, the SEALDD server performs an authorization check. If authorization is successful, the SEALDD server responds to the VAL server.', '', '4-5.\tThe SEALDD server sends a SEALDD transmission quality measurement subscription request to the SEALDD client and the SEALDD client responds to the SEALDD server. The SEALDD client, based on the received service quality guarantee policy including thresholds and action, can take corrective action as described in clause 9.7.2.3.', '', '6.\tThe VAL client triggers the SEALDD transmission quality measurement procedure to the SEALDD client, in order to collect the measurement report information.', '', '7.\tAfter SEALDD client determines to start measurement process, upon UL packet arrival, the SEALDD client initiates the UL packet delay measurement. The SEALDD client encapsulates the UL monitoring packet (i.e. UL SEALDD packet with SEALDD UL monitoring header and VAL traffic as payload for VAL data transmission quality monitoring) with local time T1 when the SEALDD client sends out the UL monitoring packet. The SEALDD client considers the spatial and/or temporal conditions when starting/resuming the transmission quality measurement. If the conditions are not satisfied, the SEALDD client stops/suspends the transmission quality measurement.', '', '8.\tThe SEALDD server receives the UL monitoring packet, and records the local time T2.', '', '9.\tSimilarly, the SEALDD server encapsulates the DL monitoring packet (i.e. DL SEALDD packet with SEALDD DL monitoring header and VAL traffic as payload, or dummy UL SEALDD packet generated for data transmission quality monitoring in case there is no DL VAL traffic for DL packet delay monitoring) with local time T2 recorded in step 8 and local time T3 when the SEALDD server sends out the DL monitoring packet.', '', 'NOTE\xa02:\tWhen the SEALDD server sends the dummy UL packet as monitoring response to the SEALDD client depends on SEALDD server implementation.', '', '10.\tThe SEALDD client records the local time T4 when the SEALDD client receives the DL monitoring packet and calculates the latency with T1, T2, T3, T4. The SEALDD client can also calculate the bitrate and jitter over a certain period over a specific SEALDD connection by recording the status of the SEALDD monitoring packets. The SEALDD client also evaluates the reporting criteria if present in the SEALDD transmission quality measurement subscription request in order to generate the transmission quality measurement report.', '', '\tDepending on which entity triggers the data transmission quality measurement, step 11 and step 12 corresponds to step 2 to step 5, step 13 corresponds to step 6.', '', '11-12.\tThe SEALDD client reports the data transmission quality measurement results (e.g. latency, jitter, bitrate) to the VAL server via the SEALDD server.', '', '13.\tThe SEALDD client reports the data transmission quality measurement results to the VAL client. ', '', 'When a VAL group ID or a list of VAL UE IDs or all VAL UEs indication is received in step 2, step 4 to step 11 is repeated for VAL UEs in the group/list or for all VAL UEs. The SEALDD server maps the VAL UE group ID to a list of VAL UE IDs if a VAL group ID is received. The SEALDD server identifies SEALDD connections corresponding to the desired VAL UE(s) to trigger measurement. And depending on the reporting requirement for multiple UEs, the SEALDD server collects and aggregates the needed report for the VAL server.', '']</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.1884374940559443</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.2.3	Multiple slices related performance and analytics consolidated report request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>['', 'Based on preferred performance report request from the vertical applications, the consolidated performance report for dedicated service from multiple slices (PNI-NPN slice and PLMN slice of one network) can be offered to trusted third-party AF. ', '', 'Figure 9.7.2.3-1 illustrates the procedure of multiple slices coordinated performance and analytics report service from VAL server to NSCE server.', '', 'Pre-conditions:', '', '1.\tThe network slice enabler layer is capable to interact with PLMN 5GC or OAM system to handle slices of PLMN and its PNI-NPNs.', '', '2.\tPNI-NPNs are deployed as network slices of the PLMN. ', '', '3.\tNSCE server has subscribed for MDE and NWDAF analytics for the managed slices of PLMN and PNI-NPN.', '', '', '', '----media/image22.emf----', '', 'Figure 9.7.2.&lt;u&gt;3&lt;/u&gt; -1: Multiple slices performance and analytics consolidated report process', '', '1.\tThe VAL server initiates multiple slices related performance and analytics consolidated report request towards the NSCE server. The request includes VAL server ID, VAL service ID. The message also includes application key performance indicator (such as end-to-end delay, throughput, etc.) list and monitoring period.', '', '2.\tUpon receiving the request from the VAL server to manage the network slice QoS monitoring report, the NSCE server makes authentication and authorization of the VAL server and if VAL server is not authorized, the NSCE server replies with failure response.', '', '3.\tThe NSCE server makes mapping from application ID that received from VAL server to slice identities (S-NSSAIs allocated in each network) and retrieves the PNI-NPN slice related status information from MDE/NWDAF, i.e. analytics data specified in 3GPP TS 28.104 [21] and TS 23.288 [4].', '', '4.\tThe NSCE server retrieves the PLMN slice related performance information from MDE/NWDAF. The services of Nnwdaf_AnalyticsInfo service defined in clause 7.3 of TS 23.288 [4] and analytics data as specified in 3GPP TS 28.104 [21] can be utilized.', '', '5.\tThe NSCE server verifies and analyses analytics data of network slice instances that is received from MDE/NWDAF about both PNI-NPN and PLMN slices, then NSCE server makes consolidated performance report among different kinds of network slices in specific period of time/location zone.', '', '6.\tThe NSCE server sends the multiple slices related performance and analytics consolidated report response towards VAL server including application key performance indicator (such as end-to-end delay, throughput, etc. ) list and monitoring period.', '']</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.1971796321325897</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.1	SEALDD enabled data transmission quality measurement subscription request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.1-1 describes the information flow from the VAL server to the SEALDD server for subscribing to the data transmission measurement service.', '', 'Table\xa09.7.3.1-1: SEALDD transmission quality measurement subscription request', '', 'Information element', '', 'Status', '', 'Description', '', 'Application traffic identifiers', '', 'M', '', 'Identify of the application traffic (e.g. VAL server ID, VAL service ID)', '', 'VAL UE identity', '', 'O', '', '(See NOTE)', '', 'Identifier of the VAL UE for which measurements need to be provided, e.g. UE ID, UE address', '', 'VAL UE group ID', '', 'O', '', '(See NOTE)', '', 'Identifier of a specific VAL UE group, as defined in clause 7.5 of 3GPP TS 23.434 [4]. ', '', 'VAL UE identity list', '', 'O', '', '(See NOTE)', '', 'Identifies a list of VAL UEs.', '', 'All VAL UEs Indication', '', 'O', '', '(See NOTE)', '', 'Indicates all VAL UEs of the application identified by application traffic identifiers.', '', 'Measurement conditions', '', 'O', '', 'Indicates the temporal and/or spatial conditions.', '', 'Transmission quality measurement requirements list', '', 'M', '', 'The measurement requirement information ', '', '&amp;gt; Measurement ID ', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, packet loss rate, jitter', '', '&amp;gt; Reporting frequency', '', 'O', '', 'The reporting frequency of measurement results (e.g. periodic reporting). If not present, it implies periodic reporting.', '', '&amp;gt; Reporting periodicity', '', 'O', '', 'If the reporting frequency is periodic, the reporting periodicity shall be provided. For multiple UEs, it is recommended to give sufficient time to allow report aggregation.', '', '&amp;gt; Reporting granularity', '', 'O', '', 'The reporting granularity indicates whether the measurement report is for individual VAL UE or for VAL UE group or for all VAL UEs, if VAL UE group or all VAL UEs is the measurement target.', '', '&amp;gt; Measurement period window', '', 'O', '', 'Indicates the measurement period window for transmission quality measurements', '', '&amp;gt; Measurement expiration time', '', 'O', '', 'Indicates the measurement expiration time', '', '&amp;gt; Reporting criteria', '', 'O', '', 'Indicates the criteria for reporting measurement results, e.g. if the latency or bitrate reaches below or above a certain value. It also includes a unique identifier for each criteria of more than one criteria is specified.', '', 'NOTE:\tOne of them shall be present as the measurement target UE.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>0.2168786498463981</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.3	SEALDD enabled data transmission quality measurement notification&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.3-1 describes the information flow from the SEALDD server to the VAL server for notifying the transmission quality measurement reports.', '', 'Table\xa09.7.3.3-1: SEALDD transmission quality measurement notification', '', 'Information element', '', 'Status', '', 'Description', '', 'Subscription ID', '', 'M', '', 'Subscription identifier corresponding to the subscription.', '', 'Transmission quality measurement reports list ', '', 'M', '', 'The generated transmission quality results in SEALDD server', '', '&amp;gt; Measurement ID', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, packet loss rate, jitter', '', '&amp;gt; VAL UE ID(s)', '', 'O', '', 'It indicates the VAL UE(s) under SEALDD measurement. For a single VAL UE, it can be omitted and the associated measurement values are for the single VAL UE. For multiple VAL UEs with reporting granularity set to individual UE, the associated measurement values are for individual VAL UE as indicated in this IE. For multiple VAL UEs with reporting granularity set to VAL UE group/list or all VAL UEs, the associated measurement values are aggregation for all VAL UEs or the VAL UE group/list and this IE includes the measured VAL UEs.', '', '&amp;gt; Average measurement value', '', 'O', '', 'The average measurement value of measurement results', '', '&amp;gt; Minimum measurement value ', '', 'O', '', 'The minimum measurement value of measurement results ', '', '&amp;gt; maximum measurement value', '', 'O', '', 'The maximum measurement value of measurement results', '', '&amp;gt; Standard deviation measurement value', '', 'O', '', 'Standard deviation measurement value of measurement results', '', '&amp;gt; kPercentile measurement value', '', 'O', '', 'Indicates the kpercentile measurement value of measurement results', '', '&amp;gt; Measurement period', '', 'O', '', 'Indicates the measurement period ', '', '&amp;gt; Timestamp', '', 'O', '', 'Indicates the timestamp of measurement results', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.2195125954284244</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.5	SEALDD enabled data transmission quality query response&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.5-1 describes the information flow from the SEALDD server to the other consumers (e.g. SEALDD server, NSCE server, etc) for returning the data transmission quality reports.', '', 'Table\xa09.7.3.5-1: SEALDD transmission quality query response', '', 'Information element', '', 'Status', '', 'Description', '', 'Result ', '', 'M', '', 'Success or failure.', '', 'Transmission quality measurement reports list ', '', 'M', '', 'The generated transmission quality results in SEALDD server', '', '&amp;gt; Measurement ID', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, packet loss rate', '', '&amp;gt; Minimum measurement value ', '', 'O', '', 'The minimum measurement value of measurement results ', '', '&amp;gt; maximum measurement value', '', 'O', '', 'The maximum measurement value of measurement results', '', '&amp;gt; Measurement period', '', 'O', '', 'Indicates the measurement period ', '', '&amp;gt; Timestamp', '', 'O', '', 'Indicates the timestamp of measurement results', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.2190338640910626</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.6	Transmission quality measurement subscription request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.6-1 describes the information flow from the SEALDD server to the SEALDD client for data transmission measurement subscription.', '', 'Table\xa09.7.3.6-1: Transmission quality measurement subscription request', '', 'Information element', '', 'Status', '', 'Description', '', 'SEALDD flow ID', '', 'M', '', 'Identifier of the SEALDD flow.', '', 'Measurement conditions', '', 'O', '', 'Indicates the temporal and/or spatial conditions.', '', 'Transmission quality measurement requirements list', '', 'M', '', 'The measurement requirement information ', '', '&amp;gt; Measurement ID ', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, jitter', '', '&amp;gt; Reporting frequency', '', 'O', '', 'The reporting frequency of measurement results (e.g. periodic reporting). If not present, it implies periodic reporting.', '', '&amp;gt; Reporting periodicity', '', 'O', '', 'If the reporting frequency is periodic, the reporting periodicity shall be provided.', '', '&amp;gt; Measurement period window', '', 'O', '', 'Indicates the measurement period window for transmission quality measurements', '', '&amp;gt; Measurement expiration time', '', 'O', '', 'Indicates the measurement expiration time', '', '&amp;gt; Reporting criteria', '', 'O', '', 'Indicates the criteria for reporting measurement results, e.g. if the latency or bitrate reaches below or above a certain value. It also includes a unique identifier for each criteria of more than one criteria is specified.', '', '&amp;gt; Service policy', '', 'O', '', 'Specifies quality guarantee policies associated with the SEALDD connection', '', '&amp;gt;&amp;gt; Quality guarantee event', '', 'M', '', 'Indicates the event (e.g. measurement threshold) that triggers performing the quality guarantee action.', '', '&amp;gt;&amp;gt; Quality guarantee action', '', 'M', '', 'Indicates the action to be performed when the measurement event occurs, in order to meet the quality guarantee.', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>0.2175306816956917</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.7.3.8	Transmission quality measurement notification&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.7.3.8-1 describes the information flow from the SEALDD client to the SEALDD server for notifying the transmission quality measurement reports.', '', 'Table\xa09.7.3.8-1: Transmission quality measurement notification', '', 'Information element', '', 'Status', '', 'Description', '', 'Transmission quality measurement reports list ', '', 'M', '', 'The generated transmission quality results in SEALDD server', '', '&amp;gt; Measurement ID', '', 'M', '', 'Measurement identifiers, e.g. latency, bitrate, jitter', '', '&amp;gt; Average measurement value', '', 'O', '', 'The average measurement value of measurement results', '', '&amp;gt; Minimum measurement value ', '', 'O', '', 'The minimum measurement value of measurement results ', '', '&amp;gt; maximum measurement value', '', 'O', '', 'The maximum measurement value of measurement results', '', '&amp;gt; Standard deviation measurement value', '', 'O', '', 'Standard deviation measurement value of measurement results', '', '&amp;gt; kPercentile measurement value', '', 'O', '', 'Indicates the kpercentile measurement value of measurement results', '', '&amp;gt; Measurement period', '', 'O', '', 'Indicates the measurement period ', '', '&amp;gt; Timestamp', '', 'O', '', 'Indicates the timestamp of measurement results', '', '', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>0.2190056513429311</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.8.3.2	Information collection from NSCE server(s) subscribe request&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>23435-i00.docx</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>['', 'Table 9.8.3.2-1 describes information elements for the Information collection from NSCE server(s) subscribe request from the consumer NSCE server to the producer NSCE server(s).', '', 'Table 9.8.3.2-1: Information collection from NSCE server(s) subscribe request ', '', 'Information element', '', 'Status', '', 'Description', '', 'Requester Identifier', '', 'M', '', 'Unique identifier of the requester (i.e. NSCE server ID).', '', 'Security credentials', '', 'M', '', 'Security credentials resulting from a successful authorization for the NSCE service.', '', 'Notification Target Address', '', 'O', '', 'The Notification Target Address (e.g. URL) where the notifications destined for the requester should be sent to.', '', 'List of S-NSSAI(s)', '', 'M', '', 'Identifier of the interested network slice', '', '&amp;gt;QoS type indicator', '', 'O', '', 'QoS metric type including latency, throughput, jitter, etc.  ', '', '&amp;gt;Threshold', '', 'O', '', 'Threshold of QoS metrics', '', '&amp;gt;Reporting period ', '', 'O', '', 'Indicating the metrics reporting period', '', '&amp;gt;Immediate reporting flag', '', 'O', '', 'Indicating the request needs immediate reporting or not', '', 'Proposed expiration time', '', 'O', '', 'Proposed expiration time for the subscription', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>0.2236576018972123</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>&lt;h4&gt;9.9.2.2	SEALDD enabled data transmission quality guarantee with redundant transport&lt;/h4&gt;</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>23433-i00.docx</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>['', 'Figure 9.9.2.2-1 illustrates the procedure of using redundant transmission as the action to meet connection reliability requirements specified by a SEALDD service policy.', '', 'Pre-conditions:', '', '1.\tA SEALDD service policy, which includes data transmission quality guarantees, is available to SEALDD server. The policy can be used to configure measurements and determine the necessary SEALDD layer actions for meeting the service policy requirements.', '', '2. The SEALDD Client is authorized to request redundant transport services on behalf of the VAL client.', '', '----media/image33.emf----', '', 'Figure 9.9.2.2-1: SEALDD data transmission quality guarantee with redundant transmission', '', '1.\tA VAL client and server establish a SEALDD connection to transport the application data. As part of the connection establishment, the SEALDD service policy in precondition 1 is shared so that it is available to both the SEALDD client and the SEALDD Server. The SEALDD Server may use the data transmission quality requirements of this policy in conjunction with other local policies pre-provisioned at the SEALDD server. The SEALDD server determines whether to start data transmission quality measurement by itself or by the SEALDD client. As a result, SEALDD measurements (e.g. packet loss rate, latency) are configured either at the SEALDD client as described in clause 9.7.2.3 or at the SEALDD server as described in clause\xa09.7.2.1 and started accordingly. Then either the SEALDD client or server receives measurement reports.', '', '2.\tBased on measurement reports and the SEALDD service policy, depending on the which entity started the measurement, either the SEALDD client or server determines to perform an action so that the data transmission quality requirements of the policy are met. ', '', '3.\tSpecifically, if the measurement was started by the SEALDD client, the SEALDD client triggers the establishment of redundant transmission services. If the measurement was started by the SEALDD server, the SEALDD server triggers the establishment of redundant transmission services by sending a Transmission quality guarantee request to the SEALDD client requesting to establish redundant transmission path.', '', 'NOTE:\tThe request can be sent to SEALDD client via Application Triggering (specified in clause\xa04.13.2 of 3GPP\xa0TS\xa023.502\xa0[6]) with payload indicating a trigger of a redundant connection setup for SEALDD packet transmission.', '', '4.\tThe SEALDD client uses steps 6 to 9 of the procedure in clause\xa09.3.2.1 to request the use of redundant transmission service from the SEALDD server. As part of this step, the UE may end the initial PDU session and establish redundant PDU sessions.', '', '5.\tThe SEALDD client updates the SEALDD connection with the redundant transmission information, i.e., the UE addresses and ports for the redundant PDU sessions, the SEALDD flow identifier, and the application traffic descriptors. The SEALDD client or server also configures the parameters for enabling any necessary SEALDD measurements for the new SEALDD flow.', '', '6.\tThe SEALDD server may subscribe to receive notifications from the 5G network for user plane measurements (e.g., the network latency requirements specified in 3GPP\xa0TS\xa028.541\xa0[12]), network analytics (as specified in 3GPP\xa0TS\xa028.104\xa0[11], etc.).', '', '7.\tThe SEALDD client and server handle data duplication and elimination of application traffic on the redundant SEALDD flows and the necessary measurements are collected by the SEALDD client or server.', '', 'When the SEALDD measurement results indicating that the SEALDD data transmission has good performance according to policy guarantee threshold, if the measurement was started by the SEALDD client, the SEALDD client may release one transmission path and return back to single SEALDD connection mode, otherwise the SEALDD server may send a request to the SEALDD client requesting to use single transmission, then the SEALDD client releases one transmission path and returns to single SEALDD connection mode.', '']</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>0.199766850801314</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;14.3.12.4.3	Network parameter coordination procedure&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>['', "The network parameter coordination  procedure uses UE unified traffic pattern information  to influence aspects of UE/network behaviour such as the UE's PSM and extended idle mode DR14. For this purpose, parameter values may be suggested for Maximum Latency and Maximum Response Time for a UE. 5GC may choose to accept, reject or modify the suggested configuration parameter value.", '', 'Pre-conditions:', '', '1.\tThe NRM Server determines to provide the service for a specific UE after receiving Network parameter coordination indications in UE unified traffic pattern and monitoring management subscription requests, subject to policy.', '', '2.\tThe NRM Server determines and manages UE unified traffic patterns as described in clause 14.3.12.4.2.', '', '----media/image148.emf----', '', 'Figure\xa014.3.12.4.3-1: Network parameter coordination procedure', '', '1.\tThe NRM Server determines to provide Network parameter configuration to 5GC. This determination can be based on updates to the UE unified traffic patterns resulting from interactions with VAL Servers (e.g. Traffic pattern configuration updates), on local policies, etc.', '', 'The NRM Server determines parameters the needed for NpConfiguration data structure as specified in 3GPP TS 29.122\xa0[54] from the UE unified traffic patterns as follows:', '', '&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;maximumLatency&lt;/i&gt; – This value tells the network how long the UE is allowed to sleep.  Setting it to 0 will disable PSM, extended idle mode DRX, and extended buffering. The NRM Server can extract the periodicity derived from the UE unified traffic pattern, which includes the schedule elements for the UEs communications with all VAL servers.&lt;i&gt; &lt;/i&gt;The NRM Server sets &lt;i&gt;Maximum Latency&lt;/i&gt; to be approximately the periodicity of the active periods derived from the schedule element&lt;i&gt; &lt;/i&gt;of the UE unified traffic pattern.', '', "&lt;i&gt;-&lt;/i&gt;\t&lt;i&gt;maximumResponseTime&lt;/i&gt; – When the UE uses PSM, Maximum Response Time tells the network how long the UE should stay reachable after a transition to idle.  When the UE uses eDRX, Maximum Response Time is used by the network to determine when to send a reachability notification before a UE's paging occasion.  The NRM Server extracts a duration of activity from the schedule element of the UE unified traffic pattern and sets &lt;i&gt;Maximum Response Time&lt;/i&gt; to reflect the duration of activity, indicating how long the UE should stay reachable for downlink communications. ", '', '2.\tThe NRM Server performs the Network Parameter Configuration procedure as described in 3GPP TS 29.122\xa0[54] clause 4.4.12.', '', 'NOTE:\tThe values provided by NRM Server to 5GC in the Network parameter configuration procedure may or may not be accepted by the network. If they are not accepted, 5GC responds accordingly and the previous values apply, or new values are provided. The new values are used by NRM Server as described in this clause when they were provided via monitoring event notifications.', '']</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>0.1931927398011766</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;14.3.5.2.2	Procedure for a group of UEs&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>['', 'Figure\xa014.3.5.2.2 illustrates the procedure where the NRM server is initiating the end-to-end QoS/resource management capability for network-assisted UE-to-UE communications for a group of UEs.', '', 'Pre-conditions: ', '', '1.\tThe NRM client is connected to the NRM server.', '', '2.\tThe VAL UEs involved in the end-to-end session (VAL UE 1 and a group of VAL UEs) are connected to one or more PLMNs and have ongoing PDU sessions.', '', 'Note :\tThe NRM client2 (of VAL UE 2) can be any VAL UEs in the group of VAL UEs.', '', '----media/image132.emf----', '', 'Figure\xa014.3.5.2.2 end-to-end QoS management request / response for a group of UEs', '', '1.\tThe NRM server receives from the AF on NRM client 1 (of VAL UE 1) the end-to-end QoS management request for managing the QoS on UE-to-UE traffic for a group of UEs. ', '', '2. The NRM server retrieves from 5GC or subscribe to 5GC to obtain additional VAL-UE associated information for each member in the group identified by the VAL group ID, which is account for decomposition. The VAL-UE associated information could be from the 5GC (NEF Monitoring Events as in 3GPP\xa0TS\xa023.502\xa0[11], QoS sustainability analytics as in 3GPP\xa0TS\xa023.288\xa0[34]) or SEAL LMS (on demand location reporting). ', '', '3.\tThe NRM server configures the application QoS parameters by decomposing the end-to-end QoS requirements (UE-to-UE traffic for any two UEs in a group) to application QoS parameters for each individual session (uplink network session for ingress group member and downlink network session for egress group member). The NRM server needs to take the additional VAL-UE associated information into account for evaluation during such decomposition.', '', '4. The NRM/SEAL server, acting as AF, sends to the 5GC a "Procedures for AF requested QoS for a UE or group of UEs not identified by a UE address" to set the application QoS parameters respectively for uplink network session for each ingress group member in the group and for downlink network session for egress group member.', '', 'Additionally, the NRM/SEAL server may activate monitoring of the performance to receive QoS monitoring event notifications from 5GC by setting the (optionally with Alternative QoS Profiles) in the request, in this case the AF may receive the QoS downgrade notification for e.g. latency thus to initiate the NRM-assisted coordinated QoS provisioning for 5G LAN-Type  communication in clause 14.3.5.3.x', '', '5.\tThe NRM server sends to the NRM client 1an end-to-end QoS management response with a positive or negative acknowledgement of the request. ', '', '6.\tIf the NRF server receives the end-to-end QoS management request including VAL UE2 as any of the List of VAL UEs, then the NRM server may also send a notification to NRM client 2 (of VAL UE 2) to inform about the end-to-end QoS management initiation by the NRM server. ', '']</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>0.2085669875831508</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;14.3.5.3.1	Procedure for a single pair of UEs&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>['', 'Figure\xa014.3.5.3.1-1 illustrates the procedure where the NRM server supports the coordinated QoS provisioning for network-assisted UE-to-UE communications for a single pair of UEs.', '', 'Pre-conditions: ', '', '1.\tNRM server has activated the end-to-end QoS/resource management capability, as described in 14.3.5.2.1  ', '', '2.\tNRM server, acting as AF, has registered to receive QoS monitoring event notifications from 5GC and notifications from VAL UEs (from both UEs), as specified in 3GPP\xa0TS\xa023.501\xa0[10].', '', '----media/image133.emf----', '', 'Figure\xa014.3.5.3.1-1: NRM-assisted coordinated QoS provisioning for C2 communication ', '', '1a.\tA QoS downgrade trigger event is sent from the NRM client of the VAL UE 1 to the NRM server, denoting an application QoS degradation (experienced or expected) e.g. based on the experienced packet delay or packet loss for the Uu link (e.g. packet loss great than threshold value). The conditions for triggering the QoS downgrade indication from the NRM client is based on the threshold that may be provided in advance by the NRM server (at the end-to-end QoS management response by the NRM server in 14.3.5.2.1).', '', '1b.\tAlternatively, the NRM server receives a trigger event from the 5GC (SMF/NEF), denoting a QoS downgrade notification for the VAL UE 1 session. (described in clause\xa05.7.2.4.1b of 3GPP\xa0TS\xa023.501\xa0[10]).', '', '2.\tThe NRM server evaluates the fulfilment/non-fulfilment of the end-to-end QoS based on the trigger event. NRM server may retrieve additional information based on subscription to support its evaluation. This could be from the 5GC (NEF Monitoring Events as in 3GPP\xa0TS\xa023.502\xa0[11], QoS sustainability analytics as in 3GPP\xa0TS\xa023.288\xa0[34]) or SEAL LMS (on demand location reporting for one or both VAL UEs 1 and 2).', '', 'Then, the NRM server, determines an action, which is the QoS parameter adaptation of one or both links (QoS profile downgrade for the link receive QoS notification control, and QoS upgrade for the link which can be upgraded).', '', '3.\tThe NRM/SEAL server, acting as AF, sends to the 5GC (to SMF via NEF or to PCF via N5) a request for a change of the QoS profile mapped to the one or both network sessions (for VAL UE 1 and UE 2) or the update of the PCC rules to apply the new traffic policy (as specified in 3GPP\xa0TS\xa023.502\xa0[11] in clause 4.15.6.6a: AF session with required QoS update procedure).', '', '4.\tThe NRM server sends an application QoS change notification to the affected NRM clients, to inform on the adaptation of the QoS requirements for the individual session. ', '']</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>0.2029326743633909</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;14.3.9.2.1	Procedure triggered by correlated source and destination requests&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>23434-i50.docx</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>['', 'The procedure for establishing Uu-based application-level direct communications between two UEs, with application service requirements is as illustrated in figure 14.3.9.2.11. In this procedure the source and destination VAL clients correlate their triggering of the procedure establishment before the NRM Server provides the service.', '', 'Pre-conditions:', '', '-\tNRM client 1 and NRM client 2 are provided configuration information for the VAL clients served e.g. connectivity requirements, which destination UEs to connect to over Uu, etc.', '', '-\tThe NRM client 1 and NRM client 2 are configured with the information of the NRM server and have connectivity enabled to communicate with the NRM server. The information is provided via pre-configuration.', '', '-\tThe NRM server is configured with policies and information of the UEs to determine authorization of the UEs requesting connectivity via Uu.', '', '-\tThe VAL clients associated with NRM client 1 and NRM client 2 have triggered the establishment of connectivity.', '', '----media/image142.emf----', '', 'Figure\xa014.3.9.2.1-1: Establishing communication with application service requirements', '', '1a.\tThe NRM client 1 sends the application connectivity request (source identity and IP address, destination identities, service requirements) to the NRM Server. The service requirement from the source includes packet size, packet transmission interval, packet E2E latency, allowed packet loss rate/packet loss amount/packet error rate, etc. The destination may be multiple UEs (devices). The identity of source and destination may be the application user identity or the MAC address.', '', '1b.\tThe NRM server determines whether the UE of NRM client 1 is authorized to connect to the destination UEs for direct service communications via Uu. If UE of NRM client 1 is authorized to connect to the destination UEs, then a response is provided to the NRM client 1 indicating acceptance of the request.', '', '2a.\tThe NRM client 2 sends the application connectivity request (destination identity and IP address, source identity, service requirements) to the NRM server. The service requirements from the destination includes the service requirements as described in step 1a.', '', '2b.\tThe NRM server determines whether the UE of NRM client 2 is authorized to connect to the destination UEs for direct service communications via Uu. If UE of NRM client 2 is authorized to connect to the destination UEs, then a response is provided to the NRM client 2 indicating acceptance of the request.', '', '3.\tBased on the service requirements received in step 1 and step 2, the NRM server determines the parameters and patterns for direct service connectivity between the UEs via Uu and also the transport requirements, i.e., QoS requirements for the 3GPP system (e.g. 5GS). This step may also include retrieving the direct link status of the UEs (e.g. PDU Session Status, UE reachability). If the NRM server determines that direct service connectivity via Uu is not authorized or not possible with the given connectivity requirements, it skips step 4 and proceeds to steps 5 and 6, informing each NRM client accordingly.', '', '\tNRM server will process E2E connectivity establishment between NRM client 1 and NRM client 2 only after it receives the request from NRM client 2. There can be several NRM clients (destinations) which will perform step 2 and NRM server will process their E2E connectivity with NRM client 1 (source) as and when the requests are received by the NRM server.', '', '4.\tThe NRM server triggers 3GPP system to establish Uu connectivity between the UE of NRM client 1 and UE of NRM client 2 with required QoS as specified in 3GPP\xa0TS\xa023.501\xa0[10].', '', '5.\tThe NRM server sends the application connectivity notification (connectivity/session information) to NRM client 1 indicating successful establishment of the connectivity. The connectivity/session information may contain the accepted destination identities.', '', '6.\tThe NRM server sends the application connectivity notification (connectivity/session information) to NRM client 2 indicating successful establishment of the connectivity.', '']</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>0.2112253404775878</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.3b	Specific NEF service operations information flow for loss of connectivity and UE reachability&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used by the AF to subscribe to notifications and to explicitly cancel a previous subscription for loss of connectivity and UE reachability.', '', '----media/image131.emf----', '', 'Figure 4.15.3.2.3b-1: Nnef_EventExposure_Subscribe, Unsubscribe and Notify operations or loss of connectivity and UE reachability', '', '1.\tStep 1 to step\xa03b of Figure 4.15.3.2.3-1 are performed with the following differences:', '', '-\tFor Loss of Connectivity, the subscription request may include Maximum Detection Time (see Table 4.15.3.1-1).', '', '-\tFor UE reachability, the subscription request may include Maximum Latency, Maximum Response Time and/or Suggested number of downlink packets (see Table 4.15.3.1-1). In step\xa03a of Figure 4.15.3.2.3-1, the UDM may include Maximum Response Time in the subscription request to the AMF.', '', 'NOTE\xa01:\tIt is expected that Maximum Latency, Maximum Response Time and/or Suggested number of downlink packets included in the subscription request is only used by the AF that does not support Parameter Provisioning procedure specified in clause\xa04.15.6.3a.', '', '-\tFor UE reachability, the AF may include Idle Status Indication request. If Idle Status Indication request is included, the NEF includes it in Nudm_EventExposure_Subscribe message. If the UDM receives Idle Status Indication request, it includes it in Namf_EventExposure_Subscribe message. If the NEF does not support the requested Idle Status Indication, then depending on operator policies, the NEF rejects the request.', '', '2.\t[Conditional] If the subscribed periodic registration timer has not been set according to any subscription request, or a Network Configuration as defined in clause\xa04.15.6.3a the UDM shall set the subscribed periodic registration timer using the Maximum Detection Time or Maximum Latency; otherwise if the subscribed periodic registration timer was previously set by a different subscription identified by a different Notification Target Address (+ Notification Correlation ID), or set by a different Network Configuration identified by a different NEF reference ID for the same UE and if the newly received Maximum Detection Time or Maximum Latency is lower than the provided subscribed periodic registration timer, the UDM shall set the subscribed periodic registration timer using the newly received Maximum Detection Time or Maximum Latency.', '', '\tIf Nudm_EventExposure_Unsubscribe request is performed in step\xa01, the UDM shall recalculate the subscribed periodic registration timer based on the remaining event subscriptions and/or Network Configurations.', '', '\tIn addition for UE reachability subscription, if the newly received Maximum Response Time is longer than the provided subscribed Active Time (i.e. previously provided Maximum Response Time), the UDM shall set the subscribed Active Time using the newly received Maximum Response Time. If the suggested number of downlink packets is newly received, the UDM shall add the newly received suggested number of downlink packets to the currently used value of suggested number of downlink packets if the aggregated value is within the operator defined range.', '', '\tIf Nudm_EventExposure_Unsubscribe request is performed in step\xa01, the UDM shall recalculate the subscribed Active Time and/or Suggested Number of Downlink Packets based on the remaining event subscriptions and/or Network Configurations.', '', '\tIf the subscribed periodic registration timer or the subscribed Active Time are set or modified, the UDM sends the Nudm_SDM_Notification request to related serving AMF(s). If the AMF receives a subscribed periodic registration timer value from the UDM, it allocates the received value to the UE as the periodic registration timer at subsequent Registration procedure. The AMF starts monitoring of the expiration of the mobile reachable timer for Loss of Connectivity (if required) and starts monitoring of the UE entering connected mode for UE reachability (if required).', '', '\tIf the suggested number of downlink packets are set or modified, the UDM sends the Nudm_SDM_Notification request to related serving SMF(s). The SMF configures the data buffer at the SMF/UPF according the suggested number of downlink packets.', '', '\tIf the provided value is updated by the UDM, the UDM may notify the NEF (which then notifies the AF) of the actual value that is being applied in the 3GPP network.', '', '3.\tStep 4 to step\xa05 of Figure 4.15.3.2.3-1 are performed.', '', '4.\tStep 6c to step\xa06d of Figure 4.15.3.2.3-1 are performed with the following differences:', '', '-\tFor Loss of Connectivity, the event is detected when the mobile reachability timer expires or when the UE has provided Unavailability Period Duration during the Registration or Deregistration procedure as described in clause\xa05.4.1.4 of TS\xa023.501\xa0[2].', '', '-\tFor UE reachability, the event is detected when the UE changes to connected mode or when the UE will become reachable for paging.', '', '-\tFor UE reachability, if Idle Status Indication request was included in step\xa01 and the AMF supports Idle Status Indication, the AMF includes also the Idle Status Indication.', '', '5.\tStep\xa08 of Figure 4.15.3.2.3-1 is performed.', '']</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>0.1892902251296991</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.5	Information flow for downlink data delivery status with SMF buffering&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used if the SMF requests the UPF to forward downlink data packets that are subject of extended buffering in the SMF. The procedure describes a mechanism for the Application Function to subscribe downlink data delivery status notifications. The downlink data delivery status notifications relates to high latency communication, see also clauses 4.24.2 and 4.2.3.3.', '', 'Cancelling the subscription is done by sending Nnef_EventExposure_Unsubscribe request identifying the subscription to cancel with Subscription Correlation ID in the same order as indicated in figure 4.15.3.2.5-1 for the corresponding subscribe requests. Step\xa00 and the notification steps 7 to 9 are not applicable in cancellation case.', '', '----media/image133.emf----', '', 'Figure 4.15.3.2.5-1: Information flow for downlink data delivery status with SMF buffering', '', '0.\tThe SMF (in the non-roaming case the SMF, in the roaming case the V-SMF, in the case of PDU session with I-SMF the I-SMF) configures the relevant UPF to forward downlink data packets towards the SMF as described in clause\xa05.8.3 in 23.501\xa0[2]. The SMF decides to apply this behaviour based on the "expected UE behaviour". Alternatively, step\xa00 is triggered by step\xa03,', '', '1.\tThe AF sends Nnef_EventExposure_Subscribe Request to NEF requesting notification for event "Downlink data delivery status" with traffic descriptor (e.g. the source of the downlink IP or Ethernet traffic) for a UE or group of UEs. If the reporting event subscription is authorized by the NEF, the NEF records the association of the event trigger and the requester identity. The Downlink data delivery status events include:', '', '-\tFirst downlink Packet in extended buffering event:', '', '-\tThis event is triggered when the first new downlink data packet is buffered with extended buffering matching the traffic descriptor.', '', '-\tin notifications about this Downlink data delivery status, the SMF provides the Extended Buffering time as determined in clause\xa04.2.3.3.', '', '-\tFirst downlink Packet discarded:', '', '-\tThis event occurs when the first packet matching the traffic descriptor is discarded because the Extended Buffering time, as determined by the SMF, expires or the amount of downlink data to be buffered is exceeded.', '', '-\tFirst Downlink Packet transmitted:', '', '-\tThis event occurs when the first packet matching the traffic descriptor is transmitted after previous buffering or discarding of corresponding packet(s) because the UE of the PDU Session becomes ACTIVE and buffered data can be delivered to UE according to clause\xa04.2.3.3.', '', '2.\tThe NEF sends the Nudm_EventExposure_Subscribe Request to UDM. Identifier of the UE or group of UEs, the traffic descriptor, monitoring event received from AF in step\xa01 and notification endpoint of the NEF are included in the message. If the reporting event subscription is authorized by the UDM, the UDM records the association of the event trigger and the requester identity. Otherwise, the UDM continues in step\xa05 indicating failure.', '', '3.\tThe UDM sends the Nsmf_EventExposure_Subscribe Request message to each SMF where at least one UE identified in step\xa02 has a PDU session established. If the UDM is able to derive the applicable DNN and S-NSSAI from the traffic descriptor via configured information, the UDM may send Nsmf_EventExposure_Subscribe Request messages only to SMFs with PDU sessions with that DNN and S-NSSAI for such UEs and includes the Identifier of the UE or Internal-Group-Id, traffic descriptor, monitoring event and the notification endpoint of NEF received in step\xa02 are included in the message. If the UDM becomes aware that such a UE has a PDU session established with the DNN and S-NSSAI corresponding to the traffic descriptor at a later time than when receiving step\xa02, the UDM then executes step\xa03.', '', '\tIn the case of home-routed PDU session or PDU session with I-SMF, the UDM sends the Nsmf_EventExposure_Subscribe Request message to each H-SMF or SMF and the H-SMF or SMF further sends Nsmf_EventExposure_Subscribe Request message to each related V-SMF or I-SMF. Steps 7-8 are performed by V-SMF or I-SMF.', '', '4.\tThe SMF sends the Nsmf_EventExposure_Subscribe Response message to the UDM.', '', '5.\tThe UDM send sends the Nsmf_EventExposure_Subscribe response message to the NEF.', '', '6.\tThe NEF sends the Nsmf_EventExposure_Subscribe response to the AF.', '', '7.\tThe SMF detects a change in Downlink Data Delivery Status event as described in clause\xa04.2.3. The SMF becomes aware that Downlink Packet(s) require extended buffering via a Namf_Communication_N1N2MessageTransfer service operation with the AMF. If the SMF decides to discard packets, the "Downlink Packet(s) discarded event" is detected. The SMF detects that previously buffered packets can be transmitted by the fact that the related PDU session becomes ACTIVE.', '', '8.\tThe SMF sends the Nsmf_EventExposure_Notify with Downlink Delivery Status event message to NEF.', '', '9.\tThe NEF sends Nnef_EventExposure_Notify with Downlink Delivery Status event message to AF.', '']</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>0.1956552712579318</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.7	Information flow for Availability after DDN Failure with SMF buffering&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used if the SMF requests the UPF to forward packets that are subject of buffering in the SMF. The procedure describes a mechanism for the Application Function to subscribe to notifications about availability after downlink data notification failure. The Availability after Downlink Data Notification failure event is related to high latency communication, see also clauses 4.24.2 and 4.2.3.3.', '', 'Cancelling the subscription is done by sending EventExposure_Unsubscribe requests identifying the subscription to cancel with the Subscription Correlation ID in the same order as indicated in figure 4.15.3.2.7-1 for the corresponding subscribe requests (the AMF unsubscribes the DDN Failure status notification by sending the Nsmf_PDUSession_UpdateSMContext Request message to each SMF in step\xa05). Step\xa00 and the notification steps 9 to 13 are not applicable in the cancellation case.', '', '----media/image134.emf----', '', 'Figure 4.15.3.2.7-1: Information flow for availability after DDN Failure with SMF buffering', '', '0.\tThe SMF (in the no-roaming case the H-SMF. in the roaming case the V-SMF, in the case of PDU session with I-SMF the I-SMF) configures the relevant UPF to forward packets to the SMF as described in clause\xa05.8.3 in 23.501\xa0[2]. The SMF decides to apply this behaviour based on the "expected UE behaviour". Alternatively, step\xa00 is triggered by step\xa05.', '', '1.\tThe AF sends Nnef_EventExposure_Subscribe Request to the NEF requesting notifications for "Availability after DDN Failure" for a UE or group of UEs and providing a traffic descriptor identifying the source of the downlink IP or Ethernet traffic. If the reporting event subscription is authorized by the NEF, the NEF records the association of the event trigger and the requester identity.', '', '\tThe AF may include Idle Status Indication request in the Nnef_EventExposure_Subscribe Request. If Idle Status Indication request is included, the NEF includes it in Nudm_EventExposure_Subscribe message. If the NEF does not support the requested Idle Status Indication, then depending on operator policies, the NEF rejects the request.', '', '2.\tThe NEF sends the Nudm_EventExposure_Subscribe Request to UDM. Identifier of the UE or group of UEs, the traffic descriptor, monitoring event received from AF at step\xa01 and notification endpoint of the NEF are included in the message. If the reporting event subscription is authorized by the UDM, the UDM records the association of the event trigger and the requester identity. Otherwise, the UDM continues in step\xa07 indicating failure.', '', '\tIf the UDM receives Idle Status Indication request, it includes it in Namf_EventExposure_Subscribe message.', '', '3.\tThe UDM sends Namf_EventExposure_Subscribe messages to the AMF(s) which serve the UE(s) identified in step2 to subscribe to "Availability after DDN Failure". The UDM includes the DNN and S-NSSAI as well as the Traffic Descriptor if available A separate subscription is used for each UE. The NEF notification endpoint received in step\xa02 is included in the message. If the UDM becomes aware that such a UE is registered at a later time than when receiving step\xa02, the UDM then executes step\xa03.', '', '4.\tThe AMF acknowledges the execution of Namf_EventExposure_Subscribe.', '', '5.\tIf PDU Session exists for the DNN and S-NSSAI, the AMF subscribes to DDN Failure status notification by sending the Nsmf_PDUSession_UpdateSMContext Request message to each SMF, requesting the SMF to notify DDN Failure. The AMF also includes in Nsmf_PDUSession_UpdateSMContext the Traffic Descriptor and NEF correlation ID if received from the UDM. For new PDU Session establishment towards a DNN and S-NSSAI, the AMF subscribes to DDN Failure status notification in Nsmf_PDUSession_CreateSMContext Request message if the UDM has subscribed to Availability after DDN Failure event.', '', '\tIn the case of home-routed PDU session or PDU session with I-SMF, the AMF sends Nsmf_PDUSession_UpdateSMContext Request message(s) to the related V-SMF(s) or I SMF(s). Steps 9-10 are performed by those V-SMF(s) or I-SMF(s).', '', '6.\tThe (I/V-)SMF sends the Nsmf_PDUSession_UpdateSMContext response message to the AMF.', '', 'NOTE:\tStep 7 can happen any time after step\xa04.', '', '7.\tThe UDM sends the Nudm_EventExposure_Subscribe response to the NEF.', '', '8.\tThe NEF sends the Nsmf_EventExposure_Subscribe response to the AF.', '', '9-10.\tThe SMF is informed that the UE is unreachable via a Namf_Communication_N1N2MessageTransfer service operation. The SMF then decides to discard downlink packets received from the UPF. By comparing those discarded downlink packets received from the UPF with the Traffic Descriptor(s) received in the event subscription(s), the SMF determines whether DDN Failure due to any traffic from an AF is to be notified to the AMF and if so, the SMF sends the DDN Failure status, by means of Nsmf_PDUSession_SMContextStatusNotify message including NEF Correlation ID, to the AMF. If the UE is not reachable after the AMF received the DDN Failure notification from the SMF, the AMF shall set a Notify-on-available-after-DDN-failure flag corresponding to the NEF Correlation ID.', '', '11-12.\t[Conditional] The AMF detects the UE is reachable and sends the event report(s) based on the Notify-on-available-after-DDN-failure flag, by means of Namf_EventExposure_Notify message(s), only to the NEF(s) indicated as notification endpoint(s) identified via the corresponding subscription in step\xa03. In this way, only the AF(s) for which DL traffic transmission failed are notified.', '', '\tIf the AMF received Idle Status Indication request in step\xa03 and the AMF supports Idle Status Indication, the AMF includes also the Idle Status Indication.', '', '13.\tThe NEF sends Nnef_EventExposure_Notify message with the "Availability after DDN Failure" event to AF.', '']</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>0.2058578698404564</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.3.2.8	Information flow for downlink data delivery status with UPF buffering&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>['', 'The procedure is used if the SMF requests the UPF to buffer packets. The procedure describes a mechanism for the Application Function to subscribe to notifications about downlink data delivery status. The downlink data delivery status notifications relates to high latency communication, see also clauses 4.24.2 and 4.2.3.3.', '', 'Cancelling is done by sending Nnef_EventExposure_Unsubscribe request identifying the subscription to cancel with Subscription Correlation ID. Steps 2 to 5 are not applicable in the cancellation case.', '', '----media/image135.emf----', '', 'Figure 4.15.3.2.8-1: Information flow for downlink data delivery status with UPF buffering', '', '1.\tAF interacts with NEF to subscribe DDD status event in SMF as described in steps 0-6 of clause\xa04.15.3.2.5.', '', '\tIn the case of subscription cancelling and SMF having interacted with the PCF during event subscription, the SMF reports to the PCF the unsubscribe of the DDD status event. The PCF updates or removes the PCC rule and this triggers the SMF to update or remove the corresponding PDR in the UPF. In case of home-routed PDU Session, the SMF unsubscribes the DDD status event from the V-SMF which in turn updates the N4 information (deactivating the notifications) in the V-UPF. In case of PDU Session with I-SMF, the SMF provides updated N4 information (deactivating the notifications) to the I-SMF which in turn updates the I-UPF.', '', '2.\tIf the UPF is configured to apply extended buffering, step\xa02 is executed immediately after step\xa01. Otherwise, step\xa02 is executed when the SMF is informed that the UE is unreachable via a Namf_Communication_N1N2MessageTransfer service operation as described in clause\xa04.2.3 and the SMF then also updates the PDR(s) for flows requiring extended buffering to requests the UPF to buffer downlink packets. If the DDD status event with traffic descriptor has been received in the SMF in step\xa01, if extended DL Data buffering in the UPF applies, the SMF checks whether an installed PDR for the Traffic Descriptor exists and if so, requests the UPF to provide the requested type(s) of notifications. If PCC is not used and there is no installed PDR with the exact same traffic descriptor, the SMF copies the installed PDR that would have previously matched the incoming traffic described by the traffic descriptor, but provides that traffic descriptor, a higher priority and the requested type(s) of notifications. If PCC is used and if the "DDD Status event subscription with Traffic Descriptor" PCRT is set as defined in clause\xa06.1.3.5 of TS\xa023.503\xa0[20], the SMF interacts with the PCF and forwards the traffic descriptor before contacting the UPF; the PCF then updates an existing PCC rule or provides a new PCC rule taking into consideration the traffic descriptor for the subscribed DDD status event.', '', 'NOTE:\tIf a new PCC rule is provided by the PCF for the DDD status event detection, the PCF populates the PCC rules as defined in clause\xa06.1.3.5 of TS\xa023.503\xa0[20].', '', '\tIn the case of home-routed PDU Session, the V-SMF generates the N4 information (activating the notifications) for the V-UPF based on local configuration.', '', '\tIn the case of PDU Session with I-SMF, the SMF provides N4 information (activating the notifications) to the I-SMF based on local policy or the "DDD Status event subscription with Traffic Descriptor" PCRT from PCF. The I-SMF updates the I-UPF with this N4 information.', '', '\tFor home-routed PDU Session or PDU Session with I-SMF, steps 3-4 below are performed by V-SMF/V-UPF or I-SMF/I-UPF.', '', '3.\tThe UPF reports when there is buffered or discarded traffic matching the received PDR to the SMF. The SMF detects that previously buffered packets can be transmitted by the fact that the related PDU session becomes ACTIVE.', '', '4.\tThe SMF sends the Nsmf_EventExposure_Notify with Downlink Delivery Status event message to NEF.', '', '5.\tThe NEF sends Nnef_EventExposure_Notify with Downlink Delivery Status event message to AF.', '']</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1976350594529715</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.4.5.1	General&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>['', 'This clause contains the detailed description and the procedures for how the UPF event exposure service (see clause\xa05.2.26.2) is used for UPF data collection.', '', 'The list of NF consumer which may receive UPF event notifications is defined in clause\xa05.8.2 of TS\xa023.501\xa0[2].', '', 'To get exposure data from UPF, NF consumer may subscribe to the UPF directly or indirectly via SMF. This is further defined in clause\xa05.8.2 of TS\xa023.501\xa0[2].', '', 'The UPF event exposure events are described in clause\xa05.2.26.2. In this Release of the specification, the following events are used for UPF Data collection:', '', '-\t&lt;b&gt;QoS Monitoring.&lt;/b&gt; This event provides QoS Flow performance information.', '', '-\t&lt;b&gt;UserDataUsageMeasures.&lt;/b&gt; This event provides information of user data usage of the User PDU Session.', '', '-\t&lt;b&gt;UserDataUsageTrends.&lt;/b&gt; This event provides statistics related to user data usage of the User PDU Session.', '', 'A consumer of UPF event exposure can subscribe to QoS monitoring event via SMF only and UPF sends the QoS Flow Performance information directly to this consumer. For this event, the interaction between SMF and UPF is over PFCP (TS\xa029.244\xa0[69]). TS\xa023.501\xa0[2] describes the QoS parameters that can be measured by means of QoS monitoring and how to enable the measurements for QoS flows. When the Subscription request for QoS monitoring event indicates that it is for the QoS Flow associated to the default QoS rule, based on local configuration the subscription request may trigger SMF to enable QoS monitoring.', '', 'NOTE\xa01:\tPackets from multiple applications may share the QoS Flow associated with the default QoS Rule which may diminish the relevance of some measurements like data rate.', '', 'The subscription to QoS monitoring event can target the QoS flows bound to an application by including an application identifier. In this case, SMF identifies the active PCC Rule that includes that Application identifier. SMF enables this consumer (e.g. NWDAF) to receive the QoS Monitoring reports enabled by that PCC Rule. If the identified PCC Rule has no QoS Monitoring policy or if no PCC rule is identified, SMF rejects the subscription request for that Application Identifier.', '', 'NOTE\xa02:\tExtensive usage of QoS Monitoring has significant impact on load and signalling.', '', 'A consumer of UPF event exposure such as NWDAF can subscribe to User Data Usage events directly to UPF or via SMF and UPF sends the event notifications directly to this consumer. For this event, the interaction between SMF and UPF is over SBI. For User Data Usage events, the subscription request may target specific service data flows (e.g. a specific application traffic) by including a traffic description (e.g. an Application Id). Else, the scope of the subscription is all the traffic in the PDU Session. The subscription request may indicate the granularity requested, that is whether the measurement reports should be provided per service data flow, application, or the whole PDU Session.', '', 'If the event notification can be delayed, i.e. delay tolerant, Reporting suggestion information is included. The Reporting suggestion information includes Report urgency and Reporting time information. Reporting urgency information indicates whether this event report can be delay tolerant, i.e. the event report can be delayed. If the Reporting urgency information indicates "delay tolerant", the Reporting time is also provided, which defines the last valid reporting time and UPF shall report the detected event before the last valid time.', '', 'Table 4.15.4.5.1-1: Input parameters in subscription to UPF event Exposure events', '', 'Information', '', 'To SMF', '', 'To UPF', '', '(NOTE\xa04)', '', 'UE ID', '', 'Y', '', 'Y', '', 'GroupID', '', 'Y', '', 'N', '', 'AnyUE', '', 'Y', '', 'Y', '', 'DNN', '', 'Y', '', 'Y', '', 'S-NSSAI', '', 'Y', '', 'Y', '', 'AOI', '', 'Y', '', 'N', '', 'BSSID/SSID', '', 'Y', '', 'N', '', 'DNAI (NOTE 3)', '', 'Y', '', 'N', '', 'UPFId (NOTE 3)', '', 'Y', '', 'N', '', 'Type of Measurement', '', 'Y', '', 'Y', '', 'Granularity of Measurement (NOTE\xa02)', '', 'Y', '', 'Y', '', 'Application ID (NOTE\xa01)', '', 'Y', '', 'Y', '', 'Traffic Filtering (NOTE\xa01), (NOTE\xa02)', '', 'Y', '', 'Y', '', 'Reporting suggestion information', '', 'Y', '', 'Y', '', 'NOTE\xa01:\tApplication ID and Traffic Filtering are exclusive.', '', 'NOTE\xa02:\tThis parameter does not apply to QoS monitoring event.', '', 'NOTE\xa03:\tThis parameter is used to indicate a UP Path as defined in Table 6.4.1-1 of TS\xa023.288\xa0[50].', '', 'NOTE\xa04:\tThis column is not applicable to events where SMF-UPF interactions are using PFCP (e.g. QoS Monitoring event). That interaction is described in clause\xa05.8.5 of TS\xa023.501\xa0[2].', '', '', '']</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>0.2301547500498177</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.15.6.13.2	Procedures for Creating a Multi-member AF session with required QoS&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>LR4_calculation</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>['', '----media/image156.emf----', '', 'Figure 4.15.6.13.2-1: Procedures for creating a Multi-member AF sessions with required QoS', '', '1.\tThe AF sends a request to reserve resources for the traffic flows for the communication between a set of UEs and an AF, using Nnef_AFsessionWithQoS_Create request message (a list of UE addresses, AF Identifier, Flow description information or External Application Identifier, QoS Reference or individual QoS parameters, Alternative Service Requirements (as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]), QoS parameter(s) to be measured, Reporting frequency, Target of reporting, optional an indication of local event notification, DNN, S-NSSAI) to the NEF. The AF may, instead of a QoS Reference, provide one or more of the following individual QoS parameters: Requested 5GS Delay (optional), Requested Priority (optional), Requested Guaranteed Bitrate, Requested Maximum Bitrate, Maximum Burst Size and Requested Packet Error Rate. The optional Alternative Service Requirements provided by the AF shall either contain QoS References or Requested Alternative QoS Parameter Set(s) in a prioritized order as described in clause\xa06.1.3.22 of TS\xa023.503\xa0[20]. The AF may provide QoS parameter(s) to be measured as defined in clause\xa05.45 of TS\xa023.501\xa0[2], Reporting frequency, Target of reporting, optional an indication of local event notification as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[20].', '', '\tThe AF may also provide the Consolidated Data Rate threshold and optionally, a list of UE addresses subject to Consolidated Data Rate monitoring. If so, the AF shall also subscribe to QoS Monitoring of UL and/or DL data rate described in clause\xa05.45 of TS\xa023.501\xa0[2] .', '', 'NOTE\xa01:\tWhen the Consolidated Data Rate threshold is provided, it applies to the list of UE addresses for the Multi-member AF session with required QoS by default. However, if the specific list of UE addresses subject to Consolidated Data Rate monitoring is also provided together with the Consolidate Data Rate threshold, then such list has to be the subset of the list of UE addresses.', '', '2.\tThe NEF authorizes the AF request and may apply policies to control the overall amount of QoS authorized for the AF. If the authorisation is not granted, all steps (except step\xa08) are skipped and the NEF replies to the AF with a Result value indicating that the authorisation failed. The NEF generates the Transaction Reference ID and associates the list of UE addresses received from the AF to the Transaction Reference ID. The NEF performs Consolidated Data Rate monitoring only when both the Consolidated Data Rate threshold and a request to do QoS Monitoring of data rate are provided by the AF.', '', '2a.\tIf the NEF recognizes, based on configuration, that the IP address(es) received in the list of UE addresses are different from the IP address(es) assigned by 5GC (i.e. the UE(s) are behind a NAT in UPFs), the NEF performs steps 3 to 6 of the AF specific UE ID retrieval procedure defined in clause\xa04.15.10 for each UE IP address with port number in order to identify the corresponding IP address (and IP domain, if necessary) that has been assigned by the 5GC. The NEF then uses the respective corresponding IP address (and IP domain, if necessary) in the following steps instead of the UE IP address provided by the AF.', '', '3-4.\tThe NEF finds BSF serving the UE IP address(es) using NRF and then for each UE IP address, the NEF uses Nbsf_Management_Discovery service operation, providing the UE IP address, to discover the responsible PCF for each of the PDU Sessions.', '', '\tSteps 5-7 apply for each UE address in the list of UE addresses.', '', '5.\tThe NEF provides the UE address and the received parameters in step\xa01 to the PCF in the Npcf_PolicyAuthorization_Create request. If the request contains QoS monitoring information without an indication of direct event notification, the NEF shall include that indication in the request to ensure that QoS Monitoring reports shall be sent by the UPF directly to the NEF.', '', '6.\tStep 4 in Figure 4.15.6.6-1 applies. The PCF generates authorized QoS Monitoring policy according to the QoS Monitoring information if received from the NEF in step\xa05 and provides PCC rules with the policy to the SMF as described in clause\xa06.1.3.21 of TS\xa023.503\xa0[20]. The SMF configures the UPF to perform QoS Monitoring as described in clause\xa05.8.2.18 of TS\xa023.501\xa0[2].', '', '7.\tThe PCF sends the Npcf_PolicyAuthorization_Create response message to the NEF.', '', '8.\tThe NEF aggregates the authorization responses from the PCFs and sends a Nnef_AFsessionWithQoS_Create response message (Transaction Reference ID, Result for list of UE addresses) with the aggregated authorization responses to the AF. Result for list of UE addresses includes whether the authorization was successful or has failed for every UE address in the list. The NEF stores the list of UE addresses for which the authorization was successful together with the QoS and the QoS monitoring information.', '', '\tSteps 9-10 apply for each UE address in the list of UE addresses.', '', '9.\tStep 6 in Figure 4.15.6.6-1 applies.', '', '10.\tStep 7 in Figure 4.15.6.6-1 applies.', '', '11.\tThe NEF aggregates the notifications from the PCFs and sends a Nnef_AFsessionWithQoS_Notify message (Transaction Reference ID, Result for list of UE addresses) with the aggregated resource allocation status events to the AF. Result for list of UE addresses includes, for every UE address in the list, the information whether resources are allocated, resources are not allocated or resources are allocated while the currently fulfilled QoS matches an Alternative Service Requirement. The NEF updates the locally stored list of UE addresses by removing any UEs for which resources could not be allocated.', '', 'NOTE\xa02:\tFor those UE address(es) that did not get any resources, the AF may request resource reservation again, by adding them to the list of UE address(es) as described in clause\xa04.15.6.13.3.', '', '12.\tAs direct event notification is requested based on the parameters received in step\xa05, the QoS Monitoring events are reported by the UPF(s) to the NEF using Nupf_EventExposure service as described in clause\xa05.2.26.2.', '', '13.\tWhen the NEF receives QoS Monitoring events, the NEF sends Nnef_AFsessionWithQoS_Notify message with the individual or aggregated QoS Monitoring events to the AF as described for the QoS Monitoring and the Consolidated Data Rate monitoring in clause\xa04.15.6.13.1.', '', 'The AF may send Nnef_AFsessionWithQoS_Revoke request containing the Transaction Reference ID to the NEF in order to revoke the Multi-member AF sessions with required QoS related to the Transaction Reference ID. The NEF authorizes the revoke request and triggers the Npcf_PolicyAuthorization_Delete and the Npcf_PolicyAuthorization_Unsubscribe operations towards the respective PCF(s) for every UE in the list of UE address(es) associated with the Transaction Reference ID.', '']</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>0.2005983651898969</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.3.2.2.1	Non-roaming and Roaming with Local Breakout&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>['', 'Clause\xa04.3.2.2.1 specifies PDU Session establishment in the non-roaming and roaming with local breakout cases. The procedure is used to:', '', '-\tEstablish a new PDU Session;', '', '-\tHandover a PDN Connection in EPS to PDU Session in 5GS without N26 interface;', '', '-\tSwitching an existing PDU Session between non-3GPP access and 3GPP access. The specific system behaviour in this case is further defined in clauses 4.9.2 and 4.9.3; or', '', '-\tRequest a PDU Session for Emergency services.', '', 'In the case of roaming, the AMF determines if a PDU Session is to be established in LBO or Home Routing. In the case of LBO, the procedure is as in the case of non-roaming with the difference that the AMF, the SMF, the UPF and the PCF are located in the visited network. PDU Sessions for Emergency services are never established in Home Routed mode. If Control Plane CIoT 5GS Optimisation is enabled for the PDU session with LBO, the NEF is not used as the anchor of this PDU Session.', '', 'NOTE\xa01:\tUE provides both the S-NSSAIs of the Home PLMN and Visited PLMN to the network as described in clause\xa05.15.5.3 of TS\xa023.501\xa0[2].', '', '----media/image27.emf----', '', 'Figure 4.3.2.2.1-1: UE-requested PDU Session Establishment for non-roaming and roaming with local breakout', '', 'The procedure assumes that the UE has already registered on the AMF thus unless the UE is Emergency Registered the AMF has already retrieved the user subscription data from the UDM.', '', '1.\tFrom UE to AMF: NAS Message (S-NSSAI(s), [Alternative S-NSSAI], UE Requested DNN, PDU Session ID, Request type, Old PDU Session ID, N1 SM container (PDU Session Establishment Request, [Port Management Information Container])).', '', '\tIn order to establish a new PDU Session, the UE generates a new PDU Session ID.', '', '\tThe UE initiates the UE Requested PDU Session Establishment procedure by the transmission of a NAS message containing a PDU Session Establishment Request within the N1 SM container. The PDU Session Establishment Request includes a PDU session ID, Requested PDU Session Type, a Requested SSC mode, 5GSM Capability, PCO, SM PDU DN Request Container, [Number Of Packet Filters], [Header Compression Configuration], UE Integrity Protection Maximum Data Rate, [Always-on PDU Session Requested], [RSN], [Connection Capabilities] and [PDU Session Pair ID].', '', '\tThe Request Type indicates "Initial request" if the PDU Session Establishment is a request to establish a new PDU Session and indicates "Existing PDU Session" if the request refers to an existing PDU Session switching between 3GPP access and non-3GPP access or to a PDU Session handover from an existing PDN connection in EPC. If the request refers to an existing PDN connection in EPC, the S-NSSAI is set as described in clause\xa05.15.7.2 of TS\xa023.501\xa0[2] ', '', '\tWhen Emergency service is required and an Emergency PDU Session is not already established, a UE shall initiate the UE Requested PDU Session Establishment procedure with a Request Type indicating "Emergency Request".', '', '\tThe Request Type indicates "Emergency Request" if the PDU Session Establishment is a request to establish a PDU Session for Emergency services. The Request Type indicates "Existing Emergency PDU Session" if the request refers to an existing PDU Session for Emergency services switching between 3GPP access and non-3GPP access or to a PDU Session handover from an existing PDN connection for Emergency services in EPC.', '', '\tThe 5GSM Core Network Capability is provided by the UE and handled by SMF as defined in clause\xa05.4.4b of TS\xa023.501\xa0[2].', '', '\tThe Number Of Packet Filters indicates the number of supported packet filters for signalled QoS rules for the PDU Session that is being established. The number of packet filters indicated by the UE is valid for the lifetime of the PDU Session. For presence condition, see TS\xa024.501\xa0[25].', '', '\tThe UE Integrity Protection Maximum Data Rate indicates the maximum data rate up to which the UE can support UP integrity protection. The UE shall provide the UE Integrity Protection Data Rate capability independently of the Access Type over which the UE sends the PDU Session Establishment Request.', '', '\tIf the use of header compression for Control Plane CIoT 5GS optimisation was negotiated successfully between the UE and the network in the previous registration procedure, the UE shall include the Header Compression Configuration, unless "Unstructured" PDU Session Type is indicated. The Header Compression Configuration includes the information necessary for the header compression channel setup. Optionally, the Header Compression Configuration may include additional header compression context parameters.', '', '\tThe NAS message sent by the UE is encapsulated by the AN in a N2 message towards the AMF that should include User location information and Access Type Information.', '', '\tThe PDU Session Establishment Request message may contain SM PDU DN Request Container containing information for the PDU Session authorization by the external DN.', '', '\tThe UE includes the S-NSSAI from the Allowed NSSAI of the current access type or Partially Allowed NSSAI. If the UE is provided with the mapping of an S-NSSAI that is replaced by an Alternative S-NSSAI, the UE shall provide both the Alternative S-NSSAI and the S-NSSAI that is replaced by it. If the Mapping of Allowed NSSAI or Mapping Of Partially Allowed NSSAI was provided to the UE, the UE shall provide both the S-NSSAI of the VPLMN from the Allowed NSSAI or Partially Allowed NSSAI and the corresponding S-NSSAI of the HPLMN from the Mapping Of Allowed NSSAI or Mapping Of Partially Allowed NSSAI. If the UE is provided with the mapping of the VPLMN S-NSSAI to a VPLMN Alternative S-NSSAI, the UE provides both the VPLMN Alternative S-NSSAI and the VPLMN S-NSSAI in the PDU Session Establishment message. If the UE is provided with the mapping of the HPLMN S-NSSAI to a HPLMN Alternative S-NSSAI, the UE provides both the HPLMN Alternative S-NSSAI and the HPLMN S-NSSAI in the PDU Session Establishment message.', '', '\tIf the procedure is triggered for SSC mode 3 operation, the UE shall also include the Old PDU Session ID which indicates the PDU Session ID of the on-going PDU Session to be released, in NAS message. The Old PDU Session ID is included only in this case.', '', '\tThe AMF receives from the AN the NAS SM message (built in step 1) together with User Location Information (e.g. Cell Id in the case of the NG-RAN).', '', '\tThe UE shall not trigger a PDU Session establishment for a PDU Session corresponding to a LADN when the UE is outside the area of availability of the LADN.', '', '\tThe UE shall not trigger a PDU Session establishment for a PDU Session associated to an S-NSSAI if the S-NSSAI is not valid as per the S-NSSAI location availability information.', '', '\tIf the UE is establishing a PDU session for IMS and the UE is configured to discover the P-CSCF address during connectivity establishment, the UE shall include an indicator that it requests a PCSCF IP address(es) within the SM container.', '', '\tThe PS Data Off status is included in the PCO in the PDU Session Establishment Request message.', '', '\tThe UE capability to support Reliable Data Service is included in the PCO in the PDU Session Establishment Request message.', '', '\tIf the UE has indicated that it supports transfer of Port Management Information Containers as per UE 5GSM Core Network Capability and if the PDU session type is Ethernet, then the UE shall include the MAC address of the DS-TT Ethernet port used for this Ethernet PDU session. If the UE is aware of the UE-DS-TT Residence Time, then the UE shall additionally include the UE-DS-TT Residence Time.', '', '\tIf the UE requests to establish always-on PDU session, the UE includes an Always-on PDU Session Requested indication in the PDU Session Establishment Request message.', '', '\tAs described in TS\xa023.548\xa0[74], a UE that hosts EEC(s) may indicate in the PCO that it supports the ability to receive ECS address(es) via NAS and to transfer the ECS Address(es) to the EEC(s).', '', '\tA UE that hosts the EDC functionality shall indicate in the PCO its capability to support the EDC functionality (see clause\xa05.2.1 of TS\xa023.548\xa0[74]).', '', '\tThe UE may also include PDU Session Pair ID and/or RSN in PDU Session Establishment Request message as described in clause\xa05.33.2.1 of TS\xa023.501\xa0[2].', '', '\tA UE that supports EAS re-discovery as described in clause\xa06.2.3.3 of TS\xa023.548\xa0[74], may indicate so in the PCO.', '', '\tPort Management Information Container may be received from DS-TT and includes port management capabilities, i.e. information indicating which standardized and deployment-specific port management information is supported by DS-TT as defined in clause\xa05.28.3 of TS\xa023.501\xa0[2].', '', '\tIf UE supports to report URSP rule enforcement to network and the URSP rule that triggered this PDU Session Establishment Request included the Indication for reporting URSP rule enforcement, the UE may provide Connection Capabilities as described in clause\xa06.6.2.4 of TS\xa023.503\xa0[20].', '', '2.\tFor NR satellite access, the AMF may decide to verify the UE location as described in clause\xa05.4.11.4 of TS\xa023.501\xa0[2].', '', '\tThe AMF determines that the message corresponds to a request for a new PDU Session based on that Request Type indicates "initial request" and that the PDU Session ID is not used for any existing PDU Session of the UE. If the NAS message does not contain an S-NSSAI, the AMF determines an S-NSSAI of the Serving PLMN for the requested PDU Session from the current Allowed NSSAI for the UE. If there is only one S-NSSAI in the Allowed NSSAI, this S-NSSAI shall be used. If there is more than one S-NSSAI in the Allowed NSSAI, the S-NSSAI selected is either according to the UE subscription, if the subscription contains only one default S-NSSAI and the corresponding mapped HPLMN S-NSSAI of the Serving PLMN is included in the Allowed NSSAI, or based on operator policy (e.g. also ensures any UE Requested DNN is allowed for the selected S-NSSAI)). When the NAS Message contains an S-NSSAI of the Serving PLMN but it does not contain a DNN, the AMF determines the DNN for the requested PDU Session by selecting the default DNN for this S-NSSAI if the default DNN is present in the UE\'s Subscription Information (or for the corresponding S-NSSAI of the HPLMN, in the case of LBO); otherwise the serving AMF selects a locally configured DNN for this S-NSSAI of the Serving PLMN. If the AMF cannot select an SMF (e.g. the UE requested DNN is not supported by the network, or the UE requested DNN is not in the Subscribed DNN List for the S-NSSAI (or its mapped value for the HPLMN in the case of LBO) and wildcard DNN is not included in the Subscribed DNN list), the AMF shall, based on operator policies received from PCF, either reject the NAS Message containing PDU Session Establishment Request from the UE with an appropriate cause or request PCF to replace the UE requested DNN by a selected DNN. If the DNN requested by the UE is present in the UE subscription information but indicated for replacement in the operator policies received from PCF, the AMF shall request the PCF to perform a DNN replacement to a selected DNN. AMF requests DNN replacement as specified in clause\xa04.16.2.1.1. If the DNN requested by the UE is present in the UE subscription information but not supported by the network and not indicated for replacement in the operator policies received from PCF, the AMF shall reject the NAS Message containing PDU Session Establishment Request from the UE with an appropriate cause value.', '', '\tThe AMF selects an SMF as described in clause\xa06.3.2 of TS\xa023.501\xa0[2] and clause\xa04.3.2.2.3. If the Request Type indicates "Initial request" or the request is due to handover from EPS or from non-3GPP access serving by a different AMF, the AMF stores an association of the S-NSSAI(s), the DNN, the PDU Session ID, the SMF ID as well as the Access Type of the PDU Session. If the AMF determines to replace the S-NSSAI received from the UE with the Alternative S-NSSAI or the AMF receives the Alternative S-NSSAI and the S-NSSAI is by the UE, the AMF selects the SMF based on the Alternative S-NSSAI.', '', '\tDuring registration procedures, the AMF determines the use of the Control Plane CIoT 5GS Optimisation or User Plane CIoT 5GS Optimisation based on UEs indications in the 5G Preferred Network Behaviour, the serving operator policies and the network support of CIoT 5GS optimisations. The AMF selects an SMF that supports Control Plane CIoT 5GS optimisation or User Plane CIoT 5GS Optimisation as described in clause\xa06.3.2 of TS\xa023.501\xa0[2].', '', '\tIf the Request Type is "initial request" and if the Old PDU Session ID indicating the existing PDU Session is also contained in the message, the AMF selects an SMF as described in clause\xa04.3.5.2 and stores an association of the new PDU Session ID, the S-NSSAI(s), the selected SMF ID as well as Access Type of the PDU Session.', '', '\tIf the Request Type indicates "Existing PDU Session", the AMF selects the SMF based on SMF-ID received from UDM. The case where the Request Type indicates "Existing PDU Session" and either the AMF does not recognize the PDU Session ID or the subscription context that the AMF received from UDM during the Registration or Subscription Profile Update Notification procedure does not contain an SMF ID corresponding to the PDU Session ID constitutes an error case. The AMF updates the Access Type stored for the PDU Session.', '', '\tIf the Request Type indicates "Existing PDU Session" referring to an existing PDU Session moved between 3GPP access and non-3GPP access, then if the Serving PLMN S-NSSAI of the PDU Session is present in the Allowed NSSAI of the target access type or Partially Allowed NSSAI, the PDU Session Establishment procedure can be performed in the following cases:', '', '-\tthe SMF ID corresponding to the PDU Session ID and the AMF belong to the same PLMN;', '', '-\tthe SMF ID corresponding to the PDU Session ID belongs to the HPLMN;', '', '\tOtherwise the AMF shall reject the PDU Session Establishment Request with an appropriate reject cause.', '', 'NOTE\xa02:\tThe SMF ID includes the PLMN ID that the SMF belongs to.', '', '\tThe AMF shall reject a request coming from an Emergency Registered UE and the Request Type indicates neither "Emergency Request" nor "Existing Emergency PDU Session". When the Request Type indicates "Emergency Request", the AMF is not expecting any S-NSSAI and DNN value provided by the UE and uses locally configured values instead. The AMF stores the Access Type of the PDU Session.', '', '\tIf the Request Type indicates "Emergency Request" or "Existing Emergency PDU Session", the AMF selects the SMF as described in clause\xa05.16.4 of TS\xa023.501\xa0[2].', '', '\tIf the AMF is running a slice deregistration inactivity timer for the S-NSSAI of the PDU Session, the AMF stops the timer.', '', '3.\tFrom AMF to SMF: Either Nsmf_PDUSession_CreateSMContext Request (SUPI, selected DNN, UE requested DNN, S-NSSAI(s), [Alternative S-NSSAI], PDU Session ID, AMF ID, Request Type, [PCF ID, Same PCF Selection Indication], Priority Access, [Small Data Rate Control Status], N1 SM container (PDU Session Establishment Request), User location information, Access Type, RAT Type, PEI, GPSI, UE presence in LADN service area, Subscription For PDU Session Status Notification, DNN Selection Mode, Trace Requirements, Control Plane CIoT 5GS Optimisation indication, Control Plane Only indicator, Satellite backhaul category, GEO Satellite ID, [PVS FQDN(s) and/or PVS IP address(es), Onboarding Indication], Disaster Roaming service indication) or Nsmf_PDUSession_UpdateSMContext Request (SUPI, DNN, S-NSSAI(s), SM Context ID, AMF ID, Request Type, N1 SM container (PDU Session Establishment Request), User location information, Access Type, RAT type, PEI, Serving Network (PLMN ID, or PLMN ID and NID, see clause\xa05.18 of TS\xa023.501\xa0[2]), Satellite backhaul category, GEO Satellite ID), [PCF binding information, notification of SM Policy Association establishment Indication].', '', '\tIf the AMF does not have an association with an SMF for the PDU Session ID provided by the UE (e.g. when Request Type indicates "initial request"), the AMF invokes the Nsmf_PDUSession_CreateSMContext Request, but if the AMF already has an association with an SMF for the PDU Session ID provided by the UE (e.g. when Request Type indicates "existing PDU Session"), the AMF invokes the Nsmf_PDUSession_UpdateSMContext Request.', '', '\tThe AMF sends the S-NSSAI of the Serving PLMN from the Allowed NSSAI or Partially Allowed NSSAI to the SMF. If the AMF determined to replace the S-NSSAI received from the UE with an Alternative S-NSSAI and the AMF selected the SMF based on the Alternative S-NSSAI in step\xa02, the AMF sends both the S-NSSAI value of the Alternative S-NSSAI and the S-NSSAI value of the S-NSSAI received from the UE to the SMF. If the Alternative S-NSSAI and the S-NSSAI is provided by the UE and the AMF selected the SMF based on the Alternative S-NSSAI in step\xa02, the AMF sends both the S-NSSAI value of the Alternative S-NSSAI and the S-NSSAI value of the S-NSSAI received from the UE to the SMF. For roaming scenario in local breakout (LBO), the AMF also sends the corresponding S-NSSAI of the HPLMN from the Mapping Of Allowed NSSAI or Mapping Of Partially Allowed NSSAI to the SMF. If the the AMF determines to replace the HPLMN S-NSSAI received from the UE with the HPLMN Alternative S-NSSAI or the AMF receives the HPLMN Alternative S-NSSAI and the HPLMN S-NSSAI provided by the UE, the AMF sends both HPLMN S-NSSAI and HPLMN Alternative S-NSSAI to the SMF.', '', "\tThe AMF ID is the UE's GUAMI which uniquely identifies the AMF serving the UE. The AMF forwards the PDU Session ID together with the N1 SM container containing the PDU Session Establishment Request received from the UE. The GPSI shall be included if available at AMF.", '', '\tThe AMF determines Access Type and RAT Type, see clause\xa04.2.2.2.1.', '', '\tThe AMF provides the PEI instead of the SUPI when the UE in limited service state has registered for Emergency services (i.e. Emergency Registered) without providing a SUPI. The PEI is defined in clause\xa05.9.3 of TS\xa023.501\xa0[2]. If the UE in limited service state has registered for Emergency services (i.e. Emergency Registered) with a SUPI but has not been authenticated the AMF indicates that the SUPI has not been authenticated. The SMF determines that the UE has not been authenticated when it does not receive a SUPI for the UE or when the AMF indicates that the SUPI has not been authenticated.', '', '\tIf the AMF determines that the selected DNN corresponds to an LADN then the AMF provides the "UE presence in LADN service area" that indicates if the UE is IN or OUT of the LADN service area. If the AMF enforces the LADN Service Area per LADN DNN and S-NSSAI, then the AMF also provides an indication that "the PDU Session is subject to LADN per LADN DNN and S-NSSAI".', '', '\tIf the Old PDU Session ID is included in step 1 and if the SMF is not to be reallocated, the AMF also includes Old PDU Session ID in the Nsmf_PDUSession_CreateSMContext Request.', '', '\tDNN Selection Mode is determined by the AMF. It indicates whether an explicitly subscribed DNN has been provided by the UE in its PDU Session Establishment Request.', '', '\tThe SMF may use DNN Selection Mode when deciding whether to accept or reject the UE request.', '', '\tWhen the Establishment cause received as part of AN parameters during the Registration procedure or Service Request procedure is associated with priority services (e.g. MPS, MCX), or when the AMF determines the UE has priority subscription (e.g. MPS, MCX) in the UDM, the AMF includes a Message Priority header to indicate priority information. The SMF uses the Message Priority header to determine if the UE request is subject to exemption from NAS level congestion control. Other NFs relay the priority information by including the Message Priority header in service-based interfaces, as specified in TS\xa029.500\xa0[17].', '', '\tIn the local breakout case, if the SMF (in the VPLMN) is not able to process some part of the N1 SM information that Home Routed Roaming is required and the SMF responds to the AMF that it is not the right SMF to handle the N1 SM message by invoking Nsmf_PDUSession_CreateSMContext Response service operation. The SMF includes a proper N11 cause code triggering the AMF to proceed with home routed case. The procedure starts again at step 2 of clause\xa04.3.2.2.2.', '', '\tIn the non-roaming case, for PDU Session with Request Type "initial request", the AMF checks if the PCF Selection Assistance info from the UDM indicates that the same PCF is required for the requested DNN and S-NSSAI and if required, the AMF includes in Nsmf_PDUSession_CreateSMContext Request both the Same PCF Selection Indication and the PCF ID selected by the AMF, this PCF ID identifies the H-PCF,', '', '\tIf PCF Selection Assistance info is not received from the UDM, the AMF may include a PCF ID in the Nsmf_PDUSession_CreateSMContext Request based on operator policies. This PCF ID identifies the H-PCF in the non-roaming case and the V-PCF in the local breakout roaming case.', '', '\tThe AMF includes Trace Requirements if Trace Requirements have been received in subscription data.', '', '\tIf the AMF decides to use the Control Plane CIoT 5GS Optimisation or User Plane CIoT 5GS Optimisation as specified in step\xa02 or to only use Control Plane CIoT 5GS Optimisation for the PDU session as described in clause\xa05.31.4 of TS\xa023.501\xa0[2], the AMF sends the Control Plane CIoT 5GS Optimisation indication or Control Plane Only indicator to the SMF.', '', "\tIf the AMF determines that the RAT type is NB-IoT and the number of PDU Sessions with user plane resources activated for the UE has reached the maximum number of supported user plane resources (0, 1 or 2) based on whether the UE supports UP data transfer and the UE's 5GMM Core Network Capability as described in Clause\xa05.31.19 of TS\xa023.501\xa0[2], the AMF may either reject the PDU Session Establishment Request or continue with the PDU Session establishment and include the Control Plane CIoT 5GS Optimisation indication or Control Plane Only indicator to the SMF.", '', '\tThe AMF includes the latest Small Data Rate Control Status if it has stored it for the PDU Session.', '', '\tIf the RAT type was included in the message, then the SMF stores the RAT type in SM Context.', '', '\tIf the UE supports CE mode B and use of CE mode B is not restricted according to the Enhanced Coverage Restriction information in the UE context in the AMF, then the AMF shall include the extended NAS-SM timer indication. Based on the extended NAS-SM timer indication, the SMF shall use the extended NAS-SM timer setting for the UE as specified in TS\xa024.501\xa0[25].', '', '\tIf the identity of an NWDAF is available to the AMF, the AMF informs the SMF of the NWDAF ID(s) used for UE related Analytics and corresponding Analytics ID(s).', '', '\tIf the AMF, based on configuration, is aware that the UE is accessing over a gNB using satellite backhaul as defined in clause\xa05.43.4 of TS\xa023.501\xa0[2], the AMF determines the type of satellite backhaul category and includes Satellite backhaul category to the SMF.', '', '\tIf the AMF, based on configuration, is aware that the UE is accessing over a gNB using GEO satellite backhaul, the AMF may, based on configuration, include the GEO satellite ID as described in clause\xa05.43.2 of TS\xa023.501\xa0[2].', '', '\tThe AMF may provide the Disaster Roaming service indication as specified in TS\xa023.501\xa0[2].', '', '4.\tIf Session Management Subscription data for corresponding SUPI, DNN and S-NSSAI of the HPLMN is not available, then SMF retrieves the Session Management Subscription data using Nudm_SDM_Get (SUPI, Session Management Subscription data, selected DNN, S-NSSAI of the HPLMN, Serving PLMN ID, [NID]) and subscribes to be notified when this subscription data is modified using Nudm_SDM_Subscribe (SUPI, Session Management Subscription data, selected DNN, S-NSSAI of the HPLMN, Serving PLMN ID, [NID]). UDM may get this information from UDR by Nudr_DM_Query (SUPI, Subscription Data, Session Management Subscription data, selected DNN, S-NSSAI of the HPLMN, Serving PLMN ID, [NID]) and may subscribe to notifications from UDR for the same data by Nudr_DM_subscribe. If a S-NSSAI is subject to network slice usage control and the S-NSSAI is dedicated to a single AF, for a PDU Session for non-roaming subscribers, the UDM may provide a Slice Usage Policy information including whether a network slice is on demand and a PDU Session inactivity timer value as described in clause\xa05.15.15 of TS\xa023.501\xa0[2].', '', '\tThe SMF may use DNN Selection Mode when deciding whether to retrieve the Session Management Subscription data e.g. if the (selected DNN, S-NSSAI of the HPLMN) is not explicitly subscribed, the SMF may use local configuration instead of Session Management Subscription data.', '', '\tIf the Request Type in step 3 indicates "Existing PDU Session" or "Existing Emergency PDU Session" the SMF determines that the request is due to switching between 3GPP access and non-3GPP access or due to handover from EPS. The SMF identifies the existing PDU Session based on the PDU Session ID. In such a case, the SMF does not create a new SM context but instead updates the existing SM context and provides the representation of the updated SM context to the AMF in the response.', '', '\tIf the Request Type is "Initial request" and if the Old PDU Session ID is included in Nsmf_PDUSession_CreateSMContext Request, the SMF identifies the existing PDU Session to be released based on the Old PDU Session ID.', '', '\tSubscription data includes the Allowed PDU Session Type(s), Allowed SSC mode(s), default 5QI and ARP, subscribed Session-AMBR, SMF-Associated external parameters.', '', '\tIP Index or Static IP address/prefix may be included in the subscription data if the UE has subscribed to it.', '', '\tThe SMF checks the validity of the UE request: it checks:', '', '-\tWhether the UE request is compliant with the user subscription and with local policies;', '', '-\t(If the selected DNN corresponds to an LADN), whether the UE is located within the LADN service area based on the "UE presence in LADN service area" indication from the AMF. If the AMF does not provide the "UE presence in LADN service area" indication and the SMF determines that the selected DNN corresponds to a LADN, then the SMF considers that the UE is OUT of the LADN service area.', '', '\tThe SMF determines whether the PDU Session requires redundancy and the SMF determines the RSN as described in clause\xa05.33.2.1 of TS\xa023.501\xa0[2]. If the SMF determines that redundant handling is not allowed or not possible for the given PDU Session, the SMF shall either reject the establishment of the PDU Session or accept the establishment of a PDU session without redundancy handling based on local policy.', '', '\tIf the UE request is considered as not valid, the SMF decides to not accept to establish the PDU Session.', '', 'NOTE\xa03:\tThe SMF can, instead of the Nudm_SDM_Get service operation, use the Nudm_SDM_Subscribe service operation with an Immediate Report Indication that triggers the UDM to immediately return the subscribed data if the corresponding feature is supported by both the SMF and the UDM.', '', '\tFor a Disaster Roaming service, the UDM provides the Session Management Subscription data to the SMF based on the local policy and/or the local configuration as specified in clause\xa05.40.4 of TS\xa023.501\xa0[2].', '', '\tFor an S-NSSAI subject to NSAC and if LBO applies, the SMF in supporting VPLMN stores the applicable NSAC admission mode.', '', '5.\tFrom SMF to AMF: Either Nsmf_PDUSession_CreateSMContext Response (Cause, SM Context ID or N1 SM container (PDU Session Reject (Cause))) or an Nsmf_PDUSession_UpdateSMContext Response depending on the request received in step 3.', '', '\tIf the SMF received Nsmf_PDUSession_CreateSMContext Request in step 3 and the SMF is able to process the PDU Session establishment request, the SMF creates an SM context and responds to the AMF by providing an SM Context ID.', '', '\tIf the UP Security Policy for the PDU Session is determined to have Integrity Protection set to "Required", the SMF may, based on local configuration, decide whether to accept or reject the PDU Session request based on the UE Integrity Protection Maximum Data Rate.', '', 'NOTE\xa04:\tThe SMF can e.g. be configured to reject a PDU Session if the UE Integrity Protection Maximum Data Rate has a very low value, if the services provided by the DN would require higher bitrates.', '', '\tWhen the SMF decides to not accept to establish a PDU Session, the SMF rejects the UE request via NAS SM signalling including a relevant SM rejection cause by responding to the AMF with Nsmf_PDUSession_CreateSMContext Response. The SMF also indicates to the AMF that the PDU Session ID is to be considered as released, the SMF proceeds to step\xa020 and the PDU Session Establishment procedure is stopped.', '', '6.\tOptional Secondary authentication/authorization.', '', '\tIf the Request Type in step 3 indicates "Existing PDU Session", the SMF does not perform secondary authentication/authorization.', '', '\tIf the Request Type received in step 3 indicates "Emergency Request" or "Existing Emergency PDU Session", the SMF shall not perform secondary authentication\\authorization.', '', '\tIf the SMF needs to perform secondary authentication/authorization during the establishment of the PDU Session by a DN-AAA Server as described in clause\xa05.6.6 of TS\xa023.501\xa0[2], the SMF triggers the PDU Session establishment authentication/authorization as described in clause\xa04.3.2.3.', '', '7a.\tIf dynamic PCC is to be used for the PDU Session, the SMF performs PCF selection as described in clause\xa06.3.7.1 of TS\xa023.501\xa0[2]. If the Request Type indicates "Existing PDU Session" or "Existing Emergency PDU Session", the SMF shall use the PCF already selected for the PDU Session.', '', '\tOtherwise, the SMF may apply local policy.', '', '7b.\tThe SMF may perform an SM Policy Association Establishment procedure as defined in clause\xa04.16.4 to establish an SM Policy Association with the PCF and get the default PCC Rules for the PDU Session. The SMF shall include the 3GPP Data Off status if received in step\xa01. The GPSI, PVS FQDN(s) and/or PVS IP address(es) and the Onboarding Indication shall be included if available at SMF in the case of ON-SNPN. If the Request Type in step 3 indicates "Existing PDU Session", the SMF provides information on the Policy Control Request Trigger condition(s) that have been met by an SMF initiated SM Policy Association Modification procedure as defined in clause\xa04.16.5.1. The PCF may provide policy information defined in clause\xa05.2.5.4 (and in TS\xa023.503\xa0[20]) to SMF. The URSP rule enforcement in step\xa01 may be included if SMF receives the URSP rule enforcement from UE as described in clause\xa06.6.2.4 of TS\xa023.503\xa0[20].', '', '\tThe PCF for the UE subscribes to notifications of event "UE reporting Connection Capabilities from associated URSP rule" as defined in clause\xa06.1.3.18 in TS\xa023.503\xa0[20], using Npcf_PolicyAuthorization_Subscribe (EventId set to "UE reporting Connection Capabilities from associated URSP rule", EventFilter set to at least "list of Connection Capabilities") to the PCF for the PDU Session. The PCF for session may notify the PCF for UE about the URSP rule enforcement together with the PDU session parameters that this application associated with by Npcf_PolicyAuthorization_Notify.', '', '\tDuring the SM Policy Association Establishment procedure, if the PCF detects the request relates to SM Policy Association enabling integration with TSN or TSC or Deterministic Networking (as defined in TS\xa023.501\xa0[2] clause\xa05.28) based on local configuration, the PCF may provide policy control request trigger for 5GS Bridge/Router Information as defined in clause\xa06.1.3.5 of TS\xa023.503\xa0[20].', '', '\tThe PCF, based on the Emergency DNN, sets the ARP of the PCC rules to a value that is reserved for Emergency services as described in TS\xa023.503\xa0[20].',</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>0.1950647514900221</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.9.1.2.2	Xn based inter NG-RAN handover without User Plane function re-allocation&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>['', 'This procedure is used to hand over a UE from a source NG-RAN to target NG-RAN using Xn when the AMF is unchanged and the SMF decides to keep the existing UPF. The UPF referred in this clause\xa04.9.1.2.2 is the UPF which terminates N3 interface in the 5GC for non-roaming or local breakout roaming scenario, V-UPF which terminates N3 interface in 5GC for home routed roaming scenario. The SMF referred in this clause\xa04.9.1.2.2 is the V-SMF for home routed roaming scenario. The presence of IP connectivity between the Source UPF and Target NG-RAN is assumed.', '', 'The call flow is shown in figure\xa04.9.1.2.2-1.', '', '----media/image72.emf----', '', 'Figure\xa04.9.1.2.2-1: Xn based inter NG-RAN handover without UPF re-allocation', '', '1a.\tIf the PLMN has configured secondary RAT usage reporting, the source NG-RAN node during the handover execution phase may provide RAN usage data Report (N2 SM Information (Secondary RAT usage data), Handover Flag, Source to Target transparent container) to the AMF. The source NG-RAN node shall provide this only when the Target NG-RAN has confirmed handover over Xn interface. The Handover Flag indicates to the AMF that it should buffer the N2 SM Information containing the usage data report before forwarding it.', '', "\tIf the source NG RAN and target NG RAN support RACS as defined in TS\xa023.501\xa0[2], the source NG-RAN provides the UE's UE Radio Capability ID to the target NG-RAN. If the source NG-RAN has knowledge that the target NG-RAN might not have a local copy of the Radio Capability corresponding to the UE Radio Capability ID (i.e. because the source NG-RAN had itself to retrieve the UE's Radio Capability from the AMF) then the source NG-RAN may also send some or all of the UE's Radio Capability to the target NG-RAN (the size limit based on local configuration) in Xn signalling as defined in TS\xa038.423\xa0[72] . In the case of inter-PLMN handover, when the source and target NG-RAN support RACS as defined in TS\xa023.501\xa0[2] and the source NG-RAN determines based on local configuration that the target PLMN does not support the UE Radio Capability ID assigned by the source PLMN, then the source NG-RAN shall provide the UE radio access capabilities to the target NG-RAN and shall not send the UE Radio Capability ID. If, as permitted in TS\xa038.423\xa0[72], the target NG-RAN during the handover preparation received the UE radio access capabilities but did not receive the UE Radio Capability ID, NG-RAN shall proceed with handover using the received UE radio access capabilities. If the target NG-RAN received both the UE radio access capabilities and the UE Radio Capability ID, then the target NG-RAN shall use any locally stored UE radio access capability information corresponding to the UE Radio Capability ID. If none are stored locally, the target NG-RAN may request the full UE radio access capability information from the core network. If the full UE radio access capability information is not promptly received from the core network, or the target NG-RAN chooses not to request them, then the target NG-RAN shall proceed with the UE radio access capabilities sent by the source NG-RAN. The target NG-RAN shall not use the UE radio access capability information received from the source NG-RAN for any other UE with the same the UE Radio Capability ID.", '', '1b.\tTarget NG-RAN to AMF: N2 Path Switch Request (List of PDU Sessions To Be Switched with N2 SM Information, List of PDU Sessions that failed to be established with the failure cause given in the N2 SM information element, UE Location Information)', '', '\tThe Target NG-RAN sends an N2 Path Switch Request message to an AMF to inform that the UE has moved to a new target cell and provides a List Of PDU Sessions To Be Switched. AN Tunnel Info for each PDU Session to be switched is included in the N2 SM Information.', '', '\tIf redundant transmission is performed for one or more QoS Flows in the PDU Session, two AN Tunnel Info are provided by the Target NG-RAN and the Target NG-RAN indicates to the SMF one of the AN Tunnel Info is used as the redundancy tunnel of the PDU Session as described in clause\xa05.33.2.2 of TS\xa023.501\xa0[2]. If only one AN Tunnel Info is provided by the Target NG-RAN for the PDU session, the SMF may release these QoS Flows by triggering PDU Session Modification procedure as specified in clause\xa04.3.3 after the handover procedure.', '', '\tThe serving PLMN ID is included in the message. The target NG-RAN shall include the PDU Session in the PDU Sessions Rejected list:', '', '-\tIf none of the QoS Flows of a PDU Session are accepted by the Target NG-RAN; or', '', '-\tIf the corresponding network slice is not supported in the Target NG-RAN; or', '', '-\tWhen the NG-RAN cannot set up user plane resources fulfilling the User Plane Security Enforcement with a value Required, the NG-RAN rejects the establishment of user plane resources for the PDU Session.', '', '\tIf the NG-RAN cannot set up user plane resources fulfilling the User Plane Security Enforcement with a value Preferred, the NG-RAN establishes the user plane resources for the PDU session and shall include the PDU Session in the PDU Sessions Modified list.', '', '\tPDU Sessions Rejected contains an indication of whether the PDU session was rejected because User Plane Security Enforcement is not supported in the Target NG-RAN. Depending on the type of target cell, the Target NG-RAN includes appropriate information in this message.', '', '\tFor the PDU Sessions to be switched to the Target NG-RAN, the N2 Path Switch Request message shall include the list of accepted QoS Flows. For each QoS Flow accepted with an Alternative QoS Profile as specified in TS\xa023.501\xa0[2], the N2 SM Information shall include a reference to the fulfilled Alternative QoS Profile.', '', '2.\tAMF to SMF: Nsmf_PDUSession_UpdateSMContext Request (N2 SM information received from T-RAN in step\xa01b and N2 SM Information from source NG-RAN (Secondary RAT usage data), UE Location Information, UE presence in LADN service area). The N2 SM Information here from source NG-RAN is the one buffered at step\xa01a when applicable.', '', '\tThe AMF sends N2 SM information by invoking the Nsmf_PDUSession_UpdateSMContext request service operation for each PDU Session in the lists of PDU Sessions received in the N2 Path Switch Request.', '', '\tThe Nsmf_PDUSession_UpdateSMContext Request contains either an indication that the PDU Session Is To Be Switched (together with information on the N3 addressing to use and on the transferred QoS flows) or an indication that the PDU Session is to be Rejected (together with a rejection cause).', '', '\tIf the AMF, based on configuration, as described in clause\xa05.43.4 of TS\xa023.501\xa0[2], is aware that satellite backhaul category has changed due to the handover and needs to be updated to the SMF, the AMF includes the new satellite backhaul category and indicates the satellite backhaul category change as described in clause\xa05.43.4 of TS\xa023.501\xa0[2].', '', '\tIf the AMF, based on configuration, as described in clause\xa05.43.2 of TS\xa023.501\xa0[2], is aware that the UE is accessing over a gNB using GEO satellite backhaul and GEO Satellite ID needs to be updated to the SMF, the AMF may include the latest GEO Satellite ID as described in clause\xa05.43.2 of TS\xa023.501\xa0[2].', '', '\tFor a PDU Sessions to be switched to the Target NG-RAN, upon receipt of the Nsmf_PDUSession_UpdateSMContext request, the SMF determines whether the existing UPF can continue to serve the UE. If the existing UPF cannot continue to serve the UE, steps 3-11 of clause\xa04.9.1.2.3 or 4.9.1.2.4 are performed depending on whether the existing UPF is a PDU Session Anchor. Otherwise, the following steps 3 to 6 are performed if the existing UPFs can continue to serve the PDU Session.', '', '\tIn the case that the AMF determines that the PDU Session is related to a LADN, then the AMF provides the "UE presence in LADN service area" to the SMF. If the AMF does not provide the "UE presence in LADN service area" indication and the SMF determines that the DNN corresponds to a LADN, then the SMF considers that the UE is OUT of the LADN service area. The SMF takes actions for the LADN PDU Session as defined in clause\xa05.6.5 of TS\xa023.501\xa0[2] based on the "UE presence in LADN service area" indication.', '', '\tIf a PDU Session is rejected by the Target NG-RAN with an indication that the PDU session was rejected because User Plane Security Enforcement is not supported in the Target NG-RAN and the User Plane Enforcement Policy indicates "Required" as described in clause\xa05.10.3 of TS\xa023.501\xa0[2], the SMF triggers the release of this PDU Session. In all other cases of PDU Session rejection, the SMF can decide whether to release the PDU Session or to deactivate the UP connection of this PDU Session.', '', '\tIf some of the QoS Flows of a PDU Session are not accepted by the Target NG-RAN, the SMF shall initiate the PDU Session Modification procedure to remove the non-accepted QoS Flows from the PDU Session(s) after the handover procedure is completed.', '', '\tFor the PDU Session(s) that do not have active N3 UP connections before handover procedure, the SMF(s) keep the inactive status after handover procedure.', '', '\tIf the UE moves into a non-Allowed Area, the AMF also notifies via Namf_EventExposure_Notify to each NF Consumer (e.g. SMFs of the established PDU Sessions) which has subscribed for UE reachability event, that the UE is only reachable for regulatory prioritized services. The SMF then deactivates the PDU session if this PDU Session is not for emergency service.', '', '3.\tSMF to UPF: N4 Session Modification Request (AN Tunnel Info)', '', '\tFor PDU Sessions that are modified by the Target NG-RAN, the SMF sends an N4 Session Modification Request message to the UPF. The SMF may notify the UPF that originated the Data Notification to discard downlink data for the PDU Sessions and/or to not provide further Data Notification messages.', '', '\tDepending on the network deployment, the CN Tunnel Info of UPF used for connection to Target NG-RAN and connection to Source NG-RAN may be different, e.g. due to Source and Target NG-RAN are in different IP domains. In this case the SMF may ask the UPF to allocate new CN Tunnel Info, providing the target Network Instance.', '', '4.\tUPF to SMF: N4 Session Modification Response (CN Tunnel Info)', '', '\tFor the PDU Sessions that are switched, the UPF returns an N4 Session Modification Response message to the SMF after requested PDU Sessions are switched. Tunnel identifiers for UL traffic are included only for PDU Sessions whose user plane resources are not being released and was requested by the SMF. If redundant transmission is performed for one or more QoS Flows of a PDU Session and different CN Tunnel Info were requested by the SMF, the UPF allocates two different CN Tunnel Info and indicates the SMF that one CN Tunnel Info is used as the redundancy tunnel of the PDU session as described in clause\xa05.33.2.2 of TS\xa023.501\xa0[2]. For the PDU Sessions that are deactivated, the UPF returns an N4 Session Modification Response message to the SMF after the N3 (R)AN tunnel information is released.', '', '5.\tIn order to assist the reordering function in the Target NG-RAN, the UPF (as specified in clause\xa05.8.2.9 of TS\xa023.501\xa0[2]) sends one or more "end marker" packets for each N3 tunnel on the old path immediately after switching the path. The UPF starts sending downlink packets to the Target NG-RAN.', '', '6.\tSMF to AMF: Nsmf_PDUSession_UpdateSMContext Response (N2 SM information)', '', '\tThe SMF sends an Nsmf_PDUSession_UpdateSMContext response (N2 SM Information (CN Tunnel Info, updated CN PDB for the accepted QoS Flows, Updated TSCAIs for the accepted QoS Flows)) to the AMF for PDU Sessions which have been switched successfully. The CN Tunnel Info of UPF send to AMF is used to setup N3 tunnel. If redundant transmission is performed for one or more QoS Flows of a PDU Session, two CN Tunnel Info are sent and the SMF indicates to the Target NG-RAN one of the CN Tunnel Info is used as the redundancy tunnel of the PDU Session as described in clause\xa05.33.2.2 of TS\xa023.501\xa0[2]. The SMF sends an Nsmf_PDUSession_UpdateSMContext response without including the CN Tunnel Info to the AMF for the PDU Sessions for which user plane resources are deactivated or released and then the SMF releases the PDU Session(s) which is to be released using a separate procedure as defined in clause\xa04.3.4. For each accepted GBR QoS Flow of Delay-critical resource type, the dynamic CN PDB and TSCAI may be updated and sent to the Target NG-RAN by the SMF. The SMF may update the CN PDB and TSCAI in the response or using a separate PDU Session Modification procedure, based on local configuration.', '', '\tIf the Source NG-RAN does not support Alternative QoS Profiles (see TS\xa023.501\xa0[2]) and the Target NG-RAN supports them, the SMF sends the Alternative QoS Profiles (see TS\xa023.501\xa0[2]) to the Target NG-RAN on a per QoS Flow basis, if available.', '', 'NOTE:\tStep 6 can occur any time after receipt of N4 Session Modification Response at the SMF.', '', '7.\tAMF to NG-RAN: N2 Path Switch Request Ack (N2 SM Information, Failed PDU Sessions, UE Radio Capability ID).', '', '\tOnce the Nsmf_PDUSession_UpdateSMContext response is received from all the SMFs, the AMF aggregates received CN Tunnel Info and sends this aggregated information as a part of N2 SM Information along with the Failed PDU Sessions in N2 Path Switch Request Ack to the Target NG-RAN. If none of the requested PDU Sessions have been switched successfully, the AMF shall send an N2 Path Switch Request Failure message to the Target NG-RAN.', '', '\tIf the UE Radio Capability ID is included in the N2 Path Switch Request Ack message, when there is no corresponding UE radio capabilities set for UE Radio Capability ID at the target NR-RAN, the target NG-RAN shall request the AMF to provide the UE radio capabilities set corresponding to UE Radio Capability ID to the target NG-RAN.', '', '8.\tBy sending a Release Resources message to the Source NG-RAN, the Target NG-RAN confirms success of the handover. It then triggers the release of resources with the Source NG-RAN.', '', '9.\t[Conditional] The UE may initiate Mobility Registration Update procedure if one of the triggers of registration procedure applies as described in clause\xa04.2.2.2.2. In this case, only steps 1, 2, 3, 17 and 21 in clause\xa04.2.2.2.2 are performed.', '', 'For the mobility related events as described in clause\xa04.15.4, the AMF invokes the Namf_EventExposure_Notify service operation.', '', 'Upon reception of the Namf_EventExposure_Notify with an indication that UE is reachable only for regulatory prioritized service, the SMF deactivates the PDU Session if the service of the PDU Session is not regulatory prioritized. For home routed roaming case, the V-SMF triggers the deactivation of the PDU Session, in addition, the H-SMF refrains from sending downlink signalling if the signalling is not related to regulatory prioritized service upon receiving the notification.', '']</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1977010197575901</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>&lt;h5&gt;4.9.1.3.2	Preparation phase&lt;/h5&gt;</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>23502-i20_l.docx</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>LR2_payload</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>['', '----media/image75.emf----', '', 'Figure 4.9.1.3.2-1: Inter NG-RAN node N2 based handover, Preparation phase', '', '1.\tS-RAN to S-AMF: Handover Required (Target ID, Source to Target transparent container, SM N2 info list, PDU Session IDs, intra system handover indication).', '', 'NOTE\xa01:\tWhen applicable the message includes the selected NID, see TS\xa038.413\xa0[10] for the IE that includes the selected NID. The T-AMF, ensures that the selected NID is forwarded to SMF.', '', '\tSource to Target transparent container includes NG-RAN information created by S-RAN to be used by T-RAN and is transparent to 5GC. It also contains for each PDU session the corresponding QoS flows/DRBs information subject to data forwarding. It may also contain DAPS Information if DAPS handover is supported by S-RAN and S-AMF and DAPS handover is requested for one or more DRBs as described in TS\xa038.300\xa0[9].', '', '\tAll PDU Sessions handled by S-RAN (i.e. all existing PDU Sessions with active UP connections) shall be included in the Handover Required message, indicating which of those PDU Session(s) are requested by S-RAN to handover. The SM N2 info includes Direct Forwarding Path Availability if direct data forwarding is available.', '', '\tDirect Forwarding Path Availability indicates whether direct forwarding is available from the S-RAN to the T-RAN. This indication from S-R